--- a/４．【アイテ゛アシート】_神戸高専B_.xlsx
+++ b/４．【アイテ゛アシート】_神戸高専B_.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fsota\OneDrive\ドキュメント\GitHub\2023honrobo-document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F59F71-1296-4B83-AADB-34FA16EB3135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32AD235F-5B83-4BB6-A6AE-29E5506B127C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" tabRatio="703" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="703" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="93">
   <si>
     <t>高専名</t>
     <rPh sb="0" eb="2">
@@ -917,6 +917,38 @@
   </si>
   <si>
     <t xml:space="preserve">24Vリポバッテリー×２,0.705Lエアータンク×20 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ルール発表～5月12日(金)・・・アイディア出し
+5月13日(土)～6月19日(月)・・・試作期間
+＊5月24日(水)～6月6日(火)・・・前期中間試験
+6月29日(木)・・・「アイデアシート」「エントリーシート」「地区大会参加申し込み」「安全対策チェックシート①」提出締め切り
+8月28日(月）・・・「エントリーシート」・「アイデアシート（最終版）」提出締め切り
+9月20日(水）から・・・各地区ごと「チーム紹介シート」・「安全対策チェックシート②」提出締め切り
+10月1日(日）から・・各地区ごと地区大会実施</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロボットから動力を伝達し、桑の形をしている部分を回す</t>
+    <rPh sb="6" eb="8">
+      <t>ドウリョク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>デンタツ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>クワ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カタチ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>マワ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1526,7 +1558,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="193">
+  <cellXfs count="194">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1669,6 +1701,44 @@
     <xf numFmtId="0" fontId="43" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1700,105 +1770,175 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1825,18 +1965,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1856,99 +1984,6 @@
     <xf numFmtId="0" fontId="39" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2042,10 +2077,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
@@ -2094,41 +2125,46 @@
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2144,49 +2180,49 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4967,6 +5003,56 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>114822</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>240082</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>171204</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>280756</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A5A1E0C-067D-AA54-4088-AF9C575ACE92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="114822" y="1200411"/>
+          <a:ext cx="6006245" cy="4289085"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5078,6 +5164,56 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>20320</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>193041</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>345171</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>304801</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AAD24B2-E894-8498-1B93-7B7570D97FFB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20320" y="1158241"/>
+          <a:ext cx="6573251" cy="4744720"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5247,15 +5383,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>161924</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>238125</xdr:rowOff>
+      <xdr:colOff>238124</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>100965</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>57149</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>228602</xdr:rowOff>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5270,8 +5406,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6448424" y="809625"/>
-          <a:ext cx="5991225" cy="2657477"/>
+          <a:off x="6440804" y="1053465"/>
+          <a:ext cx="5869305" cy="2947035"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6214,28 +6350,28 @@
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="5.88671875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="16" width="5.625" customWidth="1"/>
+    <col min="1" max="16" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="94.5" customHeight="1">
-      <c r="A1" s="62"/>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
+      <c r="A1" s="54"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1">
       <c r="A2" s="4"/>
@@ -6254,134 +6390,134 @@
       <c r="N2" s="4"/>
     </row>
     <row r="3" spans="1:16" ht="22.5" customHeight="1">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="63"/>
-      <c r="O3" s="63"/>
-      <c r="P3" s="63"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="55"/>
     </row>
     <row r="4" spans="1:16" ht="22.5" customHeight="1">
-      <c r="A4" s="63"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="63"/>
-      <c r="M4" s="63"/>
-      <c r="N4" s="63"/>
-      <c r="O4" s="63"/>
-      <c r="P4" s="63"/>
+      <c r="A4" s="55"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="55"/>
     </row>
     <row r="5" spans="1:16" ht="22.5" customHeight="1">
-      <c r="A5" s="63"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
-      <c r="L5" s="63"/>
-      <c r="M5" s="63"/>
-      <c r="N5" s="63"/>
-      <c r="O5" s="63"/>
-      <c r="P5" s="63"/>
+      <c r="A5" s="55"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="55"/>
+      <c r="O5" s="55"/>
+      <c r="P5" s="55"/>
     </row>
     <row r="6" spans="1:16" ht="22.5" customHeight="1">
-      <c r="A6" s="63"/>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="63"/>
-      <c r="L6" s="63"/>
-      <c r="M6" s="63"/>
-      <c r="N6" s="63"/>
-      <c r="O6" s="63"/>
-      <c r="P6" s="63"/>
+      <c r="A6" s="55"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="55"/>
+      <c r="M6" s="55"/>
+      <c r="N6" s="55"/>
+      <c r="O6" s="55"/>
+      <c r="P6" s="55"/>
     </row>
     <row r="7" spans="1:16" ht="22.5" customHeight="1">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="64"/>
-      <c r="K7" s="64"/>
-      <c r="L7" s="64"/>
-      <c r="M7" s="64"/>
-      <c r="N7" s="64"/>
-      <c r="O7" s="64"/>
-      <c r="P7" s="64"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="56"/>
+      <c r="P7" s="56"/>
     </row>
     <row r="8" spans="1:16" ht="22.5" customHeight="1">
-      <c r="A8" s="64"/>
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="64"/>
-      <c r="L8" s="64"/>
-      <c r="M8" s="64"/>
-      <c r="N8" s="64"/>
-      <c r="O8" s="64"/>
-      <c r="P8" s="64"/>
+      <c r="A8" s="56"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="56"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="56"/>
+      <c r="O8" s="56"/>
+      <c r="P8" s="56"/>
     </row>
     <row r="9" spans="1:16" ht="22.5" customHeight="1">
-      <c r="A9" s="64"/>
-      <c r="B9" s="64"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="64"/>
-      <c r="J9" s="64"/>
-      <c r="K9" s="64"/>
-      <c r="L9" s="64"/>
-      <c r="M9" s="64"/>
-      <c r="N9" s="64"/>
-      <c r="O9" s="64"/>
-      <c r="P9" s="64"/>
+      <c r="A9" s="56"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="56"/>
+      <c r="P9" s="56"/>
     </row>
     <row r="10" spans="1:16" ht="24" customHeight="1">
       <c r="A10" s="5"/>
@@ -6400,26 +6536,26 @@
       <c r="N10" s="5"/>
     </row>
     <row r="11" spans="1:16" ht="30" customHeight="1">
-      <c r="A11" s="55" t="s">
+      <c r="A11" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="55"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="61" t="s">
+      <c r="B11" s="57"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="F11" s="61"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="61"/>
-      <c r="J11" s="61"/>
-      <c r="K11" s="61"/>
-      <c r="L11" s="61"/>
-      <c r="M11" s="61"/>
-      <c r="N11" s="61"/>
-      <c r="O11" s="61"/>
-      <c r="P11" s="61"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="52"/>
+      <c r="P11" s="52"/>
     </row>
     <row r="12" spans="1:16" ht="15" customHeight="1">
       <c r="A12" s="21"/>
@@ -6438,24 +6574,24 @@
       <c r="N12" s="1"/>
     </row>
     <row r="13" spans="1:16" ht="30" customHeight="1">
-      <c r="A13" s="55" t="s">
+      <c r="A13" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="55"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="61"/>
-      <c r="L13" s="61"/>
-      <c r="M13" s="61"/>
-      <c r="N13" s="61"/>
-      <c r="O13" s="61"/>
-      <c r="P13" s="61"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="52"/>
+      <c r="O13" s="52"/>
+      <c r="P13" s="52"/>
     </row>
     <row r="14" spans="1:16" ht="15" customHeight="1">
       <c r="B14" s="23"/>
@@ -6473,26 +6609,26 @@
       <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:16" ht="30" customHeight="1">
-      <c r="A15" s="55" t="s">
+      <c r="A15" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="55"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="61" t="s">
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="61"/>
-      <c r="J15" s="61"/>
-      <c r="K15" s="61"/>
-      <c r="L15" s="61"/>
-      <c r="M15" s="61"/>
-      <c r="N15" s="61"/>
-      <c r="O15" s="61"/>
-      <c r="P15" s="61"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="52"/>
+      <c r="O15" s="52"/>
+      <c r="P15" s="52"/>
     </row>
     <row r="16" spans="1:16" ht="15" customHeight="1">
       <c r="B16" s="23"/>
@@ -6510,22 +6646,22 @@
       <c r="N16" s="1"/>
     </row>
     <row r="17" spans="1:16" ht="30" customHeight="1">
-      <c r="A17" s="56"/>
-      <c r="B17" s="56"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="66"/>
-      <c r="J17" s="66"/>
-      <c r="K17" s="66"/>
-      <c r="L17" s="66"/>
-      <c r="M17" s="66"/>
-      <c r="N17" s="66"/>
-      <c r="O17" s="66"/>
-      <c r="P17" s="66"/>
+      <c r="A17" s="67"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="53"/>
+      <c r="O17" s="53"/>
+      <c r="P17" s="53"/>
     </row>
     <row r="18" spans="1:16" ht="24" customHeight="1">
       <c r="D18" s="23"/>
@@ -6541,11 +6677,11 @@
       <c r="N18" s="23"/>
     </row>
     <row r="19" spans="1:16" ht="24" customHeight="1">
-      <c r="A19" s="57" t="s">
+      <c r="A19" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="57"/>
-      <c r="C19" s="57"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
       <c r="D19" s="23"/>
       <c r="E19" s="23"/>
       <c r="F19" s="23"/>
@@ -6557,25 +6693,25 @@
     </row>
     <row r="20" spans="1:16" ht="24" customHeight="1">
       <c r="A20" s="23"/>
-      <c r="B20" s="58" t="s">
+      <c r="B20" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="59"/>
-      <c r="D20" s="61" t="s">
+      <c r="C20" s="49"/>
+      <c r="D20" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="61"/>
-      <c r="J20" s="61"/>
-      <c r="K20" s="61"/>
-      <c r="L20" s="61"/>
-      <c r="M20" s="61"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="61"/>
-      <c r="P20" s="61"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="52"/>
+      <c r="O20" s="52"/>
+      <c r="P20" s="52"/>
     </row>
     <row r="21" spans="1:16" ht="15" customHeight="1">
       <c r="B21" s="2"/>
@@ -6593,25 +6729,25 @@
     </row>
     <row r="22" spans="1:16" ht="24" customHeight="1">
       <c r="A22" s="23"/>
-      <c r="B22" s="60" t="s">
+      <c r="B22" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="60"/>
-      <c r="D22" s="61" t="s">
+      <c r="C22" s="51"/>
+      <c r="D22" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="E22" s="61"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="61"/>
-      <c r="H22" s="61"/>
-      <c r="I22" s="61"/>
-      <c r="J22" s="61"/>
-      <c r="K22" s="61"/>
-      <c r="L22" s="61"/>
-      <c r="M22" s="61"/>
-      <c r="N22" s="61"/>
-      <c r="O22" s="61"/>
-      <c r="P22" s="61"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="52"/>
+      <c r="O22" s="52"/>
+      <c r="P22" s="52"/>
     </row>
     <row r="23" spans="1:16" ht="15" customHeight="1">
       <c r="B23" s="2"/>
@@ -6629,23 +6765,23 @@
     </row>
     <row r="24" spans="1:16" ht="24" customHeight="1">
       <c r="A24" s="23"/>
-      <c r="B24" s="59" t="s">
+      <c r="B24" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="59"/>
-      <c r="D24" s="61"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="61"/>
-      <c r="J24" s="61"/>
-      <c r="K24" s="61"/>
-      <c r="L24" s="61"/>
-      <c r="M24" s="61"/>
-      <c r="N24" s="61"/>
-      <c r="O24" s="61"/>
-      <c r="P24" s="61"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="52"/>
+      <c r="N24" s="52"/>
+      <c r="O24" s="52"/>
+      <c r="P24" s="52"/>
     </row>
     <row r="25" spans="1:16" ht="15" customHeight="1">
       <c r="B25" s="2"/>
@@ -6663,32 +6799,32 @@
     </row>
     <row r="26" spans="1:16" ht="24" customHeight="1">
       <c r="A26" s="23"/>
-      <c r="B26" s="59" t="s">
+      <c r="B26" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="59"/>
-      <c r="D26" s="61"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="61"/>
-      <c r="J26" s="61"/>
-      <c r="K26" s="61"/>
-      <c r="L26" s="61"/>
-      <c r="M26" s="61"/>
-      <c r="N26" s="61"/>
-      <c r="O26" s="61"/>
-      <c r="P26" s="61"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="52"/>
+      <c r="L26" s="52"/>
+      <c r="M26" s="52"/>
+      <c r="N26" s="52"/>
+      <c r="O26" s="52"/>
+      <c r="P26" s="52"/>
     </row>
     <row r="27" spans="1:16" ht="24" customHeight="1"/>
     <row r="28" spans="1:16" ht="24" customHeight="1">
-      <c r="A28" s="57" t="s">
+      <c r="A28" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="57"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
       <c r="E28" s="23"/>
       <c r="F28" s="23"/>
       <c r="G28" s="23"/>
@@ -6700,25 +6836,25 @@
     </row>
     <row r="29" spans="1:16" ht="24" customHeight="1">
       <c r="A29" s="23"/>
-      <c r="B29" s="58" t="s">
+      <c r="B29" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="59"/>
-      <c r="D29" s="61" t="s">
+      <c r="C29" s="49"/>
+      <c r="D29" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="E29" s="61"/>
-      <c r="F29" s="61"/>
-      <c r="G29" s="61"/>
-      <c r="H29" s="61"/>
-      <c r="I29" s="61"/>
-      <c r="J29" s="61"/>
-      <c r="K29" s="61"/>
-      <c r="L29" s="61"/>
-      <c r="M29" s="61"/>
-      <c r="N29" s="61"/>
-      <c r="O29" s="61"/>
-      <c r="P29" s="61"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="52"/>
+      <c r="K29" s="52"/>
+      <c r="L29" s="52"/>
+      <c r="M29" s="52"/>
+      <c r="N29" s="52"/>
+      <c r="O29" s="52"/>
+      <c r="P29" s="52"/>
     </row>
     <row r="30" spans="1:16" ht="15" customHeight="1">
       <c r="B30" s="23"/>
@@ -6736,25 +6872,25 @@
     </row>
     <row r="31" spans="1:16" ht="24" customHeight="1">
       <c r="A31" s="23"/>
-      <c r="B31" s="65" t="s">
+      <c r="B31" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="60"/>
-      <c r="D31" s="61" t="s">
+      <c r="C31" s="51"/>
+      <c r="D31" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="E31" s="61"/>
-      <c r="F31" s="61"/>
-      <c r="G31" s="61"/>
-      <c r="H31" s="61"/>
-      <c r="I31" s="61"/>
-      <c r="J31" s="61"/>
-      <c r="K31" s="61"/>
-      <c r="L31" s="61"/>
-      <c r="M31" s="61"/>
-      <c r="N31" s="61"/>
-      <c r="O31" s="61"/>
-      <c r="P31" s="61"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="52"/>
+      <c r="J31" s="52"/>
+      <c r="K31" s="52"/>
+      <c r="L31" s="52"/>
+      <c r="M31" s="52"/>
+      <c r="N31" s="52"/>
+      <c r="O31" s="52"/>
+      <c r="P31" s="52"/>
     </row>
     <row r="32" spans="1:16" ht="24" customHeight="1">
       <c r="A32" s="23"/>
@@ -6775,42 +6911,42 @@
     <row r="33" spans="1:15" ht="15" customHeight="1">
       <c r="A33" s="25"/>
       <c r="B33" s="25"/>
-      <c r="C33" s="49">
+      <c r="C33" s="61">
         <v>6</v>
       </c>
-      <c r="D33" s="51" t="s">
+      <c r="D33" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="E33" s="53">
+      <c r="E33" s="65">
         <v>27</v>
       </c>
-      <c r="F33" s="46" t="s">
+      <c r="F33" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="G33" s="47"/>
-      <c r="H33" s="47"/>
-      <c r="I33" s="47"/>
-      <c r="J33" s="47"/>
-      <c r="K33" s="47"/>
-      <c r="L33" s="47"/>
-      <c r="M33" s="47"/>
-      <c r="N33" s="47"/>
+      <c r="G33" s="59"/>
+      <c r="H33" s="59"/>
+      <c r="I33" s="59"/>
+      <c r="J33" s="59"/>
+      <c r="K33" s="59"/>
+      <c r="L33" s="59"/>
+      <c r="M33" s="59"/>
+      <c r="N33" s="59"/>
       <c r="O33" s="24"/>
     </row>
     <row r="34" spans="1:15" ht="15" customHeight="1">
       <c r="A34" s="25"/>
-      <c r="C34" s="50"/>
-      <c r="D34" s="52"/>
-      <c r="E34" s="54"/>
-      <c r="F34" s="48"/>
-      <c r="G34" s="48"/>
-      <c r="H34" s="48"/>
-      <c r="I34" s="48"/>
-      <c r="J34" s="48"/>
-      <c r="K34" s="48"/>
-      <c r="L34" s="48"/>
-      <c r="M34" s="48"/>
-      <c r="N34" s="48"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="64"/>
+      <c r="E34" s="66"/>
+      <c r="F34" s="60"/>
+      <c r="G34" s="60"/>
+      <c r="H34" s="60"/>
+      <c r="I34" s="60"/>
+      <c r="J34" s="60"/>
+      <c r="K34" s="60"/>
+      <c r="L34" s="60"/>
+      <c r="M34" s="60"/>
+      <c r="N34" s="60"/>
       <c r="O34" s="24"/>
     </row>
     <row r="35" spans="1:15" ht="15" customHeight="1">
@@ -6820,19 +6956,6 @@
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="29">
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="E13:P13"/>
-    <mergeCell ref="E15:P15"/>
-    <mergeCell ref="E17:P17"/>
-    <mergeCell ref="D20:P20"/>
-    <mergeCell ref="D22:P22"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A3:P6"/>
-    <mergeCell ref="A7:P9"/>
-    <mergeCell ref="E11:P11"/>
-    <mergeCell ref="A15:D15"/>
     <mergeCell ref="F33:N34"/>
     <mergeCell ref="C33:C34"/>
     <mergeCell ref="D33:D34"/>
@@ -6849,6 +6972,19 @@
     <mergeCell ref="D26:P26"/>
     <mergeCell ref="D29:P29"/>
     <mergeCell ref="D31:P31"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A3:P6"/>
+    <mergeCell ref="A7:P9"/>
+    <mergeCell ref="E11:P11"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="E13:P13"/>
+    <mergeCell ref="E15:P15"/>
+    <mergeCell ref="E17:P17"/>
+    <mergeCell ref="D20:P20"/>
+    <mergeCell ref="D22:P22"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="C33:C34 E33:E34">
@@ -6885,124 +7021,124 @@
       <selection activeCell="A25" sqref="A25:P33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.5" defaultRowHeight="25.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="5.44140625" defaultRowHeight="25.5" customHeight="1"/>
   <cols>
-    <col min="1" max="16" width="5.625" customWidth="1"/>
+    <col min="1" max="16" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="30" customHeight="1">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-    </row>
-    <row r="2" spans="1:16" ht="24.95" customHeight="1"/>
-    <row r="3" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A3" s="70" t="s">
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+    </row>
+    <row r="2" spans="1:16" ht="24.9" customHeight="1"/>
+    <row r="3" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A3" s="83" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="82" t="s">
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
-    </row>
-    <row r="4" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A4" s="68" t="s">
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="82"/>
+    </row>
+    <row r="4" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68" t="s">
+      <c r="B4" s="79"/>
+      <c r="C4" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68" t="s">
+      <c r="D4" s="79"/>
+      <c r="E4" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68" t="s">
+      <c r="F4" s="79"/>
+      <c r="G4" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68" t="s">
+      <c r="H4" s="79"/>
+      <c r="I4" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="68"/>
-      <c r="K4" s="68" t="s">
+      <c r="J4" s="79"/>
+      <c r="K4" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="68"/>
+      <c r="L4" s="79"/>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
     </row>
-    <row r="5" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A5" s="67">
+    <row r="5" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A5" s="84">
         <v>4</v>
       </c>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67">
+      <c r="B5" s="84"/>
+      <c r="C5" s="84">
         <v>1</v>
       </c>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67">
+      <c r="D5" s="84"/>
+      <c r="E5" s="84">
         <v>3</v>
       </c>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67">
+      <c r="F5" s="84"/>
+      <c r="G5" s="84">
         <v>2</v>
       </c>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67">
+      <c r="H5" s="84"/>
+      <c r="I5" s="84">
         <v>0</v>
       </c>
-      <c r="J5" s="67"/>
-      <c r="K5" s="67">
+      <c r="J5" s="84"/>
+      <c r="K5" s="84">
         <v>8</v>
       </c>
-      <c r="L5" s="67"/>
+      <c r="L5" s="84"/>
       <c r="M5" s="18"/>
       <c r="N5" s="18"/>
     </row>
-    <row r="6" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A6" s="67"/>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="67"/>
-      <c r="J6" s="67"/>
-      <c r="K6" s="67"/>
-      <c r="L6" s="67"/>
+    <row r="6" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A6" s="84"/>
+      <c r="B6" s="84"/>
+      <c r="C6" s="84"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="84"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="84"/>
+      <c r="L6" s="84"/>
       <c r="M6" s="18"/>
       <c r="N6" s="18"/>
     </row>
-    <row r="7" spans="1:16" ht="24.95" customHeight="1">
+    <row r="7" spans="1:16" ht="24.9" customHeight="1">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -7018,16 +7154,16 @@
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
     </row>
-    <row r="8" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A8" s="71" t="s">
+    <row r="8" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A8" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="71"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="71"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="80"/>
       <c r="H8" s="17"/>
       <c r="I8" s="17"/>
       <c r="J8" s="17"/>
@@ -7036,77 +7172,77 @@
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
     </row>
-    <row r="9" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A9" s="69" t="s">
+    <row r="9" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A9" s="78" t="s">
         <v>82</v>
       </c>
-      <c r="B9" s="69"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="69" t="s">
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="78"/>
+      <c r="H9" s="78" t="s">
         <v>79</v>
       </c>
-      <c r="I9" s="69"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="69"/>
-      <c r="L9" s="69"/>
-      <c r="M9" s="69"/>
-      <c r="N9" s="69"/>
-    </row>
-    <row r="10" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A10" s="69" t="s">
+      <c r="I9" s="78"/>
+      <c r="J9" s="78"/>
+      <c r="K9" s="78"/>
+      <c r="L9" s="78"/>
+      <c r="M9" s="78"/>
+      <c r="N9" s="78"/>
+    </row>
+    <row r="10" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A10" s="78" t="s">
         <v>83</v>
       </c>
-      <c r="B10" s="69"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="69"/>
-      <c r="K10" s="69"/>
-      <c r="L10" s="69"/>
-      <c r="M10" s="69"/>
-      <c r="N10" s="69"/>
-    </row>
-    <row r="11" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A11" s="69"/>
-      <c r="B11" s="69"/>
-      <c r="C11" s="69"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="69"/>
-      <c r="G11" s="69"/>
-      <c r="H11" s="69"/>
-      <c r="I11" s="69"/>
-      <c r="J11" s="69"/>
-      <c r="K11" s="69"/>
-      <c r="L11" s="69"/>
-      <c r="M11" s="69"/>
-      <c r="N11" s="69"/>
-    </row>
-    <row r="12" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A12" s="69"/>
-      <c r="B12" s="69"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="69"/>
-      <c r="K12" s="69"/>
-      <c r="L12" s="69"/>
-      <c r="M12" s="69"/>
-      <c r="N12" s="69"/>
-    </row>
-    <row r="13" spans="1:16" ht="24.95" customHeight="1">
+      <c r="B10" s="78"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="78"/>
+      <c r="I10" s="78"/>
+      <c r="J10" s="78"/>
+      <c r="K10" s="78"/>
+      <c r="L10" s="78"/>
+      <c r="M10" s="78"/>
+      <c r="N10" s="78"/>
+    </row>
+    <row r="11" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A11" s="78"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="78"/>
+      <c r="I11" s="78"/>
+      <c r="J11" s="78"/>
+      <c r="K11" s="78"/>
+      <c r="L11" s="78"/>
+      <c r="M11" s="78"/>
+      <c r="N11" s="78"/>
+    </row>
+    <row r="12" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A12" s="78"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="78"/>
+      <c r="K12" s="78"/>
+      <c r="L12" s="78"/>
+      <c r="M12" s="78"/>
+      <c r="N12" s="78"/>
+    </row>
+    <row r="13" spans="1:16" ht="24.9" customHeight="1">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -7122,7 +7258,7 @@
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
     </row>
-    <row r="14" spans="1:16" ht="24.95" customHeight="1">
+    <row r="14" spans="1:16" ht="24.9" customHeight="1">
       <c r="A14" s="35" t="s">
         <v>84</v>
       </c>
@@ -7135,170 +7271,170 @@
       <c r="K14" s="8"/>
       <c r="L14" s="9"/>
     </row>
-    <row r="15" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A15" s="73"/>
-      <c r="B15" s="74"/>
-      <c r="C15" s="74"/>
-      <c r="D15" s="74"/>
-      <c r="E15" s="74"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="74"/>
-      <c r="H15" s="74"/>
-      <c r="I15" s="74"/>
-      <c r="J15" s="74"/>
-      <c r="K15" s="74"/>
-      <c r="L15" s="74"/>
-      <c r="M15" s="74"/>
-      <c r="N15" s="74"/>
-      <c r="O15" s="74"/>
-      <c r="P15" s="75"/>
-    </row>
-    <row r="16" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A16" s="76"/>
-      <c r="B16" s="77"/>
-      <c r="C16" s="77"/>
-      <c r="D16" s="77"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="77"/>
-      <c r="G16" s="77"/>
-      <c r="H16" s="77"/>
-      <c r="I16" s="77"/>
-      <c r="J16" s="77"/>
-      <c r="K16" s="77"/>
-      <c r="L16" s="77"/>
-      <c r="M16" s="77"/>
-      <c r="N16" s="77"/>
-      <c r="O16" s="77"/>
-      <c r="P16" s="78"/>
-    </row>
-    <row r="17" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A17" s="76"/>
-      <c r="B17" s="77"/>
-      <c r="C17" s="77"/>
-      <c r="D17" s="77"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="77"/>
-      <c r="G17" s="77"/>
-      <c r="H17" s="77"/>
-      <c r="I17" s="77"/>
-      <c r="J17" s="77"/>
-      <c r="K17" s="77"/>
-      <c r="L17" s="77"/>
-      <c r="M17" s="77"/>
-      <c r="N17" s="77"/>
-      <c r="O17" s="77"/>
-      <c r="P17" s="78"/>
-    </row>
-    <row r="18" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A18" s="76"/>
-      <c r="B18" s="77"/>
-      <c r="C18" s="77"/>
-      <c r="D18" s="77"/>
-      <c r="E18" s="77"/>
-      <c r="F18" s="77"/>
-      <c r="G18" s="77"/>
-      <c r="H18" s="77"/>
-      <c r="I18" s="77"/>
-      <c r="J18" s="77"/>
-      <c r="K18" s="77"/>
-      <c r="L18" s="77"/>
-      <c r="M18" s="77"/>
-      <c r="N18" s="77"/>
-      <c r="O18" s="77"/>
-      <c r="P18" s="78"/>
-    </row>
-    <row r="19" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A19" s="76"/>
-      <c r="B19" s="77"/>
-      <c r="C19" s="77"/>
-      <c r="D19" s="77"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="77"/>
-      <c r="G19" s="77"/>
-      <c r="H19" s="77"/>
-      <c r="I19" s="77"/>
-      <c r="J19" s="77"/>
-      <c r="K19" s="77"/>
-      <c r="L19" s="77"/>
-      <c r="M19" s="77"/>
-      <c r="N19" s="77"/>
-      <c r="O19" s="77"/>
-      <c r="P19" s="78"/>
-    </row>
-    <row r="20" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A20" s="76"/>
-      <c r="B20" s="77"/>
-      <c r="C20" s="77"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="77"/>
-      <c r="G20" s="77"/>
-      <c r="H20" s="77"/>
-      <c r="I20" s="77"/>
-      <c r="J20" s="77"/>
-      <c r="K20" s="77"/>
-      <c r="L20" s="77"/>
-      <c r="M20" s="77"/>
-      <c r="N20" s="77"/>
-      <c r="O20" s="77"/>
-      <c r="P20" s="78"/>
-    </row>
-    <row r="21" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A21" s="76"/>
-      <c r="B21" s="77"/>
-      <c r="C21" s="77"/>
-      <c r="D21" s="77"/>
-      <c r="E21" s="77"/>
-      <c r="F21" s="77"/>
-      <c r="G21" s="77"/>
-      <c r="H21" s="77"/>
-      <c r="I21" s="77"/>
-      <c r="J21" s="77"/>
-      <c r="K21" s="77"/>
-      <c r="L21" s="77"/>
-      <c r="M21" s="77"/>
-      <c r="N21" s="77"/>
-      <c r="O21" s="77"/>
-      <c r="P21" s="78"/>
-    </row>
-    <row r="22" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A22" s="76"/>
-      <c r="B22" s="77"/>
-      <c r="C22" s="77"/>
-      <c r="D22" s="77"/>
-      <c r="E22" s="77"/>
-      <c r="F22" s="77"/>
-      <c r="G22" s="77"/>
-      <c r="H22" s="77"/>
-      <c r="I22" s="77"/>
-      <c r="J22" s="77"/>
-      <c r="K22" s="77"/>
-      <c r="L22" s="77"/>
-      <c r="M22" s="77"/>
-      <c r="N22" s="77"/>
-      <c r="O22" s="77"/>
-      <c r="P22" s="78"/>
-    </row>
-    <row r="23" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A23" s="79"/>
-      <c r="B23" s="80"/>
-      <c r="C23" s="80"/>
-      <c r="D23" s="80"/>
-      <c r="E23" s="80"/>
-      <c r="F23" s="80"/>
-      <c r="G23" s="80"/>
-      <c r="H23" s="80"/>
-      <c r="I23" s="80"/>
-      <c r="J23" s="80"/>
-      <c r="K23" s="80"/>
-      <c r="L23" s="80"/>
-      <c r="M23" s="80"/>
-      <c r="N23" s="80"/>
-      <c r="O23" s="80"/>
-      <c r="P23" s="81"/>
+    <row r="15" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A15" s="69"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="70"/>
+      <c r="K15" s="70"/>
+      <c r="L15" s="70"/>
+      <c r="M15" s="70"/>
+      <c r="N15" s="70"/>
+      <c r="O15" s="70"/>
+      <c r="P15" s="71"/>
+    </row>
+    <row r="16" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A16" s="72"/>
+      <c r="B16" s="73"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="73"/>
+      <c r="I16" s="73"/>
+      <c r="J16" s="73"/>
+      <c r="K16" s="73"/>
+      <c r="L16" s="73"/>
+      <c r="M16" s="73"/>
+      <c r="N16" s="73"/>
+      <c r="O16" s="73"/>
+      <c r="P16" s="74"/>
+    </row>
+    <row r="17" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A17" s="72"/>
+      <c r="B17" s="73"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="73"/>
+      <c r="H17" s="73"/>
+      <c r="I17" s="73"/>
+      <c r="J17" s="73"/>
+      <c r="K17" s="73"/>
+      <c r="L17" s="73"/>
+      <c r="M17" s="73"/>
+      <c r="N17" s="73"/>
+      <c r="O17" s="73"/>
+      <c r="P17" s="74"/>
+    </row>
+    <row r="18" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A18" s="72"/>
+      <c r="B18" s="73"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="73"/>
+      <c r="I18" s="73"/>
+      <c r="J18" s="73"/>
+      <c r="K18" s="73"/>
+      <c r="L18" s="73"/>
+      <c r="M18" s="73"/>
+      <c r="N18" s="73"/>
+      <c r="O18" s="73"/>
+      <c r="P18" s="74"/>
+    </row>
+    <row r="19" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A19" s="72"/>
+      <c r="B19" s="73"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="73"/>
+      <c r="G19" s="73"/>
+      <c r="H19" s="73"/>
+      <c r="I19" s="73"/>
+      <c r="J19" s="73"/>
+      <c r="K19" s="73"/>
+      <c r="L19" s="73"/>
+      <c r="M19" s="73"/>
+      <c r="N19" s="73"/>
+      <c r="O19" s="73"/>
+      <c r="P19" s="74"/>
+    </row>
+    <row r="20" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A20" s="72"/>
+      <c r="B20" s="73"/>
+      <c r="C20" s="73"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="73"/>
+      <c r="H20" s="73"/>
+      <c r="I20" s="73"/>
+      <c r="J20" s="73"/>
+      <c r="K20" s="73"/>
+      <c r="L20" s="73"/>
+      <c r="M20" s="73"/>
+      <c r="N20" s="73"/>
+      <c r="O20" s="73"/>
+      <c r="P20" s="74"/>
+    </row>
+    <row r="21" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A21" s="72"/>
+      <c r="B21" s="73"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="73"/>
+      <c r="H21" s="73"/>
+      <c r="I21" s="73"/>
+      <c r="J21" s="73"/>
+      <c r="K21" s="73"/>
+      <c r="L21" s="73"/>
+      <c r="M21" s="73"/>
+      <c r="N21" s="73"/>
+      <c r="O21" s="73"/>
+      <c r="P21" s="74"/>
+    </row>
+    <row r="22" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A22" s="72"/>
+      <c r="B22" s="73"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="73"/>
+      <c r="H22" s="73"/>
+      <c r="I22" s="73"/>
+      <c r="J22" s="73"/>
+      <c r="K22" s="73"/>
+      <c r="L22" s="73"/>
+      <c r="M22" s="73"/>
+      <c r="N22" s="73"/>
+      <c r="O22" s="73"/>
+      <c r="P22" s="74"/>
+    </row>
+    <row r="23" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A23" s="75"/>
+      <c r="B23" s="76"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="76"/>
+      <c r="H23" s="76"/>
+      <c r="I23" s="76"/>
+      <c r="J23" s="76"/>
+      <c r="K23" s="76"/>
+      <c r="L23" s="76"/>
+      <c r="M23" s="76"/>
+      <c r="N23" s="76"/>
+      <c r="O23" s="76"/>
+      <c r="P23" s="77"/>
     </row>
     <row r="24" spans="1:16" ht="24.75" customHeight="1">
-      <c r="A24" s="192" t="s">
+      <c r="A24" s="46" t="s">
         <v>64</v>
       </c>
       <c r="B24" s="6"/>
@@ -7315,171 +7451,181 @@
       <c r="M24" s="10"/>
       <c r="N24" s="10"/>
     </row>
-    <row r="25" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A25" s="73"/>
-      <c r="B25" s="74"/>
-      <c r="C25" s="74"/>
-      <c r="D25" s="74"/>
-      <c r="E25" s="74"/>
-      <c r="F25" s="74"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="74"/>
-      <c r="I25" s="74"/>
-      <c r="J25" s="74"/>
-      <c r="K25" s="74"/>
-      <c r="L25" s="74"/>
-      <c r="M25" s="74"/>
-      <c r="N25" s="74"/>
-      <c r="O25" s="74"/>
-      <c r="P25" s="75"/>
-    </row>
-    <row r="26" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A26" s="76"/>
-      <c r="B26" s="77"/>
-      <c r="C26" s="77"/>
-      <c r="D26" s="77"/>
-      <c r="E26" s="77"/>
-      <c r="F26" s="77"/>
-      <c r="G26" s="77"/>
-      <c r="H26" s="77"/>
-      <c r="I26" s="77"/>
-      <c r="J26" s="77"/>
-      <c r="K26" s="77"/>
-      <c r="L26" s="77"/>
-      <c r="M26" s="77"/>
-      <c r="N26" s="77"/>
-      <c r="O26" s="77"/>
-      <c r="P26" s="78"/>
-    </row>
-    <row r="27" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A27" s="76"/>
-      <c r="B27" s="77"/>
-      <c r="C27" s="77"/>
-      <c r="D27" s="77"/>
-      <c r="E27" s="77"/>
-      <c r="F27" s="77"/>
-      <c r="G27" s="77"/>
-      <c r="H27" s="77"/>
-      <c r="I27" s="77"/>
-      <c r="J27" s="77"/>
-      <c r="K27" s="77"/>
-      <c r="L27" s="77"/>
-      <c r="M27" s="77"/>
-      <c r="N27" s="77"/>
-      <c r="O27" s="77"/>
-      <c r="P27" s="78"/>
-    </row>
-    <row r="28" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A28" s="76"/>
-      <c r="B28" s="77"/>
-      <c r="C28" s="77"/>
-      <c r="D28" s="77"/>
-      <c r="E28" s="77"/>
-      <c r="F28" s="77"/>
-      <c r="G28" s="77"/>
-      <c r="H28" s="77"/>
-      <c r="I28" s="77"/>
-      <c r="J28" s="77"/>
-      <c r="K28" s="77"/>
-      <c r="L28" s="77"/>
-      <c r="M28" s="77"/>
-      <c r="N28" s="77"/>
-      <c r="O28" s="77"/>
-      <c r="P28" s="78"/>
-    </row>
-    <row r="29" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A29" s="76"/>
-      <c r="B29" s="77"/>
-      <c r="C29" s="77"/>
-      <c r="D29" s="77"/>
-      <c r="E29" s="77"/>
-      <c r="F29" s="77"/>
-      <c r="G29" s="77"/>
-      <c r="H29" s="77"/>
-      <c r="I29" s="77"/>
-      <c r="J29" s="77"/>
-      <c r="K29" s="77"/>
-      <c r="L29" s="77"/>
-      <c r="M29" s="77"/>
-      <c r="N29" s="77"/>
-      <c r="O29" s="77"/>
-      <c r="P29" s="78"/>
-    </row>
-    <row r="30" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A30" s="76"/>
-      <c r="B30" s="77"/>
-      <c r="C30" s="77"/>
-      <c r="D30" s="77"/>
-      <c r="E30" s="77"/>
-      <c r="F30" s="77"/>
-      <c r="G30" s="77"/>
-      <c r="H30" s="77"/>
-      <c r="I30" s="77"/>
-      <c r="J30" s="77"/>
-      <c r="K30" s="77"/>
-      <c r="L30" s="77"/>
-      <c r="M30" s="77"/>
-      <c r="N30" s="77"/>
-      <c r="O30" s="77"/>
-      <c r="P30" s="78"/>
-    </row>
-    <row r="31" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A31" s="76"/>
-      <c r="B31" s="77"/>
-      <c r="C31" s="77"/>
-      <c r="D31" s="77"/>
-      <c r="E31" s="77"/>
-      <c r="F31" s="77"/>
-      <c r="G31" s="77"/>
-      <c r="H31" s="77"/>
-      <c r="I31" s="77"/>
-      <c r="J31" s="77"/>
-      <c r="K31" s="77"/>
-      <c r="L31" s="77"/>
-      <c r="M31" s="77"/>
-      <c r="N31" s="77"/>
-      <c r="O31" s="77"/>
-      <c r="P31" s="78"/>
+    <row r="25" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A25" s="69"/>
+      <c r="B25" s="70"/>
+      <c r="C25" s="70"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="70"/>
+      <c r="I25" s="70"/>
+      <c r="J25" s="70"/>
+      <c r="K25" s="70"/>
+      <c r="L25" s="70"/>
+      <c r="M25" s="70"/>
+      <c r="N25" s="70"/>
+      <c r="O25" s="70"/>
+      <c r="P25" s="71"/>
+    </row>
+    <row r="26" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A26" s="72"/>
+      <c r="B26" s="73"/>
+      <c r="C26" s="73"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="73"/>
+      <c r="I26" s="73"/>
+      <c r="J26" s="73"/>
+      <c r="K26" s="73"/>
+      <c r="L26" s="73"/>
+      <c r="M26" s="73"/>
+      <c r="N26" s="73"/>
+      <c r="O26" s="73"/>
+      <c r="P26" s="74"/>
+    </row>
+    <row r="27" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A27" s="72"/>
+      <c r="B27" s="73"/>
+      <c r="C27" s="73"/>
+      <c r="D27" s="73"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="73"/>
+      <c r="H27" s="73"/>
+      <c r="I27" s="73"/>
+      <c r="J27" s="73"/>
+      <c r="K27" s="73"/>
+      <c r="L27" s="73"/>
+      <c r="M27" s="73"/>
+      <c r="N27" s="73"/>
+      <c r="O27" s="73"/>
+      <c r="P27" s="74"/>
+    </row>
+    <row r="28" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A28" s="72"/>
+      <c r="B28" s="73"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="73"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="73"/>
+      <c r="K28" s="73"/>
+      <c r="L28" s="73"/>
+      <c r="M28" s="73"/>
+      <c r="N28" s="73"/>
+      <c r="O28" s="73"/>
+      <c r="P28" s="74"/>
+    </row>
+    <row r="29" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A29" s="72"/>
+      <c r="B29" s="73"/>
+      <c r="C29" s="73"/>
+      <c r="D29" s="73"/>
+      <c r="E29" s="73"/>
+      <c r="F29" s="73"/>
+      <c r="G29" s="73"/>
+      <c r="H29" s="73"/>
+      <c r="I29" s="73"/>
+      <c r="J29" s="73"/>
+      <c r="K29" s="73"/>
+      <c r="L29" s="73"/>
+      <c r="M29" s="73"/>
+      <c r="N29" s="73"/>
+      <c r="O29" s="73"/>
+      <c r="P29" s="74"/>
+    </row>
+    <row r="30" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A30" s="72"/>
+      <c r="B30" s="73"/>
+      <c r="C30" s="73"/>
+      <c r="D30" s="73"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="73"/>
+      <c r="I30" s="73"/>
+      <c r="J30" s="73"/>
+      <c r="K30" s="73"/>
+      <c r="L30" s="73"/>
+      <c r="M30" s="73"/>
+      <c r="N30" s="73"/>
+      <c r="O30" s="73"/>
+      <c r="P30" s="74"/>
+    </row>
+    <row r="31" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A31" s="72"/>
+      <c r="B31" s="73"/>
+      <c r="C31" s="73"/>
+      <c r="D31" s="73"/>
+      <c r="E31" s="73"/>
+      <c r="F31" s="73"/>
+      <c r="G31" s="73"/>
+      <c r="H31" s="73"/>
+      <c r="I31" s="73"/>
+      <c r="J31" s="73"/>
+      <c r="K31" s="73"/>
+      <c r="L31" s="73"/>
+      <c r="M31" s="73"/>
+      <c r="N31" s="73"/>
+      <c r="O31" s="73"/>
+      <c r="P31" s="74"/>
     </row>
     <row r="32" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A32" s="76"/>
-      <c r="B32" s="77"/>
-      <c r="C32" s="77"/>
-      <c r="D32" s="77"/>
-      <c r="E32" s="77"/>
-      <c r="F32" s="77"/>
-      <c r="G32" s="77"/>
-      <c r="H32" s="77"/>
-      <c r="I32" s="77"/>
-      <c r="J32" s="77"/>
-      <c r="K32" s="77"/>
-      <c r="L32" s="77"/>
-      <c r="M32" s="77"/>
-      <c r="N32" s="77"/>
-      <c r="O32" s="77"/>
-      <c r="P32" s="78"/>
+      <c r="A32" s="72"/>
+      <c r="B32" s="73"/>
+      <c r="C32" s="73"/>
+      <c r="D32" s="73"/>
+      <c r="E32" s="73"/>
+      <c r="F32" s="73"/>
+      <c r="G32" s="73"/>
+      <c r="H32" s="73"/>
+      <c r="I32" s="73"/>
+      <c r="J32" s="73"/>
+      <c r="K32" s="73"/>
+      <c r="L32" s="73"/>
+      <c r="M32" s="73"/>
+      <c r="N32" s="73"/>
+      <c r="O32" s="73"/>
+      <c r="P32" s="74"/>
     </row>
     <row r="33" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A33" s="79"/>
-      <c r="B33" s="80"/>
-      <c r="C33" s="80"/>
-      <c r="D33" s="80"/>
-      <c r="E33" s="80"/>
-      <c r="F33" s="80"/>
-      <c r="G33" s="80"/>
-      <c r="H33" s="80"/>
-      <c r="I33" s="80"/>
-      <c r="J33" s="80"/>
-      <c r="K33" s="80"/>
-      <c r="L33" s="80"/>
-      <c r="M33" s="80"/>
-      <c r="N33" s="80"/>
-      <c r="O33" s="80"/>
-      <c r="P33" s="81"/>
+      <c r="A33" s="75"/>
+      <c r="B33" s="76"/>
+      <c r="C33" s="76"/>
+      <c r="D33" s="76"/>
+      <c r="E33" s="76"/>
+      <c r="F33" s="76"/>
+      <c r="G33" s="76"/>
+      <c r="H33" s="76"/>
+      <c r="I33" s="76"/>
+      <c r="J33" s="76"/>
+      <c r="K33" s="76"/>
+      <c r="L33" s="76"/>
+      <c r="M33" s="76"/>
+      <c r="N33" s="76"/>
+      <c r="O33" s="76"/>
+      <c r="P33" s="77"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="26">
+    <mergeCell ref="I5:J6"/>
+    <mergeCell ref="K5:L6"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A5:B6"/>
+    <mergeCell ref="C5:D6"/>
+    <mergeCell ref="E5:F6"/>
+    <mergeCell ref="G5:H6"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A15:P23"/>
     <mergeCell ref="A25:P33"/>
@@ -7496,16 +7642,6 @@
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="A10:G10"/>
     <mergeCell ref="E3:L3"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A5:B6"/>
-    <mergeCell ref="C5:D6"/>
-    <mergeCell ref="E5:F6"/>
-    <mergeCell ref="G5:H6"/>
-    <mergeCell ref="I5:J6"/>
-    <mergeCell ref="K5:L6"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="A9:G9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A5:L6 A9:N12 A15:P23 A25:P33">
@@ -7538,34 +7674,34 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:P111"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:P10"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A5" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:P3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.5" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="5.44140625" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="16" width="5.625" customWidth="1"/>
+    <col min="1" max="16" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="30" customHeight="1">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="116" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="86"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="117"/>
+      <c r="L1" s="117"/>
+      <c r="M1" s="117"/>
+      <c r="N1" s="117"/>
+      <c r="O1" s="117"/>
+      <c r="P1" s="118"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1">
       <c r="A2" s="19"/>
@@ -7586,128 +7722,128 @@
       <c r="P2" s="19"/>
     </row>
     <row r="3" spans="1:16" ht="30" customHeight="1">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="120" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="89"/>
-      <c r="L3" s="89"/>
-      <c r="M3" s="89"/>
-      <c r="N3" s="89"/>
-      <c r="O3" s="89"/>
-      <c r="P3" s="90"/>
+      <c r="B3" s="121"/>
+      <c r="C3" s="121"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="121"/>
+      <c r="F3" s="121"/>
+      <c r="G3" s="121"/>
+      <c r="H3" s="121"/>
+      <c r="I3" s="121"/>
+      <c r="J3" s="121"/>
+      <c r="K3" s="121"/>
+      <c r="L3" s="121"/>
+      <c r="M3" s="121"/>
+      <c r="N3" s="121"/>
+      <c r="O3" s="121"/>
+      <c r="P3" s="122"/>
     </row>
     <row r="4" spans="1:16" ht="30" customHeight="1">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="104" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
-      <c r="N4" s="87"/>
-      <c r="O4" s="87"/>
-      <c r="P4" s="87"/>
+      <c r="B4" s="104"/>
+      <c r="C4" s="104"/>
+      <c r="D4" s="119"/>
+      <c r="E4" s="119"/>
+      <c r="F4" s="119"/>
+      <c r="G4" s="119"/>
+      <c r="H4" s="119"/>
+      <c r="I4" s="119"/>
+      <c r="J4" s="119"/>
+      <c r="K4" s="119"/>
+      <c r="L4" s="119"/>
+      <c r="M4" s="119"/>
+      <c r="N4" s="119"/>
+      <c r="O4" s="119"/>
+      <c r="P4" s="119"/>
     </row>
     <row r="5" spans="1:16" ht="30" customHeight="1">
-      <c r="A5" s="91" t="s">
+      <c r="A5" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91" t="s">
+      <c r="B5" s="104"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="104" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="91"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="91"/>
-      <c r="H5" s="91" t="s">
+      <c r="E5" s="104"/>
+      <c r="F5" s="104"/>
+      <c r="G5" s="104"/>
+      <c r="H5" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="91"/>
-      <c r="J5" s="91"/>
-      <c r="K5" s="91"/>
-      <c r="L5" s="99" t="s">
+      <c r="I5" s="104"/>
+      <c r="J5" s="104"/>
+      <c r="K5" s="104"/>
+      <c r="L5" s="127" t="s">
         <v>6</v>
       </c>
-      <c r="M5" s="99"/>
-      <c r="N5" s="99"/>
-      <c r="O5" s="99"/>
+      <c r="M5" s="127"/>
+      <c r="N5" s="127"/>
+      <c r="O5" s="127"/>
       <c r="P5" s="28"/>
     </row>
     <row r="6" spans="1:16" ht="30" customHeight="1">
-      <c r="A6" s="92" t="s">
+      <c r="A6" s="108" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="93"/>
-      <c r="C6" s="94"/>
-      <c r="D6" s="95">
+      <c r="B6" s="109"/>
+      <c r="C6" s="110"/>
+      <c r="D6" s="123">
         <v>800</v>
       </c>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
+      <c r="E6" s="124"/>
+      <c r="F6" s="124"/>
       <c r="G6" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="95">
+      <c r="H6" s="123">
         <v>800</v>
       </c>
-      <c r="I6" s="96"/>
-      <c r="J6" s="96"/>
+      <c r="I6" s="124"/>
+      <c r="J6" s="124"/>
       <c r="K6" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="97">
+      <c r="L6" s="125">
         <v>1600</v>
       </c>
-      <c r="M6" s="98"/>
-      <c r="N6" s="98"/>
+      <c r="M6" s="126"/>
+      <c r="N6" s="126"/>
       <c r="O6" s="30" t="s">
         <v>30</v>
       </c>
       <c r="P6" s="28"/>
     </row>
     <row r="7" spans="1:16" ht="30" customHeight="1">
-      <c r="A7" s="92" t="s">
+      <c r="A7" s="108" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="93"/>
-      <c r="C7" s="94"/>
-      <c r="D7" s="103">
+      <c r="B7" s="109"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="111">
         <v>30</v>
       </c>
-      <c r="E7" s="104"/>
-      <c r="F7" s="104"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
       <c r="G7" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="108"/>
-      <c r="I7" s="109"/>
-      <c r="J7" s="109"/>
-      <c r="K7" s="109"/>
+      <c r="H7" s="113"/>
+      <c r="I7" s="114"/>
+      <c r="J7" s="114"/>
+      <c r="K7" s="114"/>
       <c r="L7" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="M7" s="110" t="s">
+      <c r="M7" s="115" t="s">
         <v>58</v>
       </c>
-      <c r="N7" s="110"/>
+      <c r="N7" s="115"/>
       <c r="O7" s="32"/>
       <c r="P7" s="6">
         <f>$D$7</f>
@@ -7715,158 +7851,158 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="30" customHeight="1">
-      <c r="A8" s="105" t="s">
+      <c r="A8" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="106"/>
-      <c r="C8" s="107"/>
-      <c r="D8" s="100" t="s">
+      <c r="B8" s="89"/>
+      <c r="C8" s="90"/>
+      <c r="D8" s="105" t="s">
         <v>85</v>
       </c>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="101"/>
-      <c r="L8" s="101"/>
-      <c r="M8" s="101"/>
-      <c r="N8" s="101"/>
-      <c r="O8" s="101"/>
-      <c r="P8" s="102"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="106"/>
+      <c r="G8" s="106"/>
+      <c r="H8" s="106"/>
+      <c r="I8" s="106"/>
+      <c r="J8" s="106"/>
+      <c r="K8" s="106"/>
+      <c r="L8" s="106"/>
+      <c r="M8" s="106"/>
+      <c r="N8" s="106"/>
+      <c r="O8" s="106"/>
+      <c r="P8" s="107"/>
     </row>
     <row r="9" spans="1:16" ht="30" customHeight="1">
-      <c r="A9" s="105" t="s">
+      <c r="A9" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="106"/>
-      <c r="C9" s="107"/>
-      <c r="D9" s="117" t="s">
+      <c r="B9" s="89"/>
+      <c r="C9" s="90"/>
+      <c r="D9" s="94" t="s">
         <v>90</v>
       </c>
-      <c r="E9" s="118"/>
-      <c r="F9" s="118"/>
-      <c r="G9" s="118"/>
-      <c r="H9" s="118"/>
-      <c r="I9" s="118"/>
-      <c r="J9" s="118"/>
-      <c r="K9" s="118"/>
-      <c r="L9" s="118"/>
-      <c r="M9" s="118"/>
-      <c r="N9" s="118"/>
-      <c r="O9" s="118"/>
-      <c r="P9" s="119"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="95"/>
+      <c r="G9" s="95"/>
+      <c r="H9" s="95"/>
+      <c r="I9" s="95"/>
+      <c r="J9" s="95"/>
+      <c r="K9" s="95"/>
+      <c r="L9" s="95"/>
+      <c r="M9" s="95"/>
+      <c r="N9" s="95"/>
+      <c r="O9" s="95"/>
+      <c r="P9" s="96"/>
     </row>
     <row r="10" spans="1:16" ht="30" customHeight="1">
-      <c r="A10" s="105"/>
-      <c r="B10" s="106"/>
-      <c r="C10" s="107"/>
-      <c r="D10" s="117"/>
-      <c r="E10" s="118"/>
-      <c r="F10" s="118"/>
-      <c r="G10" s="118"/>
-      <c r="H10" s="118"/>
-      <c r="I10" s="118"/>
-      <c r="J10" s="118"/>
-      <c r="K10" s="118"/>
-      <c r="L10" s="118"/>
-      <c r="M10" s="118"/>
-      <c r="N10" s="118"/>
-      <c r="O10" s="118"/>
-      <c r="P10" s="119"/>
+      <c r="A10" s="88"/>
+      <c r="B10" s="89"/>
+      <c r="C10" s="90"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="95"/>
+      <c r="F10" s="95"/>
+      <c r="G10" s="95"/>
+      <c r="H10" s="95"/>
+      <c r="I10" s="95"/>
+      <c r="J10" s="95"/>
+      <c r="K10" s="95"/>
+      <c r="L10" s="95"/>
+      <c r="M10" s="95"/>
+      <c r="N10" s="95"/>
+      <c r="O10" s="95"/>
+      <c r="P10" s="96"/>
     </row>
     <row r="11" spans="1:16" ht="30" customHeight="1">
-      <c r="A11" s="114" t="s">
+      <c r="A11" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="115"/>
-      <c r="C11" s="116"/>
-      <c r="D11" s="120" t="s">
+      <c r="B11" s="92"/>
+      <c r="C11" s="93"/>
+      <c r="D11" s="97" t="s">
         <v>88</v>
       </c>
-      <c r="E11" s="121"/>
-      <c r="F11" s="121"/>
-      <c r="G11" s="121"/>
-      <c r="H11" s="121"/>
-      <c r="I11" s="121"/>
-      <c r="J11" s="121"/>
-      <c r="K11" s="121"/>
-      <c r="L11" s="121"/>
-      <c r="M11" s="121"/>
-      <c r="N11" s="121"/>
-      <c r="O11" s="121"/>
-      <c r="P11" s="122"/>
+      <c r="E11" s="98"/>
+      <c r="F11" s="98"/>
+      <c r="G11" s="98"/>
+      <c r="H11" s="98"/>
+      <c r="I11" s="98"/>
+      <c r="J11" s="98"/>
+      <c r="K11" s="98"/>
+      <c r="L11" s="98"/>
+      <c r="M11" s="98"/>
+      <c r="N11" s="98"/>
+      <c r="O11" s="98"/>
+      <c r="P11" s="99"/>
     </row>
     <row r="12" spans="1:16" ht="30" customHeight="1">
-      <c r="A12" s="123" t="s">
+      <c r="A12" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="124"/>
-      <c r="C12" s="125"/>
-      <c r="D12" s="126" t="s">
+      <c r="B12" s="101"/>
+      <c r="C12" s="102"/>
+      <c r="D12" s="103" t="s">
         <v>86</v>
       </c>
-      <c r="E12" s="126"/>
-      <c r="F12" s="126"/>
-      <c r="G12" s="126"/>
-      <c r="H12" s="126"/>
-      <c r="I12" s="91" t="s">
+      <c r="E12" s="103"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="103"/>
+      <c r="H12" s="103"/>
+      <c r="I12" s="104" t="s">
         <v>37</v>
       </c>
-      <c r="J12" s="91"/>
-      <c r="K12" s="91"/>
-      <c r="L12" s="126" t="s">
+      <c r="J12" s="104"/>
+      <c r="K12" s="104"/>
+      <c r="L12" s="103" t="s">
         <v>87</v>
       </c>
-      <c r="M12" s="126"/>
-      <c r="N12" s="126"/>
-      <c r="O12" s="126"/>
-      <c r="P12" s="126"/>
+      <c r="M12" s="103"/>
+      <c r="N12" s="103"/>
+      <c r="O12" s="103"/>
+      <c r="P12" s="103"/>
     </row>
     <row r="13" spans="1:16" ht="30" customHeight="1">
-      <c r="A13" s="105" t="s">
+      <c r="A13" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="106"/>
-      <c r="C13" s="107"/>
-      <c r="D13" s="120" t="s">
+      <c r="B13" s="89"/>
+      <c r="C13" s="90"/>
+      <c r="D13" s="97" t="s">
         <v>89</v>
       </c>
-      <c r="E13" s="121"/>
-      <c r="F13" s="121"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="121"/>
-      <c r="I13" s="121"/>
-      <c r="J13" s="121"/>
-      <c r="K13" s="121"/>
-      <c r="L13" s="121"/>
-      <c r="M13" s="121"/>
-      <c r="N13" s="121"/>
-      <c r="O13" s="121"/>
-      <c r="P13" s="122"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="98"/>
+      <c r="G13" s="98"/>
+      <c r="H13" s="98"/>
+      <c r="I13" s="98"/>
+      <c r="J13" s="98"/>
+      <c r="K13" s="98"/>
+      <c r="L13" s="98"/>
+      <c r="M13" s="98"/>
+      <c r="N13" s="98"/>
+      <c r="O13" s="98"/>
+      <c r="P13" s="99"/>
     </row>
     <row r="14" spans="1:16" ht="30" customHeight="1">
-      <c r="A14" s="113" t="s">
+      <c r="A14" s="87" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="113"/>
-      <c r="C14" s="113"/>
-      <c r="D14" s="111" t="s">
+      <c r="B14" s="87"/>
+      <c r="C14" s="87"/>
+      <c r="D14" s="85" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="112"/>
-      <c r="F14" s="112"/>
-      <c r="G14" s="112"/>
-      <c r="H14" s="112"/>
-      <c r="I14" s="112"/>
-      <c r="J14" s="112"/>
-      <c r="K14" s="112"/>
-      <c r="L14" s="112"/>
-      <c r="M14" s="112"/>
-      <c r="N14" s="112"/>
-      <c r="O14" s="112"/>
-      <c r="P14" s="112"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="86"/>
+      <c r="I14" s="86"/>
+      <c r="J14" s="86"/>
+      <c r="K14" s="86"/>
+      <c r="L14" s="86"/>
+      <c r="M14" s="86"/>
+      <c r="N14" s="86"/>
+      <c r="O14" s="86"/>
+      <c r="P14" s="86"/>
     </row>
     <row r="15" spans="1:16" ht="20.25" customHeight="1">
       <c r="A15" s="28"/>
@@ -9175,6 +9311,25 @@
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="31">
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="D4:P4"/>
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D8:P8"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="M7:N7"/>
     <mergeCell ref="D14:P14"/>
     <mergeCell ref="A14:C14"/>
     <mergeCell ref="A9:C10"/>
@@ -9187,25 +9342,6 @@
     <mergeCell ref="I12:K12"/>
     <mergeCell ref="L12:P12"/>
     <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D8:P8"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="D4:P4"/>
-    <mergeCell ref="A3:P3"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="A4:C4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="D6:F6">
@@ -9257,33 +9393,33 @@
   <dimension ref="A1:P34"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="73" zoomScaleNormal="100" zoomScaleSheetLayoutView="73" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:P3"/>
+      <selection sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.5" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="5.44140625" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="16" width="5.75" customWidth="1"/>
+    <col min="1" max="16" width="5.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="30" customHeight="1">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="128" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="128"/>
-      <c r="G1" s="128"/>
-      <c r="H1" s="128"/>
-      <c r="I1" s="128"/>
-      <c r="J1" s="128"/>
-      <c r="K1" s="128"/>
-      <c r="L1" s="128"/>
-      <c r="M1" s="128"/>
-      <c r="N1" s="128"/>
-      <c r="O1" s="128"/>
-      <c r="P1" s="129"/>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
+      <c r="J1" s="129"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="129"/>
+      <c r="M1" s="129"/>
+      <c r="N1" s="129"/>
+      <c r="O1" s="129"/>
+      <c r="P1" s="130"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1">
       <c r="A2" s="20"/>
@@ -9304,492 +9440,492 @@
       <c r="P2" s="20"/>
     </row>
     <row r="3" spans="1:16" ht="30" customHeight="1">
-      <c r="A3" s="130" t="s">
+      <c r="A3" s="131" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="131"/>
-      <c r="C3" s="131"/>
-      <c r="D3" s="131"/>
-      <c r="E3" s="131"/>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
-      <c r="K3" s="131"/>
-      <c r="L3" s="131"/>
-      <c r="M3" s="131"/>
-      <c r="N3" s="131"/>
-      <c r="O3" s="131"/>
-      <c r="P3" s="132"/>
+      <c r="B3" s="132"/>
+      <c r="C3" s="132"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="132"/>
+      <c r="F3" s="132"/>
+      <c r="G3" s="132"/>
+      <c r="H3" s="132"/>
+      <c r="I3" s="132"/>
+      <c r="J3" s="132"/>
+      <c r="K3" s="132"/>
+      <c r="L3" s="132"/>
+      <c r="M3" s="132"/>
+      <c r="N3" s="132"/>
+      <c r="O3" s="132"/>
+      <c r="P3" s="133"/>
     </row>
     <row r="4" spans="1:16" ht="30" customHeight="1">
-      <c r="A4" s="133"/>
-      <c r="B4" s="134"/>
-      <c r="C4" s="134"/>
-      <c r="D4" s="134"/>
-      <c r="E4" s="134"/>
-      <c r="F4" s="134"/>
-      <c r="G4" s="134"/>
-      <c r="H4" s="134"/>
-      <c r="I4" s="134"/>
-      <c r="J4" s="134"/>
-      <c r="K4" s="134"/>
-      <c r="L4" s="134"/>
-      <c r="M4" s="134"/>
-      <c r="N4" s="134"/>
-      <c r="O4" s="134"/>
-      <c r="P4" s="135"/>
+      <c r="A4" s="134"/>
+      <c r="B4" s="135"/>
+      <c r="C4" s="135"/>
+      <c r="D4" s="135"/>
+      <c r="E4" s="135"/>
+      <c r="F4" s="135"/>
+      <c r="G4" s="135"/>
+      <c r="H4" s="135"/>
+      <c r="I4" s="135"/>
+      <c r="J4" s="135"/>
+      <c r="K4" s="135"/>
+      <c r="L4" s="135"/>
+      <c r="M4" s="135"/>
+      <c r="N4" s="135"/>
+      <c r="O4" s="135"/>
+      <c r="P4" s="136"/>
     </row>
     <row r="5" spans="1:16" ht="30" customHeight="1">
-      <c r="A5" s="136"/>
-      <c r="B5" s="137"/>
-      <c r="C5" s="137"/>
-      <c r="D5" s="137"/>
-      <c r="E5" s="137"/>
-      <c r="F5" s="137"/>
-      <c r="G5" s="137"/>
-      <c r="H5" s="137"/>
-      <c r="I5" s="137"/>
-      <c r="J5" s="137"/>
-      <c r="K5" s="137"/>
-      <c r="L5" s="137"/>
-      <c r="M5" s="137"/>
-      <c r="N5" s="137"/>
-      <c r="O5" s="137"/>
-      <c r="P5" s="138"/>
+      <c r="A5" s="137"/>
+      <c r="B5" s="183"/>
+      <c r="C5" s="183"/>
+      <c r="D5" s="183"/>
+      <c r="E5" s="183"/>
+      <c r="F5" s="183"/>
+      <c r="G5" s="183"/>
+      <c r="H5" s="183"/>
+      <c r="I5" s="183"/>
+      <c r="J5" s="183"/>
+      <c r="K5" s="183"/>
+      <c r="L5" s="183"/>
+      <c r="M5" s="183"/>
+      <c r="N5" s="183"/>
+      <c r="O5" s="183"/>
+      <c r="P5" s="139"/>
     </row>
     <row r="6" spans="1:16" ht="30" customHeight="1">
-      <c r="A6" s="136"/>
-      <c r="B6" s="137"/>
-      <c r="C6" s="137"/>
-      <c r="D6" s="137"/>
-      <c r="E6" s="137"/>
-      <c r="F6" s="137"/>
-      <c r="G6" s="137"/>
-      <c r="H6" s="137"/>
-      <c r="I6" s="137"/>
-      <c r="J6" s="137"/>
-      <c r="K6" s="137"/>
-      <c r="L6" s="137"/>
-      <c r="M6" s="137"/>
-      <c r="N6" s="137"/>
-      <c r="O6" s="137"/>
-      <c r="P6" s="138"/>
+      <c r="A6" s="137"/>
+      <c r="B6" s="183"/>
+      <c r="C6" s="183"/>
+      <c r="D6" s="183"/>
+      <c r="E6" s="183"/>
+      <c r="F6" s="183"/>
+      <c r="G6" s="183"/>
+      <c r="H6" s="183"/>
+      <c r="I6" s="183"/>
+      <c r="J6" s="183"/>
+      <c r="K6" s="183"/>
+      <c r="L6" s="183"/>
+      <c r="M6" s="183"/>
+      <c r="N6" s="183"/>
+      <c r="O6" s="183"/>
+      <c r="P6" s="139"/>
     </row>
     <row r="7" spans="1:16" ht="30" customHeight="1">
-      <c r="A7" s="136"/>
-      <c r="B7" s="137"/>
-      <c r="C7" s="137"/>
-      <c r="D7" s="137"/>
-      <c r="E7" s="137"/>
-      <c r="F7" s="137"/>
-      <c r="G7" s="137"/>
-      <c r="H7" s="137"/>
-      <c r="I7" s="137"/>
-      <c r="J7" s="137"/>
-      <c r="K7" s="137"/>
-      <c r="L7" s="137"/>
-      <c r="M7" s="137"/>
-      <c r="N7" s="137"/>
-      <c r="O7" s="137"/>
-      <c r="P7" s="138"/>
+      <c r="A7" s="137"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
+      <c r="J7" s="183"/>
+      <c r="K7" s="183"/>
+      <c r="L7" s="183"/>
+      <c r="M7" s="183"/>
+      <c r="N7" s="183"/>
+      <c r="O7" s="183"/>
+      <c r="P7" s="139"/>
     </row>
     <row r="8" spans="1:16" ht="30" customHeight="1">
-      <c r="A8" s="136"/>
-      <c r="B8" s="137"/>
-      <c r="C8" s="137"/>
-      <c r="D8" s="137"/>
-      <c r="E8" s="137"/>
-      <c r="F8" s="137"/>
-      <c r="G8" s="137"/>
-      <c r="H8" s="137"/>
-      <c r="I8" s="137"/>
-      <c r="J8" s="137"/>
-      <c r="K8" s="137"/>
-      <c r="L8" s="137"/>
-      <c r="M8" s="137"/>
-      <c r="N8" s="137"/>
-      <c r="O8" s="137"/>
-      <c r="P8" s="138"/>
+      <c r="A8" s="137"/>
+      <c r="B8" s="183"/>
+      <c r="C8" s="183"/>
+      <c r="D8" s="183"/>
+      <c r="E8" s="183"/>
+      <c r="F8" s="183"/>
+      <c r="G8" s="183"/>
+      <c r="H8" s="183"/>
+      <c r="I8" s="183"/>
+      <c r="J8" s="183"/>
+      <c r="K8" s="183"/>
+      <c r="L8" s="183"/>
+      <c r="M8" s="183"/>
+      <c r="N8" s="183"/>
+      <c r="O8" s="183"/>
+      <c r="P8" s="139"/>
     </row>
     <row r="9" spans="1:16" ht="30" customHeight="1">
-      <c r="A9" s="136"/>
-      <c r="B9" s="137"/>
-      <c r="C9" s="137"/>
-      <c r="D9" s="137"/>
-      <c r="E9" s="137"/>
-      <c r="F9" s="137"/>
-      <c r="G9" s="137"/>
-      <c r="H9" s="137"/>
-      <c r="I9" s="137"/>
-      <c r="J9" s="137"/>
-      <c r="K9" s="137"/>
-      <c r="L9" s="137"/>
-      <c r="M9" s="137"/>
-      <c r="N9" s="137"/>
-      <c r="O9" s="137"/>
-      <c r="P9" s="138"/>
+      <c r="A9" s="137"/>
+      <c r="B9" s="183"/>
+      <c r="C9" s="183"/>
+      <c r="D9" s="183"/>
+      <c r="E9" s="183"/>
+      <c r="F9" s="183"/>
+      <c r="G9" s="183"/>
+      <c r="H9" s="183"/>
+      <c r="I9" s="183"/>
+      <c r="J9" s="183"/>
+      <c r="K9" s="183"/>
+      <c r="L9" s="183"/>
+      <c r="M9" s="183"/>
+      <c r="N9" s="183"/>
+      <c r="O9" s="183"/>
+      <c r="P9" s="139"/>
     </row>
     <row r="10" spans="1:16" ht="30" customHeight="1">
-      <c r="A10" s="136"/>
-      <c r="B10" s="137"/>
-      <c r="C10" s="137"/>
-      <c r="D10" s="137"/>
-      <c r="E10" s="137"/>
-      <c r="F10" s="137"/>
-      <c r="G10" s="137"/>
-      <c r="H10" s="137"/>
-      <c r="I10" s="137"/>
-      <c r="J10" s="137"/>
-      <c r="K10" s="137"/>
-      <c r="L10" s="137"/>
-      <c r="M10" s="137"/>
-      <c r="N10" s="137"/>
-      <c r="O10" s="137"/>
-      <c r="P10" s="138"/>
+      <c r="A10" s="137"/>
+      <c r="B10" s="183"/>
+      <c r="C10" s="183"/>
+      <c r="D10" s="183"/>
+      <c r="E10" s="183"/>
+      <c r="F10" s="183"/>
+      <c r="G10" s="183"/>
+      <c r="H10" s="183"/>
+      <c r="I10" s="183"/>
+      <c r="J10" s="183"/>
+      <c r="K10" s="183"/>
+      <c r="L10" s="183"/>
+      <c r="M10" s="183"/>
+      <c r="N10" s="183"/>
+      <c r="O10" s="183"/>
+      <c r="P10" s="139"/>
     </row>
     <row r="11" spans="1:16" ht="30" customHeight="1">
-      <c r="A11" s="136"/>
-      <c r="B11" s="137"/>
-      <c r="C11" s="137"/>
-      <c r="D11" s="137"/>
-      <c r="E11" s="137"/>
-      <c r="F11" s="137"/>
-      <c r="G11" s="137"/>
-      <c r="H11" s="137"/>
-      <c r="I11" s="137"/>
-      <c r="J11" s="137"/>
-      <c r="K11" s="137"/>
-      <c r="L11" s="137"/>
-      <c r="M11" s="137"/>
-      <c r="N11" s="137"/>
-      <c r="O11" s="137"/>
-      <c r="P11" s="138"/>
+      <c r="A11" s="137"/>
+      <c r="B11" s="183"/>
+      <c r="C11" s="183"/>
+      <c r="D11" s="183"/>
+      <c r="E11" s="183"/>
+      <c r="F11" s="183"/>
+      <c r="G11" s="183"/>
+      <c r="H11" s="183"/>
+      <c r="I11" s="183"/>
+      <c r="J11" s="183"/>
+      <c r="K11" s="183"/>
+      <c r="L11" s="183"/>
+      <c r="M11" s="183"/>
+      <c r="N11" s="183"/>
+      <c r="O11" s="183"/>
+      <c r="P11" s="139"/>
     </row>
     <row r="12" spans="1:16" ht="30" customHeight="1">
-      <c r="A12" s="136"/>
-      <c r="B12" s="137"/>
-      <c r="C12" s="137"/>
-      <c r="D12" s="137"/>
-      <c r="E12" s="137"/>
-      <c r="F12" s="137"/>
-      <c r="G12" s="137"/>
-      <c r="H12" s="137"/>
-      <c r="I12" s="137"/>
-      <c r="J12" s="137"/>
-      <c r="K12" s="137"/>
-      <c r="L12" s="137"/>
-      <c r="M12" s="137"/>
-      <c r="N12" s="137"/>
-      <c r="O12" s="137"/>
-      <c r="P12" s="138"/>
+      <c r="A12" s="137"/>
+      <c r="B12" s="183"/>
+      <c r="C12" s="183"/>
+      <c r="D12" s="183"/>
+      <c r="E12" s="183"/>
+      <c r="F12" s="183"/>
+      <c r="G12" s="183"/>
+      <c r="H12" s="183"/>
+      <c r="I12" s="183"/>
+      <c r="J12" s="183"/>
+      <c r="K12" s="183"/>
+      <c r="L12" s="183"/>
+      <c r="M12" s="183"/>
+      <c r="N12" s="183"/>
+      <c r="O12" s="183"/>
+      <c r="P12" s="139"/>
     </row>
     <row r="13" spans="1:16" ht="30" customHeight="1">
-      <c r="A13" s="136"/>
-      <c r="B13" s="137"/>
-      <c r="C13" s="137"/>
-      <c r="D13" s="137"/>
-      <c r="E13" s="137"/>
-      <c r="F13" s="137"/>
-      <c r="G13" s="137"/>
-      <c r="H13" s="137"/>
-      <c r="I13" s="137"/>
-      <c r="J13" s="137"/>
-      <c r="K13" s="137"/>
-      <c r="L13" s="137"/>
-      <c r="M13" s="137"/>
-      <c r="N13" s="137"/>
-      <c r="O13" s="137"/>
-      <c r="P13" s="138"/>
+      <c r="A13" s="137"/>
+      <c r="B13" s="183"/>
+      <c r="C13" s="183"/>
+      <c r="D13" s="183"/>
+      <c r="E13" s="183"/>
+      <c r="F13" s="183"/>
+      <c r="G13" s="183"/>
+      <c r="H13" s="183"/>
+      <c r="I13" s="183"/>
+      <c r="J13" s="183"/>
+      <c r="K13" s="183"/>
+      <c r="L13" s="183"/>
+      <c r="M13" s="183"/>
+      <c r="N13" s="183"/>
+      <c r="O13" s="183"/>
+      <c r="P13" s="139"/>
     </row>
     <row r="14" spans="1:16" ht="30" customHeight="1">
-      <c r="A14" s="136"/>
-      <c r="B14" s="137"/>
-      <c r="C14" s="137"/>
-      <c r="D14" s="137"/>
-      <c r="E14" s="137"/>
-      <c r="F14" s="137"/>
-      <c r="G14" s="137"/>
-      <c r="H14" s="137"/>
-      <c r="I14" s="137"/>
-      <c r="J14" s="137"/>
-      <c r="K14" s="137"/>
-      <c r="L14" s="137"/>
-      <c r="M14" s="137"/>
-      <c r="N14" s="137"/>
-      <c r="O14" s="137"/>
-      <c r="P14" s="138"/>
+      <c r="A14" s="137"/>
+      <c r="B14" s="183"/>
+      <c r="C14" s="183"/>
+      <c r="D14" s="183"/>
+      <c r="E14" s="183"/>
+      <c r="F14" s="183"/>
+      <c r="G14" s="183"/>
+      <c r="H14" s="183"/>
+      <c r="I14" s="183"/>
+      <c r="J14" s="183"/>
+      <c r="K14" s="183"/>
+      <c r="L14" s="183"/>
+      <c r="M14" s="183"/>
+      <c r="N14" s="183"/>
+      <c r="O14" s="183"/>
+      <c r="P14" s="139"/>
     </row>
     <row r="15" spans="1:16" ht="30" customHeight="1">
-      <c r="A15" s="136"/>
-      <c r="B15" s="137"/>
-      <c r="C15" s="137"/>
-      <c r="D15" s="137"/>
-      <c r="E15" s="137"/>
-      <c r="F15" s="137"/>
-      <c r="G15" s="137"/>
-      <c r="H15" s="137"/>
-      <c r="I15" s="137"/>
-      <c r="J15" s="137"/>
-      <c r="K15" s="137"/>
-      <c r="L15" s="137"/>
-      <c r="M15" s="137"/>
-      <c r="N15" s="137"/>
-      <c r="O15" s="137"/>
-      <c r="P15" s="138"/>
+      <c r="A15" s="137"/>
+      <c r="B15" s="183"/>
+      <c r="C15" s="183"/>
+      <c r="D15" s="183"/>
+      <c r="E15" s="183"/>
+      <c r="F15" s="183"/>
+      <c r="G15" s="183"/>
+      <c r="H15" s="183"/>
+      <c r="I15" s="183"/>
+      <c r="J15" s="183"/>
+      <c r="K15" s="183"/>
+      <c r="L15" s="183"/>
+      <c r="M15" s="183"/>
+      <c r="N15" s="183"/>
+      <c r="O15" s="183"/>
+      <c r="P15" s="139"/>
     </row>
     <row r="16" spans="1:16" ht="30" customHeight="1">
-      <c r="A16" s="136"/>
-      <c r="B16" s="137"/>
-      <c r="C16" s="137"/>
-      <c r="D16" s="137"/>
-      <c r="E16" s="137"/>
-      <c r="F16" s="137"/>
-      <c r="G16" s="137"/>
-      <c r="H16" s="137"/>
-      <c r="I16" s="137"/>
-      <c r="J16" s="137"/>
-      <c r="K16" s="137"/>
-      <c r="L16" s="137"/>
-      <c r="M16" s="137"/>
-      <c r="N16" s="137"/>
-      <c r="O16" s="137"/>
-      <c r="P16" s="138"/>
+      <c r="A16" s="137"/>
+      <c r="B16" s="183"/>
+      <c r="C16" s="183"/>
+      <c r="D16" s="183"/>
+      <c r="E16" s="183"/>
+      <c r="F16" s="183"/>
+      <c r="G16" s="183"/>
+      <c r="H16" s="183"/>
+      <c r="I16" s="183"/>
+      <c r="J16" s="183"/>
+      <c r="K16" s="183"/>
+      <c r="L16" s="183"/>
+      <c r="M16" s="183"/>
+      <c r="N16" s="183"/>
+      <c r="O16" s="183"/>
+      <c r="P16" s="139"/>
     </row>
     <row r="17" spans="1:16" ht="30" customHeight="1">
-      <c r="A17" s="136"/>
-      <c r="B17" s="137"/>
-      <c r="C17" s="137"/>
-      <c r="D17" s="137"/>
-      <c r="E17" s="137"/>
-      <c r="F17" s="137"/>
-      <c r="G17" s="137"/>
-      <c r="H17" s="137"/>
-      <c r="I17" s="137"/>
-      <c r="J17" s="137"/>
-      <c r="K17" s="137"/>
-      <c r="L17" s="137"/>
-      <c r="M17" s="137"/>
-      <c r="N17" s="137"/>
-      <c r="O17" s="137"/>
-      <c r="P17" s="138"/>
+      <c r="A17" s="137"/>
+      <c r="B17" s="183"/>
+      <c r="C17" s="183"/>
+      <c r="D17" s="183"/>
+      <c r="E17" s="183"/>
+      <c r="F17" s="183"/>
+      <c r="G17" s="183"/>
+      <c r="H17" s="183"/>
+      <c r="I17" s="183"/>
+      <c r="J17" s="183"/>
+      <c r="K17" s="183"/>
+      <c r="L17" s="183"/>
+      <c r="M17" s="183"/>
+      <c r="N17" s="183"/>
+      <c r="O17" s="183"/>
+      <c r="P17" s="139"/>
     </row>
     <row r="18" spans="1:16" ht="30" customHeight="1">
-      <c r="A18" s="136"/>
-      <c r="B18" s="137"/>
-      <c r="C18" s="137"/>
-      <c r="D18" s="137"/>
-      <c r="E18" s="137"/>
-      <c r="F18" s="137"/>
-      <c r="G18" s="137"/>
-      <c r="H18" s="137"/>
-      <c r="I18" s="137"/>
-      <c r="J18" s="137"/>
-      <c r="K18" s="137"/>
-      <c r="L18" s="137"/>
-      <c r="M18" s="137"/>
-      <c r="N18" s="137"/>
-      <c r="O18" s="137"/>
-      <c r="P18" s="138"/>
+      <c r="A18" s="137"/>
+      <c r="B18" s="183"/>
+      <c r="C18" s="183"/>
+      <c r="D18" s="183"/>
+      <c r="E18" s="183"/>
+      <c r="F18" s="183"/>
+      <c r="G18" s="183"/>
+      <c r="H18" s="183"/>
+      <c r="I18" s="183"/>
+      <c r="J18" s="183"/>
+      <c r="K18" s="183"/>
+      <c r="L18" s="183"/>
+      <c r="M18" s="183"/>
+      <c r="N18" s="183"/>
+      <c r="O18" s="183"/>
+      <c r="P18" s="139"/>
     </row>
     <row r="19" spans="1:16" ht="30" customHeight="1">
-      <c r="A19" s="136"/>
-      <c r="B19" s="137"/>
-      <c r="C19" s="137"/>
-      <c r="D19" s="137"/>
-      <c r="E19" s="137"/>
-      <c r="F19" s="137"/>
-      <c r="G19" s="137"/>
-      <c r="H19" s="137"/>
-      <c r="I19" s="137"/>
-      <c r="J19" s="137"/>
-      <c r="K19" s="137"/>
-      <c r="L19" s="137"/>
-      <c r="M19" s="137"/>
-      <c r="N19" s="137"/>
-      <c r="O19" s="137"/>
-      <c r="P19" s="138"/>
+      <c r="A19" s="137"/>
+      <c r="B19" s="183"/>
+      <c r="C19" s="183"/>
+      <c r="D19" s="183"/>
+      <c r="E19" s="183"/>
+      <c r="F19" s="183"/>
+      <c r="G19" s="183"/>
+      <c r="H19" s="183"/>
+      <c r="I19" s="183"/>
+      <c r="J19" s="183"/>
+      <c r="K19" s="183"/>
+      <c r="L19" s="183"/>
+      <c r="M19" s="183"/>
+      <c r="N19" s="183"/>
+      <c r="O19" s="183"/>
+      <c r="P19" s="139"/>
     </row>
     <row r="20" spans="1:16" ht="30" customHeight="1">
-      <c r="A20" s="136"/>
-      <c r="B20" s="137"/>
-      <c r="C20" s="137"/>
-      <c r="D20" s="137"/>
-      <c r="E20" s="137"/>
-      <c r="F20" s="137"/>
-      <c r="G20" s="137"/>
-      <c r="H20" s="137"/>
-      <c r="I20" s="137"/>
-      <c r="J20" s="137"/>
-      <c r="K20" s="137"/>
-      <c r="L20" s="137"/>
-      <c r="M20" s="137"/>
-      <c r="N20" s="137"/>
-      <c r="O20" s="137"/>
-      <c r="P20" s="138"/>
+      <c r="A20" s="137"/>
+      <c r="B20" s="183"/>
+      <c r="C20" s="183"/>
+      <c r="D20" s="183"/>
+      <c r="E20" s="183"/>
+      <c r="F20" s="183"/>
+      <c r="G20" s="183"/>
+      <c r="H20" s="183"/>
+      <c r="I20" s="183"/>
+      <c r="J20" s="183"/>
+      <c r="K20" s="183"/>
+      <c r="L20" s="183"/>
+      <c r="M20" s="183"/>
+      <c r="N20" s="183"/>
+      <c r="O20" s="183"/>
+      <c r="P20" s="139"/>
     </row>
     <row r="21" spans="1:16" ht="30" customHeight="1">
-      <c r="A21" s="136"/>
-      <c r="B21" s="137"/>
-      <c r="C21" s="137"/>
-      <c r="D21" s="137"/>
-      <c r="E21" s="137"/>
-      <c r="F21" s="137"/>
-      <c r="G21" s="137"/>
-      <c r="H21" s="137"/>
-      <c r="I21" s="137"/>
-      <c r="J21" s="137"/>
-      <c r="K21" s="137"/>
-      <c r="L21" s="137"/>
-      <c r="M21" s="137"/>
-      <c r="N21" s="137"/>
-      <c r="O21" s="137"/>
-      <c r="P21" s="138"/>
+      <c r="A21" s="137"/>
+      <c r="B21" s="183"/>
+      <c r="C21" s="183"/>
+      <c r="D21" s="183"/>
+      <c r="E21" s="183"/>
+      <c r="F21" s="183"/>
+      <c r="G21" s="183"/>
+      <c r="H21" s="183"/>
+      <c r="I21" s="183"/>
+      <c r="J21" s="183"/>
+      <c r="K21" s="183"/>
+      <c r="L21" s="183"/>
+      <c r="M21" s="183"/>
+      <c r="N21" s="183"/>
+      <c r="O21" s="183"/>
+      <c r="P21" s="139"/>
     </row>
     <row r="22" spans="1:16" ht="30" customHeight="1">
-      <c r="A22" s="136"/>
-      <c r="B22" s="137"/>
-      <c r="C22" s="137"/>
-      <c r="D22" s="137"/>
-      <c r="E22" s="137"/>
-      <c r="F22" s="137"/>
-      <c r="G22" s="137"/>
-      <c r="H22" s="137"/>
-      <c r="I22" s="137"/>
-      <c r="J22" s="137"/>
-      <c r="K22" s="137"/>
-      <c r="L22" s="137"/>
-      <c r="M22" s="137"/>
-      <c r="N22" s="137"/>
-      <c r="O22" s="137"/>
-      <c r="P22" s="138"/>
+      <c r="A22" s="137"/>
+      <c r="B22" s="183"/>
+      <c r="C22" s="183"/>
+      <c r="D22" s="183"/>
+      <c r="E22" s="183"/>
+      <c r="F22" s="183"/>
+      <c r="G22" s="183"/>
+      <c r="H22" s="183"/>
+      <c r="I22" s="183"/>
+      <c r="J22" s="183"/>
+      <c r="K22" s="183"/>
+      <c r="L22" s="183"/>
+      <c r="M22" s="183"/>
+      <c r="N22" s="183"/>
+      <c r="O22" s="183"/>
+      <c r="P22" s="139"/>
     </row>
     <row r="23" spans="1:16" ht="30" customHeight="1">
-      <c r="A23" s="136"/>
-      <c r="B23" s="137"/>
-      <c r="C23" s="137"/>
-      <c r="D23" s="137"/>
-      <c r="E23" s="137"/>
-      <c r="F23" s="137"/>
-      <c r="G23" s="137"/>
-      <c r="H23" s="137"/>
-      <c r="I23" s="137"/>
-      <c r="J23" s="137"/>
-      <c r="K23" s="137"/>
-      <c r="L23" s="137"/>
-      <c r="M23" s="137"/>
-      <c r="N23" s="137"/>
-      <c r="O23" s="137"/>
-      <c r="P23" s="138"/>
+      <c r="A23" s="137"/>
+      <c r="B23" s="183"/>
+      <c r="C23" s="183"/>
+      <c r="D23" s="183"/>
+      <c r="E23" s="183"/>
+      <c r="F23" s="183"/>
+      <c r="G23" s="183"/>
+      <c r="H23" s="183"/>
+      <c r="I23" s="183"/>
+      <c r="J23" s="183"/>
+      <c r="K23" s="183"/>
+      <c r="L23" s="183"/>
+      <c r="M23" s="183"/>
+      <c r="N23" s="183"/>
+      <c r="O23" s="183"/>
+      <c r="P23" s="139"/>
     </row>
     <row r="24" spans="1:16" ht="30" customHeight="1">
-      <c r="A24" s="136"/>
-      <c r="B24" s="137"/>
-      <c r="C24" s="137"/>
-      <c r="D24" s="137"/>
-      <c r="E24" s="137"/>
-      <c r="F24" s="137"/>
-      <c r="G24" s="137"/>
-      <c r="H24" s="137"/>
-      <c r="I24" s="137"/>
-      <c r="J24" s="137"/>
-      <c r="K24" s="137"/>
-      <c r="L24" s="137"/>
-      <c r="M24" s="137"/>
-      <c r="N24" s="137"/>
-      <c r="O24" s="137"/>
-      <c r="P24" s="138"/>
+      <c r="A24" s="137"/>
+      <c r="B24" s="183"/>
+      <c r="C24" s="183"/>
+      <c r="D24" s="183"/>
+      <c r="E24" s="183"/>
+      <c r="F24" s="183"/>
+      <c r="G24" s="183"/>
+      <c r="H24" s="183"/>
+      <c r="I24" s="183"/>
+      <c r="J24" s="183"/>
+      <c r="K24" s="183"/>
+      <c r="L24" s="183"/>
+      <c r="M24" s="183"/>
+      <c r="N24" s="183"/>
+      <c r="O24" s="183"/>
+      <c r="P24" s="139"/>
     </row>
     <row r="25" spans="1:16" ht="30" customHeight="1">
-      <c r="A25" s="136"/>
-      <c r="B25" s="137"/>
-      <c r="C25" s="137"/>
-      <c r="D25" s="137"/>
-      <c r="E25" s="137"/>
-      <c r="F25" s="137"/>
-      <c r="G25" s="137"/>
-      <c r="H25" s="137"/>
-      <c r="I25" s="137"/>
-      <c r="J25" s="137"/>
-      <c r="K25" s="137"/>
-      <c r="L25" s="137"/>
-      <c r="M25" s="137"/>
-      <c r="N25" s="137"/>
-      <c r="O25" s="137"/>
-      <c r="P25" s="138"/>
+      <c r="A25" s="137"/>
+      <c r="B25" s="183"/>
+      <c r="C25" s="183"/>
+      <c r="D25" s="183"/>
+      <c r="E25" s="183"/>
+      <c r="F25" s="183"/>
+      <c r="G25" s="183"/>
+      <c r="H25" s="183"/>
+      <c r="I25" s="183"/>
+      <c r="J25" s="183"/>
+      <c r="K25" s="183"/>
+      <c r="L25" s="183"/>
+      <c r="M25" s="183"/>
+      <c r="N25" s="183"/>
+      <c r="O25" s="183"/>
+      <c r="P25" s="139"/>
     </row>
     <row r="26" spans="1:16" ht="30" customHeight="1">
-      <c r="A26" s="136"/>
-      <c r="B26" s="137"/>
-      <c r="C26" s="137"/>
-      <c r="D26" s="137"/>
-      <c r="E26" s="137"/>
-      <c r="F26" s="137"/>
-      <c r="G26" s="137"/>
-      <c r="H26" s="137"/>
-      <c r="I26" s="137"/>
-      <c r="J26" s="137"/>
-      <c r="K26" s="137"/>
-      <c r="L26" s="137"/>
-      <c r="M26" s="137"/>
-      <c r="N26" s="137"/>
-      <c r="O26" s="137"/>
-      <c r="P26" s="138"/>
+      <c r="A26" s="137"/>
+      <c r="B26" s="183"/>
+      <c r="C26" s="183"/>
+      <c r="D26" s="183"/>
+      <c r="E26" s="183"/>
+      <c r="F26" s="183"/>
+      <c r="G26" s="183"/>
+      <c r="H26" s="183"/>
+      <c r="I26" s="183"/>
+      <c r="J26" s="183"/>
+      <c r="K26" s="183"/>
+      <c r="L26" s="183"/>
+      <c r="M26" s="183"/>
+      <c r="N26" s="183"/>
+      <c r="O26" s="183"/>
+      <c r="P26" s="139"/>
     </row>
     <row r="27" spans="1:16" ht="30" customHeight="1">
-      <c r="A27" s="136"/>
-      <c r="B27" s="137"/>
-      <c r="C27" s="137"/>
-      <c r="D27" s="137"/>
-      <c r="E27" s="137"/>
-      <c r="F27" s="137"/>
-      <c r="G27" s="137"/>
-      <c r="H27" s="137"/>
-      <c r="I27" s="137"/>
-      <c r="J27" s="137"/>
-      <c r="K27" s="137"/>
-      <c r="L27" s="137"/>
-      <c r="M27" s="137"/>
-      <c r="N27" s="137"/>
-      <c r="O27" s="137"/>
-      <c r="P27" s="138"/>
+      <c r="A27" s="137"/>
+      <c r="B27" s="183"/>
+      <c r="C27" s="183"/>
+      <c r="D27" s="183"/>
+      <c r="E27" s="183"/>
+      <c r="F27" s="183"/>
+      <c r="G27" s="183"/>
+      <c r="H27" s="183"/>
+      <c r="I27" s="183"/>
+      <c r="J27" s="183"/>
+      <c r="K27" s="183"/>
+      <c r="L27" s="183"/>
+      <c r="M27" s="183"/>
+      <c r="N27" s="183"/>
+      <c r="O27" s="183"/>
+      <c r="P27" s="139"/>
     </row>
     <row r="28" spans="1:16" ht="30" customHeight="1">
-      <c r="A28" s="136"/>
-      <c r="B28" s="137"/>
-      <c r="C28" s="137"/>
-      <c r="D28" s="137"/>
-      <c r="E28" s="137"/>
-      <c r="F28" s="137"/>
-      <c r="G28" s="137"/>
-      <c r="H28" s="137"/>
-      <c r="I28" s="137"/>
-      <c r="J28" s="137"/>
-      <c r="K28" s="137"/>
-      <c r="L28" s="137"/>
-      <c r="M28" s="137"/>
-      <c r="N28" s="137"/>
-      <c r="O28" s="137"/>
-      <c r="P28" s="138"/>
+      <c r="A28" s="137"/>
+      <c r="B28" s="183"/>
+      <c r="C28" s="183"/>
+      <c r="D28" s="183"/>
+      <c r="E28" s="183"/>
+      <c r="F28" s="183"/>
+      <c r="G28" s="183"/>
+      <c r="H28" s="183"/>
+      <c r="I28" s="183"/>
+      <c r="J28" s="183"/>
+      <c r="K28" s="183"/>
+      <c r="L28" s="183"/>
+      <c r="M28" s="183"/>
+      <c r="N28" s="183"/>
+      <c r="O28" s="183"/>
+      <c r="P28" s="139"/>
     </row>
     <row r="29" spans="1:16" ht="30" customHeight="1">
-      <c r="A29" s="139"/>
-      <c r="B29" s="140"/>
-      <c r="C29" s="140"/>
-      <c r="D29" s="140"/>
-      <c r="E29" s="140"/>
-      <c r="F29" s="140"/>
-      <c r="G29" s="140"/>
-      <c r="H29" s="140"/>
-      <c r="I29" s="140"/>
-      <c r="J29" s="140"/>
-      <c r="K29" s="140"/>
-      <c r="L29" s="140"/>
-      <c r="M29" s="140"/>
-      <c r="N29" s="140"/>
-      <c r="O29" s="140"/>
-      <c r="P29" s="141"/>
+      <c r="A29" s="140"/>
+      <c r="B29" s="141"/>
+      <c r="C29" s="141"/>
+      <c r="D29" s="141"/>
+      <c r="E29" s="141"/>
+      <c r="F29" s="141"/>
+      <c r="G29" s="141"/>
+      <c r="H29" s="141"/>
+      <c r="I29" s="141"/>
+      <c r="J29" s="141"/>
+      <c r="K29" s="141"/>
+      <c r="L29" s="141"/>
+      <c r="M29" s="141"/>
+      <c r="N29" s="141"/>
+      <c r="O29" s="141"/>
+      <c r="P29" s="142"/>
     </row>
     <row r="31" spans="1:16" ht="13.5" customHeight="1"/>
     <row r="32" spans="1:16" ht="13.5" customHeight="1"/>
@@ -9803,7 +9939,7 @@
     <mergeCell ref="A4:P29"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A4:P29">
+  <conditionalFormatting sqref="A4">
     <cfRule type="containsBlanks" dxfId="5" priority="1">
       <formula>LEN(TRIM(A4))=0</formula>
     </cfRule>
@@ -9823,34 +9959,34 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="75" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="X11" sqref="X11"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="75" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:P29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.5" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="5.44140625" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="16" width="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="30" customHeight="1">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="128" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="128"/>
-      <c r="G1" s="128"/>
-      <c r="H1" s="128"/>
-      <c r="I1" s="128"/>
-      <c r="J1" s="128"/>
-      <c r="K1" s="128"/>
-      <c r="L1" s="128"/>
-      <c r="M1" s="128"/>
-      <c r="N1" s="128"/>
-      <c r="O1" s="128"/>
-      <c r="P1" s="129"/>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
+      <c r="J1" s="129"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="129"/>
+      <c r="M1" s="129"/>
+      <c r="N1" s="129"/>
+      <c r="O1" s="129"/>
+      <c r="P1" s="130"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1">
       <c r="A2" s="20"/>
@@ -9871,492 +10007,492 @@
       <c r="P2" s="20"/>
     </row>
     <row r="3" spans="1:16" ht="30" customHeight="1">
-      <c r="A3" s="130" t="s">
+      <c r="A3" s="131" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="131"/>
-      <c r="C3" s="131"/>
-      <c r="D3" s="131"/>
-      <c r="E3" s="131"/>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
-      <c r="K3" s="131"/>
-      <c r="L3" s="131"/>
-      <c r="M3" s="131"/>
-      <c r="N3" s="131"/>
-      <c r="O3" s="131"/>
-      <c r="P3" s="132"/>
+      <c r="B3" s="132"/>
+      <c r="C3" s="132"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="132"/>
+      <c r="F3" s="132"/>
+      <c r="G3" s="132"/>
+      <c r="H3" s="132"/>
+      <c r="I3" s="132"/>
+      <c r="J3" s="132"/>
+      <c r="K3" s="132"/>
+      <c r="L3" s="132"/>
+      <c r="M3" s="132"/>
+      <c r="N3" s="132"/>
+      <c r="O3" s="132"/>
+      <c r="P3" s="133"/>
     </row>
     <row r="4" spans="1:16" ht="30" customHeight="1">
-      <c r="A4" s="133"/>
-      <c r="B4" s="134"/>
-      <c r="C4" s="134"/>
-      <c r="D4" s="134"/>
-      <c r="E4" s="134"/>
-      <c r="F4" s="134"/>
-      <c r="G4" s="134"/>
-      <c r="H4" s="134"/>
-      <c r="I4" s="134"/>
-      <c r="J4" s="134"/>
-      <c r="K4" s="134"/>
-      <c r="L4" s="134"/>
-      <c r="M4" s="134"/>
-      <c r="N4" s="134"/>
-      <c r="O4" s="134"/>
-      <c r="P4" s="135"/>
+      <c r="A4" s="134"/>
+      <c r="B4" s="135"/>
+      <c r="C4" s="135"/>
+      <c r="D4" s="135"/>
+      <c r="E4" s="135"/>
+      <c r="F4" s="135"/>
+      <c r="G4" s="135"/>
+      <c r="H4" s="135"/>
+      <c r="I4" s="135"/>
+      <c r="J4" s="135"/>
+      <c r="K4" s="135"/>
+      <c r="L4" s="135"/>
+      <c r="M4" s="135"/>
+      <c r="N4" s="135"/>
+      <c r="O4" s="135"/>
+      <c r="P4" s="136"/>
     </row>
     <row r="5" spans="1:16" ht="30" customHeight="1">
-      <c r="A5" s="136"/>
-      <c r="B5" s="137"/>
-      <c r="C5" s="137"/>
-      <c r="D5" s="137"/>
-      <c r="E5" s="137"/>
-      <c r="F5" s="137"/>
-      <c r="G5" s="137"/>
-      <c r="H5" s="137"/>
-      <c r="I5" s="137"/>
-      <c r="J5" s="137"/>
-      <c r="K5" s="137"/>
-      <c r="L5" s="137"/>
-      <c r="M5" s="137"/>
-      <c r="N5" s="137"/>
-      <c r="O5" s="137"/>
-      <c r="P5" s="138"/>
+      <c r="A5" s="137"/>
+      <c r="B5" s="138"/>
+      <c r="C5" s="138"/>
+      <c r="D5" s="138"/>
+      <c r="E5" s="138"/>
+      <c r="F5" s="138"/>
+      <c r="G5" s="138"/>
+      <c r="H5" s="138"/>
+      <c r="I5" s="138"/>
+      <c r="J5" s="138"/>
+      <c r="K5" s="138"/>
+      <c r="L5" s="138"/>
+      <c r="M5" s="138"/>
+      <c r="N5" s="138"/>
+      <c r="O5" s="138"/>
+      <c r="P5" s="139"/>
     </row>
     <row r="6" spans="1:16" ht="30" customHeight="1">
-      <c r="A6" s="136"/>
-      <c r="B6" s="137"/>
-      <c r="C6" s="137"/>
-      <c r="D6" s="137"/>
-      <c r="E6" s="137"/>
-      <c r="F6" s="137"/>
-      <c r="G6" s="137"/>
-      <c r="H6" s="137"/>
-      <c r="I6" s="137"/>
-      <c r="J6" s="137"/>
-      <c r="K6" s="137"/>
-      <c r="L6" s="137"/>
-      <c r="M6" s="137"/>
-      <c r="N6" s="137"/>
-      <c r="O6" s="137"/>
-      <c r="P6" s="138"/>
+      <c r="A6" s="137"/>
+      <c r="B6" s="138"/>
+      <c r="C6" s="138"/>
+      <c r="D6" s="138"/>
+      <c r="E6" s="138"/>
+      <c r="F6" s="138"/>
+      <c r="G6" s="138"/>
+      <c r="H6" s="138"/>
+      <c r="I6" s="138"/>
+      <c r="J6" s="138"/>
+      <c r="K6" s="138"/>
+      <c r="L6" s="138"/>
+      <c r="M6" s="138"/>
+      <c r="N6" s="138"/>
+      <c r="O6" s="138"/>
+      <c r="P6" s="139"/>
     </row>
     <row r="7" spans="1:16" ht="30" customHeight="1">
-      <c r="A7" s="136"/>
-      <c r="B7" s="137"/>
-      <c r="C7" s="137"/>
-      <c r="D7" s="137"/>
-      <c r="E7" s="137"/>
-      <c r="F7" s="137"/>
-      <c r="G7" s="137"/>
-      <c r="H7" s="137"/>
-      <c r="I7" s="137"/>
-      <c r="J7" s="137"/>
-      <c r="K7" s="137"/>
-      <c r="L7" s="137"/>
-      <c r="M7" s="137"/>
-      <c r="N7" s="137"/>
-      <c r="O7" s="137"/>
-      <c r="P7" s="138"/>
+      <c r="A7" s="137"/>
+      <c r="B7" s="138"/>
+      <c r="C7" s="138"/>
+      <c r="D7" s="138"/>
+      <c r="E7" s="138"/>
+      <c r="F7" s="138"/>
+      <c r="G7" s="138"/>
+      <c r="H7" s="138"/>
+      <c r="I7" s="138"/>
+      <c r="J7" s="138"/>
+      <c r="K7" s="138"/>
+      <c r="L7" s="138"/>
+      <c r="M7" s="138"/>
+      <c r="N7" s="138"/>
+      <c r="O7" s="138"/>
+      <c r="P7" s="139"/>
     </row>
     <row r="8" spans="1:16" ht="30" customHeight="1">
-      <c r="A8" s="136"/>
-      <c r="B8" s="137"/>
-      <c r="C8" s="137"/>
-      <c r="D8" s="137"/>
-      <c r="E8" s="137"/>
-      <c r="F8" s="137"/>
-      <c r="G8" s="137"/>
-      <c r="H8" s="137"/>
-      <c r="I8" s="137"/>
-      <c r="J8" s="137"/>
-      <c r="K8" s="137"/>
-      <c r="L8" s="137"/>
-      <c r="M8" s="137"/>
-      <c r="N8" s="137"/>
-      <c r="O8" s="137"/>
-      <c r="P8" s="138"/>
+      <c r="A8" s="137"/>
+      <c r="B8" s="138"/>
+      <c r="C8" s="138"/>
+      <c r="D8" s="138"/>
+      <c r="E8" s="138"/>
+      <c r="F8" s="138"/>
+      <c r="G8" s="138"/>
+      <c r="H8" s="138"/>
+      <c r="I8" s="138"/>
+      <c r="J8" s="138"/>
+      <c r="K8" s="138"/>
+      <c r="L8" s="138"/>
+      <c r="M8" s="138"/>
+      <c r="N8" s="138"/>
+      <c r="O8" s="138"/>
+      <c r="P8" s="139"/>
     </row>
     <row r="9" spans="1:16" ht="30" customHeight="1">
-      <c r="A9" s="136"/>
-      <c r="B9" s="137"/>
-      <c r="C9" s="137"/>
-      <c r="D9" s="137"/>
-      <c r="E9" s="137"/>
-      <c r="F9" s="137"/>
-      <c r="G9" s="137"/>
-      <c r="H9" s="137"/>
-      <c r="I9" s="137"/>
-      <c r="J9" s="137"/>
-      <c r="K9" s="137"/>
-      <c r="L9" s="137"/>
-      <c r="M9" s="137"/>
-      <c r="N9" s="137"/>
-      <c r="O9" s="137"/>
-      <c r="P9" s="138"/>
+      <c r="A9" s="137"/>
+      <c r="B9" s="138"/>
+      <c r="C9" s="138"/>
+      <c r="D9" s="138"/>
+      <c r="E9" s="138"/>
+      <c r="F9" s="138"/>
+      <c r="G9" s="138"/>
+      <c r="H9" s="138"/>
+      <c r="I9" s="138"/>
+      <c r="J9" s="138"/>
+      <c r="K9" s="138"/>
+      <c r="L9" s="138"/>
+      <c r="M9" s="138"/>
+      <c r="N9" s="138"/>
+      <c r="O9" s="138"/>
+      <c r="P9" s="139"/>
     </row>
     <row r="10" spans="1:16" ht="30" customHeight="1">
-      <c r="A10" s="136"/>
-      <c r="B10" s="137"/>
-      <c r="C10" s="137"/>
-      <c r="D10" s="137"/>
-      <c r="E10" s="137"/>
-      <c r="F10" s="137"/>
-      <c r="G10" s="137"/>
-      <c r="H10" s="137"/>
-      <c r="I10" s="137"/>
-      <c r="J10" s="137"/>
-      <c r="K10" s="137"/>
-      <c r="L10" s="137"/>
-      <c r="M10" s="137"/>
-      <c r="N10" s="137"/>
-      <c r="O10" s="137"/>
-      <c r="P10" s="138"/>
+      <c r="A10" s="137"/>
+      <c r="B10" s="138"/>
+      <c r="C10" s="138"/>
+      <c r="D10" s="138"/>
+      <c r="E10" s="138"/>
+      <c r="F10" s="138"/>
+      <c r="G10" s="138"/>
+      <c r="H10" s="138"/>
+      <c r="I10" s="138"/>
+      <c r="J10" s="138"/>
+      <c r="K10" s="138"/>
+      <c r="L10" s="138"/>
+      <c r="M10" s="138"/>
+      <c r="N10" s="138"/>
+      <c r="O10" s="138"/>
+      <c r="P10" s="139"/>
     </row>
     <row r="11" spans="1:16" ht="30" customHeight="1">
-      <c r="A11" s="136"/>
-      <c r="B11" s="137"/>
-      <c r="C11" s="137"/>
-      <c r="D11" s="137"/>
-      <c r="E11" s="137"/>
-      <c r="F11" s="137"/>
-      <c r="G11" s="137"/>
-      <c r="H11" s="137"/>
-      <c r="I11" s="137"/>
-      <c r="J11" s="137"/>
-      <c r="K11" s="137"/>
-      <c r="L11" s="137"/>
-      <c r="M11" s="137"/>
-      <c r="N11" s="137"/>
-      <c r="O11" s="137"/>
-      <c r="P11" s="138"/>
+      <c r="A11" s="137"/>
+      <c r="B11" s="138"/>
+      <c r="C11" s="138"/>
+      <c r="D11" s="138"/>
+      <c r="E11" s="138"/>
+      <c r="F11" s="138"/>
+      <c r="G11" s="138"/>
+      <c r="H11" s="138"/>
+      <c r="I11" s="138"/>
+      <c r="J11" s="138"/>
+      <c r="K11" s="138"/>
+      <c r="L11" s="138"/>
+      <c r="M11" s="138"/>
+      <c r="N11" s="138"/>
+      <c r="O11" s="138"/>
+      <c r="P11" s="139"/>
     </row>
     <row r="12" spans="1:16" ht="30" customHeight="1">
-      <c r="A12" s="136"/>
-      <c r="B12" s="137"/>
-      <c r="C12" s="137"/>
-      <c r="D12" s="137"/>
-      <c r="E12" s="137"/>
-      <c r="F12" s="137"/>
-      <c r="G12" s="137"/>
-      <c r="H12" s="137"/>
-      <c r="I12" s="137"/>
-      <c r="J12" s="137"/>
-      <c r="K12" s="137"/>
-      <c r="L12" s="137"/>
-      <c r="M12" s="137"/>
-      <c r="N12" s="137"/>
-      <c r="O12" s="137"/>
-      <c r="P12" s="138"/>
+      <c r="A12" s="137"/>
+      <c r="B12" s="138"/>
+      <c r="C12" s="138"/>
+      <c r="D12" s="138"/>
+      <c r="E12" s="138"/>
+      <c r="F12" s="138"/>
+      <c r="G12" s="138"/>
+      <c r="H12" s="138"/>
+      <c r="I12" s="138"/>
+      <c r="J12" s="138"/>
+      <c r="K12" s="138"/>
+      <c r="L12" s="138"/>
+      <c r="M12" s="138"/>
+      <c r="N12" s="138"/>
+      <c r="O12" s="138"/>
+      <c r="P12" s="139"/>
     </row>
     <row r="13" spans="1:16" ht="30" customHeight="1">
-      <c r="A13" s="136"/>
-      <c r="B13" s="137"/>
-      <c r="C13" s="137"/>
-      <c r="D13" s="137"/>
-      <c r="E13" s="137"/>
-      <c r="F13" s="137"/>
-      <c r="G13" s="137"/>
-      <c r="H13" s="137"/>
-      <c r="I13" s="137"/>
-      <c r="J13" s="137"/>
-      <c r="K13" s="137"/>
-      <c r="L13" s="137"/>
-      <c r="M13" s="137"/>
-      <c r="N13" s="137"/>
-      <c r="O13" s="137"/>
-      <c r="P13" s="138"/>
+      <c r="A13" s="137"/>
+      <c r="B13" s="138"/>
+      <c r="C13" s="138"/>
+      <c r="D13" s="138"/>
+      <c r="E13" s="138"/>
+      <c r="F13" s="138"/>
+      <c r="G13" s="138"/>
+      <c r="H13" s="138"/>
+      <c r="I13" s="138"/>
+      <c r="J13" s="138"/>
+      <c r="K13" s="138"/>
+      <c r="L13" s="138"/>
+      <c r="M13" s="138"/>
+      <c r="N13" s="138"/>
+      <c r="O13" s="138"/>
+      <c r="P13" s="139"/>
     </row>
     <row r="14" spans="1:16" ht="30" customHeight="1">
-      <c r="A14" s="136"/>
-      <c r="B14" s="137"/>
-      <c r="C14" s="137"/>
-      <c r="D14" s="137"/>
-      <c r="E14" s="137"/>
-      <c r="F14" s="137"/>
-      <c r="G14" s="137"/>
-      <c r="H14" s="137"/>
-      <c r="I14" s="137"/>
-      <c r="J14" s="137"/>
-      <c r="K14" s="137"/>
-      <c r="L14" s="137"/>
-      <c r="M14" s="137"/>
-      <c r="N14" s="137"/>
-      <c r="O14" s="137"/>
-      <c r="P14" s="138"/>
+      <c r="A14" s="137"/>
+      <c r="B14" s="138"/>
+      <c r="C14" s="138"/>
+      <c r="D14" s="138"/>
+      <c r="E14" s="138"/>
+      <c r="F14" s="138"/>
+      <c r="G14" s="138"/>
+      <c r="H14" s="138"/>
+      <c r="I14" s="138"/>
+      <c r="J14" s="138"/>
+      <c r="K14" s="138"/>
+      <c r="L14" s="138"/>
+      <c r="M14" s="138"/>
+      <c r="N14" s="138"/>
+      <c r="O14" s="138"/>
+      <c r="P14" s="139"/>
     </row>
     <row r="15" spans="1:16" ht="30" customHeight="1">
-      <c r="A15" s="136"/>
-      <c r="B15" s="137"/>
-      <c r="C15" s="137"/>
-      <c r="D15" s="137"/>
-      <c r="E15" s="137"/>
-      <c r="F15" s="137"/>
-      <c r="G15" s="137"/>
-      <c r="H15" s="137"/>
-      <c r="I15" s="137"/>
-      <c r="J15" s="137"/>
-      <c r="K15" s="137"/>
-      <c r="L15" s="137"/>
-      <c r="M15" s="137"/>
-      <c r="N15" s="137"/>
-      <c r="O15" s="137"/>
-      <c r="P15" s="138"/>
+      <c r="A15" s="137"/>
+      <c r="B15" s="138"/>
+      <c r="C15" s="138"/>
+      <c r="D15" s="138"/>
+      <c r="E15" s="138"/>
+      <c r="F15" s="138"/>
+      <c r="G15" s="138"/>
+      <c r="H15" s="138"/>
+      <c r="I15" s="138"/>
+      <c r="J15" s="138"/>
+      <c r="K15" s="138"/>
+      <c r="L15" s="138"/>
+      <c r="M15" s="138"/>
+      <c r="N15" s="138"/>
+      <c r="O15" s="138"/>
+      <c r="P15" s="139"/>
     </row>
     <row r="16" spans="1:16" ht="30" customHeight="1">
-      <c r="A16" s="136"/>
-      <c r="B16" s="137"/>
-      <c r="C16" s="137"/>
-      <c r="D16" s="137"/>
-      <c r="E16" s="137"/>
-      <c r="F16" s="137"/>
-      <c r="G16" s="137"/>
-      <c r="H16" s="137"/>
-      <c r="I16" s="137"/>
-      <c r="J16" s="137"/>
-      <c r="K16" s="137"/>
-      <c r="L16" s="137"/>
-      <c r="M16" s="137"/>
-      <c r="N16" s="137"/>
-      <c r="O16" s="137"/>
-      <c r="P16" s="138"/>
+      <c r="A16" s="137"/>
+      <c r="B16" s="138"/>
+      <c r="C16" s="138"/>
+      <c r="D16" s="138"/>
+      <c r="E16" s="138"/>
+      <c r="F16" s="138"/>
+      <c r="G16" s="138"/>
+      <c r="H16" s="138"/>
+      <c r="I16" s="138"/>
+      <c r="J16" s="138"/>
+      <c r="K16" s="138"/>
+      <c r="L16" s="138"/>
+      <c r="M16" s="138"/>
+      <c r="N16" s="138"/>
+      <c r="O16" s="138"/>
+      <c r="P16" s="139"/>
     </row>
     <row r="17" spans="1:16" ht="30" customHeight="1">
-      <c r="A17" s="136"/>
-      <c r="B17" s="137"/>
-      <c r="C17" s="137"/>
-      <c r="D17" s="137"/>
-      <c r="E17" s="137"/>
-      <c r="F17" s="137"/>
-      <c r="G17" s="137"/>
-      <c r="H17" s="137"/>
-      <c r="I17" s="137"/>
-      <c r="J17" s="137"/>
-      <c r="K17" s="137"/>
-      <c r="L17" s="137"/>
-      <c r="M17" s="137"/>
-      <c r="N17" s="137"/>
-      <c r="O17" s="137"/>
-      <c r="P17" s="138"/>
+      <c r="A17" s="137"/>
+      <c r="B17" s="138"/>
+      <c r="C17" s="138"/>
+      <c r="D17" s="138"/>
+      <c r="E17" s="138"/>
+      <c r="F17" s="138"/>
+      <c r="G17" s="138"/>
+      <c r="H17" s="138"/>
+      <c r="I17" s="138"/>
+      <c r="J17" s="138"/>
+      <c r="K17" s="138"/>
+      <c r="L17" s="138"/>
+      <c r="M17" s="138"/>
+      <c r="N17" s="138"/>
+      <c r="O17" s="138"/>
+      <c r="P17" s="139"/>
     </row>
     <row r="18" spans="1:16" ht="30" customHeight="1">
-      <c r="A18" s="136"/>
-      <c r="B18" s="137"/>
-      <c r="C18" s="137"/>
-      <c r="D18" s="137"/>
-      <c r="E18" s="137"/>
-      <c r="F18" s="137"/>
-      <c r="G18" s="137"/>
-      <c r="H18" s="137"/>
-      <c r="I18" s="137"/>
-      <c r="J18" s="137"/>
-      <c r="K18" s="137"/>
-      <c r="L18" s="137"/>
-      <c r="M18" s="137"/>
-      <c r="N18" s="137"/>
-      <c r="O18" s="137"/>
-      <c r="P18" s="138"/>
+      <c r="A18" s="137"/>
+      <c r="B18" s="138"/>
+      <c r="C18" s="138"/>
+      <c r="D18" s="138"/>
+      <c r="E18" s="138"/>
+      <c r="F18" s="138"/>
+      <c r="G18" s="138"/>
+      <c r="H18" s="138"/>
+      <c r="I18" s="138"/>
+      <c r="J18" s="138"/>
+      <c r="K18" s="138"/>
+      <c r="L18" s="138"/>
+      <c r="M18" s="138"/>
+      <c r="N18" s="138"/>
+      <c r="O18" s="138"/>
+      <c r="P18" s="139"/>
     </row>
     <row r="19" spans="1:16" ht="30" customHeight="1">
-      <c r="A19" s="136"/>
-      <c r="B19" s="137"/>
-      <c r="C19" s="137"/>
-      <c r="D19" s="137"/>
-      <c r="E19" s="137"/>
-      <c r="F19" s="137"/>
-      <c r="G19" s="137"/>
-      <c r="H19" s="137"/>
-      <c r="I19" s="137"/>
-      <c r="J19" s="137"/>
-      <c r="K19" s="137"/>
-      <c r="L19" s="137"/>
-      <c r="M19" s="137"/>
-      <c r="N19" s="137"/>
-      <c r="O19" s="137"/>
-      <c r="P19" s="138"/>
+      <c r="A19" s="137"/>
+      <c r="B19" s="138"/>
+      <c r="C19" s="138"/>
+      <c r="D19" s="138"/>
+      <c r="E19" s="138"/>
+      <c r="F19" s="138"/>
+      <c r="G19" s="138"/>
+      <c r="H19" s="138"/>
+      <c r="I19" s="138"/>
+      <c r="J19" s="138"/>
+      <c r="K19" s="138"/>
+      <c r="L19" s="138"/>
+      <c r="M19" s="138"/>
+      <c r="N19" s="138"/>
+      <c r="O19" s="138"/>
+      <c r="P19" s="139"/>
     </row>
     <row r="20" spans="1:16" ht="30" customHeight="1">
-      <c r="A20" s="136"/>
-      <c r="B20" s="137"/>
-      <c r="C20" s="137"/>
-      <c r="D20" s="137"/>
-      <c r="E20" s="137"/>
-      <c r="F20" s="137"/>
-      <c r="G20" s="137"/>
-      <c r="H20" s="137"/>
-      <c r="I20" s="137"/>
-      <c r="J20" s="137"/>
-      <c r="K20" s="137"/>
-      <c r="L20" s="137"/>
-      <c r="M20" s="137"/>
-      <c r="N20" s="137"/>
-      <c r="O20" s="137"/>
-      <c r="P20" s="138"/>
+      <c r="A20" s="137"/>
+      <c r="B20" s="138"/>
+      <c r="C20" s="138"/>
+      <c r="D20" s="138"/>
+      <c r="E20" s="138"/>
+      <c r="F20" s="138"/>
+      <c r="G20" s="138"/>
+      <c r="H20" s="138"/>
+      <c r="I20" s="138"/>
+      <c r="J20" s="138"/>
+      <c r="K20" s="138"/>
+      <c r="L20" s="138"/>
+      <c r="M20" s="138"/>
+      <c r="N20" s="138"/>
+      <c r="O20" s="138"/>
+      <c r="P20" s="139"/>
     </row>
     <row r="21" spans="1:16" ht="30" customHeight="1">
-      <c r="A21" s="136"/>
-      <c r="B21" s="137"/>
-      <c r="C21" s="137"/>
-      <c r="D21" s="137"/>
-      <c r="E21" s="137"/>
-      <c r="F21" s="137"/>
-      <c r="G21" s="137"/>
-      <c r="H21" s="137"/>
-      <c r="I21" s="137"/>
-      <c r="J21" s="137"/>
-      <c r="K21" s="137"/>
-      <c r="L21" s="137"/>
-      <c r="M21" s="137"/>
-      <c r="N21" s="137"/>
-      <c r="O21" s="137"/>
-      <c r="P21" s="138"/>
+      <c r="A21" s="137"/>
+      <c r="B21" s="138"/>
+      <c r="C21" s="138"/>
+      <c r="D21" s="138"/>
+      <c r="E21" s="138"/>
+      <c r="F21" s="138"/>
+      <c r="G21" s="138"/>
+      <c r="H21" s="138"/>
+      <c r="I21" s="138"/>
+      <c r="J21" s="138"/>
+      <c r="K21" s="138"/>
+      <c r="L21" s="138"/>
+      <c r="M21" s="138"/>
+      <c r="N21" s="138"/>
+      <c r="O21" s="138"/>
+      <c r="P21" s="139"/>
     </row>
     <row r="22" spans="1:16" ht="30" customHeight="1">
-      <c r="A22" s="136"/>
-      <c r="B22" s="137"/>
-      <c r="C22" s="137"/>
-      <c r="D22" s="137"/>
-      <c r="E22" s="137"/>
-      <c r="F22" s="137"/>
-      <c r="G22" s="137"/>
-      <c r="H22" s="137"/>
-      <c r="I22" s="137"/>
-      <c r="J22" s="137"/>
-      <c r="K22" s="137"/>
-      <c r="L22" s="137"/>
-      <c r="M22" s="137"/>
-      <c r="N22" s="137"/>
-      <c r="O22" s="137"/>
-      <c r="P22" s="138"/>
+      <c r="A22" s="137"/>
+      <c r="B22" s="138"/>
+      <c r="C22" s="138"/>
+      <c r="D22" s="138"/>
+      <c r="E22" s="138"/>
+      <c r="F22" s="138"/>
+      <c r="G22" s="138"/>
+      <c r="H22" s="138"/>
+      <c r="I22" s="138"/>
+      <c r="J22" s="138"/>
+      <c r="K22" s="138"/>
+      <c r="L22" s="138"/>
+      <c r="M22" s="138"/>
+      <c r="N22" s="138"/>
+      <c r="O22" s="138"/>
+      <c r="P22" s="139"/>
     </row>
     <row r="23" spans="1:16" ht="30" customHeight="1">
-      <c r="A23" s="136"/>
-      <c r="B23" s="137"/>
-      <c r="C23" s="137"/>
-      <c r="D23" s="137"/>
-      <c r="E23" s="137"/>
-      <c r="F23" s="137"/>
-      <c r="G23" s="137"/>
-      <c r="H23" s="137"/>
-      <c r="I23" s="137"/>
-      <c r="J23" s="137"/>
-      <c r="K23" s="137"/>
-      <c r="L23" s="137"/>
-      <c r="M23" s="137"/>
-      <c r="N23" s="137"/>
-      <c r="O23" s="137"/>
-      <c r="P23" s="138"/>
+      <c r="A23" s="137"/>
+      <c r="B23" s="138"/>
+      <c r="C23" s="138"/>
+      <c r="D23" s="138"/>
+      <c r="E23" s="138"/>
+      <c r="F23" s="138"/>
+      <c r="G23" s="138"/>
+      <c r="H23" s="138"/>
+      <c r="I23" s="138"/>
+      <c r="J23" s="138"/>
+      <c r="K23" s="138"/>
+      <c r="L23" s="138"/>
+      <c r="M23" s="138"/>
+      <c r="N23" s="138"/>
+      <c r="O23" s="138"/>
+      <c r="P23" s="139"/>
     </row>
     <row r="24" spans="1:16" ht="30" customHeight="1">
-      <c r="A24" s="136"/>
-      <c r="B24" s="137"/>
-      <c r="C24" s="137"/>
-      <c r="D24" s="137"/>
-      <c r="E24" s="137"/>
-      <c r="F24" s="137"/>
-      <c r="G24" s="137"/>
-      <c r="H24" s="137"/>
-      <c r="I24" s="137"/>
-      <c r="J24" s="137"/>
-      <c r="K24" s="137"/>
-      <c r="L24" s="137"/>
-      <c r="M24" s="137"/>
-      <c r="N24" s="137"/>
-      <c r="O24" s="137"/>
-      <c r="P24" s="138"/>
+      <c r="A24" s="137"/>
+      <c r="B24" s="138"/>
+      <c r="C24" s="138"/>
+      <c r="D24" s="138"/>
+      <c r="E24" s="138"/>
+      <c r="F24" s="138"/>
+      <c r="G24" s="138"/>
+      <c r="H24" s="138"/>
+      <c r="I24" s="138"/>
+      <c r="J24" s="138"/>
+      <c r="K24" s="138"/>
+      <c r="L24" s="138"/>
+      <c r="M24" s="138"/>
+      <c r="N24" s="138"/>
+      <c r="O24" s="138"/>
+      <c r="P24" s="139"/>
     </row>
     <row r="25" spans="1:16" ht="30" customHeight="1">
-      <c r="A25" s="136"/>
-      <c r="B25" s="137"/>
-      <c r="C25" s="137"/>
-      <c r="D25" s="137"/>
-      <c r="E25" s="137"/>
-      <c r="F25" s="137"/>
-      <c r="G25" s="137"/>
-      <c r="H25" s="137"/>
-      <c r="I25" s="137"/>
-      <c r="J25" s="137"/>
-      <c r="K25" s="137"/>
-      <c r="L25" s="137"/>
-      <c r="M25" s="137"/>
-      <c r="N25" s="137"/>
-      <c r="O25" s="137"/>
-      <c r="P25" s="138"/>
+      <c r="A25" s="137"/>
+      <c r="B25" s="138"/>
+      <c r="C25" s="138"/>
+      <c r="D25" s="138"/>
+      <c r="E25" s="138"/>
+      <c r="F25" s="138"/>
+      <c r="G25" s="138"/>
+      <c r="H25" s="138"/>
+      <c r="I25" s="138"/>
+      <c r="J25" s="138"/>
+      <c r="K25" s="138"/>
+      <c r="L25" s="138"/>
+      <c r="M25" s="138"/>
+      <c r="N25" s="138"/>
+      <c r="O25" s="138"/>
+      <c r="P25" s="139"/>
     </row>
     <row r="26" spans="1:16" ht="30" customHeight="1">
-      <c r="A26" s="136"/>
-      <c r="B26" s="137"/>
-      <c r="C26" s="137"/>
-      <c r="D26" s="137"/>
-      <c r="E26" s="137"/>
-      <c r="F26" s="137"/>
-      <c r="G26" s="137"/>
-      <c r="H26" s="137"/>
-      <c r="I26" s="137"/>
-      <c r="J26" s="137"/>
-      <c r="K26" s="137"/>
-      <c r="L26" s="137"/>
-      <c r="M26" s="137"/>
-      <c r="N26" s="137"/>
-      <c r="O26" s="137"/>
-      <c r="P26" s="138"/>
+      <c r="A26" s="137"/>
+      <c r="B26" s="138"/>
+      <c r="C26" s="138"/>
+      <c r="D26" s="138"/>
+      <c r="E26" s="138"/>
+      <c r="F26" s="138"/>
+      <c r="G26" s="138"/>
+      <c r="H26" s="138"/>
+      <c r="I26" s="138"/>
+      <c r="J26" s="138"/>
+      <c r="K26" s="138"/>
+      <c r="L26" s="138"/>
+      <c r="M26" s="138"/>
+      <c r="N26" s="138"/>
+      <c r="O26" s="138"/>
+      <c r="P26" s="139"/>
     </row>
     <row r="27" spans="1:16" ht="30" customHeight="1">
-      <c r="A27" s="136"/>
-      <c r="B27" s="137"/>
-      <c r="C27" s="137"/>
-      <c r="D27" s="137"/>
-      <c r="E27" s="137"/>
-      <c r="F27" s="137"/>
-      <c r="G27" s="137"/>
-      <c r="H27" s="137"/>
-      <c r="I27" s="137"/>
-      <c r="J27" s="137"/>
-      <c r="K27" s="137"/>
-      <c r="L27" s="137"/>
-      <c r="M27" s="137"/>
-      <c r="N27" s="137"/>
-      <c r="O27" s="137"/>
-      <c r="P27" s="138"/>
+      <c r="A27" s="137"/>
+      <c r="B27" s="138"/>
+      <c r="C27" s="138"/>
+      <c r="D27" s="138"/>
+      <c r="E27" s="138"/>
+      <c r="F27" s="138"/>
+      <c r="G27" s="138"/>
+      <c r="H27" s="138"/>
+      <c r="I27" s="138"/>
+      <c r="J27" s="138"/>
+      <c r="K27" s="138"/>
+      <c r="L27" s="138"/>
+      <c r="M27" s="138"/>
+      <c r="N27" s="138"/>
+      <c r="O27" s="138"/>
+      <c r="P27" s="139"/>
     </row>
     <row r="28" spans="1:16" ht="30" customHeight="1">
-      <c r="A28" s="136"/>
-      <c r="B28" s="137"/>
-      <c r="C28" s="137"/>
-      <c r="D28" s="137"/>
-      <c r="E28" s="137"/>
-      <c r="F28" s="137"/>
-      <c r="G28" s="137"/>
-      <c r="H28" s="137"/>
-      <c r="I28" s="137"/>
-      <c r="J28" s="137"/>
-      <c r="K28" s="137"/>
-      <c r="L28" s="137"/>
-      <c r="M28" s="137"/>
-      <c r="N28" s="137"/>
-      <c r="O28" s="137"/>
-      <c r="P28" s="138"/>
+      <c r="A28" s="137"/>
+      <c r="B28" s="138"/>
+      <c r="C28" s="138"/>
+      <c r="D28" s="138"/>
+      <c r="E28" s="138"/>
+      <c r="F28" s="138"/>
+      <c r="G28" s="138"/>
+      <c r="H28" s="138"/>
+      <c r="I28" s="138"/>
+      <c r="J28" s="138"/>
+      <c r="K28" s="138"/>
+      <c r="L28" s="138"/>
+      <c r="M28" s="138"/>
+      <c r="N28" s="138"/>
+      <c r="O28" s="138"/>
+      <c r="P28" s="139"/>
     </row>
     <row r="29" spans="1:16" ht="30" customHeight="1">
-      <c r="A29" s="139"/>
-      <c r="B29" s="140"/>
-      <c r="C29" s="140"/>
-      <c r="D29" s="140"/>
-      <c r="E29" s="140"/>
-      <c r="F29" s="140"/>
-      <c r="G29" s="140"/>
-      <c r="H29" s="140"/>
-      <c r="I29" s="140"/>
-      <c r="J29" s="140"/>
-      <c r="K29" s="140"/>
-      <c r="L29" s="140"/>
-      <c r="M29" s="140"/>
-      <c r="N29" s="140"/>
-      <c r="O29" s="140"/>
-      <c r="P29" s="141"/>
+      <c r="A29" s="140"/>
+      <c r="B29" s="141"/>
+      <c r="C29" s="141"/>
+      <c r="D29" s="141"/>
+      <c r="E29" s="141"/>
+      <c r="F29" s="141"/>
+      <c r="G29" s="141"/>
+      <c r="H29" s="141"/>
+      <c r="I29" s="141"/>
+      <c r="J29" s="141"/>
+      <c r="K29" s="141"/>
+      <c r="L29" s="141"/>
+      <c r="M29" s="141"/>
+      <c r="N29" s="141"/>
+      <c r="O29" s="141"/>
+      <c r="P29" s="142"/>
     </row>
     <row r="31" spans="1:16" ht="13.5" customHeight="1"/>
     <row r="32" spans="1:16" ht="13.5" customHeight="1"/>
@@ -10390,33 +10526,33 @@
   <dimension ref="A1:P103"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="87" zoomScaleNormal="100" zoomScaleSheetLayoutView="87" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:P2"/>
+      <selection activeCell="N4" sqref="N4:O4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.5" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="5.44140625" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="16" width="5.625" customWidth="1"/>
+    <col min="1" max="16" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="30" customHeight="1">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="143" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
     </row>
     <row r="2" spans="1:16" ht="34.5" customHeight="1">
       <c r="A2" s="165" t="s">
@@ -10438,21 +10574,21 @@
       <c r="O2" s="165"/>
       <c r="P2" s="165"/>
     </row>
-    <row r="3" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A3" s="143" t="s">
+    <row r="3" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A3" s="144" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="144"/>
-      <c r="C3" s="144"/>
-      <c r="D3" s="144"/>
-      <c r="E3" s="144"/>
-      <c r="F3" s="144"/>
-      <c r="G3" s="144"/>
-      <c r="H3" s="144"/>
-      <c r="I3" s="144"/>
-      <c r="J3" s="144"/>
-      <c r="K3" s="144"/>
-      <c r="L3" s="145"/>
+      <c r="B3" s="145"/>
+      <c r="C3" s="145"/>
+      <c r="D3" s="145"/>
+      <c r="E3" s="145"/>
+      <c r="F3" s="145"/>
+      <c r="G3" s="145"/>
+      <c r="H3" s="145"/>
+      <c r="I3" s="145"/>
+      <c r="J3" s="145"/>
+      <c r="K3" s="145"/>
+      <c r="L3" s="146"/>
       <c r="M3" s="40" t="s">
         <v>66</v>
       </c>
@@ -10460,225 +10596,225 @@
       <c r="O3" s="41"/>
       <c r="P3" s="42"/>
     </row>
-    <row r="4" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A4" s="146"/>
-      <c r="B4" s="147"/>
-      <c r="C4" s="147"/>
-      <c r="D4" s="147"/>
-      <c r="E4" s="147"/>
-      <c r="F4" s="147"/>
-      <c r="G4" s="147"/>
-      <c r="H4" s="147"/>
-      <c r="I4" s="147"/>
-      <c r="J4" s="147"/>
-      <c r="K4" s="147"/>
-      <c r="L4" s="147"/>
+    <row r="4" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A4" s="147"/>
+      <c r="B4" s="148"/>
+      <c r="C4" s="148"/>
+      <c r="D4" s="148"/>
+      <c r="E4" s="148"/>
+      <c r="F4" s="148"/>
+      <c r="G4" s="148"/>
+      <c r="H4" s="148"/>
+      <c r="I4" s="148"/>
+      <c r="J4" s="148"/>
+      <c r="K4" s="148"/>
+      <c r="L4" s="148"/>
       <c r="M4" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="N4" s="97"/>
-      <c r="O4" s="98"/>
+      <c r="N4" s="125"/>
+      <c r="O4" s="126"/>
       <c r="P4" s="44" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A5" s="148"/>
-      <c r="B5" s="149"/>
-      <c r="C5" s="149"/>
-      <c r="D5" s="149"/>
-      <c r="E5" s="149"/>
-      <c r="F5" s="149"/>
-      <c r="G5" s="149"/>
-      <c r="H5" s="149"/>
-      <c r="I5" s="149"/>
-      <c r="J5" s="149"/>
-      <c r="K5" s="149"/>
-      <c r="L5" s="149"/>
+    <row r="5" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A5" s="149"/>
+      <c r="B5" s="150"/>
+      <c r="C5" s="150"/>
+      <c r="D5" s="150"/>
+      <c r="E5" s="150"/>
+      <c r="F5" s="150"/>
+      <c r="G5" s="150"/>
+      <c r="H5" s="150"/>
+      <c r="I5" s="150"/>
+      <c r="J5" s="150"/>
+      <c r="K5" s="150"/>
+      <c r="L5" s="150"/>
       <c r="M5" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="N5" s="97"/>
-      <c r="O5" s="98"/>
+      <c r="N5" s="125"/>
+      <c r="O5" s="126"/>
       <c r="P5" s="44" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A6" s="148"/>
-      <c r="B6" s="149"/>
-      <c r="C6" s="149"/>
-      <c r="D6" s="149"/>
-      <c r="E6" s="149"/>
-      <c r="F6" s="149"/>
-      <c r="G6" s="149"/>
-      <c r="H6" s="149"/>
-      <c r="I6" s="149"/>
-      <c r="J6" s="149"/>
-      <c r="K6" s="149"/>
-      <c r="L6" s="149"/>
+    <row r="6" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A6" s="149"/>
+      <c r="B6" s="150"/>
+      <c r="C6" s="150"/>
+      <c r="D6" s="150"/>
+      <c r="E6" s="150"/>
+      <c r="F6" s="150"/>
+      <c r="G6" s="150"/>
+      <c r="H6" s="150"/>
+      <c r="I6" s="150"/>
+      <c r="J6" s="150"/>
+      <c r="K6" s="150"/>
+      <c r="L6" s="150"/>
       <c r="M6" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="N6" s="97"/>
-      <c r="O6" s="98"/>
+      <c r="N6" s="125"/>
+      <c r="O6" s="126"/>
       <c r="P6" s="44" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A7" s="148"/>
-      <c r="B7" s="149"/>
-      <c r="C7" s="149"/>
-      <c r="D7" s="149"/>
-      <c r="E7" s="149"/>
-      <c r="F7" s="149"/>
-      <c r="G7" s="149"/>
-      <c r="H7" s="149"/>
-      <c r="I7" s="149"/>
-      <c r="J7" s="149"/>
-      <c r="K7" s="149"/>
-      <c r="L7" s="149"/>
+    <row r="7" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A7" s="149"/>
+      <c r="B7" s="150"/>
+      <c r="C7" s="150"/>
+      <c r="D7" s="150"/>
+      <c r="E7" s="150"/>
+      <c r="F7" s="150"/>
+      <c r="G7" s="150"/>
+      <c r="H7" s="150"/>
+      <c r="I7" s="150"/>
+      <c r="J7" s="150"/>
+      <c r="K7" s="150"/>
+      <c r="L7" s="150"/>
       <c r="M7" s="43" t="s">
         <v>72</v>
       </c>
       <c r="N7" s="161"/>
-      <c r="O7" s="97"/>
+      <c r="O7" s="125"/>
       <c r="P7" s="44" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A8" s="148"/>
-      <c r="B8" s="149"/>
-      <c r="C8" s="149"/>
-      <c r="D8" s="149"/>
-      <c r="E8" s="149"/>
-      <c r="F8" s="149"/>
-      <c r="G8" s="149"/>
-      <c r="H8" s="149"/>
-      <c r="I8" s="149"/>
-      <c r="J8" s="149"/>
-      <c r="K8" s="149"/>
-      <c r="L8" s="149"/>
+    <row r="8" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A8" s="149"/>
+      <c r="B8" s="150"/>
+      <c r="C8" s="150"/>
+      <c r="D8" s="150"/>
+      <c r="E8" s="150"/>
+      <c r="F8" s="150"/>
+      <c r="G8" s="150"/>
+      <c r="H8" s="150"/>
+      <c r="I8" s="150"/>
+      <c r="J8" s="150"/>
+      <c r="K8" s="150"/>
+      <c r="L8" s="150"/>
       <c r="M8" s="45" t="s">
         <v>74</v>
       </c>
       <c r="N8" s="161"/>
-      <c r="O8" s="97"/>
+      <c r="O8" s="125"/>
       <c r="P8" s="44" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A9" s="148"/>
-      <c r="B9" s="149"/>
-      <c r="C9" s="149"/>
-      <c r="D9" s="149"/>
-      <c r="E9" s="149"/>
-      <c r="F9" s="149"/>
-      <c r="G9" s="149"/>
-      <c r="H9" s="149"/>
-      <c r="I9" s="149"/>
-      <c r="J9" s="149"/>
-      <c r="K9" s="149"/>
-      <c r="L9" s="149"/>
+    <row r="9" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A9" s="149"/>
+      <c r="B9" s="150"/>
+      <c r="C9" s="150"/>
+      <c r="D9" s="150"/>
+      <c r="E9" s="150"/>
+      <c r="F9" s="150"/>
+      <c r="G9" s="150"/>
+      <c r="H9" s="150"/>
+      <c r="I9" s="150"/>
+      <c r="J9" s="150"/>
+      <c r="K9" s="150"/>
+      <c r="L9" s="150"/>
       <c r="M9" s="36"/>
       <c r="N9" s="36"/>
       <c r="O9" s="36"/>
       <c r="P9" s="37"/>
     </row>
-    <row r="10" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A10" s="148"/>
-      <c r="B10" s="149"/>
-      <c r="C10" s="149"/>
-      <c r="D10" s="149"/>
-      <c r="E10" s="149"/>
-      <c r="F10" s="149"/>
-      <c r="G10" s="149"/>
-      <c r="H10" s="149"/>
-      <c r="I10" s="149"/>
-      <c r="J10" s="149"/>
-      <c r="K10" s="149"/>
-      <c r="L10" s="149"/>
+    <row r="10" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A10" s="149"/>
+      <c r="B10" s="150"/>
+      <c r="C10" s="150"/>
+      <c r="D10" s="150"/>
+      <c r="E10" s="150"/>
+      <c r="F10" s="150"/>
+      <c r="G10" s="150"/>
+      <c r="H10" s="150"/>
+      <c r="I10" s="150"/>
+      <c r="J10" s="150"/>
+      <c r="K10" s="150"/>
+      <c r="L10" s="150"/>
       <c r="M10" s="36"/>
       <c r="N10" s="36"/>
       <c r="O10" s="36"/>
       <c r="P10" s="37"/>
     </row>
-    <row r="11" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A11" s="148"/>
-      <c r="B11" s="149"/>
-      <c r="C11" s="149"/>
-      <c r="D11" s="149"/>
-      <c r="E11" s="149"/>
-      <c r="F11" s="149"/>
-      <c r="G11" s="149"/>
-      <c r="H11" s="149"/>
-      <c r="I11" s="149"/>
-      <c r="J11" s="149"/>
-      <c r="K11" s="149"/>
-      <c r="L11" s="149"/>
+    <row r="11" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A11" s="149"/>
+      <c r="B11" s="150"/>
+      <c r="C11" s="150"/>
+      <c r="D11" s="150"/>
+      <c r="E11" s="150"/>
+      <c r="F11" s="150"/>
+      <c r="G11" s="150"/>
+      <c r="H11" s="150"/>
+      <c r="I11" s="150"/>
+      <c r="J11" s="150"/>
+      <c r="K11" s="150"/>
+      <c r="L11" s="150"/>
       <c r="M11" s="36"/>
       <c r="N11" s="36"/>
       <c r="O11" s="36"/>
       <c r="P11" s="37"/>
     </row>
-    <row r="12" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A12" s="148"/>
-      <c r="B12" s="149"/>
-      <c r="C12" s="149"/>
-      <c r="D12" s="149"/>
-      <c r="E12" s="149"/>
-      <c r="F12" s="149"/>
-      <c r="G12" s="149"/>
-      <c r="H12" s="149"/>
-      <c r="I12" s="149"/>
-      <c r="J12" s="149"/>
-      <c r="K12" s="149"/>
-      <c r="L12" s="149"/>
+    <row r="12" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A12" s="149"/>
+      <c r="B12" s="150"/>
+      <c r="C12" s="150"/>
+      <c r="D12" s="150"/>
+      <c r="E12" s="150"/>
+      <c r="F12" s="150"/>
+      <c r="G12" s="150"/>
+      <c r="H12" s="150"/>
+      <c r="I12" s="150"/>
+      <c r="J12" s="150"/>
+      <c r="K12" s="150"/>
+      <c r="L12" s="150"/>
       <c r="M12" s="36"/>
       <c r="N12" s="36"/>
       <c r="O12" s="36"/>
       <c r="P12" s="37"/>
     </row>
-    <row r="13" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A13" s="148"/>
-      <c r="B13" s="149"/>
-      <c r="C13" s="149"/>
-      <c r="D13" s="149"/>
-      <c r="E13" s="149"/>
-      <c r="F13" s="149"/>
-      <c r="G13" s="149"/>
-      <c r="H13" s="149"/>
-      <c r="I13" s="149"/>
-      <c r="J13" s="149"/>
-      <c r="K13" s="149"/>
-      <c r="L13" s="149"/>
+    <row r="13" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A13" s="149"/>
+      <c r="B13" s="150"/>
+      <c r="C13" s="150"/>
+      <c r="D13" s="150"/>
+      <c r="E13" s="150"/>
+      <c r="F13" s="150"/>
+      <c r="G13" s="150"/>
+      <c r="H13" s="150"/>
+      <c r="I13" s="150"/>
+      <c r="J13" s="150"/>
+      <c r="K13" s="150"/>
+      <c r="L13" s="150"/>
       <c r="M13" s="36"/>
       <c r="N13" s="36"/>
       <c r="O13" s="36"/>
       <c r="P13" s="37"/>
     </row>
-    <row r="14" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A14" s="150"/>
-      <c r="B14" s="151"/>
-      <c r="C14" s="151"/>
-      <c r="D14" s="151"/>
-      <c r="E14" s="151"/>
-      <c r="F14" s="151"/>
-      <c r="G14" s="151"/>
-      <c r="H14" s="151"/>
-      <c r="I14" s="151"/>
-      <c r="J14" s="151"/>
-      <c r="K14" s="151"/>
-      <c r="L14" s="151"/>
+    <row r="14" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A14" s="151"/>
+      <c r="B14" s="152"/>
+      <c r="C14" s="152"/>
+      <c r="D14" s="152"/>
+      <c r="E14" s="152"/>
+      <c r="F14" s="152"/>
+      <c r="G14" s="152"/>
+      <c r="H14" s="152"/>
+      <c r="I14" s="152"/>
+      <c r="J14" s="152"/>
+      <c r="K14" s="152"/>
+      <c r="L14" s="152"/>
       <c r="M14" s="38"/>
       <c r="N14" s="38"/>
       <c r="O14" s="38"/>
       <c r="P14" s="39"/>
     </row>
-    <row r="15" spans="1:16" ht="24.95" customHeight="1">
+    <row r="15" spans="1:16" ht="24.9" customHeight="1">
       <c r="A15" s="34"/>
       <c r="B15" s="34"/>
       <c r="C15" s="34"/>
@@ -10696,7 +10832,7 @@
       <c r="O15" s="34"/>
       <c r="P15" s="34"/>
     </row>
-    <row r="16" spans="1:16" ht="24.95" customHeight="1">
+    <row r="16" spans="1:16" ht="24.9" customHeight="1">
       <c r="A16" s="162" t="s">
         <v>69</v>
       </c>
@@ -10716,8 +10852,10 @@
       <c r="O16" s="163"/>
       <c r="P16" s="164"/>
     </row>
-    <row r="17" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A17" s="152"/>
+    <row r="17" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A17" s="193" t="s">
+        <v>92</v>
+      </c>
       <c r="B17" s="153"/>
       <c r="C17" s="153"/>
       <c r="D17" s="153"/>
@@ -10734,7 +10872,7 @@
       <c r="O17" s="153"/>
       <c r="P17" s="154"/>
     </row>
-    <row r="18" spans="1:16" ht="24.95" customHeight="1">
+    <row r="18" spans="1:16" ht="24.9" customHeight="1">
       <c r="A18" s="155"/>
       <c r="B18" s="156"/>
       <c r="C18" s="156"/>
@@ -10752,7 +10890,7 @@
       <c r="O18" s="156"/>
       <c r="P18" s="157"/>
     </row>
-    <row r="19" spans="1:16" ht="24.95" customHeight="1">
+    <row r="19" spans="1:16" ht="24.9" customHeight="1">
       <c r="A19" s="155"/>
       <c r="B19" s="156"/>
       <c r="C19" s="156"/>
@@ -10770,7 +10908,7 @@
       <c r="O19" s="156"/>
       <c r="P19" s="157"/>
     </row>
-    <row r="20" spans="1:16" ht="24.95" customHeight="1">
+    <row r="20" spans="1:16" ht="24.9" customHeight="1">
       <c r="A20" s="155"/>
       <c r="B20" s="156"/>
       <c r="C20" s="156"/>
@@ -10788,7 +10926,7 @@
       <c r="O20" s="156"/>
       <c r="P20" s="157"/>
     </row>
-    <row r="21" spans="1:16" ht="24.95" customHeight="1">
+    <row r="21" spans="1:16" ht="24.9" customHeight="1">
       <c r="A21" s="155"/>
       <c r="B21" s="156"/>
       <c r="C21" s="156"/>
@@ -10806,7 +10944,7 @@
       <c r="O21" s="156"/>
       <c r="P21" s="157"/>
     </row>
-    <row r="22" spans="1:16" ht="24.95" customHeight="1">
+    <row r="22" spans="1:16" ht="24.9" customHeight="1">
       <c r="A22" s="155"/>
       <c r="B22" s="156"/>
       <c r="C22" s="156"/>
@@ -10824,7 +10962,7 @@
       <c r="O22" s="156"/>
       <c r="P22" s="157"/>
     </row>
-    <row r="23" spans="1:16" ht="24.95" customHeight="1">
+    <row r="23" spans="1:16" ht="24.9" customHeight="1">
       <c r="A23" s="155"/>
       <c r="B23" s="156"/>
       <c r="C23" s="156"/>
@@ -10842,7 +10980,7 @@
       <c r="O23" s="156"/>
       <c r="P23" s="157"/>
     </row>
-    <row r="24" spans="1:16" ht="24.95" customHeight="1">
+    <row r="24" spans="1:16" ht="24.9" customHeight="1">
       <c r="A24" s="155"/>
       <c r="B24" s="156"/>
       <c r="C24" s="156"/>
@@ -10860,7 +10998,7 @@
       <c r="O24" s="156"/>
       <c r="P24" s="157"/>
     </row>
-    <row r="25" spans="1:16" ht="24.95" customHeight="1">
+    <row r="25" spans="1:16" ht="24.9" customHeight="1">
       <c r="A25" s="155"/>
       <c r="B25" s="156"/>
       <c r="C25" s="156"/>
@@ -10878,7 +11016,7 @@
       <c r="O25" s="156"/>
       <c r="P25" s="157"/>
     </row>
-    <row r="26" spans="1:16" ht="24.95" customHeight="1">
+    <row r="26" spans="1:16" ht="24.9" customHeight="1">
       <c r="A26" s="155"/>
       <c r="B26" s="156"/>
       <c r="C26" s="156"/>
@@ -10896,7 +11034,7 @@
       <c r="O26" s="156"/>
       <c r="P26" s="157"/>
     </row>
-    <row r="27" spans="1:16" ht="24.95" customHeight="1">
+    <row r="27" spans="1:16" ht="24.9" customHeight="1">
       <c r="A27" s="155"/>
       <c r="B27" s="156"/>
       <c r="C27" s="156"/>
@@ -10914,7 +11052,7 @@
       <c r="O27" s="156"/>
       <c r="P27" s="157"/>
     </row>
-    <row r="28" spans="1:16" ht="24.95" customHeight="1">
+    <row r="28" spans="1:16" ht="24.9" customHeight="1">
       <c r="A28" s="155"/>
       <c r="B28" s="156"/>
       <c r="C28" s="156"/>
@@ -10932,7 +11070,7 @@
       <c r="O28" s="156"/>
       <c r="P28" s="157"/>
     </row>
-    <row r="29" spans="1:16" ht="24.95" customHeight="1">
+    <row r="29" spans="1:16" ht="24.9" customHeight="1">
       <c r="A29" s="155"/>
       <c r="B29" s="156"/>
       <c r="C29" s="156"/>
@@ -10950,7 +11088,7 @@
       <c r="O29" s="156"/>
       <c r="P29" s="157"/>
     </row>
-    <row r="30" spans="1:16" ht="24.95" customHeight="1">
+    <row r="30" spans="1:16" ht="24.9" customHeight="1">
       <c r="A30" s="155"/>
       <c r="B30" s="156"/>
       <c r="C30" s="156"/>
@@ -10968,7 +11106,7 @@
       <c r="O30" s="156"/>
       <c r="P30" s="157"/>
     </row>
-    <row r="31" spans="1:16" ht="24.95" customHeight="1">
+    <row r="31" spans="1:16" ht="24.9" customHeight="1">
       <c r="A31" s="155"/>
       <c r="B31" s="156"/>
       <c r="C31" s="156"/>
@@ -10986,7 +11124,7 @@
       <c r="O31" s="156"/>
       <c r="P31" s="157"/>
     </row>
-    <row r="32" spans="1:16" ht="24.95" customHeight="1">
+    <row r="32" spans="1:16" ht="24.9" customHeight="1">
       <c r="A32" s="158"/>
       <c r="B32" s="159"/>
       <c r="C32" s="159"/>
@@ -11004,7 +11142,7 @@
       <c r="O32" s="159"/>
       <c r="P32" s="160"/>
     </row>
-    <row r="33" spans="1:15" ht="24.95" customHeight="1">
+    <row r="33" spans="1:15" ht="24.9" customHeight="1">
       <c r="A33" s="13"/>
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
@@ -11216,516 +11354,518 @@
       <selection activeCell="A2" sqref="A2:P28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.5" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="5.44140625" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="15" width="5.625" customWidth="1"/>
+    <col min="1" max="15" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="30" customHeight="1">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="143" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1">
-      <c r="A2" s="166"/>
-      <c r="B2" s="167"/>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-      <c r="H2" s="167"/>
-      <c r="I2" s="167"/>
-      <c r="J2" s="167"/>
-      <c r="K2" s="167"/>
-      <c r="L2" s="167"/>
-      <c r="M2" s="167"/>
-      <c r="N2" s="167"/>
-      <c r="O2" s="167"/>
-      <c r="P2" s="168"/>
+      <c r="A2" s="192" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="184"/>
+      <c r="C2" s="184"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="184"/>
+      <c r="F2" s="184"/>
+      <c r="G2" s="184"/>
+      <c r="H2" s="184"/>
+      <c r="I2" s="184"/>
+      <c r="J2" s="184"/>
+      <c r="K2" s="184"/>
+      <c r="L2" s="184"/>
+      <c r="M2" s="184"/>
+      <c r="N2" s="184"/>
+      <c r="O2" s="184"/>
+      <c r="P2" s="185"/>
     </row>
     <row r="3" spans="1:16" ht="30" customHeight="1">
-      <c r="A3" s="169"/>
-      <c r="B3" s="170"/>
-      <c r="C3" s="170"/>
-      <c r="D3" s="170"/>
-      <c r="E3" s="170"/>
-      <c r="F3" s="170"/>
-      <c r="G3" s="170"/>
-      <c r="H3" s="170"/>
-      <c r="I3" s="170"/>
-      <c r="J3" s="170"/>
-      <c r="K3" s="170"/>
-      <c r="L3" s="170"/>
-      <c r="M3" s="170"/>
-      <c r="N3" s="170"/>
-      <c r="O3" s="170"/>
-      <c r="P3" s="171"/>
+      <c r="A3" s="186"/>
+      <c r="B3" s="187"/>
+      <c r="C3" s="187"/>
+      <c r="D3" s="187"/>
+      <c r="E3" s="187"/>
+      <c r="F3" s="187"/>
+      <c r="G3" s="187"/>
+      <c r="H3" s="187"/>
+      <c r="I3" s="187"/>
+      <c r="J3" s="187"/>
+      <c r="K3" s="187"/>
+      <c r="L3" s="187"/>
+      <c r="M3" s="187"/>
+      <c r="N3" s="187"/>
+      <c r="O3" s="187"/>
+      <c r="P3" s="188"/>
     </row>
     <row r="4" spans="1:16" ht="30" customHeight="1">
-      <c r="A4" s="169"/>
-      <c r="B4" s="170"/>
-      <c r="C4" s="170"/>
-      <c r="D4" s="170"/>
-      <c r="E4" s="170"/>
-      <c r="F4" s="170"/>
-      <c r="G4" s="170"/>
-      <c r="H4" s="170"/>
-      <c r="I4" s="170"/>
-      <c r="J4" s="170"/>
-      <c r="K4" s="170"/>
-      <c r="L4" s="170"/>
-      <c r="M4" s="170"/>
-      <c r="N4" s="170"/>
-      <c r="O4" s="170"/>
-      <c r="P4" s="171"/>
+      <c r="A4" s="186"/>
+      <c r="B4" s="187"/>
+      <c r="C4" s="187"/>
+      <c r="D4" s="187"/>
+      <c r="E4" s="187"/>
+      <c r="F4" s="187"/>
+      <c r="G4" s="187"/>
+      <c r="H4" s="187"/>
+      <c r="I4" s="187"/>
+      <c r="J4" s="187"/>
+      <c r="K4" s="187"/>
+      <c r="L4" s="187"/>
+      <c r="M4" s="187"/>
+      <c r="N4" s="187"/>
+      <c r="O4" s="187"/>
+      <c r="P4" s="188"/>
     </row>
     <row r="5" spans="1:16" ht="30" customHeight="1">
-      <c r="A5" s="169"/>
-      <c r="B5" s="170"/>
-      <c r="C5" s="170"/>
-      <c r="D5" s="170"/>
-      <c r="E5" s="170"/>
-      <c r="F5" s="170"/>
-      <c r="G5" s="170"/>
-      <c r="H5" s="170"/>
-      <c r="I5" s="170"/>
-      <c r="J5" s="170"/>
-      <c r="K5" s="170"/>
-      <c r="L5" s="170"/>
-      <c r="M5" s="170"/>
-      <c r="N5" s="170"/>
-      <c r="O5" s="170"/>
-      <c r="P5" s="171"/>
+      <c r="A5" s="186"/>
+      <c r="B5" s="187"/>
+      <c r="C5" s="187"/>
+      <c r="D5" s="187"/>
+      <c r="E5" s="187"/>
+      <c r="F5" s="187"/>
+      <c r="G5" s="187"/>
+      <c r="H5" s="187"/>
+      <c r="I5" s="187"/>
+      <c r="J5" s="187"/>
+      <c r="K5" s="187"/>
+      <c r="L5" s="187"/>
+      <c r="M5" s="187"/>
+      <c r="N5" s="187"/>
+      <c r="O5" s="187"/>
+      <c r="P5" s="188"/>
     </row>
     <row r="6" spans="1:16" ht="30" customHeight="1">
-      <c r="A6" s="169"/>
-      <c r="B6" s="170"/>
-      <c r="C6" s="170"/>
-      <c r="D6" s="170"/>
-      <c r="E6" s="170"/>
-      <c r="F6" s="170"/>
-      <c r="G6" s="170"/>
-      <c r="H6" s="170"/>
-      <c r="I6" s="170"/>
-      <c r="J6" s="170"/>
-      <c r="K6" s="170"/>
-      <c r="L6" s="170"/>
-      <c r="M6" s="170"/>
-      <c r="N6" s="170"/>
-      <c r="O6" s="170"/>
-      <c r="P6" s="171"/>
+      <c r="A6" s="186"/>
+      <c r="B6" s="187"/>
+      <c r="C6" s="187"/>
+      <c r="D6" s="187"/>
+      <c r="E6" s="187"/>
+      <c r="F6" s="187"/>
+      <c r="G6" s="187"/>
+      <c r="H6" s="187"/>
+      <c r="I6" s="187"/>
+      <c r="J6" s="187"/>
+      <c r="K6" s="187"/>
+      <c r="L6" s="187"/>
+      <c r="M6" s="187"/>
+      <c r="N6" s="187"/>
+      <c r="O6" s="187"/>
+      <c r="P6" s="188"/>
     </row>
     <row r="7" spans="1:16" ht="30" customHeight="1">
-      <c r="A7" s="169"/>
-      <c r="B7" s="170"/>
-      <c r="C7" s="170"/>
-      <c r="D7" s="170"/>
-      <c r="E7" s="170"/>
-      <c r="F7" s="170"/>
-      <c r="G7" s="170"/>
-      <c r="H7" s="170"/>
-      <c r="I7" s="170"/>
-      <c r="J7" s="170"/>
-      <c r="K7" s="170"/>
-      <c r="L7" s="170"/>
-      <c r="M7" s="170"/>
-      <c r="N7" s="170"/>
-      <c r="O7" s="170"/>
-      <c r="P7" s="171"/>
+      <c r="A7" s="186"/>
+      <c r="B7" s="187"/>
+      <c r="C7" s="187"/>
+      <c r="D7" s="187"/>
+      <c r="E7" s="187"/>
+      <c r="F7" s="187"/>
+      <c r="G7" s="187"/>
+      <c r="H7" s="187"/>
+      <c r="I7" s="187"/>
+      <c r="J7" s="187"/>
+      <c r="K7" s="187"/>
+      <c r="L7" s="187"/>
+      <c r="M7" s="187"/>
+      <c r="N7" s="187"/>
+      <c r="O7" s="187"/>
+      <c r="P7" s="188"/>
     </row>
     <row r="8" spans="1:16" ht="30" customHeight="1">
-      <c r="A8" s="169"/>
-      <c r="B8" s="170"/>
-      <c r="C8" s="170"/>
-      <c r="D8" s="170"/>
-      <c r="E8" s="170"/>
-      <c r="F8" s="170"/>
-      <c r="G8" s="170"/>
-      <c r="H8" s="170"/>
-      <c r="I8" s="170"/>
-      <c r="J8" s="170"/>
-      <c r="K8" s="170"/>
-      <c r="L8" s="170"/>
-      <c r="M8" s="170"/>
-      <c r="N8" s="170"/>
-      <c r="O8" s="170"/>
-      <c r="P8" s="171"/>
+      <c r="A8" s="186"/>
+      <c r="B8" s="187"/>
+      <c r="C8" s="187"/>
+      <c r="D8" s="187"/>
+      <c r="E8" s="187"/>
+      <c r="F8" s="187"/>
+      <c r="G8" s="187"/>
+      <c r="H8" s="187"/>
+      <c r="I8" s="187"/>
+      <c r="J8" s="187"/>
+      <c r="K8" s="187"/>
+      <c r="L8" s="187"/>
+      <c r="M8" s="187"/>
+      <c r="N8" s="187"/>
+      <c r="O8" s="187"/>
+      <c r="P8" s="188"/>
     </row>
     <row r="9" spans="1:16" ht="30" customHeight="1">
-      <c r="A9" s="169"/>
-      <c r="B9" s="170"/>
-      <c r="C9" s="170"/>
-      <c r="D9" s="170"/>
-      <c r="E9" s="170"/>
-      <c r="F9" s="170"/>
-      <c r="G9" s="170"/>
-      <c r="H9" s="170"/>
-      <c r="I9" s="170"/>
-      <c r="J9" s="170"/>
-      <c r="K9" s="170"/>
-      <c r="L9" s="170"/>
-      <c r="M9" s="170"/>
-      <c r="N9" s="170"/>
-      <c r="O9" s="170"/>
-      <c r="P9" s="171"/>
+      <c r="A9" s="186"/>
+      <c r="B9" s="187"/>
+      <c r="C9" s="187"/>
+      <c r="D9" s="187"/>
+      <c r="E9" s="187"/>
+      <c r="F9" s="187"/>
+      <c r="G9" s="187"/>
+      <c r="H9" s="187"/>
+      <c r="I9" s="187"/>
+      <c r="J9" s="187"/>
+      <c r="K9" s="187"/>
+      <c r="L9" s="187"/>
+      <c r="M9" s="187"/>
+      <c r="N9" s="187"/>
+      <c r="O9" s="187"/>
+      <c r="P9" s="188"/>
     </row>
     <row r="10" spans="1:16" ht="30" customHeight="1">
-      <c r="A10" s="169"/>
-      <c r="B10" s="170"/>
-      <c r="C10" s="170"/>
-      <c r="D10" s="170"/>
-      <c r="E10" s="170"/>
-      <c r="F10" s="170"/>
-      <c r="G10" s="170"/>
-      <c r="H10" s="170"/>
-      <c r="I10" s="170"/>
-      <c r="J10" s="170"/>
-      <c r="K10" s="170"/>
-      <c r="L10" s="170"/>
-      <c r="M10" s="170"/>
-      <c r="N10" s="170"/>
-      <c r="O10" s="170"/>
-      <c r="P10" s="171"/>
+      <c r="A10" s="186"/>
+      <c r="B10" s="187"/>
+      <c r="C10" s="187"/>
+      <c r="D10" s="187"/>
+      <c r="E10" s="187"/>
+      <c r="F10" s="187"/>
+      <c r="G10" s="187"/>
+      <c r="H10" s="187"/>
+      <c r="I10" s="187"/>
+      <c r="J10" s="187"/>
+      <c r="K10" s="187"/>
+      <c r="L10" s="187"/>
+      <c r="M10" s="187"/>
+      <c r="N10" s="187"/>
+      <c r="O10" s="187"/>
+      <c r="P10" s="188"/>
     </row>
     <row r="11" spans="1:16" ht="30" customHeight="1">
-      <c r="A11" s="169"/>
-      <c r="B11" s="170"/>
-      <c r="C11" s="170"/>
-      <c r="D11" s="170"/>
-      <c r="E11" s="170"/>
-      <c r="F11" s="170"/>
-      <c r="G11" s="170"/>
-      <c r="H11" s="170"/>
-      <c r="I11" s="170"/>
-      <c r="J11" s="170"/>
-      <c r="K11" s="170"/>
-      <c r="L11" s="170"/>
-      <c r="M11" s="170"/>
-      <c r="N11" s="170"/>
-      <c r="O11" s="170"/>
-      <c r="P11" s="171"/>
+      <c r="A11" s="186"/>
+      <c r="B11" s="187"/>
+      <c r="C11" s="187"/>
+      <c r="D11" s="187"/>
+      <c r="E11" s="187"/>
+      <c r="F11" s="187"/>
+      <c r="G11" s="187"/>
+      <c r="H11" s="187"/>
+      <c r="I11" s="187"/>
+      <c r="J11" s="187"/>
+      <c r="K11" s="187"/>
+      <c r="L11" s="187"/>
+      <c r="M11" s="187"/>
+      <c r="N11" s="187"/>
+      <c r="O11" s="187"/>
+      <c r="P11" s="188"/>
     </row>
     <row r="12" spans="1:16" ht="30" customHeight="1">
-      <c r="A12" s="169"/>
-      <c r="B12" s="170"/>
-      <c r="C12" s="170"/>
-      <c r="D12" s="170"/>
-      <c r="E12" s="170"/>
-      <c r="F12" s="170"/>
-      <c r="G12" s="170"/>
-      <c r="H12" s="170"/>
-      <c r="I12" s="170"/>
-      <c r="J12" s="170"/>
-      <c r="K12" s="170"/>
-      <c r="L12" s="170"/>
-      <c r="M12" s="170"/>
-      <c r="N12" s="170"/>
-      <c r="O12" s="170"/>
-      <c r="P12" s="171"/>
+      <c r="A12" s="186"/>
+      <c r="B12" s="187"/>
+      <c r="C12" s="187"/>
+      <c r="D12" s="187"/>
+      <c r="E12" s="187"/>
+      <c r="F12" s="187"/>
+      <c r="G12" s="187"/>
+      <c r="H12" s="187"/>
+      <c r="I12" s="187"/>
+      <c r="J12" s="187"/>
+      <c r="K12" s="187"/>
+      <c r="L12" s="187"/>
+      <c r="M12" s="187"/>
+      <c r="N12" s="187"/>
+      <c r="O12" s="187"/>
+      <c r="P12" s="188"/>
     </row>
     <row r="13" spans="1:16" ht="30" customHeight="1">
-      <c r="A13" s="169"/>
-      <c r="B13" s="170"/>
-      <c r="C13" s="170"/>
-      <c r="D13" s="170"/>
-      <c r="E13" s="170"/>
-      <c r="F13" s="170"/>
-      <c r="G13" s="170"/>
-      <c r="H13" s="170"/>
-      <c r="I13" s="170"/>
-      <c r="J13" s="170"/>
-      <c r="K13" s="170"/>
-      <c r="L13" s="170"/>
-      <c r="M13" s="170"/>
-      <c r="N13" s="170"/>
-      <c r="O13" s="170"/>
-      <c r="P13" s="171"/>
+      <c r="A13" s="186"/>
+      <c r="B13" s="187"/>
+      <c r="C13" s="187"/>
+      <c r="D13" s="187"/>
+      <c r="E13" s="187"/>
+      <c r="F13" s="187"/>
+      <c r="G13" s="187"/>
+      <c r="H13" s="187"/>
+      <c r="I13" s="187"/>
+      <c r="J13" s="187"/>
+      <c r="K13" s="187"/>
+      <c r="L13" s="187"/>
+      <c r="M13" s="187"/>
+      <c r="N13" s="187"/>
+      <c r="O13" s="187"/>
+      <c r="P13" s="188"/>
     </row>
     <row r="14" spans="1:16" ht="30" customHeight="1">
-      <c r="A14" s="169"/>
-      <c r="B14" s="170"/>
-      <c r="C14" s="170"/>
-      <c r="D14" s="170"/>
-      <c r="E14" s="170"/>
-      <c r="F14" s="170"/>
-      <c r="G14" s="170"/>
-      <c r="H14" s="170"/>
-      <c r="I14" s="170"/>
-      <c r="J14" s="170"/>
-      <c r="K14" s="170"/>
-      <c r="L14" s="170"/>
-      <c r="M14" s="170"/>
-      <c r="N14" s="170"/>
-      <c r="O14" s="170"/>
-      <c r="P14" s="171"/>
+      <c r="A14" s="186"/>
+      <c r="B14" s="187"/>
+      <c r="C14" s="187"/>
+      <c r="D14" s="187"/>
+      <c r="E14" s="187"/>
+      <c r="F14" s="187"/>
+      <c r="G14" s="187"/>
+      <c r="H14" s="187"/>
+      <c r="I14" s="187"/>
+      <c r="J14" s="187"/>
+      <c r="K14" s="187"/>
+      <c r="L14" s="187"/>
+      <c r="M14" s="187"/>
+      <c r="N14" s="187"/>
+      <c r="O14" s="187"/>
+      <c r="P14" s="188"/>
     </row>
     <row r="15" spans="1:16" ht="30" customHeight="1">
-      <c r="A15" s="169"/>
-      <c r="B15" s="170"/>
-      <c r="C15" s="170"/>
-      <c r="D15" s="170"/>
-      <c r="E15" s="170"/>
-      <c r="F15" s="170"/>
-      <c r="G15" s="170"/>
-      <c r="H15" s="170"/>
-      <c r="I15" s="170"/>
-      <c r="J15" s="170"/>
-      <c r="K15" s="170"/>
-      <c r="L15" s="170"/>
-      <c r="M15" s="170"/>
-      <c r="N15" s="170"/>
-      <c r="O15" s="170"/>
-      <c r="P15" s="171"/>
+      <c r="A15" s="186"/>
+      <c r="B15" s="187"/>
+      <c r="C15" s="187"/>
+      <c r="D15" s="187"/>
+      <c r="E15" s="187"/>
+      <c r="F15" s="187"/>
+      <c r="G15" s="187"/>
+      <c r="H15" s="187"/>
+      <c r="I15" s="187"/>
+      <c r="J15" s="187"/>
+      <c r="K15" s="187"/>
+      <c r="L15" s="187"/>
+      <c r="M15" s="187"/>
+      <c r="N15" s="187"/>
+      <c r="O15" s="187"/>
+      <c r="P15" s="188"/>
     </row>
     <row r="16" spans="1:16" ht="30" customHeight="1">
-      <c r="A16" s="169"/>
-      <c r="B16" s="170"/>
-      <c r="C16" s="170"/>
-      <c r="D16" s="170"/>
-      <c r="E16" s="170"/>
-      <c r="F16" s="170"/>
-      <c r="G16" s="170"/>
-      <c r="H16" s="170"/>
-      <c r="I16" s="170"/>
-      <c r="J16" s="170"/>
-      <c r="K16" s="170"/>
-      <c r="L16" s="170"/>
-      <c r="M16" s="170"/>
-      <c r="N16" s="170"/>
-      <c r="O16" s="170"/>
-      <c r="P16" s="171"/>
+      <c r="A16" s="186"/>
+      <c r="B16" s="187"/>
+      <c r="C16" s="187"/>
+      <c r="D16" s="187"/>
+      <c r="E16" s="187"/>
+      <c r="F16" s="187"/>
+      <c r="G16" s="187"/>
+      <c r="H16" s="187"/>
+      <c r="I16" s="187"/>
+      <c r="J16" s="187"/>
+      <c r="K16" s="187"/>
+      <c r="L16" s="187"/>
+      <c r="M16" s="187"/>
+      <c r="N16" s="187"/>
+      <c r="O16" s="187"/>
+      <c r="P16" s="188"/>
     </row>
     <row r="17" spans="1:16" ht="30" customHeight="1">
-      <c r="A17" s="169"/>
-      <c r="B17" s="170"/>
-      <c r="C17" s="170"/>
-      <c r="D17" s="170"/>
-      <c r="E17" s="170"/>
-      <c r="F17" s="170"/>
-      <c r="G17" s="170"/>
-      <c r="H17" s="170"/>
-      <c r="I17" s="170"/>
-      <c r="J17" s="170"/>
-      <c r="K17" s="170"/>
-      <c r="L17" s="170"/>
-      <c r="M17" s="170"/>
-      <c r="N17" s="170"/>
-      <c r="O17" s="170"/>
-      <c r="P17" s="171"/>
+      <c r="A17" s="186"/>
+      <c r="B17" s="187"/>
+      <c r="C17" s="187"/>
+      <c r="D17" s="187"/>
+      <c r="E17" s="187"/>
+      <c r="F17" s="187"/>
+      <c r="G17" s="187"/>
+      <c r="H17" s="187"/>
+      <c r="I17" s="187"/>
+      <c r="J17" s="187"/>
+      <c r="K17" s="187"/>
+      <c r="L17" s="187"/>
+      <c r="M17" s="187"/>
+      <c r="N17" s="187"/>
+      <c r="O17" s="187"/>
+      <c r="P17" s="188"/>
     </row>
     <row r="18" spans="1:16" ht="30" customHeight="1">
-      <c r="A18" s="169"/>
-      <c r="B18" s="170"/>
-      <c r="C18" s="170"/>
-      <c r="D18" s="170"/>
-      <c r="E18" s="170"/>
-      <c r="F18" s="170"/>
-      <c r="G18" s="170"/>
-      <c r="H18" s="170"/>
-      <c r="I18" s="170"/>
-      <c r="J18" s="170"/>
-      <c r="K18" s="170"/>
-      <c r="L18" s="170"/>
-      <c r="M18" s="170"/>
-      <c r="N18" s="170"/>
-      <c r="O18" s="170"/>
-      <c r="P18" s="171"/>
+      <c r="A18" s="186"/>
+      <c r="B18" s="187"/>
+      <c r="C18" s="187"/>
+      <c r="D18" s="187"/>
+      <c r="E18" s="187"/>
+      <c r="F18" s="187"/>
+      <c r="G18" s="187"/>
+      <c r="H18" s="187"/>
+      <c r="I18" s="187"/>
+      <c r="J18" s="187"/>
+      <c r="K18" s="187"/>
+      <c r="L18" s="187"/>
+      <c r="M18" s="187"/>
+      <c r="N18" s="187"/>
+      <c r="O18" s="187"/>
+      <c r="P18" s="188"/>
     </row>
     <row r="19" spans="1:16" ht="30" customHeight="1">
-      <c r="A19" s="169"/>
-      <c r="B19" s="170"/>
-      <c r="C19" s="170"/>
-      <c r="D19" s="170"/>
-      <c r="E19" s="170"/>
-      <c r="F19" s="170"/>
-      <c r="G19" s="170"/>
-      <c r="H19" s="170"/>
-      <c r="I19" s="170"/>
-      <c r="J19" s="170"/>
-      <c r="K19" s="170"/>
-      <c r="L19" s="170"/>
-      <c r="M19" s="170"/>
-      <c r="N19" s="170"/>
-      <c r="O19" s="170"/>
-      <c r="P19" s="171"/>
+      <c r="A19" s="186"/>
+      <c r="B19" s="187"/>
+      <c r="C19" s="187"/>
+      <c r="D19" s="187"/>
+      <c r="E19" s="187"/>
+      <c r="F19" s="187"/>
+      <c r="G19" s="187"/>
+      <c r="H19" s="187"/>
+      <c r="I19" s="187"/>
+      <c r="J19" s="187"/>
+      <c r="K19" s="187"/>
+      <c r="L19" s="187"/>
+      <c r="M19" s="187"/>
+      <c r="N19" s="187"/>
+      <c r="O19" s="187"/>
+      <c r="P19" s="188"/>
     </row>
     <row r="20" spans="1:16" ht="30" customHeight="1">
-      <c r="A20" s="169"/>
-      <c r="B20" s="170"/>
-      <c r="C20" s="170"/>
-      <c r="D20" s="170"/>
-      <c r="E20" s="170"/>
-      <c r="F20" s="170"/>
-      <c r="G20" s="170"/>
-      <c r="H20" s="170"/>
-      <c r="I20" s="170"/>
-      <c r="J20" s="170"/>
-      <c r="K20" s="170"/>
-      <c r="L20" s="170"/>
-      <c r="M20" s="170"/>
-      <c r="N20" s="170"/>
-      <c r="O20" s="170"/>
-      <c r="P20" s="171"/>
+      <c r="A20" s="186"/>
+      <c r="B20" s="187"/>
+      <c r="C20" s="187"/>
+      <c r="D20" s="187"/>
+      <c r="E20" s="187"/>
+      <c r="F20" s="187"/>
+      <c r="G20" s="187"/>
+      <c r="H20" s="187"/>
+      <c r="I20" s="187"/>
+      <c r="J20" s="187"/>
+      <c r="K20" s="187"/>
+      <c r="L20" s="187"/>
+      <c r="M20" s="187"/>
+      <c r="N20" s="187"/>
+      <c r="O20" s="187"/>
+      <c r="P20" s="188"/>
     </row>
     <row r="21" spans="1:16" ht="30" customHeight="1">
-      <c r="A21" s="169"/>
-      <c r="B21" s="170"/>
-      <c r="C21" s="170"/>
-      <c r="D21" s="170"/>
-      <c r="E21" s="170"/>
-      <c r="F21" s="170"/>
-      <c r="G21" s="170"/>
-      <c r="H21" s="170"/>
-      <c r="I21" s="170"/>
-      <c r="J21" s="170"/>
-      <c r="K21" s="170"/>
-      <c r="L21" s="170"/>
-      <c r="M21" s="170"/>
-      <c r="N21" s="170"/>
-      <c r="O21" s="170"/>
-      <c r="P21" s="171"/>
+      <c r="A21" s="186"/>
+      <c r="B21" s="187"/>
+      <c r="C21" s="187"/>
+      <c r="D21" s="187"/>
+      <c r="E21" s="187"/>
+      <c r="F21" s="187"/>
+      <c r="G21" s="187"/>
+      <c r="H21" s="187"/>
+      <c r="I21" s="187"/>
+      <c r="J21" s="187"/>
+      <c r="K21" s="187"/>
+      <c r="L21" s="187"/>
+      <c r="M21" s="187"/>
+      <c r="N21" s="187"/>
+      <c r="O21" s="187"/>
+      <c r="P21" s="188"/>
     </row>
     <row r="22" spans="1:16" ht="30" customHeight="1">
-      <c r="A22" s="169"/>
-      <c r="B22" s="170"/>
-      <c r="C22" s="170"/>
-      <c r="D22" s="170"/>
-      <c r="E22" s="170"/>
-      <c r="F22" s="170"/>
-      <c r="G22" s="170"/>
-      <c r="H22" s="170"/>
-      <c r="I22" s="170"/>
-      <c r="J22" s="170"/>
-      <c r="K22" s="170"/>
-      <c r="L22" s="170"/>
-      <c r="M22" s="170"/>
-      <c r="N22" s="170"/>
-      <c r="O22" s="170"/>
-      <c r="P22" s="171"/>
+      <c r="A22" s="186"/>
+      <c r="B22" s="187"/>
+      <c r="C22" s="187"/>
+      <c r="D22" s="187"/>
+      <c r="E22" s="187"/>
+      <c r="F22" s="187"/>
+      <c r="G22" s="187"/>
+      <c r="H22" s="187"/>
+      <c r="I22" s="187"/>
+      <c r="J22" s="187"/>
+      <c r="K22" s="187"/>
+      <c r="L22" s="187"/>
+      <c r="M22" s="187"/>
+      <c r="N22" s="187"/>
+      <c r="O22" s="187"/>
+      <c r="P22" s="188"/>
     </row>
     <row r="23" spans="1:16" ht="30" customHeight="1">
-      <c r="A23" s="169"/>
-      <c r="B23" s="170"/>
-      <c r="C23" s="170"/>
-      <c r="D23" s="170"/>
-      <c r="E23" s="170"/>
-      <c r="F23" s="170"/>
-      <c r="G23" s="170"/>
-      <c r="H23" s="170"/>
-      <c r="I23" s="170"/>
-      <c r="J23" s="170"/>
-      <c r="K23" s="170"/>
-      <c r="L23" s="170"/>
-      <c r="M23" s="170"/>
-      <c r="N23" s="170"/>
-      <c r="O23" s="170"/>
-      <c r="P23" s="171"/>
+      <c r="A23" s="186"/>
+      <c r="B23" s="187"/>
+      <c r="C23" s="187"/>
+      <c r="D23" s="187"/>
+      <c r="E23" s="187"/>
+      <c r="F23" s="187"/>
+      <c r="G23" s="187"/>
+      <c r="H23" s="187"/>
+      <c r="I23" s="187"/>
+      <c r="J23" s="187"/>
+      <c r="K23" s="187"/>
+      <c r="L23" s="187"/>
+      <c r="M23" s="187"/>
+      <c r="N23" s="187"/>
+      <c r="O23" s="187"/>
+      <c r="P23" s="188"/>
     </row>
     <row r="24" spans="1:16" ht="30" customHeight="1">
-      <c r="A24" s="169"/>
-      <c r="B24" s="170"/>
-      <c r="C24" s="170"/>
-      <c r="D24" s="170"/>
-      <c r="E24" s="170"/>
-      <c r="F24" s="170"/>
-      <c r="G24" s="170"/>
-      <c r="H24" s="170"/>
-      <c r="I24" s="170"/>
-      <c r="J24" s="170"/>
-      <c r="K24" s="170"/>
-      <c r="L24" s="170"/>
-      <c r="M24" s="170"/>
-      <c r="N24" s="170"/>
-      <c r="O24" s="170"/>
-      <c r="P24" s="171"/>
+      <c r="A24" s="186"/>
+      <c r="B24" s="187"/>
+      <c r="C24" s="187"/>
+      <c r="D24" s="187"/>
+      <c r="E24" s="187"/>
+      <c r="F24" s="187"/>
+      <c r="G24" s="187"/>
+      <c r="H24" s="187"/>
+      <c r="I24" s="187"/>
+      <c r="J24" s="187"/>
+      <c r="K24" s="187"/>
+      <c r="L24" s="187"/>
+      <c r="M24" s="187"/>
+      <c r="N24" s="187"/>
+      <c r="O24" s="187"/>
+      <c r="P24" s="188"/>
     </row>
     <row r="25" spans="1:16" ht="30" customHeight="1">
-      <c r="A25" s="169"/>
-      <c r="B25" s="170"/>
-      <c r="C25" s="170"/>
-      <c r="D25" s="170"/>
-      <c r="E25" s="170"/>
-      <c r="F25" s="170"/>
-      <c r="G25" s="170"/>
-      <c r="H25" s="170"/>
-      <c r="I25" s="170"/>
-      <c r="J25" s="170"/>
-      <c r="K25" s="170"/>
-      <c r="L25" s="170"/>
-      <c r="M25" s="170"/>
-      <c r="N25" s="170"/>
-      <c r="O25" s="170"/>
-      <c r="P25" s="171"/>
+      <c r="A25" s="186"/>
+      <c r="B25" s="187"/>
+      <c r="C25" s="187"/>
+      <c r="D25" s="187"/>
+      <c r="E25" s="187"/>
+      <c r="F25" s="187"/>
+      <c r="G25" s="187"/>
+      <c r="H25" s="187"/>
+      <c r="I25" s="187"/>
+      <c r="J25" s="187"/>
+      <c r="K25" s="187"/>
+      <c r="L25" s="187"/>
+      <c r="M25" s="187"/>
+      <c r="N25" s="187"/>
+      <c r="O25" s="187"/>
+      <c r="P25" s="188"/>
     </row>
     <row r="26" spans="1:16" ht="30" customHeight="1">
-      <c r="A26" s="169"/>
-      <c r="B26" s="170"/>
-      <c r="C26" s="170"/>
-      <c r="D26" s="170"/>
-      <c r="E26" s="170"/>
-      <c r="F26" s="170"/>
-      <c r="G26" s="170"/>
-      <c r="H26" s="170"/>
-      <c r="I26" s="170"/>
-      <c r="J26" s="170"/>
-      <c r="K26" s="170"/>
-      <c r="L26" s="170"/>
-      <c r="M26" s="170"/>
-      <c r="N26" s="170"/>
-      <c r="O26" s="170"/>
-      <c r="P26" s="171"/>
+      <c r="A26" s="186"/>
+      <c r="B26" s="187"/>
+      <c r="C26" s="187"/>
+      <c r="D26" s="187"/>
+      <c r="E26" s="187"/>
+      <c r="F26" s="187"/>
+      <c r="G26" s="187"/>
+      <c r="H26" s="187"/>
+      <c r="I26" s="187"/>
+      <c r="J26" s="187"/>
+      <c r="K26" s="187"/>
+      <c r="L26" s="187"/>
+      <c r="M26" s="187"/>
+      <c r="N26" s="187"/>
+      <c r="O26" s="187"/>
+      <c r="P26" s="188"/>
     </row>
     <row r="27" spans="1:16" ht="30" customHeight="1">
-      <c r="A27" s="169"/>
-      <c r="B27" s="170"/>
-      <c r="C27" s="170"/>
-      <c r="D27" s="170"/>
-      <c r="E27" s="170"/>
-      <c r="F27" s="170"/>
-      <c r="G27" s="170"/>
-      <c r="H27" s="170"/>
-      <c r="I27" s="170"/>
-      <c r="J27" s="170"/>
-      <c r="K27" s="170"/>
-      <c r="L27" s="170"/>
-      <c r="M27" s="170"/>
-      <c r="N27" s="170"/>
-      <c r="O27" s="170"/>
-      <c r="P27" s="171"/>
+      <c r="A27" s="186"/>
+      <c r="B27" s="187"/>
+      <c r="C27" s="187"/>
+      <c r="D27" s="187"/>
+      <c r="E27" s="187"/>
+      <c r="F27" s="187"/>
+      <c r="G27" s="187"/>
+      <c r="H27" s="187"/>
+      <c r="I27" s="187"/>
+      <c r="J27" s="187"/>
+      <c r="K27" s="187"/>
+      <c r="L27" s="187"/>
+      <c r="M27" s="187"/>
+      <c r="N27" s="187"/>
+      <c r="O27" s="187"/>
+      <c r="P27" s="188"/>
     </row>
     <row r="28" spans="1:16" ht="30" customHeight="1">
-      <c r="A28" s="172"/>
-      <c r="B28" s="173"/>
-      <c r="C28" s="173"/>
-      <c r="D28" s="173"/>
-      <c r="E28" s="173"/>
-      <c r="F28" s="173"/>
-      <c r="G28" s="173"/>
-      <c r="H28" s="173"/>
-      <c r="I28" s="173"/>
-      <c r="J28" s="173"/>
-      <c r="K28" s="173"/>
-      <c r="L28" s="173"/>
-      <c r="M28" s="173"/>
-      <c r="N28" s="173"/>
-      <c r="O28" s="173"/>
-      <c r="P28" s="174"/>
+      <c r="A28" s="189"/>
+      <c r="B28" s="190"/>
+      <c r="C28" s="190"/>
+      <c r="D28" s="190"/>
+      <c r="E28" s="190"/>
+      <c r="F28" s="190"/>
+      <c r="G28" s="190"/>
+      <c r="H28" s="190"/>
+      <c r="I28" s="190"/>
+      <c r="J28" s="190"/>
+      <c r="K28" s="190"/>
+      <c r="L28" s="190"/>
+      <c r="M28" s="190"/>
+      <c r="N28" s="190"/>
+      <c r="O28" s="190"/>
+      <c r="P28" s="191"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0" pivotTables="0"/>
@@ -11758,489 +11898,489 @@
       <selection activeCell="K29" sqref="K29:P30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.5" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="5.44140625" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="15" width="5.625" customWidth="1"/>
+    <col min="1" max="15" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="30" customHeight="1">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="143" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-    </row>
-    <row r="2" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A2" s="188" t="s">
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+    </row>
+    <row r="2" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A2" s="166" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="189"/>
-      <c r="C2" s="189"/>
-      <c r="D2" s="189"/>
-      <c r="E2" s="189"/>
-      <c r="F2" s="189"/>
-      <c r="G2" s="189"/>
-      <c r="H2" s="189"/>
-      <c r="I2" s="189"/>
-      <c r="J2" s="189"/>
-      <c r="K2" s="189"/>
-      <c r="L2" s="189"/>
-      <c r="M2" s="189"/>
-      <c r="N2" s="189"/>
-      <c r="O2" s="189"/>
-      <c r="P2" s="189"/>
-    </row>
-    <row r="3" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A3" s="188"/>
-      <c r="B3" s="189"/>
-      <c r="C3" s="189"/>
-      <c r="D3" s="189"/>
-      <c r="E3" s="189"/>
-      <c r="F3" s="189"/>
-      <c r="G3" s="189"/>
-      <c r="H3" s="189"/>
-      <c r="I3" s="189"/>
-      <c r="J3" s="189"/>
-      <c r="K3" s="189"/>
-      <c r="L3" s="189"/>
-      <c r="M3" s="189"/>
-      <c r="N3" s="189"/>
-      <c r="O3" s="189"/>
-      <c r="P3" s="189"/>
-    </row>
-    <row r="4" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A4" s="191" t="s">
+      <c r="B2" s="167"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="167"/>
+      <c r="I2" s="167"/>
+      <c r="J2" s="167"/>
+      <c r="K2" s="167"/>
+      <c r="L2" s="167"/>
+      <c r="M2" s="167"/>
+      <c r="N2" s="167"/>
+      <c r="O2" s="167"/>
+      <c r="P2" s="167"/>
+    </row>
+    <row r="3" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A3" s="166"/>
+      <c r="B3" s="167"/>
+      <c r="C3" s="167"/>
+      <c r="D3" s="167"/>
+      <c r="E3" s="167"/>
+      <c r="F3" s="167"/>
+      <c r="G3" s="167"/>
+      <c r="H3" s="167"/>
+      <c r="I3" s="167"/>
+      <c r="J3" s="167"/>
+      <c r="K3" s="167"/>
+      <c r="L3" s="167"/>
+      <c r="M3" s="167"/>
+      <c r="N3" s="167"/>
+      <c r="O3" s="167"/>
+      <c r="P3" s="167"/>
+    </row>
+    <row r="4" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A4" s="172" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="191"/>
-      <c r="C4" s="191"/>
-      <c r="D4" s="191"/>
-      <c r="E4" s="191"/>
-      <c r="F4" s="191"/>
-      <c r="G4" s="191"/>
-      <c r="H4" s="191"/>
-      <c r="I4" s="191"/>
-      <c r="J4" s="191"/>
-      <c r="K4" s="191"/>
-      <c r="L4" s="182" t="s">
+      <c r="B4" s="172"/>
+      <c r="C4" s="172"/>
+      <c r="D4" s="172"/>
+      <c r="E4" s="172"/>
+      <c r="F4" s="172"/>
+      <c r="G4" s="172"/>
+      <c r="H4" s="172"/>
+      <c r="I4" s="172"/>
+      <c r="J4" s="172"/>
+      <c r="K4" s="172"/>
+      <c r="L4" s="173" t="s">
         <v>20</v>
       </c>
-      <c r="M4" s="183"/>
-      <c r="N4" s="183"/>
-      <c r="O4" s="183"/>
-    </row>
-    <row r="5" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A5" s="187" t="s">
+      <c r="M4" s="174"/>
+      <c r="N4" s="174"/>
+      <c r="O4" s="174"/>
+    </row>
+    <row r="5" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A5" s="178" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="187"/>
-      <c r="C5" s="187"/>
-      <c r="D5" s="187"/>
-      <c r="E5" s="187"/>
-      <c r="F5" s="187"/>
-      <c r="G5" s="187"/>
-      <c r="H5" s="187"/>
-      <c r="I5" s="187"/>
-      <c r="J5" s="187"/>
-      <c r="K5" s="187"/>
-      <c r="L5" s="184" t="s">
+      <c r="B5" s="178"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="178"/>
+      <c r="J5" s="178"/>
+      <c r="K5" s="178"/>
+      <c r="L5" s="175" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="185"/>
-      <c r="N5" s="186" t="s">
+      <c r="M5" s="176"/>
+      <c r="N5" s="177" t="s">
         <v>9</v>
       </c>
-      <c r="O5" s="186"/>
-    </row>
-    <row r="6" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A6" s="187"/>
-      <c r="B6" s="187"/>
-      <c r="C6" s="187"/>
-      <c r="D6" s="187"/>
-      <c r="E6" s="187"/>
-      <c r="F6" s="187"/>
-      <c r="G6" s="187"/>
-      <c r="H6" s="187"/>
-      <c r="I6" s="187"/>
-      <c r="J6" s="187"/>
-      <c r="K6" s="187"/>
-      <c r="L6" s="185"/>
-      <c r="M6" s="185"/>
-      <c r="N6" s="186"/>
-      <c r="O6" s="186"/>
-    </row>
-    <row r="7" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A7" s="179" t="s">
+      <c r="O5" s="177"/>
+    </row>
+    <row r="6" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A6" s="178"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
+      <c r="J6" s="178"/>
+      <c r="K6" s="178"/>
+      <c r="L6" s="176"/>
+      <c r="M6" s="176"/>
+      <c r="N6" s="177"/>
+      <c r="O6" s="177"/>
+    </row>
+    <row r="7" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A7" s="169" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
-      <c r="J7" s="179"/>
-      <c r="K7" s="179"/>
-      <c r="L7" s="180"/>
-      <c r="M7" s="181"/>
-      <c r="N7" s="180"/>
-      <c r="O7" s="181"/>
-    </row>
-    <row r="8" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A8" s="179"/>
-      <c r="B8" s="179"/>
-      <c r="C8" s="179"/>
-      <c r="D8" s="179"/>
-      <c r="E8" s="179"/>
-      <c r="F8" s="179"/>
-      <c r="G8" s="179"/>
-      <c r="H8" s="179"/>
-      <c r="I8" s="179"/>
-      <c r="J8" s="179"/>
-      <c r="K8" s="179"/>
-      <c r="L8" s="181"/>
-      <c r="M8" s="181"/>
-      <c r="N8" s="181"/>
-      <c r="O8" s="181"/>
-    </row>
-    <row r="9" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A9" s="179" t="s">
+      <c r="B7" s="169"/>
+      <c r="C7" s="169"/>
+      <c r="D7" s="169"/>
+      <c r="E7" s="169"/>
+      <c r="F7" s="169"/>
+      <c r="G7" s="169"/>
+      <c r="H7" s="169"/>
+      <c r="I7" s="169"/>
+      <c r="J7" s="169"/>
+      <c r="K7" s="169"/>
+      <c r="L7" s="170"/>
+      <c r="M7" s="171"/>
+      <c r="N7" s="170"/>
+      <c r="O7" s="171"/>
+    </row>
+    <row r="8" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A8" s="169"/>
+      <c r="B8" s="169"/>
+      <c r="C8" s="169"/>
+      <c r="D8" s="169"/>
+      <c r="E8" s="169"/>
+      <c r="F8" s="169"/>
+      <c r="G8" s="169"/>
+      <c r="H8" s="169"/>
+      <c r="I8" s="169"/>
+      <c r="J8" s="169"/>
+      <c r="K8" s="169"/>
+      <c r="L8" s="171"/>
+      <c r="M8" s="171"/>
+      <c r="N8" s="171"/>
+      <c r="O8" s="171"/>
+    </row>
+    <row r="9" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A9" s="169" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="179"/>
-      <c r="C9" s="179"/>
-      <c r="D9" s="179"/>
-      <c r="E9" s="179"/>
-      <c r="F9" s="179"/>
-      <c r="G9" s="179"/>
-      <c r="H9" s="179"/>
-      <c r="I9" s="179"/>
-      <c r="J9" s="179"/>
-      <c r="K9" s="179"/>
-      <c r="L9" s="180"/>
-      <c r="M9" s="181"/>
-      <c r="N9" s="180"/>
-      <c r="O9" s="181"/>
-    </row>
-    <row r="10" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A10" s="179"/>
-      <c r="B10" s="179"/>
-      <c r="C10" s="179"/>
-      <c r="D10" s="179"/>
-      <c r="E10" s="179"/>
-      <c r="F10" s="179"/>
-      <c r="G10" s="179"/>
-      <c r="H10" s="179"/>
-      <c r="I10" s="179"/>
-      <c r="J10" s="179"/>
-      <c r="K10" s="179"/>
-      <c r="L10" s="181"/>
-      <c r="M10" s="181"/>
-      <c r="N10" s="181"/>
-      <c r="O10" s="181"/>
-    </row>
-    <row r="11" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A11" s="179" t="s">
+      <c r="B9" s="169"/>
+      <c r="C9" s="169"/>
+      <c r="D9" s="169"/>
+      <c r="E9" s="169"/>
+      <c r="F9" s="169"/>
+      <c r="G9" s="169"/>
+      <c r="H9" s="169"/>
+      <c r="I9" s="169"/>
+      <c r="J9" s="169"/>
+      <c r="K9" s="169"/>
+      <c r="L9" s="170"/>
+      <c r="M9" s="171"/>
+      <c r="N9" s="170"/>
+      <c r="O9" s="171"/>
+    </row>
+    <row r="10" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A10" s="169"/>
+      <c r="B10" s="169"/>
+      <c r="C10" s="169"/>
+      <c r="D10" s="169"/>
+      <c r="E10" s="169"/>
+      <c r="F10" s="169"/>
+      <c r="G10" s="169"/>
+      <c r="H10" s="169"/>
+      <c r="I10" s="169"/>
+      <c r="J10" s="169"/>
+      <c r="K10" s="169"/>
+      <c r="L10" s="171"/>
+      <c r="M10" s="171"/>
+      <c r="N10" s="171"/>
+      <c r="O10" s="171"/>
+    </row>
+    <row r="11" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A11" s="169" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="179"/>
-      <c r="C11" s="179"/>
-      <c r="D11" s="179"/>
-      <c r="E11" s="179"/>
-      <c r="F11" s="179"/>
-      <c r="G11" s="179"/>
-      <c r="H11" s="179"/>
-      <c r="I11" s="179"/>
-      <c r="J11" s="179"/>
-      <c r="K11" s="179"/>
-      <c r="L11" s="180"/>
-      <c r="M11" s="181"/>
-      <c r="N11" s="180"/>
-      <c r="O11" s="181"/>
-    </row>
-    <row r="12" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A12" s="179"/>
-      <c r="B12" s="179"/>
-      <c r="C12" s="179"/>
-      <c r="D12" s="179"/>
-      <c r="E12" s="179"/>
-      <c r="F12" s="179"/>
-      <c r="G12" s="179"/>
-      <c r="H12" s="179"/>
-      <c r="I12" s="179"/>
-      <c r="J12" s="179"/>
-      <c r="K12" s="179"/>
-      <c r="L12" s="181"/>
-      <c r="M12" s="181"/>
-      <c r="N12" s="181"/>
-      <c r="O12" s="181"/>
-    </row>
-    <row r="13" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A13" s="179" t="s">
+      <c r="B11" s="169"/>
+      <c r="C11" s="169"/>
+      <c r="D11" s="169"/>
+      <c r="E11" s="169"/>
+      <c r="F11" s="169"/>
+      <c r="G11" s="169"/>
+      <c r="H11" s="169"/>
+      <c r="I11" s="169"/>
+      <c r="J11" s="169"/>
+      <c r="K11" s="169"/>
+      <c r="L11" s="170"/>
+      <c r="M11" s="171"/>
+      <c r="N11" s="170"/>
+      <c r="O11" s="171"/>
+    </row>
+    <row r="12" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A12" s="169"/>
+      <c r="B12" s="169"/>
+      <c r="C12" s="169"/>
+      <c r="D12" s="169"/>
+      <c r="E12" s="169"/>
+      <c r="F12" s="169"/>
+      <c r="G12" s="169"/>
+      <c r="H12" s="169"/>
+      <c r="I12" s="169"/>
+      <c r="J12" s="169"/>
+      <c r="K12" s="169"/>
+      <c r="L12" s="171"/>
+      <c r="M12" s="171"/>
+      <c r="N12" s="171"/>
+      <c r="O12" s="171"/>
+    </row>
+    <row r="13" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A13" s="169" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="179"/>
-      <c r="C13" s="179"/>
-      <c r="D13" s="179"/>
-      <c r="E13" s="179"/>
-      <c r="F13" s="179"/>
-      <c r="G13" s="179"/>
-      <c r="H13" s="179"/>
-      <c r="I13" s="179"/>
-      <c r="J13" s="179"/>
-      <c r="K13" s="179"/>
-      <c r="L13" s="180"/>
-      <c r="M13" s="181"/>
-      <c r="N13" s="180"/>
-      <c r="O13" s="181"/>
-    </row>
-    <row r="14" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A14" s="179"/>
-      <c r="B14" s="179"/>
-      <c r="C14" s="179"/>
-      <c r="D14" s="179"/>
-      <c r="E14" s="179"/>
-      <c r="F14" s="179"/>
-      <c r="G14" s="179"/>
-      <c r="H14" s="179"/>
-      <c r="I14" s="179"/>
-      <c r="J14" s="179"/>
-      <c r="K14" s="179"/>
-      <c r="L14" s="181"/>
-      <c r="M14" s="181"/>
-      <c r="N14" s="181"/>
-      <c r="O14" s="181"/>
-    </row>
-    <row r="15" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A15" s="179" t="s">
+      <c r="B13" s="169"/>
+      <c r="C13" s="169"/>
+      <c r="D13" s="169"/>
+      <c r="E13" s="169"/>
+      <c r="F13" s="169"/>
+      <c r="G13" s="169"/>
+      <c r="H13" s="169"/>
+      <c r="I13" s="169"/>
+      <c r="J13" s="169"/>
+      <c r="K13" s="169"/>
+      <c r="L13" s="170"/>
+      <c r="M13" s="171"/>
+      <c r="N13" s="170"/>
+      <c r="O13" s="171"/>
+    </row>
+    <row r="14" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A14" s="169"/>
+      <c r="B14" s="169"/>
+      <c r="C14" s="169"/>
+      <c r="D14" s="169"/>
+      <c r="E14" s="169"/>
+      <c r="F14" s="169"/>
+      <c r="G14" s="169"/>
+      <c r="H14" s="169"/>
+      <c r="I14" s="169"/>
+      <c r="J14" s="169"/>
+      <c r="K14" s="169"/>
+      <c r="L14" s="171"/>
+      <c r="M14" s="171"/>
+      <c r="N14" s="171"/>
+      <c r="O14" s="171"/>
+    </row>
+    <row r="15" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A15" s="169" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="179"/>
-      <c r="C15" s="179"/>
-      <c r="D15" s="179"/>
-      <c r="E15" s="179"/>
-      <c r="F15" s="179"/>
-      <c r="G15" s="179"/>
-      <c r="H15" s="179"/>
-      <c r="I15" s="179"/>
-      <c r="J15" s="179"/>
-      <c r="K15" s="179"/>
-      <c r="L15" s="180"/>
-      <c r="M15" s="181"/>
-      <c r="N15" s="180"/>
-      <c r="O15" s="181"/>
-    </row>
-    <row r="16" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A16" s="179"/>
-      <c r="B16" s="179"/>
-      <c r="C16" s="179"/>
-      <c r="D16" s="179"/>
-      <c r="E16" s="179"/>
-      <c r="F16" s="179"/>
-      <c r="G16" s="179"/>
-      <c r="H16" s="179"/>
-      <c r="I16" s="179"/>
-      <c r="J16" s="179"/>
-      <c r="K16" s="179"/>
-      <c r="L16" s="181"/>
-      <c r="M16" s="181"/>
-      <c r="N16" s="181"/>
-      <c r="O16" s="181"/>
-    </row>
-    <row r="17" spans="1:20" ht="24.95" customHeight="1">
-      <c r="A17" s="179" t="s">
+      <c r="B15" s="169"/>
+      <c r="C15" s="169"/>
+      <c r="D15" s="169"/>
+      <c r="E15" s="169"/>
+      <c r="F15" s="169"/>
+      <c r="G15" s="169"/>
+      <c r="H15" s="169"/>
+      <c r="I15" s="169"/>
+      <c r="J15" s="169"/>
+      <c r="K15" s="169"/>
+      <c r="L15" s="170"/>
+      <c r="M15" s="171"/>
+      <c r="N15" s="170"/>
+      <c r="O15" s="171"/>
+    </row>
+    <row r="16" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A16" s="169"/>
+      <c r="B16" s="169"/>
+      <c r="C16" s="169"/>
+      <c r="D16" s="169"/>
+      <c r="E16" s="169"/>
+      <c r="F16" s="169"/>
+      <c r="G16" s="169"/>
+      <c r="H16" s="169"/>
+      <c r="I16" s="169"/>
+      <c r="J16" s="169"/>
+      <c r="K16" s="169"/>
+      <c r="L16" s="171"/>
+      <c r="M16" s="171"/>
+      <c r="N16" s="171"/>
+      <c r="O16" s="171"/>
+    </row>
+    <row r="17" spans="1:20" ht="24.9" customHeight="1">
+      <c r="A17" s="169" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="179"/>
-      <c r="C17" s="179"/>
-      <c r="D17" s="179"/>
-      <c r="E17" s="179"/>
-      <c r="F17" s="179"/>
-      <c r="G17" s="179"/>
-      <c r="H17" s="179"/>
-      <c r="I17" s="179"/>
-      <c r="J17" s="179"/>
-      <c r="K17" s="179"/>
-      <c r="L17" s="180"/>
-      <c r="M17" s="181"/>
-      <c r="N17" s="180"/>
-      <c r="O17" s="181"/>
-    </row>
-    <row r="18" spans="1:20" ht="24.95" customHeight="1">
-      <c r="A18" s="179"/>
-      <c r="B18" s="179"/>
-      <c r="C18" s="179"/>
-      <c r="D18" s="179"/>
-      <c r="E18" s="179"/>
-      <c r="F18" s="179"/>
-      <c r="G18" s="179"/>
-      <c r="H18" s="179"/>
-      <c r="I18" s="179"/>
-      <c r="J18" s="179"/>
-      <c r="K18" s="179"/>
-      <c r="L18" s="181"/>
-      <c r="M18" s="181"/>
-      <c r="N18" s="181"/>
-      <c r="O18" s="181"/>
-    </row>
-    <row r="19" spans="1:20" ht="24.95" customHeight="1">
-      <c r="A19" s="179" t="s">
+      <c r="B17" s="169"/>
+      <c r="C17" s="169"/>
+      <c r="D17" s="169"/>
+      <c r="E17" s="169"/>
+      <c r="F17" s="169"/>
+      <c r="G17" s="169"/>
+      <c r="H17" s="169"/>
+      <c r="I17" s="169"/>
+      <c r="J17" s="169"/>
+      <c r="K17" s="169"/>
+      <c r="L17" s="170"/>
+      <c r="M17" s="171"/>
+      <c r="N17" s="170"/>
+      <c r="O17" s="171"/>
+    </row>
+    <row r="18" spans="1:20" ht="24.9" customHeight="1">
+      <c r="A18" s="169"/>
+      <c r="B18" s="169"/>
+      <c r="C18" s="169"/>
+      <c r="D18" s="169"/>
+      <c r="E18" s="169"/>
+      <c r="F18" s="169"/>
+      <c r="G18" s="169"/>
+      <c r="H18" s="169"/>
+      <c r="I18" s="169"/>
+      <c r="J18" s="169"/>
+      <c r="K18" s="169"/>
+      <c r="L18" s="171"/>
+      <c r="M18" s="171"/>
+      <c r="N18" s="171"/>
+      <c r="O18" s="171"/>
+    </row>
+    <row r="19" spans="1:20" ht="24.9" customHeight="1">
+      <c r="A19" s="169" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="179"/>
-      <c r="C19" s="179"/>
-      <c r="D19" s="179"/>
-      <c r="E19" s="179"/>
-      <c r="F19" s="179"/>
-      <c r="G19" s="179"/>
-      <c r="H19" s="179"/>
-      <c r="I19" s="179"/>
-      <c r="J19" s="179"/>
-      <c r="K19" s="179"/>
-      <c r="L19" s="180"/>
-      <c r="M19" s="181"/>
-      <c r="N19" s="180"/>
-      <c r="O19" s="181"/>
-    </row>
-    <row r="20" spans="1:20" ht="24.95" customHeight="1">
-      <c r="A20" s="179"/>
-      <c r="B20" s="179"/>
-      <c r="C20" s="179"/>
-      <c r="D20" s="179"/>
-      <c r="E20" s="179"/>
-      <c r="F20" s="179"/>
-      <c r="G20" s="179"/>
-      <c r="H20" s="179"/>
-      <c r="I20" s="179"/>
-      <c r="J20" s="179"/>
-      <c r="K20" s="179"/>
-      <c r="L20" s="181"/>
-      <c r="M20" s="181"/>
-      <c r="N20" s="181"/>
-      <c r="O20" s="181"/>
-    </row>
-    <row r="21" spans="1:20" ht="24.95" customHeight="1">
-      <c r="A21" s="179" t="s">
+      <c r="B19" s="169"/>
+      <c r="C19" s="169"/>
+      <c r="D19" s="169"/>
+      <c r="E19" s="169"/>
+      <c r="F19" s="169"/>
+      <c r="G19" s="169"/>
+      <c r="H19" s="169"/>
+      <c r="I19" s="169"/>
+      <c r="J19" s="169"/>
+      <c r="K19" s="169"/>
+      <c r="L19" s="170"/>
+      <c r="M19" s="171"/>
+      <c r="N19" s="170"/>
+      <c r="O19" s="171"/>
+    </row>
+    <row r="20" spans="1:20" ht="24.9" customHeight="1">
+      <c r="A20" s="169"/>
+      <c r="B20" s="169"/>
+      <c r="C20" s="169"/>
+      <c r="D20" s="169"/>
+      <c r="E20" s="169"/>
+      <c r="F20" s="169"/>
+      <c r="G20" s="169"/>
+      <c r="H20" s="169"/>
+      <c r="I20" s="169"/>
+      <c r="J20" s="169"/>
+      <c r="K20" s="169"/>
+      <c r="L20" s="171"/>
+      <c r="M20" s="171"/>
+      <c r="N20" s="171"/>
+      <c r="O20" s="171"/>
+    </row>
+    <row r="21" spans="1:20" ht="24.9" customHeight="1">
+      <c r="A21" s="169" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="179"/>
-      <c r="C21" s="179"/>
-      <c r="D21" s="179"/>
-      <c r="E21" s="179"/>
-      <c r="F21" s="179"/>
-      <c r="G21" s="179"/>
-      <c r="H21" s="179"/>
-      <c r="I21" s="179"/>
-      <c r="J21" s="179"/>
-      <c r="K21" s="179"/>
-      <c r="L21" s="180"/>
-      <c r="M21" s="181"/>
-      <c r="N21" s="180"/>
-      <c r="O21" s="181"/>
-    </row>
-    <row r="22" spans="1:20" ht="24.95" customHeight="1">
-      <c r="A22" s="179"/>
-      <c r="B22" s="179"/>
-      <c r="C22" s="179"/>
-      <c r="D22" s="179"/>
-      <c r="E22" s="179"/>
-      <c r="F22" s="179"/>
-      <c r="G22" s="179"/>
-      <c r="H22" s="179"/>
-      <c r="I22" s="179"/>
-      <c r="J22" s="179"/>
-      <c r="K22" s="179"/>
-      <c r="L22" s="181"/>
-      <c r="M22" s="181"/>
-      <c r="N22" s="181"/>
-      <c r="O22" s="181"/>
-    </row>
-    <row r="23" spans="1:20" ht="24.95" customHeight="1">
-      <c r="A23" s="179" t="s">
+      <c r="B21" s="169"/>
+      <c r="C21" s="169"/>
+      <c r="D21" s="169"/>
+      <c r="E21" s="169"/>
+      <c r="F21" s="169"/>
+      <c r="G21" s="169"/>
+      <c r="H21" s="169"/>
+      <c r="I21" s="169"/>
+      <c r="J21" s="169"/>
+      <c r="K21" s="169"/>
+      <c r="L21" s="170"/>
+      <c r="M21" s="171"/>
+      <c r="N21" s="170"/>
+      <c r="O21" s="171"/>
+    </row>
+    <row r="22" spans="1:20" ht="24.9" customHeight="1">
+      <c r="A22" s="169"/>
+      <c r="B22" s="169"/>
+      <c r="C22" s="169"/>
+      <c r="D22" s="169"/>
+      <c r="E22" s="169"/>
+      <c r="F22" s="169"/>
+      <c r="G22" s="169"/>
+      <c r="H22" s="169"/>
+      <c r="I22" s="169"/>
+      <c r="J22" s="169"/>
+      <c r="K22" s="169"/>
+      <c r="L22" s="171"/>
+      <c r="M22" s="171"/>
+      <c r="N22" s="171"/>
+      <c r="O22" s="171"/>
+    </row>
+    <row r="23" spans="1:20" ht="24.9" customHeight="1">
+      <c r="A23" s="169" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="179"/>
-      <c r="C23" s="179"/>
-      <c r="D23" s="179"/>
-      <c r="E23" s="179"/>
-      <c r="F23" s="179"/>
-      <c r="G23" s="179"/>
-      <c r="H23" s="179"/>
-      <c r="I23" s="179"/>
-      <c r="J23" s="179"/>
-      <c r="K23" s="179"/>
-      <c r="L23" s="180"/>
-      <c r="M23" s="181"/>
-      <c r="N23" s="180"/>
-      <c r="O23" s="181"/>
-    </row>
-    <row r="24" spans="1:20" ht="24.95" customHeight="1">
-      <c r="A24" s="179"/>
-      <c r="B24" s="179"/>
-      <c r="C24" s="179"/>
-      <c r="D24" s="179"/>
-      <c r="E24" s="179"/>
-      <c r="F24" s="179"/>
-      <c r="G24" s="179"/>
-      <c r="H24" s="179"/>
-      <c r="I24" s="179"/>
-      <c r="J24" s="179"/>
-      <c r="K24" s="179"/>
-      <c r="L24" s="181"/>
-      <c r="M24" s="181"/>
-      <c r="N24" s="181"/>
-      <c r="O24" s="181"/>
-    </row>
-    <row r="25" spans="1:20" ht="24.95" customHeight="1">
-      <c r="A25" s="179" t="s">
+      <c r="B23" s="169"/>
+      <c r="C23" s="169"/>
+      <c r="D23" s="169"/>
+      <c r="E23" s="169"/>
+      <c r="F23" s="169"/>
+      <c r="G23" s="169"/>
+      <c r="H23" s="169"/>
+      <c r="I23" s="169"/>
+      <c r="J23" s="169"/>
+      <c r="K23" s="169"/>
+      <c r="L23" s="170"/>
+      <c r="M23" s="171"/>
+      <c r="N23" s="170"/>
+      <c r="O23" s="171"/>
+    </row>
+    <row r="24" spans="1:20" ht="24.9" customHeight="1">
+      <c r="A24" s="169"/>
+      <c r="B24" s="169"/>
+      <c r="C24" s="169"/>
+      <c r="D24" s="169"/>
+      <c r="E24" s="169"/>
+      <c r="F24" s="169"/>
+      <c r="G24" s="169"/>
+      <c r="H24" s="169"/>
+      <c r="I24" s="169"/>
+      <c r="J24" s="169"/>
+      <c r="K24" s="169"/>
+      <c r="L24" s="171"/>
+      <c r="M24" s="171"/>
+      <c r="N24" s="171"/>
+      <c r="O24" s="171"/>
+    </row>
+    <row r="25" spans="1:20" ht="24.9" customHeight="1">
+      <c r="A25" s="169" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="179"/>
-      <c r="C25" s="179"/>
-      <c r="D25" s="179"/>
-      <c r="E25" s="179"/>
-      <c r="F25" s="179"/>
-      <c r="G25" s="179"/>
-      <c r="H25" s="179"/>
-      <c r="I25" s="179"/>
-      <c r="J25" s="179"/>
-      <c r="K25" s="179"/>
-      <c r="L25" s="180"/>
-      <c r="M25" s="181"/>
-      <c r="N25" s="180"/>
-      <c r="O25" s="181"/>
-    </row>
-    <row r="26" spans="1:20" ht="24.95" customHeight="1">
-      <c r="A26" s="179"/>
-      <c r="B26" s="179"/>
-      <c r="C26" s="179"/>
-      <c r="D26" s="179"/>
-      <c r="E26" s="179"/>
-      <c r="F26" s="179"/>
-      <c r="G26" s="179"/>
-      <c r="H26" s="179"/>
-      <c r="I26" s="179"/>
-      <c r="J26" s="179"/>
-      <c r="K26" s="179"/>
-      <c r="L26" s="181"/>
-      <c r="M26" s="181"/>
-      <c r="N26" s="181"/>
-      <c r="O26" s="181"/>
+      <c r="B25" s="169"/>
+      <c r="C25" s="169"/>
+      <c r="D25" s="169"/>
+      <c r="E25" s="169"/>
+      <c r="F25" s="169"/>
+      <c r="G25" s="169"/>
+      <c r="H25" s="169"/>
+      <c r="I25" s="169"/>
+      <c r="J25" s="169"/>
+      <c r="K25" s="169"/>
+      <c r="L25" s="170"/>
+      <c r="M25" s="171"/>
+      <c r="N25" s="170"/>
+      <c r="O25" s="171"/>
+    </row>
+    <row r="26" spans="1:20" ht="24.9" customHeight="1">
+      <c r="A26" s="169"/>
+      <c r="B26" s="169"/>
+      <c r="C26" s="169"/>
+      <c r="D26" s="169"/>
+      <c r="E26" s="169"/>
+      <c r="F26" s="169"/>
+      <c r="G26" s="169"/>
+      <c r="H26" s="169"/>
+      <c r="I26" s="169"/>
+      <c r="J26" s="169"/>
+      <c r="K26" s="169"/>
+      <c r="L26" s="171"/>
+      <c r="M26" s="171"/>
+      <c r="N26" s="171"/>
+      <c r="O26" s="171"/>
     </row>
     <row r="27" spans="1:20" ht="15" customHeight="1">
       <c r="A27" s="13"/>
@@ -12259,7 +12399,7 @@
       <c r="N27" s="13"/>
       <c r="O27" s="13"/>
     </row>
-    <row r="28" spans="1:20" ht="24.95" customHeight="1">
+    <row r="28" spans="1:20" ht="24.9" customHeight="1">
       <c r="A28" s="13"/>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
@@ -12268,15 +12408,15 @@
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
-      <c r="I28" s="190" t="s">
+      <c r="I28" s="168" t="s">
         <v>17</v>
       </c>
-      <c r="J28" s="190"/>
-      <c r="K28" s="190"/>
-      <c r="L28" s="190"/>
-      <c r="M28" s="190"/>
-      <c r="N28" s="190"/>
-      <c r="O28" s="190"/>
+      <c r="J28" s="168"/>
+      <c r="K28" s="168"/>
+      <c r="L28" s="168"/>
+      <c r="M28" s="168"/>
+      <c r="N28" s="168"/>
+      <c r="O28" s="168"/>
       <c r="T28" s="1"/>
     </row>
     <row r="29" spans="1:20" ht="22.5" customHeight="1">
@@ -12288,16 +12428,16 @@
       <c r="F29" s="16"/>
       <c r="G29" s="13"/>
       <c r="H29" s="13"/>
-      <c r="I29" s="175" t="s">
+      <c r="I29" s="179" t="s">
         <v>2</v>
       </c>
-      <c r="J29" s="175"/>
-      <c r="K29" s="177"/>
-      <c r="L29" s="177"/>
-      <c r="M29" s="177"/>
-      <c r="N29" s="177"/>
-      <c r="O29" s="177"/>
-      <c r="P29" s="177"/>
+      <c r="J29" s="179"/>
+      <c r="K29" s="181"/>
+      <c r="L29" s="181"/>
+      <c r="M29" s="181"/>
+      <c r="N29" s="181"/>
+      <c r="O29" s="181"/>
+      <c r="P29" s="181"/>
     </row>
     <row r="30" spans="1:20" ht="22.5" customHeight="1" thickBot="1">
       <c r="A30" s="16"/>
@@ -12308,14 +12448,14 @@
       <c r="F30" s="16"/>
       <c r="G30" s="13"/>
       <c r="H30" s="13"/>
-      <c r="I30" s="176"/>
-      <c r="J30" s="176"/>
-      <c r="K30" s="178"/>
-      <c r="L30" s="178"/>
-      <c r="M30" s="178"/>
-      <c r="N30" s="178"/>
-      <c r="O30" s="178"/>
-      <c r="P30" s="178"/>
+      <c r="I30" s="180"/>
+      <c r="J30" s="180"/>
+      <c r="K30" s="182"/>
+      <c r="L30" s="182"/>
+      <c r="M30" s="182"/>
+      <c r="N30" s="182"/>
+      <c r="O30" s="182"/>
+      <c r="P30" s="182"/>
     </row>
     <row r="31" spans="1:20" ht="24.75" customHeight="1">
       <c r="A31" s="16"/>
@@ -12334,7 +12474,7 @@
       <c r="N31" s="14"/>
       <c r="O31" s="14"/>
     </row>
-    <row r="32" spans="1:20" ht="24.95" customHeight="1">
+    <row r="32" spans="1:20" ht="24.9" customHeight="1">
       <c r="A32" s="16"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -12343,15 +12483,15 @@
       <c r="F32" s="16"/>
       <c r="G32" s="13"/>
       <c r="H32" s="13"/>
-      <c r="I32" s="190" t="s">
+      <c r="I32" s="168" t="s">
         <v>9</v>
       </c>
-      <c r="J32" s="190"/>
-      <c r="K32" s="190"/>
-      <c r="L32" s="190"/>
-      <c r="M32" s="190"/>
-      <c r="N32" s="190"/>
-      <c r="O32" s="190"/>
+      <c r="J32" s="168"/>
+      <c r="K32" s="168"/>
+      <c r="L32" s="168"/>
+      <c r="M32" s="168"/>
+      <c r="N32" s="168"/>
+      <c r="O32" s="168"/>
     </row>
     <row r="33" spans="1:16" ht="22.5" customHeight="1">
       <c r="A33" s="16"/>
@@ -12362,16 +12502,16 @@
       <c r="F33" s="16"/>
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
-      <c r="I33" s="175" t="s">
+      <c r="I33" s="179" t="s">
         <v>2</v>
       </c>
-      <c r="J33" s="175"/>
-      <c r="K33" s="177"/>
-      <c r="L33" s="177"/>
-      <c r="M33" s="177"/>
-      <c r="N33" s="177"/>
-      <c r="O33" s="177"/>
-      <c r="P33" s="177"/>
+      <c r="J33" s="179"/>
+      <c r="K33" s="181"/>
+      <c r="L33" s="181"/>
+      <c r="M33" s="181"/>
+      <c r="N33" s="181"/>
+      <c r="O33" s="181"/>
+      <c r="P33" s="181"/>
     </row>
     <row r="34" spans="1:16" ht="22.5" customHeight="1" thickBot="1">
       <c r="A34" s="13"/>
@@ -12382,16 +12522,16 @@
       <c r="F34" s="13"/>
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
-      <c r="I34" s="176"/>
-      <c r="J34" s="176"/>
-      <c r="K34" s="178"/>
-      <c r="L34" s="178"/>
-      <c r="M34" s="178"/>
-      <c r="N34" s="178"/>
-      <c r="O34" s="178"/>
-      <c r="P34" s="178"/>
-    </row>
-    <row r="35" spans="1:16" ht="24.95" customHeight="1">
+      <c r="I34" s="180"/>
+      <c r="J34" s="180"/>
+      <c r="K34" s="182"/>
+      <c r="L34" s="182"/>
+      <c r="M34" s="182"/>
+      <c r="N34" s="182"/>
+      <c r="O34" s="182"/>
+      <c r="P34" s="182"/>
+    </row>
+    <row r="35" spans="1:16" ht="24.9" customHeight="1">
       <c r="A35" s="13"/>
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
@@ -12408,7 +12548,7 @@
       <c r="N35" s="13"/>
       <c r="O35" s="13"/>
     </row>
-    <row r="36" spans="1:16" ht="24.95" customHeight="1">
+    <row r="36" spans="1:16" ht="24.9" customHeight="1">
       <c r="A36" s="13"/>
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
@@ -12425,7 +12565,7 @@
       <c r="N36" s="13"/>
       <c r="O36" s="13"/>
     </row>
-    <row r="37" spans="1:16" ht="24.95" customHeight="1">
+    <row r="37" spans="1:16" ht="24.9" customHeight="1">
       <c r="A37" s="13"/>
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
@@ -12442,7 +12582,7 @@
       <c r="N37" s="13"/>
       <c r="O37" s="13"/>
     </row>
-    <row r="38" spans="1:16" ht="24.95" customHeight="1">
+    <row r="38" spans="1:16" ht="24.9" customHeight="1">
       <c r="A38" s="13"/>
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
@@ -12459,7 +12599,7 @@
       <c r="N38" s="13"/>
       <c r="O38" s="13"/>
     </row>
-    <row r="39" spans="1:16" ht="24.95" customHeight="1">
+    <row r="39" spans="1:16" ht="24.9" customHeight="1">
       <c r="A39" s="13"/>
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
@@ -12476,7 +12616,7 @@
       <c r="N39" s="13"/>
       <c r="O39" s="13"/>
     </row>
-    <row r="40" spans="1:16" ht="24.95" customHeight="1">
+    <row r="40" spans="1:16" ht="24.9" customHeight="1">
       <c r="A40" s="13"/>
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
@@ -12493,7 +12633,7 @@
       <c r="N40" s="13"/>
       <c r="O40" s="13"/>
     </row>
-    <row r="41" spans="1:16" ht="24.95" customHeight="1">
+    <row r="41" spans="1:16" ht="24.9" customHeight="1">
       <c r="A41" s="13"/>
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
@@ -12510,7 +12650,7 @@
       <c r="N41" s="13"/>
       <c r="O41" s="13"/>
     </row>
-    <row r="42" spans="1:16" ht="24.95" customHeight="1">
+    <row r="42" spans="1:16" ht="24.9" customHeight="1">
       <c r="A42" s="13"/>
       <c r="B42" s="13"/>
       <c r="C42" s="13"/>
@@ -12527,7 +12667,7 @@
       <c r="N42" s="13"/>
       <c r="O42" s="13"/>
     </row>
-    <row r="43" spans="1:16" ht="24.95" customHeight="1">
+    <row r="43" spans="1:16" ht="24.9" customHeight="1">
       <c r="A43" s="13"/>
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
@@ -12544,7 +12684,7 @@
       <c r="N43" s="13"/>
       <c r="O43" s="13"/>
     </row>
-    <row r="44" spans="1:16" ht="24.95" customHeight="1">
+    <row r="44" spans="1:16" ht="24.9" customHeight="1">
       <c r="A44" s="13"/>
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
@@ -12561,7 +12701,7 @@
       <c r="N44" s="13"/>
       <c r="O44" s="13"/>
     </row>
-    <row r="45" spans="1:16" ht="24.95" customHeight="1">
+    <row r="45" spans="1:16" ht="24.9" customHeight="1">
       <c r="A45" s="13"/>
       <c r="B45" s="13"/>
       <c r="C45" s="13"/>
@@ -12578,7 +12718,7 @@
       <c r="N45" s="13"/>
       <c r="O45" s="13"/>
     </row>
-    <row r="46" spans="1:16" ht="24.95" customHeight="1">
+    <row r="46" spans="1:16" ht="24.9" customHeight="1">
       <c r="A46" s="13"/>
       <c r="B46" s="13"/>
       <c r="C46" s="13"/>
@@ -12595,18 +12735,45 @@
       <c r="N46" s="13"/>
       <c r="O46" s="13"/>
     </row>
-    <row r="47" spans="1:16" ht="24.95" customHeight="1"/>
-    <row r="48" spans="1:16" ht="24.95" customHeight="1"/>
-    <row r="49" ht="24.95" customHeight="1"/>
-    <row r="50" ht="24.95" customHeight="1"/>
-    <row r="51" ht="24.95" customHeight="1"/>
-    <row r="52" ht="24.95" customHeight="1"/>
-    <row r="53" ht="24.95" customHeight="1"/>
-    <row r="54" ht="24.95" customHeight="1"/>
-    <row r="55" ht="24.95" customHeight="1"/>
+    <row r="47" spans="1:16" ht="24.9" customHeight="1"/>
+    <row r="48" spans="1:16" ht="24.9" customHeight="1"/>
+    <row r="49" ht="24.9" customHeight="1"/>
+    <row r="50" ht="24.9" customHeight="1"/>
+    <row r="51" ht="24.9" customHeight="1"/>
+    <row r="52" ht="24.9" customHeight="1"/>
+    <row r="53" ht="24.9" customHeight="1"/>
+    <row r="54" ht="24.9" customHeight="1"/>
+    <row r="55" ht="24.9" customHeight="1"/>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="43">
+    <mergeCell ref="I29:J30"/>
+    <mergeCell ref="I33:J34"/>
+    <mergeCell ref="K29:P30"/>
+    <mergeCell ref="K33:P34"/>
+    <mergeCell ref="A7:K8"/>
+    <mergeCell ref="L7:M8"/>
+    <mergeCell ref="N7:O8"/>
+    <mergeCell ref="A25:K26"/>
+    <mergeCell ref="L25:M26"/>
+    <mergeCell ref="N25:O26"/>
+    <mergeCell ref="A21:K22"/>
+    <mergeCell ref="L21:M22"/>
+    <mergeCell ref="N21:O22"/>
+    <mergeCell ref="A9:K10"/>
+    <mergeCell ref="L9:M10"/>
+    <mergeCell ref="A23:K24"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="L5:M6"/>
+    <mergeCell ref="N5:O6"/>
+    <mergeCell ref="A5:K6"/>
+    <mergeCell ref="N15:O16"/>
+    <mergeCell ref="L23:M24"/>
+    <mergeCell ref="N23:O24"/>
+    <mergeCell ref="A15:K16"/>
+    <mergeCell ref="A17:K18"/>
+    <mergeCell ref="L17:M18"/>
+    <mergeCell ref="N17:O18"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A2:P3"/>
     <mergeCell ref="I28:O28"/>
@@ -12623,33 +12790,6 @@
     <mergeCell ref="N9:O10"/>
     <mergeCell ref="A4:K4"/>
     <mergeCell ref="L15:M16"/>
-    <mergeCell ref="L23:M24"/>
-    <mergeCell ref="N23:O24"/>
-    <mergeCell ref="A15:K16"/>
-    <mergeCell ref="A17:K18"/>
-    <mergeCell ref="L17:M18"/>
-    <mergeCell ref="N17:O18"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="L5:M6"/>
-    <mergeCell ref="N5:O6"/>
-    <mergeCell ref="A5:K6"/>
-    <mergeCell ref="N15:O16"/>
-    <mergeCell ref="I29:J30"/>
-    <mergeCell ref="I33:J34"/>
-    <mergeCell ref="K29:P30"/>
-    <mergeCell ref="K33:P34"/>
-    <mergeCell ref="A7:K8"/>
-    <mergeCell ref="L7:M8"/>
-    <mergeCell ref="N7:O8"/>
-    <mergeCell ref="A25:K26"/>
-    <mergeCell ref="L25:M26"/>
-    <mergeCell ref="N25:O26"/>
-    <mergeCell ref="A21:K22"/>
-    <mergeCell ref="L21:M22"/>
-    <mergeCell ref="N21:O22"/>
-    <mergeCell ref="A9:K10"/>
-    <mergeCell ref="L9:M10"/>
-    <mergeCell ref="A23:K24"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="L7:O26 I29 K29 I33 K33">

--- a/４．【アイテ゛アシート】_神戸高専B_.xlsx
+++ b/４．【アイテ゛アシート】_神戸高専B_.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fsota\OneDrive\ドキュメント\GitHub\2023honrobo-document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32AD235F-5B83-4BB6-A6AE-29E5506B127C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9122C7B4-44B4-447A-9559-4233B14D8BFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="703" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" tabRatio="703" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
   <si>
     <t>高専名</t>
     <rPh sb="0" eb="2">
@@ -913,10 +913,6 @@
   </si>
   <si>
     <t>001-A11788</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">24Vリポバッテリー×２,0.705Lエアータンク×20 </t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -7674,8 +7670,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:P111"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A5" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:P3"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9:P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.44140625" defaultRowHeight="13.2"/>
@@ -7878,9 +7874,7 @@
       </c>
       <c r="B9" s="89"/>
       <c r="C9" s="90"/>
-      <c r="D9" s="94" t="s">
-        <v>90</v>
-      </c>
+      <c r="D9" s="94"/>
       <c r="E9" s="95"/>
       <c r="F9" s="95"/>
       <c r="G9" s="95"/>
@@ -9392,7 +9386,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="73" zoomScaleNormal="100" zoomScaleSheetLayoutView="73" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScale="73" zoomScaleNormal="100" zoomScaleSheetLayoutView="73" workbookViewId="0">
       <selection sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
@@ -9959,7 +9953,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="75" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScale="75" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:P29"/>
     </sheetView>
   </sheetViews>
@@ -10854,7 +10848,7 @@
     </row>
     <row r="17" spans="1:16" ht="24.9" customHeight="1">
       <c r="A17" s="193" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B17" s="153"/>
       <c r="C17" s="153"/>
@@ -11381,7 +11375,7 @@
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1">
       <c r="A2" s="192" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B2" s="184"/>
       <c r="C2" s="184"/>

--- a/４．【アイテ゛アシート】_神戸高専B_.xlsx
+++ b/４．【アイテ゛アシート】_神戸高専B_.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fsota\OneDrive\ドキュメント\GitHub\2023honrobo-document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9122C7B4-44B4-447A-9559-4233B14D8BFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9789E0E-2716-4883-B02F-47A795C148A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" tabRatio="703" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" tabRatio="703" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -734,10 +734,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>＜アイデアのアピールポイント＞</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>最大展開サイズ
 800×800×1600以下</t>
     <rPh sb="0" eb="2">
@@ -882,13 +878,6 @@
     <t>電子工学科</t>
     <rPh sb="0" eb="5">
       <t>デンシコウガクカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>＜チームの目標＞</t>
-    <rPh sb="5" eb="7">
-      <t>モクヒョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -944,6 +933,185 @@
     </rPh>
     <rPh sb="24" eb="25">
       <t>マワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>＜アピールポイント＞</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">「周回最速」
+チームの目標として、周回速度を限界まで突き詰めてフルーツをどのチームよりも先に回収することを念頭に開発をしています。
+周回速度とフルーツの回収速度の両方を成り立たせるためにロボットの真ん中の部分がロープを越える際に段階的に分離していく「ハラキリ機構」を開発しました。これによりロボットの上部に回収機構を搭載することが出来、フルーツの回収効率も上げられるようにしています。角材を越える際にもエアシリンダの速い直動運動によって車輪を持ち上げロボットの速度を落とさずにコースを駆け回れるようにしています。ロボットの移動にはメカナムホイールを採用しており、直進方向には速く、相手がどのような動きをしても柔軟に対応できるようにしています。
+</t>
+    <rPh sb="1" eb="3">
+      <t>シュウカイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サイソク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>モクヒョウ</t>
+    </rPh>
+    <rPh sb="17" eb="21">
+      <t>シュウカイソクド</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ゲンカイ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>カイシュウ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ネントウ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="66" eb="70">
+      <t>シュウカイソクド</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>カイシュウ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>リョウホウ</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="86" eb="87">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="98" eb="99">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="100" eb="101">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="102" eb="104">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="109" eb="110">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="112" eb="113">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="114" eb="116">
+      <t>ダンカイ</t>
+    </rPh>
+    <rPh sb="116" eb="117">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="118" eb="120">
+      <t>ブンリ</t>
+    </rPh>
+    <rPh sb="129" eb="131">
+      <t>キコウ</t>
+    </rPh>
+    <rPh sb="133" eb="135">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="150" eb="152">
+      <t>ジョウブ</t>
+    </rPh>
+    <rPh sb="153" eb="157">
+      <t>カイシュウキコウ</t>
+    </rPh>
+    <rPh sb="158" eb="160">
+      <t>トウサイ</t>
+    </rPh>
+    <rPh sb="165" eb="167">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="173" eb="175">
+      <t>カイシュウ</t>
+    </rPh>
+    <rPh sb="175" eb="177">
+      <t>コウリツ</t>
+    </rPh>
+    <rPh sb="178" eb="179">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="192" eb="194">
+      <t>カクザイ</t>
+    </rPh>
+    <rPh sb="195" eb="196">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="198" eb="199">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="208" eb="209">
+      <t>ハヤ</t>
+    </rPh>
+    <rPh sb="210" eb="212">
+      <t>チョクドウ</t>
+    </rPh>
+    <rPh sb="212" eb="214">
+      <t>ウンドウ</t>
+    </rPh>
+    <rPh sb="218" eb="220">
+      <t>シャリン</t>
+    </rPh>
+    <rPh sb="221" eb="222">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="223" eb="224">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="230" eb="232">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="233" eb="234">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="242" eb="243">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="244" eb="245">
+      <t>マワ</t>
+    </rPh>
+    <rPh sb="261" eb="263">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="274" eb="276">
+      <t>サイヨウ</t>
+    </rPh>
+    <rPh sb="281" eb="283">
+      <t>チョクシン</t>
+    </rPh>
+    <rPh sb="283" eb="285">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="287" eb="288">
+      <t>ハヤ</t>
+    </rPh>
+    <rPh sb="290" eb="292">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="298" eb="299">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="304" eb="306">
+      <t>ジュウナン</t>
+    </rPh>
+    <rPh sb="307" eb="309">
+      <t>タイオウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1554,7 +1722,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="194">
+  <cellXfs count="202">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1700,6 +1868,43 @@
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1708,9 +1913,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -1719,55 +1921,38 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1808,29 +1993,106 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1838,15 +2100,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1895,91 +2148,6 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2073,6 +2241,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
@@ -2121,14 +2293,55 @@
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2141,83 +2354,70 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -4999,56 +5199,64 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>114822</xdr:colOff>
+      <xdr:colOff>130480</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>240082</xdr:rowOff>
+      <xdr:rowOff>78288</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>171204</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>280756</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="図 5">
+    <xdr:ext cx="1313565" cy="492443"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A5A1E0C-067D-AA54-4088-AF9C575ACE92}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C72181FB-F264-8007-B9C5-73A320C828AC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="114822" y="1200411"/>
-          <a:ext cx="6006245" cy="4289085"/>
+          <a:off x="130480" y="1030788"/>
+          <a:ext cx="1313565" cy="492443"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
       </xdr:spPr>
-    </xdr:pic>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+            <a:t>展開なし</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5160,56 +5368,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>20320</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>193041</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>345171</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>304801</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AAD24B2-E894-8498-1B93-7B7570D97FFB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="20320" y="1158241"/>
-          <a:ext cx="6573251" cy="4744720"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -6346,28 +6504,28 @@
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.88671875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="5.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16" width="5.6640625" customWidth="1"/>
+    <col min="1" max="16" width="5.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="94.5" customHeight="1">
-      <c r="A1" s="54"/>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
+      <c r="A1" s="63"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1">
       <c r="A2" s="4"/>
@@ -6386,134 +6544,134 @@
       <c r="N2" s="4"/>
     </row>
     <row r="3" spans="1:16" ht="22.5" customHeight="1">
-      <c r="A3" s="55" t="s">
-        <v>70</v>
+      <c r="A3" s="64" t="s">
+        <v>69</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="55"/>
-      <c r="O3" s="55"/>
-      <c r="P3" s="55"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="64"/>
+      <c r="P3" s="64"/>
     </row>
     <row r="4" spans="1:16" ht="22.5" customHeight="1">
-      <c r="A4" s="55"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="55"/>
-      <c r="O4" s="55"/>
-      <c r="P4" s="55"/>
+      <c r="A4" s="64"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="64"/>
+      <c r="N4" s="64"/>
+      <c r="O4" s="64"/>
+      <c r="P4" s="64"/>
     </row>
     <row r="5" spans="1:16" ht="22.5" customHeight="1">
-      <c r="A5" s="55"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="55"/>
-      <c r="N5" s="55"/>
-      <c r="O5" s="55"/>
-      <c r="P5" s="55"/>
+      <c r="A5" s="64"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="64"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="64"/>
     </row>
     <row r="6" spans="1:16" ht="22.5" customHeight="1">
-      <c r="A6" s="55"/>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="55"/>
-      <c r="N6" s="55"/>
-      <c r="O6" s="55"/>
-      <c r="P6" s="55"/>
+      <c r="A6" s="64"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="64"/>
+      <c r="N6" s="64"/>
+      <c r="O6" s="64"/>
+      <c r="P6" s="64"/>
     </row>
     <row r="7" spans="1:16" ht="22.5" customHeight="1">
-      <c r="A7" s="56" t="s">
+      <c r="A7" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="56"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="56"/>
-      <c r="N7" s="56"/>
-      <c r="O7" s="56"/>
-      <c r="P7" s="56"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="65"/>
+      <c r="K7" s="65"/>
+      <c r="L7" s="65"/>
+      <c r="M7" s="65"/>
+      <c r="N7" s="65"/>
+      <c r="O7" s="65"/>
+      <c r="P7" s="65"/>
     </row>
     <row r="8" spans="1:16" ht="22.5" customHeight="1">
-      <c r="A8" s="56"/>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="56"/>
-      <c r="M8" s="56"/>
-      <c r="N8" s="56"/>
-      <c r="O8" s="56"/>
-      <c r="P8" s="56"/>
+      <c r="A8" s="65"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="65"/>
+      <c r="L8" s="65"/>
+      <c r="M8" s="65"/>
+      <c r="N8" s="65"/>
+      <c r="O8" s="65"/>
+      <c r="P8" s="65"/>
     </row>
     <row r="9" spans="1:16" ht="22.5" customHeight="1">
-      <c r="A9" s="56"/>
-      <c r="B9" s="56"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="56"/>
-      <c r="M9" s="56"/>
-      <c r="N9" s="56"/>
-      <c r="O9" s="56"/>
-      <c r="P9" s="56"/>
+      <c r="A9" s="65"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="65"/>
+      <c r="K9" s="65"/>
+      <c r="L9" s="65"/>
+      <c r="M9" s="65"/>
+      <c r="N9" s="65"/>
+      <c r="O9" s="65"/>
+      <c r="P9" s="65"/>
     </row>
     <row r="10" spans="1:16" ht="24" customHeight="1">
       <c r="A10" s="5"/>
@@ -6532,26 +6690,26 @@
       <c r="N10" s="5"/>
     </row>
     <row r="11" spans="1:16" ht="30" customHeight="1">
-      <c r="A11" s="57" t="s">
+      <c r="A11" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="57"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="52" t="s">
-        <v>76</v>
+      <c r="B11" s="56"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="62" t="s">
+        <v>75</v>
       </c>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="52"/>
-      <c r="N11" s="52"/>
-      <c r="O11" s="52"/>
-      <c r="P11" s="52"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="62"/>
+      <c r="L11" s="62"/>
+      <c r="M11" s="62"/>
+      <c r="N11" s="62"/>
+      <c r="O11" s="62"/>
+      <c r="P11" s="62"/>
     </row>
     <row r="12" spans="1:16" ht="15" customHeight="1">
       <c r="A12" s="21"/>
@@ -6570,24 +6728,24 @@
       <c r="N12" s="1"/>
     </row>
     <row r="13" spans="1:16" ht="30" customHeight="1">
-      <c r="A13" s="57" t="s">
+      <c r="A13" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="57"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="52"/>
-      <c r="M13" s="52"/>
-      <c r="N13" s="52"/>
-      <c r="O13" s="52"/>
-      <c r="P13" s="52"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="62"/>
+      <c r="L13" s="62"/>
+      <c r="M13" s="62"/>
+      <c r="N13" s="62"/>
+      <c r="O13" s="62"/>
+      <c r="P13" s="62"/>
     </row>
     <row r="14" spans="1:16" ht="15" customHeight="1">
       <c r="B14" s="23"/>
@@ -6605,26 +6763,26 @@
       <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:16" ht="30" customHeight="1">
-      <c r="A15" s="57" t="s">
+      <c r="A15" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="57"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="52" t="s">
-        <v>77</v>
+      <c r="B15" s="56"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="62" t="s">
+        <v>76</v>
       </c>
-      <c r="F15" s="52"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="52"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="52"/>
-      <c r="M15" s="52"/>
-      <c r="N15" s="52"/>
-      <c r="O15" s="52"/>
-      <c r="P15" s="52"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="62"/>
+      <c r="L15" s="62"/>
+      <c r="M15" s="62"/>
+      <c r="N15" s="62"/>
+      <c r="O15" s="62"/>
+      <c r="P15" s="62"/>
     </row>
     <row r="16" spans="1:16" ht="15" customHeight="1">
       <c r="B16" s="23"/>
@@ -6642,22 +6800,22 @@
       <c r="N16" s="1"/>
     </row>
     <row r="17" spans="1:16" ht="30" customHeight="1">
-      <c r="A17" s="67"/>
-      <c r="B17" s="67"/>
-      <c r="C17" s="67"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="53"/>
-      <c r="L17" s="53"/>
-      <c r="M17" s="53"/>
-      <c r="N17" s="53"/>
-      <c r="O17" s="53"/>
-      <c r="P17" s="53"/>
+      <c r="A17" s="57"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="67"/>
+      <c r="J17" s="67"/>
+      <c r="K17" s="67"/>
+      <c r="L17" s="67"/>
+      <c r="M17" s="67"/>
+      <c r="N17" s="67"/>
+      <c r="O17" s="67"/>
+      <c r="P17" s="67"/>
     </row>
     <row r="18" spans="1:16" ht="24" customHeight="1">
       <c r="D18" s="23"/>
@@ -6673,11 +6831,11 @@
       <c r="N18" s="23"/>
     </row>
     <row r="19" spans="1:16" ht="24" customHeight="1">
-      <c r="A19" s="47" t="s">
+      <c r="A19" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="47"/>
-      <c r="C19" s="47"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="58"/>
       <c r="D19" s="23"/>
       <c r="E19" s="23"/>
       <c r="F19" s="23"/>
@@ -6689,25 +6847,25 @@
     </row>
     <row r="20" spans="1:16" ht="24" customHeight="1">
       <c r="A20" s="23"/>
-      <c r="B20" s="48" t="s">
+      <c r="B20" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="49"/>
-      <c r="D20" s="52" t="s">
-        <v>78</v>
+      <c r="C20" s="60"/>
+      <c r="D20" s="62" t="s">
+        <v>77</v>
       </c>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="52"/>
-      <c r="M20" s="52"/>
-      <c r="N20" s="52"/>
-      <c r="O20" s="52"/>
-      <c r="P20" s="52"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="62"/>
+      <c r="L20" s="62"/>
+      <c r="M20" s="62"/>
+      <c r="N20" s="62"/>
+      <c r="O20" s="62"/>
+      <c r="P20" s="62"/>
     </row>
     <row r="21" spans="1:16" ht="15" customHeight="1">
       <c r="B21" s="2"/>
@@ -6725,25 +6883,25 @@
     </row>
     <row r="22" spans="1:16" ht="24" customHeight="1">
       <c r="A22" s="23"/>
-      <c r="B22" s="51" t="s">
+      <c r="B22" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="51"/>
-      <c r="D22" s="52" t="s">
-        <v>79</v>
+      <c r="C22" s="61"/>
+      <c r="D22" s="62" t="s">
+        <v>78</v>
       </c>
-      <c r="E22" s="52"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="52"/>
-      <c r="M22" s="52"/>
-      <c r="N22" s="52"/>
-      <c r="O22" s="52"/>
-      <c r="P22" s="52"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="62"/>
+      <c r="L22" s="62"/>
+      <c r="M22" s="62"/>
+      <c r="N22" s="62"/>
+      <c r="O22" s="62"/>
+      <c r="P22" s="62"/>
     </row>
     <row r="23" spans="1:16" ht="15" customHeight="1">
       <c r="B23" s="2"/>
@@ -6761,23 +6919,23 @@
     </row>
     <row r="24" spans="1:16" ht="24" customHeight="1">
       <c r="A24" s="23"/>
-      <c r="B24" s="49" t="s">
+      <c r="B24" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="49"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="52"/>
-      <c r="J24" s="52"/>
-      <c r="K24" s="52"/>
-      <c r="L24" s="52"/>
-      <c r="M24" s="52"/>
-      <c r="N24" s="52"/>
-      <c r="O24" s="52"/>
-      <c r="P24" s="52"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="62"/>
+      <c r="J24" s="62"/>
+      <c r="K24" s="62"/>
+      <c r="L24" s="62"/>
+      <c r="M24" s="62"/>
+      <c r="N24" s="62"/>
+      <c r="O24" s="62"/>
+      <c r="P24" s="62"/>
     </row>
     <row r="25" spans="1:16" ht="15" customHeight="1">
       <c r="B25" s="2"/>
@@ -6795,32 +6953,32 @@
     </row>
     <row r="26" spans="1:16" ht="24" customHeight="1">
       <c r="A26" s="23"/>
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="49"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="52"/>
-      <c r="H26" s="52"/>
-      <c r="I26" s="52"/>
-      <c r="J26" s="52"/>
-      <c r="K26" s="52"/>
-      <c r="L26" s="52"/>
-      <c r="M26" s="52"/>
-      <c r="N26" s="52"/>
-      <c r="O26" s="52"/>
-      <c r="P26" s="52"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="62"/>
+      <c r="I26" s="62"/>
+      <c r="J26" s="62"/>
+      <c r="K26" s="62"/>
+      <c r="L26" s="62"/>
+      <c r="M26" s="62"/>
+      <c r="N26" s="62"/>
+      <c r="O26" s="62"/>
+      <c r="P26" s="62"/>
     </row>
     <row r="27" spans="1:16" ht="24" customHeight="1"/>
     <row r="28" spans="1:16" ht="24" customHeight="1">
-      <c r="A28" s="47" t="s">
+      <c r="A28" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="47"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="47"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="58"/>
       <c r="E28" s="23"/>
       <c r="F28" s="23"/>
       <c r="G28" s="23"/>
@@ -6832,25 +6990,25 @@
     </row>
     <row r="29" spans="1:16" ht="24" customHeight="1">
       <c r="A29" s="23"/>
-      <c r="B29" s="48" t="s">
+      <c r="B29" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="49"/>
-      <c r="D29" s="52" t="s">
-        <v>80</v>
+      <c r="C29" s="60"/>
+      <c r="D29" s="62" t="s">
+        <v>79</v>
       </c>
-      <c r="E29" s="52"/>
-      <c r="F29" s="52"/>
-      <c r="G29" s="52"/>
-      <c r="H29" s="52"/>
-      <c r="I29" s="52"/>
-      <c r="J29" s="52"/>
-      <c r="K29" s="52"/>
-      <c r="L29" s="52"/>
-      <c r="M29" s="52"/>
-      <c r="N29" s="52"/>
-      <c r="O29" s="52"/>
-      <c r="P29" s="52"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="62"/>
+      <c r="H29" s="62"/>
+      <c r="I29" s="62"/>
+      <c r="J29" s="62"/>
+      <c r="K29" s="62"/>
+      <c r="L29" s="62"/>
+      <c r="M29" s="62"/>
+      <c r="N29" s="62"/>
+      <c r="O29" s="62"/>
+      <c r="P29" s="62"/>
     </row>
     <row r="30" spans="1:16" ht="15" customHeight="1">
       <c r="B30" s="23"/>
@@ -6868,25 +7026,25 @@
     </row>
     <row r="31" spans="1:16" ht="24" customHeight="1">
       <c r="A31" s="23"/>
-      <c r="B31" s="50" t="s">
+      <c r="B31" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="51"/>
-      <c r="D31" s="52" t="s">
-        <v>81</v>
+      <c r="C31" s="61"/>
+      <c r="D31" s="62" t="s">
+        <v>80</v>
       </c>
-      <c r="E31" s="52"/>
-      <c r="F31" s="52"/>
-      <c r="G31" s="52"/>
-      <c r="H31" s="52"/>
-      <c r="I31" s="52"/>
-      <c r="J31" s="52"/>
-      <c r="K31" s="52"/>
-      <c r="L31" s="52"/>
-      <c r="M31" s="52"/>
-      <c r="N31" s="52"/>
-      <c r="O31" s="52"/>
-      <c r="P31" s="52"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="62"/>
+      <c r="H31" s="62"/>
+      <c r="I31" s="62"/>
+      <c r="J31" s="62"/>
+      <c r="K31" s="62"/>
+      <c r="L31" s="62"/>
+      <c r="M31" s="62"/>
+      <c r="N31" s="62"/>
+      <c r="O31" s="62"/>
+      <c r="P31" s="62"/>
     </row>
     <row r="32" spans="1:16" ht="24" customHeight="1">
       <c r="A32" s="23"/>
@@ -6907,42 +7065,42 @@
     <row r="33" spans="1:15" ht="15" customHeight="1">
       <c r="A33" s="25"/>
       <c r="B33" s="25"/>
-      <c r="C33" s="61">
+      <c r="C33" s="50">
         <v>6</v>
       </c>
-      <c r="D33" s="63" t="s">
+      <c r="D33" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="E33" s="65">
+      <c r="E33" s="54">
         <v>27</v>
       </c>
-      <c r="F33" s="58" t="s">
+      <c r="F33" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="G33" s="59"/>
-      <c r="H33" s="59"/>
-      <c r="I33" s="59"/>
-      <c r="J33" s="59"/>
-      <c r="K33" s="59"/>
-      <c r="L33" s="59"/>
-      <c r="M33" s="59"/>
-      <c r="N33" s="59"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="48"/>
+      <c r="I33" s="48"/>
+      <c r="J33" s="48"/>
+      <c r="K33" s="48"/>
+      <c r="L33" s="48"/>
+      <c r="M33" s="48"/>
+      <c r="N33" s="48"/>
       <c r="O33" s="24"/>
     </row>
     <row r="34" spans="1:15" ht="15" customHeight="1">
       <c r="A34" s="25"/>
-      <c r="C34" s="62"/>
-      <c r="D34" s="64"/>
-      <c r="E34" s="66"/>
-      <c r="F34" s="60"/>
-      <c r="G34" s="60"/>
-      <c r="H34" s="60"/>
-      <c r="I34" s="60"/>
-      <c r="J34" s="60"/>
-      <c r="K34" s="60"/>
-      <c r="L34" s="60"/>
-      <c r="M34" s="60"/>
-      <c r="N34" s="60"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="49"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="49"/>
+      <c r="K34" s="49"/>
+      <c r="L34" s="49"/>
+      <c r="M34" s="49"/>
+      <c r="N34" s="49"/>
       <c r="O34" s="24"/>
     </row>
     <row r="35" spans="1:15" ht="15" customHeight="1">
@@ -6952,6 +7110,19 @@
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="29">
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="E13:P13"/>
+    <mergeCell ref="E15:P15"/>
+    <mergeCell ref="E17:P17"/>
+    <mergeCell ref="D20:P20"/>
+    <mergeCell ref="D22:P22"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A3:P6"/>
+    <mergeCell ref="A7:P9"/>
+    <mergeCell ref="E11:P11"/>
+    <mergeCell ref="A15:D15"/>
     <mergeCell ref="F33:N34"/>
     <mergeCell ref="C33:C34"/>
     <mergeCell ref="D33:D34"/>
@@ -6968,19 +7139,6 @@
     <mergeCell ref="D26:P26"/>
     <mergeCell ref="D29:P29"/>
     <mergeCell ref="D31:P31"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A3:P6"/>
-    <mergeCell ref="A7:P9"/>
-    <mergeCell ref="E11:P11"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="E13:P13"/>
-    <mergeCell ref="E15:P15"/>
-    <mergeCell ref="E17:P17"/>
-    <mergeCell ref="D20:P20"/>
-    <mergeCell ref="D22:P22"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="C33:C34 E33:E34">
@@ -7013,128 +7171,128 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:P33"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:P23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.44140625" defaultRowHeight="25.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="5.5" defaultRowHeight="25.5" customHeight="1"/>
   <cols>
-    <col min="1" max="16" width="5.6640625" customWidth="1"/>
+    <col min="1" max="16" width="5.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="30" customHeight="1">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="73" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-    </row>
-    <row r="2" spans="1:16" ht="24.9" customHeight="1"/>
-    <row r="3" spans="1:16" ht="24.9" customHeight="1">
-      <c r="A3" s="83" t="s">
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+    </row>
+    <row r="2" spans="1:16" ht="24.95" customHeight="1"/>
+    <row r="3" spans="1:16" ht="24.95" customHeight="1">
+      <c r="A3" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="81" t="s">
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
-      <c r="L3" s="82"/>
-    </row>
-    <row r="4" spans="1:16" ht="24.9" customHeight="1">
-      <c r="A4" s="79" t="s">
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
+    </row>
+    <row r="4" spans="1:16" ht="24.95" customHeight="1">
+      <c r="A4" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79" t="s">
+      <c r="B4" s="69"/>
+      <c r="C4" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79" t="s">
+      <c r="D4" s="69"/>
+      <c r="E4" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79" t="s">
+      <c r="F4" s="69"/>
+      <c r="G4" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79" t="s">
+      <c r="H4" s="69"/>
+      <c r="I4" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="79"/>
-      <c r="K4" s="79" t="s">
+      <c r="J4" s="69"/>
+      <c r="K4" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="79"/>
+      <c r="L4" s="69"/>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
     </row>
-    <row r="5" spans="1:16" ht="24.9" customHeight="1">
-      <c r="A5" s="84">
+    <row r="5" spans="1:16" ht="24.95" customHeight="1">
+      <c r="A5" s="68">
         <v>4</v>
       </c>
-      <c r="B5" s="84"/>
-      <c r="C5" s="84">
+      <c r="B5" s="68"/>
+      <c r="C5" s="68">
         <v>1</v>
       </c>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84">
+      <c r="D5" s="68"/>
+      <c r="E5" s="68">
         <v>3</v>
       </c>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84">
+      <c r="F5" s="68"/>
+      <c r="G5" s="68">
         <v>2</v>
       </c>
-      <c r="H5" s="84"/>
-      <c r="I5" s="84">
+      <c r="H5" s="68"/>
+      <c r="I5" s="68">
         <v>0</v>
       </c>
-      <c r="J5" s="84"/>
-      <c r="K5" s="84">
+      <c r="J5" s="68"/>
+      <c r="K5" s="68">
         <v>8</v>
       </c>
-      <c r="L5" s="84"/>
+      <c r="L5" s="68"/>
       <c r="M5" s="18"/>
       <c r="N5" s="18"/>
     </row>
-    <row r="6" spans="1:16" ht="24.9" customHeight="1">
-      <c r="A6" s="84"/>
-      <c r="B6" s="84"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84"/>
-      <c r="H6" s="84"/>
-      <c r="I6" s="84"/>
-      <c r="J6" s="84"/>
-      <c r="K6" s="84"/>
-      <c r="L6" s="84"/>
+    <row r="6" spans="1:16" ht="24.95" customHeight="1">
+      <c r="A6" s="68"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
       <c r="M6" s="18"/>
       <c r="N6" s="18"/>
     </row>
-    <row r="7" spans="1:16" ht="24.9" customHeight="1">
+    <row r="7" spans="1:16" ht="24.95" customHeight="1">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -7150,16 +7308,16 @@
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
     </row>
-    <row r="8" spans="1:16" ht="24.9" customHeight="1">
-      <c r="A8" s="80" t="s">
+    <row r="8" spans="1:16" ht="24.95" customHeight="1">
+      <c r="A8" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="80"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80"/>
-      <c r="G8" s="80"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
       <c r="H8" s="17"/>
       <c r="I8" s="17"/>
       <c r="J8" s="17"/>
@@ -7168,77 +7326,77 @@
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
     </row>
-    <row r="9" spans="1:16" ht="24.9" customHeight="1">
-      <c r="A9" s="78" t="s">
+    <row r="9" spans="1:16" ht="24.95" customHeight="1">
+      <c r="A9" s="70" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="70"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70" t="s">
+        <v>78</v>
+      </c>
+      <c r="I9" s="70"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="70"/>
+      <c r="N9" s="70"/>
+    </row>
+    <row r="10" spans="1:16" ht="24.95" customHeight="1">
+      <c r="A10" s="70" t="s">
         <v>82</v>
       </c>
-      <c r="B9" s="78"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="78"/>
-      <c r="G9" s="78"/>
-      <c r="H9" s="78" t="s">
-        <v>79</v>
-      </c>
-      <c r="I9" s="78"/>
-      <c r="J9" s="78"/>
-      <c r="K9" s="78"/>
-      <c r="L9" s="78"/>
-      <c r="M9" s="78"/>
-      <c r="N9" s="78"/>
-    </row>
-    <row r="10" spans="1:16" ht="24.9" customHeight="1">
-      <c r="A10" s="78" t="s">
-        <v>83</v>
-      </c>
-      <c r="B10" s="78"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="78"/>
-      <c r="E10" s="78"/>
-      <c r="F10" s="78"/>
-      <c r="G10" s="78"/>
-      <c r="H10" s="78"/>
-      <c r="I10" s="78"/>
-      <c r="J10" s="78"/>
-      <c r="K10" s="78"/>
-      <c r="L10" s="78"/>
-      <c r="M10" s="78"/>
-      <c r="N10" s="78"/>
-    </row>
-    <row r="11" spans="1:16" ht="24.9" customHeight="1">
-      <c r="A11" s="78"/>
-      <c r="B11" s="78"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="78"/>
-      <c r="G11" s="78"/>
-      <c r="H11" s="78"/>
-      <c r="I11" s="78"/>
-      <c r="J11" s="78"/>
-      <c r="K11" s="78"/>
-      <c r="L11" s="78"/>
-      <c r="M11" s="78"/>
-      <c r="N11" s="78"/>
-    </row>
-    <row r="12" spans="1:16" ht="24.9" customHeight="1">
-      <c r="A12" s="78"/>
-      <c r="B12" s="78"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="78"/>
-      <c r="G12" s="78"/>
-      <c r="H12" s="78"/>
-      <c r="I12" s="78"/>
-      <c r="J12" s="78"/>
-      <c r="K12" s="78"/>
-      <c r="L12" s="78"/>
-      <c r="M12" s="78"/>
-      <c r="N12" s="78"/>
-    </row>
-    <row r="13" spans="1:16" ht="24.9" customHeight="1">
+      <c r="B10" s="70"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="70"/>
+      <c r="M10" s="70"/>
+      <c r="N10" s="70"/>
+    </row>
+    <row r="11" spans="1:16" ht="24.95" customHeight="1">
+      <c r="A11" s="70"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="70"/>
+      <c r="M11" s="70"/>
+      <c r="N11" s="70"/>
+    </row>
+    <row r="12" spans="1:16" ht="24.95" customHeight="1">
+      <c r="A12" s="70"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="70"/>
+      <c r="M12" s="70"/>
+      <c r="N12" s="70"/>
+    </row>
+    <row r="13" spans="1:16" ht="24.95" customHeight="1">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -7254,9 +7412,9 @@
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
     </row>
-    <row r="14" spans="1:16" ht="24.9" customHeight="1">
+    <row r="14" spans="1:16" ht="24.95" customHeight="1">
       <c r="A14" s="35" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B14" s="35"/>
       <c r="C14" s="35"/>
@@ -7267,172 +7425,172 @@
       <c r="K14" s="8"/>
       <c r="L14" s="9"/>
     </row>
-    <row r="15" spans="1:16" ht="24.9" customHeight="1">
-      <c r="A15" s="69"/>
-      <c r="B15" s="70"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="70"/>
-      <c r="K15" s="70"/>
-      <c r="L15" s="70"/>
-      <c r="M15" s="70"/>
-      <c r="N15" s="70"/>
-      <c r="O15" s="70"/>
-      <c r="P15" s="71"/>
-    </row>
-    <row r="16" spans="1:16" ht="24.9" customHeight="1">
-      <c r="A16" s="72"/>
-      <c r="B16" s="73"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="73"/>
-      <c r="H16" s="73"/>
-      <c r="I16" s="73"/>
-      <c r="J16" s="73"/>
-      <c r="K16" s="73"/>
-      <c r="L16" s="73"/>
-      <c r="M16" s="73"/>
-      <c r="N16" s="73"/>
-      <c r="O16" s="73"/>
-      <c r="P16" s="74"/>
-    </row>
-    <row r="17" spans="1:16" ht="24.9" customHeight="1">
-      <c r="A17" s="72"/>
-      <c r="B17" s="73"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="73"/>
-      <c r="H17" s="73"/>
-      <c r="I17" s="73"/>
-      <c r="J17" s="73"/>
-      <c r="K17" s="73"/>
-      <c r="L17" s="73"/>
-      <c r="M17" s="73"/>
-      <c r="N17" s="73"/>
-      <c r="O17" s="73"/>
-      <c r="P17" s="74"/>
-    </row>
-    <row r="18" spans="1:16" ht="24.9" customHeight="1">
-      <c r="A18" s="72"/>
-      <c r="B18" s="73"/>
-      <c r="C18" s="73"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="73"/>
-      <c r="H18" s="73"/>
-      <c r="I18" s="73"/>
-      <c r="J18" s="73"/>
-      <c r="K18" s="73"/>
-      <c r="L18" s="73"/>
-      <c r="M18" s="73"/>
-      <c r="N18" s="73"/>
-      <c r="O18" s="73"/>
-      <c r="P18" s="74"/>
-    </row>
-    <row r="19" spans="1:16" ht="24.9" customHeight="1">
-      <c r="A19" s="72"/>
-      <c r="B19" s="73"/>
-      <c r="C19" s="73"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="73"/>
-      <c r="H19" s="73"/>
-      <c r="I19" s="73"/>
-      <c r="J19" s="73"/>
-      <c r="K19" s="73"/>
-      <c r="L19" s="73"/>
-      <c r="M19" s="73"/>
-      <c r="N19" s="73"/>
-      <c r="O19" s="73"/>
-      <c r="P19" s="74"/>
-    </row>
-    <row r="20" spans="1:16" ht="24.9" customHeight="1">
-      <c r="A20" s="72"/>
-      <c r="B20" s="73"/>
-      <c r="C20" s="73"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="73"/>
-      <c r="H20" s="73"/>
-      <c r="I20" s="73"/>
-      <c r="J20" s="73"/>
-      <c r="K20" s="73"/>
-      <c r="L20" s="73"/>
-      <c r="M20" s="73"/>
-      <c r="N20" s="73"/>
-      <c r="O20" s="73"/>
-      <c r="P20" s="74"/>
-    </row>
-    <row r="21" spans="1:16" ht="24.9" customHeight="1">
-      <c r="A21" s="72"/>
-      <c r="B21" s="73"/>
-      <c r="C21" s="73"/>
-      <c r="D21" s="73"/>
-      <c r="E21" s="73"/>
-      <c r="F21" s="73"/>
-      <c r="G21" s="73"/>
-      <c r="H21" s="73"/>
-      <c r="I21" s="73"/>
-      <c r="J21" s="73"/>
-      <c r="K21" s="73"/>
-      <c r="L21" s="73"/>
-      <c r="M21" s="73"/>
-      <c r="N21" s="73"/>
-      <c r="O21" s="73"/>
-      <c r="P21" s="74"/>
-    </row>
-    <row r="22" spans="1:16" ht="24.9" customHeight="1">
-      <c r="A22" s="72"/>
-      <c r="B22" s="73"/>
-      <c r="C22" s="73"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="73"/>
-      <c r="H22" s="73"/>
-      <c r="I22" s="73"/>
-      <c r="J22" s="73"/>
-      <c r="K22" s="73"/>
-      <c r="L22" s="73"/>
-      <c r="M22" s="73"/>
-      <c r="N22" s="73"/>
-      <c r="O22" s="73"/>
-      <c r="P22" s="74"/>
-    </row>
-    <row r="23" spans="1:16" ht="24.9" customHeight="1">
-      <c r="A23" s="75"/>
-      <c r="B23" s="76"/>
-      <c r="C23" s="76"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="76"/>
-      <c r="H23" s="76"/>
-      <c r="I23" s="76"/>
-      <c r="J23" s="76"/>
-      <c r="K23" s="76"/>
-      <c r="L23" s="76"/>
-      <c r="M23" s="76"/>
-      <c r="N23" s="76"/>
-      <c r="O23" s="76"/>
-      <c r="P23" s="77"/>
-    </row>
-    <row r="24" spans="1:16" ht="24.75" customHeight="1">
-      <c r="A24" s="46" t="s">
-        <v>64</v>
+    <row r="15" spans="1:16" ht="24.95" customHeight="1">
+      <c r="A15" s="193" t="s">
+        <v>91</v>
       </c>
+      <c r="B15" s="194"/>
+      <c r="C15" s="194"/>
+      <c r="D15" s="194"/>
+      <c r="E15" s="194"/>
+      <c r="F15" s="194"/>
+      <c r="G15" s="194"/>
+      <c r="H15" s="194"/>
+      <c r="I15" s="194"/>
+      <c r="J15" s="194"/>
+      <c r="K15" s="194"/>
+      <c r="L15" s="194"/>
+      <c r="M15" s="194"/>
+      <c r="N15" s="194"/>
+      <c r="O15" s="194"/>
+      <c r="P15" s="195"/>
+    </row>
+    <row r="16" spans="1:16" ht="24.95" customHeight="1">
+      <c r="A16" s="196"/>
+      <c r="B16" s="197"/>
+      <c r="C16" s="197"/>
+      <c r="D16" s="197"/>
+      <c r="E16" s="197"/>
+      <c r="F16" s="197"/>
+      <c r="G16" s="197"/>
+      <c r="H16" s="197"/>
+      <c r="I16" s="197"/>
+      <c r="J16" s="197"/>
+      <c r="K16" s="197"/>
+      <c r="L16" s="197"/>
+      <c r="M16" s="197"/>
+      <c r="N16" s="197"/>
+      <c r="O16" s="197"/>
+      <c r="P16" s="198"/>
+    </row>
+    <row r="17" spans="1:16" ht="24.95" customHeight="1">
+      <c r="A17" s="196"/>
+      <c r="B17" s="197"/>
+      <c r="C17" s="197"/>
+      <c r="D17" s="197"/>
+      <c r="E17" s="197"/>
+      <c r="F17" s="197"/>
+      <c r="G17" s="197"/>
+      <c r="H17" s="197"/>
+      <c r="I17" s="197"/>
+      <c r="J17" s="197"/>
+      <c r="K17" s="197"/>
+      <c r="L17" s="197"/>
+      <c r="M17" s="197"/>
+      <c r="N17" s="197"/>
+      <c r="O17" s="197"/>
+      <c r="P17" s="198"/>
+    </row>
+    <row r="18" spans="1:16" ht="24.95" customHeight="1">
+      <c r="A18" s="196"/>
+      <c r="B18" s="197"/>
+      <c r="C18" s="197"/>
+      <c r="D18" s="197"/>
+      <c r="E18" s="197"/>
+      <c r="F18" s="197"/>
+      <c r="G18" s="197"/>
+      <c r="H18" s="197"/>
+      <c r="I18" s="197"/>
+      <c r="J18" s="197"/>
+      <c r="K18" s="197"/>
+      <c r="L18" s="197"/>
+      <c r="M18" s="197"/>
+      <c r="N18" s="197"/>
+      <c r="O18" s="197"/>
+      <c r="P18" s="198"/>
+    </row>
+    <row r="19" spans="1:16" ht="24.95" customHeight="1">
+      <c r="A19" s="196"/>
+      <c r="B19" s="197"/>
+      <c r="C19" s="197"/>
+      <c r="D19" s="197"/>
+      <c r="E19" s="197"/>
+      <c r="F19" s="197"/>
+      <c r="G19" s="197"/>
+      <c r="H19" s="197"/>
+      <c r="I19" s="197"/>
+      <c r="J19" s="197"/>
+      <c r="K19" s="197"/>
+      <c r="L19" s="197"/>
+      <c r="M19" s="197"/>
+      <c r="N19" s="197"/>
+      <c r="O19" s="197"/>
+      <c r="P19" s="198"/>
+    </row>
+    <row r="20" spans="1:16" ht="24.95" customHeight="1">
+      <c r="A20" s="196"/>
+      <c r="B20" s="197"/>
+      <c r="C20" s="197"/>
+      <c r="D20" s="197"/>
+      <c r="E20" s="197"/>
+      <c r="F20" s="197"/>
+      <c r="G20" s="197"/>
+      <c r="H20" s="197"/>
+      <c r="I20" s="197"/>
+      <c r="J20" s="197"/>
+      <c r="K20" s="197"/>
+      <c r="L20" s="197"/>
+      <c r="M20" s="197"/>
+      <c r="N20" s="197"/>
+      <c r="O20" s="197"/>
+      <c r="P20" s="198"/>
+    </row>
+    <row r="21" spans="1:16" ht="24.95" customHeight="1">
+      <c r="A21" s="196"/>
+      <c r="B21" s="197"/>
+      <c r="C21" s="197"/>
+      <c r="D21" s="197"/>
+      <c r="E21" s="197"/>
+      <c r="F21" s="197"/>
+      <c r="G21" s="197"/>
+      <c r="H21" s="197"/>
+      <c r="I21" s="197"/>
+      <c r="J21" s="197"/>
+      <c r="K21" s="197"/>
+      <c r="L21" s="197"/>
+      <c r="M21" s="197"/>
+      <c r="N21" s="197"/>
+      <c r="O21" s="197"/>
+      <c r="P21" s="198"/>
+    </row>
+    <row r="22" spans="1:16" ht="24.95" customHeight="1">
+      <c r="A22" s="196"/>
+      <c r="B22" s="197"/>
+      <c r="C22" s="197"/>
+      <c r="D22" s="197"/>
+      <c r="E22" s="197"/>
+      <c r="F22" s="197"/>
+      <c r="G22" s="197"/>
+      <c r="H22" s="197"/>
+      <c r="I22" s="197"/>
+      <c r="J22" s="197"/>
+      <c r="K22" s="197"/>
+      <c r="L22" s="197"/>
+      <c r="M22" s="197"/>
+      <c r="N22" s="197"/>
+      <c r="O22" s="197"/>
+      <c r="P22" s="198"/>
+    </row>
+    <row r="23" spans="1:16" ht="24.95" customHeight="1">
+      <c r="A23" s="199"/>
+      <c r="B23" s="200"/>
+      <c r="C23" s="200"/>
+      <c r="D23" s="200"/>
+      <c r="E23" s="200"/>
+      <c r="F23" s="200"/>
+      <c r="G23" s="200"/>
+      <c r="H23" s="200"/>
+      <c r="I23" s="200"/>
+      <c r="J23" s="200"/>
+      <c r="K23" s="200"/>
+      <c r="L23" s="200"/>
+      <c r="M23" s="200"/>
+      <c r="N23" s="200"/>
+      <c r="O23" s="200"/>
+      <c r="P23" s="201"/>
+    </row>
+    <row r="24" spans="1:16" ht="6" customHeight="1">
+      <c r="A24" s="46"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -7447,181 +7605,171 @@
       <c r="M24" s="10"/>
       <c r="N24" s="10"/>
     </row>
-    <row r="25" spans="1:16" ht="24.9" customHeight="1">
-      <c r="A25" s="69"/>
-      <c r="B25" s="70"/>
-      <c r="C25" s="70"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="70"/>
-      <c r="I25" s="70"/>
-      <c r="J25" s="70"/>
-      <c r="K25" s="70"/>
-      <c r="L25" s="70"/>
-      <c r="M25" s="70"/>
-      <c r="N25" s="70"/>
-      <c r="O25" s="70"/>
-      <c r="P25" s="71"/>
-    </row>
-    <row r="26" spans="1:16" ht="24.9" customHeight="1">
-      <c r="A26" s="72"/>
-      <c r="B26" s="73"/>
-      <c r="C26" s="73"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="73"/>
-      <c r="I26" s="73"/>
-      <c r="J26" s="73"/>
-      <c r="K26" s="73"/>
-      <c r="L26" s="73"/>
-      <c r="M26" s="73"/>
-      <c r="N26" s="73"/>
-      <c r="O26" s="73"/>
-      <c r="P26" s="74"/>
-    </row>
-    <row r="27" spans="1:16" ht="24.9" customHeight="1">
-      <c r="A27" s="72"/>
-      <c r="B27" s="73"/>
-      <c r="C27" s="73"/>
-      <c r="D27" s="73"/>
-      <c r="E27" s="73"/>
-      <c r="F27" s="73"/>
-      <c r="G27" s="73"/>
-      <c r="H27" s="73"/>
-      <c r="I27" s="73"/>
-      <c r="J27" s="73"/>
-      <c r="K27" s="73"/>
-      <c r="L27" s="73"/>
-      <c r="M27" s="73"/>
-      <c r="N27" s="73"/>
-      <c r="O27" s="73"/>
-      <c r="P27" s="74"/>
-    </row>
-    <row r="28" spans="1:16" ht="24.9" customHeight="1">
-      <c r="A28" s="72"/>
-      <c r="B28" s="73"/>
-      <c r="C28" s="73"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="73"/>
-      <c r="H28" s="73"/>
-      <c r="I28" s="73"/>
-      <c r="J28" s="73"/>
-      <c r="K28" s="73"/>
-      <c r="L28" s="73"/>
-      <c r="M28" s="73"/>
-      <c r="N28" s="73"/>
-      <c r="O28" s="73"/>
-      <c r="P28" s="74"/>
-    </row>
-    <row r="29" spans="1:16" ht="24.9" customHeight="1">
-      <c r="A29" s="72"/>
-      <c r="B29" s="73"/>
-      <c r="C29" s="73"/>
-      <c r="D29" s="73"/>
-      <c r="E29" s="73"/>
-      <c r="F29" s="73"/>
-      <c r="G29" s="73"/>
-      <c r="H29" s="73"/>
-      <c r="I29" s="73"/>
-      <c r="J29" s="73"/>
-      <c r="K29" s="73"/>
-      <c r="L29" s="73"/>
-      <c r="M29" s="73"/>
-      <c r="N29" s="73"/>
-      <c r="O29" s="73"/>
-      <c r="P29" s="74"/>
-    </row>
-    <row r="30" spans="1:16" ht="24.9" customHeight="1">
-      <c r="A30" s="72"/>
-      <c r="B30" s="73"/>
-      <c r="C30" s="73"/>
-      <c r="D30" s="73"/>
-      <c r="E30" s="73"/>
-      <c r="F30" s="73"/>
-      <c r="G30" s="73"/>
-      <c r="H30" s="73"/>
-      <c r="I30" s="73"/>
-      <c r="J30" s="73"/>
-      <c r="K30" s="73"/>
-      <c r="L30" s="73"/>
-      <c r="M30" s="73"/>
-      <c r="N30" s="73"/>
-      <c r="O30" s="73"/>
-      <c r="P30" s="74"/>
-    </row>
-    <row r="31" spans="1:16" ht="24.9" customHeight="1">
-      <c r="A31" s="72"/>
-      <c r="B31" s="73"/>
-      <c r="C31" s="73"/>
-      <c r="D31" s="73"/>
-      <c r="E31" s="73"/>
-      <c r="F31" s="73"/>
-      <c r="G31" s="73"/>
-      <c r="H31" s="73"/>
-      <c r="I31" s="73"/>
-      <c r="J31" s="73"/>
-      <c r="K31" s="73"/>
-      <c r="L31" s="73"/>
-      <c r="M31" s="73"/>
-      <c r="N31" s="73"/>
-      <c r="O31" s="73"/>
-      <c r="P31" s="74"/>
+    <row r="25" spans="1:16" ht="24.95" customHeight="1">
+      <c r="A25" s="74"/>
+      <c r="B25" s="75"/>
+      <c r="C25" s="75"/>
+      <c r="D25" s="75"/>
+      <c r="E25" s="75"/>
+      <c r="F25" s="75"/>
+      <c r="G25" s="75"/>
+      <c r="H25" s="75"/>
+      <c r="I25" s="75"/>
+      <c r="J25" s="75"/>
+      <c r="K25" s="75"/>
+      <c r="L25" s="75"/>
+      <c r="M25" s="75"/>
+      <c r="N25" s="75"/>
+      <c r="O25" s="75"/>
+      <c r="P25" s="76"/>
+    </row>
+    <row r="26" spans="1:16" ht="24.95" customHeight="1">
+      <c r="A26" s="77"/>
+      <c r="B26" s="78"/>
+      <c r="C26" s="78"/>
+      <c r="D26" s="78"/>
+      <c r="E26" s="78"/>
+      <c r="F26" s="78"/>
+      <c r="G26" s="78"/>
+      <c r="H26" s="78"/>
+      <c r="I26" s="78"/>
+      <c r="J26" s="78"/>
+      <c r="K26" s="78"/>
+      <c r="L26" s="78"/>
+      <c r="M26" s="78"/>
+      <c r="N26" s="78"/>
+      <c r="O26" s="78"/>
+      <c r="P26" s="79"/>
+    </row>
+    <row r="27" spans="1:16" ht="24.95" customHeight="1">
+      <c r="A27" s="77"/>
+      <c r="B27" s="78"/>
+      <c r="C27" s="78"/>
+      <c r="D27" s="78"/>
+      <c r="E27" s="78"/>
+      <c r="F27" s="78"/>
+      <c r="G27" s="78"/>
+      <c r="H27" s="78"/>
+      <c r="I27" s="78"/>
+      <c r="J27" s="78"/>
+      <c r="K27" s="78"/>
+      <c r="L27" s="78"/>
+      <c r="M27" s="78"/>
+      <c r="N27" s="78"/>
+      <c r="O27" s="78"/>
+      <c r="P27" s="79"/>
+    </row>
+    <row r="28" spans="1:16" ht="24.95" customHeight="1">
+      <c r="A28" s="77"/>
+      <c r="B28" s="78"/>
+      <c r="C28" s="78"/>
+      <c r="D28" s="78"/>
+      <c r="E28" s="78"/>
+      <c r="F28" s="78"/>
+      <c r="G28" s="78"/>
+      <c r="H28" s="78"/>
+      <c r="I28" s="78"/>
+      <c r="J28" s="78"/>
+      <c r="K28" s="78"/>
+      <c r="L28" s="78"/>
+      <c r="M28" s="78"/>
+      <c r="N28" s="78"/>
+      <c r="O28" s="78"/>
+      <c r="P28" s="79"/>
+    </row>
+    <row r="29" spans="1:16" ht="24.95" customHeight="1">
+      <c r="A29" s="77"/>
+      <c r="B29" s="78"/>
+      <c r="C29" s="78"/>
+      <c r="D29" s="78"/>
+      <c r="E29" s="78"/>
+      <c r="F29" s="78"/>
+      <c r="G29" s="78"/>
+      <c r="H29" s="78"/>
+      <c r="I29" s="78"/>
+      <c r="J29" s="78"/>
+      <c r="K29" s="78"/>
+      <c r="L29" s="78"/>
+      <c r="M29" s="78"/>
+      <c r="N29" s="78"/>
+      <c r="O29" s="78"/>
+      <c r="P29" s="79"/>
+    </row>
+    <row r="30" spans="1:16" ht="24.95" customHeight="1">
+      <c r="A30" s="77"/>
+      <c r="B30" s="78"/>
+      <c r="C30" s="78"/>
+      <c r="D30" s="78"/>
+      <c r="E30" s="78"/>
+      <c r="F30" s="78"/>
+      <c r="G30" s="78"/>
+      <c r="H30" s="78"/>
+      <c r="I30" s="78"/>
+      <c r="J30" s="78"/>
+      <c r="K30" s="78"/>
+      <c r="L30" s="78"/>
+      <c r="M30" s="78"/>
+      <c r="N30" s="78"/>
+      <c r="O30" s="78"/>
+      <c r="P30" s="79"/>
+    </row>
+    <row r="31" spans="1:16" ht="24.95" customHeight="1">
+      <c r="A31" s="77"/>
+      <c r="B31" s="78"/>
+      <c r="C31" s="78"/>
+      <c r="D31" s="78"/>
+      <c r="E31" s="78"/>
+      <c r="F31" s="78"/>
+      <c r="G31" s="78"/>
+      <c r="H31" s="78"/>
+      <c r="I31" s="78"/>
+      <c r="J31" s="78"/>
+      <c r="K31" s="78"/>
+      <c r="L31" s="78"/>
+      <c r="M31" s="78"/>
+      <c r="N31" s="78"/>
+      <c r="O31" s="78"/>
+      <c r="P31" s="79"/>
     </row>
     <row r="32" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A32" s="72"/>
-      <c r="B32" s="73"/>
-      <c r="C32" s="73"/>
-      <c r="D32" s="73"/>
-      <c r="E32" s="73"/>
-      <c r="F32" s="73"/>
-      <c r="G32" s="73"/>
-      <c r="H32" s="73"/>
-      <c r="I32" s="73"/>
-      <c r="J32" s="73"/>
-      <c r="K32" s="73"/>
-      <c r="L32" s="73"/>
-      <c r="M32" s="73"/>
-      <c r="N32" s="73"/>
-      <c r="O32" s="73"/>
-      <c r="P32" s="74"/>
+      <c r="A32" s="77"/>
+      <c r="B32" s="78"/>
+      <c r="C32" s="78"/>
+      <c r="D32" s="78"/>
+      <c r="E32" s="78"/>
+      <c r="F32" s="78"/>
+      <c r="G32" s="78"/>
+      <c r="H32" s="78"/>
+      <c r="I32" s="78"/>
+      <c r="J32" s="78"/>
+      <c r="K32" s="78"/>
+      <c r="L32" s="78"/>
+      <c r="M32" s="78"/>
+      <c r="N32" s="78"/>
+      <c r="O32" s="78"/>
+      <c r="P32" s="79"/>
     </row>
     <row r="33" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A33" s="75"/>
-      <c r="B33" s="76"/>
-      <c r="C33" s="76"/>
-      <c r="D33" s="76"/>
-      <c r="E33" s="76"/>
-      <c r="F33" s="76"/>
-      <c r="G33" s="76"/>
-      <c r="H33" s="76"/>
-      <c r="I33" s="76"/>
-      <c r="J33" s="76"/>
-      <c r="K33" s="76"/>
-      <c r="L33" s="76"/>
-      <c r="M33" s="76"/>
-      <c r="N33" s="76"/>
-      <c r="O33" s="76"/>
-      <c r="P33" s="77"/>
+      <c r="A33" s="80"/>
+      <c r="B33" s="81"/>
+      <c r="C33" s="81"/>
+      <c r="D33" s="81"/>
+      <c r="E33" s="81"/>
+      <c r="F33" s="81"/>
+      <c r="G33" s="81"/>
+      <c r="H33" s="81"/>
+      <c r="I33" s="81"/>
+      <c r="J33" s="81"/>
+      <c r="K33" s="81"/>
+      <c r="L33" s="81"/>
+      <c r="M33" s="81"/>
+      <c r="N33" s="81"/>
+      <c r="O33" s="81"/>
+      <c r="P33" s="82"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="26">
-    <mergeCell ref="I5:J6"/>
-    <mergeCell ref="K5:L6"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A5:B6"/>
-    <mergeCell ref="C5:D6"/>
-    <mergeCell ref="E5:F6"/>
-    <mergeCell ref="G5:H6"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A15:P23"/>
     <mergeCell ref="A25:P33"/>
@@ -7638,6 +7786,16 @@
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="A10:G10"/>
     <mergeCell ref="E3:L3"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A5:B6"/>
+    <mergeCell ref="C5:D6"/>
+    <mergeCell ref="E5:F6"/>
+    <mergeCell ref="G5:H6"/>
+    <mergeCell ref="I5:J6"/>
+    <mergeCell ref="K5:L6"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="A9:G9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A5:L6 A9:N12 A15:P23 A25:P33">
@@ -7670,34 +7828,34 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:P111"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="D9" sqref="D9:P10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="5.5" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16" width="5.6640625" customWidth="1"/>
+    <col min="1" max="16" width="5.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="30" customHeight="1">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="85" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
-      <c r="I1" s="117"/>
-      <c r="J1" s="117"/>
-      <c r="K1" s="117"/>
-      <c r="L1" s="117"/>
-      <c r="M1" s="117"/>
-      <c r="N1" s="117"/>
-      <c r="O1" s="117"/>
-      <c r="P1" s="118"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="87"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1">
       <c r="A2" s="19"/>
@@ -7718,128 +7876,128 @@
       <c r="P2" s="19"/>
     </row>
     <row r="3" spans="1:16" ht="30" customHeight="1">
-      <c r="A3" s="120" t="s">
+      <c r="A3" s="89" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="121"/>
-      <c r="C3" s="121"/>
-      <c r="D3" s="121"/>
-      <c r="E3" s="121"/>
-      <c r="F3" s="121"/>
-      <c r="G3" s="121"/>
-      <c r="H3" s="121"/>
-      <c r="I3" s="121"/>
-      <c r="J3" s="121"/>
-      <c r="K3" s="121"/>
-      <c r="L3" s="121"/>
-      <c r="M3" s="121"/>
-      <c r="N3" s="121"/>
-      <c r="O3" s="121"/>
-      <c r="P3" s="122"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="90"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="90"/>
+      <c r="P3" s="91"/>
     </row>
     <row r="4" spans="1:16" ht="30" customHeight="1">
-      <c r="A4" s="104" t="s">
+      <c r="A4" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="104"/>
-      <c r="C4" s="104"/>
-      <c r="D4" s="119"/>
-      <c r="E4" s="119"/>
-      <c r="F4" s="119"/>
-      <c r="G4" s="119"/>
-      <c r="H4" s="119"/>
-      <c r="I4" s="119"/>
-      <c r="J4" s="119"/>
-      <c r="K4" s="119"/>
-      <c r="L4" s="119"/>
-      <c r="M4" s="119"/>
-      <c r="N4" s="119"/>
-      <c r="O4" s="119"/>
-      <c r="P4" s="119"/>
+      <c r="B4" s="92"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="88"/>
+      <c r="O4" s="88"/>
+      <c r="P4" s="88"/>
     </row>
     <row r="5" spans="1:16" ht="30" customHeight="1">
-      <c r="A5" s="104" t="s">
+      <c r="A5" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="104"/>
-      <c r="C5" s="104"/>
-      <c r="D5" s="104" t="s">
+      <c r="B5" s="92"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="104"/>
-      <c r="F5" s="104"/>
-      <c r="G5" s="104"/>
-      <c r="H5" s="104" t="s">
+      <c r="E5" s="92"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="92"/>
+      <c r="H5" s="92" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="104"/>
-      <c r="J5" s="104"/>
-      <c r="K5" s="104"/>
-      <c r="L5" s="127" t="s">
+      <c r="I5" s="92"/>
+      <c r="J5" s="92"/>
+      <c r="K5" s="92"/>
+      <c r="L5" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="M5" s="127"/>
-      <c r="N5" s="127"/>
-      <c r="O5" s="127"/>
+      <c r="M5" s="100"/>
+      <c r="N5" s="100"/>
+      <c r="O5" s="100"/>
       <c r="P5" s="28"/>
     </row>
     <row r="6" spans="1:16" ht="30" customHeight="1">
-      <c r="A6" s="108" t="s">
-        <v>65</v>
+      <c r="A6" s="93" t="s">
+        <v>64</v>
       </c>
-      <c r="B6" s="109"/>
-      <c r="C6" s="110"/>
-      <c r="D6" s="123">
+      <c r="B6" s="94"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="96">
         <v>800</v>
       </c>
-      <c r="E6" s="124"/>
-      <c r="F6" s="124"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="97"/>
       <c r="G6" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="123">
+      <c r="H6" s="96">
         <v>800</v>
       </c>
-      <c r="I6" s="124"/>
-      <c r="J6" s="124"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="97"/>
       <c r="K6" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="125">
+      <c r="L6" s="98">
         <v>1600</v>
       </c>
-      <c r="M6" s="126"/>
-      <c r="N6" s="126"/>
+      <c r="M6" s="99"/>
+      <c r="N6" s="99"/>
       <c r="O6" s="30" t="s">
         <v>30</v>
       </c>
       <c r="P6" s="28"/>
     </row>
     <row r="7" spans="1:16" ht="30" customHeight="1">
-      <c r="A7" s="108" t="s">
+      <c r="A7" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="109"/>
-      <c r="C7" s="110"/>
-      <c r="D7" s="111">
+      <c r="B7" s="94"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="104">
         <v>30</v>
       </c>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="105"/>
       <c r="G7" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="113"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="114"/>
-      <c r="K7" s="114"/>
+      <c r="H7" s="109"/>
+      <c r="I7" s="110"/>
+      <c r="J7" s="110"/>
+      <c r="K7" s="110"/>
       <c r="L7" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="M7" s="115" t="s">
+      <c r="M7" s="111" t="s">
         <v>58</v>
       </c>
-      <c r="N7" s="115"/>
+      <c r="N7" s="111"/>
       <c r="O7" s="32"/>
       <c r="P7" s="6">
         <f>$D$7</f>
@@ -7847,156 +8005,156 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="30" customHeight="1">
-      <c r="A8" s="88" t="s">
+      <c r="A8" s="106" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="89"/>
-      <c r="C8" s="90"/>
-      <c r="D8" s="105" t="s">
+      <c r="B8" s="107"/>
+      <c r="C8" s="108"/>
+      <c r="D8" s="101" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
+      <c r="N8" s="102"/>
+      <c r="O8" s="102"/>
+      <c r="P8" s="103"/>
+    </row>
+    <row r="9" spans="1:16" ht="30" customHeight="1">
+      <c r="A9" s="106" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="107"/>
+      <c r="C9" s="108"/>
+      <c r="D9" s="118"/>
+      <c r="E9" s="119"/>
+      <c r="F9" s="119"/>
+      <c r="G9" s="119"/>
+      <c r="H9" s="119"/>
+      <c r="I9" s="119"/>
+      <c r="J9" s="119"/>
+      <c r="K9" s="119"/>
+      <c r="L9" s="119"/>
+      <c r="M9" s="119"/>
+      <c r="N9" s="119"/>
+      <c r="O9" s="119"/>
+      <c r="P9" s="120"/>
+    </row>
+    <row r="10" spans="1:16" ht="30" customHeight="1">
+      <c r="A10" s="106"/>
+      <c r="B10" s="107"/>
+      <c r="C10" s="108"/>
+      <c r="D10" s="118"/>
+      <c r="E10" s="119"/>
+      <c r="F10" s="119"/>
+      <c r="G10" s="119"/>
+      <c r="H10" s="119"/>
+      <c r="I10" s="119"/>
+      <c r="J10" s="119"/>
+      <c r="K10" s="119"/>
+      <c r="L10" s="119"/>
+      <c r="M10" s="119"/>
+      <c r="N10" s="119"/>
+      <c r="O10" s="119"/>
+      <c r="P10" s="120"/>
+    </row>
+    <row r="11" spans="1:16" ht="30" customHeight="1">
+      <c r="A11" s="115" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="116"/>
+      <c r="C11" s="117"/>
+      <c r="D11" s="121" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" s="122"/>
+      <c r="F11" s="122"/>
+      <c r="G11" s="122"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="122"/>
+      <c r="J11" s="122"/>
+      <c r="K11" s="122"/>
+      <c r="L11" s="122"/>
+      <c r="M11" s="122"/>
+      <c r="N11" s="122"/>
+      <c r="O11" s="122"/>
+      <c r="P11" s="123"/>
+    </row>
+    <row r="12" spans="1:16" ht="30" customHeight="1">
+      <c r="A12" s="124" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="125"/>
+      <c r="C12" s="126"/>
+      <c r="D12" s="127" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" s="127"/>
+      <c r="F12" s="127"/>
+      <c r="G12" s="127"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="92" t="s">
+        <v>37</v>
+      </c>
+      <c r="J12" s="92"/>
+      <c r="K12" s="92"/>
+      <c r="L12" s="127" t="s">
         <v>85</v>
       </c>
-      <c r="E8" s="106"/>
-      <c r="F8" s="106"/>
-      <c r="G8" s="106"/>
-      <c r="H8" s="106"/>
-      <c r="I8" s="106"/>
-      <c r="J8" s="106"/>
-      <c r="K8" s="106"/>
-      <c r="L8" s="106"/>
-      <c r="M8" s="106"/>
-      <c r="N8" s="106"/>
-      <c r="O8" s="106"/>
-      <c r="P8" s="107"/>
-    </row>
-    <row r="9" spans="1:16" ht="30" customHeight="1">
-      <c r="A9" s="88" t="s">
-        <v>39</v>
+      <c r="M12" s="127"/>
+      <c r="N12" s="127"/>
+      <c r="O12" s="127"/>
+      <c r="P12" s="127"/>
+    </row>
+    <row r="13" spans="1:16" ht="30" customHeight="1">
+      <c r="A13" s="106" t="s">
+        <v>38</v>
       </c>
-      <c r="B9" s="89"/>
-      <c r="C9" s="90"/>
-      <c r="D9" s="94"/>
-      <c r="E9" s="95"/>
-      <c r="F9" s="95"/>
-      <c r="G9" s="95"/>
-      <c r="H9" s="95"/>
-      <c r="I9" s="95"/>
-      <c r="J9" s="95"/>
-      <c r="K9" s="95"/>
-      <c r="L9" s="95"/>
-      <c r="M9" s="95"/>
-      <c r="N9" s="95"/>
-      <c r="O9" s="95"/>
-      <c r="P9" s="96"/>
-    </row>
-    <row r="10" spans="1:16" ht="30" customHeight="1">
-      <c r="A10" s="88"/>
-      <c r="B10" s="89"/>
-      <c r="C10" s="90"/>
-      <c r="D10" s="94"/>
-      <c r="E10" s="95"/>
-      <c r="F10" s="95"/>
-      <c r="G10" s="95"/>
-      <c r="H10" s="95"/>
-      <c r="I10" s="95"/>
-      <c r="J10" s="95"/>
-      <c r="K10" s="95"/>
-      <c r="L10" s="95"/>
-      <c r="M10" s="95"/>
-      <c r="N10" s="95"/>
-      <c r="O10" s="95"/>
-      <c r="P10" s="96"/>
-    </row>
-    <row r="11" spans="1:16" ht="30" customHeight="1">
-      <c r="A11" s="91" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="92"/>
-      <c r="C11" s="93"/>
-      <c r="D11" s="97" t="s">
-        <v>88</v>
-      </c>
-      <c r="E11" s="98"/>
-      <c r="F11" s="98"/>
-      <c r="G11" s="98"/>
-      <c r="H11" s="98"/>
-      <c r="I11" s="98"/>
-      <c r="J11" s="98"/>
-      <c r="K11" s="98"/>
-      <c r="L11" s="98"/>
-      <c r="M11" s="98"/>
-      <c r="N11" s="98"/>
-      <c r="O11" s="98"/>
-      <c r="P11" s="99"/>
-    </row>
-    <row r="12" spans="1:16" ht="30" customHeight="1">
-      <c r="A12" s="100" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="101"/>
-      <c r="C12" s="102"/>
-      <c r="D12" s="103" t="s">
-        <v>86</v>
-      </c>
-      <c r="E12" s="103"/>
-      <c r="F12" s="103"/>
-      <c r="G12" s="103"/>
-      <c r="H12" s="103"/>
-      <c r="I12" s="104" t="s">
-        <v>37</v>
-      </c>
-      <c r="J12" s="104"/>
-      <c r="K12" s="104"/>
-      <c r="L12" s="103" t="s">
+      <c r="B13" s="107"/>
+      <c r="C13" s="108"/>
+      <c r="D13" s="121" t="s">
         <v>87</v>
       </c>
-      <c r="M12" s="103"/>
-      <c r="N12" s="103"/>
-      <c r="O12" s="103"/>
-      <c r="P12" s="103"/>
-    </row>
-    <row r="13" spans="1:16" ht="30" customHeight="1">
-      <c r="A13" s="88" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="89"/>
-      <c r="C13" s="90"/>
-      <c r="D13" s="97" t="s">
-        <v>89</v>
-      </c>
-      <c r="E13" s="98"/>
-      <c r="F13" s="98"/>
-      <c r="G13" s="98"/>
-      <c r="H13" s="98"/>
-      <c r="I13" s="98"/>
-      <c r="J13" s="98"/>
-      <c r="K13" s="98"/>
-      <c r="L13" s="98"/>
-      <c r="M13" s="98"/>
-      <c r="N13" s="98"/>
-      <c r="O13" s="98"/>
-      <c r="P13" s="99"/>
+      <c r="E13" s="122"/>
+      <c r="F13" s="122"/>
+      <c r="G13" s="122"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="122"/>
+      <c r="J13" s="122"/>
+      <c r="K13" s="122"/>
+      <c r="L13" s="122"/>
+      <c r="M13" s="122"/>
+      <c r="N13" s="122"/>
+      <c r="O13" s="122"/>
+      <c r="P13" s="123"/>
     </row>
     <row r="14" spans="1:16" ht="30" customHeight="1">
-      <c r="A14" s="87" t="s">
+      <c r="A14" s="114" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="87"/>
-      <c r="C14" s="87"/>
-      <c r="D14" s="85" t="s">
+      <c r="B14" s="114"/>
+      <c r="C14" s="114"/>
+      <c r="D14" s="112" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="86"/>
-      <c r="F14" s="86"/>
-      <c r="G14" s="86"/>
-      <c r="H14" s="86"/>
-      <c r="I14" s="86"/>
-      <c r="J14" s="86"/>
-      <c r="K14" s="86"/>
-      <c r="L14" s="86"/>
-      <c r="M14" s="86"/>
-      <c r="N14" s="86"/>
-      <c r="O14" s="86"/>
-      <c r="P14" s="86"/>
+      <c r="E14" s="113"/>
+      <c r="F14" s="113"/>
+      <c r="G14" s="113"/>
+      <c r="H14" s="113"/>
+      <c r="I14" s="113"/>
+      <c r="J14" s="113"/>
+      <c r="K14" s="113"/>
+      <c r="L14" s="113"/>
+      <c r="M14" s="113"/>
+      <c r="N14" s="113"/>
+      <c r="O14" s="113"/>
+      <c r="P14" s="113"/>
     </row>
     <row r="15" spans="1:16" ht="20.25" customHeight="1">
       <c r="A15" s="28"/>
@@ -9305,6 +9463,25 @@
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="31">
+    <mergeCell ref="D14:P14"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A9:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D9:P10"/>
+    <mergeCell ref="D11:P11"/>
+    <mergeCell ref="D13:P13"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="L12:P12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D8:P8"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="M7:N7"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="D4:P4"/>
     <mergeCell ref="A3:P3"/>
@@ -9317,25 +9494,6 @@
     <mergeCell ref="H5:K5"/>
     <mergeCell ref="L5:O5"/>
     <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D8:P8"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="D14:P14"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A9:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D9:P10"/>
-    <mergeCell ref="D11:P11"/>
-    <mergeCell ref="D13:P13"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="L12:P12"/>
-    <mergeCell ref="A13:C13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="D6:F6">
@@ -9386,13 +9544,13 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScale="73" zoomScaleNormal="100" zoomScaleSheetLayoutView="73" workbookViewId="0">
-      <selection sqref="A1:P1"/>
+    <sheetView view="pageBreakPreview" zoomScale="73" zoomScaleNormal="100" zoomScaleSheetLayoutView="73" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:P29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="5.5" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16" width="5.77734375" customWidth="1"/>
+    <col min="1" max="16" width="5.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="30" customHeight="1">
@@ -9473,434 +9631,434 @@
     </row>
     <row r="5" spans="1:16" ht="30" customHeight="1">
       <c r="A5" s="137"/>
-      <c r="B5" s="183"/>
-      <c r="C5" s="183"/>
-      <c r="D5" s="183"/>
-      <c r="E5" s="183"/>
-      <c r="F5" s="183"/>
-      <c r="G5" s="183"/>
-      <c r="H5" s="183"/>
-      <c r="I5" s="183"/>
-      <c r="J5" s="183"/>
-      <c r="K5" s="183"/>
-      <c r="L5" s="183"/>
-      <c r="M5" s="183"/>
-      <c r="N5" s="183"/>
-      <c r="O5" s="183"/>
+      <c r="B5" s="138"/>
+      <c r="C5" s="138"/>
+      <c r="D5" s="138"/>
+      <c r="E5" s="138"/>
+      <c r="F5" s="138"/>
+      <c r="G5" s="138"/>
+      <c r="H5" s="138"/>
+      <c r="I5" s="138"/>
+      <c r="J5" s="138"/>
+      <c r="K5" s="138"/>
+      <c r="L5" s="138"/>
+      <c r="M5" s="138"/>
+      <c r="N5" s="138"/>
+      <c r="O5" s="138"/>
       <c r="P5" s="139"/>
     </row>
     <row r="6" spans="1:16" ht="30" customHeight="1">
       <c r="A6" s="137"/>
-      <c r="B6" s="183"/>
-      <c r="C6" s="183"/>
-      <c r="D6" s="183"/>
-      <c r="E6" s="183"/>
-      <c r="F6" s="183"/>
-      <c r="G6" s="183"/>
-      <c r="H6" s="183"/>
-      <c r="I6" s="183"/>
-      <c r="J6" s="183"/>
-      <c r="K6" s="183"/>
-      <c r="L6" s="183"/>
-      <c r="M6" s="183"/>
-      <c r="N6" s="183"/>
-      <c r="O6" s="183"/>
+      <c r="B6" s="138"/>
+      <c r="C6" s="138"/>
+      <c r="D6" s="138"/>
+      <c r="E6" s="138"/>
+      <c r="F6" s="138"/>
+      <c r="G6" s="138"/>
+      <c r="H6" s="138"/>
+      <c r="I6" s="138"/>
+      <c r="J6" s="138"/>
+      <c r="K6" s="138"/>
+      <c r="L6" s="138"/>
+      <c r="M6" s="138"/>
+      <c r="N6" s="138"/>
+      <c r="O6" s="138"/>
       <c r="P6" s="139"/>
     </row>
     <row r="7" spans="1:16" ht="30" customHeight="1">
       <c r="A7" s="137"/>
-      <c r="B7" s="183"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="183"/>
-      <c r="I7" s="183"/>
-      <c r="J7" s="183"/>
-      <c r="K7" s="183"/>
-      <c r="L7" s="183"/>
-      <c r="M7" s="183"/>
-      <c r="N7" s="183"/>
-      <c r="O7" s="183"/>
+      <c r="B7" s="138"/>
+      <c r="C7" s="138"/>
+      <c r="D7" s="138"/>
+      <c r="E7" s="138"/>
+      <c r="F7" s="138"/>
+      <c r="G7" s="138"/>
+      <c r="H7" s="138"/>
+      <c r="I7" s="138"/>
+      <c r="J7" s="138"/>
+      <c r="K7" s="138"/>
+      <c r="L7" s="138"/>
+      <c r="M7" s="138"/>
+      <c r="N7" s="138"/>
+      <c r="O7" s="138"/>
       <c r="P7" s="139"/>
     </row>
     <row r="8" spans="1:16" ht="30" customHeight="1">
       <c r="A8" s="137"/>
-      <c r="B8" s="183"/>
-      <c r="C8" s="183"/>
-      <c r="D8" s="183"/>
-      <c r="E8" s="183"/>
-      <c r="F8" s="183"/>
-      <c r="G8" s="183"/>
-      <c r="H8" s="183"/>
-      <c r="I8" s="183"/>
-      <c r="J8" s="183"/>
-      <c r="K8" s="183"/>
-      <c r="L8" s="183"/>
-      <c r="M8" s="183"/>
-      <c r="N8" s="183"/>
-      <c r="O8" s="183"/>
+      <c r="B8" s="138"/>
+      <c r="C8" s="138"/>
+      <c r="D8" s="138"/>
+      <c r="E8" s="138"/>
+      <c r="F8" s="138"/>
+      <c r="G8" s="138"/>
+      <c r="H8" s="138"/>
+      <c r="I8" s="138"/>
+      <c r="J8" s="138"/>
+      <c r="K8" s="138"/>
+      <c r="L8" s="138"/>
+      <c r="M8" s="138"/>
+      <c r="N8" s="138"/>
+      <c r="O8" s="138"/>
       <c r="P8" s="139"/>
     </row>
     <row r="9" spans="1:16" ht="30" customHeight="1">
       <c r="A9" s="137"/>
-      <c r="B9" s="183"/>
-      <c r="C9" s="183"/>
-      <c r="D9" s="183"/>
-      <c r="E9" s="183"/>
-      <c r="F9" s="183"/>
-      <c r="G9" s="183"/>
-      <c r="H9" s="183"/>
-      <c r="I9" s="183"/>
-      <c r="J9" s="183"/>
-      <c r="K9" s="183"/>
-      <c r="L9" s="183"/>
-      <c r="M9" s="183"/>
-      <c r="N9" s="183"/>
-      <c r="O9" s="183"/>
+      <c r="B9" s="138"/>
+      <c r="C9" s="138"/>
+      <c r="D9" s="138"/>
+      <c r="E9" s="138"/>
+      <c r="F9" s="138"/>
+      <c r="G9" s="138"/>
+      <c r="H9" s="138"/>
+      <c r="I9" s="138"/>
+      <c r="J9" s="138"/>
+      <c r="K9" s="138"/>
+      <c r="L9" s="138"/>
+      <c r="M9" s="138"/>
+      <c r="N9" s="138"/>
+      <c r="O9" s="138"/>
       <c r="P9" s="139"/>
     </row>
     <row r="10" spans="1:16" ht="30" customHeight="1">
       <c r="A10" s="137"/>
-      <c r="B10" s="183"/>
-      <c r="C10" s="183"/>
-      <c r="D10" s="183"/>
-      <c r="E10" s="183"/>
-      <c r="F10" s="183"/>
-      <c r="G10" s="183"/>
-      <c r="H10" s="183"/>
-      <c r="I10" s="183"/>
-      <c r="J10" s="183"/>
-      <c r="K10" s="183"/>
-      <c r="L10" s="183"/>
-      <c r="M10" s="183"/>
-      <c r="N10" s="183"/>
-      <c r="O10" s="183"/>
+      <c r="B10" s="138"/>
+      <c r="C10" s="138"/>
+      <c r="D10" s="138"/>
+      <c r="E10" s="138"/>
+      <c r="F10" s="138"/>
+      <c r="G10" s="138"/>
+      <c r="H10" s="138"/>
+      <c r="I10" s="138"/>
+      <c r="J10" s="138"/>
+      <c r="K10" s="138"/>
+      <c r="L10" s="138"/>
+      <c r="M10" s="138"/>
+      <c r="N10" s="138"/>
+      <c r="O10" s="138"/>
       <c r="P10" s="139"/>
     </row>
     <row r="11" spans="1:16" ht="30" customHeight="1">
       <c r="A11" s="137"/>
-      <c r="B11" s="183"/>
-      <c r="C11" s="183"/>
-      <c r="D11" s="183"/>
-      <c r="E11" s="183"/>
-      <c r="F11" s="183"/>
-      <c r="G11" s="183"/>
-      <c r="H11" s="183"/>
-      <c r="I11" s="183"/>
-      <c r="J11" s="183"/>
-      <c r="K11" s="183"/>
-      <c r="L11" s="183"/>
-      <c r="M11" s="183"/>
-      <c r="N11" s="183"/>
-      <c r="O11" s="183"/>
+      <c r="B11" s="138"/>
+      <c r="C11" s="138"/>
+      <c r="D11" s="138"/>
+      <c r="E11" s="138"/>
+      <c r="F11" s="138"/>
+      <c r="G11" s="138"/>
+      <c r="H11" s="138"/>
+      <c r="I11" s="138"/>
+      <c r="J11" s="138"/>
+      <c r="K11" s="138"/>
+      <c r="L11" s="138"/>
+      <c r="M11" s="138"/>
+      <c r="N11" s="138"/>
+      <c r="O11" s="138"/>
       <c r="P11" s="139"/>
     </row>
     <row r="12" spans="1:16" ht="30" customHeight="1">
       <c r="A12" s="137"/>
-      <c r="B12" s="183"/>
-      <c r="C12" s="183"/>
-      <c r="D12" s="183"/>
-      <c r="E12" s="183"/>
-      <c r="F12" s="183"/>
-      <c r="G12" s="183"/>
-      <c r="H12" s="183"/>
-      <c r="I12" s="183"/>
-      <c r="J12" s="183"/>
-      <c r="K12" s="183"/>
-      <c r="L12" s="183"/>
-      <c r="M12" s="183"/>
-      <c r="N12" s="183"/>
-      <c r="O12" s="183"/>
+      <c r="B12" s="138"/>
+      <c r="C12" s="138"/>
+      <c r="D12" s="138"/>
+      <c r="E12" s="138"/>
+      <c r="F12" s="138"/>
+      <c r="G12" s="138"/>
+      <c r="H12" s="138"/>
+      <c r="I12" s="138"/>
+      <c r="J12" s="138"/>
+      <c r="K12" s="138"/>
+      <c r="L12" s="138"/>
+      <c r="M12" s="138"/>
+      <c r="N12" s="138"/>
+      <c r="O12" s="138"/>
       <c r="P12" s="139"/>
     </row>
     <row r="13" spans="1:16" ht="30" customHeight="1">
       <c r="A13" s="137"/>
-      <c r="B13" s="183"/>
-      <c r="C13" s="183"/>
-      <c r="D13" s="183"/>
-      <c r="E13" s="183"/>
-      <c r="F13" s="183"/>
-      <c r="G13" s="183"/>
-      <c r="H13" s="183"/>
-      <c r="I13" s="183"/>
-      <c r="J13" s="183"/>
-      <c r="K13" s="183"/>
-      <c r="L13" s="183"/>
-      <c r="M13" s="183"/>
-      <c r="N13" s="183"/>
-      <c r="O13" s="183"/>
+      <c r="B13" s="138"/>
+      <c r="C13" s="138"/>
+      <c r="D13" s="138"/>
+      <c r="E13" s="138"/>
+      <c r="F13" s="138"/>
+      <c r="G13" s="138"/>
+      <c r="H13" s="138"/>
+      <c r="I13" s="138"/>
+      <c r="J13" s="138"/>
+      <c r="K13" s="138"/>
+      <c r="L13" s="138"/>
+      <c r="M13" s="138"/>
+      <c r="N13" s="138"/>
+      <c r="O13" s="138"/>
       <c r="P13" s="139"/>
     </row>
     <row r="14" spans="1:16" ht="30" customHeight="1">
       <c r="A14" s="137"/>
-      <c r="B14" s="183"/>
-      <c r="C14" s="183"/>
-      <c r="D14" s="183"/>
-      <c r="E14" s="183"/>
-      <c r="F14" s="183"/>
-      <c r="G14" s="183"/>
-      <c r="H14" s="183"/>
-      <c r="I14" s="183"/>
-      <c r="J14" s="183"/>
-      <c r="K14" s="183"/>
-      <c r="L14" s="183"/>
-      <c r="M14" s="183"/>
-      <c r="N14" s="183"/>
-      <c r="O14" s="183"/>
+      <c r="B14" s="138"/>
+      <c r="C14" s="138"/>
+      <c r="D14" s="138"/>
+      <c r="E14" s="138"/>
+      <c r="F14" s="138"/>
+      <c r="G14" s="138"/>
+      <c r="H14" s="138"/>
+      <c r="I14" s="138"/>
+      <c r="J14" s="138"/>
+      <c r="K14" s="138"/>
+      <c r="L14" s="138"/>
+      <c r="M14" s="138"/>
+      <c r="N14" s="138"/>
+      <c r="O14" s="138"/>
       <c r="P14" s="139"/>
     </row>
     <row r="15" spans="1:16" ht="30" customHeight="1">
       <c r="A15" s="137"/>
-      <c r="B15" s="183"/>
-      <c r="C15" s="183"/>
-      <c r="D15" s="183"/>
-      <c r="E15" s="183"/>
-      <c r="F15" s="183"/>
-      <c r="G15" s="183"/>
-      <c r="H15" s="183"/>
-      <c r="I15" s="183"/>
-      <c r="J15" s="183"/>
-      <c r="K15" s="183"/>
-      <c r="L15" s="183"/>
-      <c r="M15" s="183"/>
-      <c r="N15" s="183"/>
-      <c r="O15" s="183"/>
+      <c r="B15" s="138"/>
+      <c r="C15" s="138"/>
+      <c r="D15" s="138"/>
+      <c r="E15" s="138"/>
+      <c r="F15" s="138"/>
+      <c r="G15" s="138"/>
+      <c r="H15" s="138"/>
+      <c r="I15" s="138"/>
+      <c r="J15" s="138"/>
+      <c r="K15" s="138"/>
+      <c r="L15" s="138"/>
+      <c r="M15" s="138"/>
+      <c r="N15" s="138"/>
+      <c r="O15" s="138"/>
       <c r="P15" s="139"/>
     </row>
     <row r="16" spans="1:16" ht="30" customHeight="1">
       <c r="A16" s="137"/>
-      <c r="B16" s="183"/>
-      <c r="C16" s="183"/>
-      <c r="D16" s="183"/>
-      <c r="E16" s="183"/>
-      <c r="F16" s="183"/>
-      <c r="G16" s="183"/>
-      <c r="H16" s="183"/>
-      <c r="I16" s="183"/>
-      <c r="J16" s="183"/>
-      <c r="K16" s="183"/>
-      <c r="L16" s="183"/>
-      <c r="M16" s="183"/>
-      <c r="N16" s="183"/>
-      <c r="O16" s="183"/>
+      <c r="B16" s="138"/>
+      <c r="C16" s="138"/>
+      <c r="D16" s="138"/>
+      <c r="E16" s="138"/>
+      <c r="F16" s="138"/>
+      <c r="G16" s="138"/>
+      <c r="H16" s="138"/>
+      <c r="I16" s="138"/>
+      <c r="J16" s="138"/>
+      <c r="K16" s="138"/>
+      <c r="L16" s="138"/>
+      <c r="M16" s="138"/>
+      <c r="N16" s="138"/>
+      <c r="O16" s="138"/>
       <c r="P16" s="139"/>
     </row>
     <row r="17" spans="1:16" ht="30" customHeight="1">
       <c r="A17" s="137"/>
-      <c r="B17" s="183"/>
-      <c r="C17" s="183"/>
-      <c r="D17" s="183"/>
-      <c r="E17" s="183"/>
-      <c r="F17" s="183"/>
-      <c r="G17" s="183"/>
-      <c r="H17" s="183"/>
-      <c r="I17" s="183"/>
-      <c r="J17" s="183"/>
-      <c r="K17" s="183"/>
-      <c r="L17" s="183"/>
-      <c r="M17" s="183"/>
-      <c r="N17" s="183"/>
-      <c r="O17" s="183"/>
+      <c r="B17" s="138"/>
+      <c r="C17" s="138"/>
+      <c r="D17" s="138"/>
+      <c r="E17" s="138"/>
+      <c r="F17" s="138"/>
+      <c r="G17" s="138"/>
+      <c r="H17" s="138"/>
+      <c r="I17" s="138"/>
+      <c r="J17" s="138"/>
+      <c r="K17" s="138"/>
+      <c r="L17" s="138"/>
+      <c r="M17" s="138"/>
+      <c r="N17" s="138"/>
+      <c r="O17" s="138"/>
       <c r="P17" s="139"/>
     </row>
     <row r="18" spans="1:16" ht="30" customHeight="1">
       <c r="A18" s="137"/>
-      <c r="B18" s="183"/>
-      <c r="C18" s="183"/>
-      <c r="D18" s="183"/>
-      <c r="E18" s="183"/>
-      <c r="F18" s="183"/>
-      <c r="G18" s="183"/>
-      <c r="H18" s="183"/>
-      <c r="I18" s="183"/>
-      <c r="J18" s="183"/>
-      <c r="K18" s="183"/>
-      <c r="L18" s="183"/>
-      <c r="M18" s="183"/>
-      <c r="N18" s="183"/>
-      <c r="O18" s="183"/>
+      <c r="B18" s="138"/>
+      <c r="C18" s="138"/>
+      <c r="D18" s="138"/>
+      <c r="E18" s="138"/>
+      <c r="F18" s="138"/>
+      <c r="G18" s="138"/>
+      <c r="H18" s="138"/>
+      <c r="I18" s="138"/>
+      <c r="J18" s="138"/>
+      <c r="K18" s="138"/>
+      <c r="L18" s="138"/>
+      <c r="M18" s="138"/>
+      <c r="N18" s="138"/>
+      <c r="O18" s="138"/>
       <c r="P18" s="139"/>
     </row>
     <row r="19" spans="1:16" ht="30" customHeight="1">
       <c r="A19" s="137"/>
-      <c r="B19" s="183"/>
-      <c r="C19" s="183"/>
-      <c r="D19" s="183"/>
-      <c r="E19" s="183"/>
-      <c r="F19" s="183"/>
-      <c r="G19" s="183"/>
-      <c r="H19" s="183"/>
-      <c r="I19" s="183"/>
-      <c r="J19" s="183"/>
-      <c r="K19" s="183"/>
-      <c r="L19" s="183"/>
-      <c r="M19" s="183"/>
-      <c r="N19" s="183"/>
-      <c r="O19" s="183"/>
+      <c r="B19" s="138"/>
+      <c r="C19" s="138"/>
+      <c r="D19" s="138"/>
+      <c r="E19" s="138"/>
+      <c r="F19" s="138"/>
+      <c r="G19" s="138"/>
+      <c r="H19" s="138"/>
+      <c r="I19" s="138"/>
+      <c r="J19" s="138"/>
+      <c r="K19" s="138"/>
+      <c r="L19" s="138"/>
+      <c r="M19" s="138"/>
+      <c r="N19" s="138"/>
+      <c r="O19" s="138"/>
       <c r="P19" s="139"/>
     </row>
     <row r="20" spans="1:16" ht="30" customHeight="1">
       <c r="A20" s="137"/>
-      <c r="B20" s="183"/>
-      <c r="C20" s="183"/>
-      <c r="D20" s="183"/>
-      <c r="E20" s="183"/>
-      <c r="F20" s="183"/>
-      <c r="G20" s="183"/>
-      <c r="H20" s="183"/>
-      <c r="I20" s="183"/>
-      <c r="J20" s="183"/>
-      <c r="K20" s="183"/>
-      <c r="L20" s="183"/>
-      <c r="M20" s="183"/>
-      <c r="N20" s="183"/>
-      <c r="O20" s="183"/>
+      <c r="B20" s="138"/>
+      <c r="C20" s="138"/>
+      <c r="D20" s="138"/>
+      <c r="E20" s="138"/>
+      <c r="F20" s="138"/>
+      <c r="G20" s="138"/>
+      <c r="H20" s="138"/>
+      <c r="I20" s="138"/>
+      <c r="J20" s="138"/>
+      <c r="K20" s="138"/>
+      <c r="L20" s="138"/>
+      <c r="M20" s="138"/>
+      <c r="N20" s="138"/>
+      <c r="O20" s="138"/>
       <c r="P20" s="139"/>
     </row>
     <row r="21" spans="1:16" ht="30" customHeight="1">
       <c r="A21" s="137"/>
-      <c r="B21" s="183"/>
-      <c r="C21" s="183"/>
-      <c r="D21" s="183"/>
-      <c r="E21" s="183"/>
-      <c r="F21" s="183"/>
-      <c r="G21" s="183"/>
-      <c r="H21" s="183"/>
-      <c r="I21" s="183"/>
-      <c r="J21" s="183"/>
-      <c r="K21" s="183"/>
-      <c r="L21" s="183"/>
-      <c r="M21" s="183"/>
-      <c r="N21" s="183"/>
-      <c r="O21" s="183"/>
+      <c r="B21" s="138"/>
+      <c r="C21" s="138"/>
+      <c r="D21" s="138"/>
+      <c r="E21" s="138"/>
+      <c r="F21" s="138"/>
+      <c r="G21" s="138"/>
+      <c r="H21" s="138"/>
+      <c r="I21" s="138"/>
+      <c r="J21" s="138"/>
+      <c r="K21" s="138"/>
+      <c r="L21" s="138"/>
+      <c r="M21" s="138"/>
+      <c r="N21" s="138"/>
+      <c r="O21" s="138"/>
       <c r="P21" s="139"/>
     </row>
     <row r="22" spans="1:16" ht="30" customHeight="1">
       <c r="A22" s="137"/>
-      <c r="B22" s="183"/>
-      <c r="C22" s="183"/>
-      <c r="D22" s="183"/>
-      <c r="E22" s="183"/>
-      <c r="F22" s="183"/>
-      <c r="G22" s="183"/>
-      <c r="H22" s="183"/>
-      <c r="I22" s="183"/>
-      <c r="J22" s="183"/>
-      <c r="K22" s="183"/>
-      <c r="L22" s="183"/>
-      <c r="M22" s="183"/>
-      <c r="N22" s="183"/>
-      <c r="O22" s="183"/>
+      <c r="B22" s="138"/>
+      <c r="C22" s="138"/>
+      <c r="D22" s="138"/>
+      <c r="E22" s="138"/>
+      <c r="F22" s="138"/>
+      <c r="G22" s="138"/>
+      <c r="H22" s="138"/>
+      <c r="I22" s="138"/>
+      <c r="J22" s="138"/>
+      <c r="K22" s="138"/>
+      <c r="L22" s="138"/>
+      <c r="M22" s="138"/>
+      <c r="N22" s="138"/>
+      <c r="O22" s="138"/>
       <c r="P22" s="139"/>
     </row>
     <row r="23" spans="1:16" ht="30" customHeight="1">
       <c r="A23" s="137"/>
-      <c r="B23" s="183"/>
-      <c r="C23" s="183"/>
-      <c r="D23" s="183"/>
-      <c r="E23" s="183"/>
-      <c r="F23" s="183"/>
-      <c r="G23" s="183"/>
-      <c r="H23" s="183"/>
-      <c r="I23" s="183"/>
-      <c r="J23" s="183"/>
-      <c r="K23" s="183"/>
-      <c r="L23" s="183"/>
-      <c r="M23" s="183"/>
-      <c r="N23" s="183"/>
-      <c r="O23" s="183"/>
+      <c r="B23" s="138"/>
+      <c r="C23" s="138"/>
+      <c r="D23" s="138"/>
+      <c r="E23" s="138"/>
+      <c r="F23" s="138"/>
+      <c r="G23" s="138"/>
+      <c r="H23" s="138"/>
+      <c r="I23" s="138"/>
+      <c r="J23" s="138"/>
+      <c r="K23" s="138"/>
+      <c r="L23" s="138"/>
+      <c r="M23" s="138"/>
+      <c r="N23" s="138"/>
+      <c r="O23" s="138"/>
       <c r="P23" s="139"/>
     </row>
     <row r="24" spans="1:16" ht="30" customHeight="1">
       <c r="A24" s="137"/>
-      <c r="B24" s="183"/>
-      <c r="C24" s="183"/>
-      <c r="D24" s="183"/>
-      <c r="E24" s="183"/>
-      <c r="F24" s="183"/>
-      <c r="G24" s="183"/>
-      <c r="H24" s="183"/>
-      <c r="I24" s="183"/>
-      <c r="J24" s="183"/>
-      <c r="K24" s="183"/>
-      <c r="L24" s="183"/>
-      <c r="M24" s="183"/>
-      <c r="N24" s="183"/>
-      <c r="O24" s="183"/>
+      <c r="B24" s="138"/>
+      <c r="C24" s="138"/>
+      <c r="D24" s="138"/>
+      <c r="E24" s="138"/>
+      <c r="F24" s="138"/>
+      <c r="G24" s="138"/>
+      <c r="H24" s="138"/>
+      <c r="I24" s="138"/>
+      <c r="J24" s="138"/>
+      <c r="K24" s="138"/>
+      <c r="L24" s="138"/>
+      <c r="M24" s="138"/>
+      <c r="N24" s="138"/>
+      <c r="O24" s="138"/>
       <c r="P24" s="139"/>
     </row>
     <row r="25" spans="1:16" ht="30" customHeight="1">
       <c r="A25" s="137"/>
-      <c r="B25" s="183"/>
-      <c r="C25" s="183"/>
-      <c r="D25" s="183"/>
-      <c r="E25" s="183"/>
-      <c r="F25" s="183"/>
-      <c r="G25" s="183"/>
-      <c r="H25" s="183"/>
-      <c r="I25" s="183"/>
-      <c r="J25" s="183"/>
-      <c r="K25" s="183"/>
-      <c r="L25" s="183"/>
-      <c r="M25" s="183"/>
-      <c r="N25" s="183"/>
-      <c r="O25" s="183"/>
+      <c r="B25" s="138"/>
+      <c r="C25" s="138"/>
+      <c r="D25" s="138"/>
+      <c r="E25" s="138"/>
+      <c r="F25" s="138"/>
+      <c r="G25" s="138"/>
+      <c r="H25" s="138"/>
+      <c r="I25" s="138"/>
+      <c r="J25" s="138"/>
+      <c r="K25" s="138"/>
+      <c r="L25" s="138"/>
+      <c r="M25" s="138"/>
+      <c r="N25" s="138"/>
+      <c r="O25" s="138"/>
       <c r="P25" s="139"/>
     </row>
     <row r="26" spans="1:16" ht="30" customHeight="1">
       <c r="A26" s="137"/>
-      <c r="B26" s="183"/>
-      <c r="C26" s="183"/>
-      <c r="D26" s="183"/>
-      <c r="E26" s="183"/>
-      <c r="F26" s="183"/>
-      <c r="G26" s="183"/>
-      <c r="H26" s="183"/>
-      <c r="I26" s="183"/>
-      <c r="J26" s="183"/>
-      <c r="K26" s="183"/>
-      <c r="L26" s="183"/>
-      <c r="M26" s="183"/>
-      <c r="N26" s="183"/>
-      <c r="O26" s="183"/>
+      <c r="B26" s="138"/>
+      <c r="C26" s="138"/>
+      <c r="D26" s="138"/>
+      <c r="E26" s="138"/>
+      <c r="F26" s="138"/>
+      <c r="G26" s="138"/>
+      <c r="H26" s="138"/>
+      <c r="I26" s="138"/>
+      <c r="J26" s="138"/>
+      <c r="K26" s="138"/>
+      <c r="L26" s="138"/>
+      <c r="M26" s="138"/>
+      <c r="N26" s="138"/>
+      <c r="O26" s="138"/>
       <c r="P26" s="139"/>
     </row>
     <row r="27" spans="1:16" ht="30" customHeight="1">
       <c r="A27" s="137"/>
-      <c r="B27" s="183"/>
-      <c r="C27" s="183"/>
-      <c r="D27" s="183"/>
-      <c r="E27" s="183"/>
-      <c r="F27" s="183"/>
-      <c r="G27" s="183"/>
-      <c r="H27" s="183"/>
-      <c r="I27" s="183"/>
-      <c r="J27" s="183"/>
-      <c r="K27" s="183"/>
-      <c r="L27" s="183"/>
-      <c r="M27" s="183"/>
-      <c r="N27" s="183"/>
-      <c r="O27" s="183"/>
+      <c r="B27" s="138"/>
+      <c r="C27" s="138"/>
+      <c r="D27" s="138"/>
+      <c r="E27" s="138"/>
+      <c r="F27" s="138"/>
+      <c r="G27" s="138"/>
+      <c r="H27" s="138"/>
+      <c r="I27" s="138"/>
+      <c r="J27" s="138"/>
+      <c r="K27" s="138"/>
+      <c r="L27" s="138"/>
+      <c r="M27" s="138"/>
+      <c r="N27" s="138"/>
+      <c r="O27" s="138"/>
       <c r="P27" s="139"/>
     </row>
     <row r="28" spans="1:16" ht="30" customHeight="1">
       <c r="A28" s="137"/>
-      <c r="B28" s="183"/>
-      <c r="C28" s="183"/>
-      <c r="D28" s="183"/>
-      <c r="E28" s="183"/>
-      <c r="F28" s="183"/>
-      <c r="G28" s="183"/>
-      <c r="H28" s="183"/>
-      <c r="I28" s="183"/>
-      <c r="J28" s="183"/>
-      <c r="K28" s="183"/>
-      <c r="L28" s="183"/>
-      <c r="M28" s="183"/>
-      <c r="N28" s="183"/>
-      <c r="O28" s="183"/>
+      <c r="B28" s="138"/>
+      <c r="C28" s="138"/>
+      <c r="D28" s="138"/>
+      <c r="E28" s="138"/>
+      <c r="F28" s="138"/>
+      <c r="G28" s="138"/>
+      <c r="H28" s="138"/>
+      <c r="I28" s="138"/>
+      <c r="J28" s="138"/>
+      <c r="K28" s="138"/>
+      <c r="L28" s="138"/>
+      <c r="M28" s="138"/>
+      <c r="N28" s="138"/>
+      <c r="O28" s="138"/>
       <c r="P28" s="139"/>
     </row>
     <row r="29" spans="1:16" ht="30" customHeight="1">
@@ -9953,11 +10111,11 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScale="75" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="75" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:P29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="5.5" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="16" width="6" customWidth="1"/>
   </cols>
@@ -10523,54 +10681,54 @@
       <selection activeCell="N4" sqref="N4:O4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="5.5" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16" width="5.6640625" customWidth="1"/>
+    <col min="1" max="16" width="5.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="30" customHeight="1">
       <c r="A1" s="143" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
     </row>
     <row r="2" spans="1:16" ht="34.5" customHeight="1">
-      <c r="A2" s="165" t="s">
-        <v>75</v>
+      <c r="A2" s="166" t="s">
+        <v>74</v>
       </c>
-      <c r="B2" s="165"/>
-      <c r="C2" s="165"/>
-      <c r="D2" s="165"/>
-      <c r="E2" s="165"/>
-      <c r="F2" s="165"/>
-      <c r="G2" s="165"/>
-      <c r="H2" s="165"/>
-      <c r="I2" s="165"/>
-      <c r="J2" s="165"/>
-      <c r="K2" s="165"/>
-      <c r="L2" s="165"/>
-      <c r="M2" s="165"/>
-      <c r="N2" s="165"/>
-      <c r="O2" s="165"/>
-      <c r="P2" s="165"/>
-    </row>
-    <row r="3" spans="1:16" ht="24.9" customHeight="1">
+      <c r="B2" s="166"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="166"/>
+      <c r="F2" s="166"/>
+      <c r="G2" s="166"/>
+      <c r="H2" s="166"/>
+      <c r="I2" s="166"/>
+      <c r="J2" s="166"/>
+      <c r="K2" s="166"/>
+      <c r="L2" s="166"/>
+      <c r="M2" s="166"/>
+      <c r="N2" s="166"/>
+      <c r="O2" s="166"/>
+      <c r="P2" s="166"/>
+    </row>
+    <row r="3" spans="1:16" ht="24.95" customHeight="1">
       <c r="A3" s="144" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B3" s="145"/>
       <c r="C3" s="145"/>
@@ -10584,13 +10742,13 @@
       <c r="K3" s="145"/>
       <c r="L3" s="146"/>
       <c r="M3" s="40" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N3" s="41"/>
       <c r="O3" s="41"/>
       <c r="P3" s="42"/>
     </row>
-    <row r="4" spans="1:16" ht="24.9" customHeight="1">
+    <row r="4" spans="1:16" ht="24.95" customHeight="1">
       <c r="A4" s="147"/>
       <c r="B4" s="148"/>
       <c r="C4" s="148"/>
@@ -10606,13 +10764,13 @@
       <c r="M4" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="N4" s="125"/>
-      <c r="O4" s="126"/>
+      <c r="N4" s="98"/>
+      <c r="O4" s="99"/>
       <c r="P4" s="44" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="24.9" customHeight="1">
+    <row r="5" spans="1:16" ht="24.95" customHeight="1">
       <c r="A5" s="149"/>
       <c r="B5" s="150"/>
       <c r="C5" s="150"/>
@@ -10628,13 +10786,13 @@
       <c r="M5" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="N5" s="125"/>
-      <c r="O5" s="126"/>
+      <c r="N5" s="98"/>
+      <c r="O5" s="99"/>
       <c r="P5" s="44" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="24.9" customHeight="1">
+    <row r="6" spans="1:16" ht="24.95" customHeight="1">
       <c r="A6" s="149"/>
       <c r="B6" s="150"/>
       <c r="C6" s="150"/>
@@ -10648,15 +10806,15 @@
       <c r="K6" s="150"/>
       <c r="L6" s="150"/>
       <c r="M6" s="43" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
-      <c r="N6" s="125"/>
-      <c r="O6" s="126"/>
+      <c r="N6" s="98"/>
+      <c r="O6" s="99"/>
       <c r="P6" s="44" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="24.9" customHeight="1">
+    <row r="7" spans="1:16" ht="24.95" customHeight="1">
       <c r="A7" s="149"/>
       <c r="B7" s="150"/>
       <c r="C7" s="150"/>
@@ -10670,15 +10828,17 @@
       <c r="K7" s="150"/>
       <c r="L7" s="150"/>
       <c r="M7" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="N7" s="162">
+        <v>3</v>
+      </c>
+      <c r="O7" s="98"/>
+      <c r="P7" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="N7" s="161"/>
-      <c r="O7" s="125"/>
-      <c r="P7" s="44" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="24.9" customHeight="1">
+    </row>
+    <row r="8" spans="1:16" ht="24.95" customHeight="1">
       <c r="A8" s="149"/>
       <c r="B8" s="150"/>
       <c r="C8" s="150"/>
@@ -10692,15 +10852,17 @@
       <c r="K8" s="150"/>
       <c r="L8" s="150"/>
       <c r="M8" s="45" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
-      <c r="N8" s="161"/>
-      <c r="O8" s="125"/>
+      <c r="N8" s="162">
+        <v>1</v>
+      </c>
+      <c r="O8" s="98"/>
       <c r="P8" s="44" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="24.9" customHeight="1">
+    <row r="9" spans="1:16" ht="24.95" customHeight="1">
       <c r="A9" s="149"/>
       <c r="B9" s="150"/>
       <c r="C9" s="150"/>
@@ -10718,7 +10880,7 @@
       <c r="O9" s="36"/>
       <c r="P9" s="37"/>
     </row>
-    <row r="10" spans="1:16" ht="24.9" customHeight="1">
+    <row r="10" spans="1:16" ht="24.95" customHeight="1">
       <c r="A10" s="149"/>
       <c r="B10" s="150"/>
       <c r="C10" s="150"/>
@@ -10736,7 +10898,7 @@
       <c r="O10" s="36"/>
       <c r="P10" s="37"/>
     </row>
-    <row r="11" spans="1:16" ht="24.9" customHeight="1">
+    <row r="11" spans="1:16" ht="24.95" customHeight="1">
       <c r="A11" s="149"/>
       <c r="B11" s="150"/>
       <c r="C11" s="150"/>
@@ -10754,7 +10916,7 @@
       <c r="O11" s="36"/>
       <c r="P11" s="37"/>
     </row>
-    <row r="12" spans="1:16" ht="24.9" customHeight="1">
+    <row r="12" spans="1:16" ht="24.95" customHeight="1">
       <c r="A12" s="149"/>
       <c r="B12" s="150"/>
       <c r="C12" s="150"/>
@@ -10772,7 +10934,7 @@
       <c r="O12" s="36"/>
       <c r="P12" s="37"/>
     </row>
-    <row r="13" spans="1:16" ht="24.9" customHeight="1">
+    <row r="13" spans="1:16" ht="24.95" customHeight="1">
       <c r="A13" s="149"/>
       <c r="B13" s="150"/>
       <c r="C13" s="150"/>
@@ -10790,7 +10952,7 @@
       <c r="O13" s="36"/>
       <c r="P13" s="37"/>
     </row>
-    <row r="14" spans="1:16" ht="24.9" customHeight="1">
+    <row r="14" spans="1:16" ht="24.95" customHeight="1">
       <c r="A14" s="151"/>
       <c r="B14" s="152"/>
       <c r="C14" s="152"/>
@@ -10808,7 +10970,7 @@
       <c r="O14" s="38"/>
       <c r="P14" s="39"/>
     </row>
-    <row r="15" spans="1:16" ht="24.9" customHeight="1">
+    <row r="15" spans="1:16" ht="24.95" customHeight="1">
       <c r="A15" s="34"/>
       <c r="B15" s="34"/>
       <c r="C15" s="34"/>
@@ -10826,317 +10988,317 @@
       <c r="O15" s="34"/>
       <c r="P15" s="34"/>
     </row>
-    <row r="16" spans="1:16" ht="24.9" customHeight="1">
-      <c r="A16" s="162" t="s">
-        <v>69</v>
+    <row r="16" spans="1:16" ht="24.95" customHeight="1">
+      <c r="A16" s="163" t="s">
+        <v>68</v>
       </c>
-      <c r="B16" s="163"/>
-      <c r="C16" s="163"/>
-      <c r="D16" s="163"/>
-      <c r="E16" s="163"/>
-      <c r="F16" s="163"/>
-      <c r="G16" s="163"/>
-      <c r="H16" s="163"/>
-      <c r="I16" s="163"/>
-      <c r="J16" s="163"/>
-      <c r="K16" s="163"/>
-      <c r="L16" s="163"/>
-      <c r="M16" s="163"/>
-      <c r="N16" s="163"/>
-      <c r="O16" s="163"/>
-      <c r="P16" s="164"/>
-    </row>
-    <row r="17" spans="1:16" ht="24.9" customHeight="1">
-      <c r="A17" s="193" t="s">
-        <v>91</v>
+      <c r="B16" s="164"/>
+      <c r="C16" s="164"/>
+      <c r="D16" s="164"/>
+      <c r="E16" s="164"/>
+      <c r="F16" s="164"/>
+      <c r="G16" s="164"/>
+      <c r="H16" s="164"/>
+      <c r="I16" s="164"/>
+      <c r="J16" s="164"/>
+      <c r="K16" s="164"/>
+      <c r="L16" s="164"/>
+      <c r="M16" s="164"/>
+      <c r="N16" s="164"/>
+      <c r="O16" s="164"/>
+      <c r="P16" s="165"/>
+    </row>
+    <row r="17" spans="1:16" ht="24.95" customHeight="1">
+      <c r="A17" s="153" t="s">
+        <v>89</v>
       </c>
-      <c r="B17" s="153"/>
-      <c r="C17" s="153"/>
-      <c r="D17" s="153"/>
-      <c r="E17" s="153"/>
-      <c r="F17" s="153"/>
-      <c r="G17" s="153"/>
-      <c r="H17" s="153"/>
-      <c r="I17" s="153"/>
-      <c r="J17" s="153"/>
-      <c r="K17" s="153"/>
-      <c r="L17" s="153"/>
-      <c r="M17" s="153"/>
-      <c r="N17" s="153"/>
-      <c r="O17" s="153"/>
-      <c r="P17" s="154"/>
-    </row>
-    <row r="18" spans="1:16" ht="24.9" customHeight="1">
-      <c r="A18" s="155"/>
-      <c r="B18" s="156"/>
-      <c r="C18" s="156"/>
-      <c r="D18" s="156"/>
-      <c r="E18" s="156"/>
-      <c r="F18" s="156"/>
-      <c r="G18" s="156"/>
-      <c r="H18" s="156"/>
-      <c r="I18" s="156"/>
-      <c r="J18" s="156"/>
-      <c r="K18" s="156"/>
-      <c r="L18" s="156"/>
-      <c r="M18" s="156"/>
-      <c r="N18" s="156"/>
-      <c r="O18" s="156"/>
-      <c r="P18" s="157"/>
-    </row>
-    <row r="19" spans="1:16" ht="24.9" customHeight="1">
-      <c r="A19" s="155"/>
-      <c r="B19" s="156"/>
-      <c r="C19" s="156"/>
-      <c r="D19" s="156"/>
-      <c r="E19" s="156"/>
-      <c r="F19" s="156"/>
-      <c r="G19" s="156"/>
-      <c r="H19" s="156"/>
-      <c r="I19" s="156"/>
-      <c r="J19" s="156"/>
-      <c r="K19" s="156"/>
-      <c r="L19" s="156"/>
-      <c r="M19" s="156"/>
-      <c r="N19" s="156"/>
-      <c r="O19" s="156"/>
-      <c r="P19" s="157"/>
-    </row>
-    <row r="20" spans="1:16" ht="24.9" customHeight="1">
-      <c r="A20" s="155"/>
-      <c r="B20" s="156"/>
-      <c r="C20" s="156"/>
-      <c r="D20" s="156"/>
-      <c r="E20" s="156"/>
-      <c r="F20" s="156"/>
-      <c r="G20" s="156"/>
-      <c r="H20" s="156"/>
-      <c r="I20" s="156"/>
-      <c r="J20" s="156"/>
-      <c r="K20" s="156"/>
-      <c r="L20" s="156"/>
-      <c r="M20" s="156"/>
-      <c r="N20" s="156"/>
-      <c r="O20" s="156"/>
-      <c r="P20" s="157"/>
-    </row>
-    <row r="21" spans="1:16" ht="24.9" customHeight="1">
-      <c r="A21" s="155"/>
-      <c r="B21" s="156"/>
-      <c r="C21" s="156"/>
-      <c r="D21" s="156"/>
-      <c r="E21" s="156"/>
-      <c r="F21" s="156"/>
-      <c r="G21" s="156"/>
-      <c r="H21" s="156"/>
-      <c r="I21" s="156"/>
-      <c r="J21" s="156"/>
-      <c r="K21" s="156"/>
-      <c r="L21" s="156"/>
-      <c r="M21" s="156"/>
-      <c r="N21" s="156"/>
-      <c r="O21" s="156"/>
-      <c r="P21" s="157"/>
-    </row>
-    <row r="22" spans="1:16" ht="24.9" customHeight="1">
-      <c r="A22" s="155"/>
-      <c r="B22" s="156"/>
-      <c r="C22" s="156"/>
-      <c r="D22" s="156"/>
-      <c r="E22" s="156"/>
-      <c r="F22" s="156"/>
-      <c r="G22" s="156"/>
-      <c r="H22" s="156"/>
-      <c r="I22" s="156"/>
-      <c r="J22" s="156"/>
-      <c r="K22" s="156"/>
-      <c r="L22" s="156"/>
-      <c r="M22" s="156"/>
-      <c r="N22" s="156"/>
-      <c r="O22" s="156"/>
-      <c r="P22" s="157"/>
-    </row>
-    <row r="23" spans="1:16" ht="24.9" customHeight="1">
-      <c r="A23" s="155"/>
-      <c r="B23" s="156"/>
-      <c r="C23" s="156"/>
-      <c r="D23" s="156"/>
-      <c r="E23" s="156"/>
-      <c r="F23" s="156"/>
-      <c r="G23" s="156"/>
-      <c r="H23" s="156"/>
-      <c r="I23" s="156"/>
-      <c r="J23" s="156"/>
-      <c r="K23" s="156"/>
-      <c r="L23" s="156"/>
-      <c r="M23" s="156"/>
-      <c r="N23" s="156"/>
-      <c r="O23" s="156"/>
-      <c r="P23" s="157"/>
-    </row>
-    <row r="24" spans="1:16" ht="24.9" customHeight="1">
-      <c r="A24" s="155"/>
-      <c r="B24" s="156"/>
-      <c r="C24" s="156"/>
-      <c r="D24" s="156"/>
-      <c r="E24" s="156"/>
-      <c r="F24" s="156"/>
-      <c r="G24" s="156"/>
-      <c r="H24" s="156"/>
-      <c r="I24" s="156"/>
-      <c r="J24" s="156"/>
-      <c r="K24" s="156"/>
-      <c r="L24" s="156"/>
-      <c r="M24" s="156"/>
-      <c r="N24" s="156"/>
-      <c r="O24" s="156"/>
-      <c r="P24" s="157"/>
-    </row>
-    <row r="25" spans="1:16" ht="24.9" customHeight="1">
-      <c r="A25" s="155"/>
-      <c r="B25" s="156"/>
-      <c r="C25" s="156"/>
-      <c r="D25" s="156"/>
-      <c r="E25" s="156"/>
-      <c r="F25" s="156"/>
-      <c r="G25" s="156"/>
-      <c r="H25" s="156"/>
-      <c r="I25" s="156"/>
-      <c r="J25" s="156"/>
-      <c r="K25" s="156"/>
-      <c r="L25" s="156"/>
-      <c r="M25" s="156"/>
-      <c r="N25" s="156"/>
-      <c r="O25" s="156"/>
-      <c r="P25" s="157"/>
-    </row>
-    <row r="26" spans="1:16" ht="24.9" customHeight="1">
-      <c r="A26" s="155"/>
-      <c r="B26" s="156"/>
-      <c r="C26" s="156"/>
-      <c r="D26" s="156"/>
-      <c r="E26" s="156"/>
-      <c r="F26" s="156"/>
-      <c r="G26" s="156"/>
-      <c r="H26" s="156"/>
-      <c r="I26" s="156"/>
-      <c r="J26" s="156"/>
-      <c r="K26" s="156"/>
-      <c r="L26" s="156"/>
-      <c r="M26" s="156"/>
-      <c r="N26" s="156"/>
-      <c r="O26" s="156"/>
-      <c r="P26" s="157"/>
-    </row>
-    <row r="27" spans="1:16" ht="24.9" customHeight="1">
-      <c r="A27" s="155"/>
-      <c r="B27" s="156"/>
-      <c r="C27" s="156"/>
-      <c r="D27" s="156"/>
-      <c r="E27" s="156"/>
-      <c r="F27" s="156"/>
-      <c r="G27" s="156"/>
-      <c r="H27" s="156"/>
-      <c r="I27" s="156"/>
-      <c r="J27" s="156"/>
-      <c r="K27" s="156"/>
-      <c r="L27" s="156"/>
-      <c r="M27" s="156"/>
-      <c r="N27" s="156"/>
-      <c r="O27" s="156"/>
-      <c r="P27" s="157"/>
-    </row>
-    <row r="28" spans="1:16" ht="24.9" customHeight="1">
-      <c r="A28" s="155"/>
-      <c r="B28" s="156"/>
-      <c r="C28" s="156"/>
-      <c r="D28" s="156"/>
-      <c r="E28" s="156"/>
-      <c r="F28" s="156"/>
-      <c r="G28" s="156"/>
-      <c r="H28" s="156"/>
-      <c r="I28" s="156"/>
-      <c r="J28" s="156"/>
-      <c r="K28" s="156"/>
-      <c r="L28" s="156"/>
-      <c r="M28" s="156"/>
-      <c r="N28" s="156"/>
-      <c r="O28" s="156"/>
-      <c r="P28" s="157"/>
-    </row>
-    <row r="29" spans="1:16" ht="24.9" customHeight="1">
-      <c r="A29" s="155"/>
-      <c r="B29" s="156"/>
-      <c r="C29" s="156"/>
-      <c r="D29" s="156"/>
-      <c r="E29" s="156"/>
-      <c r="F29" s="156"/>
-      <c r="G29" s="156"/>
-      <c r="H29" s="156"/>
-      <c r="I29" s="156"/>
-      <c r="J29" s="156"/>
-      <c r="K29" s="156"/>
-      <c r="L29" s="156"/>
-      <c r="M29" s="156"/>
-      <c r="N29" s="156"/>
-      <c r="O29" s="156"/>
-      <c r="P29" s="157"/>
-    </row>
-    <row r="30" spans="1:16" ht="24.9" customHeight="1">
-      <c r="A30" s="155"/>
-      <c r="B30" s="156"/>
-      <c r="C30" s="156"/>
-      <c r="D30" s="156"/>
-      <c r="E30" s="156"/>
-      <c r="F30" s="156"/>
-      <c r="G30" s="156"/>
-      <c r="H30" s="156"/>
-      <c r="I30" s="156"/>
-      <c r="J30" s="156"/>
-      <c r="K30" s="156"/>
-      <c r="L30" s="156"/>
-      <c r="M30" s="156"/>
-      <c r="N30" s="156"/>
-      <c r="O30" s="156"/>
-      <c r="P30" s="157"/>
-    </row>
-    <row r="31" spans="1:16" ht="24.9" customHeight="1">
-      <c r="A31" s="155"/>
-      <c r="B31" s="156"/>
-      <c r="C31" s="156"/>
-      <c r="D31" s="156"/>
-      <c r="E31" s="156"/>
-      <c r="F31" s="156"/>
-      <c r="G31" s="156"/>
-      <c r="H31" s="156"/>
-      <c r="I31" s="156"/>
-      <c r="J31" s="156"/>
-      <c r="K31" s="156"/>
-      <c r="L31" s="156"/>
-      <c r="M31" s="156"/>
-      <c r="N31" s="156"/>
-      <c r="O31" s="156"/>
-      <c r="P31" s="157"/>
-    </row>
-    <row r="32" spans="1:16" ht="24.9" customHeight="1">
-      <c r="A32" s="158"/>
-      <c r="B32" s="159"/>
-      <c r="C32" s="159"/>
-      <c r="D32" s="159"/>
-      <c r="E32" s="159"/>
-      <c r="F32" s="159"/>
-      <c r="G32" s="159"/>
-      <c r="H32" s="159"/>
-      <c r="I32" s="159"/>
-      <c r="J32" s="159"/>
-      <c r="K32" s="159"/>
-      <c r="L32" s="159"/>
-      <c r="M32" s="159"/>
-      <c r="N32" s="159"/>
-      <c r="O32" s="159"/>
-      <c r="P32" s="160"/>
-    </row>
-    <row r="33" spans="1:15" ht="24.9" customHeight="1">
+      <c r="B17" s="154"/>
+      <c r="C17" s="154"/>
+      <c r="D17" s="154"/>
+      <c r="E17" s="154"/>
+      <c r="F17" s="154"/>
+      <c r="G17" s="154"/>
+      <c r="H17" s="154"/>
+      <c r="I17" s="154"/>
+      <c r="J17" s="154"/>
+      <c r="K17" s="154"/>
+      <c r="L17" s="154"/>
+      <c r="M17" s="154"/>
+      <c r="N17" s="154"/>
+      <c r="O17" s="154"/>
+      <c r="P17" s="155"/>
+    </row>
+    <row r="18" spans="1:16" ht="24.95" customHeight="1">
+      <c r="A18" s="156"/>
+      <c r="B18" s="157"/>
+      <c r="C18" s="157"/>
+      <c r="D18" s="157"/>
+      <c r="E18" s="157"/>
+      <c r="F18" s="157"/>
+      <c r="G18" s="157"/>
+      <c r="H18" s="157"/>
+      <c r="I18" s="157"/>
+      <c r="J18" s="157"/>
+      <c r="K18" s="157"/>
+      <c r="L18" s="157"/>
+      <c r="M18" s="157"/>
+      <c r="N18" s="157"/>
+      <c r="O18" s="157"/>
+      <c r="P18" s="158"/>
+    </row>
+    <row r="19" spans="1:16" ht="24.95" customHeight="1">
+      <c r="A19" s="156"/>
+      <c r="B19" s="157"/>
+      <c r="C19" s="157"/>
+      <c r="D19" s="157"/>
+      <c r="E19" s="157"/>
+      <c r="F19" s="157"/>
+      <c r="G19" s="157"/>
+      <c r="H19" s="157"/>
+      <c r="I19" s="157"/>
+      <c r="J19" s="157"/>
+      <c r="K19" s="157"/>
+      <c r="L19" s="157"/>
+      <c r="M19" s="157"/>
+      <c r="N19" s="157"/>
+      <c r="O19" s="157"/>
+      <c r="P19" s="158"/>
+    </row>
+    <row r="20" spans="1:16" ht="24.95" customHeight="1">
+      <c r="A20" s="156"/>
+      <c r="B20" s="157"/>
+      <c r="C20" s="157"/>
+      <c r="D20" s="157"/>
+      <c r="E20" s="157"/>
+      <c r="F20" s="157"/>
+      <c r="G20" s="157"/>
+      <c r="H20" s="157"/>
+      <c r="I20" s="157"/>
+      <c r="J20" s="157"/>
+      <c r="K20" s="157"/>
+      <c r="L20" s="157"/>
+      <c r="M20" s="157"/>
+      <c r="N20" s="157"/>
+      <c r="O20" s="157"/>
+      <c r="P20" s="158"/>
+    </row>
+    <row r="21" spans="1:16" ht="24.95" customHeight="1">
+      <c r="A21" s="156"/>
+      <c r="B21" s="157"/>
+      <c r="C21" s="157"/>
+      <c r="D21" s="157"/>
+      <c r="E21" s="157"/>
+      <c r="F21" s="157"/>
+      <c r="G21" s="157"/>
+      <c r="H21" s="157"/>
+      <c r="I21" s="157"/>
+      <c r="J21" s="157"/>
+      <c r="K21" s="157"/>
+      <c r="L21" s="157"/>
+      <c r="M21" s="157"/>
+      <c r="N21" s="157"/>
+      <c r="O21" s="157"/>
+      <c r="P21" s="158"/>
+    </row>
+    <row r="22" spans="1:16" ht="24.95" customHeight="1">
+      <c r="A22" s="156"/>
+      <c r="B22" s="157"/>
+      <c r="C22" s="157"/>
+      <c r="D22" s="157"/>
+      <c r="E22" s="157"/>
+      <c r="F22" s="157"/>
+      <c r="G22" s="157"/>
+      <c r="H22" s="157"/>
+      <c r="I22" s="157"/>
+      <c r="J22" s="157"/>
+      <c r="K22" s="157"/>
+      <c r="L22" s="157"/>
+      <c r="M22" s="157"/>
+      <c r="N22" s="157"/>
+      <c r="O22" s="157"/>
+      <c r="P22" s="158"/>
+    </row>
+    <row r="23" spans="1:16" ht="24.95" customHeight="1">
+      <c r="A23" s="156"/>
+      <c r="B23" s="157"/>
+      <c r="C23" s="157"/>
+      <c r="D23" s="157"/>
+      <c r="E23" s="157"/>
+      <c r="F23" s="157"/>
+      <c r="G23" s="157"/>
+      <c r="H23" s="157"/>
+      <c r="I23" s="157"/>
+      <c r="J23" s="157"/>
+      <c r="K23" s="157"/>
+      <c r="L23" s="157"/>
+      <c r="M23" s="157"/>
+      <c r="N23" s="157"/>
+      <c r="O23" s="157"/>
+      <c r="P23" s="158"/>
+    </row>
+    <row r="24" spans="1:16" ht="24.95" customHeight="1">
+      <c r="A24" s="156"/>
+      <c r="B24" s="157"/>
+      <c r="C24" s="157"/>
+      <c r="D24" s="157"/>
+      <c r="E24" s="157"/>
+      <c r="F24" s="157"/>
+      <c r="G24" s="157"/>
+      <c r="H24" s="157"/>
+      <c r="I24" s="157"/>
+      <c r="J24" s="157"/>
+      <c r="K24" s="157"/>
+      <c r="L24" s="157"/>
+      <c r="M24" s="157"/>
+      <c r="N24" s="157"/>
+      <c r="O24" s="157"/>
+      <c r="P24" s="158"/>
+    </row>
+    <row r="25" spans="1:16" ht="24.95" customHeight="1">
+      <c r="A25" s="156"/>
+      <c r="B25" s="157"/>
+      <c r="C25" s="157"/>
+      <c r="D25" s="157"/>
+      <c r="E25" s="157"/>
+      <c r="F25" s="157"/>
+      <c r="G25" s="157"/>
+      <c r="H25" s="157"/>
+      <c r="I25" s="157"/>
+      <c r="J25" s="157"/>
+      <c r="K25" s="157"/>
+      <c r="L25" s="157"/>
+      <c r="M25" s="157"/>
+      <c r="N25" s="157"/>
+      <c r="O25" s="157"/>
+      <c r="P25" s="158"/>
+    </row>
+    <row r="26" spans="1:16" ht="24.95" customHeight="1">
+      <c r="A26" s="156"/>
+      <c r="B26" s="157"/>
+      <c r="C26" s="157"/>
+      <c r="D26" s="157"/>
+      <c r="E26" s="157"/>
+      <c r="F26" s="157"/>
+      <c r="G26" s="157"/>
+      <c r="H26" s="157"/>
+      <c r="I26" s="157"/>
+      <c r="J26" s="157"/>
+      <c r="K26" s="157"/>
+      <c r="L26" s="157"/>
+      <c r="M26" s="157"/>
+      <c r="N26" s="157"/>
+      <c r="O26" s="157"/>
+      <c r="P26" s="158"/>
+    </row>
+    <row r="27" spans="1:16" ht="24.95" customHeight="1">
+      <c r="A27" s="156"/>
+      <c r="B27" s="157"/>
+      <c r="C27" s="157"/>
+      <c r="D27" s="157"/>
+      <c r="E27" s="157"/>
+      <c r="F27" s="157"/>
+      <c r="G27" s="157"/>
+      <c r="H27" s="157"/>
+      <c r="I27" s="157"/>
+      <c r="J27" s="157"/>
+      <c r="K27" s="157"/>
+      <c r="L27" s="157"/>
+      <c r="M27" s="157"/>
+      <c r="N27" s="157"/>
+      <c r="O27" s="157"/>
+      <c r="P27" s="158"/>
+    </row>
+    <row r="28" spans="1:16" ht="24.95" customHeight="1">
+      <c r="A28" s="156"/>
+      <c r="B28" s="157"/>
+      <c r="C28" s="157"/>
+      <c r="D28" s="157"/>
+      <c r="E28" s="157"/>
+      <c r="F28" s="157"/>
+      <c r="G28" s="157"/>
+      <c r="H28" s="157"/>
+      <c r="I28" s="157"/>
+      <c r="J28" s="157"/>
+      <c r="K28" s="157"/>
+      <c r="L28" s="157"/>
+      <c r="M28" s="157"/>
+      <c r="N28" s="157"/>
+      <c r="O28" s="157"/>
+      <c r="P28" s="158"/>
+    </row>
+    <row r="29" spans="1:16" ht="24.95" customHeight="1">
+      <c r="A29" s="156"/>
+      <c r="B29" s="157"/>
+      <c r="C29" s="157"/>
+      <c r="D29" s="157"/>
+      <c r="E29" s="157"/>
+      <c r="F29" s="157"/>
+      <c r="G29" s="157"/>
+      <c r="H29" s="157"/>
+      <c r="I29" s="157"/>
+      <c r="J29" s="157"/>
+      <c r="K29" s="157"/>
+      <c r="L29" s="157"/>
+      <c r="M29" s="157"/>
+      <c r="N29" s="157"/>
+      <c r="O29" s="157"/>
+      <c r="P29" s="158"/>
+    </row>
+    <row r="30" spans="1:16" ht="24.95" customHeight="1">
+      <c r="A30" s="156"/>
+      <c r="B30" s="157"/>
+      <c r="C30" s="157"/>
+      <c r="D30" s="157"/>
+      <c r="E30" s="157"/>
+      <c r="F30" s="157"/>
+      <c r="G30" s="157"/>
+      <c r="H30" s="157"/>
+      <c r="I30" s="157"/>
+      <c r="J30" s="157"/>
+      <c r="K30" s="157"/>
+      <c r="L30" s="157"/>
+      <c r="M30" s="157"/>
+      <c r="N30" s="157"/>
+      <c r="O30" s="157"/>
+      <c r="P30" s="158"/>
+    </row>
+    <row r="31" spans="1:16" ht="24.95" customHeight="1">
+      <c r="A31" s="156"/>
+      <c r="B31" s="157"/>
+      <c r="C31" s="157"/>
+      <c r="D31" s="157"/>
+      <c r="E31" s="157"/>
+      <c r="F31" s="157"/>
+      <c r="G31" s="157"/>
+      <c r="H31" s="157"/>
+      <c r="I31" s="157"/>
+      <c r="J31" s="157"/>
+      <c r="K31" s="157"/>
+      <c r="L31" s="157"/>
+      <c r="M31" s="157"/>
+      <c r="N31" s="157"/>
+      <c r="O31" s="157"/>
+      <c r="P31" s="158"/>
+    </row>
+    <row r="32" spans="1:16" ht="24.95" customHeight="1">
+      <c r="A32" s="159"/>
+      <c r="B32" s="160"/>
+      <c r="C32" s="160"/>
+      <c r="D32" s="160"/>
+      <c r="E32" s="160"/>
+      <c r="F32" s="160"/>
+      <c r="G32" s="160"/>
+      <c r="H32" s="160"/>
+      <c r="I32" s="160"/>
+      <c r="J32" s="160"/>
+      <c r="K32" s="160"/>
+      <c r="L32" s="160"/>
+      <c r="M32" s="160"/>
+      <c r="N32" s="160"/>
+      <c r="O32" s="160"/>
+      <c r="P32" s="161"/>
+    </row>
+    <row r="33" spans="1:15" ht="24.95" customHeight="1">
       <c r="A33" s="13"/>
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
@@ -11348,518 +11510,518 @@
       <selection activeCell="A2" sqref="A2:P28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="5.5" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="15" width="5.6640625" customWidth="1"/>
+    <col min="1" max="15" width="5.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="30" customHeight="1">
       <c r="A1" s="143" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1">
-      <c r="A2" s="192" t="s">
-        <v>90</v>
+      <c r="A2" s="167" t="s">
+        <v>88</v>
       </c>
-      <c r="B2" s="184"/>
-      <c r="C2" s="184"/>
-      <c r="D2" s="184"/>
-      <c r="E2" s="184"/>
-      <c r="F2" s="184"/>
-      <c r="G2" s="184"/>
-      <c r="H2" s="184"/>
-      <c r="I2" s="184"/>
-      <c r="J2" s="184"/>
-      <c r="K2" s="184"/>
-      <c r="L2" s="184"/>
-      <c r="M2" s="184"/>
-      <c r="N2" s="184"/>
-      <c r="O2" s="184"/>
-      <c r="P2" s="185"/>
+      <c r="B2" s="168"/>
+      <c r="C2" s="168"/>
+      <c r="D2" s="168"/>
+      <c r="E2" s="168"/>
+      <c r="F2" s="168"/>
+      <c r="G2" s="168"/>
+      <c r="H2" s="168"/>
+      <c r="I2" s="168"/>
+      <c r="J2" s="168"/>
+      <c r="K2" s="168"/>
+      <c r="L2" s="168"/>
+      <c r="M2" s="168"/>
+      <c r="N2" s="168"/>
+      <c r="O2" s="168"/>
+      <c r="P2" s="169"/>
     </row>
     <row r="3" spans="1:16" ht="30" customHeight="1">
-      <c r="A3" s="186"/>
-      <c r="B3" s="187"/>
-      <c r="C3" s="187"/>
-      <c r="D3" s="187"/>
-      <c r="E3" s="187"/>
-      <c r="F3" s="187"/>
-      <c r="G3" s="187"/>
-      <c r="H3" s="187"/>
-      <c r="I3" s="187"/>
-      <c r="J3" s="187"/>
-      <c r="K3" s="187"/>
-      <c r="L3" s="187"/>
-      <c r="M3" s="187"/>
-      <c r="N3" s="187"/>
-      <c r="O3" s="187"/>
-      <c r="P3" s="188"/>
+      <c r="A3" s="170"/>
+      <c r="B3" s="171"/>
+      <c r="C3" s="171"/>
+      <c r="D3" s="171"/>
+      <c r="E3" s="171"/>
+      <c r="F3" s="171"/>
+      <c r="G3" s="171"/>
+      <c r="H3" s="171"/>
+      <c r="I3" s="171"/>
+      <c r="J3" s="171"/>
+      <c r="K3" s="171"/>
+      <c r="L3" s="171"/>
+      <c r="M3" s="171"/>
+      <c r="N3" s="171"/>
+      <c r="O3" s="171"/>
+      <c r="P3" s="172"/>
     </row>
     <row r="4" spans="1:16" ht="30" customHeight="1">
-      <c r="A4" s="186"/>
-      <c r="B4" s="187"/>
-      <c r="C4" s="187"/>
-      <c r="D4" s="187"/>
-      <c r="E4" s="187"/>
-      <c r="F4" s="187"/>
-      <c r="G4" s="187"/>
-      <c r="H4" s="187"/>
-      <c r="I4" s="187"/>
-      <c r="J4" s="187"/>
-      <c r="K4" s="187"/>
-      <c r="L4" s="187"/>
-      <c r="M4" s="187"/>
-      <c r="N4" s="187"/>
-      <c r="O4" s="187"/>
-      <c r="P4" s="188"/>
+      <c r="A4" s="170"/>
+      <c r="B4" s="171"/>
+      <c r="C4" s="171"/>
+      <c r="D4" s="171"/>
+      <c r="E4" s="171"/>
+      <c r="F4" s="171"/>
+      <c r="G4" s="171"/>
+      <c r="H4" s="171"/>
+      <c r="I4" s="171"/>
+      <c r="J4" s="171"/>
+      <c r="K4" s="171"/>
+      <c r="L4" s="171"/>
+      <c r="M4" s="171"/>
+      <c r="N4" s="171"/>
+      <c r="O4" s="171"/>
+      <c r="P4" s="172"/>
     </row>
     <row r="5" spans="1:16" ht="30" customHeight="1">
-      <c r="A5" s="186"/>
-      <c r="B5" s="187"/>
-      <c r="C5" s="187"/>
-      <c r="D5" s="187"/>
-      <c r="E5" s="187"/>
-      <c r="F5" s="187"/>
-      <c r="G5" s="187"/>
-      <c r="H5" s="187"/>
-      <c r="I5" s="187"/>
-      <c r="J5" s="187"/>
-      <c r="K5" s="187"/>
-      <c r="L5" s="187"/>
-      <c r="M5" s="187"/>
-      <c r="N5" s="187"/>
-      <c r="O5" s="187"/>
-      <c r="P5" s="188"/>
+      <c r="A5" s="170"/>
+      <c r="B5" s="171"/>
+      <c r="C5" s="171"/>
+      <c r="D5" s="171"/>
+      <c r="E5" s="171"/>
+      <c r="F5" s="171"/>
+      <c r="G5" s="171"/>
+      <c r="H5" s="171"/>
+      <c r="I5" s="171"/>
+      <c r="J5" s="171"/>
+      <c r="K5" s="171"/>
+      <c r="L5" s="171"/>
+      <c r="M5" s="171"/>
+      <c r="N5" s="171"/>
+      <c r="O5" s="171"/>
+      <c r="P5" s="172"/>
     </row>
     <row r="6" spans="1:16" ht="30" customHeight="1">
-      <c r="A6" s="186"/>
-      <c r="B6" s="187"/>
-      <c r="C6" s="187"/>
-      <c r="D6" s="187"/>
-      <c r="E6" s="187"/>
-      <c r="F6" s="187"/>
-      <c r="G6" s="187"/>
-      <c r="H6" s="187"/>
-      <c r="I6" s="187"/>
-      <c r="J6" s="187"/>
-      <c r="K6" s="187"/>
-      <c r="L6" s="187"/>
-      <c r="M6" s="187"/>
-      <c r="N6" s="187"/>
-      <c r="O6" s="187"/>
-      <c r="P6" s="188"/>
+      <c r="A6" s="170"/>
+      <c r="B6" s="171"/>
+      <c r="C6" s="171"/>
+      <c r="D6" s="171"/>
+      <c r="E6" s="171"/>
+      <c r="F6" s="171"/>
+      <c r="G6" s="171"/>
+      <c r="H6" s="171"/>
+      <c r="I6" s="171"/>
+      <c r="J6" s="171"/>
+      <c r="K6" s="171"/>
+      <c r="L6" s="171"/>
+      <c r="M6" s="171"/>
+      <c r="N6" s="171"/>
+      <c r="O6" s="171"/>
+      <c r="P6" s="172"/>
     </row>
     <row r="7" spans="1:16" ht="30" customHeight="1">
-      <c r="A7" s="186"/>
-      <c r="B7" s="187"/>
-      <c r="C7" s="187"/>
-      <c r="D7" s="187"/>
-      <c r="E7" s="187"/>
-      <c r="F7" s="187"/>
-      <c r="G7" s="187"/>
-      <c r="H7" s="187"/>
-      <c r="I7" s="187"/>
-      <c r="J7" s="187"/>
-      <c r="K7" s="187"/>
-      <c r="L7" s="187"/>
-      <c r="M7" s="187"/>
-      <c r="N7" s="187"/>
-      <c r="O7" s="187"/>
-      <c r="P7" s="188"/>
+      <c r="A7" s="170"/>
+      <c r="B7" s="171"/>
+      <c r="C7" s="171"/>
+      <c r="D7" s="171"/>
+      <c r="E7" s="171"/>
+      <c r="F7" s="171"/>
+      <c r="G7" s="171"/>
+      <c r="H7" s="171"/>
+      <c r="I7" s="171"/>
+      <c r="J7" s="171"/>
+      <c r="K7" s="171"/>
+      <c r="L7" s="171"/>
+      <c r="M7" s="171"/>
+      <c r="N7" s="171"/>
+      <c r="O7" s="171"/>
+      <c r="P7" s="172"/>
     </row>
     <row r="8" spans="1:16" ht="30" customHeight="1">
-      <c r="A8" s="186"/>
-      <c r="B8" s="187"/>
-      <c r="C8" s="187"/>
-      <c r="D8" s="187"/>
-      <c r="E8" s="187"/>
-      <c r="F8" s="187"/>
-      <c r="G8" s="187"/>
-      <c r="H8" s="187"/>
-      <c r="I8" s="187"/>
-      <c r="J8" s="187"/>
-      <c r="K8" s="187"/>
-      <c r="L8" s="187"/>
-      <c r="M8" s="187"/>
-      <c r="N8" s="187"/>
-      <c r="O8" s="187"/>
-      <c r="P8" s="188"/>
+      <c r="A8" s="170"/>
+      <c r="B8" s="171"/>
+      <c r="C8" s="171"/>
+      <c r="D8" s="171"/>
+      <c r="E8" s="171"/>
+      <c r="F8" s="171"/>
+      <c r="G8" s="171"/>
+      <c r="H8" s="171"/>
+      <c r="I8" s="171"/>
+      <c r="J8" s="171"/>
+      <c r="K8" s="171"/>
+      <c r="L8" s="171"/>
+      <c r="M8" s="171"/>
+      <c r="N8" s="171"/>
+      <c r="O8" s="171"/>
+      <c r="P8" s="172"/>
     </row>
     <row r="9" spans="1:16" ht="30" customHeight="1">
-      <c r="A9" s="186"/>
-      <c r="B9" s="187"/>
-      <c r="C9" s="187"/>
-      <c r="D9" s="187"/>
-      <c r="E9" s="187"/>
-      <c r="F9" s="187"/>
-      <c r="G9" s="187"/>
-      <c r="H9" s="187"/>
-      <c r="I9" s="187"/>
-      <c r="J9" s="187"/>
-      <c r="K9" s="187"/>
-      <c r="L9" s="187"/>
-      <c r="M9" s="187"/>
-      <c r="N9" s="187"/>
-      <c r="O9" s="187"/>
-      <c r="P9" s="188"/>
+      <c r="A9" s="170"/>
+      <c r="B9" s="171"/>
+      <c r="C9" s="171"/>
+      <c r="D9" s="171"/>
+      <c r="E9" s="171"/>
+      <c r="F9" s="171"/>
+      <c r="G9" s="171"/>
+      <c r="H9" s="171"/>
+      <c r="I9" s="171"/>
+      <c r="J9" s="171"/>
+      <c r="K9" s="171"/>
+      <c r="L9" s="171"/>
+      <c r="M9" s="171"/>
+      <c r="N9" s="171"/>
+      <c r="O9" s="171"/>
+      <c r="P9" s="172"/>
     </row>
     <row r="10" spans="1:16" ht="30" customHeight="1">
-      <c r="A10" s="186"/>
-      <c r="B10" s="187"/>
-      <c r="C10" s="187"/>
-      <c r="D10" s="187"/>
-      <c r="E10" s="187"/>
-      <c r="F10" s="187"/>
-      <c r="G10" s="187"/>
-      <c r="H10" s="187"/>
-      <c r="I10" s="187"/>
-      <c r="J10" s="187"/>
-      <c r="K10" s="187"/>
-      <c r="L10" s="187"/>
-      <c r="M10" s="187"/>
-      <c r="N10" s="187"/>
-      <c r="O10" s="187"/>
-      <c r="P10" s="188"/>
+      <c r="A10" s="170"/>
+      <c r="B10" s="171"/>
+      <c r="C10" s="171"/>
+      <c r="D10" s="171"/>
+      <c r="E10" s="171"/>
+      <c r="F10" s="171"/>
+      <c r="G10" s="171"/>
+      <c r="H10" s="171"/>
+      <c r="I10" s="171"/>
+      <c r="J10" s="171"/>
+      <c r="K10" s="171"/>
+      <c r="L10" s="171"/>
+      <c r="M10" s="171"/>
+      <c r="N10" s="171"/>
+      <c r="O10" s="171"/>
+      <c r="P10" s="172"/>
     </row>
     <row r="11" spans="1:16" ht="30" customHeight="1">
-      <c r="A11" s="186"/>
-      <c r="B11" s="187"/>
-      <c r="C11" s="187"/>
-      <c r="D11" s="187"/>
-      <c r="E11" s="187"/>
-      <c r="F11" s="187"/>
-      <c r="G11" s="187"/>
-      <c r="H11" s="187"/>
-      <c r="I11" s="187"/>
-      <c r="J11" s="187"/>
-      <c r="K11" s="187"/>
-      <c r="L11" s="187"/>
-      <c r="M11" s="187"/>
-      <c r="N11" s="187"/>
-      <c r="O11" s="187"/>
-      <c r="P11" s="188"/>
+      <c r="A11" s="170"/>
+      <c r="B11" s="171"/>
+      <c r="C11" s="171"/>
+      <c r="D11" s="171"/>
+      <c r="E11" s="171"/>
+      <c r="F11" s="171"/>
+      <c r="G11" s="171"/>
+      <c r="H11" s="171"/>
+      <c r="I11" s="171"/>
+      <c r="J11" s="171"/>
+      <c r="K11" s="171"/>
+      <c r="L11" s="171"/>
+      <c r="M11" s="171"/>
+      <c r="N11" s="171"/>
+      <c r="O11" s="171"/>
+      <c r="P11" s="172"/>
     </row>
     <row r="12" spans="1:16" ht="30" customHeight="1">
-      <c r="A12" s="186"/>
-      <c r="B12" s="187"/>
-      <c r="C12" s="187"/>
-      <c r="D12" s="187"/>
-      <c r="E12" s="187"/>
-      <c r="F12" s="187"/>
-      <c r="G12" s="187"/>
-      <c r="H12" s="187"/>
-      <c r="I12" s="187"/>
-      <c r="J12" s="187"/>
-      <c r="K12" s="187"/>
-      <c r="L12" s="187"/>
-      <c r="M12" s="187"/>
-      <c r="N12" s="187"/>
-      <c r="O12" s="187"/>
-      <c r="P12" s="188"/>
+      <c r="A12" s="170"/>
+      <c r="B12" s="171"/>
+      <c r="C12" s="171"/>
+      <c r="D12" s="171"/>
+      <c r="E12" s="171"/>
+      <c r="F12" s="171"/>
+      <c r="G12" s="171"/>
+      <c r="H12" s="171"/>
+      <c r="I12" s="171"/>
+      <c r="J12" s="171"/>
+      <c r="K12" s="171"/>
+      <c r="L12" s="171"/>
+      <c r="M12" s="171"/>
+      <c r="N12" s="171"/>
+      <c r="O12" s="171"/>
+      <c r="P12" s="172"/>
     </row>
     <row r="13" spans="1:16" ht="30" customHeight="1">
-      <c r="A13" s="186"/>
-      <c r="B13" s="187"/>
-      <c r="C13" s="187"/>
-      <c r="D13" s="187"/>
-      <c r="E13" s="187"/>
-      <c r="F13" s="187"/>
-      <c r="G13" s="187"/>
-      <c r="H13" s="187"/>
-      <c r="I13" s="187"/>
-      <c r="J13" s="187"/>
-      <c r="K13" s="187"/>
-      <c r="L13" s="187"/>
-      <c r="M13" s="187"/>
-      <c r="N13" s="187"/>
-      <c r="O13" s="187"/>
-      <c r="P13" s="188"/>
+      <c r="A13" s="170"/>
+      <c r="B13" s="171"/>
+      <c r="C13" s="171"/>
+      <c r="D13" s="171"/>
+      <c r="E13" s="171"/>
+      <c r="F13" s="171"/>
+      <c r="G13" s="171"/>
+      <c r="H13" s="171"/>
+      <c r="I13" s="171"/>
+      <c r="J13" s="171"/>
+      <c r="K13" s="171"/>
+      <c r="L13" s="171"/>
+      <c r="M13" s="171"/>
+      <c r="N13" s="171"/>
+      <c r="O13" s="171"/>
+      <c r="P13" s="172"/>
     </row>
     <row r="14" spans="1:16" ht="30" customHeight="1">
-      <c r="A14" s="186"/>
-      <c r="B14" s="187"/>
-      <c r="C14" s="187"/>
-      <c r="D14" s="187"/>
-      <c r="E14" s="187"/>
-      <c r="F14" s="187"/>
-      <c r="G14" s="187"/>
-      <c r="H14" s="187"/>
-      <c r="I14" s="187"/>
-      <c r="J14" s="187"/>
-      <c r="K14" s="187"/>
-      <c r="L14" s="187"/>
-      <c r="M14" s="187"/>
-      <c r="N14" s="187"/>
-      <c r="O14" s="187"/>
-      <c r="P14" s="188"/>
+      <c r="A14" s="170"/>
+      <c r="B14" s="171"/>
+      <c r="C14" s="171"/>
+      <c r="D14" s="171"/>
+      <c r="E14" s="171"/>
+      <c r="F14" s="171"/>
+      <c r="G14" s="171"/>
+      <c r="H14" s="171"/>
+      <c r="I14" s="171"/>
+      <c r="J14" s="171"/>
+      <c r="K14" s="171"/>
+      <c r="L14" s="171"/>
+      <c r="M14" s="171"/>
+      <c r="N14" s="171"/>
+      <c r="O14" s="171"/>
+      <c r="P14" s="172"/>
     </row>
     <row r="15" spans="1:16" ht="30" customHeight="1">
-      <c r="A15" s="186"/>
-      <c r="B15" s="187"/>
-      <c r="C15" s="187"/>
-      <c r="D15" s="187"/>
-      <c r="E15" s="187"/>
-      <c r="F15" s="187"/>
-      <c r="G15" s="187"/>
-      <c r="H15" s="187"/>
-      <c r="I15" s="187"/>
-      <c r="J15" s="187"/>
-      <c r="K15" s="187"/>
-      <c r="L15" s="187"/>
-      <c r="M15" s="187"/>
-      <c r="N15" s="187"/>
-      <c r="O15" s="187"/>
-      <c r="P15" s="188"/>
+      <c r="A15" s="170"/>
+      <c r="B15" s="171"/>
+      <c r="C15" s="171"/>
+      <c r="D15" s="171"/>
+      <c r="E15" s="171"/>
+      <c r="F15" s="171"/>
+      <c r="G15" s="171"/>
+      <c r="H15" s="171"/>
+      <c r="I15" s="171"/>
+      <c r="J15" s="171"/>
+      <c r="K15" s="171"/>
+      <c r="L15" s="171"/>
+      <c r="M15" s="171"/>
+      <c r="N15" s="171"/>
+      <c r="O15" s="171"/>
+      <c r="P15" s="172"/>
     </row>
     <row r="16" spans="1:16" ht="30" customHeight="1">
-      <c r="A16" s="186"/>
-      <c r="B16" s="187"/>
-      <c r="C16" s="187"/>
-      <c r="D16" s="187"/>
-      <c r="E16" s="187"/>
-      <c r="F16" s="187"/>
-      <c r="G16" s="187"/>
-      <c r="H16" s="187"/>
-      <c r="I16" s="187"/>
-      <c r="J16" s="187"/>
-      <c r="K16" s="187"/>
-      <c r="L16" s="187"/>
-      <c r="M16" s="187"/>
-      <c r="N16" s="187"/>
-      <c r="O16" s="187"/>
-      <c r="P16" s="188"/>
+      <c r="A16" s="170"/>
+      <c r="B16" s="171"/>
+      <c r="C16" s="171"/>
+      <c r="D16" s="171"/>
+      <c r="E16" s="171"/>
+      <c r="F16" s="171"/>
+      <c r="G16" s="171"/>
+      <c r="H16" s="171"/>
+      <c r="I16" s="171"/>
+      <c r="J16" s="171"/>
+      <c r="K16" s="171"/>
+      <c r="L16" s="171"/>
+      <c r="M16" s="171"/>
+      <c r="N16" s="171"/>
+      <c r="O16" s="171"/>
+      <c r="P16" s="172"/>
     </row>
     <row r="17" spans="1:16" ht="30" customHeight="1">
-      <c r="A17" s="186"/>
-      <c r="B17" s="187"/>
-      <c r="C17" s="187"/>
-      <c r="D17" s="187"/>
-      <c r="E17" s="187"/>
-      <c r="F17" s="187"/>
-      <c r="G17" s="187"/>
-      <c r="H17" s="187"/>
-      <c r="I17" s="187"/>
-      <c r="J17" s="187"/>
-      <c r="K17" s="187"/>
-      <c r="L17" s="187"/>
-      <c r="M17" s="187"/>
-      <c r="N17" s="187"/>
-      <c r="O17" s="187"/>
-      <c r="P17" s="188"/>
+      <c r="A17" s="170"/>
+      <c r="B17" s="171"/>
+      <c r="C17" s="171"/>
+      <c r="D17" s="171"/>
+      <c r="E17" s="171"/>
+      <c r="F17" s="171"/>
+      <c r="G17" s="171"/>
+      <c r="H17" s="171"/>
+      <c r="I17" s="171"/>
+      <c r="J17" s="171"/>
+      <c r="K17" s="171"/>
+      <c r="L17" s="171"/>
+      <c r="M17" s="171"/>
+      <c r="N17" s="171"/>
+      <c r="O17" s="171"/>
+      <c r="P17" s="172"/>
     </row>
     <row r="18" spans="1:16" ht="30" customHeight="1">
-      <c r="A18" s="186"/>
-      <c r="B18" s="187"/>
-      <c r="C18" s="187"/>
-      <c r="D18" s="187"/>
-      <c r="E18" s="187"/>
-      <c r="F18" s="187"/>
-      <c r="G18" s="187"/>
-      <c r="H18" s="187"/>
-      <c r="I18" s="187"/>
-      <c r="J18" s="187"/>
-      <c r="K18" s="187"/>
-      <c r="L18" s="187"/>
-      <c r="M18" s="187"/>
-      <c r="N18" s="187"/>
-      <c r="O18" s="187"/>
-      <c r="P18" s="188"/>
+      <c r="A18" s="170"/>
+      <c r="B18" s="171"/>
+      <c r="C18" s="171"/>
+      <c r="D18" s="171"/>
+      <c r="E18" s="171"/>
+      <c r="F18" s="171"/>
+      <c r="G18" s="171"/>
+      <c r="H18" s="171"/>
+      <c r="I18" s="171"/>
+      <c r="J18" s="171"/>
+      <c r="K18" s="171"/>
+      <c r="L18" s="171"/>
+      <c r="M18" s="171"/>
+      <c r="N18" s="171"/>
+      <c r="O18" s="171"/>
+      <c r="P18" s="172"/>
     </row>
     <row r="19" spans="1:16" ht="30" customHeight="1">
-      <c r="A19" s="186"/>
-      <c r="B19" s="187"/>
-      <c r="C19" s="187"/>
-      <c r="D19" s="187"/>
-      <c r="E19" s="187"/>
-      <c r="F19" s="187"/>
-      <c r="G19" s="187"/>
-      <c r="H19" s="187"/>
-      <c r="I19" s="187"/>
-      <c r="J19" s="187"/>
-      <c r="K19" s="187"/>
-      <c r="L19" s="187"/>
-      <c r="M19" s="187"/>
-      <c r="N19" s="187"/>
-      <c r="O19" s="187"/>
-      <c r="P19" s="188"/>
+      <c r="A19" s="170"/>
+      <c r="B19" s="171"/>
+      <c r="C19" s="171"/>
+      <c r="D19" s="171"/>
+      <c r="E19" s="171"/>
+      <c r="F19" s="171"/>
+      <c r="G19" s="171"/>
+      <c r="H19" s="171"/>
+      <c r="I19" s="171"/>
+      <c r="J19" s="171"/>
+      <c r="K19" s="171"/>
+      <c r="L19" s="171"/>
+      <c r="M19" s="171"/>
+      <c r="N19" s="171"/>
+      <c r="O19" s="171"/>
+      <c r="P19" s="172"/>
     </row>
     <row r="20" spans="1:16" ht="30" customHeight="1">
-      <c r="A20" s="186"/>
-      <c r="B20" s="187"/>
-      <c r="C20" s="187"/>
-      <c r="D20" s="187"/>
-      <c r="E20" s="187"/>
-      <c r="F20" s="187"/>
-      <c r="G20" s="187"/>
-      <c r="H20" s="187"/>
-      <c r="I20" s="187"/>
-      <c r="J20" s="187"/>
-      <c r="K20" s="187"/>
-      <c r="L20" s="187"/>
-      <c r="M20" s="187"/>
-      <c r="N20" s="187"/>
-      <c r="O20" s="187"/>
-      <c r="P20" s="188"/>
+      <c r="A20" s="170"/>
+      <c r="B20" s="171"/>
+      <c r="C20" s="171"/>
+      <c r="D20" s="171"/>
+      <c r="E20" s="171"/>
+      <c r="F20" s="171"/>
+      <c r="G20" s="171"/>
+      <c r="H20" s="171"/>
+      <c r="I20" s="171"/>
+      <c r="J20" s="171"/>
+      <c r="K20" s="171"/>
+      <c r="L20" s="171"/>
+      <c r="M20" s="171"/>
+      <c r="N20" s="171"/>
+      <c r="O20" s="171"/>
+      <c r="P20" s="172"/>
     </row>
     <row r="21" spans="1:16" ht="30" customHeight="1">
-      <c r="A21" s="186"/>
-      <c r="B21" s="187"/>
-      <c r="C21" s="187"/>
-      <c r="D21" s="187"/>
-      <c r="E21" s="187"/>
-      <c r="F21" s="187"/>
-      <c r="G21" s="187"/>
-      <c r="H21" s="187"/>
-      <c r="I21" s="187"/>
-      <c r="J21" s="187"/>
-      <c r="K21" s="187"/>
-      <c r="L21" s="187"/>
-      <c r="M21" s="187"/>
-      <c r="N21" s="187"/>
-      <c r="O21" s="187"/>
-      <c r="P21" s="188"/>
+      <c r="A21" s="170"/>
+      <c r="B21" s="171"/>
+      <c r="C21" s="171"/>
+      <c r="D21" s="171"/>
+      <c r="E21" s="171"/>
+      <c r="F21" s="171"/>
+      <c r="G21" s="171"/>
+      <c r="H21" s="171"/>
+      <c r="I21" s="171"/>
+      <c r="J21" s="171"/>
+      <c r="K21" s="171"/>
+      <c r="L21" s="171"/>
+      <c r="M21" s="171"/>
+      <c r="N21" s="171"/>
+      <c r="O21" s="171"/>
+      <c r="P21" s="172"/>
     </row>
     <row r="22" spans="1:16" ht="30" customHeight="1">
-      <c r="A22" s="186"/>
-      <c r="B22" s="187"/>
-      <c r="C22" s="187"/>
-      <c r="D22" s="187"/>
-      <c r="E22" s="187"/>
-      <c r="F22" s="187"/>
-      <c r="G22" s="187"/>
-      <c r="H22" s="187"/>
-      <c r="I22" s="187"/>
-      <c r="J22" s="187"/>
-      <c r="K22" s="187"/>
-      <c r="L22" s="187"/>
-      <c r="M22" s="187"/>
-      <c r="N22" s="187"/>
-      <c r="O22" s="187"/>
-      <c r="P22" s="188"/>
+      <c r="A22" s="170"/>
+      <c r="B22" s="171"/>
+      <c r="C22" s="171"/>
+      <c r="D22" s="171"/>
+      <c r="E22" s="171"/>
+      <c r="F22" s="171"/>
+      <c r="G22" s="171"/>
+      <c r="H22" s="171"/>
+      <c r="I22" s="171"/>
+      <c r="J22" s="171"/>
+      <c r="K22" s="171"/>
+      <c r="L22" s="171"/>
+      <c r="M22" s="171"/>
+      <c r="N22" s="171"/>
+      <c r="O22" s="171"/>
+      <c r="P22" s="172"/>
     </row>
     <row r="23" spans="1:16" ht="30" customHeight="1">
-      <c r="A23" s="186"/>
-      <c r="B23" s="187"/>
-      <c r="C23" s="187"/>
-      <c r="D23" s="187"/>
-      <c r="E23" s="187"/>
-      <c r="F23" s="187"/>
-      <c r="G23" s="187"/>
-      <c r="H23" s="187"/>
-      <c r="I23" s="187"/>
-      <c r="J23" s="187"/>
-      <c r="K23" s="187"/>
-      <c r="L23" s="187"/>
-      <c r="M23" s="187"/>
-      <c r="N23" s="187"/>
-      <c r="O23" s="187"/>
-      <c r="P23" s="188"/>
+      <c r="A23" s="170"/>
+      <c r="B23" s="171"/>
+      <c r="C23" s="171"/>
+      <c r="D23" s="171"/>
+      <c r="E23" s="171"/>
+      <c r="F23" s="171"/>
+      <c r="G23" s="171"/>
+      <c r="H23" s="171"/>
+      <c r="I23" s="171"/>
+      <c r="J23" s="171"/>
+      <c r="K23" s="171"/>
+      <c r="L23" s="171"/>
+      <c r="M23" s="171"/>
+      <c r="N23" s="171"/>
+      <c r="O23" s="171"/>
+      <c r="P23" s="172"/>
     </row>
     <row r="24" spans="1:16" ht="30" customHeight="1">
-      <c r="A24" s="186"/>
-      <c r="B24" s="187"/>
-      <c r="C24" s="187"/>
-      <c r="D24" s="187"/>
-      <c r="E24" s="187"/>
-      <c r="F24" s="187"/>
-      <c r="G24" s="187"/>
-      <c r="H24" s="187"/>
-      <c r="I24" s="187"/>
-      <c r="J24" s="187"/>
-      <c r="K24" s="187"/>
-      <c r="L24" s="187"/>
-      <c r="M24" s="187"/>
-      <c r="N24" s="187"/>
-      <c r="O24" s="187"/>
-      <c r="P24" s="188"/>
+      <c r="A24" s="170"/>
+      <c r="B24" s="171"/>
+      <c r="C24" s="171"/>
+      <c r="D24" s="171"/>
+      <c r="E24" s="171"/>
+      <c r="F24" s="171"/>
+      <c r="G24" s="171"/>
+      <c r="H24" s="171"/>
+      <c r="I24" s="171"/>
+      <c r="J24" s="171"/>
+      <c r="K24" s="171"/>
+      <c r="L24" s="171"/>
+      <c r="M24" s="171"/>
+      <c r="N24" s="171"/>
+      <c r="O24" s="171"/>
+      <c r="P24" s="172"/>
     </row>
     <row r="25" spans="1:16" ht="30" customHeight="1">
-      <c r="A25" s="186"/>
-      <c r="B25" s="187"/>
-      <c r="C25" s="187"/>
-      <c r="D25" s="187"/>
-      <c r="E25" s="187"/>
-      <c r="F25" s="187"/>
-      <c r="G25" s="187"/>
-      <c r="H25" s="187"/>
-      <c r="I25" s="187"/>
-      <c r="J25" s="187"/>
-      <c r="K25" s="187"/>
-      <c r="L25" s="187"/>
-      <c r="M25" s="187"/>
-      <c r="N25" s="187"/>
-      <c r="O25" s="187"/>
-      <c r="P25" s="188"/>
+      <c r="A25" s="170"/>
+      <c r="B25" s="171"/>
+      <c r="C25" s="171"/>
+      <c r="D25" s="171"/>
+      <c r="E25" s="171"/>
+      <c r="F25" s="171"/>
+      <c r="G25" s="171"/>
+      <c r="H25" s="171"/>
+      <c r="I25" s="171"/>
+      <c r="J25" s="171"/>
+      <c r="K25" s="171"/>
+      <c r="L25" s="171"/>
+      <c r="M25" s="171"/>
+      <c r="N25" s="171"/>
+      <c r="O25" s="171"/>
+      <c r="P25" s="172"/>
     </row>
     <row r="26" spans="1:16" ht="30" customHeight="1">
-      <c r="A26" s="186"/>
-      <c r="B26" s="187"/>
-      <c r="C26" s="187"/>
-      <c r="D26" s="187"/>
-      <c r="E26" s="187"/>
-      <c r="F26" s="187"/>
-      <c r="G26" s="187"/>
-      <c r="H26" s="187"/>
-      <c r="I26" s="187"/>
-      <c r="J26" s="187"/>
-      <c r="K26" s="187"/>
-      <c r="L26" s="187"/>
-      <c r="M26" s="187"/>
-      <c r="N26" s="187"/>
-      <c r="O26" s="187"/>
-      <c r="P26" s="188"/>
+      <c r="A26" s="170"/>
+      <c r="B26" s="171"/>
+      <c r="C26" s="171"/>
+      <c r="D26" s="171"/>
+      <c r="E26" s="171"/>
+      <c r="F26" s="171"/>
+      <c r="G26" s="171"/>
+      <c r="H26" s="171"/>
+      <c r="I26" s="171"/>
+      <c r="J26" s="171"/>
+      <c r="K26" s="171"/>
+      <c r="L26" s="171"/>
+      <c r="M26" s="171"/>
+      <c r="N26" s="171"/>
+      <c r="O26" s="171"/>
+      <c r="P26" s="172"/>
     </row>
     <row r="27" spans="1:16" ht="30" customHeight="1">
-      <c r="A27" s="186"/>
-      <c r="B27" s="187"/>
-      <c r="C27" s="187"/>
-      <c r="D27" s="187"/>
-      <c r="E27" s="187"/>
-      <c r="F27" s="187"/>
-      <c r="G27" s="187"/>
-      <c r="H27" s="187"/>
-      <c r="I27" s="187"/>
-      <c r="J27" s="187"/>
-      <c r="K27" s="187"/>
-      <c r="L27" s="187"/>
-      <c r="M27" s="187"/>
-      <c r="N27" s="187"/>
-      <c r="O27" s="187"/>
-      <c r="P27" s="188"/>
+      <c r="A27" s="170"/>
+      <c r="B27" s="171"/>
+      <c r="C27" s="171"/>
+      <c r="D27" s="171"/>
+      <c r="E27" s="171"/>
+      <c r="F27" s="171"/>
+      <c r="G27" s="171"/>
+      <c r="H27" s="171"/>
+      <c r="I27" s="171"/>
+      <c r="J27" s="171"/>
+      <c r="K27" s="171"/>
+      <c r="L27" s="171"/>
+      <c r="M27" s="171"/>
+      <c r="N27" s="171"/>
+      <c r="O27" s="171"/>
+      <c r="P27" s="172"/>
     </row>
     <row r="28" spans="1:16" ht="30" customHeight="1">
-      <c r="A28" s="189"/>
-      <c r="B28" s="190"/>
-      <c r="C28" s="190"/>
-      <c r="D28" s="190"/>
-      <c r="E28" s="190"/>
-      <c r="F28" s="190"/>
-      <c r="G28" s="190"/>
-      <c r="H28" s="190"/>
-      <c r="I28" s="190"/>
-      <c r="J28" s="190"/>
-      <c r="K28" s="190"/>
-      <c r="L28" s="190"/>
-      <c r="M28" s="190"/>
-      <c r="N28" s="190"/>
-      <c r="O28" s="190"/>
-      <c r="P28" s="191"/>
+      <c r="A28" s="173"/>
+      <c r="B28" s="174"/>
+      <c r="C28" s="174"/>
+      <c r="D28" s="174"/>
+      <c r="E28" s="174"/>
+      <c r="F28" s="174"/>
+      <c r="G28" s="174"/>
+      <c r="H28" s="174"/>
+      <c r="I28" s="174"/>
+      <c r="J28" s="174"/>
+      <c r="K28" s="174"/>
+      <c r="L28" s="174"/>
+      <c r="M28" s="174"/>
+      <c r="N28" s="174"/>
+      <c r="O28" s="174"/>
+      <c r="P28" s="175"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0" pivotTables="0"/>
@@ -11892,489 +12054,489 @@
       <selection activeCell="K29" sqref="K29:P30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="5.5" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="15" width="5.6640625" customWidth="1"/>
+    <col min="1" max="15" width="5.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="30" customHeight="1">
       <c r="A1" s="143" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-    </row>
-    <row r="2" spans="1:16" ht="24.9" customHeight="1">
-      <c r="A2" s="166" t="s">
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+    </row>
+    <row r="2" spans="1:16" ht="24.95" customHeight="1">
+      <c r="A2" s="189" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="167"/>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-      <c r="H2" s="167"/>
-      <c r="I2" s="167"/>
-      <c r="J2" s="167"/>
-      <c r="K2" s="167"/>
-      <c r="L2" s="167"/>
-      <c r="M2" s="167"/>
-      <c r="N2" s="167"/>
-      <c r="O2" s="167"/>
-      <c r="P2" s="167"/>
-    </row>
-    <row r="3" spans="1:16" ht="24.9" customHeight="1">
-      <c r="A3" s="166"/>
-      <c r="B3" s="167"/>
-      <c r="C3" s="167"/>
-      <c r="D3" s="167"/>
-      <c r="E3" s="167"/>
-      <c r="F3" s="167"/>
-      <c r="G3" s="167"/>
-      <c r="H3" s="167"/>
-      <c r="I3" s="167"/>
-      <c r="J3" s="167"/>
-      <c r="K3" s="167"/>
-      <c r="L3" s="167"/>
-      <c r="M3" s="167"/>
-      <c r="N3" s="167"/>
-      <c r="O3" s="167"/>
-      <c r="P3" s="167"/>
-    </row>
-    <row r="4" spans="1:16" ht="24.9" customHeight="1">
-      <c r="A4" s="172" t="s">
+      <c r="B2" s="190"/>
+      <c r="C2" s="190"/>
+      <c r="D2" s="190"/>
+      <c r="E2" s="190"/>
+      <c r="F2" s="190"/>
+      <c r="G2" s="190"/>
+      <c r="H2" s="190"/>
+      <c r="I2" s="190"/>
+      <c r="J2" s="190"/>
+      <c r="K2" s="190"/>
+      <c r="L2" s="190"/>
+      <c r="M2" s="190"/>
+      <c r="N2" s="190"/>
+      <c r="O2" s="190"/>
+      <c r="P2" s="190"/>
+    </row>
+    <row r="3" spans="1:16" ht="24.95" customHeight="1">
+      <c r="A3" s="189"/>
+      <c r="B3" s="190"/>
+      <c r="C3" s="190"/>
+      <c r="D3" s="190"/>
+      <c r="E3" s="190"/>
+      <c r="F3" s="190"/>
+      <c r="G3" s="190"/>
+      <c r="H3" s="190"/>
+      <c r="I3" s="190"/>
+      <c r="J3" s="190"/>
+      <c r="K3" s="190"/>
+      <c r="L3" s="190"/>
+      <c r="M3" s="190"/>
+      <c r="N3" s="190"/>
+      <c r="O3" s="190"/>
+      <c r="P3" s="190"/>
+    </row>
+    <row r="4" spans="1:16" ht="24.95" customHeight="1">
+      <c r="A4" s="192" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="172"/>
-      <c r="C4" s="172"/>
-      <c r="D4" s="172"/>
-      <c r="E4" s="172"/>
-      <c r="F4" s="172"/>
-      <c r="G4" s="172"/>
-      <c r="H4" s="172"/>
-      <c r="I4" s="172"/>
-      <c r="J4" s="172"/>
-      <c r="K4" s="172"/>
-      <c r="L4" s="173" t="s">
+      <c r="B4" s="192"/>
+      <c r="C4" s="192"/>
+      <c r="D4" s="192"/>
+      <c r="E4" s="192"/>
+      <c r="F4" s="192"/>
+      <c r="G4" s="192"/>
+      <c r="H4" s="192"/>
+      <c r="I4" s="192"/>
+      <c r="J4" s="192"/>
+      <c r="K4" s="192"/>
+      <c r="L4" s="183" t="s">
         <v>20</v>
       </c>
-      <c r="M4" s="174"/>
-      <c r="N4" s="174"/>
-      <c r="O4" s="174"/>
-    </row>
-    <row r="5" spans="1:16" ht="24.9" customHeight="1">
-      <c r="A5" s="178" t="s">
+      <c r="M4" s="184"/>
+      <c r="N4" s="184"/>
+      <c r="O4" s="184"/>
+    </row>
+    <row r="5" spans="1:16" ht="24.95" customHeight="1">
+      <c r="A5" s="188" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
-      <c r="J5" s="178"/>
-      <c r="K5" s="178"/>
-      <c r="L5" s="175" t="s">
+      <c r="B5" s="188"/>
+      <c r="C5" s="188"/>
+      <c r="D5" s="188"/>
+      <c r="E5" s="188"/>
+      <c r="F5" s="188"/>
+      <c r="G5" s="188"/>
+      <c r="H5" s="188"/>
+      <c r="I5" s="188"/>
+      <c r="J5" s="188"/>
+      <c r="K5" s="188"/>
+      <c r="L5" s="185" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="176"/>
-      <c r="N5" s="177" t="s">
+      <c r="M5" s="186"/>
+      <c r="N5" s="187" t="s">
         <v>9</v>
       </c>
-      <c r="O5" s="177"/>
-    </row>
-    <row r="6" spans="1:16" ht="24.9" customHeight="1">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
-      <c r="J6" s="178"/>
-      <c r="K6" s="178"/>
-      <c r="L6" s="176"/>
-      <c r="M6" s="176"/>
-      <c r="N6" s="177"/>
-      <c r="O6" s="177"/>
-    </row>
-    <row r="7" spans="1:16" ht="24.9" customHeight="1">
-      <c r="A7" s="169" t="s">
+      <c r="O5" s="187"/>
+    </row>
+    <row r="6" spans="1:16" ht="24.95" customHeight="1">
+      <c r="A6" s="188"/>
+      <c r="B6" s="188"/>
+      <c r="C6" s="188"/>
+      <c r="D6" s="188"/>
+      <c r="E6" s="188"/>
+      <c r="F6" s="188"/>
+      <c r="G6" s="188"/>
+      <c r="H6" s="188"/>
+      <c r="I6" s="188"/>
+      <c r="J6" s="188"/>
+      <c r="K6" s="188"/>
+      <c r="L6" s="186"/>
+      <c r="M6" s="186"/>
+      <c r="N6" s="187"/>
+      <c r="O6" s="187"/>
+    </row>
+    <row r="7" spans="1:16" ht="24.95" customHeight="1">
+      <c r="A7" s="180" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="169"/>
-      <c r="C7" s="169"/>
-      <c r="D7" s="169"/>
-      <c r="E7" s="169"/>
-      <c r="F7" s="169"/>
-      <c r="G7" s="169"/>
-      <c r="H7" s="169"/>
-      <c r="I7" s="169"/>
-      <c r="J7" s="169"/>
-      <c r="K7" s="169"/>
-      <c r="L7" s="170"/>
-      <c r="M7" s="171"/>
-      <c r="N7" s="170"/>
-      <c r="O7" s="171"/>
-    </row>
-    <row r="8" spans="1:16" ht="24.9" customHeight="1">
-      <c r="A8" s="169"/>
-      <c r="B8" s="169"/>
-      <c r="C8" s="169"/>
-      <c r="D8" s="169"/>
-      <c r="E8" s="169"/>
-      <c r="F8" s="169"/>
-      <c r="G8" s="169"/>
-      <c r="H8" s="169"/>
-      <c r="I8" s="169"/>
-      <c r="J8" s="169"/>
-      <c r="K8" s="169"/>
-      <c r="L8" s="171"/>
-      <c r="M8" s="171"/>
-      <c r="N8" s="171"/>
-      <c r="O8" s="171"/>
-    </row>
-    <row r="9" spans="1:16" ht="24.9" customHeight="1">
-      <c r="A9" s="169" t="s">
+      <c r="B7" s="180"/>
+      <c r="C7" s="180"/>
+      <c r="D7" s="180"/>
+      <c r="E7" s="180"/>
+      <c r="F7" s="180"/>
+      <c r="G7" s="180"/>
+      <c r="H7" s="180"/>
+      <c r="I7" s="180"/>
+      <c r="J7" s="180"/>
+      <c r="K7" s="180"/>
+      <c r="L7" s="181"/>
+      <c r="M7" s="182"/>
+      <c r="N7" s="181"/>
+      <c r="O7" s="182"/>
+    </row>
+    <row r="8" spans="1:16" ht="24.95" customHeight="1">
+      <c r="A8" s="180"/>
+      <c r="B8" s="180"/>
+      <c r="C8" s="180"/>
+      <c r="D8" s="180"/>
+      <c r="E8" s="180"/>
+      <c r="F8" s="180"/>
+      <c r="G8" s="180"/>
+      <c r="H8" s="180"/>
+      <c r="I8" s="180"/>
+      <c r="J8" s="180"/>
+      <c r="K8" s="180"/>
+      <c r="L8" s="182"/>
+      <c r="M8" s="182"/>
+      <c r="N8" s="182"/>
+      <c r="O8" s="182"/>
+    </row>
+    <row r="9" spans="1:16" ht="24.95" customHeight="1">
+      <c r="A9" s="180" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="169"/>
-      <c r="C9" s="169"/>
-      <c r="D9" s="169"/>
-      <c r="E9" s="169"/>
-      <c r="F9" s="169"/>
-      <c r="G9" s="169"/>
-      <c r="H9" s="169"/>
-      <c r="I9" s="169"/>
-      <c r="J9" s="169"/>
-      <c r="K9" s="169"/>
-      <c r="L9" s="170"/>
-      <c r="M9" s="171"/>
-      <c r="N9" s="170"/>
-      <c r="O9" s="171"/>
-    </row>
-    <row r="10" spans="1:16" ht="24.9" customHeight="1">
-      <c r="A10" s="169"/>
-      <c r="B10" s="169"/>
-      <c r="C10" s="169"/>
-      <c r="D10" s="169"/>
-      <c r="E10" s="169"/>
-      <c r="F10" s="169"/>
-      <c r="G10" s="169"/>
-      <c r="H10" s="169"/>
-      <c r="I10" s="169"/>
-      <c r="J10" s="169"/>
-      <c r="K10" s="169"/>
-      <c r="L10" s="171"/>
-      <c r="M10" s="171"/>
-      <c r="N10" s="171"/>
-      <c r="O10" s="171"/>
-    </row>
-    <row r="11" spans="1:16" ht="24.9" customHeight="1">
-      <c r="A11" s="169" t="s">
+      <c r="B9" s="180"/>
+      <c r="C9" s="180"/>
+      <c r="D9" s="180"/>
+      <c r="E9" s="180"/>
+      <c r="F9" s="180"/>
+      <c r="G9" s="180"/>
+      <c r="H9" s="180"/>
+      <c r="I9" s="180"/>
+      <c r="J9" s="180"/>
+      <c r="K9" s="180"/>
+      <c r="L9" s="181"/>
+      <c r="M9" s="182"/>
+      <c r="N9" s="181"/>
+      <c r="O9" s="182"/>
+    </row>
+    <row r="10" spans="1:16" ht="24.95" customHeight="1">
+      <c r="A10" s="180"/>
+      <c r="B10" s="180"/>
+      <c r="C10" s="180"/>
+      <c r="D10" s="180"/>
+      <c r="E10" s="180"/>
+      <c r="F10" s="180"/>
+      <c r="G10" s="180"/>
+      <c r="H10" s="180"/>
+      <c r="I10" s="180"/>
+      <c r="J10" s="180"/>
+      <c r="K10" s="180"/>
+      <c r="L10" s="182"/>
+      <c r="M10" s="182"/>
+      <c r="N10" s="182"/>
+      <c r="O10" s="182"/>
+    </row>
+    <row r="11" spans="1:16" ht="24.95" customHeight="1">
+      <c r="A11" s="180" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="169"/>
-      <c r="C11" s="169"/>
-      <c r="D11" s="169"/>
-      <c r="E11" s="169"/>
-      <c r="F11" s="169"/>
-      <c r="G11" s="169"/>
-      <c r="H11" s="169"/>
-      <c r="I11" s="169"/>
-      <c r="J11" s="169"/>
-      <c r="K11" s="169"/>
-      <c r="L11" s="170"/>
-      <c r="M11" s="171"/>
-      <c r="N11" s="170"/>
-      <c r="O11" s="171"/>
-    </row>
-    <row r="12" spans="1:16" ht="24.9" customHeight="1">
-      <c r="A12" s="169"/>
-      <c r="B12" s="169"/>
-      <c r="C12" s="169"/>
-      <c r="D12" s="169"/>
-      <c r="E12" s="169"/>
-      <c r="F12" s="169"/>
-      <c r="G12" s="169"/>
-      <c r="H12" s="169"/>
-      <c r="I12" s="169"/>
-      <c r="J12" s="169"/>
-      <c r="K12" s="169"/>
-      <c r="L12" s="171"/>
-      <c r="M12" s="171"/>
-      <c r="N12" s="171"/>
-      <c r="O12" s="171"/>
-    </row>
-    <row r="13" spans="1:16" ht="24.9" customHeight="1">
-      <c r="A13" s="169" t="s">
+      <c r="B11" s="180"/>
+      <c r="C11" s="180"/>
+      <c r="D11" s="180"/>
+      <c r="E11" s="180"/>
+      <c r="F11" s="180"/>
+      <c r="G11" s="180"/>
+      <c r="H11" s="180"/>
+      <c r="I11" s="180"/>
+      <c r="J11" s="180"/>
+      <c r="K11" s="180"/>
+      <c r="L11" s="181"/>
+      <c r="M11" s="182"/>
+      <c r="N11" s="181"/>
+      <c r="O11" s="182"/>
+    </row>
+    <row r="12" spans="1:16" ht="24.95" customHeight="1">
+      <c r="A12" s="180"/>
+      <c r="B12" s="180"/>
+      <c r="C12" s="180"/>
+      <c r="D12" s="180"/>
+      <c r="E12" s="180"/>
+      <c r="F12" s="180"/>
+      <c r="G12" s="180"/>
+      <c r="H12" s="180"/>
+      <c r="I12" s="180"/>
+      <c r="J12" s="180"/>
+      <c r="K12" s="180"/>
+      <c r="L12" s="182"/>
+      <c r="M12" s="182"/>
+      <c r="N12" s="182"/>
+      <c r="O12" s="182"/>
+    </row>
+    <row r="13" spans="1:16" ht="24.95" customHeight="1">
+      <c r="A13" s="180" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="169"/>
-      <c r="C13" s="169"/>
-      <c r="D13" s="169"/>
-      <c r="E13" s="169"/>
-      <c r="F13" s="169"/>
-      <c r="G13" s="169"/>
-      <c r="H13" s="169"/>
-      <c r="I13" s="169"/>
-      <c r="J13" s="169"/>
-      <c r="K13" s="169"/>
-      <c r="L13" s="170"/>
-      <c r="M13" s="171"/>
-      <c r="N13" s="170"/>
-      <c r="O13" s="171"/>
-    </row>
-    <row r="14" spans="1:16" ht="24.9" customHeight="1">
-      <c r="A14" s="169"/>
-      <c r="B14" s="169"/>
-      <c r="C14" s="169"/>
-      <c r="D14" s="169"/>
-      <c r="E14" s="169"/>
-      <c r="F14" s="169"/>
-      <c r="G14" s="169"/>
-      <c r="H14" s="169"/>
-      <c r="I14" s="169"/>
-      <c r="J14" s="169"/>
-      <c r="K14" s="169"/>
-      <c r="L14" s="171"/>
-      <c r="M14" s="171"/>
-      <c r="N14" s="171"/>
-      <c r="O14" s="171"/>
-    </row>
-    <row r="15" spans="1:16" ht="24.9" customHeight="1">
-      <c r="A15" s="169" t="s">
+      <c r="B13" s="180"/>
+      <c r="C13" s="180"/>
+      <c r="D13" s="180"/>
+      <c r="E13" s="180"/>
+      <c r="F13" s="180"/>
+      <c r="G13" s="180"/>
+      <c r="H13" s="180"/>
+      <c r="I13" s="180"/>
+      <c r="J13" s="180"/>
+      <c r="K13" s="180"/>
+      <c r="L13" s="181"/>
+      <c r="M13" s="182"/>
+      <c r="N13" s="181"/>
+      <c r="O13" s="182"/>
+    </row>
+    <row r="14" spans="1:16" ht="24.95" customHeight="1">
+      <c r="A14" s="180"/>
+      <c r="B14" s="180"/>
+      <c r="C14" s="180"/>
+      <c r="D14" s="180"/>
+      <c r="E14" s="180"/>
+      <c r="F14" s="180"/>
+      <c r="G14" s="180"/>
+      <c r="H14" s="180"/>
+      <c r="I14" s="180"/>
+      <c r="J14" s="180"/>
+      <c r="K14" s="180"/>
+      <c r="L14" s="182"/>
+      <c r="M14" s="182"/>
+      <c r="N14" s="182"/>
+      <c r="O14" s="182"/>
+    </row>
+    <row r="15" spans="1:16" ht="24.95" customHeight="1">
+      <c r="A15" s="180" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="169"/>
-      <c r="C15" s="169"/>
-      <c r="D15" s="169"/>
-      <c r="E15" s="169"/>
-      <c r="F15" s="169"/>
-      <c r="G15" s="169"/>
-      <c r="H15" s="169"/>
-      <c r="I15" s="169"/>
-      <c r="J15" s="169"/>
-      <c r="K15" s="169"/>
-      <c r="L15" s="170"/>
-      <c r="M15" s="171"/>
-      <c r="N15" s="170"/>
-      <c r="O15" s="171"/>
-    </row>
-    <row r="16" spans="1:16" ht="24.9" customHeight="1">
-      <c r="A16" s="169"/>
-      <c r="B16" s="169"/>
-      <c r="C16" s="169"/>
-      <c r="D16" s="169"/>
-      <c r="E16" s="169"/>
-      <c r="F16" s="169"/>
-      <c r="G16" s="169"/>
-      <c r="H16" s="169"/>
-      <c r="I16" s="169"/>
-      <c r="J16" s="169"/>
-      <c r="K16" s="169"/>
-      <c r="L16" s="171"/>
-      <c r="M16" s="171"/>
-      <c r="N16" s="171"/>
-      <c r="O16" s="171"/>
-    </row>
-    <row r="17" spans="1:20" ht="24.9" customHeight="1">
-      <c r="A17" s="169" t="s">
+      <c r="B15" s="180"/>
+      <c r="C15" s="180"/>
+      <c r="D15" s="180"/>
+      <c r="E15" s="180"/>
+      <c r="F15" s="180"/>
+      <c r="G15" s="180"/>
+      <c r="H15" s="180"/>
+      <c r="I15" s="180"/>
+      <c r="J15" s="180"/>
+      <c r="K15" s="180"/>
+      <c r="L15" s="181"/>
+      <c r="M15" s="182"/>
+      <c r="N15" s="181"/>
+      <c r="O15" s="182"/>
+    </row>
+    <row r="16" spans="1:16" ht="24.95" customHeight="1">
+      <c r="A16" s="180"/>
+      <c r="B16" s="180"/>
+      <c r="C16" s="180"/>
+      <c r="D16" s="180"/>
+      <c r="E16" s="180"/>
+      <c r="F16" s="180"/>
+      <c r="G16" s="180"/>
+      <c r="H16" s="180"/>
+      <c r="I16" s="180"/>
+      <c r="J16" s="180"/>
+      <c r="K16" s="180"/>
+      <c r="L16" s="182"/>
+      <c r="M16" s="182"/>
+      <c r="N16" s="182"/>
+      <c r="O16" s="182"/>
+    </row>
+    <row r="17" spans="1:20" ht="24.95" customHeight="1">
+      <c r="A17" s="180" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="169"/>
-      <c r="C17" s="169"/>
-      <c r="D17" s="169"/>
-      <c r="E17" s="169"/>
-      <c r="F17" s="169"/>
-      <c r="G17" s="169"/>
-      <c r="H17" s="169"/>
-      <c r="I17" s="169"/>
-      <c r="J17" s="169"/>
-      <c r="K17" s="169"/>
-      <c r="L17" s="170"/>
-      <c r="M17" s="171"/>
-      <c r="N17" s="170"/>
-      <c r="O17" s="171"/>
-    </row>
-    <row r="18" spans="1:20" ht="24.9" customHeight="1">
-      <c r="A18" s="169"/>
-      <c r="B18" s="169"/>
-      <c r="C18" s="169"/>
-      <c r="D18" s="169"/>
-      <c r="E18" s="169"/>
-      <c r="F18" s="169"/>
-      <c r="G18" s="169"/>
-      <c r="H18" s="169"/>
-      <c r="I18" s="169"/>
-      <c r="J18" s="169"/>
-      <c r="K18" s="169"/>
-      <c r="L18" s="171"/>
-      <c r="M18" s="171"/>
-      <c r="N18" s="171"/>
-      <c r="O18" s="171"/>
-    </row>
-    <row r="19" spans="1:20" ht="24.9" customHeight="1">
-      <c r="A19" s="169" t="s">
+      <c r="B17" s="180"/>
+      <c r="C17" s="180"/>
+      <c r="D17" s="180"/>
+      <c r="E17" s="180"/>
+      <c r="F17" s="180"/>
+      <c r="G17" s="180"/>
+      <c r="H17" s="180"/>
+      <c r="I17" s="180"/>
+      <c r="J17" s="180"/>
+      <c r="K17" s="180"/>
+      <c r="L17" s="181"/>
+      <c r="M17" s="182"/>
+      <c r="N17" s="181"/>
+      <c r="O17" s="182"/>
+    </row>
+    <row r="18" spans="1:20" ht="24.95" customHeight="1">
+      <c r="A18" s="180"/>
+      <c r="B18" s="180"/>
+      <c r="C18" s="180"/>
+      <c r="D18" s="180"/>
+      <c r="E18" s="180"/>
+      <c r="F18" s="180"/>
+      <c r="G18" s="180"/>
+      <c r="H18" s="180"/>
+      <c r="I18" s="180"/>
+      <c r="J18" s="180"/>
+      <c r="K18" s="180"/>
+      <c r="L18" s="182"/>
+      <c r="M18" s="182"/>
+      <c r="N18" s="182"/>
+      <c r="O18" s="182"/>
+    </row>
+    <row r="19" spans="1:20" ht="24.95" customHeight="1">
+      <c r="A19" s="180" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="169"/>
-      <c r="C19" s="169"/>
-      <c r="D19" s="169"/>
-      <c r="E19" s="169"/>
-      <c r="F19" s="169"/>
-      <c r="G19" s="169"/>
-      <c r="H19" s="169"/>
-      <c r="I19" s="169"/>
-      <c r="J19" s="169"/>
-      <c r="K19" s="169"/>
-      <c r="L19" s="170"/>
-      <c r="M19" s="171"/>
-      <c r="N19" s="170"/>
-      <c r="O19" s="171"/>
-    </row>
-    <row r="20" spans="1:20" ht="24.9" customHeight="1">
-      <c r="A20" s="169"/>
-      <c r="B20" s="169"/>
-      <c r="C20" s="169"/>
-      <c r="D20" s="169"/>
-      <c r="E20" s="169"/>
-      <c r="F20" s="169"/>
-      <c r="G20" s="169"/>
-      <c r="H20" s="169"/>
-      <c r="I20" s="169"/>
-      <c r="J20" s="169"/>
-      <c r="K20" s="169"/>
-      <c r="L20" s="171"/>
-      <c r="M20" s="171"/>
-      <c r="N20" s="171"/>
-      <c r="O20" s="171"/>
-    </row>
-    <row r="21" spans="1:20" ht="24.9" customHeight="1">
-      <c r="A21" s="169" t="s">
+      <c r="B19" s="180"/>
+      <c r="C19" s="180"/>
+      <c r="D19" s="180"/>
+      <c r="E19" s="180"/>
+      <c r="F19" s="180"/>
+      <c r="G19" s="180"/>
+      <c r="H19" s="180"/>
+      <c r="I19" s="180"/>
+      <c r="J19" s="180"/>
+      <c r="K19" s="180"/>
+      <c r="L19" s="181"/>
+      <c r="M19" s="182"/>
+      <c r="N19" s="181"/>
+      <c r="O19" s="182"/>
+    </row>
+    <row r="20" spans="1:20" ht="24.95" customHeight="1">
+      <c r="A20" s="180"/>
+      <c r="B20" s="180"/>
+      <c r="C20" s="180"/>
+      <c r="D20" s="180"/>
+      <c r="E20" s="180"/>
+      <c r="F20" s="180"/>
+      <c r="G20" s="180"/>
+      <c r="H20" s="180"/>
+      <c r="I20" s="180"/>
+      <c r="J20" s="180"/>
+      <c r="K20" s="180"/>
+      <c r="L20" s="182"/>
+      <c r="M20" s="182"/>
+      <c r="N20" s="182"/>
+      <c r="O20" s="182"/>
+    </row>
+    <row r="21" spans="1:20" ht="24.95" customHeight="1">
+      <c r="A21" s="180" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="169"/>
-      <c r="C21" s="169"/>
-      <c r="D21" s="169"/>
-      <c r="E21" s="169"/>
-      <c r="F21" s="169"/>
-      <c r="G21" s="169"/>
-      <c r="H21" s="169"/>
-      <c r="I21" s="169"/>
-      <c r="J21" s="169"/>
-      <c r="K21" s="169"/>
-      <c r="L21" s="170"/>
-      <c r="M21" s="171"/>
-      <c r="N21" s="170"/>
-      <c r="O21" s="171"/>
-    </row>
-    <row r="22" spans="1:20" ht="24.9" customHeight="1">
-      <c r="A22" s="169"/>
-      <c r="B22" s="169"/>
-      <c r="C22" s="169"/>
-      <c r="D22" s="169"/>
-      <c r="E22" s="169"/>
-      <c r="F22" s="169"/>
-      <c r="G22" s="169"/>
-      <c r="H22" s="169"/>
-      <c r="I22" s="169"/>
-      <c r="J22" s="169"/>
-      <c r="K22" s="169"/>
-      <c r="L22" s="171"/>
-      <c r="M22" s="171"/>
-      <c r="N22" s="171"/>
-      <c r="O22" s="171"/>
-    </row>
-    <row r="23" spans="1:20" ht="24.9" customHeight="1">
-      <c r="A23" s="169" t="s">
+      <c r="B21" s="180"/>
+      <c r="C21" s="180"/>
+      <c r="D21" s="180"/>
+      <c r="E21" s="180"/>
+      <c r="F21" s="180"/>
+      <c r="G21" s="180"/>
+      <c r="H21" s="180"/>
+      <c r="I21" s="180"/>
+      <c r="J21" s="180"/>
+      <c r="K21" s="180"/>
+      <c r="L21" s="181"/>
+      <c r="M21" s="182"/>
+      <c r="N21" s="181"/>
+      <c r="O21" s="182"/>
+    </row>
+    <row r="22" spans="1:20" ht="24.95" customHeight="1">
+      <c r="A22" s="180"/>
+      <c r="B22" s="180"/>
+      <c r="C22" s="180"/>
+      <c r="D22" s="180"/>
+      <c r="E22" s="180"/>
+      <c r="F22" s="180"/>
+      <c r="G22" s="180"/>
+      <c r="H22" s="180"/>
+      <c r="I22" s="180"/>
+      <c r="J22" s="180"/>
+      <c r="K22" s="180"/>
+      <c r="L22" s="182"/>
+      <c r="M22" s="182"/>
+      <c r="N22" s="182"/>
+      <c r="O22" s="182"/>
+    </row>
+    <row r="23" spans="1:20" ht="24.95" customHeight="1">
+      <c r="A23" s="180" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="169"/>
-      <c r="C23" s="169"/>
-      <c r="D23" s="169"/>
-      <c r="E23" s="169"/>
-      <c r="F23" s="169"/>
-      <c r="G23" s="169"/>
-      <c r="H23" s="169"/>
-      <c r="I23" s="169"/>
-      <c r="J23" s="169"/>
-      <c r="K23" s="169"/>
-      <c r="L23" s="170"/>
-      <c r="M23" s="171"/>
-      <c r="N23" s="170"/>
-      <c r="O23" s="171"/>
-    </row>
-    <row r="24" spans="1:20" ht="24.9" customHeight="1">
-      <c r="A24" s="169"/>
-      <c r="B24" s="169"/>
-      <c r="C24" s="169"/>
-      <c r="D24" s="169"/>
-      <c r="E24" s="169"/>
-      <c r="F24" s="169"/>
-      <c r="G24" s="169"/>
-      <c r="H24" s="169"/>
-      <c r="I24" s="169"/>
-      <c r="J24" s="169"/>
-      <c r="K24" s="169"/>
-      <c r="L24" s="171"/>
-      <c r="M24" s="171"/>
-      <c r="N24" s="171"/>
-      <c r="O24" s="171"/>
-    </row>
-    <row r="25" spans="1:20" ht="24.9" customHeight="1">
-      <c r="A25" s="169" t="s">
+      <c r="B23" s="180"/>
+      <c r="C23" s="180"/>
+      <c r="D23" s="180"/>
+      <c r="E23" s="180"/>
+      <c r="F23" s="180"/>
+      <c r="G23" s="180"/>
+      <c r="H23" s="180"/>
+      <c r="I23" s="180"/>
+      <c r="J23" s="180"/>
+      <c r="K23" s="180"/>
+      <c r="L23" s="181"/>
+      <c r="M23" s="182"/>
+      <c r="N23" s="181"/>
+      <c r="O23" s="182"/>
+    </row>
+    <row r="24" spans="1:20" ht="24.95" customHeight="1">
+      <c r="A24" s="180"/>
+      <c r="B24" s="180"/>
+      <c r="C24" s="180"/>
+      <c r="D24" s="180"/>
+      <c r="E24" s="180"/>
+      <c r="F24" s="180"/>
+      <c r="G24" s="180"/>
+      <c r="H24" s="180"/>
+      <c r="I24" s="180"/>
+      <c r="J24" s="180"/>
+      <c r="K24" s="180"/>
+      <c r="L24" s="182"/>
+      <c r="M24" s="182"/>
+      <c r="N24" s="182"/>
+      <c r="O24" s="182"/>
+    </row>
+    <row r="25" spans="1:20" ht="24.95" customHeight="1">
+      <c r="A25" s="180" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="169"/>
-      <c r="C25" s="169"/>
-      <c r="D25" s="169"/>
-      <c r="E25" s="169"/>
-      <c r="F25" s="169"/>
-      <c r="G25" s="169"/>
-      <c r="H25" s="169"/>
-      <c r="I25" s="169"/>
-      <c r="J25" s="169"/>
-      <c r="K25" s="169"/>
-      <c r="L25" s="170"/>
-      <c r="M25" s="171"/>
-      <c r="N25" s="170"/>
-      <c r="O25" s="171"/>
-    </row>
-    <row r="26" spans="1:20" ht="24.9" customHeight="1">
-      <c r="A26" s="169"/>
-      <c r="B26" s="169"/>
-      <c r="C26" s="169"/>
-      <c r="D26" s="169"/>
-      <c r="E26" s="169"/>
-      <c r="F26" s="169"/>
-      <c r="G26" s="169"/>
-      <c r="H26" s="169"/>
-      <c r="I26" s="169"/>
-      <c r="J26" s="169"/>
-      <c r="K26" s="169"/>
-      <c r="L26" s="171"/>
-      <c r="M26" s="171"/>
-      <c r="N26" s="171"/>
-      <c r="O26" s="171"/>
+      <c r="B25" s="180"/>
+      <c r="C25" s="180"/>
+      <c r="D25" s="180"/>
+      <c r="E25" s="180"/>
+      <c r="F25" s="180"/>
+      <c r="G25" s="180"/>
+      <c r="H25" s="180"/>
+      <c r="I25" s="180"/>
+      <c r="J25" s="180"/>
+      <c r="K25" s="180"/>
+      <c r="L25" s="181"/>
+      <c r="M25" s="182"/>
+      <c r="N25" s="181"/>
+      <c r="O25" s="182"/>
+    </row>
+    <row r="26" spans="1:20" ht="24.95" customHeight="1">
+      <c r="A26" s="180"/>
+      <c r="B26" s="180"/>
+      <c r="C26" s="180"/>
+      <c r="D26" s="180"/>
+      <c r="E26" s="180"/>
+      <c r="F26" s="180"/>
+      <c r="G26" s="180"/>
+      <c r="H26" s="180"/>
+      <c r="I26" s="180"/>
+      <c r="J26" s="180"/>
+      <c r="K26" s="180"/>
+      <c r="L26" s="182"/>
+      <c r="M26" s="182"/>
+      <c r="N26" s="182"/>
+      <c r="O26" s="182"/>
     </row>
     <row r="27" spans="1:20" ht="15" customHeight="1">
       <c r="A27" s="13"/>
@@ -12393,7 +12555,7 @@
       <c r="N27" s="13"/>
       <c r="O27" s="13"/>
     </row>
-    <row r="28" spans="1:20" ht="24.9" customHeight="1">
+    <row r="28" spans="1:20" ht="24.95" customHeight="1">
       <c r="A28" s="13"/>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
@@ -12402,15 +12564,15 @@
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
-      <c r="I28" s="168" t="s">
+      <c r="I28" s="191" t="s">
         <v>17</v>
       </c>
-      <c r="J28" s="168"/>
-      <c r="K28" s="168"/>
-      <c r="L28" s="168"/>
-      <c r="M28" s="168"/>
-      <c r="N28" s="168"/>
-      <c r="O28" s="168"/>
+      <c r="J28" s="191"/>
+      <c r="K28" s="191"/>
+      <c r="L28" s="191"/>
+      <c r="M28" s="191"/>
+      <c r="N28" s="191"/>
+      <c r="O28" s="191"/>
       <c r="T28" s="1"/>
     </row>
     <row r="29" spans="1:20" ht="22.5" customHeight="1">
@@ -12422,16 +12584,16 @@
       <c r="F29" s="16"/>
       <c r="G29" s="13"/>
       <c r="H29" s="13"/>
-      <c r="I29" s="179" t="s">
+      <c r="I29" s="176" t="s">
         <v>2</v>
       </c>
-      <c r="J29" s="179"/>
-      <c r="K29" s="181"/>
-      <c r="L29" s="181"/>
-      <c r="M29" s="181"/>
-      <c r="N29" s="181"/>
-      <c r="O29" s="181"/>
-      <c r="P29" s="181"/>
+      <c r="J29" s="176"/>
+      <c r="K29" s="178"/>
+      <c r="L29" s="178"/>
+      <c r="M29" s="178"/>
+      <c r="N29" s="178"/>
+      <c r="O29" s="178"/>
+      <c r="P29" s="178"/>
     </row>
     <row r="30" spans="1:20" ht="22.5" customHeight="1" thickBot="1">
       <c r="A30" s="16"/>
@@ -12442,14 +12604,14 @@
       <c r="F30" s="16"/>
       <c r="G30" s="13"/>
       <c r="H30" s="13"/>
-      <c r="I30" s="180"/>
-      <c r="J30" s="180"/>
-      <c r="K30" s="182"/>
-      <c r="L30" s="182"/>
-      <c r="M30" s="182"/>
-      <c r="N30" s="182"/>
-      <c r="O30" s="182"/>
-      <c r="P30" s="182"/>
+      <c r="I30" s="177"/>
+      <c r="J30" s="177"/>
+      <c r="K30" s="179"/>
+      <c r="L30" s="179"/>
+      <c r="M30" s="179"/>
+      <c r="N30" s="179"/>
+      <c r="O30" s="179"/>
+      <c r="P30" s="179"/>
     </row>
     <row r="31" spans="1:20" ht="24.75" customHeight="1">
       <c r="A31" s="16"/>
@@ -12468,7 +12630,7 @@
       <c r="N31" s="14"/>
       <c r="O31" s="14"/>
     </row>
-    <row r="32" spans="1:20" ht="24.9" customHeight="1">
+    <row r="32" spans="1:20" ht="24.95" customHeight="1">
       <c r="A32" s="16"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -12477,15 +12639,15 @@
       <c r="F32" s="16"/>
       <c r="G32" s="13"/>
       <c r="H32" s="13"/>
-      <c r="I32" s="168" t="s">
+      <c r="I32" s="191" t="s">
         <v>9</v>
       </c>
-      <c r="J32" s="168"/>
-      <c r="K32" s="168"/>
-      <c r="L32" s="168"/>
-      <c r="M32" s="168"/>
-      <c r="N32" s="168"/>
-      <c r="O32" s="168"/>
+      <c r="J32" s="191"/>
+      <c r="K32" s="191"/>
+      <c r="L32" s="191"/>
+      <c r="M32" s="191"/>
+      <c r="N32" s="191"/>
+      <c r="O32" s="191"/>
     </row>
     <row r="33" spans="1:16" ht="22.5" customHeight="1">
       <c r="A33" s="16"/>
@@ -12496,16 +12658,16 @@
       <c r="F33" s="16"/>
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
-      <c r="I33" s="179" t="s">
+      <c r="I33" s="176" t="s">
         <v>2</v>
       </c>
-      <c r="J33" s="179"/>
-      <c r="K33" s="181"/>
-      <c r="L33" s="181"/>
-      <c r="M33" s="181"/>
-      <c r="N33" s="181"/>
-      <c r="O33" s="181"/>
-      <c r="P33" s="181"/>
+      <c r="J33" s="176"/>
+      <c r="K33" s="178"/>
+      <c r="L33" s="178"/>
+      <c r="M33" s="178"/>
+      <c r="N33" s="178"/>
+      <c r="O33" s="178"/>
+      <c r="P33" s="178"/>
     </row>
     <row r="34" spans="1:16" ht="22.5" customHeight="1" thickBot="1">
       <c r="A34" s="13"/>
@@ -12516,16 +12678,16 @@
       <c r="F34" s="13"/>
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
-      <c r="I34" s="180"/>
-      <c r="J34" s="180"/>
-      <c r="K34" s="182"/>
-      <c r="L34" s="182"/>
-      <c r="M34" s="182"/>
-      <c r="N34" s="182"/>
-      <c r="O34" s="182"/>
-      <c r="P34" s="182"/>
-    </row>
-    <row r="35" spans="1:16" ht="24.9" customHeight="1">
+      <c r="I34" s="177"/>
+      <c r="J34" s="177"/>
+      <c r="K34" s="179"/>
+      <c r="L34" s="179"/>
+      <c r="M34" s="179"/>
+      <c r="N34" s="179"/>
+      <c r="O34" s="179"/>
+      <c r="P34" s="179"/>
+    </row>
+    <row r="35" spans="1:16" ht="24.95" customHeight="1">
       <c r="A35" s="13"/>
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
@@ -12542,7 +12704,7 @@
       <c r="N35" s="13"/>
       <c r="O35" s="13"/>
     </row>
-    <row r="36" spans="1:16" ht="24.9" customHeight="1">
+    <row r="36" spans="1:16" ht="24.95" customHeight="1">
       <c r="A36" s="13"/>
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
@@ -12559,7 +12721,7 @@
       <c r="N36" s="13"/>
       <c r="O36" s="13"/>
     </row>
-    <row r="37" spans="1:16" ht="24.9" customHeight="1">
+    <row r="37" spans="1:16" ht="24.95" customHeight="1">
       <c r="A37" s="13"/>
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
@@ -12576,7 +12738,7 @@
       <c r="N37" s="13"/>
       <c r="O37" s="13"/>
     </row>
-    <row r="38" spans="1:16" ht="24.9" customHeight="1">
+    <row r="38" spans="1:16" ht="24.95" customHeight="1">
       <c r="A38" s="13"/>
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
@@ -12593,7 +12755,7 @@
       <c r="N38" s="13"/>
       <c r="O38" s="13"/>
     </row>
-    <row r="39" spans="1:16" ht="24.9" customHeight="1">
+    <row r="39" spans="1:16" ht="24.95" customHeight="1">
       <c r="A39" s="13"/>
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
@@ -12610,7 +12772,7 @@
       <c r="N39" s="13"/>
       <c r="O39" s="13"/>
     </row>
-    <row r="40" spans="1:16" ht="24.9" customHeight="1">
+    <row r="40" spans="1:16" ht="24.95" customHeight="1">
       <c r="A40" s="13"/>
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
@@ -12627,7 +12789,7 @@
       <c r="N40" s="13"/>
       <c r="O40" s="13"/>
     </row>
-    <row r="41" spans="1:16" ht="24.9" customHeight="1">
+    <row r="41" spans="1:16" ht="24.95" customHeight="1">
       <c r="A41" s="13"/>
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
@@ -12644,7 +12806,7 @@
       <c r="N41" s="13"/>
       <c r="O41" s="13"/>
     </row>
-    <row r="42" spans="1:16" ht="24.9" customHeight="1">
+    <row r="42" spans="1:16" ht="24.95" customHeight="1">
       <c r="A42" s="13"/>
       <c r="B42" s="13"/>
       <c r="C42" s="13"/>
@@ -12661,7 +12823,7 @@
       <c r="N42" s="13"/>
       <c r="O42" s="13"/>
     </row>
-    <row r="43" spans="1:16" ht="24.9" customHeight="1">
+    <row r="43" spans="1:16" ht="24.95" customHeight="1">
       <c r="A43" s="13"/>
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
@@ -12678,7 +12840,7 @@
       <c r="N43" s="13"/>
       <c r="O43" s="13"/>
     </row>
-    <row r="44" spans="1:16" ht="24.9" customHeight="1">
+    <row r="44" spans="1:16" ht="24.95" customHeight="1">
       <c r="A44" s="13"/>
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
@@ -12695,7 +12857,7 @@
       <c r="N44" s="13"/>
       <c r="O44" s="13"/>
     </row>
-    <row r="45" spans="1:16" ht="24.9" customHeight="1">
+    <row r="45" spans="1:16" ht="24.95" customHeight="1">
       <c r="A45" s="13"/>
       <c r="B45" s="13"/>
       <c r="C45" s="13"/>
@@ -12712,7 +12874,7 @@
       <c r="N45" s="13"/>
       <c r="O45" s="13"/>
     </row>
-    <row r="46" spans="1:16" ht="24.9" customHeight="1">
+    <row r="46" spans="1:16" ht="24.95" customHeight="1">
       <c r="A46" s="13"/>
       <c r="B46" s="13"/>
       <c r="C46" s="13"/>
@@ -12729,18 +12891,45 @@
       <c r="N46" s="13"/>
       <c r="O46" s="13"/>
     </row>
-    <row r="47" spans="1:16" ht="24.9" customHeight="1"/>
-    <row r="48" spans="1:16" ht="24.9" customHeight="1"/>
-    <row r="49" ht="24.9" customHeight="1"/>
-    <row r="50" ht="24.9" customHeight="1"/>
-    <row r="51" ht="24.9" customHeight="1"/>
-    <row r="52" ht="24.9" customHeight="1"/>
-    <row r="53" ht="24.9" customHeight="1"/>
-    <row r="54" ht="24.9" customHeight="1"/>
-    <row r="55" ht="24.9" customHeight="1"/>
+    <row r="47" spans="1:16" ht="24.95" customHeight="1"/>
+    <row r="48" spans="1:16" ht="24.95" customHeight="1"/>
+    <row r="49" ht="24.95" customHeight="1"/>
+    <row r="50" ht="24.95" customHeight="1"/>
+    <row r="51" ht="24.95" customHeight="1"/>
+    <row r="52" ht="24.95" customHeight="1"/>
+    <row r="53" ht="24.95" customHeight="1"/>
+    <row r="54" ht="24.95" customHeight="1"/>
+    <row r="55" ht="24.95" customHeight="1"/>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="43">
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A2:P3"/>
+    <mergeCell ref="I28:O28"/>
+    <mergeCell ref="I32:O32"/>
+    <mergeCell ref="A11:K12"/>
+    <mergeCell ref="L11:M12"/>
+    <mergeCell ref="N11:O12"/>
+    <mergeCell ref="A13:K14"/>
+    <mergeCell ref="L13:M14"/>
+    <mergeCell ref="N13:O14"/>
+    <mergeCell ref="A19:K20"/>
+    <mergeCell ref="L19:M20"/>
+    <mergeCell ref="N19:O20"/>
+    <mergeCell ref="N9:O10"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="L15:M16"/>
+    <mergeCell ref="L23:M24"/>
+    <mergeCell ref="N23:O24"/>
+    <mergeCell ref="A15:K16"/>
+    <mergeCell ref="A17:K18"/>
+    <mergeCell ref="L17:M18"/>
+    <mergeCell ref="N17:O18"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="L5:M6"/>
+    <mergeCell ref="N5:O6"/>
+    <mergeCell ref="A5:K6"/>
+    <mergeCell ref="N15:O16"/>
     <mergeCell ref="I29:J30"/>
     <mergeCell ref="I33:J34"/>
     <mergeCell ref="K29:P30"/>
@@ -12757,33 +12946,6 @@
     <mergeCell ref="A9:K10"/>
     <mergeCell ref="L9:M10"/>
     <mergeCell ref="A23:K24"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="L5:M6"/>
-    <mergeCell ref="N5:O6"/>
-    <mergeCell ref="A5:K6"/>
-    <mergeCell ref="N15:O16"/>
-    <mergeCell ref="L23:M24"/>
-    <mergeCell ref="N23:O24"/>
-    <mergeCell ref="A15:K16"/>
-    <mergeCell ref="A17:K18"/>
-    <mergeCell ref="L17:M18"/>
-    <mergeCell ref="N17:O18"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A2:P3"/>
-    <mergeCell ref="I28:O28"/>
-    <mergeCell ref="I32:O32"/>
-    <mergeCell ref="A11:K12"/>
-    <mergeCell ref="L11:M12"/>
-    <mergeCell ref="N11:O12"/>
-    <mergeCell ref="A13:K14"/>
-    <mergeCell ref="L13:M14"/>
-    <mergeCell ref="N13:O14"/>
-    <mergeCell ref="A19:K20"/>
-    <mergeCell ref="L19:M20"/>
-    <mergeCell ref="N19:O20"/>
-    <mergeCell ref="N9:O10"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="L15:M16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="L7:O26 I29 K29 I33 K33">

--- a/４．【アイテ゛アシート】_神戸高専B_.xlsx
+++ b/４．【アイテ゛アシート】_神戸高専B_.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fsota\OneDrive\ドキュメント\GitHub\2023honrobo-document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9789E0E-2716-4883-B02F-47A795C148A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA86A08-8694-4C33-8541-5065A58743E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" tabRatio="703" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="703" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
-    <sheet name="(1) チーム情報" sheetId="9" r:id="rId2"/>
+    <sheet name="(1) チーム情報 " sheetId="30" r:id="rId2"/>
     <sheet name="（2）ロボットスペック表①" sheetId="20" r:id="rId3"/>
     <sheet name="（２）ロボット詳細図②" sheetId="21" r:id="rId4"/>
     <sheet name="（２）ロボット機構説明③" sheetId="22" r:id="rId5"/>
@@ -23,7 +23,7 @@
     <sheet name="(５) チェック項目" sheetId="14" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'(1) チーム情報'!$A$1:$P$33</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'(1) チーム情報 '!$A$1:$P$33</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'（2）ロボットスペック表①'!$A$1:$P$14</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'（２）ロボット機構説明③'!$A$1:$P$29</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'（２）ロボット詳細図②'!$A:$P</definedName>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="95">
   <si>
     <t>高専名</t>
     <rPh sb="0" eb="2">
@@ -937,181 +937,46 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>＜アピールポイント＞</t>
+    <t>＜チームの目標＞</t>
+    <rPh sb="5" eb="7">
+      <t>モクヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>＜アイデアのアピールポイント＞</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>周回最速を目指すためのアイディアを考えました。移動速度とフルーツの回収速度の両方を成り立たせるためにロボットの真ん中の部分がロープを越える際に段階的に分離していく「ハラキリ機構」を開発しました。これによりロボットの上部に回収機構を搭載することが出来、フルーツの回収効率も上げられるようにしています。角材を越える際にもエアシリンダの速い直動運動によって車輪を持ち上げロボットの速度を落とさずにコースを駆け回れるようにしています。ロボットの移動にはメカナムホイールを採用しており、直進方向には速く、相手がどのような動きをしても柔軟に対応できるようにしています。</t>
+    <rPh sb="5" eb="7">
+      <t>メザ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>イドウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t xml:space="preserve">「周回最速」
-チームの目標として、周回速度を限界まで突き詰めてフルーツをどのチームよりも先に回収することを念頭に開発をしています。
-周回速度とフルーツの回収速度の両方を成り立たせるためにロボットの真ん中の部分がロープを越える際に段階的に分離していく「ハラキリ機構」を開発しました。これによりロボットの上部に回収機構を搭載することが出来、フルーツの回収効率も上げられるようにしています。角材を越える際にもエアシリンダの速い直動運動によって車輪を持ち上げロボットの速度を落とさずにコースを駆け回れるようにしています。ロボットの移動にはメカナムホイールを採用しており、直進方向には速く、相手がどのような動きをしても柔軟に対応できるようにしています。
+チームの目標として、周回速度を限界まで突き詰めてフルーツをどのチームよりも先に回収することを目標に開発をしています。
 </t>
-    <rPh sb="1" eb="3">
-      <t>シュウカイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>サイソク</t>
-    </rPh>
-    <rPh sb="11" eb="13">
+    <rPh sb="53" eb="55">
       <t>モクヒョウ</t>
     </rPh>
-    <rPh sb="17" eb="21">
-      <t>シュウカイソクド</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ゲンカイ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>ツ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>ツ</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>サキ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>カイシュウ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>ネントウ</t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t>カイハツ</t>
-    </rPh>
-    <rPh sb="66" eb="70">
-      <t>シュウカイソクド</t>
-    </rPh>
-    <rPh sb="76" eb="78">
-      <t>カイシュウ</t>
-    </rPh>
-    <rPh sb="78" eb="80">
-      <t>ソクド</t>
-    </rPh>
-    <rPh sb="81" eb="83">
-      <t>リョウホウ</t>
-    </rPh>
-    <rPh sb="84" eb="85">
-      <t>ナ</t>
-    </rPh>
-    <rPh sb="86" eb="87">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="98" eb="99">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="100" eb="101">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="102" eb="104">
-      <t>ブブン</t>
-    </rPh>
-    <rPh sb="109" eb="110">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="112" eb="113">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="114" eb="116">
-      <t>ダンカイ</t>
-    </rPh>
-    <rPh sb="116" eb="117">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="118" eb="120">
-      <t>ブンリ</t>
-    </rPh>
-    <rPh sb="129" eb="131">
-      <t>キコウ</t>
-    </rPh>
-    <rPh sb="133" eb="135">
-      <t>カイハツ</t>
-    </rPh>
-    <rPh sb="150" eb="152">
-      <t>ジョウブ</t>
-    </rPh>
-    <rPh sb="153" eb="157">
-      <t>カイシュウキコウ</t>
-    </rPh>
-    <rPh sb="158" eb="160">
-      <t>トウサイ</t>
-    </rPh>
-    <rPh sb="165" eb="167">
-      <t>デキ</t>
-    </rPh>
-    <rPh sb="173" eb="175">
-      <t>カイシュウ</t>
-    </rPh>
-    <rPh sb="175" eb="177">
-      <t>コウリツ</t>
-    </rPh>
-    <rPh sb="178" eb="179">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="192" eb="194">
-      <t>カクザイ</t>
-    </rPh>
-    <rPh sb="195" eb="196">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="198" eb="199">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="208" eb="209">
-      <t>ハヤ</t>
-    </rPh>
-    <rPh sb="210" eb="212">
-      <t>チョクドウ</t>
-    </rPh>
-    <rPh sb="212" eb="214">
-      <t>ウンドウ</t>
-    </rPh>
-    <rPh sb="218" eb="220">
-      <t>シャリン</t>
-    </rPh>
-    <rPh sb="221" eb="222">
-      <t>モ</t>
-    </rPh>
-    <rPh sb="223" eb="224">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="230" eb="232">
-      <t>ソクド</t>
-    </rPh>
-    <rPh sb="233" eb="234">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="242" eb="243">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="244" eb="245">
-      <t>マワ</t>
-    </rPh>
-    <rPh sb="261" eb="263">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="274" eb="276">
-      <t>サイヨウ</t>
-    </rPh>
-    <rPh sb="281" eb="283">
-      <t>チョクシン</t>
-    </rPh>
-    <rPh sb="283" eb="285">
-      <t>ホウコウ</t>
-    </rPh>
-    <rPh sb="287" eb="288">
-      <t>ハヤ</t>
-    </rPh>
-    <rPh sb="290" eb="292">
-      <t>アイテ</t>
-    </rPh>
-    <rPh sb="298" eb="299">
-      <t>ウゴ</t>
-    </rPh>
-    <rPh sb="304" eb="306">
-      <t>ジュウナン</t>
-    </rPh>
-    <rPh sb="307" eb="309">
-      <t>タイオウ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>24Vバッテリー×2
+圧縮空気エアタンク 705cc×10本</t>
+    <rPh sb="11" eb="15">
+      <t>アッシュククウキ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ホン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1722,7 +1587,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="202">
+  <cellXfs count="192">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1865,8 +1730,40 @@
     <xf numFmtId="0" fontId="43" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1899,105 +1796,175 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2024,18 +1991,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -2055,99 +2010,6 @@
     <xf numFmtId="0" fontId="39" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2329,6 +2191,47 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2341,83 +2244,6 @@
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -3006,10 +2832,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2">
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B60737C2-4AC9-4BAD-AE0D-F781AE380846}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B9A6CE1-E942-4E67-BB8E-6EE8C5300F51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3017,8 +2843,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7217535" y="4574683"/>
-          <a:ext cx="5143500" cy="979331"/>
+          <a:off x="6322883" y="2511917"/>
+          <a:ext cx="4590996" cy="503242"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6504,28 +6330,28 @@
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="5.88671875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="16" width="5.625" customWidth="1"/>
+    <col min="1" max="16" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="94.5" customHeight="1">
-      <c r="A1" s="63"/>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
+      <c r="A1" s="53"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1">
       <c r="A2" s="4"/>
@@ -6544,134 +6370,134 @@
       <c r="N2" s="4"/>
     </row>
     <row r="3" spans="1:16" ht="22.5" customHeight="1">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64"/>
-      <c r="M3" s="64"/>
-      <c r="N3" s="64"/>
-      <c r="O3" s="64"/>
-      <c r="P3" s="64"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
     </row>
     <row r="4" spans="1:16" ht="22.5" customHeight="1">
-      <c r="A4" s="64"/>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="64"/>
-      <c r="M4" s="64"/>
-      <c r="N4" s="64"/>
-      <c r="O4" s="64"/>
-      <c r="P4" s="64"/>
+      <c r="A4" s="54"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="54"/>
     </row>
     <row r="5" spans="1:16" ht="22.5" customHeight="1">
-      <c r="A5" s="64"/>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="64"/>
-      <c r="K5" s="64"/>
-      <c r="L5" s="64"/>
-      <c r="M5" s="64"/>
-      <c r="N5" s="64"/>
-      <c r="O5" s="64"/>
-      <c r="P5" s="64"/>
+      <c r="A5" s="54"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="54"/>
     </row>
     <row r="6" spans="1:16" ht="22.5" customHeight="1">
-      <c r="A6" s="64"/>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64"/>
-      <c r="M6" s="64"/>
-      <c r="N6" s="64"/>
-      <c r="O6" s="64"/>
-      <c r="P6" s="64"/>
+      <c r="A6" s="54"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="54"/>
+      <c r="P6" s="54"/>
     </row>
     <row r="7" spans="1:16" ht="22.5" customHeight="1">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="65"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="65"/>
-      <c r="K7" s="65"/>
-      <c r="L7" s="65"/>
-      <c r="M7" s="65"/>
-      <c r="N7" s="65"/>
-      <c r="O7" s="65"/>
-      <c r="P7" s="65"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="55"/>
+      <c r="M7" s="55"/>
+      <c r="N7" s="55"/>
+      <c r="O7" s="55"/>
+      <c r="P7" s="55"/>
     </row>
     <row r="8" spans="1:16" ht="22.5" customHeight="1">
-      <c r="A8" s="65"/>
-      <c r="B8" s="65"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="65"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="65"/>
-      <c r="J8" s="65"/>
-      <c r="K8" s="65"/>
-      <c r="L8" s="65"/>
-      <c r="M8" s="65"/>
-      <c r="N8" s="65"/>
-      <c r="O8" s="65"/>
-      <c r="P8" s="65"/>
+      <c r="A8" s="55"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="55"/>
+      <c r="M8" s="55"/>
+      <c r="N8" s="55"/>
+      <c r="O8" s="55"/>
+      <c r="P8" s="55"/>
     </row>
     <row r="9" spans="1:16" ht="22.5" customHeight="1">
-      <c r="A9" s="65"/>
-      <c r="B9" s="65"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="65"/>
-      <c r="L9" s="65"/>
-      <c r="M9" s="65"/>
-      <c r="N9" s="65"/>
-      <c r="O9" s="65"/>
-      <c r="P9" s="65"/>
+      <c r="A9" s="55"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="55"/>
+      <c r="M9" s="55"/>
+      <c r="N9" s="55"/>
+      <c r="O9" s="55"/>
+      <c r="P9" s="55"/>
     </row>
     <row r="10" spans="1:16" ht="24" customHeight="1">
       <c r="A10" s="5"/>
@@ -6696,20 +6522,20 @@
       <c r="B11" s="56"/>
       <c r="C11" s="56"/>
       <c r="D11" s="56"/>
-      <c r="E11" s="62" t="s">
+      <c r="E11" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="62"/>
-      <c r="L11" s="62"/>
-      <c r="M11" s="62"/>
-      <c r="N11" s="62"/>
-      <c r="O11" s="62"/>
-      <c r="P11" s="62"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="51"/>
+      <c r="O11" s="51"/>
+      <c r="P11" s="51"/>
     </row>
     <row r="12" spans="1:16" ht="15" customHeight="1">
       <c r="A12" s="21"/>
@@ -6734,18 +6560,18 @@
       <c r="B13" s="56"/>
       <c r="C13" s="56"/>
       <c r="D13" s="56"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="62"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="62"/>
-      <c r="K13" s="62"/>
-      <c r="L13" s="62"/>
-      <c r="M13" s="62"/>
-      <c r="N13" s="62"/>
-      <c r="O13" s="62"/>
-      <c r="P13" s="62"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="51"/>
+      <c r="M13" s="51"/>
+      <c r="N13" s="51"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="51"/>
     </row>
     <row r="14" spans="1:16" ht="15" customHeight="1">
       <c r="B14" s="23"/>
@@ -6769,20 +6595,20 @@
       <c r="B15" s="56"/>
       <c r="C15" s="56"/>
       <c r="D15" s="56"/>
-      <c r="E15" s="62" t="s">
+      <c r="E15" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="62"/>
-      <c r="L15" s="62"/>
-      <c r="M15" s="62"/>
-      <c r="N15" s="62"/>
-      <c r="O15" s="62"/>
-      <c r="P15" s="62"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="51"/>
+      <c r="N15" s="51"/>
+      <c r="O15" s="51"/>
+      <c r="P15" s="51"/>
     </row>
     <row r="16" spans="1:16" ht="15" customHeight="1">
       <c r="B16" s="23"/>
@@ -6800,22 +6626,22 @@
       <c r="N16" s="1"/>
     </row>
     <row r="17" spans="1:16" ht="30" customHeight="1">
-      <c r="A17" s="57"/>
-      <c r="B17" s="57"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="67"/>
-      <c r="I17" s="67"/>
-      <c r="J17" s="67"/>
-      <c r="K17" s="67"/>
-      <c r="L17" s="67"/>
-      <c r="M17" s="67"/>
-      <c r="N17" s="67"/>
-      <c r="O17" s="67"/>
-      <c r="P17" s="67"/>
+      <c r="A17" s="66"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="52"/>
+      <c r="O17" s="52"/>
+      <c r="P17" s="52"/>
     </row>
     <row r="18" spans="1:16" ht="24" customHeight="1">
       <c r="D18" s="23"/>
@@ -6831,11 +6657,11 @@
       <c r="N18" s="23"/>
     </row>
     <row r="19" spans="1:16" ht="24" customHeight="1">
-      <c r="A19" s="58" t="s">
+      <c r="A19" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="58"/>
-      <c r="C19" s="58"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
       <c r="D19" s="23"/>
       <c r="E19" s="23"/>
       <c r="F19" s="23"/>
@@ -6847,25 +6673,25 @@
     </row>
     <row r="20" spans="1:16" ht="24" customHeight="1">
       <c r="A20" s="23"/>
-      <c r="B20" s="59" t="s">
+      <c r="B20" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="60"/>
-      <c r="D20" s="62" t="s">
+      <c r="C20" s="48"/>
+      <c r="D20" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="62"/>
-      <c r="K20" s="62"/>
-      <c r="L20" s="62"/>
-      <c r="M20" s="62"/>
-      <c r="N20" s="62"/>
-      <c r="O20" s="62"/>
-      <c r="P20" s="62"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="51"/>
+      <c r="M20" s="51"/>
+      <c r="N20" s="51"/>
+      <c r="O20" s="51"/>
+      <c r="P20" s="51"/>
     </row>
     <row r="21" spans="1:16" ht="15" customHeight="1">
       <c r="B21" s="2"/>
@@ -6883,25 +6709,25 @@
     </row>
     <row r="22" spans="1:16" ht="24" customHeight="1">
       <c r="A22" s="23"/>
-      <c r="B22" s="61" t="s">
+      <c r="B22" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="61"/>
-      <c r="D22" s="62" t="s">
+      <c r="C22" s="50"/>
+      <c r="D22" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="62"/>
-      <c r="J22" s="62"/>
-      <c r="K22" s="62"/>
-      <c r="L22" s="62"/>
-      <c r="M22" s="62"/>
-      <c r="N22" s="62"/>
-      <c r="O22" s="62"/>
-      <c r="P22" s="62"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="51"/>
+      <c r="L22" s="51"/>
+      <c r="M22" s="51"/>
+      <c r="N22" s="51"/>
+      <c r="O22" s="51"/>
+      <c r="P22" s="51"/>
     </row>
     <row r="23" spans="1:16" ht="15" customHeight="1">
       <c r="B23" s="2"/>
@@ -6919,23 +6745,23 @@
     </row>
     <row r="24" spans="1:16" ht="24" customHeight="1">
       <c r="A24" s="23"/>
-      <c r="B24" s="60" t="s">
+      <c r="B24" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="60"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="62"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="62"/>
-      <c r="J24" s="62"/>
-      <c r="K24" s="62"/>
-      <c r="L24" s="62"/>
-      <c r="M24" s="62"/>
-      <c r="N24" s="62"/>
-      <c r="O24" s="62"/>
-      <c r="P24" s="62"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="51"/>
+      <c r="L24" s="51"/>
+      <c r="M24" s="51"/>
+      <c r="N24" s="51"/>
+      <c r="O24" s="51"/>
+      <c r="P24" s="51"/>
     </row>
     <row r="25" spans="1:16" ht="15" customHeight="1">
       <c r="B25" s="2"/>
@@ -6953,32 +6779,32 @@
     </row>
     <row r="26" spans="1:16" ht="24" customHeight="1">
       <c r="A26" s="23"/>
-      <c r="B26" s="60" t="s">
+      <c r="B26" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="60"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="62"/>
-      <c r="H26" s="62"/>
-      <c r="I26" s="62"/>
-      <c r="J26" s="62"/>
-      <c r="K26" s="62"/>
-      <c r="L26" s="62"/>
-      <c r="M26" s="62"/>
-      <c r="N26" s="62"/>
-      <c r="O26" s="62"/>
-      <c r="P26" s="62"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="51"/>
+      <c r="K26" s="51"/>
+      <c r="L26" s="51"/>
+      <c r="M26" s="51"/>
+      <c r="N26" s="51"/>
+      <c r="O26" s="51"/>
+      <c r="P26" s="51"/>
     </row>
     <row r="27" spans="1:16" ht="24" customHeight="1"/>
     <row r="28" spans="1:16" ht="24" customHeight="1">
-      <c r="A28" s="58" t="s">
+      <c r="A28" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="58"/>
-      <c r="C28" s="58"/>
-      <c r="D28" s="58"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
       <c r="E28" s="23"/>
       <c r="F28" s="23"/>
       <c r="G28" s="23"/>
@@ -6990,25 +6816,25 @@
     </row>
     <row r="29" spans="1:16" ht="24" customHeight="1">
       <c r="A29" s="23"/>
-      <c r="B29" s="59" t="s">
+      <c r="B29" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="60"/>
-      <c r="D29" s="62" t="s">
+      <c r="C29" s="48"/>
+      <c r="D29" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="E29" s="62"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="62"/>
-      <c r="H29" s="62"/>
-      <c r="I29" s="62"/>
-      <c r="J29" s="62"/>
-      <c r="K29" s="62"/>
-      <c r="L29" s="62"/>
-      <c r="M29" s="62"/>
-      <c r="N29" s="62"/>
-      <c r="O29" s="62"/>
-      <c r="P29" s="62"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="51"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="51"/>
+      <c r="J29" s="51"/>
+      <c r="K29" s="51"/>
+      <c r="L29" s="51"/>
+      <c r="M29" s="51"/>
+      <c r="N29" s="51"/>
+      <c r="O29" s="51"/>
+      <c r="P29" s="51"/>
     </row>
     <row r="30" spans="1:16" ht="15" customHeight="1">
       <c r="B30" s="23"/>
@@ -7026,25 +6852,25 @@
     </row>
     <row r="31" spans="1:16" ht="24" customHeight="1">
       <c r="A31" s="23"/>
-      <c r="B31" s="66" t="s">
+      <c r="B31" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="61"/>
-      <c r="D31" s="62" t="s">
+      <c r="C31" s="50"/>
+      <c r="D31" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="E31" s="62"/>
-      <c r="F31" s="62"/>
-      <c r="G31" s="62"/>
-      <c r="H31" s="62"/>
-      <c r="I31" s="62"/>
-      <c r="J31" s="62"/>
-      <c r="K31" s="62"/>
-      <c r="L31" s="62"/>
-      <c r="M31" s="62"/>
-      <c r="N31" s="62"/>
-      <c r="O31" s="62"/>
-      <c r="P31" s="62"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="51"/>
+      <c r="J31" s="51"/>
+      <c r="K31" s="51"/>
+      <c r="L31" s="51"/>
+      <c r="M31" s="51"/>
+      <c r="N31" s="51"/>
+      <c r="O31" s="51"/>
+      <c r="P31" s="51"/>
     </row>
     <row r="32" spans="1:16" ht="24" customHeight="1">
       <c r="A32" s="23"/>
@@ -7065,42 +6891,42 @@
     <row r="33" spans="1:15" ht="15" customHeight="1">
       <c r="A33" s="25"/>
       <c r="B33" s="25"/>
-      <c r="C33" s="50">
+      <c r="C33" s="60">
         <v>6</v>
       </c>
-      <c r="D33" s="52" t="s">
+      <c r="D33" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="E33" s="54">
+      <c r="E33" s="64">
         <v>27</v>
       </c>
-      <c r="F33" s="47" t="s">
+      <c r="F33" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="G33" s="48"/>
-      <c r="H33" s="48"/>
-      <c r="I33" s="48"/>
-      <c r="J33" s="48"/>
-      <c r="K33" s="48"/>
-      <c r="L33" s="48"/>
-      <c r="M33" s="48"/>
-      <c r="N33" s="48"/>
+      <c r="G33" s="58"/>
+      <c r="H33" s="58"/>
+      <c r="I33" s="58"/>
+      <c r="J33" s="58"/>
+      <c r="K33" s="58"/>
+      <c r="L33" s="58"/>
+      <c r="M33" s="58"/>
+      <c r="N33" s="58"/>
       <c r="O33" s="24"/>
     </row>
     <row r="34" spans="1:15" ht="15" customHeight="1">
       <c r="A34" s="25"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="53"/>
-      <c r="E34" s="55"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="49"/>
-      <c r="H34" s="49"/>
-      <c r="I34" s="49"/>
-      <c r="J34" s="49"/>
-      <c r="K34" s="49"/>
-      <c r="L34" s="49"/>
-      <c r="M34" s="49"/>
-      <c r="N34" s="49"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="65"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="59"/>
+      <c r="H34" s="59"/>
+      <c r="I34" s="59"/>
+      <c r="J34" s="59"/>
+      <c r="K34" s="59"/>
+      <c r="L34" s="59"/>
+      <c r="M34" s="59"/>
+      <c r="N34" s="59"/>
       <c r="O34" s="24"/>
     </row>
     <row r="35" spans="1:15" ht="15" customHeight="1">
@@ -7110,19 +6936,6 @@
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="29">
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="E13:P13"/>
-    <mergeCell ref="E15:P15"/>
-    <mergeCell ref="E17:P17"/>
-    <mergeCell ref="D20:P20"/>
-    <mergeCell ref="D22:P22"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A3:P6"/>
-    <mergeCell ref="A7:P9"/>
-    <mergeCell ref="E11:P11"/>
-    <mergeCell ref="A15:D15"/>
     <mergeCell ref="F33:N34"/>
     <mergeCell ref="C33:C34"/>
     <mergeCell ref="D33:D34"/>
@@ -7139,6 +6952,19 @@
     <mergeCell ref="D26:P26"/>
     <mergeCell ref="D29:P29"/>
     <mergeCell ref="D31:P31"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A3:P6"/>
+    <mergeCell ref="A7:P9"/>
+    <mergeCell ref="E11:P11"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="E13:P13"/>
+    <mergeCell ref="E15:P15"/>
+    <mergeCell ref="E17:P17"/>
+    <mergeCell ref="D20:P20"/>
+    <mergeCell ref="D22:P22"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="C33:C34 E33:E34">
@@ -7167,132 +6993,131 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr codeName="Sheet2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B168B418-52F7-4484-BBD6-B24A0DFE07EB}">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:P23"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A11" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:P33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.5" defaultRowHeight="25.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="5.44140625" defaultRowHeight="25.5" customHeight="1"/>
   <cols>
-    <col min="1" max="16" width="5.625" customWidth="1"/>
+    <col min="1" max="16" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="30" customHeight="1">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-    </row>
-    <row r="2" spans="1:16" ht="24.95" customHeight="1"/>
-    <row r="3" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A3" s="71" t="s">
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+    </row>
+    <row r="2" spans="1:16" ht="24.9" customHeight="1"/>
+    <row r="3" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A3" s="82" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="83" t="s">
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
-    </row>
-    <row r="4" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A4" s="69" t="s">
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="81"/>
+      <c r="L3" s="81"/>
+    </row>
+    <row r="4" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69" t="s">
+      <c r="B4" s="78"/>
+      <c r="C4" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69" t="s">
+      <c r="D4" s="78"/>
+      <c r="E4" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69" t="s">
+      <c r="F4" s="78"/>
+      <c r="G4" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69" t="s">
+      <c r="H4" s="78"/>
+      <c r="I4" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69" t="s">
+      <c r="J4" s="78"/>
+      <c r="K4" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="69"/>
+      <c r="L4" s="78"/>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
     </row>
-    <row r="5" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A5" s="68">
+    <row r="5" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A5" s="83">
         <v>4</v>
       </c>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68">
+      <c r="B5" s="83"/>
+      <c r="C5" s="83">
         <v>1</v>
       </c>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68">
+      <c r="D5" s="83"/>
+      <c r="E5" s="83">
         <v>3</v>
       </c>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68">
+      <c r="F5" s="83"/>
+      <c r="G5" s="83">
         <v>2</v>
       </c>
-      <c r="H5" s="68"/>
-      <c r="I5" s="68">
+      <c r="H5" s="83"/>
+      <c r="I5" s="83">
         <v>0</v>
       </c>
-      <c r="J5" s="68"/>
-      <c r="K5" s="68">
-        <v>8</v>
+      <c r="J5" s="83"/>
+      <c r="K5" s="83">
+        <v>10</v>
       </c>
-      <c r="L5" s="68"/>
+      <c r="L5" s="83"/>
       <c r="M5" s="18"/>
       <c r="N5" s="18"/>
     </row>
-    <row r="6" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A6" s="68"/>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="68"/>
-      <c r="H6" s="68"/>
-      <c r="I6" s="68"/>
-      <c r="J6" s="68"/>
-      <c r="K6" s="68"/>
-      <c r="L6" s="68"/>
+    <row r="6" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A6" s="83"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
+      <c r="J6" s="83"/>
+      <c r="K6" s="83"/>
+      <c r="L6" s="83"/>
       <c r="M6" s="18"/>
       <c r="N6" s="18"/>
     </row>
-    <row r="7" spans="1:16" ht="24.95" customHeight="1">
+    <row r="7" spans="1:16" ht="24.9" customHeight="1">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -7308,16 +7133,16 @@
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
     </row>
-    <row r="8" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A8" s="72" t="s">
+    <row r="8" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A8" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="72"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="79"/>
       <c r="H8" s="17"/>
       <c r="I8" s="17"/>
       <c r="J8" s="17"/>
@@ -7326,77 +7151,77 @@
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
     </row>
-    <row r="9" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A9" s="70" t="s">
+    <row r="9" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A9" s="77" t="s">
         <v>81</v>
       </c>
-      <c r="B9" s="70"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70" t="s">
+      <c r="B9" s="77"/>
+      <c r="C9" s="77"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="77"/>
+      <c r="H9" s="77" t="s">
         <v>78</v>
       </c>
-      <c r="I9" s="70"/>
-      <c r="J9" s="70"/>
-      <c r="K9" s="70"/>
-      <c r="L9" s="70"/>
-      <c r="M9" s="70"/>
-      <c r="N9" s="70"/>
-    </row>
-    <row r="10" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A10" s="70" t="s">
+      <c r="I9" s="77"/>
+      <c r="J9" s="77"/>
+      <c r="K9" s="77"/>
+      <c r="L9" s="77"/>
+      <c r="M9" s="77"/>
+      <c r="N9" s="77"/>
+    </row>
+    <row r="10" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A10" s="77" t="s">
         <v>82</v>
       </c>
-      <c r="B10" s="70"/>
-      <c r="C10" s="70"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="70"/>
-      <c r="K10" s="70"/>
-      <c r="L10" s="70"/>
-      <c r="M10" s="70"/>
-      <c r="N10" s="70"/>
-    </row>
-    <row r="11" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A11" s="70"/>
-      <c r="B11" s="70"/>
-      <c r="C11" s="70"/>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="70"/>
-      <c r="K11" s="70"/>
-      <c r="L11" s="70"/>
-      <c r="M11" s="70"/>
-      <c r="N11" s="70"/>
-    </row>
-    <row r="12" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A12" s="70"/>
-      <c r="B12" s="70"/>
-      <c r="C12" s="70"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="70"/>
-      <c r="K12" s="70"/>
-      <c r="L12" s="70"/>
-      <c r="M12" s="70"/>
-      <c r="N12" s="70"/>
-    </row>
-    <row r="13" spans="1:16" ht="24.95" customHeight="1">
+      <c r="B10" s="77"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="77"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="77"/>
+      <c r="J10" s="77"/>
+      <c r="K10" s="77"/>
+      <c r="L10" s="77"/>
+      <c r="M10" s="77"/>
+      <c r="N10" s="77"/>
+    </row>
+    <row r="11" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A11" s="77"/>
+      <c r="B11" s="77"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="77"/>
+      <c r="I11" s="77"/>
+      <c r="J11" s="77"/>
+      <c r="K11" s="77"/>
+      <c r="L11" s="77"/>
+      <c r="M11" s="77"/>
+      <c r="N11" s="77"/>
+    </row>
+    <row r="12" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A12" s="77"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="77"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="77"/>
+      <c r="H12" s="77"/>
+      <c r="I12" s="77"/>
+      <c r="J12" s="77"/>
+      <c r="K12" s="77"/>
+      <c r="L12" s="77"/>
+      <c r="M12" s="77"/>
+      <c r="N12" s="77"/>
+    </row>
+    <row r="13" spans="1:16" ht="24.9" customHeight="1">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -7412,9 +7237,9 @@
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
     </row>
-    <row r="14" spans="1:16" ht="24.95" customHeight="1">
+    <row r="14" spans="1:16" ht="24.9" customHeight="1">
       <c r="A14" s="35" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B14" s="35"/>
       <c r="C14" s="35"/>
@@ -7425,172 +7250,174 @@
       <c r="K14" s="8"/>
       <c r="L14" s="9"/>
     </row>
-    <row r="15" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A15" s="193" t="s">
-        <v>91</v>
+    <row r="15" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A15" s="68" t="s">
+        <v>92</v>
       </c>
-      <c r="B15" s="194"/>
-      <c r="C15" s="194"/>
-      <c r="D15" s="194"/>
-      <c r="E15" s="194"/>
-      <c r="F15" s="194"/>
-      <c r="G15" s="194"/>
-      <c r="H15" s="194"/>
-      <c r="I15" s="194"/>
-      <c r="J15" s="194"/>
-      <c r="K15" s="194"/>
-      <c r="L15" s="194"/>
-      <c r="M15" s="194"/>
-      <c r="N15" s="194"/>
-      <c r="O15" s="194"/>
-      <c r="P15" s="195"/>
-    </row>
-    <row r="16" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A16" s="196"/>
-      <c r="B16" s="197"/>
-      <c r="C16" s="197"/>
-      <c r="D16" s="197"/>
-      <c r="E16" s="197"/>
-      <c r="F16" s="197"/>
-      <c r="G16" s="197"/>
-      <c r="H16" s="197"/>
-      <c r="I16" s="197"/>
-      <c r="J16" s="197"/>
-      <c r="K16" s="197"/>
-      <c r="L16" s="197"/>
-      <c r="M16" s="197"/>
-      <c r="N16" s="197"/>
-      <c r="O16" s="197"/>
-      <c r="P16" s="198"/>
-    </row>
-    <row r="17" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A17" s="196"/>
-      <c r="B17" s="197"/>
-      <c r="C17" s="197"/>
-      <c r="D17" s="197"/>
-      <c r="E17" s="197"/>
-      <c r="F17" s="197"/>
-      <c r="G17" s="197"/>
-      <c r="H17" s="197"/>
-      <c r="I17" s="197"/>
-      <c r="J17" s="197"/>
-      <c r="K17" s="197"/>
-      <c r="L17" s="197"/>
-      <c r="M17" s="197"/>
-      <c r="N17" s="197"/>
-      <c r="O17" s="197"/>
-      <c r="P17" s="198"/>
-    </row>
-    <row r="18" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A18" s="196"/>
-      <c r="B18" s="197"/>
-      <c r="C18" s="197"/>
-      <c r="D18" s="197"/>
-      <c r="E18" s="197"/>
-      <c r="F18" s="197"/>
-      <c r="G18" s="197"/>
-      <c r="H18" s="197"/>
-      <c r="I18" s="197"/>
-      <c r="J18" s="197"/>
-      <c r="K18" s="197"/>
-      <c r="L18" s="197"/>
-      <c r="M18" s="197"/>
-      <c r="N18" s="197"/>
-      <c r="O18" s="197"/>
-      <c r="P18" s="198"/>
-    </row>
-    <row r="19" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A19" s="196"/>
-      <c r="B19" s="197"/>
-      <c r="C19" s="197"/>
-      <c r="D19" s="197"/>
-      <c r="E19" s="197"/>
-      <c r="F19" s="197"/>
-      <c r="G19" s="197"/>
-      <c r="H19" s="197"/>
-      <c r="I19" s="197"/>
-      <c r="J19" s="197"/>
-      <c r="K19" s="197"/>
-      <c r="L19" s="197"/>
-      <c r="M19" s="197"/>
-      <c r="N19" s="197"/>
-      <c r="O19" s="197"/>
-      <c r="P19" s="198"/>
-    </row>
-    <row r="20" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A20" s="196"/>
-      <c r="B20" s="197"/>
-      <c r="C20" s="197"/>
-      <c r="D20" s="197"/>
-      <c r="E20" s="197"/>
-      <c r="F20" s="197"/>
-      <c r="G20" s="197"/>
-      <c r="H20" s="197"/>
-      <c r="I20" s="197"/>
-      <c r="J20" s="197"/>
-      <c r="K20" s="197"/>
-      <c r="L20" s="197"/>
-      <c r="M20" s="197"/>
-      <c r="N20" s="197"/>
-      <c r="O20" s="197"/>
-      <c r="P20" s="198"/>
-    </row>
-    <row r="21" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A21" s="196"/>
-      <c r="B21" s="197"/>
-      <c r="C21" s="197"/>
-      <c r="D21" s="197"/>
-      <c r="E21" s="197"/>
-      <c r="F21" s="197"/>
-      <c r="G21" s="197"/>
-      <c r="H21" s="197"/>
-      <c r="I21" s="197"/>
-      <c r="J21" s="197"/>
-      <c r="K21" s="197"/>
-      <c r="L21" s="197"/>
-      <c r="M21" s="197"/>
-      <c r="N21" s="197"/>
-      <c r="O21" s="197"/>
-      <c r="P21" s="198"/>
-    </row>
-    <row r="22" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A22" s="196"/>
-      <c r="B22" s="197"/>
-      <c r="C22" s="197"/>
-      <c r="D22" s="197"/>
-      <c r="E22" s="197"/>
-      <c r="F22" s="197"/>
-      <c r="G22" s="197"/>
-      <c r="H22" s="197"/>
-      <c r="I22" s="197"/>
-      <c r="J22" s="197"/>
-      <c r="K22" s="197"/>
-      <c r="L22" s="197"/>
-      <c r="M22" s="197"/>
-      <c r="N22" s="197"/>
-      <c r="O22" s="197"/>
-      <c r="P22" s="198"/>
-    </row>
-    <row r="23" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A23" s="199"/>
-      <c r="B23" s="200"/>
-      <c r="C23" s="200"/>
-      <c r="D23" s="200"/>
-      <c r="E23" s="200"/>
-      <c r="F23" s="200"/>
-      <c r="G23" s="200"/>
-      <c r="H23" s="200"/>
-      <c r="I23" s="200"/>
-      <c r="J23" s="200"/>
-      <c r="K23" s="200"/>
-      <c r="L23" s="200"/>
-      <c r="M23" s="200"/>
-      <c r="N23" s="200"/>
-      <c r="O23" s="200"/>
-      <c r="P23" s="201"/>
-    </row>
-    <row r="24" spans="1:16" ht="6" customHeight="1">
-      <c r="A24" s="46"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="69"/>
+      <c r="K15" s="69"/>
+      <c r="L15" s="69"/>
+      <c r="M15" s="69"/>
+      <c r="N15" s="69"/>
+      <c r="O15" s="69"/>
+      <c r="P15" s="70"/>
+    </row>
+    <row r="16" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A16" s="71"/>
+      <c r="B16" s="72"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="72"/>
+      <c r="I16" s="72"/>
+      <c r="J16" s="72"/>
+      <c r="K16" s="72"/>
+      <c r="L16" s="72"/>
+      <c r="M16" s="72"/>
+      <c r="N16" s="72"/>
+      <c r="O16" s="72"/>
+      <c r="P16" s="73"/>
+    </row>
+    <row r="17" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A17" s="71"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="72"/>
+      <c r="J17" s="72"/>
+      <c r="K17" s="72"/>
+      <c r="L17" s="72"/>
+      <c r="M17" s="72"/>
+      <c r="N17" s="72"/>
+      <c r="O17" s="72"/>
+      <c r="P17" s="73"/>
+    </row>
+    <row r="18" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A18" s="71"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="72"/>
+      <c r="J18" s="72"/>
+      <c r="K18" s="72"/>
+      <c r="L18" s="72"/>
+      <c r="M18" s="72"/>
+      <c r="N18" s="72"/>
+      <c r="O18" s="72"/>
+      <c r="P18" s="73"/>
+    </row>
+    <row r="19" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A19" s="71"/>
+      <c r="B19" s="72"/>
+      <c r="C19" s="72"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="72"/>
+      <c r="I19" s="72"/>
+      <c r="J19" s="72"/>
+      <c r="K19" s="72"/>
+      <c r="L19" s="72"/>
+      <c r="M19" s="72"/>
+      <c r="N19" s="72"/>
+      <c r="O19" s="72"/>
+      <c r="P19" s="73"/>
+    </row>
+    <row r="20" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A20" s="71"/>
+      <c r="B20" s="72"/>
+      <c r="C20" s="72"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="72"/>
+      <c r="I20" s="72"/>
+      <c r="J20" s="72"/>
+      <c r="K20" s="72"/>
+      <c r="L20" s="72"/>
+      <c r="M20" s="72"/>
+      <c r="N20" s="72"/>
+      <c r="O20" s="72"/>
+      <c r="P20" s="73"/>
+    </row>
+    <row r="21" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A21" s="71"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="72"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="72"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="72"/>
+      <c r="I21" s="72"/>
+      <c r="J21" s="72"/>
+      <c r="K21" s="72"/>
+      <c r="L21" s="72"/>
+      <c r="M21" s="72"/>
+      <c r="N21" s="72"/>
+      <c r="O21" s="72"/>
+      <c r="P21" s="73"/>
+    </row>
+    <row r="22" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A22" s="71"/>
+      <c r="B22" s="72"/>
+      <c r="C22" s="72"/>
+      <c r="D22" s="72"/>
+      <c r="E22" s="72"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="72"/>
+      <c r="I22" s="72"/>
+      <c r="J22" s="72"/>
+      <c r="K22" s="72"/>
+      <c r="L22" s="72"/>
+      <c r="M22" s="72"/>
+      <c r="N22" s="72"/>
+      <c r="O22" s="72"/>
+      <c r="P22" s="73"/>
+    </row>
+    <row r="23" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A23" s="74"/>
+      <c r="B23" s="75"/>
+      <c r="C23" s="75"/>
+      <c r="D23" s="75"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="75"/>
+      <c r="I23" s="75"/>
+      <c r="J23" s="75"/>
+      <c r="K23" s="75"/>
+      <c r="L23" s="75"/>
+      <c r="M23" s="75"/>
+      <c r="N23" s="75"/>
+      <c r="O23" s="75"/>
+      <c r="P23" s="76"/>
+    </row>
+    <row r="24" spans="1:16" ht="23.25" customHeight="1">
+      <c r="A24" s="35" t="s">
+        <v>90</v>
+      </c>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -7605,171 +7432,179 @@
       <c r="M24" s="10"/>
       <c r="N24" s="10"/>
     </row>
-    <row r="25" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A25" s="74"/>
-      <c r="B25" s="75"/>
-      <c r="C25" s="75"/>
-      <c r="D25" s="75"/>
-      <c r="E25" s="75"/>
-      <c r="F25" s="75"/>
-      <c r="G25" s="75"/>
-      <c r="H25" s="75"/>
-      <c r="I25" s="75"/>
-      <c r="J25" s="75"/>
-      <c r="K25" s="75"/>
-      <c r="L25" s="75"/>
-      <c r="M25" s="75"/>
-      <c r="N25" s="75"/>
-      <c r="O25" s="75"/>
-      <c r="P25" s="76"/>
-    </row>
-    <row r="26" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A26" s="77"/>
-      <c r="B26" s="78"/>
-      <c r="C26" s="78"/>
-      <c r="D26" s="78"/>
-      <c r="E26" s="78"/>
-      <c r="F26" s="78"/>
-      <c r="G26" s="78"/>
-      <c r="H26" s="78"/>
-      <c r="I26" s="78"/>
-      <c r="J26" s="78"/>
-      <c r="K26" s="78"/>
-      <c r="L26" s="78"/>
-      <c r="M26" s="78"/>
-      <c r="N26" s="78"/>
-      <c r="O26" s="78"/>
-      <c r="P26" s="79"/>
-    </row>
-    <row r="27" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A27" s="77"/>
-      <c r="B27" s="78"/>
-      <c r="C27" s="78"/>
-      <c r="D27" s="78"/>
-      <c r="E27" s="78"/>
-      <c r="F27" s="78"/>
-      <c r="G27" s="78"/>
-      <c r="H27" s="78"/>
-      <c r="I27" s="78"/>
-      <c r="J27" s="78"/>
-      <c r="K27" s="78"/>
-      <c r="L27" s="78"/>
-      <c r="M27" s="78"/>
-      <c r="N27" s="78"/>
-      <c r="O27" s="78"/>
-      <c r="P27" s="79"/>
-    </row>
-    <row r="28" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A28" s="77"/>
-      <c r="B28" s="78"/>
-      <c r="C28" s="78"/>
-      <c r="D28" s="78"/>
-      <c r="E28" s="78"/>
-      <c r="F28" s="78"/>
-      <c r="G28" s="78"/>
-      <c r="H28" s="78"/>
-      <c r="I28" s="78"/>
-      <c r="J28" s="78"/>
-      <c r="K28" s="78"/>
-      <c r="L28" s="78"/>
-      <c r="M28" s="78"/>
-      <c r="N28" s="78"/>
-      <c r="O28" s="78"/>
-      <c r="P28" s="79"/>
-    </row>
-    <row r="29" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A29" s="77"/>
-      <c r="B29" s="78"/>
-      <c r="C29" s="78"/>
-      <c r="D29" s="78"/>
-      <c r="E29" s="78"/>
-      <c r="F29" s="78"/>
-      <c r="G29" s="78"/>
-      <c r="H29" s="78"/>
-      <c r="I29" s="78"/>
-      <c r="J29" s="78"/>
-      <c r="K29" s="78"/>
-      <c r="L29" s="78"/>
-      <c r="M29" s="78"/>
-      <c r="N29" s="78"/>
-      <c r="O29" s="78"/>
-      <c r="P29" s="79"/>
-    </row>
-    <row r="30" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A30" s="77"/>
-      <c r="B30" s="78"/>
-      <c r="C30" s="78"/>
-      <c r="D30" s="78"/>
-      <c r="E30" s="78"/>
-      <c r="F30" s="78"/>
-      <c r="G30" s="78"/>
-      <c r="H30" s="78"/>
-      <c r="I30" s="78"/>
-      <c r="J30" s="78"/>
-      <c r="K30" s="78"/>
-      <c r="L30" s="78"/>
-      <c r="M30" s="78"/>
-      <c r="N30" s="78"/>
-      <c r="O30" s="78"/>
-      <c r="P30" s="79"/>
-    </row>
-    <row r="31" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A31" s="77"/>
-      <c r="B31" s="78"/>
-      <c r="C31" s="78"/>
-      <c r="D31" s="78"/>
-      <c r="E31" s="78"/>
-      <c r="F31" s="78"/>
-      <c r="G31" s="78"/>
-      <c r="H31" s="78"/>
-      <c r="I31" s="78"/>
-      <c r="J31" s="78"/>
-      <c r="K31" s="78"/>
-      <c r="L31" s="78"/>
-      <c r="M31" s="78"/>
-      <c r="N31" s="78"/>
-      <c r="O31" s="78"/>
-      <c r="P31" s="79"/>
+    <row r="25" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A25" s="68" t="s">
+        <v>93</v>
+      </c>
+      <c r="B25" s="69"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="69"/>
+      <c r="H25" s="69"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="69"/>
+      <c r="N25" s="69"/>
+      <c r="O25" s="69"/>
+      <c r="P25" s="70"/>
+    </row>
+    <row r="26" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A26" s="71"/>
+      <c r="B26" s="72"/>
+      <c r="C26" s="72"/>
+      <c r="D26" s="72"/>
+      <c r="E26" s="72"/>
+      <c r="F26" s="72"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="72"/>
+      <c r="I26" s="72"/>
+      <c r="J26" s="72"/>
+      <c r="K26" s="72"/>
+      <c r="L26" s="72"/>
+      <c r="M26" s="72"/>
+      <c r="N26" s="72"/>
+      <c r="O26" s="72"/>
+      <c r="P26" s="73"/>
+    </row>
+    <row r="27" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A27" s="71"/>
+      <c r="B27" s="72"/>
+      <c r="C27" s="72"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="72"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="72"/>
+      <c r="H27" s="72"/>
+      <c r="I27" s="72"/>
+      <c r="J27" s="72"/>
+      <c r="K27" s="72"/>
+      <c r="L27" s="72"/>
+      <c r="M27" s="72"/>
+      <c r="N27" s="72"/>
+      <c r="O27" s="72"/>
+      <c r="P27" s="73"/>
+    </row>
+    <row r="28" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A28" s="71"/>
+      <c r="B28" s="72"/>
+      <c r="C28" s="72"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="72"/>
+      <c r="F28" s="72"/>
+      <c r="G28" s="72"/>
+      <c r="H28" s="72"/>
+      <c r="I28" s="72"/>
+      <c r="J28" s="72"/>
+      <c r="K28" s="72"/>
+      <c r="L28" s="72"/>
+      <c r="M28" s="72"/>
+      <c r="N28" s="72"/>
+      <c r="O28" s="72"/>
+      <c r="P28" s="73"/>
+    </row>
+    <row r="29" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A29" s="71"/>
+      <c r="B29" s="72"/>
+      <c r="C29" s="72"/>
+      <c r="D29" s="72"/>
+      <c r="E29" s="72"/>
+      <c r="F29" s="72"/>
+      <c r="G29" s="72"/>
+      <c r="H29" s="72"/>
+      <c r="I29" s="72"/>
+      <c r="J29" s="72"/>
+      <c r="K29" s="72"/>
+      <c r="L29" s="72"/>
+      <c r="M29" s="72"/>
+      <c r="N29" s="72"/>
+      <c r="O29" s="72"/>
+      <c r="P29" s="73"/>
+    </row>
+    <row r="30" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A30" s="71"/>
+      <c r="B30" s="72"/>
+      <c r="C30" s="72"/>
+      <c r="D30" s="72"/>
+      <c r="E30" s="72"/>
+      <c r="F30" s="72"/>
+      <c r="G30" s="72"/>
+      <c r="H30" s="72"/>
+      <c r="I30" s="72"/>
+      <c r="J30" s="72"/>
+      <c r="K30" s="72"/>
+      <c r="L30" s="72"/>
+      <c r="M30" s="72"/>
+      <c r="N30" s="72"/>
+      <c r="O30" s="72"/>
+      <c r="P30" s="73"/>
+    </row>
+    <row r="31" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A31" s="71"/>
+      <c r="B31" s="72"/>
+      <c r="C31" s="72"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="72"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="72"/>
+      <c r="I31" s="72"/>
+      <c r="J31" s="72"/>
+      <c r="K31" s="72"/>
+      <c r="L31" s="72"/>
+      <c r="M31" s="72"/>
+      <c r="N31" s="72"/>
+      <c r="O31" s="72"/>
+      <c r="P31" s="73"/>
     </row>
     <row r="32" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A32" s="77"/>
-      <c r="B32" s="78"/>
-      <c r="C32" s="78"/>
-      <c r="D32" s="78"/>
-      <c r="E32" s="78"/>
-      <c r="F32" s="78"/>
-      <c r="G32" s="78"/>
-      <c r="H32" s="78"/>
-      <c r="I32" s="78"/>
-      <c r="J32" s="78"/>
-      <c r="K32" s="78"/>
-      <c r="L32" s="78"/>
-      <c r="M32" s="78"/>
-      <c r="N32" s="78"/>
-      <c r="O32" s="78"/>
-      <c r="P32" s="79"/>
+      <c r="A32" s="71"/>
+      <c r="B32" s="72"/>
+      <c r="C32" s="72"/>
+      <c r="D32" s="72"/>
+      <c r="E32" s="72"/>
+      <c r="F32" s="72"/>
+      <c r="G32" s="72"/>
+      <c r="H32" s="72"/>
+      <c r="I32" s="72"/>
+      <c r="J32" s="72"/>
+      <c r="K32" s="72"/>
+      <c r="L32" s="72"/>
+      <c r="M32" s="72"/>
+      <c r="N32" s="72"/>
+      <c r="O32" s="72"/>
+      <c r="P32" s="73"/>
     </row>
     <row r="33" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A33" s="80"/>
-      <c r="B33" s="81"/>
-      <c r="C33" s="81"/>
-      <c r="D33" s="81"/>
-      <c r="E33" s="81"/>
-      <c r="F33" s="81"/>
-      <c r="G33" s="81"/>
-      <c r="H33" s="81"/>
-      <c r="I33" s="81"/>
-      <c r="J33" s="81"/>
-      <c r="K33" s="81"/>
-      <c r="L33" s="81"/>
-      <c r="M33" s="81"/>
-      <c r="N33" s="81"/>
-      <c r="O33" s="81"/>
-      <c r="P33" s="82"/>
+      <c r="A33" s="74"/>
+      <c r="B33" s="75"/>
+      <c r="C33" s="75"/>
+      <c r="D33" s="75"/>
+      <c r="E33" s="75"/>
+      <c r="F33" s="75"/>
+      <c r="G33" s="75"/>
+      <c r="H33" s="75"/>
+      <c r="I33" s="75"/>
+      <c r="J33" s="75"/>
+      <c r="K33" s="75"/>
+      <c r="L33" s="75"/>
+      <c r="M33" s="75"/>
+      <c r="N33" s="75"/>
+      <c r="O33" s="75"/>
+      <c r="P33" s="76"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="26">
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="E3:L3"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A15:P23"/>
     <mergeCell ref="A25:P33"/>
@@ -7780,22 +7615,16 @@
     <mergeCell ref="H11:N11"/>
     <mergeCell ref="H12:N12"/>
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="A10:G10"/>
-    <mergeCell ref="E3:L3"/>
+    <mergeCell ref="I5:J6"/>
+    <mergeCell ref="K5:L6"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="A9:G9"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A5:B6"/>
     <mergeCell ref="C5:D6"/>
     <mergeCell ref="E5:F6"/>
     <mergeCell ref="G5:H6"/>
-    <mergeCell ref="I5:J6"/>
-    <mergeCell ref="K5:L6"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="A9:G9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A5:L6 A9:N12 A15:P23 A25:P33">
@@ -7804,12 +7633,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14:H14">
-    <cfRule type="cellIs" dxfId="13" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="greaterThan">
       <formula>1500</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14:L14">
-    <cfRule type="cellIs" dxfId="12" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="greaterThan">
       <formula>1500</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7828,34 +7657,34 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:P111"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:P10"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6:N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.5" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="5.44140625" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="16" width="5.625" customWidth="1"/>
+    <col min="1" max="16" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="30" customHeight="1">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="115" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="87"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="116"/>
+      <c r="M1" s="116"/>
+      <c r="N1" s="116"/>
+      <c r="O1" s="116"/>
+      <c r="P1" s="117"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1">
       <c r="A2" s="19"/>
@@ -7876,128 +7705,128 @@
       <c r="P2" s="19"/>
     </row>
     <row r="3" spans="1:16" ht="30" customHeight="1">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="119" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
-      <c r="M3" s="90"/>
-      <c r="N3" s="90"/>
-      <c r="O3" s="90"/>
-      <c r="P3" s="91"/>
+      <c r="B3" s="120"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="120"/>
+      <c r="G3" s="120"/>
+      <c r="H3" s="120"/>
+      <c r="I3" s="120"/>
+      <c r="J3" s="120"/>
+      <c r="K3" s="120"/>
+      <c r="L3" s="120"/>
+      <c r="M3" s="120"/>
+      <c r="N3" s="120"/>
+      <c r="O3" s="120"/>
+      <c r="P3" s="121"/>
     </row>
     <row r="4" spans="1:16" ht="30" customHeight="1">
-      <c r="A4" s="92" t="s">
+      <c r="A4" s="103" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="88"/>
-      <c r="N4" s="88"/>
-      <c r="O4" s="88"/>
-      <c r="P4" s="88"/>
+      <c r="B4" s="103"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="118"/>
+      <c r="G4" s="118"/>
+      <c r="H4" s="118"/>
+      <c r="I4" s="118"/>
+      <c r="J4" s="118"/>
+      <c r="K4" s="118"/>
+      <c r="L4" s="118"/>
+      <c r="M4" s="118"/>
+      <c r="N4" s="118"/>
+      <c r="O4" s="118"/>
+      <c r="P4" s="118"/>
     </row>
     <row r="5" spans="1:16" ht="30" customHeight="1">
-      <c r="A5" s="92" t="s">
+      <c r="A5" s="103" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="92"/>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92" t="s">
+      <c r="B5" s="103"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="103" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="92"/>
-      <c r="F5" s="92"/>
-      <c r="G5" s="92"/>
-      <c r="H5" s="92" t="s">
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="103"/>
+      <c r="H5" s="103" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="92"/>
-      <c r="J5" s="92"/>
-      <c r="K5" s="92"/>
-      <c r="L5" s="100" t="s">
+      <c r="I5" s="103"/>
+      <c r="J5" s="103"/>
+      <c r="K5" s="103"/>
+      <c r="L5" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="M5" s="100"/>
-      <c r="N5" s="100"/>
-      <c r="O5" s="100"/>
+      <c r="M5" s="126"/>
+      <c r="N5" s="126"/>
+      <c r="O5" s="126"/>
       <c r="P5" s="28"/>
     </row>
     <row r="6" spans="1:16" ht="30" customHeight="1">
-      <c r="A6" s="93" t="s">
+      <c r="A6" s="107" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="94"/>
-      <c r="C6" s="95"/>
-      <c r="D6" s="96">
+      <c r="B6" s="108"/>
+      <c r="C6" s="109"/>
+      <c r="D6" s="122">
         <v>800</v>
       </c>
-      <c r="E6" s="97"/>
-      <c r="F6" s="97"/>
+      <c r="E6" s="123"/>
+      <c r="F6" s="123"/>
       <c r="G6" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="96">
+      <c r="H6" s="122">
         <v>800</v>
       </c>
-      <c r="I6" s="97"/>
-      <c r="J6" s="97"/>
+      <c r="I6" s="123"/>
+      <c r="J6" s="123"/>
       <c r="K6" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="98">
+      <c r="L6" s="124">
         <v>1600</v>
       </c>
-      <c r="M6" s="99"/>
-      <c r="N6" s="99"/>
+      <c r="M6" s="125"/>
+      <c r="N6" s="125"/>
       <c r="O6" s="30" t="s">
         <v>30</v>
       </c>
       <c r="P6" s="28"/>
     </row>
     <row r="7" spans="1:16" ht="30" customHeight="1">
-      <c r="A7" s="93" t="s">
+      <c r="A7" s="107" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="94"/>
-      <c r="C7" s="95"/>
-      <c r="D7" s="104">
+      <c r="B7" s="108"/>
+      <c r="C7" s="109"/>
+      <c r="D7" s="110">
         <v>30</v>
       </c>
-      <c r="E7" s="105"/>
-      <c r="F7" s="105"/>
+      <c r="E7" s="111"/>
+      <c r="F7" s="111"/>
       <c r="G7" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="109"/>
-      <c r="I7" s="110"/>
-      <c r="J7" s="110"/>
-      <c r="K7" s="110"/>
+      <c r="H7" s="112"/>
+      <c r="I7" s="113"/>
+      <c r="J7" s="113"/>
+      <c r="K7" s="113"/>
       <c r="L7" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="M7" s="111" t="s">
+      <c r="M7" s="114" t="s">
         <v>58</v>
       </c>
-      <c r="N7" s="111"/>
+      <c r="N7" s="114"/>
       <c r="O7" s="32"/>
       <c r="P7" s="6">
         <f>$D$7</f>
@@ -8005,156 +7834,158 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="30" customHeight="1">
-      <c r="A8" s="106" t="s">
+      <c r="A8" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="107"/>
-      <c r="C8" s="108"/>
-      <c r="D8" s="101" t="s">
+      <c r="B8" s="88"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="104" t="s">
         <v>83</v>
       </c>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="102"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="102"/>
-      <c r="N8" s="102"/>
-      <c r="O8" s="102"/>
-      <c r="P8" s="103"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="105"/>
+      <c r="J8" s="105"/>
+      <c r="K8" s="105"/>
+      <c r="L8" s="105"/>
+      <c r="M8" s="105"/>
+      <c r="N8" s="105"/>
+      <c r="O8" s="105"/>
+      <c r="P8" s="106"/>
     </row>
     <row r="9" spans="1:16" ht="30" customHeight="1">
-      <c r="A9" s="106" t="s">
+      <c r="A9" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="107"/>
-      <c r="C9" s="108"/>
-      <c r="D9" s="118"/>
-      <c r="E9" s="119"/>
-      <c r="F9" s="119"/>
-      <c r="G9" s="119"/>
-      <c r="H9" s="119"/>
-      <c r="I9" s="119"/>
-      <c r="J9" s="119"/>
-      <c r="K9" s="119"/>
-      <c r="L9" s="119"/>
-      <c r="M9" s="119"/>
-      <c r="N9" s="119"/>
-      <c r="O9" s="119"/>
-      <c r="P9" s="120"/>
+      <c r="B9" s="88"/>
+      <c r="C9" s="89"/>
+      <c r="D9" s="93" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" s="94"/>
+      <c r="F9" s="94"/>
+      <c r="G9" s="94"/>
+      <c r="H9" s="94"/>
+      <c r="I9" s="94"/>
+      <c r="J9" s="94"/>
+      <c r="K9" s="94"/>
+      <c r="L9" s="94"/>
+      <c r="M9" s="94"/>
+      <c r="N9" s="94"/>
+      <c r="O9" s="94"/>
+      <c r="P9" s="95"/>
     </row>
     <row r="10" spans="1:16" ht="30" customHeight="1">
-      <c r="A10" s="106"/>
-      <c r="B10" s="107"/>
-      <c r="C10" s="108"/>
-      <c r="D10" s="118"/>
-      <c r="E10" s="119"/>
-      <c r="F10" s="119"/>
-      <c r="G10" s="119"/>
-      <c r="H10" s="119"/>
-      <c r="I10" s="119"/>
-      <c r="J10" s="119"/>
-      <c r="K10" s="119"/>
-      <c r="L10" s="119"/>
-      <c r="M10" s="119"/>
-      <c r="N10" s="119"/>
-      <c r="O10" s="119"/>
-      <c r="P10" s="120"/>
+      <c r="A10" s="87"/>
+      <c r="B10" s="88"/>
+      <c r="C10" s="89"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="94"/>
+      <c r="F10" s="94"/>
+      <c r="G10" s="94"/>
+      <c r="H10" s="94"/>
+      <c r="I10" s="94"/>
+      <c r="J10" s="94"/>
+      <c r="K10" s="94"/>
+      <c r="L10" s="94"/>
+      <c r="M10" s="94"/>
+      <c r="N10" s="94"/>
+      <c r="O10" s="94"/>
+      <c r="P10" s="95"/>
     </row>
     <row r="11" spans="1:16" ht="30" customHeight="1">
-      <c r="A11" s="115" t="s">
+      <c r="A11" s="90" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="116"/>
-      <c r="C11" s="117"/>
-      <c r="D11" s="121" t="s">
+      <c r="B11" s="91"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="96" t="s">
         <v>86</v>
       </c>
-      <c r="E11" s="122"/>
-      <c r="F11" s="122"/>
-      <c r="G11" s="122"/>
-      <c r="H11" s="122"/>
-      <c r="I11" s="122"/>
-      <c r="J11" s="122"/>
-      <c r="K11" s="122"/>
-      <c r="L11" s="122"/>
-      <c r="M11" s="122"/>
-      <c r="N11" s="122"/>
-      <c r="O11" s="122"/>
-      <c r="P11" s="123"/>
+      <c r="E11" s="97"/>
+      <c r="F11" s="97"/>
+      <c r="G11" s="97"/>
+      <c r="H11" s="97"/>
+      <c r="I11" s="97"/>
+      <c r="J11" s="97"/>
+      <c r="K11" s="97"/>
+      <c r="L11" s="97"/>
+      <c r="M11" s="97"/>
+      <c r="N11" s="97"/>
+      <c r="O11" s="97"/>
+      <c r="P11" s="98"/>
     </row>
     <row r="12" spans="1:16" ht="30" customHeight="1">
-      <c r="A12" s="124" t="s">
+      <c r="A12" s="99" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="125"/>
-      <c r="C12" s="126"/>
-      <c r="D12" s="127" t="s">
+      <c r="B12" s="100"/>
+      <c r="C12" s="101"/>
+      <c r="D12" s="102" t="s">
         <v>84</v>
       </c>
-      <c r="E12" s="127"/>
-      <c r="F12" s="127"/>
-      <c r="G12" s="127"/>
-      <c r="H12" s="127"/>
-      <c r="I12" s="92" t="s">
+      <c r="E12" s="102"/>
+      <c r="F12" s="102"/>
+      <c r="G12" s="102"/>
+      <c r="H12" s="102"/>
+      <c r="I12" s="103" t="s">
         <v>37</v>
       </c>
-      <c r="J12" s="92"/>
-      <c r="K12" s="92"/>
-      <c r="L12" s="127" t="s">
+      <c r="J12" s="103"/>
+      <c r="K12" s="103"/>
+      <c r="L12" s="102" t="s">
         <v>85</v>
       </c>
-      <c r="M12" s="127"/>
-      <c r="N12" s="127"/>
-      <c r="O12" s="127"/>
-      <c r="P12" s="127"/>
+      <c r="M12" s="102"/>
+      <c r="N12" s="102"/>
+      <c r="O12" s="102"/>
+      <c r="P12" s="102"/>
     </row>
     <row r="13" spans="1:16" ht="30" customHeight="1">
-      <c r="A13" s="106" t="s">
+      <c r="A13" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="107"/>
-      <c r="C13" s="108"/>
-      <c r="D13" s="121" t="s">
+      <c r="B13" s="88"/>
+      <c r="C13" s="89"/>
+      <c r="D13" s="96" t="s">
         <v>87</v>
       </c>
-      <c r="E13" s="122"/>
-      <c r="F13" s="122"/>
-      <c r="G13" s="122"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="122"/>
-      <c r="J13" s="122"/>
-      <c r="K13" s="122"/>
-      <c r="L13" s="122"/>
-      <c r="M13" s="122"/>
-      <c r="N13" s="122"/>
-      <c r="O13" s="122"/>
-      <c r="P13" s="123"/>
+      <c r="E13" s="97"/>
+      <c r="F13" s="97"/>
+      <c r="G13" s="97"/>
+      <c r="H13" s="97"/>
+      <c r="I13" s="97"/>
+      <c r="J13" s="97"/>
+      <c r="K13" s="97"/>
+      <c r="L13" s="97"/>
+      <c r="M13" s="97"/>
+      <c r="N13" s="97"/>
+      <c r="O13" s="97"/>
+      <c r="P13" s="98"/>
     </row>
     <row r="14" spans="1:16" ht="30" customHeight="1">
-      <c r="A14" s="114" t="s">
+      <c r="A14" s="86" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="114"/>
-      <c r="C14" s="114"/>
-      <c r="D14" s="112" t="s">
+      <c r="B14" s="86"/>
+      <c r="C14" s="86"/>
+      <c r="D14" s="84" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="113"/>
-      <c r="F14" s="113"/>
-      <c r="G14" s="113"/>
-      <c r="H14" s="113"/>
-      <c r="I14" s="113"/>
-      <c r="J14" s="113"/>
-      <c r="K14" s="113"/>
-      <c r="L14" s="113"/>
-      <c r="M14" s="113"/>
-      <c r="N14" s="113"/>
-      <c r="O14" s="113"/>
-      <c r="P14" s="113"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="85"/>
+      <c r="G14" s="85"/>
+      <c r="H14" s="85"/>
+      <c r="I14" s="85"/>
+      <c r="J14" s="85"/>
+      <c r="K14" s="85"/>
+      <c r="L14" s="85"/>
+      <c r="M14" s="85"/>
+      <c r="N14" s="85"/>
+      <c r="O14" s="85"/>
+      <c r="P14" s="85"/>
     </row>
     <row r="15" spans="1:16" ht="20.25" customHeight="1">
       <c r="A15" s="28"/>
@@ -9463,6 +9294,25 @@
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="31">
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="D4:P4"/>
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D8:P8"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="M7:N7"/>
     <mergeCell ref="D14:P14"/>
     <mergeCell ref="A14:C14"/>
     <mergeCell ref="A9:C10"/>
@@ -9475,25 +9325,6 @@
     <mergeCell ref="I12:K12"/>
     <mergeCell ref="L12:P12"/>
     <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D8:P8"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="D4:P4"/>
-    <mergeCell ref="A3:P3"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="A4:C4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="D6:F6">
@@ -9548,30 +9379,30 @@
       <selection activeCell="A4" sqref="A4:P29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.5" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="5.44140625" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="16" width="5.75" customWidth="1"/>
+    <col min="1" max="16" width="5.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="30" customHeight="1">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="127" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
-      <c r="H1" s="129"/>
-      <c r="I1" s="129"/>
-      <c r="J1" s="129"/>
-      <c r="K1" s="129"/>
-      <c r="L1" s="129"/>
-      <c r="M1" s="129"/>
-      <c r="N1" s="129"/>
-      <c r="O1" s="129"/>
-      <c r="P1" s="130"/>
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="128"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="128"/>
+      <c r="I1" s="128"/>
+      <c r="J1" s="128"/>
+      <c r="K1" s="128"/>
+      <c r="L1" s="128"/>
+      <c r="M1" s="128"/>
+      <c r="N1" s="128"/>
+      <c r="O1" s="128"/>
+      <c r="P1" s="129"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1">
       <c r="A2" s="20"/>
@@ -9592,492 +9423,492 @@
       <c r="P2" s="20"/>
     </row>
     <row r="3" spans="1:16" ht="30" customHeight="1">
-      <c r="A3" s="131" t="s">
+      <c r="A3" s="130" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="132"/>
-      <c r="C3" s="132"/>
-      <c r="D3" s="132"/>
-      <c r="E3" s="132"/>
-      <c r="F3" s="132"/>
-      <c r="G3" s="132"/>
-      <c r="H3" s="132"/>
-      <c r="I3" s="132"/>
-      <c r="J3" s="132"/>
-      <c r="K3" s="132"/>
-      <c r="L3" s="132"/>
-      <c r="M3" s="132"/>
-      <c r="N3" s="132"/>
-      <c r="O3" s="132"/>
-      <c r="P3" s="133"/>
+      <c r="B3" s="131"/>
+      <c r="C3" s="131"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="131"/>
+      <c r="L3" s="131"/>
+      <c r="M3" s="131"/>
+      <c r="N3" s="131"/>
+      <c r="O3" s="131"/>
+      <c r="P3" s="132"/>
     </row>
     <row r="4" spans="1:16" ht="30" customHeight="1">
-      <c r="A4" s="134"/>
-      <c r="B4" s="135"/>
-      <c r="C4" s="135"/>
-      <c r="D4" s="135"/>
-      <c r="E4" s="135"/>
-      <c r="F4" s="135"/>
-      <c r="G4" s="135"/>
-      <c r="H4" s="135"/>
-      <c r="I4" s="135"/>
-      <c r="J4" s="135"/>
-      <c r="K4" s="135"/>
-      <c r="L4" s="135"/>
-      <c r="M4" s="135"/>
-      <c r="N4" s="135"/>
-      <c r="O4" s="135"/>
-      <c r="P4" s="136"/>
+      <c r="A4" s="133"/>
+      <c r="B4" s="134"/>
+      <c r="C4" s="134"/>
+      <c r="D4" s="134"/>
+      <c r="E4" s="134"/>
+      <c r="F4" s="134"/>
+      <c r="G4" s="134"/>
+      <c r="H4" s="134"/>
+      <c r="I4" s="134"/>
+      <c r="J4" s="134"/>
+      <c r="K4" s="134"/>
+      <c r="L4" s="134"/>
+      <c r="M4" s="134"/>
+      <c r="N4" s="134"/>
+      <c r="O4" s="134"/>
+      <c r="P4" s="135"/>
     </row>
     <row r="5" spans="1:16" ht="30" customHeight="1">
-      <c r="A5" s="137"/>
-      <c r="B5" s="138"/>
-      <c r="C5" s="138"/>
-      <c r="D5" s="138"/>
-      <c r="E5" s="138"/>
-      <c r="F5" s="138"/>
-      <c r="G5" s="138"/>
-      <c r="H5" s="138"/>
-      <c r="I5" s="138"/>
-      <c r="J5" s="138"/>
-      <c r="K5" s="138"/>
-      <c r="L5" s="138"/>
-      <c r="M5" s="138"/>
-      <c r="N5" s="138"/>
-      <c r="O5" s="138"/>
-      <c r="P5" s="139"/>
+      <c r="A5" s="136"/>
+      <c r="B5" s="137"/>
+      <c r="C5" s="137"/>
+      <c r="D5" s="137"/>
+      <c r="E5" s="137"/>
+      <c r="F5" s="137"/>
+      <c r="G5" s="137"/>
+      <c r="H5" s="137"/>
+      <c r="I5" s="137"/>
+      <c r="J5" s="137"/>
+      <c r="K5" s="137"/>
+      <c r="L5" s="137"/>
+      <c r="M5" s="137"/>
+      <c r="N5" s="137"/>
+      <c r="O5" s="137"/>
+      <c r="P5" s="138"/>
     </row>
     <row r="6" spans="1:16" ht="30" customHeight="1">
-      <c r="A6" s="137"/>
-      <c r="B6" s="138"/>
-      <c r="C6" s="138"/>
-      <c r="D6" s="138"/>
-      <c r="E6" s="138"/>
-      <c r="F6" s="138"/>
-      <c r="G6" s="138"/>
-      <c r="H6" s="138"/>
-      <c r="I6" s="138"/>
-      <c r="J6" s="138"/>
-      <c r="K6" s="138"/>
-      <c r="L6" s="138"/>
-      <c r="M6" s="138"/>
-      <c r="N6" s="138"/>
-      <c r="O6" s="138"/>
-      <c r="P6" s="139"/>
+      <c r="A6" s="136"/>
+      <c r="B6" s="137"/>
+      <c r="C6" s="137"/>
+      <c r="D6" s="137"/>
+      <c r="E6" s="137"/>
+      <c r="F6" s="137"/>
+      <c r="G6" s="137"/>
+      <c r="H6" s="137"/>
+      <c r="I6" s="137"/>
+      <c r="J6" s="137"/>
+      <c r="K6" s="137"/>
+      <c r="L6" s="137"/>
+      <c r="M6" s="137"/>
+      <c r="N6" s="137"/>
+      <c r="O6" s="137"/>
+      <c r="P6" s="138"/>
     </row>
     <row r="7" spans="1:16" ht="30" customHeight="1">
-      <c r="A7" s="137"/>
-      <c r="B7" s="138"/>
-      <c r="C7" s="138"/>
-      <c r="D7" s="138"/>
-      <c r="E7" s="138"/>
-      <c r="F7" s="138"/>
-      <c r="G7" s="138"/>
-      <c r="H7" s="138"/>
-      <c r="I7" s="138"/>
-      <c r="J7" s="138"/>
-      <c r="K7" s="138"/>
-      <c r="L7" s="138"/>
-      <c r="M7" s="138"/>
-      <c r="N7" s="138"/>
-      <c r="O7" s="138"/>
-      <c r="P7" s="139"/>
+      <c r="A7" s="136"/>
+      <c r="B7" s="137"/>
+      <c r="C7" s="137"/>
+      <c r="D7" s="137"/>
+      <c r="E7" s="137"/>
+      <c r="F7" s="137"/>
+      <c r="G7" s="137"/>
+      <c r="H7" s="137"/>
+      <c r="I7" s="137"/>
+      <c r="J7" s="137"/>
+      <c r="K7" s="137"/>
+      <c r="L7" s="137"/>
+      <c r="M7" s="137"/>
+      <c r="N7" s="137"/>
+      <c r="O7" s="137"/>
+      <c r="P7" s="138"/>
     </row>
     <row r="8" spans="1:16" ht="30" customHeight="1">
-      <c r="A8" s="137"/>
-      <c r="B8" s="138"/>
-      <c r="C8" s="138"/>
-      <c r="D8" s="138"/>
-      <c r="E8" s="138"/>
-      <c r="F8" s="138"/>
-      <c r="G8" s="138"/>
-      <c r="H8" s="138"/>
-      <c r="I8" s="138"/>
-      <c r="J8" s="138"/>
-      <c r="K8" s="138"/>
-      <c r="L8" s="138"/>
-      <c r="M8" s="138"/>
-      <c r="N8" s="138"/>
-      <c r="O8" s="138"/>
-      <c r="P8" s="139"/>
+      <c r="A8" s="136"/>
+      <c r="B8" s="137"/>
+      <c r="C8" s="137"/>
+      <c r="D8" s="137"/>
+      <c r="E8" s="137"/>
+      <c r="F8" s="137"/>
+      <c r="G8" s="137"/>
+      <c r="H8" s="137"/>
+      <c r="I8" s="137"/>
+      <c r="J8" s="137"/>
+      <c r="K8" s="137"/>
+      <c r="L8" s="137"/>
+      <c r="M8" s="137"/>
+      <c r="N8" s="137"/>
+      <c r="O8" s="137"/>
+      <c r="P8" s="138"/>
     </row>
     <row r="9" spans="1:16" ht="30" customHeight="1">
-      <c r="A9" s="137"/>
-      <c r="B9" s="138"/>
-      <c r="C9" s="138"/>
-      <c r="D9" s="138"/>
-      <c r="E9" s="138"/>
-      <c r="F9" s="138"/>
-      <c r="G9" s="138"/>
-      <c r="H9" s="138"/>
-      <c r="I9" s="138"/>
-      <c r="J9" s="138"/>
-      <c r="K9" s="138"/>
-      <c r="L9" s="138"/>
-      <c r="M9" s="138"/>
-      <c r="N9" s="138"/>
-      <c r="O9" s="138"/>
-      <c r="P9" s="139"/>
+      <c r="A9" s="136"/>
+      <c r="B9" s="137"/>
+      <c r="C9" s="137"/>
+      <c r="D9" s="137"/>
+      <c r="E9" s="137"/>
+      <c r="F9" s="137"/>
+      <c r="G9" s="137"/>
+      <c r="H9" s="137"/>
+      <c r="I9" s="137"/>
+      <c r="J9" s="137"/>
+      <c r="K9" s="137"/>
+      <c r="L9" s="137"/>
+      <c r="M9" s="137"/>
+      <c r="N9" s="137"/>
+      <c r="O9" s="137"/>
+      <c r="P9" s="138"/>
     </row>
     <row r="10" spans="1:16" ht="30" customHeight="1">
-      <c r="A10" s="137"/>
-      <c r="B10" s="138"/>
-      <c r="C10" s="138"/>
-      <c r="D10" s="138"/>
-      <c r="E10" s="138"/>
-      <c r="F10" s="138"/>
-      <c r="G10" s="138"/>
-      <c r="H10" s="138"/>
-      <c r="I10" s="138"/>
-      <c r="J10" s="138"/>
-      <c r="K10" s="138"/>
-      <c r="L10" s="138"/>
-      <c r="M10" s="138"/>
-      <c r="N10" s="138"/>
-      <c r="O10" s="138"/>
-      <c r="P10" s="139"/>
+      <c r="A10" s="136"/>
+      <c r="B10" s="137"/>
+      <c r="C10" s="137"/>
+      <c r="D10" s="137"/>
+      <c r="E10" s="137"/>
+      <c r="F10" s="137"/>
+      <c r="G10" s="137"/>
+      <c r="H10" s="137"/>
+      <c r="I10" s="137"/>
+      <c r="J10" s="137"/>
+      <c r="K10" s="137"/>
+      <c r="L10" s="137"/>
+      <c r="M10" s="137"/>
+      <c r="N10" s="137"/>
+      <c r="O10" s="137"/>
+      <c r="P10" s="138"/>
     </row>
     <row r="11" spans="1:16" ht="30" customHeight="1">
-      <c r="A11" s="137"/>
-      <c r="B11" s="138"/>
-      <c r="C11" s="138"/>
-      <c r="D11" s="138"/>
-      <c r="E11" s="138"/>
-      <c r="F11" s="138"/>
-      <c r="G11" s="138"/>
-      <c r="H11" s="138"/>
-      <c r="I11" s="138"/>
-      <c r="J11" s="138"/>
-      <c r="K11" s="138"/>
-      <c r="L11" s="138"/>
-      <c r="M11" s="138"/>
-      <c r="N11" s="138"/>
-      <c r="O11" s="138"/>
-      <c r="P11" s="139"/>
+      <c r="A11" s="136"/>
+      <c r="B11" s="137"/>
+      <c r="C11" s="137"/>
+      <c r="D11" s="137"/>
+      <c r="E11" s="137"/>
+      <c r="F11" s="137"/>
+      <c r="G11" s="137"/>
+      <c r="H11" s="137"/>
+      <c r="I11" s="137"/>
+      <c r="J11" s="137"/>
+      <c r="K11" s="137"/>
+      <c r="L11" s="137"/>
+      <c r="M11" s="137"/>
+      <c r="N11" s="137"/>
+      <c r="O11" s="137"/>
+      <c r="P11" s="138"/>
     </row>
     <row r="12" spans="1:16" ht="30" customHeight="1">
-      <c r="A12" s="137"/>
-      <c r="B12" s="138"/>
-      <c r="C12" s="138"/>
-      <c r="D12" s="138"/>
-      <c r="E12" s="138"/>
-      <c r="F12" s="138"/>
-      <c r="G12" s="138"/>
-      <c r="H12" s="138"/>
-      <c r="I12" s="138"/>
-      <c r="J12" s="138"/>
-      <c r="K12" s="138"/>
-      <c r="L12" s="138"/>
-      <c r="M12" s="138"/>
-      <c r="N12" s="138"/>
-      <c r="O12" s="138"/>
-      <c r="P12" s="139"/>
+      <c r="A12" s="136"/>
+      <c r="B12" s="137"/>
+      <c r="C12" s="137"/>
+      <c r="D12" s="137"/>
+      <c r="E12" s="137"/>
+      <c r="F12" s="137"/>
+      <c r="G12" s="137"/>
+      <c r="H12" s="137"/>
+      <c r="I12" s="137"/>
+      <c r="J12" s="137"/>
+      <c r="K12" s="137"/>
+      <c r="L12" s="137"/>
+      <c r="M12" s="137"/>
+      <c r="N12" s="137"/>
+      <c r="O12" s="137"/>
+      <c r="P12" s="138"/>
     </row>
     <row r="13" spans="1:16" ht="30" customHeight="1">
-      <c r="A13" s="137"/>
-      <c r="B13" s="138"/>
-      <c r="C13" s="138"/>
-      <c r="D13" s="138"/>
-      <c r="E13" s="138"/>
-      <c r="F13" s="138"/>
-      <c r="G13" s="138"/>
-      <c r="H13" s="138"/>
-      <c r="I13" s="138"/>
-      <c r="J13" s="138"/>
-      <c r="K13" s="138"/>
-      <c r="L13" s="138"/>
-      <c r="M13" s="138"/>
-      <c r="N13" s="138"/>
-      <c r="O13" s="138"/>
-      <c r="P13" s="139"/>
+      <c r="A13" s="136"/>
+      <c r="B13" s="137"/>
+      <c r="C13" s="137"/>
+      <c r="D13" s="137"/>
+      <c r="E13" s="137"/>
+      <c r="F13" s="137"/>
+      <c r="G13" s="137"/>
+      <c r="H13" s="137"/>
+      <c r="I13" s="137"/>
+      <c r="J13" s="137"/>
+      <c r="K13" s="137"/>
+      <c r="L13" s="137"/>
+      <c r="M13" s="137"/>
+      <c r="N13" s="137"/>
+      <c r="O13" s="137"/>
+      <c r="P13" s="138"/>
     </row>
     <row r="14" spans="1:16" ht="30" customHeight="1">
-      <c r="A14" s="137"/>
-      <c r="B14" s="138"/>
-      <c r="C14" s="138"/>
-      <c r="D14" s="138"/>
-      <c r="E14" s="138"/>
-      <c r="F14" s="138"/>
-      <c r="G14" s="138"/>
-      <c r="H14" s="138"/>
-      <c r="I14" s="138"/>
-      <c r="J14" s="138"/>
-      <c r="K14" s="138"/>
-      <c r="L14" s="138"/>
-      <c r="M14" s="138"/>
-      <c r="N14" s="138"/>
-      <c r="O14" s="138"/>
-      <c r="P14" s="139"/>
+      <c r="A14" s="136"/>
+      <c r="B14" s="137"/>
+      <c r="C14" s="137"/>
+      <c r="D14" s="137"/>
+      <c r="E14" s="137"/>
+      <c r="F14" s="137"/>
+      <c r="G14" s="137"/>
+      <c r="H14" s="137"/>
+      <c r="I14" s="137"/>
+      <c r="J14" s="137"/>
+      <c r="K14" s="137"/>
+      <c r="L14" s="137"/>
+      <c r="M14" s="137"/>
+      <c r="N14" s="137"/>
+      <c r="O14" s="137"/>
+      <c r="P14" s="138"/>
     </row>
     <row r="15" spans="1:16" ht="30" customHeight="1">
-      <c r="A15" s="137"/>
-      <c r="B15" s="138"/>
-      <c r="C15" s="138"/>
-      <c r="D15" s="138"/>
-      <c r="E15" s="138"/>
-      <c r="F15" s="138"/>
-      <c r="G15" s="138"/>
-      <c r="H15" s="138"/>
-      <c r="I15" s="138"/>
-      <c r="J15" s="138"/>
-      <c r="K15" s="138"/>
-      <c r="L15" s="138"/>
-      <c r="M15" s="138"/>
-      <c r="N15" s="138"/>
-      <c r="O15" s="138"/>
-      <c r="P15" s="139"/>
+      <c r="A15" s="136"/>
+      <c r="B15" s="137"/>
+      <c r="C15" s="137"/>
+      <c r="D15" s="137"/>
+      <c r="E15" s="137"/>
+      <c r="F15" s="137"/>
+      <c r="G15" s="137"/>
+      <c r="H15" s="137"/>
+      <c r="I15" s="137"/>
+      <c r="J15" s="137"/>
+      <c r="K15" s="137"/>
+      <c r="L15" s="137"/>
+      <c r="M15" s="137"/>
+      <c r="N15" s="137"/>
+      <c r="O15" s="137"/>
+      <c r="P15" s="138"/>
     </row>
     <row r="16" spans="1:16" ht="30" customHeight="1">
-      <c r="A16" s="137"/>
-      <c r="B16" s="138"/>
-      <c r="C16" s="138"/>
-      <c r="D16" s="138"/>
-      <c r="E16" s="138"/>
-      <c r="F16" s="138"/>
-      <c r="G16" s="138"/>
-      <c r="H16" s="138"/>
-      <c r="I16" s="138"/>
-      <c r="J16" s="138"/>
-      <c r="K16" s="138"/>
-      <c r="L16" s="138"/>
-      <c r="M16" s="138"/>
-      <c r="N16" s="138"/>
-      <c r="O16" s="138"/>
-      <c r="P16" s="139"/>
+      <c r="A16" s="136"/>
+      <c r="B16" s="137"/>
+      <c r="C16" s="137"/>
+      <c r="D16" s="137"/>
+      <c r="E16" s="137"/>
+      <c r="F16" s="137"/>
+      <c r="G16" s="137"/>
+      <c r="H16" s="137"/>
+      <c r="I16" s="137"/>
+      <c r="J16" s="137"/>
+      <c r="K16" s="137"/>
+      <c r="L16" s="137"/>
+      <c r="M16" s="137"/>
+      <c r="N16" s="137"/>
+      <c r="O16" s="137"/>
+      <c r="P16" s="138"/>
     </row>
     <row r="17" spans="1:16" ht="30" customHeight="1">
-      <c r="A17" s="137"/>
-      <c r="B17" s="138"/>
-      <c r="C17" s="138"/>
-      <c r="D17" s="138"/>
-      <c r="E17" s="138"/>
-      <c r="F17" s="138"/>
-      <c r="G17" s="138"/>
-      <c r="H17" s="138"/>
-      <c r="I17" s="138"/>
-      <c r="J17" s="138"/>
-      <c r="K17" s="138"/>
-      <c r="L17" s="138"/>
-      <c r="M17" s="138"/>
-      <c r="N17" s="138"/>
-      <c r="O17" s="138"/>
-      <c r="P17" s="139"/>
+      <c r="A17" s="136"/>
+      <c r="B17" s="137"/>
+      <c r="C17" s="137"/>
+      <c r="D17" s="137"/>
+      <c r="E17" s="137"/>
+      <c r="F17" s="137"/>
+      <c r="G17" s="137"/>
+      <c r="H17" s="137"/>
+      <c r="I17" s="137"/>
+      <c r="J17" s="137"/>
+      <c r="K17" s="137"/>
+      <c r="L17" s="137"/>
+      <c r="M17" s="137"/>
+      <c r="N17" s="137"/>
+      <c r="O17" s="137"/>
+      <c r="P17" s="138"/>
     </row>
     <row r="18" spans="1:16" ht="30" customHeight="1">
-      <c r="A18" s="137"/>
-      <c r="B18" s="138"/>
-      <c r="C18" s="138"/>
-      <c r="D18" s="138"/>
-      <c r="E18" s="138"/>
-      <c r="F18" s="138"/>
-      <c r="G18" s="138"/>
-      <c r="H18" s="138"/>
-      <c r="I18" s="138"/>
-      <c r="J18" s="138"/>
-      <c r="K18" s="138"/>
-      <c r="L18" s="138"/>
-      <c r="M18" s="138"/>
-      <c r="N18" s="138"/>
-      <c r="O18" s="138"/>
-      <c r="P18" s="139"/>
+      <c r="A18" s="136"/>
+      <c r="B18" s="137"/>
+      <c r="C18" s="137"/>
+      <c r="D18" s="137"/>
+      <c r="E18" s="137"/>
+      <c r="F18" s="137"/>
+      <c r="G18" s="137"/>
+      <c r="H18" s="137"/>
+      <c r="I18" s="137"/>
+      <c r="J18" s="137"/>
+      <c r="K18" s="137"/>
+      <c r="L18" s="137"/>
+      <c r="M18" s="137"/>
+      <c r="N18" s="137"/>
+      <c r="O18" s="137"/>
+      <c r="P18" s="138"/>
     </row>
     <row r="19" spans="1:16" ht="30" customHeight="1">
-      <c r="A19" s="137"/>
-      <c r="B19" s="138"/>
-      <c r="C19" s="138"/>
-      <c r="D19" s="138"/>
-      <c r="E19" s="138"/>
-      <c r="F19" s="138"/>
-      <c r="G19" s="138"/>
-      <c r="H19" s="138"/>
-      <c r="I19" s="138"/>
-      <c r="J19" s="138"/>
-      <c r="K19" s="138"/>
-      <c r="L19" s="138"/>
-      <c r="M19" s="138"/>
-      <c r="N19" s="138"/>
-      <c r="O19" s="138"/>
-      <c r="P19" s="139"/>
+      <c r="A19" s="136"/>
+      <c r="B19" s="137"/>
+      <c r="C19" s="137"/>
+      <c r="D19" s="137"/>
+      <c r="E19" s="137"/>
+      <c r="F19" s="137"/>
+      <c r="G19" s="137"/>
+      <c r="H19" s="137"/>
+      <c r="I19" s="137"/>
+      <c r="J19" s="137"/>
+      <c r="K19" s="137"/>
+      <c r="L19" s="137"/>
+      <c r="M19" s="137"/>
+      <c r="N19" s="137"/>
+      <c r="O19" s="137"/>
+      <c r="P19" s="138"/>
     </row>
     <row r="20" spans="1:16" ht="30" customHeight="1">
-      <c r="A20" s="137"/>
-      <c r="B20" s="138"/>
-      <c r="C20" s="138"/>
-      <c r="D20" s="138"/>
-      <c r="E20" s="138"/>
-      <c r="F20" s="138"/>
-      <c r="G20" s="138"/>
-      <c r="H20" s="138"/>
-      <c r="I20" s="138"/>
-      <c r="J20" s="138"/>
-      <c r="K20" s="138"/>
-      <c r="L20" s="138"/>
-      <c r="M20" s="138"/>
-      <c r="N20" s="138"/>
-      <c r="O20" s="138"/>
-      <c r="P20" s="139"/>
+      <c r="A20" s="136"/>
+      <c r="B20" s="137"/>
+      <c r="C20" s="137"/>
+      <c r="D20" s="137"/>
+      <c r="E20" s="137"/>
+      <c r="F20" s="137"/>
+      <c r="G20" s="137"/>
+      <c r="H20" s="137"/>
+      <c r="I20" s="137"/>
+      <c r="J20" s="137"/>
+      <c r="K20" s="137"/>
+      <c r="L20" s="137"/>
+      <c r="M20" s="137"/>
+      <c r="N20" s="137"/>
+      <c r="O20" s="137"/>
+      <c r="P20" s="138"/>
     </row>
     <row r="21" spans="1:16" ht="30" customHeight="1">
-      <c r="A21" s="137"/>
-      <c r="B21" s="138"/>
-      <c r="C21" s="138"/>
-      <c r="D21" s="138"/>
-      <c r="E21" s="138"/>
-      <c r="F21" s="138"/>
-      <c r="G21" s="138"/>
-      <c r="H21" s="138"/>
-      <c r="I21" s="138"/>
-      <c r="J21" s="138"/>
-      <c r="K21" s="138"/>
-      <c r="L21" s="138"/>
-      <c r="M21" s="138"/>
-      <c r="N21" s="138"/>
-      <c r="O21" s="138"/>
-      <c r="P21" s="139"/>
+      <c r="A21" s="136"/>
+      <c r="B21" s="137"/>
+      <c r="C21" s="137"/>
+      <c r="D21" s="137"/>
+      <c r="E21" s="137"/>
+      <c r="F21" s="137"/>
+      <c r="G21" s="137"/>
+      <c r="H21" s="137"/>
+      <c r="I21" s="137"/>
+      <c r="J21" s="137"/>
+      <c r="K21" s="137"/>
+      <c r="L21" s="137"/>
+      <c r="M21" s="137"/>
+      <c r="N21" s="137"/>
+      <c r="O21" s="137"/>
+      <c r="P21" s="138"/>
     </row>
     <row r="22" spans="1:16" ht="30" customHeight="1">
-      <c r="A22" s="137"/>
-      <c r="B22" s="138"/>
-      <c r="C22" s="138"/>
-      <c r="D22" s="138"/>
-      <c r="E22" s="138"/>
-      <c r="F22" s="138"/>
-      <c r="G22" s="138"/>
-      <c r="H22" s="138"/>
-      <c r="I22" s="138"/>
-      <c r="J22" s="138"/>
-      <c r="K22" s="138"/>
-      <c r="L22" s="138"/>
-      <c r="M22" s="138"/>
-      <c r="N22" s="138"/>
-      <c r="O22" s="138"/>
-      <c r="P22" s="139"/>
+      <c r="A22" s="136"/>
+      <c r="B22" s="137"/>
+      <c r="C22" s="137"/>
+      <c r="D22" s="137"/>
+      <c r="E22" s="137"/>
+      <c r="F22" s="137"/>
+      <c r="G22" s="137"/>
+      <c r="H22" s="137"/>
+      <c r="I22" s="137"/>
+      <c r="J22" s="137"/>
+      <c r="K22" s="137"/>
+      <c r="L22" s="137"/>
+      <c r="M22" s="137"/>
+      <c r="N22" s="137"/>
+      <c r="O22" s="137"/>
+      <c r="P22" s="138"/>
     </row>
     <row r="23" spans="1:16" ht="30" customHeight="1">
-      <c r="A23" s="137"/>
-      <c r="B23" s="138"/>
-      <c r="C23" s="138"/>
-      <c r="D23" s="138"/>
-      <c r="E23" s="138"/>
-      <c r="F23" s="138"/>
-      <c r="G23" s="138"/>
-      <c r="H23" s="138"/>
-      <c r="I23" s="138"/>
-      <c r="J23" s="138"/>
-      <c r="K23" s="138"/>
-      <c r="L23" s="138"/>
-      <c r="M23" s="138"/>
-      <c r="N23" s="138"/>
-      <c r="O23" s="138"/>
-      <c r="P23" s="139"/>
+      <c r="A23" s="136"/>
+      <c r="B23" s="137"/>
+      <c r="C23" s="137"/>
+      <c r="D23" s="137"/>
+      <c r="E23" s="137"/>
+      <c r="F23" s="137"/>
+      <c r="G23" s="137"/>
+      <c r="H23" s="137"/>
+      <c r="I23" s="137"/>
+      <c r="J23" s="137"/>
+      <c r="K23" s="137"/>
+      <c r="L23" s="137"/>
+      <c r="M23" s="137"/>
+      <c r="N23" s="137"/>
+      <c r="O23" s="137"/>
+      <c r="P23" s="138"/>
     </row>
     <row r="24" spans="1:16" ht="30" customHeight="1">
-      <c r="A24" s="137"/>
-      <c r="B24" s="138"/>
-      <c r="C24" s="138"/>
-      <c r="D24" s="138"/>
-      <c r="E24" s="138"/>
-      <c r="F24" s="138"/>
-      <c r="G24" s="138"/>
-      <c r="H24" s="138"/>
-      <c r="I24" s="138"/>
-      <c r="J24" s="138"/>
-      <c r="K24" s="138"/>
-      <c r="L24" s="138"/>
-      <c r="M24" s="138"/>
-      <c r="N24" s="138"/>
-      <c r="O24" s="138"/>
-      <c r="P24" s="139"/>
+      <c r="A24" s="136"/>
+      <c r="B24" s="137"/>
+      <c r="C24" s="137"/>
+      <c r="D24" s="137"/>
+      <c r="E24" s="137"/>
+      <c r="F24" s="137"/>
+      <c r="G24" s="137"/>
+      <c r="H24" s="137"/>
+      <c r="I24" s="137"/>
+      <c r="J24" s="137"/>
+      <c r="K24" s="137"/>
+      <c r="L24" s="137"/>
+      <c r="M24" s="137"/>
+      <c r="N24" s="137"/>
+      <c r="O24" s="137"/>
+      <c r="P24" s="138"/>
     </row>
     <row r="25" spans="1:16" ht="30" customHeight="1">
-      <c r="A25" s="137"/>
-      <c r="B25" s="138"/>
-      <c r="C25" s="138"/>
-      <c r="D25" s="138"/>
-      <c r="E25" s="138"/>
-      <c r="F25" s="138"/>
-      <c r="G25" s="138"/>
-      <c r="H25" s="138"/>
-      <c r="I25" s="138"/>
-      <c r="J25" s="138"/>
-      <c r="K25" s="138"/>
-      <c r="L25" s="138"/>
-      <c r="M25" s="138"/>
-      <c r="N25" s="138"/>
-      <c r="O25" s="138"/>
-      <c r="P25" s="139"/>
+      <c r="A25" s="136"/>
+      <c r="B25" s="137"/>
+      <c r="C25" s="137"/>
+      <c r="D25" s="137"/>
+      <c r="E25" s="137"/>
+      <c r="F25" s="137"/>
+      <c r="G25" s="137"/>
+      <c r="H25" s="137"/>
+      <c r="I25" s="137"/>
+      <c r="J25" s="137"/>
+      <c r="K25" s="137"/>
+      <c r="L25" s="137"/>
+      <c r="M25" s="137"/>
+      <c r="N25" s="137"/>
+      <c r="O25" s="137"/>
+      <c r="P25" s="138"/>
     </row>
     <row r="26" spans="1:16" ht="30" customHeight="1">
-      <c r="A26" s="137"/>
-      <c r="B26" s="138"/>
-      <c r="C26" s="138"/>
-      <c r="D26" s="138"/>
-      <c r="E26" s="138"/>
-      <c r="F26" s="138"/>
-      <c r="G26" s="138"/>
-      <c r="H26" s="138"/>
-      <c r="I26" s="138"/>
-      <c r="J26" s="138"/>
-      <c r="K26" s="138"/>
-      <c r="L26" s="138"/>
-      <c r="M26" s="138"/>
-      <c r="N26" s="138"/>
-      <c r="O26" s="138"/>
-      <c r="P26" s="139"/>
+      <c r="A26" s="136"/>
+      <c r="B26" s="137"/>
+      <c r="C26" s="137"/>
+      <c r="D26" s="137"/>
+      <c r="E26" s="137"/>
+      <c r="F26" s="137"/>
+      <c r="G26" s="137"/>
+      <c r="H26" s="137"/>
+      <c r="I26" s="137"/>
+      <c r="J26" s="137"/>
+      <c r="K26" s="137"/>
+      <c r="L26" s="137"/>
+      <c r="M26" s="137"/>
+      <c r="N26" s="137"/>
+      <c r="O26" s="137"/>
+      <c r="P26" s="138"/>
     </row>
     <row r="27" spans="1:16" ht="30" customHeight="1">
-      <c r="A27" s="137"/>
-      <c r="B27" s="138"/>
-      <c r="C27" s="138"/>
-      <c r="D27" s="138"/>
-      <c r="E27" s="138"/>
-      <c r="F27" s="138"/>
-      <c r="G27" s="138"/>
-      <c r="H27" s="138"/>
-      <c r="I27" s="138"/>
-      <c r="J27" s="138"/>
-      <c r="K27" s="138"/>
-      <c r="L27" s="138"/>
-      <c r="M27" s="138"/>
-      <c r="N27" s="138"/>
-      <c r="O27" s="138"/>
-      <c r="P27" s="139"/>
+      <c r="A27" s="136"/>
+      <c r="B27" s="137"/>
+      <c r="C27" s="137"/>
+      <c r="D27" s="137"/>
+      <c r="E27" s="137"/>
+      <c r="F27" s="137"/>
+      <c r="G27" s="137"/>
+      <c r="H27" s="137"/>
+      <c r="I27" s="137"/>
+      <c r="J27" s="137"/>
+      <c r="K27" s="137"/>
+      <c r="L27" s="137"/>
+      <c r="M27" s="137"/>
+      <c r="N27" s="137"/>
+      <c r="O27" s="137"/>
+      <c r="P27" s="138"/>
     </row>
     <row r="28" spans="1:16" ht="30" customHeight="1">
-      <c r="A28" s="137"/>
-      <c r="B28" s="138"/>
-      <c r="C28" s="138"/>
-      <c r="D28" s="138"/>
-      <c r="E28" s="138"/>
-      <c r="F28" s="138"/>
-      <c r="G28" s="138"/>
-      <c r="H28" s="138"/>
-      <c r="I28" s="138"/>
-      <c r="J28" s="138"/>
-      <c r="K28" s="138"/>
-      <c r="L28" s="138"/>
-      <c r="M28" s="138"/>
-      <c r="N28" s="138"/>
-      <c r="O28" s="138"/>
-      <c r="P28" s="139"/>
+      <c r="A28" s="136"/>
+      <c r="B28" s="137"/>
+      <c r="C28" s="137"/>
+      <c r="D28" s="137"/>
+      <c r="E28" s="137"/>
+      <c r="F28" s="137"/>
+      <c r="G28" s="137"/>
+      <c r="H28" s="137"/>
+      <c r="I28" s="137"/>
+      <c r="J28" s="137"/>
+      <c r="K28" s="137"/>
+      <c r="L28" s="137"/>
+      <c r="M28" s="137"/>
+      <c r="N28" s="137"/>
+      <c r="O28" s="137"/>
+      <c r="P28" s="138"/>
     </row>
     <row r="29" spans="1:16" ht="30" customHeight="1">
-      <c r="A29" s="140"/>
-      <c r="B29" s="141"/>
-      <c r="C29" s="141"/>
-      <c r="D29" s="141"/>
-      <c r="E29" s="141"/>
-      <c r="F29" s="141"/>
-      <c r="G29" s="141"/>
-      <c r="H29" s="141"/>
-      <c r="I29" s="141"/>
-      <c r="J29" s="141"/>
-      <c r="K29" s="141"/>
-      <c r="L29" s="141"/>
-      <c r="M29" s="141"/>
-      <c r="N29" s="141"/>
-      <c r="O29" s="141"/>
-      <c r="P29" s="142"/>
+      <c r="A29" s="139"/>
+      <c r="B29" s="140"/>
+      <c r="C29" s="140"/>
+      <c r="D29" s="140"/>
+      <c r="E29" s="140"/>
+      <c r="F29" s="140"/>
+      <c r="G29" s="140"/>
+      <c r="H29" s="140"/>
+      <c r="I29" s="140"/>
+      <c r="J29" s="140"/>
+      <c r="K29" s="140"/>
+      <c r="L29" s="140"/>
+      <c r="M29" s="140"/>
+      <c r="N29" s="140"/>
+      <c r="O29" s="140"/>
+      <c r="P29" s="141"/>
     </row>
     <row r="31" spans="1:16" ht="13.5" customHeight="1"/>
     <row r="32" spans="1:16" ht="13.5" customHeight="1"/>
@@ -10111,34 +9942,34 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="75" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:P29"/>
+    <sheetView view="pageBreakPreview" zoomScale="75" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:P3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.5" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="5.44140625" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="16" width="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="30" customHeight="1">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="127" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
-      <c r="H1" s="129"/>
-      <c r="I1" s="129"/>
-      <c r="J1" s="129"/>
-      <c r="K1" s="129"/>
-      <c r="L1" s="129"/>
-      <c r="M1" s="129"/>
-      <c r="N1" s="129"/>
-      <c r="O1" s="129"/>
-      <c r="P1" s="130"/>
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="128"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="128"/>
+      <c r="I1" s="128"/>
+      <c r="J1" s="128"/>
+      <c r="K1" s="128"/>
+      <c r="L1" s="128"/>
+      <c r="M1" s="128"/>
+      <c r="N1" s="128"/>
+      <c r="O1" s="128"/>
+      <c r="P1" s="129"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1">
       <c r="A2" s="20"/>
@@ -10159,492 +9990,492 @@
       <c r="P2" s="20"/>
     </row>
     <row r="3" spans="1:16" ht="30" customHeight="1">
-      <c r="A3" s="131" t="s">
+      <c r="A3" s="130" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="132"/>
-      <c r="C3" s="132"/>
-      <c r="D3" s="132"/>
-      <c r="E3" s="132"/>
-      <c r="F3" s="132"/>
-      <c r="G3" s="132"/>
-      <c r="H3" s="132"/>
-      <c r="I3" s="132"/>
-      <c r="J3" s="132"/>
-      <c r="K3" s="132"/>
-      <c r="L3" s="132"/>
-      <c r="M3" s="132"/>
-      <c r="N3" s="132"/>
-      <c r="O3" s="132"/>
-      <c r="P3" s="133"/>
+      <c r="B3" s="131"/>
+      <c r="C3" s="131"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="131"/>
+      <c r="L3" s="131"/>
+      <c r="M3" s="131"/>
+      <c r="N3" s="131"/>
+      <c r="O3" s="131"/>
+      <c r="P3" s="132"/>
     </row>
     <row r="4" spans="1:16" ht="30" customHeight="1">
-      <c r="A4" s="134"/>
-      <c r="B4" s="135"/>
-      <c r="C4" s="135"/>
-      <c r="D4" s="135"/>
-      <c r="E4" s="135"/>
-      <c r="F4" s="135"/>
-      <c r="G4" s="135"/>
-      <c r="H4" s="135"/>
-      <c r="I4" s="135"/>
-      <c r="J4" s="135"/>
-      <c r="K4" s="135"/>
-      <c r="L4" s="135"/>
-      <c r="M4" s="135"/>
-      <c r="N4" s="135"/>
-      <c r="O4" s="135"/>
-      <c r="P4" s="136"/>
+      <c r="A4" s="133"/>
+      <c r="B4" s="134"/>
+      <c r="C4" s="134"/>
+      <c r="D4" s="134"/>
+      <c r="E4" s="134"/>
+      <c r="F4" s="134"/>
+      <c r="G4" s="134"/>
+      <c r="H4" s="134"/>
+      <c r="I4" s="134"/>
+      <c r="J4" s="134"/>
+      <c r="K4" s="134"/>
+      <c r="L4" s="134"/>
+      <c r="M4" s="134"/>
+      <c r="N4" s="134"/>
+      <c r="O4" s="134"/>
+      <c r="P4" s="135"/>
     </row>
     <row r="5" spans="1:16" ht="30" customHeight="1">
-      <c r="A5" s="137"/>
-      <c r="B5" s="138"/>
-      <c r="C5" s="138"/>
-      <c r="D5" s="138"/>
-      <c r="E5" s="138"/>
-      <c r="F5" s="138"/>
-      <c r="G5" s="138"/>
-      <c r="H5" s="138"/>
-      <c r="I5" s="138"/>
-      <c r="J5" s="138"/>
-      <c r="K5" s="138"/>
-      <c r="L5" s="138"/>
-      <c r="M5" s="138"/>
-      <c r="N5" s="138"/>
-      <c r="O5" s="138"/>
-      <c r="P5" s="139"/>
+      <c r="A5" s="136"/>
+      <c r="B5" s="137"/>
+      <c r="C5" s="137"/>
+      <c r="D5" s="137"/>
+      <c r="E5" s="137"/>
+      <c r="F5" s="137"/>
+      <c r="G5" s="137"/>
+      <c r="H5" s="137"/>
+      <c r="I5" s="137"/>
+      <c r="J5" s="137"/>
+      <c r="K5" s="137"/>
+      <c r="L5" s="137"/>
+      <c r="M5" s="137"/>
+      <c r="N5" s="137"/>
+      <c r="O5" s="137"/>
+      <c r="P5" s="138"/>
     </row>
     <row r="6" spans="1:16" ht="30" customHeight="1">
-      <c r="A6" s="137"/>
-      <c r="B6" s="138"/>
-      <c r="C6" s="138"/>
-      <c r="D6" s="138"/>
-      <c r="E6" s="138"/>
-      <c r="F6" s="138"/>
-      <c r="G6" s="138"/>
-      <c r="H6" s="138"/>
-      <c r="I6" s="138"/>
-      <c r="J6" s="138"/>
-      <c r="K6" s="138"/>
-      <c r="L6" s="138"/>
-      <c r="M6" s="138"/>
-      <c r="N6" s="138"/>
-      <c r="O6" s="138"/>
-      <c r="P6" s="139"/>
+      <c r="A6" s="136"/>
+      <c r="B6" s="137"/>
+      <c r="C6" s="137"/>
+      <c r="D6" s="137"/>
+      <c r="E6" s="137"/>
+      <c r="F6" s="137"/>
+      <c r="G6" s="137"/>
+      <c r="H6" s="137"/>
+      <c r="I6" s="137"/>
+      <c r="J6" s="137"/>
+      <c r="K6" s="137"/>
+      <c r="L6" s="137"/>
+      <c r="M6" s="137"/>
+      <c r="N6" s="137"/>
+      <c r="O6" s="137"/>
+      <c r="P6" s="138"/>
     </row>
     <row r="7" spans="1:16" ht="30" customHeight="1">
-      <c r="A7" s="137"/>
-      <c r="B7" s="138"/>
-      <c r="C7" s="138"/>
-      <c r="D7" s="138"/>
-      <c r="E7" s="138"/>
-      <c r="F7" s="138"/>
-      <c r="G7" s="138"/>
-      <c r="H7" s="138"/>
-      <c r="I7" s="138"/>
-      <c r="J7" s="138"/>
-      <c r="K7" s="138"/>
-      <c r="L7" s="138"/>
-      <c r="M7" s="138"/>
-      <c r="N7" s="138"/>
-      <c r="O7" s="138"/>
-      <c r="P7" s="139"/>
+      <c r="A7" s="136"/>
+      <c r="B7" s="137"/>
+      <c r="C7" s="137"/>
+      <c r="D7" s="137"/>
+      <c r="E7" s="137"/>
+      <c r="F7" s="137"/>
+      <c r="G7" s="137"/>
+      <c r="H7" s="137"/>
+      <c r="I7" s="137"/>
+      <c r="J7" s="137"/>
+      <c r="K7" s="137"/>
+      <c r="L7" s="137"/>
+      <c r="M7" s="137"/>
+      <c r="N7" s="137"/>
+      <c r="O7" s="137"/>
+      <c r="P7" s="138"/>
     </row>
     <row r="8" spans="1:16" ht="30" customHeight="1">
-      <c r="A8" s="137"/>
-      <c r="B8" s="138"/>
-      <c r="C8" s="138"/>
-      <c r="D8" s="138"/>
-      <c r="E8" s="138"/>
-      <c r="F8" s="138"/>
-      <c r="G8" s="138"/>
-      <c r="H8" s="138"/>
-      <c r="I8" s="138"/>
-      <c r="J8" s="138"/>
-      <c r="K8" s="138"/>
-      <c r="L8" s="138"/>
-      <c r="M8" s="138"/>
-      <c r="N8" s="138"/>
-      <c r="O8" s="138"/>
-      <c r="P8" s="139"/>
+      <c r="A8" s="136"/>
+      <c r="B8" s="137"/>
+      <c r="C8" s="137"/>
+      <c r="D8" s="137"/>
+      <c r="E8" s="137"/>
+      <c r="F8" s="137"/>
+      <c r="G8" s="137"/>
+      <c r="H8" s="137"/>
+      <c r="I8" s="137"/>
+      <c r="J8" s="137"/>
+      <c r="K8" s="137"/>
+      <c r="L8" s="137"/>
+      <c r="M8" s="137"/>
+      <c r="N8" s="137"/>
+      <c r="O8" s="137"/>
+      <c r="P8" s="138"/>
     </row>
     <row r="9" spans="1:16" ht="30" customHeight="1">
-      <c r="A9" s="137"/>
-      <c r="B9" s="138"/>
-      <c r="C9" s="138"/>
-      <c r="D9" s="138"/>
-      <c r="E9" s="138"/>
-      <c r="F9" s="138"/>
-      <c r="G9" s="138"/>
-      <c r="H9" s="138"/>
-      <c r="I9" s="138"/>
-      <c r="J9" s="138"/>
-      <c r="K9" s="138"/>
-      <c r="L9" s="138"/>
-      <c r="M9" s="138"/>
-      <c r="N9" s="138"/>
-      <c r="O9" s="138"/>
-      <c r="P9" s="139"/>
+      <c r="A9" s="136"/>
+      <c r="B9" s="137"/>
+      <c r="C9" s="137"/>
+      <c r="D9" s="137"/>
+      <c r="E9" s="137"/>
+      <c r="F9" s="137"/>
+      <c r="G9" s="137"/>
+      <c r="H9" s="137"/>
+      <c r="I9" s="137"/>
+      <c r="J9" s="137"/>
+      <c r="K9" s="137"/>
+      <c r="L9" s="137"/>
+      <c r="M9" s="137"/>
+      <c r="N9" s="137"/>
+      <c r="O9" s="137"/>
+      <c r="P9" s="138"/>
     </row>
     <row r="10" spans="1:16" ht="30" customHeight="1">
-      <c r="A10" s="137"/>
-      <c r="B10" s="138"/>
-      <c r="C10" s="138"/>
-      <c r="D10" s="138"/>
-      <c r="E10" s="138"/>
-      <c r="F10" s="138"/>
-      <c r="G10" s="138"/>
-      <c r="H10" s="138"/>
-      <c r="I10" s="138"/>
-      <c r="J10" s="138"/>
-      <c r="K10" s="138"/>
-      <c r="L10" s="138"/>
-      <c r="M10" s="138"/>
-      <c r="N10" s="138"/>
-      <c r="O10" s="138"/>
-      <c r="P10" s="139"/>
+      <c r="A10" s="136"/>
+      <c r="B10" s="137"/>
+      <c r="C10" s="137"/>
+      <c r="D10" s="137"/>
+      <c r="E10" s="137"/>
+      <c r="F10" s="137"/>
+      <c r="G10" s="137"/>
+      <c r="H10" s="137"/>
+      <c r="I10" s="137"/>
+      <c r="J10" s="137"/>
+      <c r="K10" s="137"/>
+      <c r="L10" s="137"/>
+      <c r="M10" s="137"/>
+      <c r="N10" s="137"/>
+      <c r="O10" s="137"/>
+      <c r="P10" s="138"/>
     </row>
     <row r="11" spans="1:16" ht="30" customHeight="1">
-      <c r="A11" s="137"/>
-      <c r="B11" s="138"/>
-      <c r="C11" s="138"/>
-      <c r="D11" s="138"/>
-      <c r="E11" s="138"/>
-      <c r="F11" s="138"/>
-      <c r="G11" s="138"/>
-      <c r="H11" s="138"/>
-      <c r="I11" s="138"/>
-      <c r="J11" s="138"/>
-      <c r="K11" s="138"/>
-      <c r="L11" s="138"/>
-      <c r="M11" s="138"/>
-      <c r="N11" s="138"/>
-      <c r="O11" s="138"/>
-      <c r="P11" s="139"/>
+      <c r="A11" s="136"/>
+      <c r="B11" s="137"/>
+      <c r="C11" s="137"/>
+      <c r="D11" s="137"/>
+      <c r="E11" s="137"/>
+      <c r="F11" s="137"/>
+      <c r="G11" s="137"/>
+      <c r="H11" s="137"/>
+      <c r="I11" s="137"/>
+      <c r="J11" s="137"/>
+      <c r="K11" s="137"/>
+      <c r="L11" s="137"/>
+      <c r="M11" s="137"/>
+      <c r="N11" s="137"/>
+      <c r="O11" s="137"/>
+      <c r="P11" s="138"/>
     </row>
     <row r="12" spans="1:16" ht="30" customHeight="1">
-      <c r="A12" s="137"/>
-      <c r="B12" s="138"/>
-      <c r="C12" s="138"/>
-      <c r="D12" s="138"/>
-      <c r="E12" s="138"/>
-      <c r="F12" s="138"/>
-      <c r="G12" s="138"/>
-      <c r="H12" s="138"/>
-      <c r="I12" s="138"/>
-      <c r="J12" s="138"/>
-      <c r="K12" s="138"/>
-      <c r="L12" s="138"/>
-      <c r="M12" s="138"/>
-      <c r="N12" s="138"/>
-      <c r="O12" s="138"/>
-      <c r="P12" s="139"/>
+      <c r="A12" s="136"/>
+      <c r="B12" s="137"/>
+      <c r="C12" s="137"/>
+      <c r="D12" s="137"/>
+      <c r="E12" s="137"/>
+      <c r="F12" s="137"/>
+      <c r="G12" s="137"/>
+      <c r="H12" s="137"/>
+      <c r="I12" s="137"/>
+      <c r="J12" s="137"/>
+      <c r="K12" s="137"/>
+      <c r="L12" s="137"/>
+      <c r="M12" s="137"/>
+      <c r="N12" s="137"/>
+      <c r="O12" s="137"/>
+      <c r="P12" s="138"/>
     </row>
     <row r="13" spans="1:16" ht="30" customHeight="1">
-      <c r="A13" s="137"/>
-      <c r="B13" s="138"/>
-      <c r="C13" s="138"/>
-      <c r="D13" s="138"/>
-      <c r="E13" s="138"/>
-      <c r="F13" s="138"/>
-      <c r="G13" s="138"/>
-      <c r="H13" s="138"/>
-      <c r="I13" s="138"/>
-      <c r="J13" s="138"/>
-      <c r="K13" s="138"/>
-      <c r="L13" s="138"/>
-      <c r="M13" s="138"/>
-      <c r="N13" s="138"/>
-      <c r="O13" s="138"/>
-      <c r="P13" s="139"/>
+      <c r="A13" s="136"/>
+      <c r="B13" s="137"/>
+      <c r="C13" s="137"/>
+      <c r="D13" s="137"/>
+      <c r="E13" s="137"/>
+      <c r="F13" s="137"/>
+      <c r="G13" s="137"/>
+      <c r="H13" s="137"/>
+      <c r="I13" s="137"/>
+      <c r="J13" s="137"/>
+      <c r="K13" s="137"/>
+      <c r="L13" s="137"/>
+      <c r="M13" s="137"/>
+      <c r="N13" s="137"/>
+      <c r="O13" s="137"/>
+      <c r="P13" s="138"/>
     </row>
     <row r="14" spans="1:16" ht="30" customHeight="1">
-      <c r="A14" s="137"/>
-      <c r="B14" s="138"/>
-      <c r="C14" s="138"/>
-      <c r="D14" s="138"/>
-      <c r="E14" s="138"/>
-      <c r="F14" s="138"/>
-      <c r="G14" s="138"/>
-      <c r="H14" s="138"/>
-      <c r="I14" s="138"/>
-      <c r="J14" s="138"/>
-      <c r="K14" s="138"/>
-      <c r="L14" s="138"/>
-      <c r="M14" s="138"/>
-      <c r="N14" s="138"/>
-      <c r="O14" s="138"/>
-      <c r="P14" s="139"/>
+      <c r="A14" s="136"/>
+      <c r="B14" s="137"/>
+      <c r="C14" s="137"/>
+      <c r="D14" s="137"/>
+      <c r="E14" s="137"/>
+      <c r="F14" s="137"/>
+      <c r="G14" s="137"/>
+      <c r="H14" s="137"/>
+      <c r="I14" s="137"/>
+      <c r="J14" s="137"/>
+      <c r="K14" s="137"/>
+      <c r="L14" s="137"/>
+      <c r="M14" s="137"/>
+      <c r="N14" s="137"/>
+      <c r="O14" s="137"/>
+      <c r="P14" s="138"/>
     </row>
     <row r="15" spans="1:16" ht="30" customHeight="1">
-      <c r="A15" s="137"/>
-      <c r="B15" s="138"/>
-      <c r="C15" s="138"/>
-      <c r="D15" s="138"/>
-      <c r="E15" s="138"/>
-      <c r="F15" s="138"/>
-      <c r="G15" s="138"/>
-      <c r="H15" s="138"/>
-      <c r="I15" s="138"/>
-      <c r="J15" s="138"/>
-      <c r="K15" s="138"/>
-      <c r="L15" s="138"/>
-      <c r="M15" s="138"/>
-      <c r="N15" s="138"/>
-      <c r="O15" s="138"/>
-      <c r="P15" s="139"/>
+      <c r="A15" s="136"/>
+      <c r="B15" s="137"/>
+      <c r="C15" s="137"/>
+      <c r="D15" s="137"/>
+      <c r="E15" s="137"/>
+      <c r="F15" s="137"/>
+      <c r="G15" s="137"/>
+      <c r="H15" s="137"/>
+      <c r="I15" s="137"/>
+      <c r="J15" s="137"/>
+      <c r="K15" s="137"/>
+      <c r="L15" s="137"/>
+      <c r="M15" s="137"/>
+      <c r="N15" s="137"/>
+      <c r="O15" s="137"/>
+      <c r="P15" s="138"/>
     </row>
     <row r="16" spans="1:16" ht="30" customHeight="1">
-      <c r="A16" s="137"/>
-      <c r="B16" s="138"/>
-      <c r="C16" s="138"/>
-      <c r="D16" s="138"/>
-      <c r="E16" s="138"/>
-      <c r="F16" s="138"/>
-      <c r="G16" s="138"/>
-      <c r="H16" s="138"/>
-      <c r="I16" s="138"/>
-      <c r="J16" s="138"/>
-      <c r="K16" s="138"/>
-      <c r="L16" s="138"/>
-      <c r="M16" s="138"/>
-      <c r="N16" s="138"/>
-      <c r="O16" s="138"/>
-      <c r="P16" s="139"/>
+      <c r="A16" s="136"/>
+      <c r="B16" s="137"/>
+      <c r="C16" s="137"/>
+      <c r="D16" s="137"/>
+      <c r="E16" s="137"/>
+      <c r="F16" s="137"/>
+      <c r="G16" s="137"/>
+      <c r="H16" s="137"/>
+      <c r="I16" s="137"/>
+      <c r="J16" s="137"/>
+      <c r="K16" s="137"/>
+      <c r="L16" s="137"/>
+      <c r="M16" s="137"/>
+      <c r="N16" s="137"/>
+      <c r="O16" s="137"/>
+      <c r="P16" s="138"/>
     </row>
     <row r="17" spans="1:16" ht="30" customHeight="1">
-      <c r="A17" s="137"/>
-      <c r="B17" s="138"/>
-      <c r="C17" s="138"/>
-      <c r="D17" s="138"/>
-      <c r="E17" s="138"/>
-      <c r="F17" s="138"/>
-      <c r="G17" s="138"/>
-      <c r="H17" s="138"/>
-      <c r="I17" s="138"/>
-      <c r="J17" s="138"/>
-      <c r="K17" s="138"/>
-      <c r="L17" s="138"/>
-      <c r="M17" s="138"/>
-      <c r="N17" s="138"/>
-      <c r="O17" s="138"/>
-      <c r="P17" s="139"/>
+      <c r="A17" s="136"/>
+      <c r="B17" s="137"/>
+      <c r="C17" s="137"/>
+      <c r="D17" s="137"/>
+      <c r="E17" s="137"/>
+      <c r="F17" s="137"/>
+      <c r="G17" s="137"/>
+      <c r="H17" s="137"/>
+      <c r="I17" s="137"/>
+      <c r="J17" s="137"/>
+      <c r="K17" s="137"/>
+      <c r="L17" s="137"/>
+      <c r="M17" s="137"/>
+      <c r="N17" s="137"/>
+      <c r="O17" s="137"/>
+      <c r="P17" s="138"/>
     </row>
     <row r="18" spans="1:16" ht="30" customHeight="1">
-      <c r="A18" s="137"/>
-      <c r="B18" s="138"/>
-      <c r="C18" s="138"/>
-      <c r="D18" s="138"/>
-      <c r="E18" s="138"/>
-      <c r="F18" s="138"/>
-      <c r="G18" s="138"/>
-      <c r="H18" s="138"/>
-      <c r="I18" s="138"/>
-      <c r="J18" s="138"/>
-      <c r="K18" s="138"/>
-      <c r="L18" s="138"/>
-      <c r="M18" s="138"/>
-      <c r="N18" s="138"/>
-      <c r="O18" s="138"/>
-      <c r="P18" s="139"/>
+      <c r="A18" s="136"/>
+      <c r="B18" s="137"/>
+      <c r="C18" s="137"/>
+      <c r="D18" s="137"/>
+      <c r="E18" s="137"/>
+      <c r="F18" s="137"/>
+      <c r="G18" s="137"/>
+      <c r="H18" s="137"/>
+      <c r="I18" s="137"/>
+      <c r="J18" s="137"/>
+      <c r="K18" s="137"/>
+      <c r="L18" s="137"/>
+      <c r="M18" s="137"/>
+      <c r="N18" s="137"/>
+      <c r="O18" s="137"/>
+      <c r="P18" s="138"/>
     </row>
     <row r="19" spans="1:16" ht="30" customHeight="1">
-      <c r="A19" s="137"/>
-      <c r="B19" s="138"/>
-      <c r="C19" s="138"/>
-      <c r="D19" s="138"/>
-      <c r="E19" s="138"/>
-      <c r="F19" s="138"/>
-      <c r="G19" s="138"/>
-      <c r="H19" s="138"/>
-      <c r="I19" s="138"/>
-      <c r="J19" s="138"/>
-      <c r="K19" s="138"/>
-      <c r="L19" s="138"/>
-      <c r="M19" s="138"/>
-      <c r="N19" s="138"/>
-      <c r="O19" s="138"/>
-      <c r="P19" s="139"/>
+      <c r="A19" s="136"/>
+      <c r="B19" s="137"/>
+      <c r="C19" s="137"/>
+      <c r="D19" s="137"/>
+      <c r="E19" s="137"/>
+      <c r="F19" s="137"/>
+      <c r="G19" s="137"/>
+      <c r="H19" s="137"/>
+      <c r="I19" s="137"/>
+      <c r="J19" s="137"/>
+      <c r="K19" s="137"/>
+      <c r="L19" s="137"/>
+      <c r="M19" s="137"/>
+      <c r="N19" s="137"/>
+      <c r="O19" s="137"/>
+      <c r="P19" s="138"/>
     </row>
     <row r="20" spans="1:16" ht="30" customHeight="1">
-      <c r="A20" s="137"/>
-      <c r="B20" s="138"/>
-      <c r="C20" s="138"/>
-      <c r="D20" s="138"/>
-      <c r="E20" s="138"/>
-      <c r="F20" s="138"/>
-      <c r="G20" s="138"/>
-      <c r="H20" s="138"/>
-      <c r="I20" s="138"/>
-      <c r="J20" s="138"/>
-      <c r="K20" s="138"/>
-      <c r="L20" s="138"/>
-      <c r="M20" s="138"/>
-      <c r="N20" s="138"/>
-      <c r="O20" s="138"/>
-      <c r="P20" s="139"/>
+      <c r="A20" s="136"/>
+      <c r="B20" s="137"/>
+      <c r="C20" s="137"/>
+      <c r="D20" s="137"/>
+      <c r="E20" s="137"/>
+      <c r="F20" s="137"/>
+      <c r="G20" s="137"/>
+      <c r="H20" s="137"/>
+      <c r="I20" s="137"/>
+      <c r="J20" s="137"/>
+      <c r="K20" s="137"/>
+      <c r="L20" s="137"/>
+      <c r="M20" s="137"/>
+      <c r="N20" s="137"/>
+      <c r="O20" s="137"/>
+      <c r="P20" s="138"/>
     </row>
     <row r="21" spans="1:16" ht="30" customHeight="1">
-      <c r="A21" s="137"/>
-      <c r="B21" s="138"/>
-      <c r="C21" s="138"/>
-      <c r="D21" s="138"/>
-      <c r="E21" s="138"/>
-      <c r="F21" s="138"/>
-      <c r="G21" s="138"/>
-      <c r="H21" s="138"/>
-      <c r="I21" s="138"/>
-      <c r="J21" s="138"/>
-      <c r="K21" s="138"/>
-      <c r="L21" s="138"/>
-      <c r="M21" s="138"/>
-      <c r="N21" s="138"/>
-      <c r="O21" s="138"/>
-      <c r="P21" s="139"/>
+      <c r="A21" s="136"/>
+      <c r="B21" s="137"/>
+      <c r="C21" s="137"/>
+      <c r="D21" s="137"/>
+      <c r="E21" s="137"/>
+      <c r="F21" s="137"/>
+      <c r="G21" s="137"/>
+      <c r="H21" s="137"/>
+      <c r="I21" s="137"/>
+      <c r="J21" s="137"/>
+      <c r="K21" s="137"/>
+      <c r="L21" s="137"/>
+      <c r="M21" s="137"/>
+      <c r="N21" s="137"/>
+      <c r="O21" s="137"/>
+      <c r="P21" s="138"/>
     </row>
     <row r="22" spans="1:16" ht="30" customHeight="1">
-      <c r="A22" s="137"/>
-      <c r="B22" s="138"/>
-      <c r="C22" s="138"/>
-      <c r="D22" s="138"/>
-      <c r="E22" s="138"/>
-      <c r="F22" s="138"/>
-      <c r="G22" s="138"/>
-      <c r="H22" s="138"/>
-      <c r="I22" s="138"/>
-      <c r="J22" s="138"/>
-      <c r="K22" s="138"/>
-      <c r="L22" s="138"/>
-      <c r="M22" s="138"/>
-      <c r="N22" s="138"/>
-      <c r="O22" s="138"/>
-      <c r="P22" s="139"/>
+      <c r="A22" s="136"/>
+      <c r="B22" s="137"/>
+      <c r="C22" s="137"/>
+      <c r="D22" s="137"/>
+      <c r="E22" s="137"/>
+      <c r="F22" s="137"/>
+      <c r="G22" s="137"/>
+      <c r="H22" s="137"/>
+      <c r="I22" s="137"/>
+      <c r="J22" s="137"/>
+      <c r="K22" s="137"/>
+      <c r="L22" s="137"/>
+      <c r="M22" s="137"/>
+      <c r="N22" s="137"/>
+      <c r="O22" s="137"/>
+      <c r="P22" s="138"/>
     </row>
     <row r="23" spans="1:16" ht="30" customHeight="1">
-      <c r="A23" s="137"/>
-      <c r="B23" s="138"/>
-      <c r="C23" s="138"/>
-      <c r="D23" s="138"/>
-      <c r="E23" s="138"/>
-      <c r="F23" s="138"/>
-      <c r="G23" s="138"/>
-      <c r="H23" s="138"/>
-      <c r="I23" s="138"/>
-      <c r="J23" s="138"/>
-      <c r="K23" s="138"/>
-      <c r="L23" s="138"/>
-      <c r="M23" s="138"/>
-      <c r="N23" s="138"/>
-      <c r="O23" s="138"/>
-      <c r="P23" s="139"/>
+      <c r="A23" s="136"/>
+      <c r="B23" s="137"/>
+      <c r="C23" s="137"/>
+      <c r="D23" s="137"/>
+      <c r="E23" s="137"/>
+      <c r="F23" s="137"/>
+      <c r="G23" s="137"/>
+      <c r="H23" s="137"/>
+      <c r="I23" s="137"/>
+      <c r="J23" s="137"/>
+      <c r="K23" s="137"/>
+      <c r="L23" s="137"/>
+      <c r="M23" s="137"/>
+      <c r="N23" s="137"/>
+      <c r="O23" s="137"/>
+      <c r="P23" s="138"/>
     </row>
     <row r="24" spans="1:16" ht="30" customHeight="1">
-      <c r="A24" s="137"/>
-      <c r="B24" s="138"/>
-      <c r="C24" s="138"/>
-      <c r="D24" s="138"/>
-      <c r="E24" s="138"/>
-      <c r="F24" s="138"/>
-      <c r="G24" s="138"/>
-      <c r="H24" s="138"/>
-      <c r="I24" s="138"/>
-      <c r="J24" s="138"/>
-      <c r="K24" s="138"/>
-      <c r="L24" s="138"/>
-      <c r="M24" s="138"/>
-      <c r="N24" s="138"/>
-      <c r="O24" s="138"/>
-      <c r="P24" s="139"/>
+      <c r="A24" s="136"/>
+      <c r="B24" s="137"/>
+      <c r="C24" s="137"/>
+      <c r="D24" s="137"/>
+      <c r="E24" s="137"/>
+      <c r="F24" s="137"/>
+      <c r="G24" s="137"/>
+      <c r="H24" s="137"/>
+      <c r="I24" s="137"/>
+      <c r="J24" s="137"/>
+      <c r="K24" s="137"/>
+      <c r="L24" s="137"/>
+      <c r="M24" s="137"/>
+      <c r="N24" s="137"/>
+      <c r="O24" s="137"/>
+      <c r="P24" s="138"/>
     </row>
     <row r="25" spans="1:16" ht="30" customHeight="1">
-      <c r="A25" s="137"/>
-      <c r="B25" s="138"/>
-      <c r="C25" s="138"/>
-      <c r="D25" s="138"/>
-      <c r="E25" s="138"/>
-      <c r="F25" s="138"/>
-      <c r="G25" s="138"/>
-      <c r="H25" s="138"/>
-      <c r="I25" s="138"/>
-      <c r="J25" s="138"/>
-      <c r="K25" s="138"/>
-      <c r="L25" s="138"/>
-      <c r="M25" s="138"/>
-      <c r="N25" s="138"/>
-      <c r="O25" s="138"/>
-      <c r="P25" s="139"/>
+      <c r="A25" s="136"/>
+      <c r="B25" s="137"/>
+      <c r="C25" s="137"/>
+      <c r="D25" s="137"/>
+      <c r="E25" s="137"/>
+      <c r="F25" s="137"/>
+      <c r="G25" s="137"/>
+      <c r="H25" s="137"/>
+      <c r="I25" s="137"/>
+      <c r="J25" s="137"/>
+      <c r="K25" s="137"/>
+      <c r="L25" s="137"/>
+      <c r="M25" s="137"/>
+      <c r="N25" s="137"/>
+      <c r="O25" s="137"/>
+      <c r="P25" s="138"/>
     </row>
     <row r="26" spans="1:16" ht="30" customHeight="1">
-      <c r="A26" s="137"/>
-      <c r="B26" s="138"/>
-      <c r="C26" s="138"/>
-      <c r="D26" s="138"/>
-      <c r="E26" s="138"/>
-      <c r="F26" s="138"/>
-      <c r="G26" s="138"/>
-      <c r="H26" s="138"/>
-      <c r="I26" s="138"/>
-      <c r="J26" s="138"/>
-      <c r="K26" s="138"/>
-      <c r="L26" s="138"/>
-      <c r="M26" s="138"/>
-      <c r="N26" s="138"/>
-      <c r="O26" s="138"/>
-      <c r="P26" s="139"/>
+      <c r="A26" s="136"/>
+      <c r="B26" s="137"/>
+      <c r="C26" s="137"/>
+      <c r="D26" s="137"/>
+      <c r="E26" s="137"/>
+      <c r="F26" s="137"/>
+      <c r="G26" s="137"/>
+      <c r="H26" s="137"/>
+      <c r="I26" s="137"/>
+      <c r="J26" s="137"/>
+      <c r="K26" s="137"/>
+      <c r="L26" s="137"/>
+      <c r="M26" s="137"/>
+      <c r="N26" s="137"/>
+      <c r="O26" s="137"/>
+      <c r="P26" s="138"/>
     </row>
     <row r="27" spans="1:16" ht="30" customHeight="1">
-      <c r="A27" s="137"/>
-      <c r="B27" s="138"/>
-      <c r="C27" s="138"/>
-      <c r="D27" s="138"/>
-      <c r="E27" s="138"/>
-      <c r="F27" s="138"/>
-      <c r="G27" s="138"/>
-      <c r="H27" s="138"/>
-      <c r="I27" s="138"/>
-      <c r="J27" s="138"/>
-      <c r="K27" s="138"/>
-      <c r="L27" s="138"/>
-      <c r="M27" s="138"/>
-      <c r="N27" s="138"/>
-      <c r="O27" s="138"/>
-      <c r="P27" s="139"/>
+      <c r="A27" s="136"/>
+      <c r="B27" s="137"/>
+      <c r="C27" s="137"/>
+      <c r="D27" s="137"/>
+      <c r="E27" s="137"/>
+      <c r="F27" s="137"/>
+      <c r="G27" s="137"/>
+      <c r="H27" s="137"/>
+      <c r="I27" s="137"/>
+      <c r="J27" s="137"/>
+      <c r="K27" s="137"/>
+      <c r="L27" s="137"/>
+      <c r="M27" s="137"/>
+      <c r="N27" s="137"/>
+      <c r="O27" s="137"/>
+      <c r="P27" s="138"/>
     </row>
     <row r="28" spans="1:16" ht="30" customHeight="1">
-      <c r="A28" s="137"/>
-      <c r="B28" s="138"/>
-      <c r="C28" s="138"/>
-      <c r="D28" s="138"/>
-      <c r="E28" s="138"/>
-      <c r="F28" s="138"/>
-      <c r="G28" s="138"/>
-      <c r="H28" s="138"/>
-      <c r="I28" s="138"/>
-      <c r="J28" s="138"/>
-      <c r="K28" s="138"/>
-      <c r="L28" s="138"/>
-      <c r="M28" s="138"/>
-      <c r="N28" s="138"/>
-      <c r="O28" s="138"/>
-      <c r="P28" s="139"/>
+      <c r="A28" s="136"/>
+      <c r="B28" s="137"/>
+      <c r="C28" s="137"/>
+      <c r="D28" s="137"/>
+      <c r="E28" s="137"/>
+      <c r="F28" s="137"/>
+      <c r="G28" s="137"/>
+      <c r="H28" s="137"/>
+      <c r="I28" s="137"/>
+      <c r="J28" s="137"/>
+      <c r="K28" s="137"/>
+      <c r="L28" s="137"/>
+      <c r="M28" s="137"/>
+      <c r="N28" s="137"/>
+      <c r="O28" s="137"/>
+      <c r="P28" s="138"/>
     </row>
     <row r="29" spans="1:16" ht="30" customHeight="1">
-      <c r="A29" s="140"/>
-      <c r="B29" s="141"/>
-      <c r="C29" s="141"/>
-      <c r="D29" s="141"/>
-      <c r="E29" s="141"/>
-      <c r="F29" s="141"/>
-      <c r="G29" s="141"/>
-      <c r="H29" s="141"/>
-      <c r="I29" s="141"/>
-      <c r="J29" s="141"/>
-      <c r="K29" s="141"/>
-      <c r="L29" s="141"/>
-      <c r="M29" s="141"/>
-      <c r="N29" s="141"/>
-      <c r="O29" s="141"/>
-      <c r="P29" s="142"/>
+      <c r="A29" s="139"/>
+      <c r="B29" s="140"/>
+      <c r="C29" s="140"/>
+      <c r="D29" s="140"/>
+      <c r="E29" s="140"/>
+      <c r="F29" s="140"/>
+      <c r="G29" s="140"/>
+      <c r="H29" s="140"/>
+      <c r="I29" s="140"/>
+      <c r="J29" s="140"/>
+      <c r="K29" s="140"/>
+      <c r="L29" s="140"/>
+      <c r="M29" s="140"/>
+      <c r="N29" s="140"/>
+      <c r="O29" s="140"/>
+      <c r="P29" s="141"/>
     </row>
     <row r="31" spans="1:16" ht="13.5" customHeight="1"/>
     <row r="32" spans="1:16" ht="13.5" customHeight="1"/>
@@ -10678,69 +10509,69 @@
   <dimension ref="A1:P103"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="87" zoomScaleNormal="100" zoomScaleSheetLayoutView="87" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4:O4"/>
+      <selection activeCell="Y19" sqref="Y19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.5" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="5.44140625" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="16" width="5.625" customWidth="1"/>
+    <col min="1" max="16" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="30" customHeight="1">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="142" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
     </row>
     <row r="2" spans="1:16" ht="34.5" customHeight="1">
-      <c r="A2" s="166" t="s">
+      <c r="A2" s="165" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="166"/>
-      <c r="C2" s="166"/>
-      <c r="D2" s="166"/>
-      <c r="E2" s="166"/>
-      <c r="F2" s="166"/>
-      <c r="G2" s="166"/>
-      <c r="H2" s="166"/>
-      <c r="I2" s="166"/>
-      <c r="J2" s="166"/>
-      <c r="K2" s="166"/>
-      <c r="L2" s="166"/>
-      <c r="M2" s="166"/>
-      <c r="N2" s="166"/>
-      <c r="O2" s="166"/>
-      <c r="P2" s="166"/>
-    </row>
-    <row r="3" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A3" s="144" t="s">
+      <c r="B2" s="165"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="165"/>
+      <c r="F2" s="165"/>
+      <c r="G2" s="165"/>
+      <c r="H2" s="165"/>
+      <c r="I2" s="165"/>
+      <c r="J2" s="165"/>
+      <c r="K2" s="165"/>
+      <c r="L2" s="165"/>
+      <c r="M2" s="165"/>
+      <c r="N2" s="165"/>
+      <c r="O2" s="165"/>
+      <c r="P2" s="165"/>
+    </row>
+    <row r="3" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A3" s="143" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="145"/>
-      <c r="C3" s="145"/>
-      <c r="D3" s="145"/>
-      <c r="E3" s="145"/>
-      <c r="F3" s="145"/>
-      <c r="G3" s="145"/>
-      <c r="H3" s="145"/>
-      <c r="I3" s="145"/>
-      <c r="J3" s="145"/>
-      <c r="K3" s="145"/>
-      <c r="L3" s="146"/>
+      <c r="B3" s="144"/>
+      <c r="C3" s="144"/>
+      <c r="D3" s="144"/>
+      <c r="E3" s="144"/>
+      <c r="F3" s="144"/>
+      <c r="G3" s="144"/>
+      <c r="H3" s="144"/>
+      <c r="I3" s="144"/>
+      <c r="J3" s="144"/>
+      <c r="K3" s="144"/>
+      <c r="L3" s="145"/>
       <c r="M3" s="40" t="s">
         <v>65</v>
       </c>
@@ -10748,229 +10579,229 @@
       <c r="O3" s="41"/>
       <c r="P3" s="42"/>
     </row>
-    <row r="4" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A4" s="147"/>
-      <c r="B4" s="148"/>
-      <c r="C4" s="148"/>
-      <c r="D4" s="148"/>
-      <c r="E4" s="148"/>
-      <c r="F4" s="148"/>
-      <c r="G4" s="148"/>
-      <c r="H4" s="148"/>
-      <c r="I4" s="148"/>
-      <c r="J4" s="148"/>
-      <c r="K4" s="148"/>
-      <c r="L4" s="148"/>
+    <row r="4" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A4" s="146"/>
+      <c r="B4" s="147"/>
+      <c r="C4" s="147"/>
+      <c r="D4" s="147"/>
+      <c r="E4" s="147"/>
+      <c r="F4" s="147"/>
+      <c r="G4" s="147"/>
+      <c r="H4" s="147"/>
+      <c r="I4" s="147"/>
+      <c r="J4" s="147"/>
+      <c r="K4" s="147"/>
+      <c r="L4" s="147"/>
       <c r="M4" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="N4" s="98"/>
-      <c r="O4" s="99"/>
+      <c r="N4" s="124"/>
+      <c r="O4" s="125"/>
       <c r="P4" s="44" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A5" s="149"/>
-      <c r="B5" s="150"/>
-      <c r="C5" s="150"/>
-      <c r="D5" s="150"/>
-      <c r="E5" s="150"/>
-      <c r="F5" s="150"/>
-      <c r="G5" s="150"/>
-      <c r="H5" s="150"/>
-      <c r="I5" s="150"/>
-      <c r="J5" s="150"/>
-      <c r="K5" s="150"/>
-      <c r="L5" s="150"/>
+    <row r="5" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A5" s="148"/>
+      <c r="B5" s="149"/>
+      <c r="C5" s="149"/>
+      <c r="D5" s="149"/>
+      <c r="E5" s="149"/>
+      <c r="F5" s="149"/>
+      <c r="G5" s="149"/>
+      <c r="H5" s="149"/>
+      <c r="I5" s="149"/>
+      <c r="J5" s="149"/>
+      <c r="K5" s="149"/>
+      <c r="L5" s="149"/>
       <c r="M5" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="N5" s="98"/>
-      <c r="O5" s="99"/>
+      <c r="N5" s="124"/>
+      <c r="O5" s="125"/>
       <c r="P5" s="44" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A6" s="149"/>
-      <c r="B6" s="150"/>
-      <c r="C6" s="150"/>
-      <c r="D6" s="150"/>
-      <c r="E6" s="150"/>
-      <c r="F6" s="150"/>
-      <c r="G6" s="150"/>
-      <c r="H6" s="150"/>
-      <c r="I6" s="150"/>
-      <c r="J6" s="150"/>
-      <c r="K6" s="150"/>
-      <c r="L6" s="150"/>
+    <row r="6" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A6" s="148"/>
+      <c r="B6" s="149"/>
+      <c r="C6" s="149"/>
+      <c r="D6" s="149"/>
+      <c r="E6" s="149"/>
+      <c r="F6" s="149"/>
+      <c r="G6" s="149"/>
+      <c r="H6" s="149"/>
+      <c r="I6" s="149"/>
+      <c r="J6" s="149"/>
+      <c r="K6" s="149"/>
+      <c r="L6" s="149"/>
       <c r="M6" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="N6" s="98"/>
-      <c r="O6" s="99"/>
+      <c r="N6" s="124"/>
+      <c r="O6" s="125"/>
       <c r="P6" s="44" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A7" s="149"/>
-      <c r="B7" s="150"/>
-      <c r="C7" s="150"/>
-      <c r="D7" s="150"/>
-      <c r="E7" s="150"/>
-      <c r="F7" s="150"/>
-      <c r="G7" s="150"/>
-      <c r="H7" s="150"/>
-      <c r="I7" s="150"/>
-      <c r="J7" s="150"/>
-      <c r="K7" s="150"/>
-      <c r="L7" s="150"/>
+    <row r="7" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A7" s="148"/>
+      <c r="B7" s="149"/>
+      <c r="C7" s="149"/>
+      <c r="D7" s="149"/>
+      <c r="E7" s="149"/>
+      <c r="F7" s="149"/>
+      <c r="G7" s="149"/>
+      <c r="H7" s="149"/>
+      <c r="I7" s="149"/>
+      <c r="J7" s="149"/>
+      <c r="K7" s="149"/>
+      <c r="L7" s="149"/>
       <c r="M7" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="N7" s="162">
+      <c r="N7" s="161">
         <v>3</v>
       </c>
-      <c r="O7" s="98"/>
+      <c r="O7" s="124"/>
       <c r="P7" s="44" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A8" s="149"/>
-      <c r="B8" s="150"/>
-      <c r="C8" s="150"/>
-      <c r="D8" s="150"/>
-      <c r="E8" s="150"/>
-      <c r="F8" s="150"/>
-      <c r="G8" s="150"/>
-      <c r="H8" s="150"/>
-      <c r="I8" s="150"/>
-      <c r="J8" s="150"/>
-      <c r="K8" s="150"/>
-      <c r="L8" s="150"/>
+    <row r="8" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A8" s="148"/>
+      <c r="B8" s="149"/>
+      <c r="C8" s="149"/>
+      <c r="D8" s="149"/>
+      <c r="E8" s="149"/>
+      <c r="F8" s="149"/>
+      <c r="G8" s="149"/>
+      <c r="H8" s="149"/>
+      <c r="I8" s="149"/>
+      <c r="J8" s="149"/>
+      <c r="K8" s="149"/>
+      <c r="L8" s="149"/>
       <c r="M8" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="N8" s="162">
+      <c r="N8" s="161">
         <v>1</v>
       </c>
-      <c r="O8" s="98"/>
+      <c r="O8" s="124"/>
       <c r="P8" s="44" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A9" s="149"/>
-      <c r="B9" s="150"/>
-      <c r="C9" s="150"/>
-      <c r="D9" s="150"/>
-      <c r="E9" s="150"/>
-      <c r="F9" s="150"/>
-      <c r="G9" s="150"/>
-      <c r="H9" s="150"/>
-      <c r="I9" s="150"/>
-      <c r="J9" s="150"/>
-      <c r="K9" s="150"/>
-      <c r="L9" s="150"/>
+    <row r="9" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A9" s="148"/>
+      <c r="B9" s="149"/>
+      <c r="C9" s="149"/>
+      <c r="D9" s="149"/>
+      <c r="E9" s="149"/>
+      <c r="F9" s="149"/>
+      <c r="G9" s="149"/>
+      <c r="H9" s="149"/>
+      <c r="I9" s="149"/>
+      <c r="J9" s="149"/>
+      <c r="K9" s="149"/>
+      <c r="L9" s="149"/>
       <c r="M9" s="36"/>
       <c r="N9" s="36"/>
       <c r="O9" s="36"/>
       <c r="P9" s="37"/>
     </row>
-    <row r="10" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A10" s="149"/>
-      <c r="B10" s="150"/>
-      <c r="C10" s="150"/>
-      <c r="D10" s="150"/>
-      <c r="E10" s="150"/>
-      <c r="F10" s="150"/>
-      <c r="G10" s="150"/>
-      <c r="H10" s="150"/>
-      <c r="I10" s="150"/>
-      <c r="J10" s="150"/>
-      <c r="K10" s="150"/>
-      <c r="L10" s="150"/>
+    <row r="10" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A10" s="148"/>
+      <c r="B10" s="149"/>
+      <c r="C10" s="149"/>
+      <c r="D10" s="149"/>
+      <c r="E10" s="149"/>
+      <c r="F10" s="149"/>
+      <c r="G10" s="149"/>
+      <c r="H10" s="149"/>
+      <c r="I10" s="149"/>
+      <c r="J10" s="149"/>
+      <c r="K10" s="149"/>
+      <c r="L10" s="149"/>
       <c r="M10" s="36"/>
       <c r="N10" s="36"/>
       <c r="O10" s="36"/>
       <c r="P10" s="37"/>
     </row>
-    <row r="11" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A11" s="149"/>
-      <c r="B11" s="150"/>
-      <c r="C11" s="150"/>
-      <c r="D11" s="150"/>
-      <c r="E11" s="150"/>
-      <c r="F11" s="150"/>
-      <c r="G11" s="150"/>
-      <c r="H11" s="150"/>
-      <c r="I11" s="150"/>
-      <c r="J11" s="150"/>
-      <c r="K11" s="150"/>
-      <c r="L11" s="150"/>
+    <row r="11" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A11" s="148"/>
+      <c r="B11" s="149"/>
+      <c r="C11" s="149"/>
+      <c r="D11" s="149"/>
+      <c r="E11" s="149"/>
+      <c r="F11" s="149"/>
+      <c r="G11" s="149"/>
+      <c r="H11" s="149"/>
+      <c r="I11" s="149"/>
+      <c r="J11" s="149"/>
+      <c r="K11" s="149"/>
+      <c r="L11" s="149"/>
       <c r="M11" s="36"/>
       <c r="N11" s="36"/>
       <c r="O11" s="36"/>
       <c r="P11" s="37"/>
     </row>
-    <row r="12" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A12" s="149"/>
-      <c r="B12" s="150"/>
-      <c r="C12" s="150"/>
-      <c r="D12" s="150"/>
-      <c r="E12" s="150"/>
-      <c r="F12" s="150"/>
-      <c r="G12" s="150"/>
-      <c r="H12" s="150"/>
-      <c r="I12" s="150"/>
-      <c r="J12" s="150"/>
-      <c r="K12" s="150"/>
-      <c r="L12" s="150"/>
+    <row r="12" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A12" s="148"/>
+      <c r="B12" s="149"/>
+      <c r="C12" s="149"/>
+      <c r="D12" s="149"/>
+      <c r="E12" s="149"/>
+      <c r="F12" s="149"/>
+      <c r="G12" s="149"/>
+      <c r="H12" s="149"/>
+      <c r="I12" s="149"/>
+      <c r="J12" s="149"/>
+      <c r="K12" s="149"/>
+      <c r="L12" s="149"/>
       <c r="M12" s="36"/>
       <c r="N12" s="36"/>
       <c r="O12" s="36"/>
       <c r="P12" s="37"/>
     </row>
-    <row r="13" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A13" s="149"/>
-      <c r="B13" s="150"/>
-      <c r="C13" s="150"/>
-      <c r="D13" s="150"/>
-      <c r="E13" s="150"/>
-      <c r="F13" s="150"/>
-      <c r="G13" s="150"/>
-      <c r="H13" s="150"/>
-      <c r="I13" s="150"/>
-      <c r="J13" s="150"/>
-      <c r="K13" s="150"/>
-      <c r="L13" s="150"/>
+    <row r="13" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A13" s="148"/>
+      <c r="B13" s="149"/>
+      <c r="C13" s="149"/>
+      <c r="D13" s="149"/>
+      <c r="E13" s="149"/>
+      <c r="F13" s="149"/>
+      <c r="G13" s="149"/>
+      <c r="H13" s="149"/>
+      <c r="I13" s="149"/>
+      <c r="J13" s="149"/>
+      <c r="K13" s="149"/>
+      <c r="L13" s="149"/>
       <c r="M13" s="36"/>
       <c r="N13" s="36"/>
       <c r="O13" s="36"/>
       <c r="P13" s="37"/>
     </row>
-    <row r="14" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A14" s="151"/>
-      <c r="B14" s="152"/>
-      <c r="C14" s="152"/>
-      <c r="D14" s="152"/>
-      <c r="E14" s="152"/>
-      <c r="F14" s="152"/>
-      <c r="G14" s="152"/>
-      <c r="H14" s="152"/>
-      <c r="I14" s="152"/>
-      <c r="J14" s="152"/>
-      <c r="K14" s="152"/>
-      <c r="L14" s="152"/>
+    <row r="14" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A14" s="150"/>
+      <c r="B14" s="151"/>
+      <c r="C14" s="151"/>
+      <c r="D14" s="151"/>
+      <c r="E14" s="151"/>
+      <c r="F14" s="151"/>
+      <c r="G14" s="151"/>
+      <c r="H14" s="151"/>
+      <c r="I14" s="151"/>
+      <c r="J14" s="151"/>
+      <c r="K14" s="151"/>
+      <c r="L14" s="151"/>
       <c r="M14" s="38"/>
       <c r="N14" s="38"/>
       <c r="O14" s="38"/>
       <c r="P14" s="39"/>
     </row>
-    <row r="15" spans="1:16" ht="24.95" customHeight="1">
+    <row r="15" spans="1:16" ht="24.9" customHeight="1">
       <c r="A15" s="34"/>
       <c r="B15" s="34"/>
       <c r="C15" s="34"/>
@@ -10988,317 +10819,317 @@
       <c r="O15" s="34"/>
       <c r="P15" s="34"/>
     </row>
-    <row r="16" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A16" s="163" t="s">
+    <row r="16" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A16" s="162" t="s">
         <v>68</v>
       </c>
-      <c r="B16" s="164"/>
-      <c r="C16" s="164"/>
-      <c r="D16" s="164"/>
-      <c r="E16" s="164"/>
-      <c r="F16" s="164"/>
-      <c r="G16" s="164"/>
-      <c r="H16" s="164"/>
-      <c r="I16" s="164"/>
-      <c r="J16" s="164"/>
-      <c r="K16" s="164"/>
-      <c r="L16" s="164"/>
-      <c r="M16" s="164"/>
-      <c r="N16" s="164"/>
-      <c r="O16" s="164"/>
-      <c r="P16" s="165"/>
-    </row>
-    <row r="17" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A17" s="153" t="s">
+      <c r="B16" s="163"/>
+      <c r="C16" s="163"/>
+      <c r="D16" s="163"/>
+      <c r="E16" s="163"/>
+      <c r="F16" s="163"/>
+      <c r="G16" s="163"/>
+      <c r="H16" s="163"/>
+      <c r="I16" s="163"/>
+      <c r="J16" s="163"/>
+      <c r="K16" s="163"/>
+      <c r="L16" s="163"/>
+      <c r="M16" s="163"/>
+      <c r="N16" s="163"/>
+      <c r="O16" s="163"/>
+      <c r="P16" s="164"/>
+    </row>
+    <row r="17" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A17" s="152" t="s">
         <v>89</v>
       </c>
-      <c r="B17" s="154"/>
-      <c r="C17" s="154"/>
-      <c r="D17" s="154"/>
-      <c r="E17" s="154"/>
-      <c r="F17" s="154"/>
-      <c r="G17" s="154"/>
-      <c r="H17" s="154"/>
-      <c r="I17" s="154"/>
-      <c r="J17" s="154"/>
-      <c r="K17" s="154"/>
-      <c r="L17" s="154"/>
-      <c r="M17" s="154"/>
-      <c r="N17" s="154"/>
-      <c r="O17" s="154"/>
-      <c r="P17" s="155"/>
-    </row>
-    <row r="18" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A18" s="156"/>
-      <c r="B18" s="157"/>
-      <c r="C18" s="157"/>
-      <c r="D18" s="157"/>
-      <c r="E18" s="157"/>
-      <c r="F18" s="157"/>
-      <c r="G18" s="157"/>
-      <c r="H18" s="157"/>
-      <c r="I18" s="157"/>
-      <c r="J18" s="157"/>
-      <c r="K18" s="157"/>
-      <c r="L18" s="157"/>
-      <c r="M18" s="157"/>
-      <c r="N18" s="157"/>
-      <c r="O18" s="157"/>
-      <c r="P18" s="158"/>
-    </row>
-    <row r="19" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A19" s="156"/>
-      <c r="B19" s="157"/>
-      <c r="C19" s="157"/>
-      <c r="D19" s="157"/>
-      <c r="E19" s="157"/>
-      <c r="F19" s="157"/>
-      <c r="G19" s="157"/>
-      <c r="H19" s="157"/>
-      <c r="I19" s="157"/>
-      <c r="J19" s="157"/>
-      <c r="K19" s="157"/>
-      <c r="L19" s="157"/>
-      <c r="M19" s="157"/>
-      <c r="N19" s="157"/>
-      <c r="O19" s="157"/>
-      <c r="P19" s="158"/>
-    </row>
-    <row r="20" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A20" s="156"/>
-      <c r="B20" s="157"/>
-      <c r="C20" s="157"/>
-      <c r="D20" s="157"/>
-      <c r="E20" s="157"/>
-      <c r="F20" s="157"/>
-      <c r="G20" s="157"/>
-      <c r="H20" s="157"/>
-      <c r="I20" s="157"/>
-      <c r="J20" s="157"/>
-      <c r="K20" s="157"/>
-      <c r="L20" s="157"/>
-      <c r="M20" s="157"/>
-      <c r="N20" s="157"/>
-      <c r="O20" s="157"/>
-      <c r="P20" s="158"/>
-    </row>
-    <row r="21" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A21" s="156"/>
-      <c r="B21" s="157"/>
-      <c r="C21" s="157"/>
-      <c r="D21" s="157"/>
-      <c r="E21" s="157"/>
-      <c r="F21" s="157"/>
-      <c r="G21" s="157"/>
-      <c r="H21" s="157"/>
-      <c r="I21" s="157"/>
-      <c r="J21" s="157"/>
-      <c r="K21" s="157"/>
-      <c r="L21" s="157"/>
-      <c r="M21" s="157"/>
-      <c r="N21" s="157"/>
-      <c r="O21" s="157"/>
-      <c r="P21" s="158"/>
-    </row>
-    <row r="22" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A22" s="156"/>
-      <c r="B22" s="157"/>
-      <c r="C22" s="157"/>
-      <c r="D22" s="157"/>
-      <c r="E22" s="157"/>
-      <c r="F22" s="157"/>
-      <c r="G22" s="157"/>
-      <c r="H22" s="157"/>
-      <c r="I22" s="157"/>
-      <c r="J22" s="157"/>
-      <c r="K22" s="157"/>
-      <c r="L22" s="157"/>
-      <c r="M22" s="157"/>
-      <c r="N22" s="157"/>
-      <c r="O22" s="157"/>
-      <c r="P22" s="158"/>
-    </row>
-    <row r="23" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A23" s="156"/>
-      <c r="B23" s="157"/>
-      <c r="C23" s="157"/>
-      <c r="D23" s="157"/>
-      <c r="E23" s="157"/>
-      <c r="F23" s="157"/>
-      <c r="G23" s="157"/>
-      <c r="H23" s="157"/>
-      <c r="I23" s="157"/>
-      <c r="J23" s="157"/>
-      <c r="K23" s="157"/>
-      <c r="L23" s="157"/>
-      <c r="M23" s="157"/>
-      <c r="N23" s="157"/>
-      <c r="O23" s="157"/>
-      <c r="P23" s="158"/>
-    </row>
-    <row r="24" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A24" s="156"/>
-      <c r="B24" s="157"/>
-      <c r="C24" s="157"/>
-      <c r="D24" s="157"/>
-      <c r="E24" s="157"/>
-      <c r="F24" s="157"/>
-      <c r="G24" s="157"/>
-      <c r="H24" s="157"/>
-      <c r="I24" s="157"/>
-      <c r="J24" s="157"/>
-      <c r="K24" s="157"/>
-      <c r="L24" s="157"/>
-      <c r="M24" s="157"/>
-      <c r="N24" s="157"/>
-      <c r="O24" s="157"/>
-      <c r="P24" s="158"/>
-    </row>
-    <row r="25" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A25" s="156"/>
-      <c r="B25" s="157"/>
-      <c r="C25" s="157"/>
-      <c r="D25" s="157"/>
-      <c r="E25" s="157"/>
-      <c r="F25" s="157"/>
-      <c r="G25" s="157"/>
-      <c r="H25" s="157"/>
-      <c r="I25" s="157"/>
-      <c r="J25" s="157"/>
-      <c r="K25" s="157"/>
-      <c r="L25" s="157"/>
-      <c r="M25" s="157"/>
-      <c r="N25" s="157"/>
-      <c r="O25" s="157"/>
-      <c r="P25" s="158"/>
-    </row>
-    <row r="26" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A26" s="156"/>
-      <c r="B26" s="157"/>
-      <c r="C26" s="157"/>
-      <c r="D26" s="157"/>
-      <c r="E26" s="157"/>
-      <c r="F26" s="157"/>
-      <c r="G26" s="157"/>
-      <c r="H26" s="157"/>
-      <c r="I26" s="157"/>
-      <c r="J26" s="157"/>
-      <c r="K26" s="157"/>
-      <c r="L26" s="157"/>
-      <c r="M26" s="157"/>
-      <c r="N26" s="157"/>
-      <c r="O26" s="157"/>
-      <c r="P26" s="158"/>
-    </row>
-    <row r="27" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A27" s="156"/>
-      <c r="B27" s="157"/>
-      <c r="C27" s="157"/>
-      <c r="D27" s="157"/>
-      <c r="E27" s="157"/>
-      <c r="F27" s="157"/>
-      <c r="G27" s="157"/>
-      <c r="H27" s="157"/>
-      <c r="I27" s="157"/>
-      <c r="J27" s="157"/>
-      <c r="K27" s="157"/>
-      <c r="L27" s="157"/>
-      <c r="M27" s="157"/>
-      <c r="N27" s="157"/>
-      <c r="O27" s="157"/>
-      <c r="P27" s="158"/>
-    </row>
-    <row r="28" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A28" s="156"/>
-      <c r="B28" s="157"/>
-      <c r="C28" s="157"/>
-      <c r="D28" s="157"/>
-      <c r="E28" s="157"/>
-      <c r="F28" s="157"/>
-      <c r="G28" s="157"/>
-      <c r="H28" s="157"/>
-      <c r="I28" s="157"/>
-      <c r="J28" s="157"/>
-      <c r="K28" s="157"/>
-      <c r="L28" s="157"/>
-      <c r="M28" s="157"/>
-      <c r="N28" s="157"/>
-      <c r="O28" s="157"/>
-      <c r="P28" s="158"/>
-    </row>
-    <row r="29" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A29" s="156"/>
-      <c r="B29" s="157"/>
-      <c r="C29" s="157"/>
-      <c r="D29" s="157"/>
-      <c r="E29" s="157"/>
-      <c r="F29" s="157"/>
-      <c r="G29" s="157"/>
-      <c r="H29" s="157"/>
-      <c r="I29" s="157"/>
-      <c r="J29" s="157"/>
-      <c r="K29" s="157"/>
-      <c r="L29" s="157"/>
-      <c r="M29" s="157"/>
-      <c r="N29" s="157"/>
-      <c r="O29" s="157"/>
-      <c r="P29" s="158"/>
-    </row>
-    <row r="30" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A30" s="156"/>
-      <c r="B30" s="157"/>
-      <c r="C30" s="157"/>
-      <c r="D30" s="157"/>
-      <c r="E30" s="157"/>
-      <c r="F30" s="157"/>
-      <c r="G30" s="157"/>
-      <c r="H30" s="157"/>
-      <c r="I30" s="157"/>
-      <c r="J30" s="157"/>
-      <c r="K30" s="157"/>
-      <c r="L30" s="157"/>
-      <c r="M30" s="157"/>
-      <c r="N30" s="157"/>
-      <c r="O30" s="157"/>
-      <c r="P30" s="158"/>
-    </row>
-    <row r="31" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A31" s="156"/>
-      <c r="B31" s="157"/>
-      <c r="C31" s="157"/>
-      <c r="D31" s="157"/>
-      <c r="E31" s="157"/>
-      <c r="F31" s="157"/>
-      <c r="G31" s="157"/>
-      <c r="H31" s="157"/>
-      <c r="I31" s="157"/>
-      <c r="J31" s="157"/>
-      <c r="K31" s="157"/>
-      <c r="L31" s="157"/>
-      <c r="M31" s="157"/>
-      <c r="N31" s="157"/>
-      <c r="O31" s="157"/>
-      <c r="P31" s="158"/>
-    </row>
-    <row r="32" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A32" s="159"/>
-      <c r="B32" s="160"/>
-      <c r="C32" s="160"/>
-      <c r="D32" s="160"/>
-      <c r="E32" s="160"/>
-      <c r="F32" s="160"/>
-      <c r="G32" s="160"/>
-      <c r="H32" s="160"/>
-      <c r="I32" s="160"/>
-      <c r="J32" s="160"/>
-      <c r="K32" s="160"/>
-      <c r="L32" s="160"/>
-      <c r="M32" s="160"/>
-      <c r="N32" s="160"/>
-      <c r="O32" s="160"/>
-      <c r="P32" s="161"/>
-    </row>
-    <row r="33" spans="1:15" ht="24.95" customHeight="1">
+      <c r="B17" s="153"/>
+      <c r="C17" s="153"/>
+      <c r="D17" s="153"/>
+      <c r="E17" s="153"/>
+      <c r="F17" s="153"/>
+      <c r="G17" s="153"/>
+      <c r="H17" s="153"/>
+      <c r="I17" s="153"/>
+      <c r="J17" s="153"/>
+      <c r="K17" s="153"/>
+      <c r="L17" s="153"/>
+      <c r="M17" s="153"/>
+      <c r="N17" s="153"/>
+      <c r="O17" s="153"/>
+      <c r="P17" s="154"/>
+    </row>
+    <row r="18" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A18" s="155"/>
+      <c r="B18" s="156"/>
+      <c r="C18" s="156"/>
+      <c r="D18" s="156"/>
+      <c r="E18" s="156"/>
+      <c r="F18" s="156"/>
+      <c r="G18" s="156"/>
+      <c r="H18" s="156"/>
+      <c r="I18" s="156"/>
+      <c r="J18" s="156"/>
+      <c r="K18" s="156"/>
+      <c r="L18" s="156"/>
+      <c r="M18" s="156"/>
+      <c r="N18" s="156"/>
+      <c r="O18" s="156"/>
+      <c r="P18" s="157"/>
+    </row>
+    <row r="19" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A19" s="155"/>
+      <c r="B19" s="156"/>
+      <c r="C19" s="156"/>
+      <c r="D19" s="156"/>
+      <c r="E19" s="156"/>
+      <c r="F19" s="156"/>
+      <c r="G19" s="156"/>
+      <c r="H19" s="156"/>
+      <c r="I19" s="156"/>
+      <c r="J19" s="156"/>
+      <c r="K19" s="156"/>
+      <c r="L19" s="156"/>
+      <c r="M19" s="156"/>
+      <c r="N19" s="156"/>
+      <c r="O19" s="156"/>
+      <c r="P19" s="157"/>
+    </row>
+    <row r="20" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A20" s="155"/>
+      <c r="B20" s="156"/>
+      <c r="C20" s="156"/>
+      <c r="D20" s="156"/>
+      <c r="E20" s="156"/>
+      <c r="F20" s="156"/>
+      <c r="G20" s="156"/>
+      <c r="H20" s="156"/>
+      <c r="I20" s="156"/>
+      <c r="J20" s="156"/>
+      <c r="K20" s="156"/>
+      <c r="L20" s="156"/>
+      <c r="M20" s="156"/>
+      <c r="N20" s="156"/>
+      <c r="O20" s="156"/>
+      <c r="P20" s="157"/>
+    </row>
+    <row r="21" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A21" s="155"/>
+      <c r="B21" s="156"/>
+      <c r="C21" s="156"/>
+      <c r="D21" s="156"/>
+      <c r="E21" s="156"/>
+      <c r="F21" s="156"/>
+      <c r="G21" s="156"/>
+      <c r="H21" s="156"/>
+      <c r="I21" s="156"/>
+      <c r="J21" s="156"/>
+      <c r="K21" s="156"/>
+      <c r="L21" s="156"/>
+      <c r="M21" s="156"/>
+      <c r="N21" s="156"/>
+      <c r="O21" s="156"/>
+      <c r="P21" s="157"/>
+    </row>
+    <row r="22" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A22" s="155"/>
+      <c r="B22" s="156"/>
+      <c r="C22" s="156"/>
+      <c r="D22" s="156"/>
+      <c r="E22" s="156"/>
+      <c r="F22" s="156"/>
+      <c r="G22" s="156"/>
+      <c r="H22" s="156"/>
+      <c r="I22" s="156"/>
+      <c r="J22" s="156"/>
+      <c r="K22" s="156"/>
+      <c r="L22" s="156"/>
+      <c r="M22" s="156"/>
+      <c r="N22" s="156"/>
+      <c r="O22" s="156"/>
+      <c r="P22" s="157"/>
+    </row>
+    <row r="23" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A23" s="155"/>
+      <c r="B23" s="156"/>
+      <c r="C23" s="156"/>
+      <c r="D23" s="156"/>
+      <c r="E23" s="156"/>
+      <c r="F23" s="156"/>
+      <c r="G23" s="156"/>
+      <c r="H23" s="156"/>
+      <c r="I23" s="156"/>
+      <c r="J23" s="156"/>
+      <c r="K23" s="156"/>
+      <c r="L23" s="156"/>
+      <c r="M23" s="156"/>
+      <c r="N23" s="156"/>
+      <c r="O23" s="156"/>
+      <c r="P23" s="157"/>
+    </row>
+    <row r="24" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A24" s="155"/>
+      <c r="B24" s="156"/>
+      <c r="C24" s="156"/>
+      <c r="D24" s="156"/>
+      <c r="E24" s="156"/>
+      <c r="F24" s="156"/>
+      <c r="G24" s="156"/>
+      <c r="H24" s="156"/>
+      <c r="I24" s="156"/>
+      <c r="J24" s="156"/>
+      <c r="K24" s="156"/>
+      <c r="L24" s="156"/>
+      <c r="M24" s="156"/>
+      <c r="N24" s="156"/>
+      <c r="O24" s="156"/>
+      <c r="P24" s="157"/>
+    </row>
+    <row r="25" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A25" s="155"/>
+      <c r="B25" s="156"/>
+      <c r="C25" s="156"/>
+      <c r="D25" s="156"/>
+      <c r="E25" s="156"/>
+      <c r="F25" s="156"/>
+      <c r="G25" s="156"/>
+      <c r="H25" s="156"/>
+      <c r="I25" s="156"/>
+      <c r="J25" s="156"/>
+      <c r="K25" s="156"/>
+      <c r="L25" s="156"/>
+      <c r="M25" s="156"/>
+      <c r="N25" s="156"/>
+      <c r="O25" s="156"/>
+      <c r="P25" s="157"/>
+    </row>
+    <row r="26" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A26" s="155"/>
+      <c r="B26" s="156"/>
+      <c r="C26" s="156"/>
+      <c r="D26" s="156"/>
+      <c r="E26" s="156"/>
+      <c r="F26" s="156"/>
+      <c r="G26" s="156"/>
+      <c r="H26" s="156"/>
+      <c r="I26" s="156"/>
+      <c r="J26" s="156"/>
+      <c r="K26" s="156"/>
+      <c r="L26" s="156"/>
+      <c r="M26" s="156"/>
+      <c r="N26" s="156"/>
+      <c r="O26" s="156"/>
+      <c r="P26" s="157"/>
+    </row>
+    <row r="27" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A27" s="155"/>
+      <c r="B27" s="156"/>
+      <c r="C27" s="156"/>
+      <c r="D27" s="156"/>
+      <c r="E27" s="156"/>
+      <c r="F27" s="156"/>
+      <c r="G27" s="156"/>
+      <c r="H27" s="156"/>
+      <c r="I27" s="156"/>
+      <c r="J27" s="156"/>
+      <c r="K27" s="156"/>
+      <c r="L27" s="156"/>
+      <c r="M27" s="156"/>
+      <c r="N27" s="156"/>
+      <c r="O27" s="156"/>
+      <c r="P27" s="157"/>
+    </row>
+    <row r="28" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A28" s="155"/>
+      <c r="B28" s="156"/>
+      <c r="C28" s="156"/>
+      <c r="D28" s="156"/>
+      <c r="E28" s="156"/>
+      <c r="F28" s="156"/>
+      <c r="G28" s="156"/>
+      <c r="H28" s="156"/>
+      <c r="I28" s="156"/>
+      <c r="J28" s="156"/>
+      <c r="K28" s="156"/>
+      <c r="L28" s="156"/>
+      <c r="M28" s="156"/>
+      <c r="N28" s="156"/>
+      <c r="O28" s="156"/>
+      <c r="P28" s="157"/>
+    </row>
+    <row r="29" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A29" s="155"/>
+      <c r="B29" s="156"/>
+      <c r="C29" s="156"/>
+      <c r="D29" s="156"/>
+      <c r="E29" s="156"/>
+      <c r="F29" s="156"/>
+      <c r="G29" s="156"/>
+      <c r="H29" s="156"/>
+      <c r="I29" s="156"/>
+      <c r="J29" s="156"/>
+      <c r="K29" s="156"/>
+      <c r="L29" s="156"/>
+      <c r="M29" s="156"/>
+      <c r="N29" s="156"/>
+      <c r="O29" s="156"/>
+      <c r="P29" s="157"/>
+    </row>
+    <row r="30" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A30" s="155"/>
+      <c r="B30" s="156"/>
+      <c r="C30" s="156"/>
+      <c r="D30" s="156"/>
+      <c r="E30" s="156"/>
+      <c r="F30" s="156"/>
+      <c r="G30" s="156"/>
+      <c r="H30" s="156"/>
+      <c r="I30" s="156"/>
+      <c r="J30" s="156"/>
+      <c r="K30" s="156"/>
+      <c r="L30" s="156"/>
+      <c r="M30" s="156"/>
+      <c r="N30" s="156"/>
+      <c r="O30" s="156"/>
+      <c r="P30" s="157"/>
+    </row>
+    <row r="31" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A31" s="155"/>
+      <c r="B31" s="156"/>
+      <c r="C31" s="156"/>
+      <c r="D31" s="156"/>
+      <c r="E31" s="156"/>
+      <c r="F31" s="156"/>
+      <c r="G31" s="156"/>
+      <c r="H31" s="156"/>
+      <c r="I31" s="156"/>
+      <c r="J31" s="156"/>
+      <c r="K31" s="156"/>
+      <c r="L31" s="156"/>
+      <c r="M31" s="156"/>
+      <c r="N31" s="156"/>
+      <c r="O31" s="156"/>
+      <c r="P31" s="157"/>
+    </row>
+    <row r="32" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A32" s="158"/>
+      <c r="B32" s="159"/>
+      <c r="C32" s="159"/>
+      <c r="D32" s="159"/>
+      <c r="E32" s="159"/>
+      <c r="F32" s="159"/>
+      <c r="G32" s="159"/>
+      <c r="H32" s="159"/>
+      <c r="I32" s="159"/>
+      <c r="J32" s="159"/>
+      <c r="K32" s="159"/>
+      <c r="L32" s="159"/>
+      <c r="M32" s="159"/>
+      <c r="N32" s="159"/>
+      <c r="O32" s="159"/>
+      <c r="P32" s="160"/>
+    </row>
+    <row r="33" spans="1:15" ht="24.9" customHeight="1">
       <c r="A33" s="13"/>
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
@@ -11510,518 +11341,518 @@
       <selection activeCell="A2" sqref="A2:P28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.5" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="5.44140625" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="15" width="5.625" customWidth="1"/>
+    <col min="1" max="15" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="30" customHeight="1">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="142" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1">
-      <c r="A2" s="167" t="s">
+      <c r="A2" s="166" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="168"/>
-      <c r="C2" s="168"/>
-      <c r="D2" s="168"/>
-      <c r="E2" s="168"/>
-      <c r="F2" s="168"/>
-      <c r="G2" s="168"/>
-      <c r="H2" s="168"/>
-      <c r="I2" s="168"/>
-      <c r="J2" s="168"/>
-      <c r="K2" s="168"/>
-      <c r="L2" s="168"/>
-      <c r="M2" s="168"/>
-      <c r="N2" s="168"/>
-      <c r="O2" s="168"/>
-      <c r="P2" s="169"/>
+      <c r="B2" s="167"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="167"/>
+      <c r="I2" s="167"/>
+      <c r="J2" s="167"/>
+      <c r="K2" s="167"/>
+      <c r="L2" s="167"/>
+      <c r="M2" s="167"/>
+      <c r="N2" s="167"/>
+      <c r="O2" s="167"/>
+      <c r="P2" s="168"/>
     </row>
     <row r="3" spans="1:16" ht="30" customHeight="1">
-      <c r="A3" s="170"/>
-      <c r="B3" s="171"/>
-      <c r="C3" s="171"/>
-      <c r="D3" s="171"/>
-      <c r="E3" s="171"/>
-      <c r="F3" s="171"/>
-      <c r="G3" s="171"/>
-      <c r="H3" s="171"/>
-      <c r="I3" s="171"/>
-      <c r="J3" s="171"/>
-      <c r="K3" s="171"/>
-      <c r="L3" s="171"/>
-      <c r="M3" s="171"/>
-      <c r="N3" s="171"/>
-      <c r="O3" s="171"/>
-      <c r="P3" s="172"/>
+      <c r="A3" s="169"/>
+      <c r="B3" s="170"/>
+      <c r="C3" s="170"/>
+      <c r="D3" s="170"/>
+      <c r="E3" s="170"/>
+      <c r="F3" s="170"/>
+      <c r="G3" s="170"/>
+      <c r="H3" s="170"/>
+      <c r="I3" s="170"/>
+      <c r="J3" s="170"/>
+      <c r="K3" s="170"/>
+      <c r="L3" s="170"/>
+      <c r="M3" s="170"/>
+      <c r="N3" s="170"/>
+      <c r="O3" s="170"/>
+      <c r="P3" s="171"/>
     </row>
     <row r="4" spans="1:16" ht="30" customHeight="1">
-      <c r="A4" s="170"/>
-      <c r="B4" s="171"/>
-      <c r="C4" s="171"/>
-      <c r="D4" s="171"/>
-      <c r="E4" s="171"/>
-      <c r="F4" s="171"/>
-      <c r="G4" s="171"/>
-      <c r="H4" s="171"/>
-      <c r="I4" s="171"/>
-      <c r="J4" s="171"/>
-      <c r="K4" s="171"/>
-      <c r="L4" s="171"/>
-      <c r="M4" s="171"/>
-      <c r="N4" s="171"/>
-      <c r="O4" s="171"/>
-      <c r="P4" s="172"/>
+      <c r="A4" s="169"/>
+      <c r="B4" s="170"/>
+      <c r="C4" s="170"/>
+      <c r="D4" s="170"/>
+      <c r="E4" s="170"/>
+      <c r="F4" s="170"/>
+      <c r="G4" s="170"/>
+      <c r="H4" s="170"/>
+      <c r="I4" s="170"/>
+      <c r="J4" s="170"/>
+      <c r="K4" s="170"/>
+      <c r="L4" s="170"/>
+      <c r="M4" s="170"/>
+      <c r="N4" s="170"/>
+      <c r="O4" s="170"/>
+      <c r="P4" s="171"/>
     </row>
     <row r="5" spans="1:16" ht="30" customHeight="1">
-      <c r="A5" s="170"/>
-      <c r="B5" s="171"/>
-      <c r="C5" s="171"/>
-      <c r="D5" s="171"/>
-      <c r="E5" s="171"/>
-      <c r="F5" s="171"/>
-      <c r="G5" s="171"/>
-      <c r="H5" s="171"/>
-      <c r="I5" s="171"/>
-      <c r="J5" s="171"/>
-      <c r="K5" s="171"/>
-      <c r="L5" s="171"/>
-      <c r="M5" s="171"/>
-      <c r="N5" s="171"/>
-      <c r="O5" s="171"/>
-      <c r="P5" s="172"/>
+      <c r="A5" s="169"/>
+      <c r="B5" s="170"/>
+      <c r="C5" s="170"/>
+      <c r="D5" s="170"/>
+      <c r="E5" s="170"/>
+      <c r="F5" s="170"/>
+      <c r="G5" s="170"/>
+      <c r="H5" s="170"/>
+      <c r="I5" s="170"/>
+      <c r="J5" s="170"/>
+      <c r="K5" s="170"/>
+      <c r="L5" s="170"/>
+      <c r="M5" s="170"/>
+      <c r="N5" s="170"/>
+      <c r="O5" s="170"/>
+      <c r="P5" s="171"/>
     </row>
     <row r="6" spans="1:16" ht="30" customHeight="1">
-      <c r="A6" s="170"/>
-      <c r="B6" s="171"/>
-      <c r="C6" s="171"/>
-      <c r="D6" s="171"/>
-      <c r="E6" s="171"/>
-      <c r="F6" s="171"/>
-      <c r="G6" s="171"/>
-      <c r="H6" s="171"/>
-      <c r="I6" s="171"/>
-      <c r="J6" s="171"/>
-      <c r="K6" s="171"/>
-      <c r="L6" s="171"/>
-      <c r="M6" s="171"/>
-      <c r="N6" s="171"/>
-      <c r="O6" s="171"/>
-      <c r="P6" s="172"/>
+      <c r="A6" s="169"/>
+      <c r="B6" s="170"/>
+      <c r="C6" s="170"/>
+      <c r="D6" s="170"/>
+      <c r="E6" s="170"/>
+      <c r="F6" s="170"/>
+      <c r="G6" s="170"/>
+      <c r="H6" s="170"/>
+      <c r="I6" s="170"/>
+      <c r="J6" s="170"/>
+      <c r="K6" s="170"/>
+      <c r="L6" s="170"/>
+      <c r="M6" s="170"/>
+      <c r="N6" s="170"/>
+      <c r="O6" s="170"/>
+      <c r="P6" s="171"/>
     </row>
     <row r="7" spans="1:16" ht="30" customHeight="1">
-      <c r="A7" s="170"/>
-      <c r="B7" s="171"/>
-      <c r="C7" s="171"/>
-      <c r="D7" s="171"/>
-      <c r="E7" s="171"/>
-      <c r="F7" s="171"/>
-      <c r="G7" s="171"/>
-      <c r="H7" s="171"/>
-      <c r="I7" s="171"/>
-      <c r="J7" s="171"/>
-      <c r="K7" s="171"/>
-      <c r="L7" s="171"/>
-      <c r="M7" s="171"/>
-      <c r="N7" s="171"/>
-      <c r="O7" s="171"/>
-      <c r="P7" s="172"/>
+      <c r="A7" s="169"/>
+      <c r="B7" s="170"/>
+      <c r="C7" s="170"/>
+      <c r="D7" s="170"/>
+      <c r="E7" s="170"/>
+      <c r="F7" s="170"/>
+      <c r="G7" s="170"/>
+      <c r="H7" s="170"/>
+      <c r="I7" s="170"/>
+      <c r="J7" s="170"/>
+      <c r="K7" s="170"/>
+      <c r="L7" s="170"/>
+      <c r="M7" s="170"/>
+      <c r="N7" s="170"/>
+      <c r="O7" s="170"/>
+      <c r="P7" s="171"/>
     </row>
     <row r="8" spans="1:16" ht="30" customHeight="1">
-      <c r="A8" s="170"/>
-      <c r="B8" s="171"/>
-      <c r="C8" s="171"/>
-      <c r="D8" s="171"/>
-      <c r="E8" s="171"/>
-      <c r="F8" s="171"/>
-      <c r="G8" s="171"/>
-      <c r="H8" s="171"/>
-      <c r="I8" s="171"/>
-      <c r="J8" s="171"/>
-      <c r="K8" s="171"/>
-      <c r="L8" s="171"/>
-      <c r="M8" s="171"/>
-      <c r="N8" s="171"/>
-      <c r="O8" s="171"/>
-      <c r="P8" s="172"/>
+      <c r="A8" s="169"/>
+      <c r="B8" s="170"/>
+      <c r="C8" s="170"/>
+      <c r="D8" s="170"/>
+      <c r="E8" s="170"/>
+      <c r="F8" s="170"/>
+      <c r="G8" s="170"/>
+      <c r="H8" s="170"/>
+      <c r="I8" s="170"/>
+      <c r="J8" s="170"/>
+      <c r="K8" s="170"/>
+      <c r="L8" s="170"/>
+      <c r="M8" s="170"/>
+      <c r="N8" s="170"/>
+      <c r="O8" s="170"/>
+      <c r="P8" s="171"/>
     </row>
     <row r="9" spans="1:16" ht="30" customHeight="1">
-      <c r="A9" s="170"/>
-      <c r="B9" s="171"/>
-      <c r="C9" s="171"/>
-      <c r="D9" s="171"/>
-      <c r="E9" s="171"/>
-      <c r="F9" s="171"/>
-      <c r="G9" s="171"/>
-      <c r="H9" s="171"/>
-      <c r="I9" s="171"/>
-      <c r="J9" s="171"/>
-      <c r="K9" s="171"/>
-      <c r="L9" s="171"/>
-      <c r="M9" s="171"/>
-      <c r="N9" s="171"/>
-      <c r="O9" s="171"/>
-      <c r="P9" s="172"/>
+      <c r="A9" s="169"/>
+      <c r="B9" s="170"/>
+      <c r="C9" s="170"/>
+      <c r="D9" s="170"/>
+      <c r="E9" s="170"/>
+      <c r="F9" s="170"/>
+      <c r="G9" s="170"/>
+      <c r="H9" s="170"/>
+      <c r="I9" s="170"/>
+      <c r="J9" s="170"/>
+      <c r="K9" s="170"/>
+      <c r="L9" s="170"/>
+      <c r="M9" s="170"/>
+      <c r="N9" s="170"/>
+      <c r="O9" s="170"/>
+      <c r="P9" s="171"/>
     </row>
     <row r="10" spans="1:16" ht="30" customHeight="1">
-      <c r="A10" s="170"/>
-      <c r="B10" s="171"/>
-      <c r="C10" s="171"/>
-      <c r="D10" s="171"/>
-      <c r="E10" s="171"/>
-      <c r="F10" s="171"/>
-      <c r="G10" s="171"/>
-      <c r="H10" s="171"/>
-      <c r="I10" s="171"/>
-      <c r="J10" s="171"/>
-      <c r="K10" s="171"/>
-      <c r="L10" s="171"/>
-      <c r="M10" s="171"/>
-      <c r="N10" s="171"/>
-      <c r="O10" s="171"/>
-      <c r="P10" s="172"/>
+      <c r="A10" s="169"/>
+      <c r="B10" s="170"/>
+      <c r="C10" s="170"/>
+      <c r="D10" s="170"/>
+      <c r="E10" s="170"/>
+      <c r="F10" s="170"/>
+      <c r="G10" s="170"/>
+      <c r="H10" s="170"/>
+      <c r="I10" s="170"/>
+      <c r="J10" s="170"/>
+      <c r="K10" s="170"/>
+      <c r="L10" s="170"/>
+      <c r="M10" s="170"/>
+      <c r="N10" s="170"/>
+      <c r="O10" s="170"/>
+      <c r="P10" s="171"/>
     </row>
     <row r="11" spans="1:16" ht="30" customHeight="1">
-      <c r="A11" s="170"/>
-      <c r="B11" s="171"/>
-      <c r="C11" s="171"/>
-      <c r="D11" s="171"/>
-      <c r="E11" s="171"/>
-      <c r="F11" s="171"/>
-      <c r="G11" s="171"/>
-      <c r="H11" s="171"/>
-      <c r="I11" s="171"/>
-      <c r="J11" s="171"/>
-      <c r="K11" s="171"/>
-      <c r="L11" s="171"/>
-      <c r="M11" s="171"/>
-      <c r="N11" s="171"/>
-      <c r="O11" s="171"/>
-      <c r="P11" s="172"/>
+      <c r="A11" s="169"/>
+      <c r="B11" s="170"/>
+      <c r="C11" s="170"/>
+      <c r="D11" s="170"/>
+      <c r="E11" s="170"/>
+      <c r="F11" s="170"/>
+      <c r="G11" s="170"/>
+      <c r="H11" s="170"/>
+      <c r="I11" s="170"/>
+      <c r="J11" s="170"/>
+      <c r="K11" s="170"/>
+      <c r="L11" s="170"/>
+      <c r="M11" s="170"/>
+      <c r="N11" s="170"/>
+      <c r="O11" s="170"/>
+      <c r="P11" s="171"/>
     </row>
     <row r="12" spans="1:16" ht="30" customHeight="1">
-      <c r="A12" s="170"/>
-      <c r="B12" s="171"/>
-      <c r="C12" s="171"/>
-      <c r="D12" s="171"/>
-      <c r="E12" s="171"/>
-      <c r="F12" s="171"/>
-      <c r="G12" s="171"/>
-      <c r="H12" s="171"/>
-      <c r="I12" s="171"/>
-      <c r="J12" s="171"/>
-      <c r="K12" s="171"/>
-      <c r="L12" s="171"/>
-      <c r="M12" s="171"/>
-      <c r="N12" s="171"/>
-      <c r="O12" s="171"/>
-      <c r="P12" s="172"/>
+      <c r="A12" s="169"/>
+      <c r="B12" s="170"/>
+      <c r="C12" s="170"/>
+      <c r="D12" s="170"/>
+      <c r="E12" s="170"/>
+      <c r="F12" s="170"/>
+      <c r="G12" s="170"/>
+      <c r="H12" s="170"/>
+      <c r="I12" s="170"/>
+      <c r="J12" s="170"/>
+      <c r="K12" s="170"/>
+      <c r="L12" s="170"/>
+      <c r="M12" s="170"/>
+      <c r="N12" s="170"/>
+      <c r="O12" s="170"/>
+      <c r="P12" s="171"/>
     </row>
     <row r="13" spans="1:16" ht="30" customHeight="1">
-      <c r="A13" s="170"/>
-      <c r="B13" s="171"/>
-      <c r="C13" s="171"/>
-      <c r="D13" s="171"/>
-      <c r="E13" s="171"/>
-      <c r="F13" s="171"/>
-      <c r="G13" s="171"/>
-      <c r="H13" s="171"/>
-      <c r="I13" s="171"/>
-      <c r="J13" s="171"/>
-      <c r="K13" s="171"/>
-      <c r="L13" s="171"/>
-      <c r="M13" s="171"/>
-      <c r="N13" s="171"/>
-      <c r="O13" s="171"/>
-      <c r="P13" s="172"/>
+      <c r="A13" s="169"/>
+      <c r="B13" s="170"/>
+      <c r="C13" s="170"/>
+      <c r="D13" s="170"/>
+      <c r="E13" s="170"/>
+      <c r="F13" s="170"/>
+      <c r="G13" s="170"/>
+      <c r="H13" s="170"/>
+      <c r="I13" s="170"/>
+      <c r="J13" s="170"/>
+      <c r="K13" s="170"/>
+      <c r="L13" s="170"/>
+      <c r="M13" s="170"/>
+      <c r="N13" s="170"/>
+      <c r="O13" s="170"/>
+      <c r="P13" s="171"/>
     </row>
     <row r="14" spans="1:16" ht="30" customHeight="1">
-      <c r="A14" s="170"/>
-      <c r="B14" s="171"/>
-      <c r="C14" s="171"/>
-      <c r="D14" s="171"/>
-      <c r="E14" s="171"/>
-      <c r="F14" s="171"/>
-      <c r="G14" s="171"/>
-      <c r="H14" s="171"/>
-      <c r="I14" s="171"/>
-      <c r="J14" s="171"/>
-      <c r="K14" s="171"/>
-      <c r="L14" s="171"/>
-      <c r="M14" s="171"/>
-      <c r="N14" s="171"/>
-      <c r="O14" s="171"/>
-      <c r="P14" s="172"/>
+      <c r="A14" s="169"/>
+      <c r="B14" s="170"/>
+      <c r="C14" s="170"/>
+      <c r="D14" s="170"/>
+      <c r="E14" s="170"/>
+      <c r="F14" s="170"/>
+      <c r="G14" s="170"/>
+      <c r="H14" s="170"/>
+      <c r="I14" s="170"/>
+      <c r="J14" s="170"/>
+      <c r="K14" s="170"/>
+      <c r="L14" s="170"/>
+      <c r="M14" s="170"/>
+      <c r="N14" s="170"/>
+      <c r="O14" s="170"/>
+      <c r="P14" s="171"/>
     </row>
     <row r="15" spans="1:16" ht="30" customHeight="1">
-      <c r="A15" s="170"/>
-      <c r="B15" s="171"/>
-      <c r="C15" s="171"/>
-      <c r="D15" s="171"/>
-      <c r="E15" s="171"/>
-      <c r="F15" s="171"/>
-      <c r="G15" s="171"/>
-      <c r="H15" s="171"/>
-      <c r="I15" s="171"/>
-      <c r="J15" s="171"/>
-      <c r="K15" s="171"/>
-      <c r="L15" s="171"/>
-      <c r="M15" s="171"/>
-      <c r="N15" s="171"/>
-      <c r="O15" s="171"/>
-      <c r="P15" s="172"/>
+      <c r="A15" s="169"/>
+      <c r="B15" s="170"/>
+      <c r="C15" s="170"/>
+      <c r="D15" s="170"/>
+      <c r="E15" s="170"/>
+      <c r="F15" s="170"/>
+      <c r="G15" s="170"/>
+      <c r="H15" s="170"/>
+      <c r="I15" s="170"/>
+      <c r="J15" s="170"/>
+      <c r="K15" s="170"/>
+      <c r="L15" s="170"/>
+      <c r="M15" s="170"/>
+      <c r="N15" s="170"/>
+      <c r="O15" s="170"/>
+      <c r="P15" s="171"/>
     </row>
     <row r="16" spans="1:16" ht="30" customHeight="1">
-      <c r="A16" s="170"/>
-      <c r="B16" s="171"/>
-      <c r="C16" s="171"/>
-      <c r="D16" s="171"/>
-      <c r="E16" s="171"/>
-      <c r="F16" s="171"/>
-      <c r="G16" s="171"/>
-      <c r="H16" s="171"/>
-      <c r="I16" s="171"/>
-      <c r="J16" s="171"/>
-      <c r="K16" s="171"/>
-      <c r="L16" s="171"/>
-      <c r="M16" s="171"/>
-      <c r="N16" s="171"/>
-      <c r="O16" s="171"/>
-      <c r="P16" s="172"/>
+      <c r="A16" s="169"/>
+      <c r="B16" s="170"/>
+      <c r="C16" s="170"/>
+      <c r="D16" s="170"/>
+      <c r="E16" s="170"/>
+      <c r="F16" s="170"/>
+      <c r="G16" s="170"/>
+      <c r="H16" s="170"/>
+      <c r="I16" s="170"/>
+      <c r="J16" s="170"/>
+      <c r="K16" s="170"/>
+      <c r="L16" s="170"/>
+      <c r="M16" s="170"/>
+      <c r="N16" s="170"/>
+      <c r="O16" s="170"/>
+      <c r="P16" s="171"/>
     </row>
     <row r="17" spans="1:16" ht="30" customHeight="1">
-      <c r="A17" s="170"/>
-      <c r="B17" s="171"/>
-      <c r="C17" s="171"/>
-      <c r="D17" s="171"/>
-      <c r="E17" s="171"/>
-      <c r="F17" s="171"/>
-      <c r="G17" s="171"/>
-      <c r="H17" s="171"/>
-      <c r="I17" s="171"/>
-      <c r="J17" s="171"/>
-      <c r="K17" s="171"/>
-      <c r="L17" s="171"/>
-      <c r="M17" s="171"/>
-      <c r="N17" s="171"/>
-      <c r="O17" s="171"/>
-      <c r="P17" s="172"/>
+      <c r="A17" s="169"/>
+      <c r="B17" s="170"/>
+      <c r="C17" s="170"/>
+      <c r="D17" s="170"/>
+      <c r="E17" s="170"/>
+      <c r="F17" s="170"/>
+      <c r="G17" s="170"/>
+      <c r="H17" s="170"/>
+      <c r="I17" s="170"/>
+      <c r="J17" s="170"/>
+      <c r="K17" s="170"/>
+      <c r="L17" s="170"/>
+      <c r="M17" s="170"/>
+      <c r="N17" s="170"/>
+      <c r="O17" s="170"/>
+      <c r="P17" s="171"/>
     </row>
     <row r="18" spans="1:16" ht="30" customHeight="1">
-      <c r="A18" s="170"/>
-      <c r="B18" s="171"/>
-      <c r="C18" s="171"/>
-      <c r="D18" s="171"/>
-      <c r="E18" s="171"/>
-      <c r="F18" s="171"/>
-      <c r="G18" s="171"/>
-      <c r="H18" s="171"/>
-      <c r="I18" s="171"/>
-      <c r="J18" s="171"/>
-      <c r="K18" s="171"/>
-      <c r="L18" s="171"/>
-      <c r="M18" s="171"/>
-      <c r="N18" s="171"/>
-      <c r="O18" s="171"/>
-      <c r="P18" s="172"/>
+      <c r="A18" s="169"/>
+      <c r="B18" s="170"/>
+      <c r="C18" s="170"/>
+      <c r="D18" s="170"/>
+      <c r="E18" s="170"/>
+      <c r="F18" s="170"/>
+      <c r="G18" s="170"/>
+      <c r="H18" s="170"/>
+      <c r="I18" s="170"/>
+      <c r="J18" s="170"/>
+      <c r="K18" s="170"/>
+      <c r="L18" s="170"/>
+      <c r="M18" s="170"/>
+      <c r="N18" s="170"/>
+      <c r="O18" s="170"/>
+      <c r="P18" s="171"/>
     </row>
     <row r="19" spans="1:16" ht="30" customHeight="1">
-      <c r="A19" s="170"/>
-      <c r="B19" s="171"/>
-      <c r="C19" s="171"/>
-      <c r="D19" s="171"/>
-      <c r="E19" s="171"/>
-      <c r="F19" s="171"/>
-      <c r="G19" s="171"/>
-      <c r="H19" s="171"/>
-      <c r="I19" s="171"/>
-      <c r="J19" s="171"/>
-      <c r="K19" s="171"/>
-      <c r="L19" s="171"/>
-      <c r="M19" s="171"/>
-      <c r="N19" s="171"/>
-      <c r="O19" s="171"/>
-      <c r="P19" s="172"/>
+      <c r="A19" s="169"/>
+      <c r="B19" s="170"/>
+      <c r="C19" s="170"/>
+      <c r="D19" s="170"/>
+      <c r="E19" s="170"/>
+      <c r="F19" s="170"/>
+      <c r="G19" s="170"/>
+      <c r="H19" s="170"/>
+      <c r="I19" s="170"/>
+      <c r="J19" s="170"/>
+      <c r="K19" s="170"/>
+      <c r="L19" s="170"/>
+      <c r="M19" s="170"/>
+      <c r="N19" s="170"/>
+      <c r="O19" s="170"/>
+      <c r="P19" s="171"/>
     </row>
     <row r="20" spans="1:16" ht="30" customHeight="1">
-      <c r="A20" s="170"/>
-      <c r="B20" s="171"/>
-      <c r="C20" s="171"/>
-      <c r="D20" s="171"/>
-      <c r="E20" s="171"/>
-      <c r="F20" s="171"/>
-      <c r="G20" s="171"/>
-      <c r="H20" s="171"/>
-      <c r="I20" s="171"/>
-      <c r="J20" s="171"/>
-      <c r="K20" s="171"/>
-      <c r="L20" s="171"/>
-      <c r="M20" s="171"/>
-      <c r="N20" s="171"/>
-      <c r="O20" s="171"/>
-      <c r="P20" s="172"/>
+      <c r="A20" s="169"/>
+      <c r="B20" s="170"/>
+      <c r="C20" s="170"/>
+      <c r="D20" s="170"/>
+      <c r="E20" s="170"/>
+      <c r="F20" s="170"/>
+      <c r="G20" s="170"/>
+      <c r="H20" s="170"/>
+      <c r="I20" s="170"/>
+      <c r="J20" s="170"/>
+      <c r="K20" s="170"/>
+      <c r="L20" s="170"/>
+      <c r="M20" s="170"/>
+      <c r="N20" s="170"/>
+      <c r="O20" s="170"/>
+      <c r="P20" s="171"/>
     </row>
     <row r="21" spans="1:16" ht="30" customHeight="1">
-      <c r="A21" s="170"/>
-      <c r="B21" s="171"/>
-      <c r="C21" s="171"/>
-      <c r="D21" s="171"/>
-      <c r="E21" s="171"/>
-      <c r="F21" s="171"/>
-      <c r="G21" s="171"/>
-      <c r="H21" s="171"/>
-      <c r="I21" s="171"/>
-      <c r="J21" s="171"/>
-      <c r="K21" s="171"/>
-      <c r="L21" s="171"/>
-      <c r="M21" s="171"/>
-      <c r="N21" s="171"/>
-      <c r="O21" s="171"/>
-      <c r="P21" s="172"/>
+      <c r="A21" s="169"/>
+      <c r="B21" s="170"/>
+      <c r="C21" s="170"/>
+      <c r="D21" s="170"/>
+      <c r="E21" s="170"/>
+      <c r="F21" s="170"/>
+      <c r="G21" s="170"/>
+      <c r="H21" s="170"/>
+      <c r="I21" s="170"/>
+      <c r="J21" s="170"/>
+      <c r="K21" s="170"/>
+      <c r="L21" s="170"/>
+      <c r="M21" s="170"/>
+      <c r="N21" s="170"/>
+      <c r="O21" s="170"/>
+      <c r="P21" s="171"/>
     </row>
     <row r="22" spans="1:16" ht="30" customHeight="1">
-      <c r="A22" s="170"/>
-      <c r="B22" s="171"/>
-      <c r="C22" s="171"/>
-      <c r="D22" s="171"/>
-      <c r="E22" s="171"/>
-      <c r="F22" s="171"/>
-      <c r="G22" s="171"/>
-      <c r="H22" s="171"/>
-      <c r="I22" s="171"/>
-      <c r="J22" s="171"/>
-      <c r="K22" s="171"/>
-      <c r="L22" s="171"/>
-      <c r="M22" s="171"/>
-      <c r="N22" s="171"/>
-      <c r="O22" s="171"/>
-      <c r="P22" s="172"/>
+      <c r="A22" s="169"/>
+      <c r="B22" s="170"/>
+      <c r="C22" s="170"/>
+      <c r="D22" s="170"/>
+      <c r="E22" s="170"/>
+      <c r="F22" s="170"/>
+      <c r="G22" s="170"/>
+      <c r="H22" s="170"/>
+      <c r="I22" s="170"/>
+      <c r="J22" s="170"/>
+      <c r="K22" s="170"/>
+      <c r="L22" s="170"/>
+      <c r="M22" s="170"/>
+      <c r="N22" s="170"/>
+      <c r="O22" s="170"/>
+      <c r="P22" s="171"/>
     </row>
     <row r="23" spans="1:16" ht="30" customHeight="1">
-      <c r="A23" s="170"/>
-      <c r="B23" s="171"/>
-      <c r="C23" s="171"/>
-      <c r="D23" s="171"/>
-      <c r="E23" s="171"/>
-      <c r="F23" s="171"/>
-      <c r="G23" s="171"/>
-      <c r="H23" s="171"/>
-      <c r="I23" s="171"/>
-      <c r="J23" s="171"/>
-      <c r="K23" s="171"/>
-      <c r="L23" s="171"/>
-      <c r="M23" s="171"/>
-      <c r="N23" s="171"/>
-      <c r="O23" s="171"/>
-      <c r="P23" s="172"/>
+      <c r="A23" s="169"/>
+      <c r="B23" s="170"/>
+      <c r="C23" s="170"/>
+      <c r="D23" s="170"/>
+      <c r="E23" s="170"/>
+      <c r="F23" s="170"/>
+      <c r="G23" s="170"/>
+      <c r="H23" s="170"/>
+      <c r="I23" s="170"/>
+      <c r="J23" s="170"/>
+      <c r="K23" s="170"/>
+      <c r="L23" s="170"/>
+      <c r="M23" s="170"/>
+      <c r="N23" s="170"/>
+      <c r="O23" s="170"/>
+      <c r="P23" s="171"/>
     </row>
     <row r="24" spans="1:16" ht="30" customHeight="1">
-      <c r="A24" s="170"/>
-      <c r="B24" s="171"/>
-      <c r="C24" s="171"/>
-      <c r="D24" s="171"/>
-      <c r="E24" s="171"/>
-      <c r="F24" s="171"/>
-      <c r="G24" s="171"/>
-      <c r="H24" s="171"/>
-      <c r="I24" s="171"/>
-      <c r="J24" s="171"/>
-      <c r="K24" s="171"/>
-      <c r="L24" s="171"/>
-      <c r="M24" s="171"/>
-      <c r="N24" s="171"/>
-      <c r="O24" s="171"/>
-      <c r="P24" s="172"/>
+      <c r="A24" s="169"/>
+      <c r="B24" s="170"/>
+      <c r="C24" s="170"/>
+      <c r="D24" s="170"/>
+      <c r="E24" s="170"/>
+      <c r="F24" s="170"/>
+      <c r="G24" s="170"/>
+      <c r="H24" s="170"/>
+      <c r="I24" s="170"/>
+      <c r="J24" s="170"/>
+      <c r="K24" s="170"/>
+      <c r="L24" s="170"/>
+      <c r="M24" s="170"/>
+      <c r="N24" s="170"/>
+      <c r="O24" s="170"/>
+      <c r="P24" s="171"/>
     </row>
     <row r="25" spans="1:16" ht="30" customHeight="1">
-      <c r="A25" s="170"/>
-      <c r="B25" s="171"/>
-      <c r="C25" s="171"/>
-      <c r="D25" s="171"/>
-      <c r="E25" s="171"/>
-      <c r="F25" s="171"/>
-      <c r="G25" s="171"/>
-      <c r="H25" s="171"/>
-      <c r="I25" s="171"/>
-      <c r="J25" s="171"/>
-      <c r="K25" s="171"/>
-      <c r="L25" s="171"/>
-      <c r="M25" s="171"/>
-      <c r="N25" s="171"/>
-      <c r="O25" s="171"/>
-      <c r="P25" s="172"/>
+      <c r="A25" s="169"/>
+      <c r="B25" s="170"/>
+      <c r="C25" s="170"/>
+      <c r="D25" s="170"/>
+      <c r="E25" s="170"/>
+      <c r="F25" s="170"/>
+      <c r="G25" s="170"/>
+      <c r="H25" s="170"/>
+      <c r="I25" s="170"/>
+      <c r="J25" s="170"/>
+      <c r="K25" s="170"/>
+      <c r="L25" s="170"/>
+      <c r="M25" s="170"/>
+      <c r="N25" s="170"/>
+      <c r="O25" s="170"/>
+      <c r="P25" s="171"/>
     </row>
     <row r="26" spans="1:16" ht="30" customHeight="1">
-      <c r="A26" s="170"/>
-      <c r="B26" s="171"/>
-      <c r="C26" s="171"/>
-      <c r="D26" s="171"/>
-      <c r="E26" s="171"/>
-      <c r="F26" s="171"/>
-      <c r="G26" s="171"/>
-      <c r="H26" s="171"/>
-      <c r="I26" s="171"/>
-      <c r="J26" s="171"/>
-      <c r="K26" s="171"/>
-      <c r="L26" s="171"/>
-      <c r="M26" s="171"/>
-      <c r="N26" s="171"/>
-      <c r="O26" s="171"/>
-      <c r="P26" s="172"/>
+      <c r="A26" s="169"/>
+      <c r="B26" s="170"/>
+      <c r="C26" s="170"/>
+      <c r="D26" s="170"/>
+      <c r="E26" s="170"/>
+      <c r="F26" s="170"/>
+      <c r="G26" s="170"/>
+      <c r="H26" s="170"/>
+      <c r="I26" s="170"/>
+      <c r="J26" s="170"/>
+      <c r="K26" s="170"/>
+      <c r="L26" s="170"/>
+      <c r="M26" s="170"/>
+      <c r="N26" s="170"/>
+      <c r="O26" s="170"/>
+      <c r="P26" s="171"/>
     </row>
     <row r="27" spans="1:16" ht="30" customHeight="1">
-      <c r="A27" s="170"/>
-      <c r="B27" s="171"/>
-      <c r="C27" s="171"/>
-      <c r="D27" s="171"/>
-      <c r="E27" s="171"/>
-      <c r="F27" s="171"/>
-      <c r="G27" s="171"/>
-      <c r="H27" s="171"/>
-      <c r="I27" s="171"/>
-      <c r="J27" s="171"/>
-      <c r="K27" s="171"/>
-      <c r="L27" s="171"/>
-      <c r="M27" s="171"/>
-      <c r="N27" s="171"/>
-      <c r="O27" s="171"/>
-      <c r="P27" s="172"/>
+      <c r="A27" s="169"/>
+      <c r="B27" s="170"/>
+      <c r="C27" s="170"/>
+      <c r="D27" s="170"/>
+      <c r="E27" s="170"/>
+      <c r="F27" s="170"/>
+      <c r="G27" s="170"/>
+      <c r="H27" s="170"/>
+      <c r="I27" s="170"/>
+      <c r="J27" s="170"/>
+      <c r="K27" s="170"/>
+      <c r="L27" s="170"/>
+      <c r="M27" s="170"/>
+      <c r="N27" s="170"/>
+      <c r="O27" s="170"/>
+      <c r="P27" s="171"/>
     </row>
     <row r="28" spans="1:16" ht="30" customHeight="1">
-      <c r="A28" s="173"/>
-      <c r="B28" s="174"/>
-      <c r="C28" s="174"/>
-      <c r="D28" s="174"/>
-      <c r="E28" s="174"/>
-      <c r="F28" s="174"/>
-      <c r="G28" s="174"/>
-      <c r="H28" s="174"/>
-      <c r="I28" s="174"/>
-      <c r="J28" s="174"/>
-      <c r="K28" s="174"/>
-      <c r="L28" s="174"/>
-      <c r="M28" s="174"/>
-      <c r="N28" s="174"/>
-      <c r="O28" s="174"/>
-      <c r="P28" s="175"/>
+      <c r="A28" s="172"/>
+      <c r="B28" s="173"/>
+      <c r="C28" s="173"/>
+      <c r="D28" s="173"/>
+      <c r="E28" s="173"/>
+      <c r="F28" s="173"/>
+      <c r="G28" s="173"/>
+      <c r="H28" s="173"/>
+      <c r="I28" s="173"/>
+      <c r="J28" s="173"/>
+      <c r="K28" s="173"/>
+      <c r="L28" s="173"/>
+      <c r="M28" s="173"/>
+      <c r="N28" s="173"/>
+      <c r="O28" s="173"/>
+      <c r="P28" s="174"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0" pivotTables="0"/>
@@ -12054,489 +11885,489 @@
       <selection activeCell="K29" sqref="K29:P30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.5" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="5.44140625" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="15" width="5.625" customWidth="1"/>
+    <col min="1" max="15" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="30" customHeight="1">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="142" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-    </row>
-    <row r="2" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A2" s="189" t="s">
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+    </row>
+    <row r="2" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A2" s="175" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="190"/>
-      <c r="C2" s="190"/>
-      <c r="D2" s="190"/>
-      <c r="E2" s="190"/>
-      <c r="F2" s="190"/>
-      <c r="G2" s="190"/>
-      <c r="H2" s="190"/>
-      <c r="I2" s="190"/>
-      <c r="J2" s="190"/>
-      <c r="K2" s="190"/>
-      <c r="L2" s="190"/>
-      <c r="M2" s="190"/>
-      <c r="N2" s="190"/>
-      <c r="O2" s="190"/>
-      <c r="P2" s="190"/>
-    </row>
-    <row r="3" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A3" s="189"/>
-      <c r="B3" s="190"/>
-      <c r="C3" s="190"/>
-      <c r="D3" s="190"/>
-      <c r="E3" s="190"/>
-      <c r="F3" s="190"/>
-      <c r="G3" s="190"/>
-      <c r="H3" s="190"/>
-      <c r="I3" s="190"/>
-      <c r="J3" s="190"/>
-      <c r="K3" s="190"/>
-      <c r="L3" s="190"/>
-      <c r="M3" s="190"/>
-      <c r="N3" s="190"/>
-      <c r="O3" s="190"/>
-      <c r="P3" s="190"/>
-    </row>
-    <row r="4" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A4" s="192" t="s">
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
+      <c r="J2" s="176"/>
+      <c r="K2" s="176"/>
+      <c r="L2" s="176"/>
+      <c r="M2" s="176"/>
+      <c r="N2" s="176"/>
+      <c r="O2" s="176"/>
+      <c r="P2" s="176"/>
+    </row>
+    <row r="3" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A3" s="175"/>
+      <c r="B3" s="176"/>
+      <c r="C3" s="176"/>
+      <c r="D3" s="176"/>
+      <c r="E3" s="176"/>
+      <c r="F3" s="176"/>
+      <c r="G3" s="176"/>
+      <c r="H3" s="176"/>
+      <c r="I3" s="176"/>
+      <c r="J3" s="176"/>
+      <c r="K3" s="176"/>
+      <c r="L3" s="176"/>
+      <c r="M3" s="176"/>
+      <c r="N3" s="176"/>
+      <c r="O3" s="176"/>
+      <c r="P3" s="176"/>
+    </row>
+    <row r="4" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A4" s="181" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="192"/>
-      <c r="C4" s="192"/>
-      <c r="D4" s="192"/>
-      <c r="E4" s="192"/>
-      <c r="F4" s="192"/>
-      <c r="G4" s="192"/>
-      <c r="H4" s="192"/>
-      <c r="I4" s="192"/>
-      <c r="J4" s="192"/>
-      <c r="K4" s="192"/>
-      <c r="L4" s="183" t="s">
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
+      <c r="J4" s="181"/>
+      <c r="K4" s="181"/>
+      <c r="L4" s="182" t="s">
         <v>20</v>
       </c>
-      <c r="M4" s="184"/>
-      <c r="N4" s="184"/>
-      <c r="O4" s="184"/>
-    </row>
-    <row r="5" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A5" s="188" t="s">
+      <c r="M4" s="183"/>
+      <c r="N4" s="183"/>
+      <c r="O4" s="183"/>
+    </row>
+    <row r="5" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A5" s="187" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="188"/>
-      <c r="C5" s="188"/>
-      <c r="D5" s="188"/>
-      <c r="E5" s="188"/>
-      <c r="F5" s="188"/>
-      <c r="G5" s="188"/>
-      <c r="H5" s="188"/>
-      <c r="I5" s="188"/>
-      <c r="J5" s="188"/>
-      <c r="K5" s="188"/>
-      <c r="L5" s="185" t="s">
+      <c r="B5" s="187"/>
+      <c r="C5" s="187"/>
+      <c r="D5" s="187"/>
+      <c r="E5" s="187"/>
+      <c r="F5" s="187"/>
+      <c r="G5" s="187"/>
+      <c r="H5" s="187"/>
+      <c r="I5" s="187"/>
+      <c r="J5" s="187"/>
+      <c r="K5" s="187"/>
+      <c r="L5" s="184" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="186"/>
-      <c r="N5" s="187" t="s">
+      <c r="M5" s="185"/>
+      <c r="N5" s="186" t="s">
         <v>9</v>
       </c>
-      <c r="O5" s="187"/>
-    </row>
-    <row r="6" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A6" s="188"/>
-      <c r="B6" s="188"/>
-      <c r="C6" s="188"/>
-      <c r="D6" s="188"/>
-      <c r="E6" s="188"/>
-      <c r="F6" s="188"/>
-      <c r="G6" s="188"/>
-      <c r="H6" s="188"/>
-      <c r="I6" s="188"/>
-      <c r="J6" s="188"/>
-      <c r="K6" s="188"/>
-      <c r="L6" s="186"/>
-      <c r="M6" s="186"/>
-      <c r="N6" s="187"/>
-      <c r="O6" s="187"/>
-    </row>
-    <row r="7" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A7" s="180" t="s">
+      <c r="O5" s="186"/>
+    </row>
+    <row r="6" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A6" s="187"/>
+      <c r="B6" s="187"/>
+      <c r="C6" s="187"/>
+      <c r="D6" s="187"/>
+      <c r="E6" s="187"/>
+      <c r="F6" s="187"/>
+      <c r="G6" s="187"/>
+      <c r="H6" s="187"/>
+      <c r="I6" s="187"/>
+      <c r="J6" s="187"/>
+      <c r="K6" s="187"/>
+      <c r="L6" s="185"/>
+      <c r="M6" s="185"/>
+      <c r="N6" s="186"/>
+      <c r="O6" s="186"/>
+    </row>
+    <row r="7" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A7" s="178" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="180"/>
-      <c r="C7" s="180"/>
-      <c r="D7" s="180"/>
-      <c r="E7" s="180"/>
-      <c r="F7" s="180"/>
-      <c r="G7" s="180"/>
-      <c r="H7" s="180"/>
-      <c r="I7" s="180"/>
-      <c r="J7" s="180"/>
-      <c r="K7" s="180"/>
-      <c r="L7" s="181"/>
-      <c r="M7" s="182"/>
-      <c r="N7" s="181"/>
-      <c r="O7" s="182"/>
-    </row>
-    <row r="8" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A8" s="180"/>
-      <c r="B8" s="180"/>
-      <c r="C8" s="180"/>
-      <c r="D8" s="180"/>
-      <c r="E8" s="180"/>
-      <c r="F8" s="180"/>
-      <c r="G8" s="180"/>
-      <c r="H8" s="180"/>
-      <c r="I8" s="180"/>
-      <c r="J8" s="180"/>
-      <c r="K8" s="180"/>
-      <c r="L8" s="182"/>
-      <c r="M8" s="182"/>
-      <c r="N8" s="182"/>
-      <c r="O8" s="182"/>
-    </row>
-    <row r="9" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A9" s="180" t="s">
+      <c r="B7" s="178"/>
+      <c r="C7" s="178"/>
+      <c r="D7" s="178"/>
+      <c r="E7" s="178"/>
+      <c r="F7" s="178"/>
+      <c r="G7" s="178"/>
+      <c r="H7" s="178"/>
+      <c r="I7" s="178"/>
+      <c r="J7" s="178"/>
+      <c r="K7" s="178"/>
+      <c r="L7" s="179"/>
+      <c r="M7" s="180"/>
+      <c r="N7" s="179"/>
+      <c r="O7" s="180"/>
+    </row>
+    <row r="8" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A8" s="178"/>
+      <c r="B8" s="178"/>
+      <c r="C8" s="178"/>
+      <c r="D8" s="178"/>
+      <c r="E8" s="178"/>
+      <c r="F8" s="178"/>
+      <c r="G8" s="178"/>
+      <c r="H8" s="178"/>
+      <c r="I8" s="178"/>
+      <c r="J8" s="178"/>
+      <c r="K8" s="178"/>
+      <c r="L8" s="180"/>
+      <c r="M8" s="180"/>
+      <c r="N8" s="180"/>
+      <c r="O8" s="180"/>
+    </row>
+    <row r="9" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A9" s="178" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="180"/>
-      <c r="C9" s="180"/>
-      <c r="D9" s="180"/>
-      <c r="E9" s="180"/>
-      <c r="F9" s="180"/>
-      <c r="G9" s="180"/>
-      <c r="H9" s="180"/>
-      <c r="I9" s="180"/>
-      <c r="J9" s="180"/>
-      <c r="K9" s="180"/>
-      <c r="L9" s="181"/>
-      <c r="M9" s="182"/>
-      <c r="N9" s="181"/>
-      <c r="O9" s="182"/>
-    </row>
-    <row r="10" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A10" s="180"/>
-      <c r="B10" s="180"/>
-      <c r="C10" s="180"/>
-      <c r="D10" s="180"/>
-      <c r="E10" s="180"/>
-      <c r="F10" s="180"/>
-      <c r="G10" s="180"/>
-      <c r="H10" s="180"/>
-      <c r="I10" s="180"/>
-      <c r="J10" s="180"/>
-      <c r="K10" s="180"/>
-      <c r="L10" s="182"/>
-      <c r="M10" s="182"/>
-      <c r="N10" s="182"/>
-      <c r="O10" s="182"/>
-    </row>
-    <row r="11" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A11" s="180" t="s">
+      <c r="B9" s="178"/>
+      <c r="C9" s="178"/>
+      <c r="D9" s="178"/>
+      <c r="E9" s="178"/>
+      <c r="F9" s="178"/>
+      <c r="G9" s="178"/>
+      <c r="H9" s="178"/>
+      <c r="I9" s="178"/>
+      <c r="J9" s="178"/>
+      <c r="K9" s="178"/>
+      <c r="L9" s="179"/>
+      <c r="M9" s="180"/>
+      <c r="N9" s="179"/>
+      <c r="O9" s="180"/>
+    </row>
+    <row r="10" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A10" s="178"/>
+      <c r="B10" s="178"/>
+      <c r="C10" s="178"/>
+      <c r="D10" s="178"/>
+      <c r="E10" s="178"/>
+      <c r="F10" s="178"/>
+      <c r="G10" s="178"/>
+      <c r="H10" s="178"/>
+      <c r="I10" s="178"/>
+      <c r="J10" s="178"/>
+      <c r="K10" s="178"/>
+      <c r="L10" s="180"/>
+      <c r="M10" s="180"/>
+      <c r="N10" s="180"/>
+      <c r="O10" s="180"/>
+    </row>
+    <row r="11" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A11" s="178" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="180"/>
-      <c r="C11" s="180"/>
-      <c r="D11" s="180"/>
-      <c r="E11" s="180"/>
-      <c r="F11" s="180"/>
-      <c r="G11" s="180"/>
-      <c r="H11" s="180"/>
-      <c r="I11" s="180"/>
-      <c r="J11" s="180"/>
-      <c r="K11" s="180"/>
-      <c r="L11" s="181"/>
-      <c r="M11" s="182"/>
-      <c r="N11" s="181"/>
-      <c r="O11" s="182"/>
-    </row>
-    <row r="12" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A12" s="180"/>
-      <c r="B12" s="180"/>
-      <c r="C12" s="180"/>
-      <c r="D12" s="180"/>
-      <c r="E12" s="180"/>
-      <c r="F12" s="180"/>
-      <c r="G12" s="180"/>
-      <c r="H12" s="180"/>
-      <c r="I12" s="180"/>
-      <c r="J12" s="180"/>
-      <c r="K12" s="180"/>
-      <c r="L12" s="182"/>
-      <c r="M12" s="182"/>
-      <c r="N12" s="182"/>
-      <c r="O12" s="182"/>
-    </row>
-    <row r="13" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A13" s="180" t="s">
+      <c r="B11" s="178"/>
+      <c r="C11" s="178"/>
+      <c r="D11" s="178"/>
+      <c r="E11" s="178"/>
+      <c r="F11" s="178"/>
+      <c r="G11" s="178"/>
+      <c r="H11" s="178"/>
+      <c r="I11" s="178"/>
+      <c r="J11" s="178"/>
+      <c r="K11" s="178"/>
+      <c r="L11" s="179"/>
+      <c r="M11" s="180"/>
+      <c r="N11" s="179"/>
+      <c r="O11" s="180"/>
+    </row>
+    <row r="12" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A12" s="178"/>
+      <c r="B12" s="178"/>
+      <c r="C12" s="178"/>
+      <c r="D12" s="178"/>
+      <c r="E12" s="178"/>
+      <c r="F12" s="178"/>
+      <c r="G12" s="178"/>
+      <c r="H12" s="178"/>
+      <c r="I12" s="178"/>
+      <c r="J12" s="178"/>
+      <c r="K12" s="178"/>
+      <c r="L12" s="180"/>
+      <c r="M12" s="180"/>
+      <c r="N12" s="180"/>
+      <c r="O12" s="180"/>
+    </row>
+    <row r="13" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A13" s="178" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="180"/>
-      <c r="C13" s="180"/>
-      <c r="D13" s="180"/>
-      <c r="E13" s="180"/>
-      <c r="F13" s="180"/>
-      <c r="G13" s="180"/>
-      <c r="H13" s="180"/>
-      <c r="I13" s="180"/>
-      <c r="J13" s="180"/>
-      <c r="K13" s="180"/>
-      <c r="L13" s="181"/>
-      <c r="M13" s="182"/>
-      <c r="N13" s="181"/>
-      <c r="O13" s="182"/>
-    </row>
-    <row r="14" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A14" s="180"/>
-      <c r="B14" s="180"/>
-      <c r="C14" s="180"/>
-      <c r="D14" s="180"/>
-      <c r="E14" s="180"/>
-      <c r="F14" s="180"/>
-      <c r="G14" s="180"/>
-      <c r="H14" s="180"/>
-      <c r="I14" s="180"/>
-      <c r="J14" s="180"/>
-      <c r="K14" s="180"/>
-      <c r="L14" s="182"/>
-      <c r="M14" s="182"/>
-      <c r="N14" s="182"/>
-      <c r="O14" s="182"/>
-    </row>
-    <row r="15" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A15" s="180" t="s">
+      <c r="B13" s="178"/>
+      <c r="C13" s="178"/>
+      <c r="D13" s="178"/>
+      <c r="E13" s="178"/>
+      <c r="F13" s="178"/>
+      <c r="G13" s="178"/>
+      <c r="H13" s="178"/>
+      <c r="I13" s="178"/>
+      <c r="J13" s="178"/>
+      <c r="K13" s="178"/>
+      <c r="L13" s="179"/>
+      <c r="M13" s="180"/>
+      <c r="N13" s="179"/>
+      <c r="O13" s="180"/>
+    </row>
+    <row r="14" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A14" s="178"/>
+      <c r="B14" s="178"/>
+      <c r="C14" s="178"/>
+      <c r="D14" s="178"/>
+      <c r="E14" s="178"/>
+      <c r="F14" s="178"/>
+      <c r="G14" s="178"/>
+      <c r="H14" s="178"/>
+      <c r="I14" s="178"/>
+      <c r="J14" s="178"/>
+      <c r="K14" s="178"/>
+      <c r="L14" s="180"/>
+      <c r="M14" s="180"/>
+      <c r="N14" s="180"/>
+      <c r="O14" s="180"/>
+    </row>
+    <row r="15" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A15" s="178" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="180"/>
-      <c r="C15" s="180"/>
-      <c r="D15" s="180"/>
-      <c r="E15" s="180"/>
-      <c r="F15" s="180"/>
-      <c r="G15" s="180"/>
-      <c r="H15" s="180"/>
-      <c r="I15" s="180"/>
-      <c r="J15" s="180"/>
-      <c r="K15" s="180"/>
-      <c r="L15" s="181"/>
-      <c r="M15" s="182"/>
-      <c r="N15" s="181"/>
-      <c r="O15" s="182"/>
-    </row>
-    <row r="16" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A16" s="180"/>
-      <c r="B16" s="180"/>
-      <c r="C16" s="180"/>
-      <c r="D16" s="180"/>
-      <c r="E16" s="180"/>
-      <c r="F16" s="180"/>
-      <c r="G16" s="180"/>
-      <c r="H16" s="180"/>
-      <c r="I16" s="180"/>
-      <c r="J16" s="180"/>
-      <c r="K16" s="180"/>
-      <c r="L16" s="182"/>
-      <c r="M16" s="182"/>
-      <c r="N16" s="182"/>
-      <c r="O16" s="182"/>
-    </row>
-    <row r="17" spans="1:20" ht="24.95" customHeight="1">
-      <c r="A17" s="180" t="s">
+      <c r="B15" s="178"/>
+      <c r="C15" s="178"/>
+      <c r="D15" s="178"/>
+      <c r="E15" s="178"/>
+      <c r="F15" s="178"/>
+      <c r="G15" s="178"/>
+      <c r="H15" s="178"/>
+      <c r="I15" s="178"/>
+      <c r="J15" s="178"/>
+      <c r="K15" s="178"/>
+      <c r="L15" s="179"/>
+      <c r="M15" s="180"/>
+      <c r="N15" s="179"/>
+      <c r="O15" s="180"/>
+    </row>
+    <row r="16" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A16" s="178"/>
+      <c r="B16" s="178"/>
+      <c r="C16" s="178"/>
+      <c r="D16" s="178"/>
+      <c r="E16" s="178"/>
+      <c r="F16" s="178"/>
+      <c r="G16" s="178"/>
+      <c r="H16" s="178"/>
+      <c r="I16" s="178"/>
+      <c r="J16" s="178"/>
+      <c r="K16" s="178"/>
+      <c r="L16" s="180"/>
+      <c r="M16" s="180"/>
+      <c r="N16" s="180"/>
+      <c r="O16" s="180"/>
+    </row>
+    <row r="17" spans="1:20" ht="24.9" customHeight="1">
+      <c r="A17" s="178" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="180"/>
-      <c r="C17" s="180"/>
-      <c r="D17" s="180"/>
-      <c r="E17" s="180"/>
-      <c r="F17" s="180"/>
-      <c r="G17" s="180"/>
-      <c r="H17" s="180"/>
-      <c r="I17" s="180"/>
-      <c r="J17" s="180"/>
-      <c r="K17" s="180"/>
-      <c r="L17" s="181"/>
-      <c r="M17" s="182"/>
-      <c r="N17" s="181"/>
-      <c r="O17" s="182"/>
-    </row>
-    <row r="18" spans="1:20" ht="24.95" customHeight="1">
-      <c r="A18" s="180"/>
-      <c r="B18" s="180"/>
-      <c r="C18" s="180"/>
-      <c r="D18" s="180"/>
-      <c r="E18" s="180"/>
-      <c r="F18" s="180"/>
-      <c r="G18" s="180"/>
-      <c r="H18" s="180"/>
-      <c r="I18" s="180"/>
-      <c r="J18" s="180"/>
-      <c r="K18" s="180"/>
-      <c r="L18" s="182"/>
-      <c r="M18" s="182"/>
-      <c r="N18" s="182"/>
-      <c r="O18" s="182"/>
-    </row>
-    <row r="19" spans="1:20" ht="24.95" customHeight="1">
-      <c r="A19" s="180" t="s">
+      <c r="B17" s="178"/>
+      <c r="C17" s="178"/>
+      <c r="D17" s="178"/>
+      <c r="E17" s="178"/>
+      <c r="F17" s="178"/>
+      <c r="G17" s="178"/>
+      <c r="H17" s="178"/>
+      <c r="I17" s="178"/>
+      <c r="J17" s="178"/>
+      <c r="K17" s="178"/>
+      <c r="L17" s="179"/>
+      <c r="M17" s="180"/>
+      <c r="N17" s="179"/>
+      <c r="O17" s="180"/>
+    </row>
+    <row r="18" spans="1:20" ht="24.9" customHeight="1">
+      <c r="A18" s="178"/>
+      <c r="B18" s="178"/>
+      <c r="C18" s="178"/>
+      <c r="D18" s="178"/>
+      <c r="E18" s="178"/>
+      <c r="F18" s="178"/>
+      <c r="G18" s="178"/>
+      <c r="H18" s="178"/>
+      <c r="I18" s="178"/>
+      <c r="J18" s="178"/>
+      <c r="K18" s="178"/>
+      <c r="L18" s="180"/>
+      <c r="M18" s="180"/>
+      <c r="N18" s="180"/>
+      <c r="O18" s="180"/>
+    </row>
+    <row r="19" spans="1:20" ht="24.9" customHeight="1">
+      <c r="A19" s="178" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="180"/>
-      <c r="C19" s="180"/>
-      <c r="D19" s="180"/>
-      <c r="E19" s="180"/>
-      <c r="F19" s="180"/>
-      <c r="G19" s="180"/>
-      <c r="H19" s="180"/>
-      <c r="I19" s="180"/>
-      <c r="J19" s="180"/>
-      <c r="K19" s="180"/>
-      <c r="L19" s="181"/>
-      <c r="M19" s="182"/>
-      <c r="N19" s="181"/>
-      <c r="O19" s="182"/>
-    </row>
-    <row r="20" spans="1:20" ht="24.95" customHeight="1">
-      <c r="A20" s="180"/>
-      <c r="B20" s="180"/>
-      <c r="C20" s="180"/>
-      <c r="D20" s="180"/>
-      <c r="E20" s="180"/>
-      <c r="F20" s="180"/>
-      <c r="G20" s="180"/>
-      <c r="H20" s="180"/>
-      <c r="I20" s="180"/>
-      <c r="J20" s="180"/>
-      <c r="K20" s="180"/>
-      <c r="L20" s="182"/>
-      <c r="M20" s="182"/>
-      <c r="N20" s="182"/>
-      <c r="O20" s="182"/>
-    </row>
-    <row r="21" spans="1:20" ht="24.95" customHeight="1">
-      <c r="A21" s="180" t="s">
+      <c r="B19" s="178"/>
+      <c r="C19" s="178"/>
+      <c r="D19" s="178"/>
+      <c r="E19" s="178"/>
+      <c r="F19" s="178"/>
+      <c r="G19" s="178"/>
+      <c r="H19" s="178"/>
+      <c r="I19" s="178"/>
+      <c r="J19" s="178"/>
+      <c r="K19" s="178"/>
+      <c r="L19" s="179"/>
+      <c r="M19" s="180"/>
+      <c r="N19" s="179"/>
+      <c r="O19" s="180"/>
+    </row>
+    <row r="20" spans="1:20" ht="24.9" customHeight="1">
+      <c r="A20" s="178"/>
+      <c r="B20" s="178"/>
+      <c r="C20" s="178"/>
+      <c r="D20" s="178"/>
+      <c r="E20" s="178"/>
+      <c r="F20" s="178"/>
+      <c r="G20" s="178"/>
+      <c r="H20" s="178"/>
+      <c r="I20" s="178"/>
+      <c r="J20" s="178"/>
+      <c r="K20" s="178"/>
+      <c r="L20" s="180"/>
+      <c r="M20" s="180"/>
+      <c r="N20" s="180"/>
+      <c r="O20" s="180"/>
+    </row>
+    <row r="21" spans="1:20" ht="24.9" customHeight="1">
+      <c r="A21" s="178" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="180"/>
-      <c r="C21" s="180"/>
-      <c r="D21" s="180"/>
-      <c r="E21" s="180"/>
-      <c r="F21" s="180"/>
-      <c r="G21" s="180"/>
-      <c r="H21" s="180"/>
-      <c r="I21" s="180"/>
-      <c r="J21" s="180"/>
-      <c r="K21" s="180"/>
-      <c r="L21" s="181"/>
-      <c r="M21" s="182"/>
-      <c r="N21" s="181"/>
-      <c r="O21" s="182"/>
-    </row>
-    <row r="22" spans="1:20" ht="24.95" customHeight="1">
-      <c r="A22" s="180"/>
-      <c r="B22" s="180"/>
-      <c r="C22" s="180"/>
-      <c r="D22" s="180"/>
-      <c r="E22" s="180"/>
-      <c r="F22" s="180"/>
-      <c r="G22" s="180"/>
-      <c r="H22" s="180"/>
-      <c r="I22" s="180"/>
-      <c r="J22" s="180"/>
-      <c r="K22" s="180"/>
-      <c r="L22" s="182"/>
-      <c r="M22" s="182"/>
-      <c r="N22" s="182"/>
-      <c r="O22" s="182"/>
-    </row>
-    <row r="23" spans="1:20" ht="24.95" customHeight="1">
-      <c r="A23" s="180" t="s">
+      <c r="B21" s="178"/>
+      <c r="C21" s="178"/>
+      <c r="D21" s="178"/>
+      <c r="E21" s="178"/>
+      <c r="F21" s="178"/>
+      <c r="G21" s="178"/>
+      <c r="H21" s="178"/>
+      <c r="I21" s="178"/>
+      <c r="J21" s="178"/>
+      <c r="K21" s="178"/>
+      <c r="L21" s="179"/>
+      <c r="M21" s="180"/>
+      <c r="N21" s="179"/>
+      <c r="O21" s="180"/>
+    </row>
+    <row r="22" spans="1:20" ht="24.9" customHeight="1">
+      <c r="A22" s="178"/>
+      <c r="B22" s="178"/>
+      <c r="C22" s="178"/>
+      <c r="D22" s="178"/>
+      <c r="E22" s="178"/>
+      <c r="F22" s="178"/>
+      <c r="G22" s="178"/>
+      <c r="H22" s="178"/>
+      <c r="I22" s="178"/>
+      <c r="J22" s="178"/>
+      <c r="K22" s="178"/>
+      <c r="L22" s="180"/>
+      <c r="M22" s="180"/>
+      <c r="N22" s="180"/>
+      <c r="O22" s="180"/>
+    </row>
+    <row r="23" spans="1:20" ht="24.9" customHeight="1">
+      <c r="A23" s="178" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="180"/>
-      <c r="C23" s="180"/>
-      <c r="D23" s="180"/>
-      <c r="E23" s="180"/>
-      <c r="F23" s="180"/>
-      <c r="G23" s="180"/>
-      <c r="H23" s="180"/>
-      <c r="I23" s="180"/>
-      <c r="J23" s="180"/>
-      <c r="K23" s="180"/>
-      <c r="L23" s="181"/>
-      <c r="M23" s="182"/>
-      <c r="N23" s="181"/>
-      <c r="O23" s="182"/>
-    </row>
-    <row r="24" spans="1:20" ht="24.95" customHeight="1">
-      <c r="A24" s="180"/>
-      <c r="B24" s="180"/>
-      <c r="C24" s="180"/>
-      <c r="D24" s="180"/>
-      <c r="E24" s="180"/>
-      <c r="F24" s="180"/>
-      <c r="G24" s="180"/>
-      <c r="H24" s="180"/>
-      <c r="I24" s="180"/>
-      <c r="J24" s="180"/>
-      <c r="K24" s="180"/>
-      <c r="L24" s="182"/>
-      <c r="M24" s="182"/>
-      <c r="N24" s="182"/>
-      <c r="O24" s="182"/>
-    </row>
-    <row r="25" spans="1:20" ht="24.95" customHeight="1">
-      <c r="A25" s="180" t="s">
+      <c r="B23" s="178"/>
+      <c r="C23" s="178"/>
+      <c r="D23" s="178"/>
+      <c r="E23" s="178"/>
+      <c r="F23" s="178"/>
+      <c r="G23" s="178"/>
+      <c r="H23" s="178"/>
+      <c r="I23" s="178"/>
+      <c r="J23" s="178"/>
+      <c r="K23" s="178"/>
+      <c r="L23" s="179"/>
+      <c r="M23" s="180"/>
+      <c r="N23" s="179"/>
+      <c r="O23" s="180"/>
+    </row>
+    <row r="24" spans="1:20" ht="24.9" customHeight="1">
+      <c r="A24" s="178"/>
+      <c r="B24" s="178"/>
+      <c r="C24" s="178"/>
+      <c r="D24" s="178"/>
+      <c r="E24" s="178"/>
+      <c r="F24" s="178"/>
+      <c r="G24" s="178"/>
+      <c r="H24" s="178"/>
+      <c r="I24" s="178"/>
+      <c r="J24" s="178"/>
+      <c r="K24" s="178"/>
+      <c r="L24" s="180"/>
+      <c r="M24" s="180"/>
+      <c r="N24" s="180"/>
+      <c r="O24" s="180"/>
+    </row>
+    <row r="25" spans="1:20" ht="24.9" customHeight="1">
+      <c r="A25" s="178" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="180"/>
-      <c r="C25" s="180"/>
-      <c r="D25" s="180"/>
-      <c r="E25" s="180"/>
-      <c r="F25" s="180"/>
-      <c r="G25" s="180"/>
-      <c r="H25" s="180"/>
-      <c r="I25" s="180"/>
-      <c r="J25" s="180"/>
-      <c r="K25" s="180"/>
-      <c r="L25" s="181"/>
-      <c r="M25" s="182"/>
-      <c r="N25" s="181"/>
-      <c r="O25" s="182"/>
-    </row>
-    <row r="26" spans="1:20" ht="24.95" customHeight="1">
-      <c r="A26" s="180"/>
-      <c r="B26" s="180"/>
-      <c r="C26" s="180"/>
-      <c r="D26" s="180"/>
-      <c r="E26" s="180"/>
-      <c r="F26" s="180"/>
-      <c r="G26" s="180"/>
-      <c r="H26" s="180"/>
-      <c r="I26" s="180"/>
-      <c r="J26" s="180"/>
-      <c r="K26" s="180"/>
-      <c r="L26" s="182"/>
-      <c r="M26" s="182"/>
-      <c r="N26" s="182"/>
-      <c r="O26" s="182"/>
+      <c r="B25" s="178"/>
+      <c r="C25" s="178"/>
+      <c r="D25" s="178"/>
+      <c r="E25" s="178"/>
+      <c r="F25" s="178"/>
+      <c r="G25" s="178"/>
+      <c r="H25" s="178"/>
+      <c r="I25" s="178"/>
+      <c r="J25" s="178"/>
+      <c r="K25" s="178"/>
+      <c r="L25" s="179"/>
+      <c r="M25" s="180"/>
+      <c r="N25" s="179"/>
+      <c r="O25" s="180"/>
+    </row>
+    <row r="26" spans="1:20" ht="24.9" customHeight="1">
+      <c r="A26" s="178"/>
+      <c r="B26" s="178"/>
+      <c r="C26" s="178"/>
+      <c r="D26" s="178"/>
+      <c r="E26" s="178"/>
+      <c r="F26" s="178"/>
+      <c r="G26" s="178"/>
+      <c r="H26" s="178"/>
+      <c r="I26" s="178"/>
+      <c r="J26" s="178"/>
+      <c r="K26" s="178"/>
+      <c r="L26" s="180"/>
+      <c r="M26" s="180"/>
+      <c r="N26" s="180"/>
+      <c r="O26" s="180"/>
     </row>
     <row r="27" spans="1:20" ht="15" customHeight="1">
       <c r="A27" s="13"/>
@@ -12555,7 +12386,7 @@
       <c r="N27" s="13"/>
       <c r="O27" s="13"/>
     </row>
-    <row r="28" spans="1:20" ht="24.95" customHeight="1">
+    <row r="28" spans="1:20" ht="24.9" customHeight="1">
       <c r="A28" s="13"/>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
@@ -12564,15 +12395,15 @@
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
-      <c r="I28" s="191" t="s">
+      <c r="I28" s="177" t="s">
         <v>17</v>
       </c>
-      <c r="J28" s="191"/>
-      <c r="K28" s="191"/>
-      <c r="L28" s="191"/>
-      <c r="M28" s="191"/>
-      <c r="N28" s="191"/>
-      <c r="O28" s="191"/>
+      <c r="J28" s="177"/>
+      <c r="K28" s="177"/>
+      <c r="L28" s="177"/>
+      <c r="M28" s="177"/>
+      <c r="N28" s="177"/>
+      <c r="O28" s="177"/>
       <c r="T28" s="1"/>
     </row>
     <row r="29" spans="1:20" ht="22.5" customHeight="1">
@@ -12584,16 +12415,16 @@
       <c r="F29" s="16"/>
       <c r="G29" s="13"/>
       <c r="H29" s="13"/>
-      <c r="I29" s="176" t="s">
+      <c r="I29" s="188" t="s">
         <v>2</v>
       </c>
-      <c r="J29" s="176"/>
-      <c r="K29" s="178"/>
-      <c r="L29" s="178"/>
-      <c r="M29" s="178"/>
-      <c r="N29" s="178"/>
-      <c r="O29" s="178"/>
-      <c r="P29" s="178"/>
+      <c r="J29" s="188"/>
+      <c r="K29" s="190"/>
+      <c r="L29" s="190"/>
+      <c r="M29" s="190"/>
+      <c r="N29" s="190"/>
+      <c r="O29" s="190"/>
+      <c r="P29" s="190"/>
     </row>
     <row r="30" spans="1:20" ht="22.5" customHeight="1" thickBot="1">
       <c r="A30" s="16"/>
@@ -12604,14 +12435,14 @@
       <c r="F30" s="16"/>
       <c r="G30" s="13"/>
       <c r="H30" s="13"/>
-      <c r="I30" s="177"/>
-      <c r="J30" s="177"/>
-      <c r="K30" s="179"/>
-      <c r="L30" s="179"/>
-      <c r="M30" s="179"/>
-      <c r="N30" s="179"/>
-      <c r="O30" s="179"/>
-      <c r="P30" s="179"/>
+      <c r="I30" s="189"/>
+      <c r="J30" s="189"/>
+      <c r="K30" s="191"/>
+      <c r="L30" s="191"/>
+      <c r="M30" s="191"/>
+      <c r="N30" s="191"/>
+      <c r="O30" s="191"/>
+      <c r="P30" s="191"/>
     </row>
     <row r="31" spans="1:20" ht="24.75" customHeight="1">
       <c r="A31" s="16"/>
@@ -12630,7 +12461,7 @@
       <c r="N31" s="14"/>
       <c r="O31" s="14"/>
     </row>
-    <row r="32" spans="1:20" ht="24.95" customHeight="1">
+    <row r="32" spans="1:20" ht="24.9" customHeight="1">
       <c r="A32" s="16"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -12639,15 +12470,15 @@
       <c r="F32" s="16"/>
       <c r="G32" s="13"/>
       <c r="H32" s="13"/>
-      <c r="I32" s="191" t="s">
+      <c r="I32" s="177" t="s">
         <v>9</v>
       </c>
-      <c r="J32" s="191"/>
-      <c r="K32" s="191"/>
-      <c r="L32" s="191"/>
-      <c r="M32" s="191"/>
-      <c r="N32" s="191"/>
-      <c r="O32" s="191"/>
+      <c r="J32" s="177"/>
+      <c r="K32" s="177"/>
+      <c r="L32" s="177"/>
+      <c r="M32" s="177"/>
+      <c r="N32" s="177"/>
+      <c r="O32" s="177"/>
     </row>
     <row r="33" spans="1:16" ht="22.5" customHeight="1">
       <c r="A33" s="16"/>
@@ -12658,16 +12489,16 @@
       <c r="F33" s="16"/>
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
-      <c r="I33" s="176" t="s">
+      <c r="I33" s="188" t="s">
         <v>2</v>
       </c>
-      <c r="J33" s="176"/>
-      <c r="K33" s="178"/>
-      <c r="L33" s="178"/>
-      <c r="M33" s="178"/>
-      <c r="N33" s="178"/>
-      <c r="O33" s="178"/>
-      <c r="P33" s="178"/>
+      <c r="J33" s="188"/>
+      <c r="K33" s="190"/>
+      <c r="L33" s="190"/>
+      <c r="M33" s="190"/>
+      <c r="N33" s="190"/>
+      <c r="O33" s="190"/>
+      <c r="P33" s="190"/>
     </row>
     <row r="34" spans="1:16" ht="22.5" customHeight="1" thickBot="1">
       <c r="A34" s="13"/>
@@ -12678,16 +12509,16 @@
       <c r="F34" s="13"/>
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
-      <c r="I34" s="177"/>
-      <c r="J34" s="177"/>
-      <c r="K34" s="179"/>
-      <c r="L34" s="179"/>
-      <c r="M34" s="179"/>
-      <c r="N34" s="179"/>
-      <c r="O34" s="179"/>
-      <c r="P34" s="179"/>
-    </row>
-    <row r="35" spans="1:16" ht="24.95" customHeight="1">
+      <c r="I34" s="189"/>
+      <c r="J34" s="189"/>
+      <c r="K34" s="191"/>
+      <c r="L34" s="191"/>
+      <c r="M34" s="191"/>
+      <c r="N34" s="191"/>
+      <c r="O34" s="191"/>
+      <c r="P34" s="191"/>
+    </row>
+    <row r="35" spans="1:16" ht="24.9" customHeight="1">
       <c r="A35" s="13"/>
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
@@ -12704,7 +12535,7 @@
       <c r="N35" s="13"/>
       <c r="O35" s="13"/>
     </row>
-    <row r="36" spans="1:16" ht="24.95" customHeight="1">
+    <row r="36" spans="1:16" ht="24.9" customHeight="1">
       <c r="A36" s="13"/>
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
@@ -12721,7 +12552,7 @@
       <c r="N36" s="13"/>
       <c r="O36" s="13"/>
     </row>
-    <row r="37" spans="1:16" ht="24.95" customHeight="1">
+    <row r="37" spans="1:16" ht="24.9" customHeight="1">
       <c r="A37" s="13"/>
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
@@ -12738,7 +12569,7 @@
       <c r="N37" s="13"/>
       <c r="O37" s="13"/>
     </row>
-    <row r="38" spans="1:16" ht="24.95" customHeight="1">
+    <row r="38" spans="1:16" ht="24.9" customHeight="1">
       <c r="A38" s="13"/>
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
@@ -12755,7 +12586,7 @@
       <c r="N38" s="13"/>
       <c r="O38" s="13"/>
     </row>
-    <row r="39" spans="1:16" ht="24.95" customHeight="1">
+    <row r="39" spans="1:16" ht="24.9" customHeight="1">
       <c r="A39" s="13"/>
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
@@ -12772,7 +12603,7 @@
       <c r="N39" s="13"/>
       <c r="O39" s="13"/>
     </row>
-    <row r="40" spans="1:16" ht="24.95" customHeight="1">
+    <row r="40" spans="1:16" ht="24.9" customHeight="1">
       <c r="A40" s="13"/>
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
@@ -12789,7 +12620,7 @@
       <c r="N40" s="13"/>
       <c r="O40" s="13"/>
     </row>
-    <row r="41" spans="1:16" ht="24.95" customHeight="1">
+    <row r="41" spans="1:16" ht="24.9" customHeight="1">
       <c r="A41" s="13"/>
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
@@ -12806,7 +12637,7 @@
       <c r="N41" s="13"/>
       <c r="O41" s="13"/>
     </row>
-    <row r="42" spans="1:16" ht="24.95" customHeight="1">
+    <row r="42" spans="1:16" ht="24.9" customHeight="1">
       <c r="A42" s="13"/>
       <c r="B42" s="13"/>
       <c r="C42" s="13"/>
@@ -12823,7 +12654,7 @@
       <c r="N42" s="13"/>
       <c r="O42" s="13"/>
     </row>
-    <row r="43" spans="1:16" ht="24.95" customHeight="1">
+    <row r="43" spans="1:16" ht="24.9" customHeight="1">
       <c r="A43" s="13"/>
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
@@ -12840,7 +12671,7 @@
       <c r="N43" s="13"/>
       <c r="O43" s="13"/>
     </row>
-    <row r="44" spans="1:16" ht="24.95" customHeight="1">
+    <row r="44" spans="1:16" ht="24.9" customHeight="1">
       <c r="A44" s="13"/>
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
@@ -12857,7 +12688,7 @@
       <c r="N44" s="13"/>
       <c r="O44" s="13"/>
     </row>
-    <row r="45" spans="1:16" ht="24.95" customHeight="1">
+    <row r="45" spans="1:16" ht="24.9" customHeight="1">
       <c r="A45" s="13"/>
       <c r="B45" s="13"/>
       <c r="C45" s="13"/>
@@ -12874,7 +12705,7 @@
       <c r="N45" s="13"/>
       <c r="O45" s="13"/>
     </row>
-    <row r="46" spans="1:16" ht="24.95" customHeight="1">
+    <row r="46" spans="1:16" ht="24.9" customHeight="1">
       <c r="A46" s="13"/>
       <c r="B46" s="13"/>
       <c r="C46" s="13"/>
@@ -12891,18 +12722,45 @@
       <c r="N46" s="13"/>
       <c r="O46" s="13"/>
     </row>
-    <row r="47" spans="1:16" ht="24.95" customHeight="1"/>
-    <row r="48" spans="1:16" ht="24.95" customHeight="1"/>
-    <row r="49" ht="24.95" customHeight="1"/>
-    <row r="50" ht="24.95" customHeight="1"/>
-    <row r="51" ht="24.95" customHeight="1"/>
-    <row r="52" ht="24.95" customHeight="1"/>
-    <row r="53" ht="24.95" customHeight="1"/>
-    <row r="54" ht="24.95" customHeight="1"/>
-    <row r="55" ht="24.95" customHeight="1"/>
+    <row r="47" spans="1:16" ht="24.9" customHeight="1"/>
+    <row r="48" spans="1:16" ht="24.9" customHeight="1"/>
+    <row r="49" ht="24.9" customHeight="1"/>
+    <row r="50" ht="24.9" customHeight="1"/>
+    <row r="51" ht="24.9" customHeight="1"/>
+    <row r="52" ht="24.9" customHeight="1"/>
+    <row r="53" ht="24.9" customHeight="1"/>
+    <row r="54" ht="24.9" customHeight="1"/>
+    <row r="55" ht="24.9" customHeight="1"/>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="43">
+    <mergeCell ref="I29:J30"/>
+    <mergeCell ref="I33:J34"/>
+    <mergeCell ref="K29:P30"/>
+    <mergeCell ref="K33:P34"/>
+    <mergeCell ref="A7:K8"/>
+    <mergeCell ref="L7:M8"/>
+    <mergeCell ref="N7:O8"/>
+    <mergeCell ref="A25:K26"/>
+    <mergeCell ref="L25:M26"/>
+    <mergeCell ref="N25:O26"/>
+    <mergeCell ref="A21:K22"/>
+    <mergeCell ref="L21:M22"/>
+    <mergeCell ref="N21:O22"/>
+    <mergeCell ref="A9:K10"/>
+    <mergeCell ref="L9:M10"/>
+    <mergeCell ref="A23:K24"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="L5:M6"/>
+    <mergeCell ref="N5:O6"/>
+    <mergeCell ref="A5:K6"/>
+    <mergeCell ref="N15:O16"/>
+    <mergeCell ref="L23:M24"/>
+    <mergeCell ref="N23:O24"/>
+    <mergeCell ref="A15:K16"/>
+    <mergeCell ref="A17:K18"/>
+    <mergeCell ref="L17:M18"/>
+    <mergeCell ref="N17:O18"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A2:P3"/>
     <mergeCell ref="I28:O28"/>
@@ -12919,33 +12777,6 @@
     <mergeCell ref="N9:O10"/>
     <mergeCell ref="A4:K4"/>
     <mergeCell ref="L15:M16"/>
-    <mergeCell ref="L23:M24"/>
-    <mergeCell ref="N23:O24"/>
-    <mergeCell ref="A15:K16"/>
-    <mergeCell ref="A17:K18"/>
-    <mergeCell ref="L17:M18"/>
-    <mergeCell ref="N17:O18"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="L5:M6"/>
-    <mergeCell ref="N5:O6"/>
-    <mergeCell ref="A5:K6"/>
-    <mergeCell ref="N15:O16"/>
-    <mergeCell ref="I29:J30"/>
-    <mergeCell ref="I33:J34"/>
-    <mergeCell ref="K29:P30"/>
-    <mergeCell ref="K33:P34"/>
-    <mergeCell ref="A7:K8"/>
-    <mergeCell ref="L7:M8"/>
-    <mergeCell ref="N7:O8"/>
-    <mergeCell ref="A25:K26"/>
-    <mergeCell ref="L25:M26"/>
-    <mergeCell ref="N25:O26"/>
-    <mergeCell ref="A21:K22"/>
-    <mergeCell ref="L21:M22"/>
-    <mergeCell ref="N21:O22"/>
-    <mergeCell ref="A9:K10"/>
-    <mergeCell ref="L9:M10"/>
-    <mergeCell ref="A23:K24"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="L7:O26 I29 K29 I33 K33">

--- a/４．【アイテ゛アシート】_神戸高専B_.xlsx
+++ b/４．【アイテ゛アシート】_神戸高専B_.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fsota\OneDrive\ドキュメント\GitHub\2023honrobo-document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA86A08-8694-4C33-8541-5065A58743E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA7CFC85-F16F-4263-B8A9-45C3D901F75A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="703" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="703" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -915,28 +915,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ロボットから動力を伝達し、桑の形をしている部分を回す</t>
-    <rPh sb="6" eb="8">
-      <t>ドウリョク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>デンタツ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>クワ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>カタチ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ブブン</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>マワ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>＜チームの目標＞</t>
     <rPh sb="5" eb="7">
       <t>モクヒョウ</t>
@@ -961,22 +939,139 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">「周回最速」
-チームの目標として、周回速度を限界まで突き詰めてフルーツをどのチームよりも先に回収することを目標に開発をしています。
-</t>
-    <rPh sb="53" eb="55">
-      <t>モクヒョウ</t>
+    <t>24Vバッテリー×2
+圧縮空気エアタンク 705cc×20本</t>
+    <rPh sb="11" eb="15">
+      <t>アッシュククウキ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ホン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>24Vバッテリー×2
-圧縮空気エアタンク 705cc×10本</t>
-    <rPh sb="11" eb="15">
-      <t>アッシュククウキ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>ホン</t>
+    <t xml:space="preserve">「周回最速」
+ルール発表当初からロボットに必要な要素を考えた結果、周回速度が重要な要素であると認識しました。また、周回速度だけでなく、フルーツを効率よく回収する必要もあるため、その両方を実現するためのプロジェクトを立ち上げました。そこで、チームの目標を周回速度を限界まで突き詰め、フルーツをどのチームよりも先に回収することにしました。
+</t>
+    <rPh sb="10" eb="12">
+      <t>ハッピョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>トウショ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>シュウカイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ジュウヨウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ニンシキ</t>
+    </rPh>
+    <rPh sb="57" eb="61">
+      <t>シュウカイソクド</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>コウリツ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>カイシュウ</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>リョウホウ</t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t>ジツゲン</t>
+    </rPh>
+    <rPh sb="107" eb="108">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="109" eb="110">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">センターゾーンでは、ロボットから動力を伝達し、桑の形をしている部分を回し、Sカン部からフルーツを回収する
+周辺コースでは桑部分を回転させずに固定した状態でロボットを全身させて少々クリップを引っ張りながらフルーツを回収する
+</t>
+    <rPh sb="16" eb="18">
+      <t>ドウリョク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>デンタツ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>クワ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>カタチ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>マワ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>カイシュウ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>シュウヘン</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>クワ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>カイテン</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>コテイ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>ゼンシン</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>ショウショウ</t>
+    </rPh>
+    <rPh sb="94" eb="95">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="96" eb="97">
+      <t>パ</t>
+    </rPh>
+    <rPh sb="107" eb="109">
+      <t>カイシュウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1730,6 +1825,43 @@
     <xf numFmtId="0" fontId="43" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1738,9 +1870,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -1749,55 +1878,37 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1838,29 +1949,107 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1868,15 +2057,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1925,91 +2105,6 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2103,42 +2198,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -2191,14 +2250,19 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2211,39 +2275,70 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -6330,28 +6425,28 @@
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.88671875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="5.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16" width="5.6640625" customWidth="1"/>
+    <col min="1" max="16" width="5.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="94.5" customHeight="1">
-      <c r="A1" s="53"/>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
+      <c r="A1" s="62"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1">
       <c r="A2" s="4"/>
@@ -6370,134 +6465,134 @@
       <c r="N2" s="4"/>
     </row>
     <row r="3" spans="1:16" ht="22.5" customHeight="1">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="63" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="63"/>
+      <c r="P3" s="63"/>
     </row>
     <row r="4" spans="1:16" ht="22.5" customHeight="1">
-      <c r="A4" s="54"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="54"/>
+      <c r="A4" s="63"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="63"/>
+      <c r="O4" s="63"/>
+      <c r="P4" s="63"/>
     </row>
     <row r="5" spans="1:16" ht="22.5" customHeight="1">
-      <c r="A5" s="54"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="54"/>
-      <c r="O5" s="54"/>
-      <c r="P5" s="54"/>
+      <c r="A5" s="63"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="63"/>
+      <c r="N5" s="63"/>
+      <c r="O5" s="63"/>
+      <c r="P5" s="63"/>
     </row>
     <row r="6" spans="1:16" ht="22.5" customHeight="1">
-      <c r="A6" s="54"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="54"/>
-      <c r="M6" s="54"/>
-      <c r="N6" s="54"/>
-      <c r="O6" s="54"/>
-      <c r="P6" s="54"/>
+      <c r="A6" s="63"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="63"/>
+      <c r="M6" s="63"/>
+      <c r="N6" s="63"/>
+      <c r="O6" s="63"/>
+      <c r="P6" s="63"/>
     </row>
     <row r="7" spans="1:16" ht="22.5" customHeight="1">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="55"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="55"/>
-      <c r="M7" s="55"/>
-      <c r="N7" s="55"/>
-      <c r="O7" s="55"/>
-      <c r="P7" s="55"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="64"/>
+      <c r="M7" s="64"/>
+      <c r="N7" s="64"/>
+      <c r="O7" s="64"/>
+      <c r="P7" s="64"/>
     </row>
     <row r="8" spans="1:16" ht="22.5" customHeight="1">
-      <c r="A8" s="55"/>
-      <c r="B8" s="55"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="55"/>
-      <c r="M8" s="55"/>
-      <c r="N8" s="55"/>
-      <c r="O8" s="55"/>
-      <c r="P8" s="55"/>
+      <c r="A8" s="64"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="64"/>
+      <c r="L8" s="64"/>
+      <c r="M8" s="64"/>
+      <c r="N8" s="64"/>
+      <c r="O8" s="64"/>
+      <c r="P8" s="64"/>
     </row>
     <row r="9" spans="1:16" ht="22.5" customHeight="1">
-      <c r="A9" s="55"/>
-      <c r="B9" s="55"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="55"/>
-      <c r="M9" s="55"/>
-      <c r="N9" s="55"/>
-      <c r="O9" s="55"/>
-      <c r="P9" s="55"/>
+      <c r="A9" s="64"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="64"/>
+      <c r="M9" s="64"/>
+      <c r="N9" s="64"/>
+      <c r="O9" s="64"/>
+      <c r="P9" s="64"/>
     </row>
     <row r="10" spans="1:16" ht="24" customHeight="1">
       <c r="A10" s="5"/>
@@ -6516,26 +6611,26 @@
       <c r="N10" s="5"/>
     </row>
     <row r="11" spans="1:16" ht="30" customHeight="1">
-      <c r="A11" s="56" t="s">
+      <c r="A11" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="56"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="51" t="s">
+      <c r="B11" s="55"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="51"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="51"/>
-      <c r="O11" s="51"/>
-      <c r="P11" s="51"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="61"/>
+      <c r="L11" s="61"/>
+      <c r="M11" s="61"/>
+      <c r="N11" s="61"/>
+      <c r="O11" s="61"/>
+      <c r="P11" s="61"/>
     </row>
     <row r="12" spans="1:16" ht="15" customHeight="1">
       <c r="A12" s="21"/>
@@ -6554,24 +6649,24 @@
       <c r="N12" s="1"/>
     </row>
     <row r="13" spans="1:16" ht="30" customHeight="1">
-      <c r="A13" s="56" t="s">
+      <c r="A13" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="56"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="51"/>
-      <c r="M13" s="51"/>
-      <c r="N13" s="51"/>
-      <c r="O13" s="51"/>
-      <c r="P13" s="51"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="61"/>
+      <c r="N13" s="61"/>
+      <c r="O13" s="61"/>
+      <c r="P13" s="61"/>
     </row>
     <row r="14" spans="1:16" ht="15" customHeight="1">
       <c r="B14" s="23"/>
@@ -6589,26 +6684,26 @@
       <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:16" ht="30" customHeight="1">
-      <c r="A15" s="56" t="s">
+      <c r="A15" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="56"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="51" t="s">
+      <c r="B15" s="55"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="61" t="s">
         <v>76</v>
       </c>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="51"/>
-      <c r="N15" s="51"/>
-      <c r="O15" s="51"/>
-      <c r="P15" s="51"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="61"/>
+      <c r="L15" s="61"/>
+      <c r="M15" s="61"/>
+      <c r="N15" s="61"/>
+      <c r="O15" s="61"/>
+      <c r="P15" s="61"/>
     </row>
     <row r="16" spans="1:16" ht="15" customHeight="1">
       <c r="B16" s="23"/>
@@ -6626,22 +6721,22 @@
       <c r="N16" s="1"/>
     </row>
     <row r="17" spans="1:16" ht="30" customHeight="1">
-      <c r="A17" s="66"/>
-      <c r="B17" s="66"/>
-      <c r="C17" s="66"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="52"/>
-      <c r="M17" s="52"/>
-      <c r="N17" s="52"/>
-      <c r="O17" s="52"/>
-      <c r="P17" s="52"/>
+      <c r="A17" s="56"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="66"/>
+      <c r="K17" s="66"/>
+      <c r="L17" s="66"/>
+      <c r="M17" s="66"/>
+      <c r="N17" s="66"/>
+      <c r="O17" s="66"/>
+      <c r="P17" s="66"/>
     </row>
     <row r="18" spans="1:16" ht="24" customHeight="1">
       <c r="D18" s="23"/>
@@ -6657,11 +6752,11 @@
       <c r="N18" s="23"/>
     </row>
     <row r="19" spans="1:16" ht="24" customHeight="1">
-      <c r="A19" s="46" t="s">
+      <c r="A19" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="46"/>
-      <c r="C19" s="46"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
       <c r="D19" s="23"/>
       <c r="E19" s="23"/>
       <c r="F19" s="23"/>
@@ -6673,25 +6768,25 @@
     </row>
     <row r="20" spans="1:16" ht="24" customHeight="1">
       <c r="A20" s="23"/>
-      <c r="B20" s="47" t="s">
+      <c r="B20" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="48"/>
-      <c r="D20" s="51" t="s">
+      <c r="C20" s="59"/>
+      <c r="D20" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="51"/>
-      <c r="L20" s="51"/>
-      <c r="M20" s="51"/>
-      <c r="N20" s="51"/>
-      <c r="O20" s="51"/>
-      <c r="P20" s="51"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="61"/>
+      <c r="K20" s="61"/>
+      <c r="L20" s="61"/>
+      <c r="M20" s="61"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="61"/>
+      <c r="P20" s="61"/>
     </row>
     <row r="21" spans="1:16" ht="15" customHeight="1">
       <c r="B21" s="2"/>
@@ -6709,25 +6804,25 @@
     </row>
     <row r="22" spans="1:16" ht="24" customHeight="1">
       <c r="A22" s="23"/>
-      <c r="B22" s="50" t="s">
+      <c r="B22" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="50"/>
-      <c r="D22" s="51" t="s">
+      <c r="C22" s="60"/>
+      <c r="D22" s="61" t="s">
         <v>78</v>
       </c>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="51"/>
-      <c r="L22" s="51"/>
-      <c r="M22" s="51"/>
-      <c r="N22" s="51"/>
-      <c r="O22" s="51"/>
-      <c r="P22" s="51"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="61"/>
+      <c r="J22" s="61"/>
+      <c r="K22" s="61"/>
+      <c r="L22" s="61"/>
+      <c r="M22" s="61"/>
+      <c r="N22" s="61"/>
+      <c r="O22" s="61"/>
+      <c r="P22" s="61"/>
     </row>
     <row r="23" spans="1:16" ht="15" customHeight="1">
       <c r="B23" s="2"/>
@@ -6745,23 +6840,23 @@
     </row>
     <row r="24" spans="1:16" ht="24" customHeight="1">
       <c r="A24" s="23"/>
-      <c r="B24" s="48" t="s">
+      <c r="B24" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="48"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="51"/>
-      <c r="K24" s="51"/>
-      <c r="L24" s="51"/>
-      <c r="M24" s="51"/>
-      <c r="N24" s="51"/>
-      <c r="O24" s="51"/>
-      <c r="P24" s="51"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="61"/>
+      <c r="J24" s="61"/>
+      <c r="K24" s="61"/>
+      <c r="L24" s="61"/>
+      <c r="M24" s="61"/>
+      <c r="N24" s="61"/>
+      <c r="O24" s="61"/>
+      <c r="P24" s="61"/>
     </row>
     <row r="25" spans="1:16" ht="15" customHeight="1">
       <c r="B25" s="2"/>
@@ -6779,32 +6874,32 @@
     </row>
     <row r="26" spans="1:16" ht="24" customHeight="1">
       <c r="A26" s="23"/>
-      <c r="B26" s="48" t="s">
+      <c r="B26" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="48"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="51"/>
-      <c r="J26" s="51"/>
-      <c r="K26" s="51"/>
-      <c r="L26" s="51"/>
-      <c r="M26" s="51"/>
-      <c r="N26" s="51"/>
-      <c r="O26" s="51"/>
-      <c r="P26" s="51"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="61"/>
+      <c r="J26" s="61"/>
+      <c r="K26" s="61"/>
+      <c r="L26" s="61"/>
+      <c r="M26" s="61"/>
+      <c r="N26" s="61"/>
+      <c r="O26" s="61"/>
+      <c r="P26" s="61"/>
     </row>
     <row r="27" spans="1:16" ht="24" customHeight="1"/>
     <row r="28" spans="1:16" ht="24" customHeight="1">
-      <c r="A28" s="46" t="s">
+      <c r="A28" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="46"/>
-      <c r="C28" s="46"/>
-      <c r="D28" s="46"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
       <c r="E28" s="23"/>
       <c r="F28" s="23"/>
       <c r="G28" s="23"/>
@@ -6816,25 +6911,25 @@
     </row>
     <row r="29" spans="1:16" ht="24" customHeight="1">
       <c r="A29" s="23"/>
-      <c r="B29" s="47" t="s">
+      <c r="B29" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="48"/>
-      <c r="D29" s="51" t="s">
+      <c r="C29" s="59"/>
+      <c r="D29" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="E29" s="51"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="51"/>
-      <c r="H29" s="51"/>
-      <c r="I29" s="51"/>
-      <c r="J29" s="51"/>
-      <c r="K29" s="51"/>
-      <c r="L29" s="51"/>
-      <c r="M29" s="51"/>
-      <c r="N29" s="51"/>
-      <c r="O29" s="51"/>
-      <c r="P29" s="51"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="61"/>
+      <c r="G29" s="61"/>
+      <c r="H29" s="61"/>
+      <c r="I29" s="61"/>
+      <c r="J29" s="61"/>
+      <c r="K29" s="61"/>
+      <c r="L29" s="61"/>
+      <c r="M29" s="61"/>
+      <c r="N29" s="61"/>
+      <c r="O29" s="61"/>
+      <c r="P29" s="61"/>
     </row>
     <row r="30" spans="1:16" ht="15" customHeight="1">
       <c r="B30" s="23"/>
@@ -6852,25 +6947,25 @@
     </row>
     <row r="31" spans="1:16" ht="24" customHeight="1">
       <c r="A31" s="23"/>
-      <c r="B31" s="49" t="s">
+      <c r="B31" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="50"/>
-      <c r="D31" s="51" t="s">
+      <c r="C31" s="60"/>
+      <c r="D31" s="61" t="s">
         <v>80</v>
       </c>
-      <c r="E31" s="51"/>
-      <c r="F31" s="51"/>
-      <c r="G31" s="51"/>
-      <c r="H31" s="51"/>
-      <c r="I31" s="51"/>
-      <c r="J31" s="51"/>
-      <c r="K31" s="51"/>
-      <c r="L31" s="51"/>
-      <c r="M31" s="51"/>
-      <c r="N31" s="51"/>
-      <c r="O31" s="51"/>
-      <c r="P31" s="51"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="61"/>
+      <c r="G31" s="61"/>
+      <c r="H31" s="61"/>
+      <c r="I31" s="61"/>
+      <c r="J31" s="61"/>
+      <c r="K31" s="61"/>
+      <c r="L31" s="61"/>
+      <c r="M31" s="61"/>
+      <c r="N31" s="61"/>
+      <c r="O31" s="61"/>
+      <c r="P31" s="61"/>
     </row>
     <row r="32" spans="1:16" ht="24" customHeight="1">
       <c r="A32" s="23"/>
@@ -6891,42 +6986,42 @@
     <row r="33" spans="1:15" ht="15" customHeight="1">
       <c r="A33" s="25"/>
       <c r="B33" s="25"/>
-      <c r="C33" s="60">
+      <c r="C33" s="49">
         <v>6</v>
       </c>
-      <c r="D33" s="62" t="s">
+      <c r="D33" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="E33" s="64">
+      <c r="E33" s="53">
         <v>27</v>
       </c>
-      <c r="F33" s="57" t="s">
+      <c r="F33" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="G33" s="58"/>
-      <c r="H33" s="58"/>
-      <c r="I33" s="58"/>
-      <c r="J33" s="58"/>
-      <c r="K33" s="58"/>
-      <c r="L33" s="58"/>
-      <c r="M33" s="58"/>
-      <c r="N33" s="58"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="47"/>
+      <c r="I33" s="47"/>
+      <c r="J33" s="47"/>
+      <c r="K33" s="47"/>
+      <c r="L33" s="47"/>
+      <c r="M33" s="47"/>
+      <c r="N33" s="47"/>
       <c r="O33" s="24"/>
     </row>
     <row r="34" spans="1:15" ht="15" customHeight="1">
       <c r="A34" s="25"/>
-      <c r="C34" s="61"/>
-      <c r="D34" s="63"/>
-      <c r="E34" s="65"/>
-      <c r="F34" s="59"/>
-      <c r="G34" s="59"/>
-      <c r="H34" s="59"/>
-      <c r="I34" s="59"/>
-      <c r="J34" s="59"/>
-      <c r="K34" s="59"/>
-      <c r="L34" s="59"/>
-      <c r="M34" s="59"/>
-      <c r="N34" s="59"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="52"/>
+      <c r="E34" s="54"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="48"/>
+      <c r="H34" s="48"/>
+      <c r="I34" s="48"/>
+      <c r="J34" s="48"/>
+      <c r="K34" s="48"/>
+      <c r="L34" s="48"/>
+      <c r="M34" s="48"/>
+      <c r="N34" s="48"/>
       <c r="O34" s="24"/>
     </row>
     <row r="35" spans="1:15" ht="15" customHeight="1">
@@ -6936,6 +7031,19 @@
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="29">
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="E13:P13"/>
+    <mergeCell ref="E15:P15"/>
+    <mergeCell ref="E17:P17"/>
+    <mergeCell ref="D20:P20"/>
+    <mergeCell ref="D22:P22"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A3:P6"/>
+    <mergeCell ref="A7:P9"/>
+    <mergeCell ref="E11:P11"/>
+    <mergeCell ref="A15:D15"/>
     <mergeCell ref="F33:N34"/>
     <mergeCell ref="C33:C34"/>
     <mergeCell ref="D33:D34"/>
@@ -6952,19 +7060,6 @@
     <mergeCell ref="D26:P26"/>
     <mergeCell ref="D29:P29"/>
     <mergeCell ref="D31:P31"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A3:P6"/>
-    <mergeCell ref="A7:P9"/>
-    <mergeCell ref="E11:P11"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="E13:P13"/>
-    <mergeCell ref="E15:P15"/>
-    <mergeCell ref="E17:P17"/>
-    <mergeCell ref="D20:P20"/>
-    <mergeCell ref="D22:P22"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="C33:C34 E33:E34">
@@ -6996,128 +7091,128 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B168B418-52F7-4484-BBD6-B24A0DFE07EB}">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A11" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A12" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="A25" sqref="A25:P33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.44140625" defaultRowHeight="25.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="5.5" defaultRowHeight="25.5" customHeight="1"/>
   <cols>
-    <col min="1" max="16" width="5.6640625" customWidth="1"/>
+    <col min="1" max="16" width="5.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="30" customHeight="1">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="72" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-    </row>
-    <row r="2" spans="1:16" ht="24.9" customHeight="1"/>
-    <row r="3" spans="1:16" ht="24.9" customHeight="1">
-      <c r="A3" s="82" t="s">
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+    </row>
+    <row r="2" spans="1:16" ht="24.95" customHeight="1"/>
+    <row r="3" spans="1:16" ht="24.95" customHeight="1">
+      <c r="A3" s="83" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="80" t="s">
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="81"/>
-    </row>
-    <row r="4" spans="1:16" ht="24.9" customHeight="1">
-      <c r="A4" s="78" t="s">
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+    </row>
+    <row r="4" spans="1:16" ht="24.95" customHeight="1">
+      <c r="A4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78" t="s">
+      <c r="B4" s="67"/>
+      <c r="C4" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78" t="s">
+      <c r="D4" s="67"/>
+      <c r="E4" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78" t="s">
+      <c r="F4" s="67"/>
+      <c r="G4" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78" t="s">
+      <c r="H4" s="67"/>
+      <c r="I4" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="78"/>
-      <c r="K4" s="78" t="s">
+      <c r="J4" s="67"/>
+      <c r="K4" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="78"/>
+      <c r="L4" s="67"/>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
     </row>
-    <row r="5" spans="1:16" ht="24.9" customHeight="1">
-      <c r="A5" s="83">
+    <row r="5" spans="1:16" ht="24.95" customHeight="1">
+      <c r="A5" s="82">
         <v>4</v>
       </c>
-      <c r="B5" s="83"/>
-      <c r="C5" s="83">
+      <c r="B5" s="82"/>
+      <c r="C5" s="82">
         <v>1</v>
       </c>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83">
+      <c r="D5" s="82"/>
+      <c r="E5" s="82">
         <v>3</v>
       </c>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83">
+      <c r="F5" s="82"/>
+      <c r="G5" s="82">
         <v>2</v>
       </c>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83">
+      <c r="H5" s="82"/>
+      <c r="I5" s="82">
         <v>0</v>
       </c>
-      <c r="J5" s="83"/>
-      <c r="K5" s="83">
+      <c r="J5" s="82"/>
+      <c r="K5" s="82">
         <v>10</v>
       </c>
-      <c r="L5" s="83"/>
+      <c r="L5" s="82"/>
       <c r="M5" s="18"/>
       <c r="N5" s="18"/>
     </row>
-    <row r="6" spans="1:16" ht="24.9" customHeight="1">
-      <c r="A6" s="83"/>
-      <c r="B6" s="83"/>
-      <c r="C6" s="83"/>
-      <c r="D6" s="83"/>
-      <c r="E6" s="83"/>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="83"/>
-      <c r="J6" s="83"/>
-      <c r="K6" s="83"/>
-      <c r="L6" s="83"/>
+    <row r="6" spans="1:16" ht="24.95" customHeight="1">
+      <c r="A6" s="82"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="82"/>
+      <c r="I6" s="82"/>
+      <c r="J6" s="82"/>
+      <c r="K6" s="82"/>
+      <c r="L6" s="82"/>
       <c r="M6" s="18"/>
       <c r="N6" s="18"/>
     </row>
-    <row r="7" spans="1:16" ht="24.9" customHeight="1">
+    <row r="7" spans="1:16" ht="24.95" customHeight="1">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -7133,16 +7228,16 @@
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
     </row>
-    <row r="8" spans="1:16" ht="24.9" customHeight="1">
-      <c r="A8" s="79" t="s">
+    <row r="8" spans="1:16" ht="24.95" customHeight="1">
+      <c r="A8" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="79"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="79"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
       <c r="H8" s="17"/>
       <c r="I8" s="17"/>
       <c r="J8" s="17"/>
@@ -7151,77 +7246,77 @@
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
     </row>
-    <row r="9" spans="1:16" ht="24.9" customHeight="1">
-      <c r="A9" s="77" t="s">
+    <row r="9" spans="1:16" ht="24.95" customHeight="1">
+      <c r="A9" s="69" t="s">
         <v>81</v>
       </c>
-      <c r="B9" s="77"/>
-      <c r="C9" s="77"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="77"/>
-      <c r="G9" s="77"/>
-      <c r="H9" s="77" t="s">
+      <c r="B9" s="69"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="I9" s="77"/>
-      <c r="J9" s="77"/>
-      <c r="K9" s="77"/>
-      <c r="L9" s="77"/>
-      <c r="M9" s="77"/>
-      <c r="N9" s="77"/>
-    </row>
-    <row r="10" spans="1:16" ht="24.9" customHeight="1">
-      <c r="A10" s="77" t="s">
+      <c r="I9" s="69"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="69"/>
+      <c r="L9" s="69"/>
+      <c r="M9" s="69"/>
+      <c r="N9" s="69"/>
+    </row>
+    <row r="10" spans="1:16" ht="24.95" customHeight="1">
+      <c r="A10" s="69" t="s">
         <v>82</v>
       </c>
-      <c r="B10" s="77"/>
-      <c r="C10" s="77"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="77"/>
-      <c r="G10" s="77"/>
-      <c r="H10" s="77"/>
-      <c r="I10" s="77"/>
-      <c r="J10" s="77"/>
-      <c r="K10" s="77"/>
-      <c r="L10" s="77"/>
-      <c r="M10" s="77"/>
-      <c r="N10" s="77"/>
-    </row>
-    <row r="11" spans="1:16" ht="24.9" customHeight="1">
-      <c r="A11" s="77"/>
-      <c r="B11" s="77"/>
-      <c r="C11" s="77"/>
-      <c r="D11" s="77"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="77"/>
-      <c r="G11" s="77"/>
-      <c r="H11" s="77"/>
-      <c r="I11" s="77"/>
-      <c r="J11" s="77"/>
-      <c r="K11" s="77"/>
-      <c r="L11" s="77"/>
-      <c r="M11" s="77"/>
-      <c r="N11" s="77"/>
-    </row>
-    <row r="12" spans="1:16" ht="24.9" customHeight="1">
-      <c r="A12" s="77"/>
-      <c r="B12" s="77"/>
-      <c r="C12" s="77"/>
-      <c r="D12" s="77"/>
-      <c r="E12" s="77"/>
-      <c r="F12" s="77"/>
-      <c r="G12" s="77"/>
-      <c r="H12" s="77"/>
-      <c r="I12" s="77"/>
-      <c r="J12" s="77"/>
-      <c r="K12" s="77"/>
-      <c r="L12" s="77"/>
-      <c r="M12" s="77"/>
-      <c r="N12" s="77"/>
-    </row>
-    <row r="13" spans="1:16" ht="24.9" customHeight="1">
+      <c r="B10" s="69"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="69"/>
+      <c r="L10" s="69"/>
+      <c r="M10" s="69"/>
+      <c r="N10" s="69"/>
+    </row>
+    <row r="11" spans="1:16" ht="24.95" customHeight="1">
+      <c r="A11" s="69"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="69"/>
+      <c r="J11" s="69"/>
+      <c r="K11" s="69"/>
+      <c r="L11" s="69"/>
+      <c r="M11" s="69"/>
+      <c r="N11" s="69"/>
+    </row>
+    <row r="12" spans="1:16" ht="24.95" customHeight="1">
+      <c r="A12" s="69"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="69"/>
+      <c r="K12" s="69"/>
+      <c r="L12" s="69"/>
+      <c r="M12" s="69"/>
+      <c r="N12" s="69"/>
+    </row>
+    <row r="13" spans="1:16" ht="24.95" customHeight="1">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -7237,9 +7332,9 @@
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
     </row>
-    <row r="14" spans="1:16" ht="24.9" customHeight="1">
+    <row r="14" spans="1:16" ht="24.95" customHeight="1">
       <c r="A14" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B14" s="35"/>
       <c r="C14" s="35"/>
@@ -7250,173 +7345,173 @@
       <c r="K14" s="8"/>
       <c r="L14" s="9"/>
     </row>
-    <row r="15" spans="1:16" ht="24.9" customHeight="1">
-      <c r="A15" s="68" t="s">
-        <v>92</v>
+    <row r="15" spans="1:16" ht="24.95" customHeight="1">
+      <c r="A15" s="73" t="s">
+        <v>91</v>
       </c>
-      <c r="B15" s="69"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="69"/>
-      <c r="J15" s="69"/>
-      <c r="K15" s="69"/>
-      <c r="L15" s="69"/>
-      <c r="M15" s="69"/>
-      <c r="N15" s="69"/>
-      <c r="O15" s="69"/>
-      <c r="P15" s="70"/>
-    </row>
-    <row r="16" spans="1:16" ht="24.9" customHeight="1">
-      <c r="A16" s="71"/>
-      <c r="B16" s="72"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="72"/>
-      <c r="H16" s="72"/>
-      <c r="I16" s="72"/>
-      <c r="J16" s="72"/>
-      <c r="K16" s="72"/>
-      <c r="L16" s="72"/>
-      <c r="M16" s="72"/>
-      <c r="N16" s="72"/>
-      <c r="O16" s="72"/>
-      <c r="P16" s="73"/>
-    </row>
-    <row r="17" spans="1:16" ht="24.9" customHeight="1">
-      <c r="A17" s="71"/>
-      <c r="B17" s="72"/>
-      <c r="C17" s="72"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="72"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="72"/>
-      <c r="H17" s="72"/>
-      <c r="I17" s="72"/>
-      <c r="J17" s="72"/>
-      <c r="K17" s="72"/>
-      <c r="L17" s="72"/>
-      <c r="M17" s="72"/>
-      <c r="N17" s="72"/>
-      <c r="O17" s="72"/>
-      <c r="P17" s="73"/>
-    </row>
-    <row r="18" spans="1:16" ht="24.9" customHeight="1">
-      <c r="A18" s="71"/>
-      <c r="B18" s="72"/>
-      <c r="C18" s="72"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="72"/>
-      <c r="I18" s="72"/>
-      <c r="J18" s="72"/>
-      <c r="K18" s="72"/>
-      <c r="L18" s="72"/>
-      <c r="M18" s="72"/>
-      <c r="N18" s="72"/>
-      <c r="O18" s="72"/>
-      <c r="P18" s="73"/>
-    </row>
-    <row r="19" spans="1:16" ht="24.9" customHeight="1">
-      <c r="A19" s="71"/>
-      <c r="B19" s="72"/>
-      <c r="C19" s="72"/>
-      <c r="D19" s="72"/>
-      <c r="E19" s="72"/>
-      <c r="F19" s="72"/>
-      <c r="G19" s="72"/>
-      <c r="H19" s="72"/>
-      <c r="I19" s="72"/>
-      <c r="J19" s="72"/>
-      <c r="K19" s="72"/>
-      <c r="L19" s="72"/>
-      <c r="M19" s="72"/>
-      <c r="N19" s="72"/>
-      <c r="O19" s="72"/>
-      <c r="P19" s="73"/>
-    </row>
-    <row r="20" spans="1:16" ht="24.9" customHeight="1">
-      <c r="A20" s="71"/>
-      <c r="B20" s="72"/>
-      <c r="C20" s="72"/>
-      <c r="D20" s="72"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="72"/>
-      <c r="H20" s="72"/>
-      <c r="I20" s="72"/>
-      <c r="J20" s="72"/>
-      <c r="K20" s="72"/>
-      <c r="L20" s="72"/>
-      <c r="M20" s="72"/>
-      <c r="N20" s="72"/>
-      <c r="O20" s="72"/>
-      <c r="P20" s="73"/>
-    </row>
-    <row r="21" spans="1:16" ht="24.9" customHeight="1">
-      <c r="A21" s="71"/>
-      <c r="B21" s="72"/>
-      <c r="C21" s="72"/>
-      <c r="D21" s="72"/>
-      <c r="E21" s="72"/>
-      <c r="F21" s="72"/>
-      <c r="G21" s="72"/>
-      <c r="H21" s="72"/>
-      <c r="I21" s="72"/>
-      <c r="J21" s="72"/>
-      <c r="K21" s="72"/>
-      <c r="L21" s="72"/>
-      <c r="M21" s="72"/>
-      <c r="N21" s="72"/>
-      <c r="O21" s="72"/>
-      <c r="P21" s="73"/>
-    </row>
-    <row r="22" spans="1:16" ht="24.9" customHeight="1">
-      <c r="A22" s="71"/>
-      <c r="B22" s="72"/>
-      <c r="C22" s="72"/>
-      <c r="D22" s="72"/>
-      <c r="E22" s="72"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="72"/>
-      <c r="H22" s="72"/>
-      <c r="I22" s="72"/>
-      <c r="J22" s="72"/>
-      <c r="K22" s="72"/>
-      <c r="L22" s="72"/>
-      <c r="M22" s="72"/>
-      <c r="N22" s="72"/>
-      <c r="O22" s="72"/>
-      <c r="P22" s="73"/>
-    </row>
-    <row r="23" spans="1:16" ht="24.9" customHeight="1">
-      <c r="A23" s="74"/>
-      <c r="B23" s="75"/>
-      <c r="C23" s="75"/>
-      <c r="D23" s="75"/>
-      <c r="E23" s="75"/>
-      <c r="F23" s="75"/>
-      <c r="G23" s="75"/>
-      <c r="H23" s="75"/>
-      <c r="I23" s="75"/>
-      <c r="J23" s="75"/>
-      <c r="K23" s="75"/>
-      <c r="L23" s="75"/>
-      <c r="M23" s="75"/>
-      <c r="N23" s="75"/>
-      <c r="O23" s="75"/>
-      <c r="P23" s="76"/>
+      <c r="B15" s="74"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="74"/>
+      <c r="I15" s="74"/>
+      <c r="J15" s="74"/>
+      <c r="K15" s="74"/>
+      <c r="L15" s="74"/>
+      <c r="M15" s="74"/>
+      <c r="N15" s="74"/>
+      <c r="O15" s="74"/>
+      <c r="P15" s="75"/>
+    </row>
+    <row r="16" spans="1:16" ht="24.95" customHeight="1">
+      <c r="A16" s="76"/>
+      <c r="B16" s="77"/>
+      <c r="C16" s="77"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="77"/>
+      <c r="H16" s="77"/>
+      <c r="I16" s="77"/>
+      <c r="J16" s="77"/>
+      <c r="K16" s="77"/>
+      <c r="L16" s="77"/>
+      <c r="M16" s="77"/>
+      <c r="N16" s="77"/>
+      <c r="O16" s="77"/>
+      <c r="P16" s="78"/>
+    </row>
+    <row r="17" spans="1:16" ht="24.95" customHeight="1">
+      <c r="A17" s="76"/>
+      <c r="B17" s="77"/>
+      <c r="C17" s="77"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="77"/>
+      <c r="H17" s="77"/>
+      <c r="I17" s="77"/>
+      <c r="J17" s="77"/>
+      <c r="K17" s="77"/>
+      <c r="L17" s="77"/>
+      <c r="M17" s="77"/>
+      <c r="N17" s="77"/>
+      <c r="O17" s="77"/>
+      <c r="P17" s="78"/>
+    </row>
+    <row r="18" spans="1:16" ht="24.95" customHeight="1">
+      <c r="A18" s="76"/>
+      <c r="B18" s="77"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="77"/>
+      <c r="H18" s="77"/>
+      <c r="I18" s="77"/>
+      <c r="J18" s="77"/>
+      <c r="K18" s="77"/>
+      <c r="L18" s="77"/>
+      <c r="M18" s="77"/>
+      <c r="N18" s="77"/>
+      <c r="O18" s="77"/>
+      <c r="P18" s="78"/>
+    </row>
+    <row r="19" spans="1:16" ht="24.95" customHeight="1">
+      <c r="A19" s="76"/>
+      <c r="B19" s="77"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="77"/>
+      <c r="H19" s="77"/>
+      <c r="I19" s="77"/>
+      <c r="J19" s="77"/>
+      <c r="K19" s="77"/>
+      <c r="L19" s="77"/>
+      <c r="M19" s="77"/>
+      <c r="N19" s="77"/>
+      <c r="O19" s="77"/>
+      <c r="P19" s="78"/>
+    </row>
+    <row r="20" spans="1:16" ht="24.95" customHeight="1">
+      <c r="A20" s="76"/>
+      <c r="B20" s="77"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="77"/>
+      <c r="H20" s="77"/>
+      <c r="I20" s="77"/>
+      <c r="J20" s="77"/>
+      <c r="K20" s="77"/>
+      <c r="L20" s="77"/>
+      <c r="M20" s="77"/>
+      <c r="N20" s="77"/>
+      <c r="O20" s="77"/>
+      <c r="P20" s="78"/>
+    </row>
+    <row r="21" spans="1:16" ht="24.95" customHeight="1">
+      <c r="A21" s="76"/>
+      <c r="B21" s="77"/>
+      <c r="C21" s="77"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="77"/>
+      <c r="H21" s="77"/>
+      <c r="I21" s="77"/>
+      <c r="J21" s="77"/>
+      <c r="K21" s="77"/>
+      <c r="L21" s="77"/>
+      <c r="M21" s="77"/>
+      <c r="N21" s="77"/>
+      <c r="O21" s="77"/>
+      <c r="P21" s="78"/>
+    </row>
+    <row r="22" spans="1:16" ht="24.95" customHeight="1">
+      <c r="A22" s="76"/>
+      <c r="B22" s="77"/>
+      <c r="C22" s="77"/>
+      <c r="D22" s="77"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="77"/>
+      <c r="G22" s="77"/>
+      <c r="H22" s="77"/>
+      <c r="I22" s="77"/>
+      <c r="J22" s="77"/>
+      <c r="K22" s="77"/>
+      <c r="L22" s="77"/>
+      <c r="M22" s="77"/>
+      <c r="N22" s="77"/>
+      <c r="O22" s="77"/>
+      <c r="P22" s="78"/>
+    </row>
+    <row r="23" spans="1:16" ht="24.95" customHeight="1">
+      <c r="A23" s="79"/>
+      <c r="B23" s="80"/>
+      <c r="C23" s="80"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="80"/>
+      <c r="H23" s="80"/>
+      <c r="I23" s="80"/>
+      <c r="J23" s="80"/>
+      <c r="K23" s="80"/>
+      <c r="L23" s="80"/>
+      <c r="M23" s="80"/>
+      <c r="N23" s="80"/>
+      <c r="O23" s="80"/>
+      <c r="P23" s="81"/>
     </row>
     <row r="24" spans="1:16" ht="23.25" customHeight="1">
       <c r="A24" s="35" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -7432,178 +7527,178 @@
       <c r="M24" s="10"/>
       <c r="N24" s="10"/>
     </row>
-    <row r="25" spans="1:16" ht="24.9" customHeight="1">
-      <c r="A25" s="68" t="s">
+    <row r="25" spans="1:16" ht="24.95" customHeight="1">
+      <c r="A25" s="73" t="s">
         <v>93</v>
       </c>
-      <c r="B25" s="69"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="69"/>
-      <c r="H25" s="69"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="69"/>
-      <c r="N25" s="69"/>
-      <c r="O25" s="69"/>
-      <c r="P25" s="70"/>
-    </row>
-    <row r="26" spans="1:16" ht="24.9" customHeight="1">
-      <c r="A26" s="71"/>
-      <c r="B26" s="72"/>
-      <c r="C26" s="72"/>
-      <c r="D26" s="72"/>
-      <c r="E26" s="72"/>
-      <c r="F26" s="72"/>
-      <c r="G26" s="72"/>
-      <c r="H26" s="72"/>
-      <c r="I26" s="72"/>
-      <c r="J26" s="72"/>
-      <c r="K26" s="72"/>
-      <c r="L26" s="72"/>
-      <c r="M26" s="72"/>
-      <c r="N26" s="72"/>
-      <c r="O26" s="72"/>
-      <c r="P26" s="73"/>
-    </row>
-    <row r="27" spans="1:16" ht="24.9" customHeight="1">
-      <c r="A27" s="71"/>
-      <c r="B27" s="72"/>
-      <c r="C27" s="72"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="72"/>
-      <c r="F27" s="72"/>
-      <c r="G27" s="72"/>
-      <c r="H27" s="72"/>
-      <c r="I27" s="72"/>
-      <c r="J27" s="72"/>
-      <c r="K27" s="72"/>
-      <c r="L27" s="72"/>
-      <c r="M27" s="72"/>
-      <c r="N27" s="72"/>
-      <c r="O27" s="72"/>
-      <c r="P27" s="73"/>
-    </row>
-    <row r="28" spans="1:16" ht="24.9" customHeight="1">
-      <c r="A28" s="71"/>
-      <c r="B28" s="72"/>
-      <c r="C28" s="72"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="72"/>
-      <c r="F28" s="72"/>
-      <c r="G28" s="72"/>
-      <c r="H28" s="72"/>
-      <c r="I28" s="72"/>
-      <c r="J28" s="72"/>
-      <c r="K28" s="72"/>
-      <c r="L28" s="72"/>
-      <c r="M28" s="72"/>
-      <c r="N28" s="72"/>
-      <c r="O28" s="72"/>
-      <c r="P28" s="73"/>
-    </row>
-    <row r="29" spans="1:16" ht="24.9" customHeight="1">
-      <c r="A29" s="71"/>
-      <c r="B29" s="72"/>
-      <c r="C29" s="72"/>
-      <c r="D29" s="72"/>
-      <c r="E29" s="72"/>
-      <c r="F29" s="72"/>
-      <c r="G29" s="72"/>
-      <c r="H29" s="72"/>
-      <c r="I29" s="72"/>
-      <c r="J29" s="72"/>
-      <c r="K29" s="72"/>
-      <c r="L29" s="72"/>
-      <c r="M29" s="72"/>
-      <c r="N29" s="72"/>
-      <c r="O29" s="72"/>
-      <c r="P29" s="73"/>
-    </row>
-    <row r="30" spans="1:16" ht="24.9" customHeight="1">
-      <c r="A30" s="71"/>
-      <c r="B30" s="72"/>
-      <c r="C30" s="72"/>
-      <c r="D30" s="72"/>
-      <c r="E30" s="72"/>
-      <c r="F30" s="72"/>
-      <c r="G30" s="72"/>
-      <c r="H30" s="72"/>
-      <c r="I30" s="72"/>
-      <c r="J30" s="72"/>
-      <c r="K30" s="72"/>
-      <c r="L30" s="72"/>
-      <c r="M30" s="72"/>
-      <c r="N30" s="72"/>
-      <c r="O30" s="72"/>
-      <c r="P30" s="73"/>
-    </row>
-    <row r="31" spans="1:16" ht="24.9" customHeight="1">
-      <c r="A31" s="71"/>
-      <c r="B31" s="72"/>
-      <c r="C31" s="72"/>
-      <c r="D31" s="72"/>
-      <c r="E31" s="72"/>
-      <c r="F31" s="72"/>
-      <c r="G31" s="72"/>
-      <c r="H31" s="72"/>
-      <c r="I31" s="72"/>
-      <c r="J31" s="72"/>
-      <c r="K31" s="72"/>
-      <c r="L31" s="72"/>
-      <c r="M31" s="72"/>
-      <c r="N31" s="72"/>
-      <c r="O31" s="72"/>
-      <c r="P31" s="73"/>
+      <c r="B25" s="74"/>
+      <c r="C25" s="74"/>
+      <c r="D25" s="74"/>
+      <c r="E25" s="74"/>
+      <c r="F25" s="74"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="74"/>
+      <c r="I25" s="74"/>
+      <c r="J25" s="74"/>
+      <c r="K25" s="74"/>
+      <c r="L25" s="74"/>
+      <c r="M25" s="74"/>
+      <c r="N25" s="74"/>
+      <c r="O25" s="74"/>
+      <c r="P25" s="75"/>
+    </row>
+    <row r="26" spans="1:16" ht="24.95" customHeight="1">
+      <c r="A26" s="76"/>
+      <c r="B26" s="77"/>
+      <c r="C26" s="77"/>
+      <c r="D26" s="77"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="77"/>
+      <c r="H26" s="77"/>
+      <c r="I26" s="77"/>
+      <c r="J26" s="77"/>
+      <c r="K26" s="77"/>
+      <c r="L26" s="77"/>
+      <c r="M26" s="77"/>
+      <c r="N26" s="77"/>
+      <c r="O26" s="77"/>
+      <c r="P26" s="78"/>
+    </row>
+    <row r="27" spans="1:16" ht="24.95" customHeight="1">
+      <c r="A27" s="76"/>
+      <c r="B27" s="77"/>
+      <c r="C27" s="77"/>
+      <c r="D27" s="77"/>
+      <c r="E27" s="77"/>
+      <c r="F27" s="77"/>
+      <c r="G27" s="77"/>
+      <c r="H27" s="77"/>
+      <c r="I27" s="77"/>
+      <c r="J27" s="77"/>
+      <c r="K27" s="77"/>
+      <c r="L27" s="77"/>
+      <c r="M27" s="77"/>
+      <c r="N27" s="77"/>
+      <c r="O27" s="77"/>
+      <c r="P27" s="78"/>
+    </row>
+    <row r="28" spans="1:16" ht="24.95" customHeight="1">
+      <c r="A28" s="76"/>
+      <c r="B28" s="77"/>
+      <c r="C28" s="77"/>
+      <c r="D28" s="77"/>
+      <c r="E28" s="77"/>
+      <c r="F28" s="77"/>
+      <c r="G28" s="77"/>
+      <c r="H28" s="77"/>
+      <c r="I28" s="77"/>
+      <c r="J28" s="77"/>
+      <c r="K28" s="77"/>
+      <c r="L28" s="77"/>
+      <c r="M28" s="77"/>
+      <c r="N28" s="77"/>
+      <c r="O28" s="77"/>
+      <c r="P28" s="78"/>
+    </row>
+    <row r="29" spans="1:16" ht="24.95" customHeight="1">
+      <c r="A29" s="76"/>
+      <c r="B29" s="77"/>
+      <c r="C29" s="77"/>
+      <c r="D29" s="77"/>
+      <c r="E29" s="77"/>
+      <c r="F29" s="77"/>
+      <c r="G29" s="77"/>
+      <c r="H29" s="77"/>
+      <c r="I29" s="77"/>
+      <c r="J29" s="77"/>
+      <c r="K29" s="77"/>
+      <c r="L29" s="77"/>
+      <c r="M29" s="77"/>
+      <c r="N29" s="77"/>
+      <c r="O29" s="77"/>
+      <c r="P29" s="78"/>
+    </row>
+    <row r="30" spans="1:16" ht="24.95" customHeight="1">
+      <c r="A30" s="76"/>
+      <c r="B30" s="77"/>
+      <c r="C30" s="77"/>
+      <c r="D30" s="77"/>
+      <c r="E30" s="77"/>
+      <c r="F30" s="77"/>
+      <c r="G30" s="77"/>
+      <c r="H30" s="77"/>
+      <c r="I30" s="77"/>
+      <c r="J30" s="77"/>
+      <c r="K30" s="77"/>
+      <c r="L30" s="77"/>
+      <c r="M30" s="77"/>
+      <c r="N30" s="77"/>
+      <c r="O30" s="77"/>
+      <c r="P30" s="78"/>
+    </row>
+    <row r="31" spans="1:16" ht="24.95" customHeight="1">
+      <c r="A31" s="76"/>
+      <c r="B31" s="77"/>
+      <c r="C31" s="77"/>
+      <c r="D31" s="77"/>
+      <c r="E31" s="77"/>
+      <c r="F31" s="77"/>
+      <c r="G31" s="77"/>
+      <c r="H31" s="77"/>
+      <c r="I31" s="77"/>
+      <c r="J31" s="77"/>
+      <c r="K31" s="77"/>
+      <c r="L31" s="77"/>
+      <c r="M31" s="77"/>
+      <c r="N31" s="77"/>
+      <c r="O31" s="77"/>
+      <c r="P31" s="78"/>
     </row>
     <row r="32" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A32" s="71"/>
-      <c r="B32" s="72"/>
-      <c r="C32" s="72"/>
-      <c r="D32" s="72"/>
-      <c r="E32" s="72"/>
-      <c r="F32" s="72"/>
-      <c r="G32" s="72"/>
-      <c r="H32" s="72"/>
-      <c r="I32" s="72"/>
-      <c r="J32" s="72"/>
-      <c r="K32" s="72"/>
-      <c r="L32" s="72"/>
-      <c r="M32" s="72"/>
-      <c r="N32" s="72"/>
-      <c r="O32" s="72"/>
-      <c r="P32" s="73"/>
+      <c r="A32" s="76"/>
+      <c r="B32" s="77"/>
+      <c r="C32" s="77"/>
+      <c r="D32" s="77"/>
+      <c r="E32" s="77"/>
+      <c r="F32" s="77"/>
+      <c r="G32" s="77"/>
+      <c r="H32" s="77"/>
+      <c r="I32" s="77"/>
+      <c r="J32" s="77"/>
+      <c r="K32" s="77"/>
+      <c r="L32" s="77"/>
+      <c r="M32" s="77"/>
+      <c r="N32" s="77"/>
+      <c r="O32" s="77"/>
+      <c r="P32" s="78"/>
     </row>
     <row r="33" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A33" s="74"/>
-      <c r="B33" s="75"/>
-      <c r="C33" s="75"/>
-      <c r="D33" s="75"/>
-      <c r="E33" s="75"/>
-      <c r="F33" s="75"/>
-      <c r="G33" s="75"/>
-      <c r="H33" s="75"/>
-      <c r="I33" s="75"/>
-      <c r="J33" s="75"/>
-      <c r="K33" s="75"/>
-      <c r="L33" s="75"/>
-      <c r="M33" s="75"/>
-      <c r="N33" s="75"/>
-      <c r="O33" s="75"/>
-      <c r="P33" s="76"/>
+      <c r="A33" s="79"/>
+      <c r="B33" s="80"/>
+      <c r="C33" s="80"/>
+      <c r="D33" s="80"/>
+      <c r="E33" s="80"/>
+      <c r="F33" s="80"/>
+      <c r="G33" s="80"/>
+      <c r="H33" s="80"/>
+      <c r="I33" s="80"/>
+      <c r="J33" s="80"/>
+      <c r="K33" s="80"/>
+      <c r="L33" s="80"/>
+      <c r="M33" s="80"/>
+      <c r="N33" s="80"/>
+      <c r="O33" s="80"/>
+      <c r="P33" s="81"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="26">
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A5:B6"/>
+    <mergeCell ref="C5:D6"/>
+    <mergeCell ref="E5:F6"/>
+    <mergeCell ref="G5:H6"/>
     <mergeCell ref="E3:L3"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A15:P23"/>
@@ -7620,11 +7715,11 @@
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="A9:G9"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A5:B6"/>
-    <mergeCell ref="C5:D6"/>
-    <mergeCell ref="E5:F6"/>
-    <mergeCell ref="G5:H6"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A10:G10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A5:L6 A9:N12 A15:P23 A25:P33">
@@ -7657,34 +7752,34 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:P111"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6:N6"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12:P12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="5.5" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16" width="5.6640625" customWidth="1"/>
+    <col min="1" max="16" width="5.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="30" customHeight="1">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="84" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="116"/>
-      <c r="L1" s="116"/>
-      <c r="M1" s="116"/>
-      <c r="N1" s="116"/>
-      <c r="O1" s="116"/>
-      <c r="P1" s="117"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="86"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1">
       <c r="A2" s="19"/>
@@ -7705,128 +7800,128 @@
       <c r="P2" s="19"/>
     </row>
     <row r="3" spans="1:16" ht="30" customHeight="1">
-      <c r="A3" s="119" t="s">
+      <c r="A3" s="88" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="120"/>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="120"/>
-      <c r="K3" s="120"/>
-      <c r="L3" s="120"/>
-      <c r="M3" s="120"/>
-      <c r="N3" s="120"/>
-      <c r="O3" s="120"/>
-      <c r="P3" s="121"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="89"/>
+      <c r="O3" s="89"/>
+      <c r="P3" s="90"/>
     </row>
     <row r="4" spans="1:16" ht="30" customHeight="1">
-      <c r="A4" s="103" t="s">
+      <c r="A4" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="103"/>
-      <c r="C4" s="103"/>
-      <c r="D4" s="118"/>
-      <c r="E4" s="118"/>
-      <c r="F4" s="118"/>
-      <c r="G4" s="118"/>
-      <c r="H4" s="118"/>
-      <c r="I4" s="118"/>
-      <c r="J4" s="118"/>
-      <c r="K4" s="118"/>
-      <c r="L4" s="118"/>
-      <c r="M4" s="118"/>
-      <c r="N4" s="118"/>
-      <c r="O4" s="118"/>
-      <c r="P4" s="118"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
+      <c r="N4" s="87"/>
+      <c r="O4" s="87"/>
+      <c r="P4" s="87"/>
     </row>
     <row r="5" spans="1:16" ht="30" customHeight="1">
-      <c r="A5" s="103" t="s">
+      <c r="A5" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="103"/>
-      <c r="C5" s="103"/>
-      <c r="D5" s="103" t="s">
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="103"/>
-      <c r="F5" s="103"/>
-      <c r="G5" s="103"/>
-      <c r="H5" s="103" t="s">
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="91" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="103"/>
-      <c r="J5" s="103"/>
-      <c r="K5" s="103"/>
-      <c r="L5" s="126" t="s">
+      <c r="I5" s="91"/>
+      <c r="J5" s="91"/>
+      <c r="K5" s="91"/>
+      <c r="L5" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="M5" s="126"/>
-      <c r="N5" s="126"/>
-      <c r="O5" s="126"/>
+      <c r="M5" s="99"/>
+      <c r="N5" s="99"/>
+      <c r="O5" s="99"/>
       <c r="P5" s="28"/>
     </row>
     <row r="6" spans="1:16" ht="30" customHeight="1">
-      <c r="A6" s="107" t="s">
+      <c r="A6" s="92" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="108"/>
-      <c r="C6" s="109"/>
-      <c r="D6" s="122">
+      <c r="B6" s="93"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="95">
         <v>800</v>
       </c>
-      <c r="E6" s="123"/>
-      <c r="F6" s="123"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
       <c r="G6" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="122">
+      <c r="H6" s="95">
         <v>800</v>
       </c>
-      <c r="I6" s="123"/>
-      <c r="J6" s="123"/>
+      <c r="I6" s="96"/>
+      <c r="J6" s="96"/>
       <c r="K6" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="124">
+      <c r="L6" s="97">
         <v>1600</v>
       </c>
-      <c r="M6" s="125"/>
-      <c r="N6" s="125"/>
+      <c r="M6" s="98"/>
+      <c r="N6" s="98"/>
       <c r="O6" s="30" t="s">
         <v>30</v>
       </c>
       <c r="P6" s="28"/>
     </row>
     <row r="7" spans="1:16" ht="30" customHeight="1">
-      <c r="A7" s="107" t="s">
+      <c r="A7" s="92" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="108"/>
-      <c r="C7" s="109"/>
-      <c r="D7" s="110">
+      <c r="B7" s="93"/>
+      <c r="C7" s="94"/>
+      <c r="D7" s="103">
         <v>30</v>
       </c>
-      <c r="E7" s="111"/>
-      <c r="F7" s="111"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
       <c r="G7" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="112"/>
-      <c r="I7" s="113"/>
-      <c r="J7" s="113"/>
-      <c r="K7" s="113"/>
+      <c r="H7" s="108"/>
+      <c r="I7" s="109"/>
+      <c r="J7" s="109"/>
+      <c r="K7" s="109"/>
       <c r="L7" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="M7" s="114" t="s">
+      <c r="M7" s="110" t="s">
         <v>58</v>
       </c>
-      <c r="N7" s="114"/>
+      <c r="N7" s="110"/>
       <c r="O7" s="32"/>
       <c r="P7" s="6">
         <f>$D$7</f>
@@ -7834,158 +7929,158 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="30" customHeight="1">
-      <c r="A8" s="87" t="s">
+      <c r="A8" s="105" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="88"/>
-      <c r="C8" s="89"/>
-      <c r="D8" s="104" t="s">
+      <c r="B8" s="106"/>
+      <c r="C8" s="107"/>
+      <c r="D8" s="100" t="s">
         <v>83</v>
       </c>
-      <c r="E8" s="105"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="105"/>
-      <c r="I8" s="105"/>
-      <c r="J8" s="105"/>
-      <c r="K8" s="105"/>
-      <c r="L8" s="105"/>
-      <c r="M8" s="105"/>
-      <c r="N8" s="105"/>
-      <c r="O8" s="105"/>
-      <c r="P8" s="106"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="101"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="101"/>
+      <c r="M8" s="101"/>
+      <c r="N8" s="101"/>
+      <c r="O8" s="101"/>
+      <c r="P8" s="102"/>
     </row>
     <row r="9" spans="1:16" ht="30" customHeight="1">
-      <c r="A9" s="87" t="s">
+      <c r="A9" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="88"/>
-      <c r="C9" s="89"/>
-      <c r="D9" s="93" t="s">
-        <v>94</v>
+      <c r="B9" s="106"/>
+      <c r="C9" s="107"/>
+      <c r="D9" s="117" t="s">
+        <v>92</v>
       </c>
-      <c r="E9" s="94"/>
-      <c r="F9" s="94"/>
-      <c r="G9" s="94"/>
-      <c r="H9" s="94"/>
-      <c r="I9" s="94"/>
-      <c r="J9" s="94"/>
-      <c r="K9" s="94"/>
-      <c r="L9" s="94"/>
-      <c r="M9" s="94"/>
-      <c r="N9" s="94"/>
-      <c r="O9" s="94"/>
-      <c r="P9" s="95"/>
+      <c r="E9" s="118"/>
+      <c r="F9" s="118"/>
+      <c r="G9" s="118"/>
+      <c r="H9" s="118"/>
+      <c r="I9" s="118"/>
+      <c r="J9" s="118"/>
+      <c r="K9" s="118"/>
+      <c r="L9" s="118"/>
+      <c r="M9" s="118"/>
+      <c r="N9" s="118"/>
+      <c r="O9" s="118"/>
+      <c r="P9" s="119"/>
     </row>
     <row r="10" spans="1:16" ht="30" customHeight="1">
-      <c r="A10" s="87"/>
-      <c r="B10" s="88"/>
-      <c r="C10" s="89"/>
-      <c r="D10" s="93"/>
-      <c r="E10" s="94"/>
-      <c r="F10" s="94"/>
-      <c r="G10" s="94"/>
-      <c r="H10" s="94"/>
-      <c r="I10" s="94"/>
-      <c r="J10" s="94"/>
-      <c r="K10" s="94"/>
-      <c r="L10" s="94"/>
-      <c r="M10" s="94"/>
-      <c r="N10" s="94"/>
-      <c r="O10" s="94"/>
-      <c r="P10" s="95"/>
+      <c r="A10" s="105"/>
+      <c r="B10" s="106"/>
+      <c r="C10" s="107"/>
+      <c r="D10" s="117"/>
+      <c r="E10" s="118"/>
+      <c r="F10" s="118"/>
+      <c r="G10" s="118"/>
+      <c r="H10" s="118"/>
+      <c r="I10" s="118"/>
+      <c r="J10" s="118"/>
+      <c r="K10" s="118"/>
+      <c r="L10" s="118"/>
+      <c r="M10" s="118"/>
+      <c r="N10" s="118"/>
+      <c r="O10" s="118"/>
+      <c r="P10" s="119"/>
     </row>
     <row r="11" spans="1:16" ht="30" customHeight="1">
-      <c r="A11" s="90" t="s">
+      <c r="A11" s="114" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="91"/>
-      <c r="C11" s="92"/>
-      <c r="D11" s="96" t="s">
+      <c r="B11" s="115"/>
+      <c r="C11" s="116"/>
+      <c r="D11" s="120" t="s">
         <v>86</v>
       </c>
-      <c r="E11" s="97"/>
-      <c r="F11" s="97"/>
-      <c r="G11" s="97"/>
-      <c r="H11" s="97"/>
-      <c r="I11" s="97"/>
-      <c r="J11" s="97"/>
-      <c r="K11" s="97"/>
-      <c r="L11" s="97"/>
-      <c r="M11" s="97"/>
-      <c r="N11" s="97"/>
-      <c r="O11" s="97"/>
-      <c r="P11" s="98"/>
+      <c r="E11" s="121"/>
+      <c r="F11" s="121"/>
+      <c r="G11" s="121"/>
+      <c r="H11" s="121"/>
+      <c r="I11" s="121"/>
+      <c r="J11" s="121"/>
+      <c r="K11" s="121"/>
+      <c r="L11" s="121"/>
+      <c r="M11" s="121"/>
+      <c r="N11" s="121"/>
+      <c r="O11" s="121"/>
+      <c r="P11" s="122"/>
     </row>
     <row r="12" spans="1:16" ht="30" customHeight="1">
-      <c r="A12" s="99" t="s">
+      <c r="A12" s="123" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="100"/>
-      <c r="C12" s="101"/>
-      <c r="D12" s="102" t="s">
+      <c r="B12" s="124"/>
+      <c r="C12" s="125"/>
+      <c r="D12" s="126" t="s">
         <v>84</v>
       </c>
-      <c r="E12" s="102"/>
-      <c r="F12" s="102"/>
-      <c r="G12" s="102"/>
-      <c r="H12" s="102"/>
-      <c r="I12" s="103" t="s">
+      <c r="E12" s="126"/>
+      <c r="F12" s="126"/>
+      <c r="G12" s="126"/>
+      <c r="H12" s="126"/>
+      <c r="I12" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="J12" s="103"/>
-      <c r="K12" s="103"/>
-      <c r="L12" s="102" t="s">
+      <c r="J12" s="91"/>
+      <c r="K12" s="91"/>
+      <c r="L12" s="126" t="s">
         <v>85</v>
       </c>
-      <c r="M12" s="102"/>
-      <c r="N12" s="102"/>
-      <c r="O12" s="102"/>
-      <c r="P12" s="102"/>
+      <c r="M12" s="126"/>
+      <c r="N12" s="126"/>
+      <c r="O12" s="126"/>
+      <c r="P12" s="126"/>
     </row>
     <row r="13" spans="1:16" ht="30" customHeight="1">
-      <c r="A13" s="87" t="s">
+      <c r="A13" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="88"/>
-      <c r="C13" s="89"/>
-      <c r="D13" s="96" t="s">
+      <c r="B13" s="106"/>
+      <c r="C13" s="107"/>
+      <c r="D13" s="120" t="s">
         <v>87</v>
       </c>
-      <c r="E13" s="97"/>
-      <c r="F13" s="97"/>
-      <c r="G13" s="97"/>
-      <c r="H13" s="97"/>
-      <c r="I13" s="97"/>
-      <c r="J13" s="97"/>
-      <c r="K13" s="97"/>
-      <c r="L13" s="97"/>
-      <c r="M13" s="97"/>
-      <c r="N13" s="97"/>
-      <c r="O13" s="97"/>
-      <c r="P13" s="98"/>
+      <c r="E13" s="121"/>
+      <c r="F13" s="121"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="121"/>
+      <c r="I13" s="121"/>
+      <c r="J13" s="121"/>
+      <c r="K13" s="121"/>
+      <c r="L13" s="121"/>
+      <c r="M13" s="121"/>
+      <c r="N13" s="121"/>
+      <c r="O13" s="121"/>
+      <c r="P13" s="122"/>
     </row>
     <row r="14" spans="1:16" ht="30" customHeight="1">
-      <c r="A14" s="86" t="s">
+      <c r="A14" s="113" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="86"/>
-      <c r="C14" s="86"/>
-      <c r="D14" s="84" t="s">
+      <c r="B14" s="113"/>
+      <c r="C14" s="113"/>
+      <c r="D14" s="111" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="85"/>
-      <c r="F14" s="85"/>
-      <c r="G14" s="85"/>
-      <c r="H14" s="85"/>
-      <c r="I14" s="85"/>
-      <c r="J14" s="85"/>
-      <c r="K14" s="85"/>
-      <c r="L14" s="85"/>
-      <c r="M14" s="85"/>
-      <c r="N14" s="85"/>
-      <c r="O14" s="85"/>
-      <c r="P14" s="85"/>
+      <c r="E14" s="112"/>
+      <c r="F14" s="112"/>
+      <c r="G14" s="112"/>
+      <c r="H14" s="112"/>
+      <c r="I14" s="112"/>
+      <c r="J14" s="112"/>
+      <c r="K14" s="112"/>
+      <c r="L14" s="112"/>
+      <c r="M14" s="112"/>
+      <c r="N14" s="112"/>
+      <c r="O14" s="112"/>
+      <c r="P14" s="112"/>
     </row>
     <row r="15" spans="1:16" ht="20.25" customHeight="1">
       <c r="A15" s="28"/>
@@ -9294,6 +9389,25 @@
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="31">
+    <mergeCell ref="D14:P14"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A9:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D9:P10"/>
+    <mergeCell ref="D11:P11"/>
+    <mergeCell ref="D13:P13"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="L12:P12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D8:P8"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="M7:N7"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="D4:P4"/>
     <mergeCell ref="A3:P3"/>
@@ -9306,25 +9420,6 @@
     <mergeCell ref="H5:K5"/>
     <mergeCell ref="L5:O5"/>
     <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D8:P8"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="D14:P14"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A9:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D9:P10"/>
-    <mergeCell ref="D11:P11"/>
-    <mergeCell ref="D13:P13"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="L12:P12"/>
-    <mergeCell ref="A13:C13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="D6:F6">
@@ -9379,9 +9474,9 @@
       <selection activeCell="A4" sqref="A4:P29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="5.5" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16" width="5.77734375" customWidth="1"/>
+    <col min="1" max="16" width="5.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="30" customHeight="1">
@@ -9946,7 +10041,7 @@
       <selection activeCell="A3" sqref="A3:P3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="5.5" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="16" width="6" customWidth="1"/>
   </cols>
@@ -10508,56 +10603,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:P103"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="87" zoomScaleNormal="100" zoomScaleSheetLayoutView="87" workbookViewId="0">
-      <selection activeCell="Y19" sqref="Y19"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="87" zoomScaleNormal="100" zoomScaleSheetLayoutView="87" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="5.5" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16" width="5.6640625" customWidth="1"/>
+    <col min="1" max="16" width="5.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="30" customHeight="1">
       <c r="A1" s="142" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
     </row>
     <row r="2" spans="1:16" ht="34.5" customHeight="1">
-      <c r="A2" s="165" t="s">
+      <c r="A2" s="156" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="165"/>
-      <c r="C2" s="165"/>
-      <c r="D2" s="165"/>
-      <c r="E2" s="165"/>
-      <c r="F2" s="165"/>
-      <c r="G2" s="165"/>
-      <c r="H2" s="165"/>
-      <c r="I2" s="165"/>
-      <c r="J2" s="165"/>
-      <c r="K2" s="165"/>
-      <c r="L2" s="165"/>
-      <c r="M2" s="165"/>
-      <c r="N2" s="165"/>
-      <c r="O2" s="165"/>
-      <c r="P2" s="165"/>
-    </row>
-    <row r="3" spans="1:16" ht="24.9" customHeight="1">
+      <c r="B2" s="156"/>
+      <c r="C2" s="156"/>
+      <c r="D2" s="156"/>
+      <c r="E2" s="156"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="156"/>
+      <c r="H2" s="156"/>
+      <c r="I2" s="156"/>
+      <c r="J2" s="156"/>
+      <c r="K2" s="156"/>
+      <c r="L2" s="156"/>
+      <c r="M2" s="156"/>
+      <c r="N2" s="156"/>
+      <c r="O2" s="156"/>
+      <c r="P2" s="156"/>
+    </row>
+    <row r="3" spans="1:16" ht="24.95" customHeight="1">
       <c r="A3" s="143" t="s">
         <v>66</v>
       </c>
@@ -10579,7 +10674,7 @@
       <c r="O3" s="41"/>
       <c r="P3" s="42"/>
     </row>
-    <row r="4" spans="1:16" ht="24.9" customHeight="1">
+    <row r="4" spans="1:16" ht="24.95" customHeight="1">
       <c r="A4" s="146"/>
       <c r="B4" s="147"/>
       <c r="C4" s="147"/>
@@ -10595,13 +10690,13 @@
       <c r="M4" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="N4" s="124"/>
-      <c r="O4" s="125"/>
+      <c r="N4" s="97"/>
+      <c r="O4" s="98"/>
       <c r="P4" s="44" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="24.9" customHeight="1">
+    <row r="5" spans="1:16" ht="24.95" customHeight="1">
       <c r="A5" s="148"/>
       <c r="B5" s="149"/>
       <c r="C5" s="149"/>
@@ -10617,13 +10712,13 @@
       <c r="M5" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="N5" s="124"/>
-      <c r="O5" s="125"/>
+      <c r="N5" s="97"/>
+      <c r="O5" s="98"/>
       <c r="P5" s="44" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="24.9" customHeight="1">
+    <row r="6" spans="1:16" ht="24.95" customHeight="1">
       <c r="A6" s="148"/>
       <c r="B6" s="149"/>
       <c r="C6" s="149"/>
@@ -10639,13 +10734,13 @@
       <c r="M6" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="N6" s="124"/>
-      <c r="O6" s="125"/>
+      <c r="N6" s="97"/>
+      <c r="O6" s="98"/>
       <c r="P6" s="44" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="24.9" customHeight="1">
+    <row r="7" spans="1:16" ht="24.95" customHeight="1">
       <c r="A7" s="148"/>
       <c r="B7" s="149"/>
       <c r="C7" s="149"/>
@@ -10661,15 +10756,15 @@
       <c r="M7" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="N7" s="161">
+      <c r="N7" s="152">
         <v>3</v>
       </c>
-      <c r="O7" s="124"/>
+      <c r="O7" s="97"/>
       <c r="P7" s="44" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="24.9" customHeight="1">
+    <row r="8" spans="1:16" ht="24.95" customHeight="1">
       <c r="A8" s="148"/>
       <c r="B8" s="149"/>
       <c r="C8" s="149"/>
@@ -10685,15 +10780,15 @@
       <c r="M8" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="N8" s="161">
+      <c r="N8" s="152">
         <v>1</v>
       </c>
-      <c r="O8" s="124"/>
+      <c r="O8" s="97"/>
       <c r="P8" s="44" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="24.9" customHeight="1">
+    <row r="9" spans="1:16" ht="24.95" customHeight="1">
       <c r="A9" s="148"/>
       <c r="B9" s="149"/>
       <c r="C9" s="149"/>
@@ -10711,7 +10806,7 @@
       <c r="O9" s="36"/>
       <c r="P9" s="37"/>
     </row>
-    <row r="10" spans="1:16" ht="24.9" customHeight="1">
+    <row r="10" spans="1:16" ht="24.95" customHeight="1">
       <c r="A10" s="148"/>
       <c r="B10" s="149"/>
       <c r="C10" s="149"/>
@@ -10729,7 +10824,7 @@
       <c r="O10" s="36"/>
       <c r="P10" s="37"/>
     </row>
-    <row r="11" spans="1:16" ht="24.9" customHeight="1">
+    <row r="11" spans="1:16" ht="24.95" customHeight="1">
       <c r="A11" s="148"/>
       <c r="B11" s="149"/>
       <c r="C11" s="149"/>
@@ -10747,7 +10842,7 @@
       <c r="O11" s="36"/>
       <c r="P11" s="37"/>
     </row>
-    <row r="12" spans="1:16" ht="24.9" customHeight="1">
+    <row r="12" spans="1:16" ht="24.95" customHeight="1">
       <c r="A12" s="148"/>
       <c r="B12" s="149"/>
       <c r="C12" s="149"/>
@@ -10765,7 +10860,7 @@
       <c r="O12" s="36"/>
       <c r="P12" s="37"/>
     </row>
-    <row r="13" spans="1:16" ht="24.9" customHeight="1">
+    <row r="13" spans="1:16" ht="24.95" customHeight="1">
       <c r="A13" s="148"/>
       <c r="B13" s="149"/>
       <c r="C13" s="149"/>
@@ -10783,7 +10878,7 @@
       <c r="O13" s="36"/>
       <c r="P13" s="37"/>
     </row>
-    <row r="14" spans="1:16" ht="24.9" customHeight="1">
+    <row r="14" spans="1:16" ht="24.95" customHeight="1">
       <c r="A14" s="150"/>
       <c r="B14" s="151"/>
       <c r="C14" s="151"/>
@@ -10801,7 +10896,7 @@
       <c r="O14" s="38"/>
       <c r="P14" s="39"/>
     </row>
-    <row r="15" spans="1:16" ht="24.9" customHeight="1">
+    <row r="15" spans="1:16" ht="24.95" customHeight="1">
       <c r="A15" s="34"/>
       <c r="B15" s="34"/>
       <c r="C15" s="34"/>
@@ -10819,317 +10914,317 @@
       <c r="O15" s="34"/>
       <c r="P15" s="34"/>
     </row>
-    <row r="16" spans="1:16" ht="24.9" customHeight="1">
-      <c r="A16" s="162" t="s">
+    <row r="16" spans="1:16" ht="24.95" customHeight="1">
+      <c r="A16" s="153" t="s">
         <v>68</v>
       </c>
-      <c r="B16" s="163"/>
-      <c r="C16" s="163"/>
-      <c r="D16" s="163"/>
-      <c r="E16" s="163"/>
-      <c r="F16" s="163"/>
-      <c r="G16" s="163"/>
-      <c r="H16" s="163"/>
-      <c r="I16" s="163"/>
-      <c r="J16" s="163"/>
-      <c r="K16" s="163"/>
-      <c r="L16" s="163"/>
-      <c r="M16" s="163"/>
-      <c r="N16" s="163"/>
-      <c r="O16" s="163"/>
-      <c r="P16" s="164"/>
-    </row>
-    <row r="17" spans="1:16" ht="24.9" customHeight="1">
-      <c r="A17" s="152" t="s">
-        <v>89</v>
+      <c r="B16" s="154"/>
+      <c r="C16" s="154"/>
+      <c r="D16" s="154"/>
+      <c r="E16" s="154"/>
+      <c r="F16" s="154"/>
+      <c r="G16" s="154"/>
+      <c r="H16" s="154"/>
+      <c r="I16" s="154"/>
+      <c r="J16" s="154"/>
+      <c r="K16" s="154"/>
+      <c r="L16" s="154"/>
+      <c r="M16" s="154"/>
+      <c r="N16" s="154"/>
+      <c r="O16" s="154"/>
+      <c r="P16" s="155"/>
+    </row>
+    <row r="17" spans="1:16" ht="24.95" customHeight="1">
+      <c r="A17" s="191" t="s">
+        <v>94</v>
       </c>
-      <c r="B17" s="153"/>
-      <c r="C17" s="153"/>
-      <c r="D17" s="153"/>
-      <c r="E17" s="153"/>
-      <c r="F17" s="153"/>
-      <c r="G17" s="153"/>
-      <c r="H17" s="153"/>
-      <c r="I17" s="153"/>
-      <c r="J17" s="153"/>
-      <c r="K17" s="153"/>
-      <c r="L17" s="153"/>
-      <c r="M17" s="153"/>
-      <c r="N17" s="153"/>
-      <c r="O17" s="153"/>
-      <c r="P17" s="154"/>
-    </row>
-    <row r="18" spans="1:16" ht="24.9" customHeight="1">
-      <c r="A18" s="155"/>
-      <c r="B18" s="156"/>
-      <c r="C18" s="156"/>
-      <c r="D18" s="156"/>
-      <c r="E18" s="156"/>
-      <c r="F18" s="156"/>
-      <c r="G18" s="156"/>
-      <c r="H18" s="156"/>
-      <c r="I18" s="156"/>
-      <c r="J18" s="156"/>
-      <c r="K18" s="156"/>
-      <c r="L18" s="156"/>
-      <c r="M18" s="156"/>
-      <c r="N18" s="156"/>
-      <c r="O18" s="156"/>
-      <c r="P18" s="157"/>
-    </row>
-    <row r="19" spans="1:16" ht="24.9" customHeight="1">
-      <c r="A19" s="155"/>
-      <c r="B19" s="156"/>
-      <c r="C19" s="156"/>
-      <c r="D19" s="156"/>
-      <c r="E19" s="156"/>
-      <c r="F19" s="156"/>
-      <c r="G19" s="156"/>
-      <c r="H19" s="156"/>
-      <c r="I19" s="156"/>
-      <c r="J19" s="156"/>
-      <c r="K19" s="156"/>
-      <c r="L19" s="156"/>
-      <c r="M19" s="156"/>
-      <c r="N19" s="156"/>
-      <c r="O19" s="156"/>
-      <c r="P19" s="157"/>
-    </row>
-    <row r="20" spans="1:16" ht="24.9" customHeight="1">
-      <c r="A20" s="155"/>
-      <c r="B20" s="156"/>
-      <c r="C20" s="156"/>
-      <c r="D20" s="156"/>
-      <c r="E20" s="156"/>
-      <c r="F20" s="156"/>
-      <c r="G20" s="156"/>
-      <c r="H20" s="156"/>
-      <c r="I20" s="156"/>
-      <c r="J20" s="156"/>
-      <c r="K20" s="156"/>
-      <c r="L20" s="156"/>
-      <c r="M20" s="156"/>
-      <c r="N20" s="156"/>
-      <c r="O20" s="156"/>
-      <c r="P20" s="157"/>
-    </row>
-    <row r="21" spans="1:16" ht="24.9" customHeight="1">
-      <c r="A21" s="155"/>
-      <c r="B21" s="156"/>
-      <c r="C21" s="156"/>
-      <c r="D21" s="156"/>
-      <c r="E21" s="156"/>
-      <c r="F21" s="156"/>
-      <c r="G21" s="156"/>
-      <c r="H21" s="156"/>
-      <c r="I21" s="156"/>
-      <c r="J21" s="156"/>
-      <c r="K21" s="156"/>
-      <c r="L21" s="156"/>
-      <c r="M21" s="156"/>
-      <c r="N21" s="156"/>
-      <c r="O21" s="156"/>
-      <c r="P21" s="157"/>
-    </row>
-    <row r="22" spans="1:16" ht="24.9" customHeight="1">
-      <c r="A22" s="155"/>
-      <c r="B22" s="156"/>
-      <c r="C22" s="156"/>
-      <c r="D22" s="156"/>
-      <c r="E22" s="156"/>
-      <c r="F22" s="156"/>
-      <c r="G22" s="156"/>
-      <c r="H22" s="156"/>
-      <c r="I22" s="156"/>
-      <c r="J22" s="156"/>
-      <c r="K22" s="156"/>
-      <c r="L22" s="156"/>
-      <c r="M22" s="156"/>
-      <c r="N22" s="156"/>
-      <c r="O22" s="156"/>
-      <c r="P22" s="157"/>
-    </row>
-    <row r="23" spans="1:16" ht="24.9" customHeight="1">
-      <c r="A23" s="155"/>
-      <c r="B23" s="156"/>
-      <c r="C23" s="156"/>
-      <c r="D23" s="156"/>
-      <c r="E23" s="156"/>
-      <c r="F23" s="156"/>
-      <c r="G23" s="156"/>
-      <c r="H23" s="156"/>
-      <c r="I23" s="156"/>
-      <c r="J23" s="156"/>
-      <c r="K23" s="156"/>
-      <c r="L23" s="156"/>
-      <c r="M23" s="156"/>
-      <c r="N23" s="156"/>
-      <c r="O23" s="156"/>
-      <c r="P23" s="157"/>
-    </row>
-    <row r="24" spans="1:16" ht="24.9" customHeight="1">
-      <c r="A24" s="155"/>
-      <c r="B24" s="156"/>
-      <c r="C24" s="156"/>
-      <c r="D24" s="156"/>
-      <c r="E24" s="156"/>
-      <c r="F24" s="156"/>
-      <c r="G24" s="156"/>
-      <c r="H24" s="156"/>
-      <c r="I24" s="156"/>
-      <c r="J24" s="156"/>
-      <c r="K24" s="156"/>
-      <c r="L24" s="156"/>
-      <c r="M24" s="156"/>
-      <c r="N24" s="156"/>
-      <c r="O24" s="156"/>
-      <c r="P24" s="157"/>
-    </row>
-    <row r="25" spans="1:16" ht="24.9" customHeight="1">
-      <c r="A25" s="155"/>
-      <c r="B25" s="156"/>
-      <c r="C25" s="156"/>
-      <c r="D25" s="156"/>
-      <c r="E25" s="156"/>
-      <c r="F25" s="156"/>
-      <c r="G25" s="156"/>
-      <c r="H25" s="156"/>
-      <c r="I25" s="156"/>
-      <c r="J25" s="156"/>
-      <c r="K25" s="156"/>
-      <c r="L25" s="156"/>
-      <c r="M25" s="156"/>
-      <c r="N25" s="156"/>
-      <c r="O25" s="156"/>
-      <c r="P25" s="157"/>
-    </row>
-    <row r="26" spans="1:16" ht="24.9" customHeight="1">
-      <c r="A26" s="155"/>
-      <c r="B26" s="156"/>
-      <c r="C26" s="156"/>
-      <c r="D26" s="156"/>
-      <c r="E26" s="156"/>
-      <c r="F26" s="156"/>
-      <c r="G26" s="156"/>
-      <c r="H26" s="156"/>
-      <c r="I26" s="156"/>
-      <c r="J26" s="156"/>
-      <c r="K26" s="156"/>
-      <c r="L26" s="156"/>
-      <c r="M26" s="156"/>
-      <c r="N26" s="156"/>
-      <c r="O26" s="156"/>
-      <c r="P26" s="157"/>
-    </row>
-    <row r="27" spans="1:16" ht="24.9" customHeight="1">
-      <c r="A27" s="155"/>
-      <c r="B27" s="156"/>
-      <c r="C27" s="156"/>
-      <c r="D27" s="156"/>
-      <c r="E27" s="156"/>
-      <c r="F27" s="156"/>
-      <c r="G27" s="156"/>
-      <c r="H27" s="156"/>
-      <c r="I27" s="156"/>
-      <c r="J27" s="156"/>
-      <c r="K27" s="156"/>
-      <c r="L27" s="156"/>
-      <c r="M27" s="156"/>
-      <c r="N27" s="156"/>
-      <c r="O27" s="156"/>
-      <c r="P27" s="157"/>
-    </row>
-    <row r="28" spans="1:16" ht="24.9" customHeight="1">
-      <c r="A28" s="155"/>
-      <c r="B28" s="156"/>
-      <c r="C28" s="156"/>
-      <c r="D28" s="156"/>
-      <c r="E28" s="156"/>
-      <c r="F28" s="156"/>
-      <c r="G28" s="156"/>
-      <c r="H28" s="156"/>
-      <c r="I28" s="156"/>
-      <c r="J28" s="156"/>
-      <c r="K28" s="156"/>
-      <c r="L28" s="156"/>
-      <c r="M28" s="156"/>
-      <c r="N28" s="156"/>
-      <c r="O28" s="156"/>
-      <c r="P28" s="157"/>
-    </row>
-    <row r="29" spans="1:16" ht="24.9" customHeight="1">
-      <c r="A29" s="155"/>
-      <c r="B29" s="156"/>
-      <c r="C29" s="156"/>
-      <c r="D29" s="156"/>
-      <c r="E29" s="156"/>
-      <c r="F29" s="156"/>
-      <c r="G29" s="156"/>
-      <c r="H29" s="156"/>
-      <c r="I29" s="156"/>
-      <c r="J29" s="156"/>
-      <c r="K29" s="156"/>
-      <c r="L29" s="156"/>
-      <c r="M29" s="156"/>
-      <c r="N29" s="156"/>
-      <c r="O29" s="156"/>
-      <c r="P29" s="157"/>
-    </row>
-    <row r="30" spans="1:16" ht="24.9" customHeight="1">
-      <c r="A30" s="155"/>
-      <c r="B30" s="156"/>
-      <c r="C30" s="156"/>
-      <c r="D30" s="156"/>
-      <c r="E30" s="156"/>
-      <c r="F30" s="156"/>
-      <c r="G30" s="156"/>
-      <c r="H30" s="156"/>
-      <c r="I30" s="156"/>
-      <c r="J30" s="156"/>
-      <c r="K30" s="156"/>
-      <c r="L30" s="156"/>
-      <c r="M30" s="156"/>
-      <c r="N30" s="156"/>
-      <c r="O30" s="156"/>
-      <c r="P30" s="157"/>
-    </row>
-    <row r="31" spans="1:16" ht="24.9" customHeight="1">
-      <c r="A31" s="155"/>
-      <c r="B31" s="156"/>
-      <c r="C31" s="156"/>
-      <c r="D31" s="156"/>
-      <c r="E31" s="156"/>
-      <c r="F31" s="156"/>
-      <c r="G31" s="156"/>
-      <c r="H31" s="156"/>
-      <c r="I31" s="156"/>
-      <c r="J31" s="156"/>
-      <c r="K31" s="156"/>
-      <c r="L31" s="156"/>
-      <c r="M31" s="156"/>
-      <c r="N31" s="156"/>
-      <c r="O31" s="156"/>
-      <c r="P31" s="157"/>
-    </row>
-    <row r="32" spans="1:16" ht="24.9" customHeight="1">
-      <c r="A32" s="158"/>
-      <c r="B32" s="159"/>
-      <c r="C32" s="159"/>
-      <c r="D32" s="159"/>
-      <c r="E32" s="159"/>
-      <c r="F32" s="159"/>
-      <c r="G32" s="159"/>
-      <c r="H32" s="159"/>
-      <c r="I32" s="159"/>
-      <c r="J32" s="159"/>
-      <c r="K32" s="159"/>
-      <c r="L32" s="159"/>
-      <c r="M32" s="159"/>
-      <c r="N32" s="159"/>
-      <c r="O32" s="159"/>
-      <c r="P32" s="160"/>
-    </row>
-    <row r="33" spans="1:15" ht="24.9" customHeight="1">
+      <c r="B17" s="183"/>
+      <c r="C17" s="183"/>
+      <c r="D17" s="183"/>
+      <c r="E17" s="183"/>
+      <c r="F17" s="183"/>
+      <c r="G17" s="183"/>
+      <c r="H17" s="183"/>
+      <c r="I17" s="183"/>
+      <c r="J17" s="183"/>
+      <c r="K17" s="183"/>
+      <c r="L17" s="183"/>
+      <c r="M17" s="183"/>
+      <c r="N17" s="183"/>
+      <c r="O17" s="183"/>
+      <c r="P17" s="184"/>
+    </row>
+    <row r="18" spans="1:16" ht="24.95" customHeight="1">
+      <c r="A18" s="185"/>
+      <c r="B18" s="186"/>
+      <c r="C18" s="186"/>
+      <c r="D18" s="186"/>
+      <c r="E18" s="186"/>
+      <c r="F18" s="186"/>
+      <c r="G18" s="186"/>
+      <c r="H18" s="186"/>
+      <c r="I18" s="186"/>
+      <c r="J18" s="186"/>
+      <c r="K18" s="186"/>
+      <c r="L18" s="186"/>
+      <c r="M18" s="186"/>
+      <c r="N18" s="186"/>
+      <c r="O18" s="186"/>
+      <c r="P18" s="187"/>
+    </row>
+    <row r="19" spans="1:16" ht="24.95" customHeight="1">
+      <c r="A19" s="185"/>
+      <c r="B19" s="186"/>
+      <c r="C19" s="186"/>
+      <c r="D19" s="186"/>
+      <c r="E19" s="186"/>
+      <c r="F19" s="186"/>
+      <c r="G19" s="186"/>
+      <c r="H19" s="186"/>
+      <c r="I19" s="186"/>
+      <c r="J19" s="186"/>
+      <c r="K19" s="186"/>
+      <c r="L19" s="186"/>
+      <c r="M19" s="186"/>
+      <c r="N19" s="186"/>
+      <c r="O19" s="186"/>
+      <c r="P19" s="187"/>
+    </row>
+    <row r="20" spans="1:16" ht="24.95" customHeight="1">
+      <c r="A20" s="185"/>
+      <c r="B20" s="186"/>
+      <c r="C20" s="186"/>
+      <c r="D20" s="186"/>
+      <c r="E20" s="186"/>
+      <c r="F20" s="186"/>
+      <c r="G20" s="186"/>
+      <c r="H20" s="186"/>
+      <c r="I20" s="186"/>
+      <c r="J20" s="186"/>
+      <c r="K20" s="186"/>
+      <c r="L20" s="186"/>
+      <c r="M20" s="186"/>
+      <c r="N20" s="186"/>
+      <c r="O20" s="186"/>
+      <c r="P20" s="187"/>
+    </row>
+    <row r="21" spans="1:16" ht="24.95" customHeight="1">
+      <c r="A21" s="185"/>
+      <c r="B21" s="186"/>
+      <c r="C21" s="186"/>
+      <c r="D21" s="186"/>
+      <c r="E21" s="186"/>
+      <c r="F21" s="186"/>
+      <c r="G21" s="186"/>
+      <c r="H21" s="186"/>
+      <c r="I21" s="186"/>
+      <c r="J21" s="186"/>
+      <c r="K21" s="186"/>
+      <c r="L21" s="186"/>
+      <c r="M21" s="186"/>
+      <c r="N21" s="186"/>
+      <c r="O21" s="186"/>
+      <c r="P21" s="187"/>
+    </row>
+    <row r="22" spans="1:16" ht="24.95" customHeight="1">
+      <c r="A22" s="185"/>
+      <c r="B22" s="186"/>
+      <c r="C22" s="186"/>
+      <c r="D22" s="186"/>
+      <c r="E22" s="186"/>
+      <c r="F22" s="186"/>
+      <c r="G22" s="186"/>
+      <c r="H22" s="186"/>
+      <c r="I22" s="186"/>
+      <c r="J22" s="186"/>
+      <c r="K22" s="186"/>
+      <c r="L22" s="186"/>
+      <c r="M22" s="186"/>
+      <c r="N22" s="186"/>
+      <c r="O22" s="186"/>
+      <c r="P22" s="187"/>
+    </row>
+    <row r="23" spans="1:16" ht="24.95" customHeight="1">
+      <c r="A23" s="185"/>
+      <c r="B23" s="186"/>
+      <c r="C23" s="186"/>
+      <c r="D23" s="186"/>
+      <c r="E23" s="186"/>
+      <c r="F23" s="186"/>
+      <c r="G23" s="186"/>
+      <c r="H23" s="186"/>
+      <c r="I23" s="186"/>
+      <c r="J23" s="186"/>
+      <c r="K23" s="186"/>
+      <c r="L23" s="186"/>
+      <c r="M23" s="186"/>
+      <c r="N23" s="186"/>
+      <c r="O23" s="186"/>
+      <c r="P23" s="187"/>
+    </row>
+    <row r="24" spans="1:16" ht="24.95" customHeight="1">
+      <c r="A24" s="185"/>
+      <c r="B24" s="186"/>
+      <c r="C24" s="186"/>
+      <c r="D24" s="186"/>
+      <c r="E24" s="186"/>
+      <c r="F24" s="186"/>
+      <c r="G24" s="186"/>
+      <c r="H24" s="186"/>
+      <c r="I24" s="186"/>
+      <c r="J24" s="186"/>
+      <c r="K24" s="186"/>
+      <c r="L24" s="186"/>
+      <c r="M24" s="186"/>
+      <c r="N24" s="186"/>
+      <c r="O24" s="186"/>
+      <c r="P24" s="187"/>
+    </row>
+    <row r="25" spans="1:16" ht="24.95" customHeight="1">
+      <c r="A25" s="185"/>
+      <c r="B25" s="186"/>
+      <c r="C25" s="186"/>
+      <c r="D25" s="186"/>
+      <c r="E25" s="186"/>
+      <c r="F25" s="186"/>
+      <c r="G25" s="186"/>
+      <c r="H25" s="186"/>
+      <c r="I25" s="186"/>
+      <c r="J25" s="186"/>
+      <c r="K25" s="186"/>
+      <c r="L25" s="186"/>
+      <c r="M25" s="186"/>
+      <c r="N25" s="186"/>
+      <c r="O25" s="186"/>
+      <c r="P25" s="187"/>
+    </row>
+    <row r="26" spans="1:16" ht="24.95" customHeight="1">
+      <c r="A26" s="185"/>
+      <c r="B26" s="186"/>
+      <c r="C26" s="186"/>
+      <c r="D26" s="186"/>
+      <c r="E26" s="186"/>
+      <c r="F26" s="186"/>
+      <c r="G26" s="186"/>
+      <c r="H26" s="186"/>
+      <c r="I26" s="186"/>
+      <c r="J26" s="186"/>
+      <c r="K26" s="186"/>
+      <c r="L26" s="186"/>
+      <c r="M26" s="186"/>
+      <c r="N26" s="186"/>
+      <c r="O26" s="186"/>
+      <c r="P26" s="187"/>
+    </row>
+    <row r="27" spans="1:16" ht="24.95" customHeight="1">
+      <c r="A27" s="185"/>
+      <c r="B27" s="186"/>
+      <c r="C27" s="186"/>
+      <c r="D27" s="186"/>
+      <c r="E27" s="186"/>
+      <c r="F27" s="186"/>
+      <c r="G27" s="186"/>
+      <c r="H27" s="186"/>
+      <c r="I27" s="186"/>
+      <c r="J27" s="186"/>
+      <c r="K27" s="186"/>
+      <c r="L27" s="186"/>
+      <c r="M27" s="186"/>
+      <c r="N27" s="186"/>
+      <c r="O27" s="186"/>
+      <c r="P27" s="187"/>
+    </row>
+    <row r="28" spans="1:16" ht="24.95" customHeight="1">
+      <c r="A28" s="185"/>
+      <c r="B28" s="186"/>
+      <c r="C28" s="186"/>
+      <c r="D28" s="186"/>
+      <c r="E28" s="186"/>
+      <c r="F28" s="186"/>
+      <c r="G28" s="186"/>
+      <c r="H28" s="186"/>
+      <c r="I28" s="186"/>
+      <c r="J28" s="186"/>
+      <c r="K28" s="186"/>
+      <c r="L28" s="186"/>
+      <c r="M28" s="186"/>
+      <c r="N28" s="186"/>
+      <c r="O28" s="186"/>
+      <c r="P28" s="187"/>
+    </row>
+    <row r="29" spans="1:16" ht="24.95" customHeight="1">
+      <c r="A29" s="185"/>
+      <c r="B29" s="186"/>
+      <c r="C29" s="186"/>
+      <c r="D29" s="186"/>
+      <c r="E29" s="186"/>
+      <c r="F29" s="186"/>
+      <c r="G29" s="186"/>
+      <c r="H29" s="186"/>
+      <c r="I29" s="186"/>
+      <c r="J29" s="186"/>
+      <c r="K29" s="186"/>
+      <c r="L29" s="186"/>
+      <c r="M29" s="186"/>
+      <c r="N29" s="186"/>
+      <c r="O29" s="186"/>
+      <c r="P29" s="187"/>
+    </row>
+    <row r="30" spans="1:16" ht="24.95" customHeight="1">
+      <c r="A30" s="185"/>
+      <c r="B30" s="186"/>
+      <c r="C30" s="186"/>
+      <c r="D30" s="186"/>
+      <c r="E30" s="186"/>
+      <c r="F30" s="186"/>
+      <c r="G30" s="186"/>
+      <c r="H30" s="186"/>
+      <c r="I30" s="186"/>
+      <c r="J30" s="186"/>
+      <c r="K30" s="186"/>
+      <c r="L30" s="186"/>
+      <c r="M30" s="186"/>
+      <c r="N30" s="186"/>
+      <c r="O30" s="186"/>
+      <c r="P30" s="187"/>
+    </row>
+    <row r="31" spans="1:16" ht="24.95" customHeight="1">
+      <c r="A31" s="185"/>
+      <c r="B31" s="186"/>
+      <c r="C31" s="186"/>
+      <c r="D31" s="186"/>
+      <c r="E31" s="186"/>
+      <c r="F31" s="186"/>
+      <c r="G31" s="186"/>
+      <c r="H31" s="186"/>
+      <c r="I31" s="186"/>
+      <c r="J31" s="186"/>
+      <c r="K31" s="186"/>
+      <c r="L31" s="186"/>
+      <c r="M31" s="186"/>
+      <c r="N31" s="186"/>
+      <c r="O31" s="186"/>
+      <c r="P31" s="187"/>
+    </row>
+    <row r="32" spans="1:16" ht="24.95" customHeight="1">
+      <c r="A32" s="188"/>
+      <c r="B32" s="189"/>
+      <c r="C32" s="189"/>
+      <c r="D32" s="189"/>
+      <c r="E32" s="189"/>
+      <c r="F32" s="189"/>
+      <c r="G32" s="189"/>
+      <c r="H32" s="189"/>
+      <c r="I32" s="189"/>
+      <c r="J32" s="189"/>
+      <c r="K32" s="189"/>
+      <c r="L32" s="189"/>
+      <c r="M32" s="189"/>
+      <c r="N32" s="189"/>
+      <c r="O32" s="189"/>
+      <c r="P32" s="190"/>
+    </row>
+    <row r="33" spans="1:15" ht="24.95" customHeight="1">
       <c r="A33" s="13"/>
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
@@ -11341,518 +11436,518 @@
       <selection activeCell="A2" sqref="A2:P28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="5.5" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="15" width="5.6640625" customWidth="1"/>
+    <col min="1" max="15" width="5.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="30" customHeight="1">
       <c r="A1" s="142" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1">
-      <c r="A2" s="166" t="s">
+      <c r="A2" s="157" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="167"/>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-      <c r="H2" s="167"/>
-      <c r="I2" s="167"/>
-      <c r="J2" s="167"/>
-      <c r="K2" s="167"/>
-      <c r="L2" s="167"/>
-      <c r="M2" s="167"/>
-      <c r="N2" s="167"/>
-      <c r="O2" s="167"/>
-      <c r="P2" s="168"/>
+      <c r="B2" s="158"/>
+      <c r="C2" s="158"/>
+      <c r="D2" s="158"/>
+      <c r="E2" s="158"/>
+      <c r="F2" s="158"/>
+      <c r="G2" s="158"/>
+      <c r="H2" s="158"/>
+      <c r="I2" s="158"/>
+      <c r="J2" s="158"/>
+      <c r="K2" s="158"/>
+      <c r="L2" s="158"/>
+      <c r="M2" s="158"/>
+      <c r="N2" s="158"/>
+      <c r="O2" s="158"/>
+      <c r="P2" s="159"/>
     </row>
     <row r="3" spans="1:16" ht="30" customHeight="1">
-      <c r="A3" s="169"/>
-      <c r="B3" s="170"/>
-      <c r="C3" s="170"/>
-      <c r="D3" s="170"/>
-      <c r="E3" s="170"/>
-      <c r="F3" s="170"/>
-      <c r="G3" s="170"/>
-      <c r="H3" s="170"/>
-      <c r="I3" s="170"/>
-      <c r="J3" s="170"/>
-      <c r="K3" s="170"/>
-      <c r="L3" s="170"/>
-      <c r="M3" s="170"/>
-      <c r="N3" s="170"/>
-      <c r="O3" s="170"/>
-      <c r="P3" s="171"/>
+      <c r="A3" s="160"/>
+      <c r="B3" s="161"/>
+      <c r="C3" s="161"/>
+      <c r="D3" s="161"/>
+      <c r="E3" s="161"/>
+      <c r="F3" s="161"/>
+      <c r="G3" s="161"/>
+      <c r="H3" s="161"/>
+      <c r="I3" s="161"/>
+      <c r="J3" s="161"/>
+      <c r="K3" s="161"/>
+      <c r="L3" s="161"/>
+      <c r="M3" s="161"/>
+      <c r="N3" s="161"/>
+      <c r="O3" s="161"/>
+      <c r="P3" s="162"/>
     </row>
     <row r="4" spans="1:16" ht="30" customHeight="1">
-      <c r="A4" s="169"/>
-      <c r="B4" s="170"/>
-      <c r="C4" s="170"/>
-      <c r="D4" s="170"/>
-      <c r="E4" s="170"/>
-      <c r="F4" s="170"/>
-      <c r="G4" s="170"/>
-      <c r="H4" s="170"/>
-      <c r="I4" s="170"/>
-      <c r="J4" s="170"/>
-      <c r="K4" s="170"/>
-      <c r="L4" s="170"/>
-      <c r="M4" s="170"/>
-      <c r="N4" s="170"/>
-      <c r="O4" s="170"/>
-      <c r="P4" s="171"/>
+      <c r="A4" s="160"/>
+      <c r="B4" s="161"/>
+      <c r="C4" s="161"/>
+      <c r="D4" s="161"/>
+      <c r="E4" s="161"/>
+      <c r="F4" s="161"/>
+      <c r="G4" s="161"/>
+      <c r="H4" s="161"/>
+      <c r="I4" s="161"/>
+      <c r="J4" s="161"/>
+      <c r="K4" s="161"/>
+      <c r="L4" s="161"/>
+      <c r="M4" s="161"/>
+      <c r="N4" s="161"/>
+      <c r="O4" s="161"/>
+      <c r="P4" s="162"/>
     </row>
     <row r="5" spans="1:16" ht="30" customHeight="1">
-      <c r="A5" s="169"/>
-      <c r="B5" s="170"/>
-      <c r="C5" s="170"/>
-      <c r="D5" s="170"/>
-      <c r="E5" s="170"/>
-      <c r="F5" s="170"/>
-      <c r="G5" s="170"/>
-      <c r="H5" s="170"/>
-      <c r="I5" s="170"/>
-      <c r="J5" s="170"/>
-      <c r="K5" s="170"/>
-      <c r="L5" s="170"/>
-      <c r="M5" s="170"/>
-      <c r="N5" s="170"/>
-      <c r="O5" s="170"/>
-      <c r="P5" s="171"/>
+      <c r="A5" s="160"/>
+      <c r="B5" s="161"/>
+      <c r="C5" s="161"/>
+      <c r="D5" s="161"/>
+      <c r="E5" s="161"/>
+      <c r="F5" s="161"/>
+      <c r="G5" s="161"/>
+      <c r="H5" s="161"/>
+      <c r="I5" s="161"/>
+      <c r="J5" s="161"/>
+      <c r="K5" s="161"/>
+      <c r="L5" s="161"/>
+      <c r="M5" s="161"/>
+      <c r="N5" s="161"/>
+      <c r="O5" s="161"/>
+      <c r="P5" s="162"/>
     </row>
     <row r="6" spans="1:16" ht="30" customHeight="1">
-      <c r="A6" s="169"/>
-      <c r="B6" s="170"/>
-      <c r="C6" s="170"/>
-      <c r="D6" s="170"/>
-      <c r="E6" s="170"/>
-      <c r="F6" s="170"/>
-      <c r="G6" s="170"/>
-      <c r="H6" s="170"/>
-      <c r="I6" s="170"/>
-      <c r="J6" s="170"/>
-      <c r="K6" s="170"/>
-      <c r="L6" s="170"/>
-      <c r="M6" s="170"/>
-      <c r="N6" s="170"/>
-      <c r="O6" s="170"/>
-      <c r="P6" s="171"/>
+      <c r="A6" s="160"/>
+      <c r="B6" s="161"/>
+      <c r="C6" s="161"/>
+      <c r="D6" s="161"/>
+      <c r="E6" s="161"/>
+      <c r="F6" s="161"/>
+      <c r="G6" s="161"/>
+      <c r="H6" s="161"/>
+      <c r="I6" s="161"/>
+      <c r="J6" s="161"/>
+      <c r="K6" s="161"/>
+      <c r="L6" s="161"/>
+      <c r="M6" s="161"/>
+      <c r="N6" s="161"/>
+      <c r="O6" s="161"/>
+      <c r="P6" s="162"/>
     </row>
     <row r="7" spans="1:16" ht="30" customHeight="1">
-      <c r="A7" s="169"/>
-      <c r="B7" s="170"/>
-      <c r="C7" s="170"/>
-      <c r="D7" s="170"/>
-      <c r="E7" s="170"/>
-      <c r="F7" s="170"/>
-      <c r="G7" s="170"/>
-      <c r="H7" s="170"/>
-      <c r="I7" s="170"/>
-      <c r="J7" s="170"/>
-      <c r="K7" s="170"/>
-      <c r="L7" s="170"/>
-      <c r="M7" s="170"/>
-      <c r="N7" s="170"/>
-      <c r="O7" s="170"/>
-      <c r="P7" s="171"/>
+      <c r="A7" s="160"/>
+      <c r="B7" s="161"/>
+      <c r="C7" s="161"/>
+      <c r="D7" s="161"/>
+      <c r="E7" s="161"/>
+      <c r="F7" s="161"/>
+      <c r="G7" s="161"/>
+      <c r="H7" s="161"/>
+      <c r="I7" s="161"/>
+      <c r="J7" s="161"/>
+      <c r="K7" s="161"/>
+      <c r="L7" s="161"/>
+      <c r="M7" s="161"/>
+      <c r="N7" s="161"/>
+      <c r="O7" s="161"/>
+      <c r="P7" s="162"/>
     </row>
     <row r="8" spans="1:16" ht="30" customHeight="1">
-      <c r="A8" s="169"/>
-      <c r="B8" s="170"/>
-      <c r="C8" s="170"/>
-      <c r="D8" s="170"/>
-      <c r="E8" s="170"/>
-      <c r="F8" s="170"/>
-      <c r="G8" s="170"/>
-      <c r="H8" s="170"/>
-      <c r="I8" s="170"/>
-      <c r="J8" s="170"/>
-      <c r="K8" s="170"/>
-      <c r="L8" s="170"/>
-      <c r="M8" s="170"/>
-      <c r="N8" s="170"/>
-      <c r="O8" s="170"/>
-      <c r="P8" s="171"/>
+      <c r="A8" s="160"/>
+      <c r="B8" s="161"/>
+      <c r="C8" s="161"/>
+      <c r="D8" s="161"/>
+      <c r="E8" s="161"/>
+      <c r="F8" s="161"/>
+      <c r="G8" s="161"/>
+      <c r="H8" s="161"/>
+      <c r="I8" s="161"/>
+      <c r="J8" s="161"/>
+      <c r="K8" s="161"/>
+      <c r="L8" s="161"/>
+      <c r="M8" s="161"/>
+      <c r="N8" s="161"/>
+      <c r="O8" s="161"/>
+      <c r="P8" s="162"/>
     </row>
     <row r="9" spans="1:16" ht="30" customHeight="1">
-      <c r="A9" s="169"/>
-      <c r="B9" s="170"/>
-      <c r="C9" s="170"/>
-      <c r="D9" s="170"/>
-      <c r="E9" s="170"/>
-      <c r="F9" s="170"/>
-      <c r="G9" s="170"/>
-      <c r="H9" s="170"/>
-      <c r="I9" s="170"/>
-      <c r="J9" s="170"/>
-      <c r="K9" s="170"/>
-      <c r="L9" s="170"/>
-      <c r="M9" s="170"/>
-      <c r="N9" s="170"/>
-      <c r="O9" s="170"/>
-      <c r="P9" s="171"/>
+      <c r="A9" s="160"/>
+      <c r="B9" s="161"/>
+      <c r="C9" s="161"/>
+      <c r="D9" s="161"/>
+      <c r="E9" s="161"/>
+      <c r="F9" s="161"/>
+      <c r="G9" s="161"/>
+      <c r="H9" s="161"/>
+      <c r="I9" s="161"/>
+      <c r="J9" s="161"/>
+      <c r="K9" s="161"/>
+      <c r="L9" s="161"/>
+      <c r="M9" s="161"/>
+      <c r="N9" s="161"/>
+      <c r="O9" s="161"/>
+      <c r="P9" s="162"/>
     </row>
     <row r="10" spans="1:16" ht="30" customHeight="1">
-      <c r="A10" s="169"/>
-      <c r="B10" s="170"/>
-      <c r="C10" s="170"/>
-      <c r="D10" s="170"/>
-      <c r="E10" s="170"/>
-      <c r="F10" s="170"/>
-      <c r="G10" s="170"/>
-      <c r="H10" s="170"/>
-      <c r="I10" s="170"/>
-      <c r="J10" s="170"/>
-      <c r="K10" s="170"/>
-      <c r="L10" s="170"/>
-      <c r="M10" s="170"/>
-      <c r="N10" s="170"/>
-      <c r="O10" s="170"/>
-      <c r="P10" s="171"/>
+      <c r="A10" s="160"/>
+      <c r="B10" s="161"/>
+      <c r="C10" s="161"/>
+      <c r="D10" s="161"/>
+      <c r="E10" s="161"/>
+      <c r="F10" s="161"/>
+      <c r="G10" s="161"/>
+      <c r="H10" s="161"/>
+      <c r="I10" s="161"/>
+      <c r="J10" s="161"/>
+      <c r="K10" s="161"/>
+      <c r="L10" s="161"/>
+      <c r="M10" s="161"/>
+      <c r="N10" s="161"/>
+      <c r="O10" s="161"/>
+      <c r="P10" s="162"/>
     </row>
     <row r="11" spans="1:16" ht="30" customHeight="1">
-      <c r="A11" s="169"/>
-      <c r="B11" s="170"/>
-      <c r="C11" s="170"/>
-      <c r="D11" s="170"/>
-      <c r="E11" s="170"/>
-      <c r="F11" s="170"/>
-      <c r="G11" s="170"/>
-      <c r="H11" s="170"/>
-      <c r="I11" s="170"/>
-      <c r="J11" s="170"/>
-      <c r="K11" s="170"/>
-      <c r="L11" s="170"/>
-      <c r="M11" s="170"/>
-      <c r="N11" s="170"/>
-      <c r="O11" s="170"/>
-      <c r="P11" s="171"/>
+      <c r="A11" s="160"/>
+      <c r="B11" s="161"/>
+      <c r="C11" s="161"/>
+      <c r="D11" s="161"/>
+      <c r="E11" s="161"/>
+      <c r="F11" s="161"/>
+      <c r="G11" s="161"/>
+      <c r="H11" s="161"/>
+      <c r="I11" s="161"/>
+      <c r="J11" s="161"/>
+      <c r="K11" s="161"/>
+      <c r="L11" s="161"/>
+      <c r="M11" s="161"/>
+      <c r="N11" s="161"/>
+      <c r="O11" s="161"/>
+      <c r="P11" s="162"/>
     </row>
     <row r="12" spans="1:16" ht="30" customHeight="1">
-      <c r="A12" s="169"/>
-      <c r="B12" s="170"/>
-      <c r="C12" s="170"/>
-      <c r="D12" s="170"/>
-      <c r="E12" s="170"/>
-      <c r="F12" s="170"/>
-      <c r="G12" s="170"/>
-      <c r="H12" s="170"/>
-      <c r="I12" s="170"/>
-      <c r="J12" s="170"/>
-      <c r="K12" s="170"/>
-      <c r="L12" s="170"/>
-      <c r="M12" s="170"/>
-      <c r="N12" s="170"/>
-      <c r="O12" s="170"/>
-      <c r="P12" s="171"/>
+      <c r="A12" s="160"/>
+      <c r="B12" s="161"/>
+      <c r="C12" s="161"/>
+      <c r="D12" s="161"/>
+      <c r="E12" s="161"/>
+      <c r="F12" s="161"/>
+      <c r="G12" s="161"/>
+      <c r="H12" s="161"/>
+      <c r="I12" s="161"/>
+      <c r="J12" s="161"/>
+      <c r="K12" s="161"/>
+      <c r="L12" s="161"/>
+      <c r="M12" s="161"/>
+      <c r="N12" s="161"/>
+      <c r="O12" s="161"/>
+      <c r="P12" s="162"/>
     </row>
     <row r="13" spans="1:16" ht="30" customHeight="1">
-      <c r="A13" s="169"/>
-      <c r="B13" s="170"/>
-      <c r="C13" s="170"/>
-      <c r="D13" s="170"/>
-      <c r="E13" s="170"/>
-      <c r="F13" s="170"/>
-      <c r="G13" s="170"/>
-      <c r="H13" s="170"/>
-      <c r="I13" s="170"/>
-      <c r="J13" s="170"/>
-      <c r="K13" s="170"/>
-      <c r="L13" s="170"/>
-      <c r="M13" s="170"/>
-      <c r="N13" s="170"/>
-      <c r="O13" s="170"/>
-      <c r="P13" s="171"/>
+      <c r="A13" s="160"/>
+      <c r="B13" s="161"/>
+      <c r="C13" s="161"/>
+      <c r="D13" s="161"/>
+      <c r="E13" s="161"/>
+      <c r="F13" s="161"/>
+      <c r="G13" s="161"/>
+      <c r="H13" s="161"/>
+      <c r="I13" s="161"/>
+      <c r="J13" s="161"/>
+      <c r="K13" s="161"/>
+      <c r="L13" s="161"/>
+      <c r="M13" s="161"/>
+      <c r="N13" s="161"/>
+      <c r="O13" s="161"/>
+      <c r="P13" s="162"/>
     </row>
     <row r="14" spans="1:16" ht="30" customHeight="1">
-      <c r="A14" s="169"/>
-      <c r="B14" s="170"/>
-      <c r="C14" s="170"/>
-      <c r="D14" s="170"/>
-      <c r="E14" s="170"/>
-      <c r="F14" s="170"/>
-      <c r="G14" s="170"/>
-      <c r="H14" s="170"/>
-      <c r="I14" s="170"/>
-      <c r="J14" s="170"/>
-      <c r="K14" s="170"/>
-      <c r="L14" s="170"/>
-      <c r="M14" s="170"/>
-      <c r="N14" s="170"/>
-      <c r="O14" s="170"/>
-      <c r="P14" s="171"/>
+      <c r="A14" s="160"/>
+      <c r="B14" s="161"/>
+      <c r="C14" s="161"/>
+      <c r="D14" s="161"/>
+      <c r="E14" s="161"/>
+      <c r="F14" s="161"/>
+      <c r="G14" s="161"/>
+      <c r="H14" s="161"/>
+      <c r="I14" s="161"/>
+      <c r="J14" s="161"/>
+      <c r="K14" s="161"/>
+      <c r="L14" s="161"/>
+      <c r="M14" s="161"/>
+      <c r="N14" s="161"/>
+      <c r="O14" s="161"/>
+      <c r="P14" s="162"/>
     </row>
     <row r="15" spans="1:16" ht="30" customHeight="1">
-      <c r="A15" s="169"/>
-      <c r="B15" s="170"/>
-      <c r="C15" s="170"/>
-      <c r="D15" s="170"/>
-      <c r="E15" s="170"/>
-      <c r="F15" s="170"/>
-      <c r="G15" s="170"/>
-      <c r="H15" s="170"/>
-      <c r="I15" s="170"/>
-      <c r="J15" s="170"/>
-      <c r="K15" s="170"/>
-      <c r="L15" s="170"/>
-      <c r="M15" s="170"/>
-      <c r="N15" s="170"/>
-      <c r="O15" s="170"/>
-      <c r="P15" s="171"/>
+      <c r="A15" s="160"/>
+      <c r="B15" s="161"/>
+      <c r="C15" s="161"/>
+      <c r="D15" s="161"/>
+      <c r="E15" s="161"/>
+      <c r="F15" s="161"/>
+      <c r="G15" s="161"/>
+      <c r="H15" s="161"/>
+      <c r="I15" s="161"/>
+      <c r="J15" s="161"/>
+      <c r="K15" s="161"/>
+      <c r="L15" s="161"/>
+      <c r="M15" s="161"/>
+      <c r="N15" s="161"/>
+      <c r="O15" s="161"/>
+      <c r="P15" s="162"/>
     </row>
     <row r="16" spans="1:16" ht="30" customHeight="1">
-      <c r="A16" s="169"/>
-      <c r="B16" s="170"/>
-      <c r="C16" s="170"/>
-      <c r="D16" s="170"/>
-      <c r="E16" s="170"/>
-      <c r="F16" s="170"/>
-      <c r="G16" s="170"/>
-      <c r="H16" s="170"/>
-      <c r="I16" s="170"/>
-      <c r="J16" s="170"/>
-      <c r="K16" s="170"/>
-      <c r="L16" s="170"/>
-      <c r="M16" s="170"/>
-      <c r="N16" s="170"/>
-      <c r="O16" s="170"/>
-      <c r="P16" s="171"/>
+      <c r="A16" s="160"/>
+      <c r="B16" s="161"/>
+      <c r="C16" s="161"/>
+      <c r="D16" s="161"/>
+      <c r="E16" s="161"/>
+      <c r="F16" s="161"/>
+      <c r="G16" s="161"/>
+      <c r="H16" s="161"/>
+      <c r="I16" s="161"/>
+      <c r="J16" s="161"/>
+      <c r="K16" s="161"/>
+      <c r="L16" s="161"/>
+      <c r="M16" s="161"/>
+      <c r="N16" s="161"/>
+      <c r="O16" s="161"/>
+      <c r="P16" s="162"/>
     </row>
     <row r="17" spans="1:16" ht="30" customHeight="1">
-      <c r="A17" s="169"/>
-      <c r="B17" s="170"/>
-      <c r="C17" s="170"/>
-      <c r="D17" s="170"/>
-      <c r="E17" s="170"/>
-      <c r="F17" s="170"/>
-      <c r="G17" s="170"/>
-      <c r="H17" s="170"/>
-      <c r="I17" s="170"/>
-      <c r="J17" s="170"/>
-      <c r="K17" s="170"/>
-      <c r="L17" s="170"/>
-      <c r="M17" s="170"/>
-      <c r="N17" s="170"/>
-      <c r="O17" s="170"/>
-      <c r="P17" s="171"/>
+      <c r="A17" s="160"/>
+      <c r="B17" s="161"/>
+      <c r="C17" s="161"/>
+      <c r="D17" s="161"/>
+      <c r="E17" s="161"/>
+      <c r="F17" s="161"/>
+      <c r="G17" s="161"/>
+      <c r="H17" s="161"/>
+      <c r="I17" s="161"/>
+      <c r="J17" s="161"/>
+      <c r="K17" s="161"/>
+      <c r="L17" s="161"/>
+      <c r="M17" s="161"/>
+      <c r="N17" s="161"/>
+      <c r="O17" s="161"/>
+      <c r="P17" s="162"/>
     </row>
     <row r="18" spans="1:16" ht="30" customHeight="1">
-      <c r="A18" s="169"/>
-      <c r="B18" s="170"/>
-      <c r="C18" s="170"/>
-      <c r="D18" s="170"/>
-      <c r="E18" s="170"/>
-      <c r="F18" s="170"/>
-      <c r="G18" s="170"/>
-      <c r="H18" s="170"/>
-      <c r="I18" s="170"/>
-      <c r="J18" s="170"/>
-      <c r="K18" s="170"/>
-      <c r="L18" s="170"/>
-      <c r="M18" s="170"/>
-      <c r="N18" s="170"/>
-      <c r="O18" s="170"/>
-      <c r="P18" s="171"/>
+      <c r="A18" s="160"/>
+      <c r="B18" s="161"/>
+      <c r="C18" s="161"/>
+      <c r="D18" s="161"/>
+      <c r="E18" s="161"/>
+      <c r="F18" s="161"/>
+      <c r="G18" s="161"/>
+      <c r="H18" s="161"/>
+      <c r="I18" s="161"/>
+      <c r="J18" s="161"/>
+      <c r="K18" s="161"/>
+      <c r="L18" s="161"/>
+      <c r="M18" s="161"/>
+      <c r="N18" s="161"/>
+      <c r="O18" s="161"/>
+      <c r="P18" s="162"/>
     </row>
     <row r="19" spans="1:16" ht="30" customHeight="1">
-      <c r="A19" s="169"/>
-      <c r="B19" s="170"/>
-      <c r="C19" s="170"/>
-      <c r="D19" s="170"/>
-      <c r="E19" s="170"/>
-      <c r="F19" s="170"/>
-      <c r="G19" s="170"/>
-      <c r="H19" s="170"/>
-      <c r="I19" s="170"/>
-      <c r="J19" s="170"/>
-      <c r="K19" s="170"/>
-      <c r="L19" s="170"/>
-      <c r="M19" s="170"/>
-      <c r="N19" s="170"/>
-      <c r="O19" s="170"/>
-      <c r="P19" s="171"/>
+      <c r="A19" s="160"/>
+      <c r="B19" s="161"/>
+      <c r="C19" s="161"/>
+      <c r="D19" s="161"/>
+      <c r="E19" s="161"/>
+      <c r="F19" s="161"/>
+      <c r="G19" s="161"/>
+      <c r="H19" s="161"/>
+      <c r="I19" s="161"/>
+      <c r="J19" s="161"/>
+      <c r="K19" s="161"/>
+      <c r="L19" s="161"/>
+      <c r="M19" s="161"/>
+      <c r="N19" s="161"/>
+      <c r="O19" s="161"/>
+      <c r="P19" s="162"/>
     </row>
     <row r="20" spans="1:16" ht="30" customHeight="1">
-      <c r="A20" s="169"/>
-      <c r="B20" s="170"/>
-      <c r="C20" s="170"/>
-      <c r="D20" s="170"/>
-      <c r="E20" s="170"/>
-      <c r="F20" s="170"/>
-      <c r="G20" s="170"/>
-      <c r="H20" s="170"/>
-      <c r="I20" s="170"/>
-      <c r="J20" s="170"/>
-      <c r="K20" s="170"/>
-      <c r="L20" s="170"/>
-      <c r="M20" s="170"/>
-      <c r="N20" s="170"/>
-      <c r="O20" s="170"/>
-      <c r="P20" s="171"/>
+      <c r="A20" s="160"/>
+      <c r="B20" s="161"/>
+      <c r="C20" s="161"/>
+      <c r="D20" s="161"/>
+      <c r="E20" s="161"/>
+      <c r="F20" s="161"/>
+      <c r="G20" s="161"/>
+      <c r="H20" s="161"/>
+      <c r="I20" s="161"/>
+      <c r="J20" s="161"/>
+      <c r="K20" s="161"/>
+      <c r="L20" s="161"/>
+      <c r="M20" s="161"/>
+      <c r="N20" s="161"/>
+      <c r="O20" s="161"/>
+      <c r="P20" s="162"/>
     </row>
     <row r="21" spans="1:16" ht="30" customHeight="1">
-      <c r="A21" s="169"/>
-      <c r="B21" s="170"/>
-      <c r="C21" s="170"/>
-      <c r="D21" s="170"/>
-      <c r="E21" s="170"/>
-      <c r="F21" s="170"/>
-      <c r="G21" s="170"/>
-      <c r="H21" s="170"/>
-      <c r="I21" s="170"/>
-      <c r="J21" s="170"/>
-      <c r="K21" s="170"/>
-      <c r="L21" s="170"/>
-      <c r="M21" s="170"/>
-      <c r="N21" s="170"/>
-      <c r="O21" s="170"/>
-      <c r="P21" s="171"/>
+      <c r="A21" s="160"/>
+      <c r="B21" s="161"/>
+      <c r="C21" s="161"/>
+      <c r="D21" s="161"/>
+      <c r="E21" s="161"/>
+      <c r="F21" s="161"/>
+      <c r="G21" s="161"/>
+      <c r="H21" s="161"/>
+      <c r="I21" s="161"/>
+      <c r="J21" s="161"/>
+      <c r="K21" s="161"/>
+      <c r="L21" s="161"/>
+      <c r="M21" s="161"/>
+      <c r="N21" s="161"/>
+      <c r="O21" s="161"/>
+      <c r="P21" s="162"/>
     </row>
     <row r="22" spans="1:16" ht="30" customHeight="1">
-      <c r="A22" s="169"/>
-      <c r="B22" s="170"/>
-      <c r="C22" s="170"/>
-      <c r="D22" s="170"/>
-      <c r="E22" s="170"/>
-      <c r="F22" s="170"/>
-      <c r="G22" s="170"/>
-      <c r="H22" s="170"/>
-      <c r="I22" s="170"/>
-      <c r="J22" s="170"/>
-      <c r="K22" s="170"/>
-      <c r="L22" s="170"/>
-      <c r="M22" s="170"/>
-      <c r="N22" s="170"/>
-      <c r="O22" s="170"/>
-      <c r="P22" s="171"/>
+      <c r="A22" s="160"/>
+      <c r="B22" s="161"/>
+      <c r="C22" s="161"/>
+      <c r="D22" s="161"/>
+      <c r="E22" s="161"/>
+      <c r="F22" s="161"/>
+      <c r="G22" s="161"/>
+      <c r="H22" s="161"/>
+      <c r="I22" s="161"/>
+      <c r="J22" s="161"/>
+      <c r="K22" s="161"/>
+      <c r="L22" s="161"/>
+      <c r="M22" s="161"/>
+      <c r="N22" s="161"/>
+      <c r="O22" s="161"/>
+      <c r="P22" s="162"/>
     </row>
     <row r="23" spans="1:16" ht="30" customHeight="1">
-      <c r="A23" s="169"/>
-      <c r="B23" s="170"/>
-      <c r="C23" s="170"/>
-      <c r="D23" s="170"/>
-      <c r="E23" s="170"/>
-      <c r="F23" s="170"/>
-      <c r="G23" s="170"/>
-      <c r="H23" s="170"/>
-      <c r="I23" s="170"/>
-      <c r="J23" s="170"/>
-      <c r="K23" s="170"/>
-      <c r="L23" s="170"/>
-      <c r="M23" s="170"/>
-      <c r="N23" s="170"/>
-      <c r="O23" s="170"/>
-      <c r="P23" s="171"/>
+      <c r="A23" s="160"/>
+      <c r="B23" s="161"/>
+      <c r="C23" s="161"/>
+      <c r="D23" s="161"/>
+      <c r="E23" s="161"/>
+      <c r="F23" s="161"/>
+      <c r="G23" s="161"/>
+      <c r="H23" s="161"/>
+      <c r="I23" s="161"/>
+      <c r="J23" s="161"/>
+      <c r="K23" s="161"/>
+      <c r="L23" s="161"/>
+      <c r="M23" s="161"/>
+      <c r="N23" s="161"/>
+      <c r="O23" s="161"/>
+      <c r="P23" s="162"/>
     </row>
     <row r="24" spans="1:16" ht="30" customHeight="1">
-      <c r="A24" s="169"/>
-      <c r="B24" s="170"/>
-      <c r="C24" s="170"/>
-      <c r="D24" s="170"/>
-      <c r="E24" s="170"/>
-      <c r="F24" s="170"/>
-      <c r="G24" s="170"/>
-      <c r="H24" s="170"/>
-      <c r="I24" s="170"/>
-      <c r="J24" s="170"/>
-      <c r="K24" s="170"/>
-      <c r="L24" s="170"/>
-      <c r="M24" s="170"/>
-      <c r="N24" s="170"/>
-      <c r="O24" s="170"/>
-      <c r="P24" s="171"/>
+      <c r="A24" s="160"/>
+      <c r="B24" s="161"/>
+      <c r="C24" s="161"/>
+      <c r="D24" s="161"/>
+      <c r="E24" s="161"/>
+      <c r="F24" s="161"/>
+      <c r="G24" s="161"/>
+      <c r="H24" s="161"/>
+      <c r="I24" s="161"/>
+      <c r="J24" s="161"/>
+      <c r="K24" s="161"/>
+      <c r="L24" s="161"/>
+      <c r="M24" s="161"/>
+      <c r="N24" s="161"/>
+      <c r="O24" s="161"/>
+      <c r="P24" s="162"/>
     </row>
     <row r="25" spans="1:16" ht="30" customHeight="1">
-      <c r="A25" s="169"/>
-      <c r="B25" s="170"/>
-      <c r="C25" s="170"/>
-      <c r="D25" s="170"/>
-      <c r="E25" s="170"/>
-      <c r="F25" s="170"/>
-      <c r="G25" s="170"/>
-      <c r="H25" s="170"/>
-      <c r="I25" s="170"/>
-      <c r="J25" s="170"/>
-      <c r="K25" s="170"/>
-      <c r="L25" s="170"/>
-      <c r="M25" s="170"/>
-      <c r="N25" s="170"/>
-      <c r="O25" s="170"/>
-      <c r="P25" s="171"/>
+      <c r="A25" s="160"/>
+      <c r="B25" s="161"/>
+      <c r="C25" s="161"/>
+      <c r="D25" s="161"/>
+      <c r="E25" s="161"/>
+      <c r="F25" s="161"/>
+      <c r="G25" s="161"/>
+      <c r="H25" s="161"/>
+      <c r="I25" s="161"/>
+      <c r="J25" s="161"/>
+      <c r="K25" s="161"/>
+      <c r="L25" s="161"/>
+      <c r="M25" s="161"/>
+      <c r="N25" s="161"/>
+      <c r="O25" s="161"/>
+      <c r="P25" s="162"/>
     </row>
     <row r="26" spans="1:16" ht="30" customHeight="1">
-      <c r="A26" s="169"/>
-      <c r="B26" s="170"/>
-      <c r="C26" s="170"/>
-      <c r="D26" s="170"/>
-      <c r="E26" s="170"/>
-      <c r="F26" s="170"/>
-      <c r="G26" s="170"/>
-      <c r="H26" s="170"/>
-      <c r="I26" s="170"/>
-      <c r="J26" s="170"/>
-      <c r="K26" s="170"/>
-      <c r="L26" s="170"/>
-      <c r="M26" s="170"/>
-      <c r="N26" s="170"/>
-      <c r="O26" s="170"/>
-      <c r="P26" s="171"/>
+      <c r="A26" s="160"/>
+      <c r="B26" s="161"/>
+      <c r="C26" s="161"/>
+      <c r="D26" s="161"/>
+      <c r="E26" s="161"/>
+      <c r="F26" s="161"/>
+      <c r="G26" s="161"/>
+      <c r="H26" s="161"/>
+      <c r="I26" s="161"/>
+      <c r="J26" s="161"/>
+      <c r="K26" s="161"/>
+      <c r="L26" s="161"/>
+      <c r="M26" s="161"/>
+      <c r="N26" s="161"/>
+      <c r="O26" s="161"/>
+      <c r="P26" s="162"/>
     </row>
     <row r="27" spans="1:16" ht="30" customHeight="1">
-      <c r="A27" s="169"/>
-      <c r="B27" s="170"/>
-      <c r="C27" s="170"/>
-      <c r="D27" s="170"/>
-      <c r="E27" s="170"/>
-      <c r="F27" s="170"/>
-      <c r="G27" s="170"/>
-      <c r="H27" s="170"/>
-      <c r="I27" s="170"/>
-      <c r="J27" s="170"/>
-      <c r="K27" s="170"/>
-      <c r="L27" s="170"/>
-      <c r="M27" s="170"/>
-      <c r="N27" s="170"/>
-      <c r="O27" s="170"/>
-      <c r="P27" s="171"/>
+      <c r="A27" s="160"/>
+      <c r="B27" s="161"/>
+      <c r="C27" s="161"/>
+      <c r="D27" s="161"/>
+      <c r="E27" s="161"/>
+      <c r="F27" s="161"/>
+      <c r="G27" s="161"/>
+      <c r="H27" s="161"/>
+      <c r="I27" s="161"/>
+      <c r="J27" s="161"/>
+      <c r="K27" s="161"/>
+      <c r="L27" s="161"/>
+      <c r="M27" s="161"/>
+      <c r="N27" s="161"/>
+      <c r="O27" s="161"/>
+      <c r="P27" s="162"/>
     </row>
     <row r="28" spans="1:16" ht="30" customHeight="1">
-      <c r="A28" s="172"/>
-      <c r="B28" s="173"/>
-      <c r="C28" s="173"/>
-      <c r="D28" s="173"/>
-      <c r="E28" s="173"/>
-      <c r="F28" s="173"/>
-      <c r="G28" s="173"/>
-      <c r="H28" s="173"/>
-      <c r="I28" s="173"/>
-      <c r="J28" s="173"/>
-      <c r="K28" s="173"/>
-      <c r="L28" s="173"/>
-      <c r="M28" s="173"/>
-      <c r="N28" s="173"/>
-      <c r="O28" s="173"/>
-      <c r="P28" s="174"/>
+      <c r="A28" s="163"/>
+      <c r="B28" s="164"/>
+      <c r="C28" s="164"/>
+      <c r="D28" s="164"/>
+      <c r="E28" s="164"/>
+      <c r="F28" s="164"/>
+      <c r="G28" s="164"/>
+      <c r="H28" s="164"/>
+      <c r="I28" s="164"/>
+      <c r="J28" s="164"/>
+      <c r="K28" s="164"/>
+      <c r="L28" s="164"/>
+      <c r="M28" s="164"/>
+      <c r="N28" s="164"/>
+      <c r="O28" s="164"/>
+      <c r="P28" s="165"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0" pivotTables="0"/>
@@ -11885,489 +11980,489 @@
       <selection activeCell="K29" sqref="K29:P30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="5.5" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="15" width="5.6640625" customWidth="1"/>
+    <col min="1" max="15" width="5.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="30" customHeight="1">
       <c r="A1" s="142" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-    </row>
-    <row r="2" spans="1:16" ht="24.9" customHeight="1">
-      <c r="A2" s="175" t="s">
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+    </row>
+    <row r="2" spans="1:16" ht="24.95" customHeight="1">
+      <c r="A2" s="179" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
-      <c r="J2" s="176"/>
-      <c r="K2" s="176"/>
-      <c r="L2" s="176"/>
-      <c r="M2" s="176"/>
-      <c r="N2" s="176"/>
-      <c r="O2" s="176"/>
-      <c r="P2" s="176"/>
-    </row>
-    <row r="3" spans="1:16" ht="24.9" customHeight="1">
-      <c r="A3" s="175"/>
-      <c r="B3" s="176"/>
-      <c r="C3" s="176"/>
-      <c r="D3" s="176"/>
-      <c r="E3" s="176"/>
-      <c r="F3" s="176"/>
-      <c r="G3" s="176"/>
-      <c r="H3" s="176"/>
-      <c r="I3" s="176"/>
-      <c r="J3" s="176"/>
-      <c r="K3" s="176"/>
-      <c r="L3" s="176"/>
-      <c r="M3" s="176"/>
-      <c r="N3" s="176"/>
-      <c r="O3" s="176"/>
-      <c r="P3" s="176"/>
-    </row>
-    <row r="4" spans="1:16" ht="24.9" customHeight="1">
-      <c r="A4" s="181" t="s">
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
+      <c r="J2" s="180"/>
+      <c r="K2" s="180"/>
+      <c r="L2" s="180"/>
+      <c r="M2" s="180"/>
+      <c r="N2" s="180"/>
+      <c r="O2" s="180"/>
+      <c r="P2" s="180"/>
+    </row>
+    <row r="3" spans="1:16" ht="24.95" customHeight="1">
+      <c r="A3" s="179"/>
+      <c r="B3" s="180"/>
+      <c r="C3" s="180"/>
+      <c r="D3" s="180"/>
+      <c r="E3" s="180"/>
+      <c r="F3" s="180"/>
+      <c r="G3" s="180"/>
+      <c r="H3" s="180"/>
+      <c r="I3" s="180"/>
+      <c r="J3" s="180"/>
+      <c r="K3" s="180"/>
+      <c r="L3" s="180"/>
+      <c r="M3" s="180"/>
+      <c r="N3" s="180"/>
+      <c r="O3" s="180"/>
+      <c r="P3" s="180"/>
+    </row>
+    <row r="4" spans="1:16" ht="24.95" customHeight="1">
+      <c r="A4" s="182" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
-      <c r="J4" s="181"/>
-      <c r="K4" s="181"/>
-      <c r="L4" s="182" t="s">
+      <c r="B4" s="182"/>
+      <c r="C4" s="182"/>
+      <c r="D4" s="182"/>
+      <c r="E4" s="182"/>
+      <c r="F4" s="182"/>
+      <c r="G4" s="182"/>
+      <c r="H4" s="182"/>
+      <c r="I4" s="182"/>
+      <c r="J4" s="182"/>
+      <c r="K4" s="182"/>
+      <c r="L4" s="173" t="s">
         <v>20</v>
       </c>
-      <c r="M4" s="183"/>
-      <c r="N4" s="183"/>
-      <c r="O4" s="183"/>
-    </row>
-    <row r="5" spans="1:16" ht="24.9" customHeight="1">
-      <c r="A5" s="187" t="s">
+      <c r="M4" s="174"/>
+      <c r="N4" s="174"/>
+      <c r="O4" s="174"/>
+    </row>
+    <row r="5" spans="1:16" ht="24.95" customHeight="1">
+      <c r="A5" s="178" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="187"/>
-      <c r="C5" s="187"/>
-      <c r="D5" s="187"/>
-      <c r="E5" s="187"/>
-      <c r="F5" s="187"/>
-      <c r="G5" s="187"/>
-      <c r="H5" s="187"/>
-      <c r="I5" s="187"/>
-      <c r="J5" s="187"/>
-      <c r="K5" s="187"/>
-      <c r="L5" s="184" t="s">
+      <c r="B5" s="178"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="178"/>
+      <c r="J5" s="178"/>
+      <c r="K5" s="178"/>
+      <c r="L5" s="175" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="185"/>
-      <c r="N5" s="186" t="s">
+      <c r="M5" s="176"/>
+      <c r="N5" s="177" t="s">
         <v>9</v>
       </c>
-      <c r="O5" s="186"/>
-    </row>
-    <row r="6" spans="1:16" ht="24.9" customHeight="1">
-      <c r="A6" s="187"/>
-      <c r="B6" s="187"/>
-      <c r="C6" s="187"/>
-      <c r="D6" s="187"/>
-      <c r="E6" s="187"/>
-      <c r="F6" s="187"/>
-      <c r="G6" s="187"/>
-      <c r="H6" s="187"/>
-      <c r="I6" s="187"/>
-      <c r="J6" s="187"/>
-      <c r="K6" s="187"/>
-      <c r="L6" s="185"/>
-      <c r="M6" s="185"/>
-      <c r="N6" s="186"/>
-      <c r="O6" s="186"/>
-    </row>
-    <row r="7" spans="1:16" ht="24.9" customHeight="1">
-      <c r="A7" s="178" t="s">
+      <c r="O5" s="177"/>
+    </row>
+    <row r="6" spans="1:16" ht="24.95" customHeight="1">
+      <c r="A6" s="178"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
+      <c r="J6" s="178"/>
+      <c r="K6" s="178"/>
+      <c r="L6" s="176"/>
+      <c r="M6" s="176"/>
+      <c r="N6" s="177"/>
+      <c r="O6" s="177"/>
+    </row>
+    <row r="7" spans="1:16" ht="24.95" customHeight="1">
+      <c r="A7" s="170" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="178"/>
-      <c r="C7" s="178"/>
-      <c r="D7" s="178"/>
-      <c r="E7" s="178"/>
-      <c r="F7" s="178"/>
-      <c r="G7" s="178"/>
-      <c r="H7" s="178"/>
-      <c r="I7" s="178"/>
-      <c r="J7" s="178"/>
-      <c r="K7" s="178"/>
-      <c r="L7" s="179"/>
-      <c r="M7" s="180"/>
-      <c r="N7" s="179"/>
-      <c r="O7" s="180"/>
-    </row>
-    <row r="8" spans="1:16" ht="24.9" customHeight="1">
-      <c r="A8" s="178"/>
-      <c r="B8" s="178"/>
-      <c r="C8" s="178"/>
-      <c r="D8" s="178"/>
-      <c r="E8" s="178"/>
-      <c r="F8" s="178"/>
-      <c r="G8" s="178"/>
-      <c r="H8" s="178"/>
-      <c r="I8" s="178"/>
-      <c r="J8" s="178"/>
-      <c r="K8" s="178"/>
-      <c r="L8" s="180"/>
-      <c r="M8" s="180"/>
-      <c r="N8" s="180"/>
-      <c r="O8" s="180"/>
-    </row>
-    <row r="9" spans="1:16" ht="24.9" customHeight="1">
-      <c r="A9" s="178" t="s">
+      <c r="B7" s="170"/>
+      <c r="C7" s="170"/>
+      <c r="D7" s="170"/>
+      <c r="E7" s="170"/>
+      <c r="F7" s="170"/>
+      <c r="G7" s="170"/>
+      <c r="H7" s="170"/>
+      <c r="I7" s="170"/>
+      <c r="J7" s="170"/>
+      <c r="K7" s="170"/>
+      <c r="L7" s="171"/>
+      <c r="M7" s="172"/>
+      <c r="N7" s="171"/>
+      <c r="O7" s="172"/>
+    </row>
+    <row r="8" spans="1:16" ht="24.95" customHeight="1">
+      <c r="A8" s="170"/>
+      <c r="B8" s="170"/>
+      <c r="C8" s="170"/>
+      <c r="D8" s="170"/>
+      <c r="E8" s="170"/>
+      <c r="F8" s="170"/>
+      <c r="G8" s="170"/>
+      <c r="H8" s="170"/>
+      <c r="I8" s="170"/>
+      <c r="J8" s="170"/>
+      <c r="K8" s="170"/>
+      <c r="L8" s="172"/>
+      <c r="M8" s="172"/>
+      <c r="N8" s="172"/>
+      <c r="O8" s="172"/>
+    </row>
+    <row r="9" spans="1:16" ht="24.95" customHeight="1">
+      <c r="A9" s="170" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="178"/>
-      <c r="C9" s="178"/>
-      <c r="D9" s="178"/>
-      <c r="E9" s="178"/>
-      <c r="F9" s="178"/>
-      <c r="G9" s="178"/>
-      <c r="H9" s="178"/>
-      <c r="I9" s="178"/>
-      <c r="J9" s="178"/>
-      <c r="K9" s="178"/>
-      <c r="L9" s="179"/>
-      <c r="M9" s="180"/>
-      <c r="N9" s="179"/>
-      <c r="O9" s="180"/>
-    </row>
-    <row r="10" spans="1:16" ht="24.9" customHeight="1">
-      <c r="A10" s="178"/>
-      <c r="B10" s="178"/>
-      <c r="C10" s="178"/>
-      <c r="D10" s="178"/>
-      <c r="E10" s="178"/>
-      <c r="F10" s="178"/>
-      <c r="G10" s="178"/>
-      <c r="H10" s="178"/>
-      <c r="I10" s="178"/>
-      <c r="J10" s="178"/>
-      <c r="K10" s="178"/>
-      <c r="L10" s="180"/>
-      <c r="M10" s="180"/>
-      <c r="N10" s="180"/>
-      <c r="O10" s="180"/>
-    </row>
-    <row r="11" spans="1:16" ht="24.9" customHeight="1">
-      <c r="A11" s="178" t="s">
+      <c r="B9" s="170"/>
+      <c r="C9" s="170"/>
+      <c r="D9" s="170"/>
+      <c r="E9" s="170"/>
+      <c r="F9" s="170"/>
+      <c r="G9" s="170"/>
+      <c r="H9" s="170"/>
+      <c r="I9" s="170"/>
+      <c r="J9" s="170"/>
+      <c r="K9" s="170"/>
+      <c r="L9" s="171"/>
+      <c r="M9" s="172"/>
+      <c r="N9" s="171"/>
+      <c r="O9" s="172"/>
+    </row>
+    <row r="10" spans="1:16" ht="24.95" customHeight="1">
+      <c r="A10" s="170"/>
+      <c r="B10" s="170"/>
+      <c r="C10" s="170"/>
+      <c r="D10" s="170"/>
+      <c r="E10" s="170"/>
+      <c r="F10" s="170"/>
+      <c r="G10" s="170"/>
+      <c r="H10" s="170"/>
+      <c r="I10" s="170"/>
+      <c r="J10" s="170"/>
+      <c r="K10" s="170"/>
+      <c r="L10" s="172"/>
+      <c r="M10" s="172"/>
+      <c r="N10" s="172"/>
+      <c r="O10" s="172"/>
+    </row>
+    <row r="11" spans="1:16" ht="24.95" customHeight="1">
+      <c r="A11" s="170" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="178"/>
-      <c r="C11" s="178"/>
-      <c r="D11" s="178"/>
-      <c r="E11" s="178"/>
-      <c r="F11" s="178"/>
-      <c r="G11" s="178"/>
-      <c r="H11" s="178"/>
-      <c r="I11" s="178"/>
-      <c r="J11" s="178"/>
-      <c r="K11" s="178"/>
-      <c r="L11" s="179"/>
-      <c r="M11" s="180"/>
-      <c r="N11" s="179"/>
-      <c r="O11" s="180"/>
-    </row>
-    <row r="12" spans="1:16" ht="24.9" customHeight="1">
-      <c r="A12" s="178"/>
-      <c r="B12" s="178"/>
-      <c r="C12" s="178"/>
-      <c r="D12" s="178"/>
-      <c r="E12" s="178"/>
-      <c r="F12" s="178"/>
-      <c r="G12" s="178"/>
-      <c r="H12" s="178"/>
-      <c r="I12" s="178"/>
-      <c r="J12" s="178"/>
-      <c r="K12" s="178"/>
-      <c r="L12" s="180"/>
-      <c r="M12" s="180"/>
-      <c r="N12" s="180"/>
-      <c r="O12" s="180"/>
-    </row>
-    <row r="13" spans="1:16" ht="24.9" customHeight="1">
-      <c r="A13" s="178" t="s">
+      <c r="B11" s="170"/>
+      <c r="C11" s="170"/>
+      <c r="D11" s="170"/>
+      <c r="E11" s="170"/>
+      <c r="F11" s="170"/>
+      <c r="G11" s="170"/>
+      <c r="H11" s="170"/>
+      <c r="I11" s="170"/>
+      <c r="J11" s="170"/>
+      <c r="K11" s="170"/>
+      <c r="L11" s="171"/>
+      <c r="M11" s="172"/>
+      <c r="N11" s="171"/>
+      <c r="O11" s="172"/>
+    </row>
+    <row r="12" spans="1:16" ht="24.95" customHeight="1">
+      <c r="A12" s="170"/>
+      <c r="B12" s="170"/>
+      <c r="C12" s="170"/>
+      <c r="D12" s="170"/>
+      <c r="E12" s="170"/>
+      <c r="F12" s="170"/>
+      <c r="G12" s="170"/>
+      <c r="H12" s="170"/>
+      <c r="I12" s="170"/>
+      <c r="J12" s="170"/>
+      <c r="K12" s="170"/>
+      <c r="L12" s="172"/>
+      <c r="M12" s="172"/>
+      <c r="N12" s="172"/>
+      <c r="O12" s="172"/>
+    </row>
+    <row r="13" spans="1:16" ht="24.95" customHeight="1">
+      <c r="A13" s="170" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="178"/>
-      <c r="C13" s="178"/>
-      <c r="D13" s="178"/>
-      <c r="E13" s="178"/>
-      <c r="F13" s="178"/>
-      <c r="G13" s="178"/>
-      <c r="H13" s="178"/>
-      <c r="I13" s="178"/>
-      <c r="J13" s="178"/>
-      <c r="K13" s="178"/>
-      <c r="L13" s="179"/>
-      <c r="M13" s="180"/>
-      <c r="N13" s="179"/>
-      <c r="O13" s="180"/>
-    </row>
-    <row r="14" spans="1:16" ht="24.9" customHeight="1">
-      <c r="A14" s="178"/>
-      <c r="B14" s="178"/>
-      <c r="C14" s="178"/>
-      <c r="D14" s="178"/>
-      <c r="E14" s="178"/>
-      <c r="F14" s="178"/>
-      <c r="G14" s="178"/>
-      <c r="H14" s="178"/>
-      <c r="I14" s="178"/>
-      <c r="J14" s="178"/>
-      <c r="K14" s="178"/>
-      <c r="L14" s="180"/>
-      <c r="M14" s="180"/>
-      <c r="N14" s="180"/>
-      <c r="O14" s="180"/>
-    </row>
-    <row r="15" spans="1:16" ht="24.9" customHeight="1">
-      <c r="A15" s="178" t="s">
+      <c r="B13" s="170"/>
+      <c r="C13" s="170"/>
+      <c r="D13" s="170"/>
+      <c r="E13" s="170"/>
+      <c r="F13" s="170"/>
+      <c r="G13" s="170"/>
+      <c r="H13" s="170"/>
+      <c r="I13" s="170"/>
+      <c r="J13" s="170"/>
+      <c r="K13" s="170"/>
+      <c r="L13" s="171"/>
+      <c r="M13" s="172"/>
+      <c r="N13" s="171"/>
+      <c r="O13" s="172"/>
+    </row>
+    <row r="14" spans="1:16" ht="24.95" customHeight="1">
+      <c r="A14" s="170"/>
+      <c r="B14" s="170"/>
+      <c r="C14" s="170"/>
+      <c r="D14" s="170"/>
+      <c r="E14" s="170"/>
+      <c r="F14" s="170"/>
+      <c r="G14" s="170"/>
+      <c r="H14" s="170"/>
+      <c r="I14" s="170"/>
+      <c r="J14" s="170"/>
+      <c r="K14" s="170"/>
+      <c r="L14" s="172"/>
+      <c r="M14" s="172"/>
+      <c r="N14" s="172"/>
+      <c r="O14" s="172"/>
+    </row>
+    <row r="15" spans="1:16" ht="24.95" customHeight="1">
+      <c r="A15" s="170" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="178"/>
-      <c r="C15" s="178"/>
-      <c r="D15" s="178"/>
-      <c r="E15" s="178"/>
-      <c r="F15" s="178"/>
-      <c r="G15" s="178"/>
-      <c r="H15" s="178"/>
-      <c r="I15" s="178"/>
-      <c r="J15" s="178"/>
-      <c r="K15" s="178"/>
-      <c r="L15" s="179"/>
-      <c r="M15" s="180"/>
-      <c r="N15" s="179"/>
-      <c r="O15" s="180"/>
-    </row>
-    <row r="16" spans="1:16" ht="24.9" customHeight="1">
-      <c r="A16" s="178"/>
-      <c r="B16" s="178"/>
-      <c r="C16" s="178"/>
-      <c r="D16" s="178"/>
-      <c r="E16" s="178"/>
-      <c r="F16" s="178"/>
-      <c r="G16" s="178"/>
-      <c r="H16" s="178"/>
-      <c r="I16" s="178"/>
-      <c r="J16" s="178"/>
-      <c r="K16" s="178"/>
-      <c r="L16" s="180"/>
-      <c r="M16" s="180"/>
-      <c r="N16" s="180"/>
-      <c r="O16" s="180"/>
-    </row>
-    <row r="17" spans="1:20" ht="24.9" customHeight="1">
-      <c r="A17" s="178" t="s">
+      <c r="B15" s="170"/>
+      <c r="C15" s="170"/>
+      <c r="D15" s="170"/>
+      <c r="E15" s="170"/>
+      <c r="F15" s="170"/>
+      <c r="G15" s="170"/>
+      <c r="H15" s="170"/>
+      <c r="I15" s="170"/>
+      <c r="J15" s="170"/>
+      <c r="K15" s="170"/>
+      <c r="L15" s="171"/>
+      <c r="M15" s="172"/>
+      <c r="N15" s="171"/>
+      <c r="O15" s="172"/>
+    </row>
+    <row r="16" spans="1:16" ht="24.95" customHeight="1">
+      <c r="A16" s="170"/>
+      <c r="B16" s="170"/>
+      <c r="C16" s="170"/>
+      <c r="D16" s="170"/>
+      <c r="E16" s="170"/>
+      <c r="F16" s="170"/>
+      <c r="G16" s="170"/>
+      <c r="H16" s="170"/>
+      <c r="I16" s="170"/>
+      <c r="J16" s="170"/>
+      <c r="K16" s="170"/>
+      <c r="L16" s="172"/>
+      <c r="M16" s="172"/>
+      <c r="N16" s="172"/>
+      <c r="O16" s="172"/>
+    </row>
+    <row r="17" spans="1:20" ht="24.95" customHeight="1">
+      <c r="A17" s="170" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="178"/>
-      <c r="C17" s="178"/>
-      <c r="D17" s="178"/>
-      <c r="E17" s="178"/>
-      <c r="F17" s="178"/>
-      <c r="G17" s="178"/>
-      <c r="H17" s="178"/>
-      <c r="I17" s="178"/>
-      <c r="J17" s="178"/>
-      <c r="K17" s="178"/>
-      <c r="L17" s="179"/>
-      <c r="M17" s="180"/>
-      <c r="N17" s="179"/>
-      <c r="O17" s="180"/>
-    </row>
-    <row r="18" spans="1:20" ht="24.9" customHeight="1">
-      <c r="A18" s="178"/>
-      <c r="B18" s="178"/>
-      <c r="C18" s="178"/>
-      <c r="D18" s="178"/>
-      <c r="E18" s="178"/>
-      <c r="F18" s="178"/>
-      <c r="G18" s="178"/>
-      <c r="H18" s="178"/>
-      <c r="I18" s="178"/>
-      <c r="J18" s="178"/>
-      <c r="K18" s="178"/>
-      <c r="L18" s="180"/>
-      <c r="M18" s="180"/>
-      <c r="N18" s="180"/>
-      <c r="O18" s="180"/>
-    </row>
-    <row r="19" spans="1:20" ht="24.9" customHeight="1">
-      <c r="A19" s="178" t="s">
+      <c r="B17" s="170"/>
+      <c r="C17" s="170"/>
+      <c r="D17" s="170"/>
+      <c r="E17" s="170"/>
+      <c r="F17" s="170"/>
+      <c r="G17" s="170"/>
+      <c r="H17" s="170"/>
+      <c r="I17" s="170"/>
+      <c r="J17" s="170"/>
+      <c r="K17" s="170"/>
+      <c r="L17" s="171"/>
+      <c r="M17" s="172"/>
+      <c r="N17" s="171"/>
+      <c r="O17" s="172"/>
+    </row>
+    <row r="18" spans="1:20" ht="24.95" customHeight="1">
+      <c r="A18" s="170"/>
+      <c r="B18" s="170"/>
+      <c r="C18" s="170"/>
+      <c r="D18" s="170"/>
+      <c r="E18" s="170"/>
+      <c r="F18" s="170"/>
+      <c r="G18" s="170"/>
+      <c r="H18" s="170"/>
+      <c r="I18" s="170"/>
+      <c r="J18" s="170"/>
+      <c r="K18" s="170"/>
+      <c r="L18" s="172"/>
+      <c r="M18" s="172"/>
+      <c r="N18" s="172"/>
+      <c r="O18" s="172"/>
+    </row>
+    <row r="19" spans="1:20" ht="24.95" customHeight="1">
+      <c r="A19" s="170" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="178"/>
-      <c r="C19" s="178"/>
-      <c r="D19" s="178"/>
-      <c r="E19" s="178"/>
-      <c r="F19" s="178"/>
-      <c r="G19" s="178"/>
-      <c r="H19" s="178"/>
-      <c r="I19" s="178"/>
-      <c r="J19" s="178"/>
-      <c r="K19" s="178"/>
-      <c r="L19" s="179"/>
-      <c r="M19" s="180"/>
-      <c r="N19" s="179"/>
-      <c r="O19" s="180"/>
-    </row>
-    <row r="20" spans="1:20" ht="24.9" customHeight="1">
-      <c r="A20" s="178"/>
-      <c r="B20" s="178"/>
-      <c r="C20" s="178"/>
-      <c r="D20" s="178"/>
-      <c r="E20" s="178"/>
-      <c r="F20" s="178"/>
-      <c r="G20" s="178"/>
-      <c r="H20" s="178"/>
-      <c r="I20" s="178"/>
-      <c r="J20" s="178"/>
-      <c r="K20" s="178"/>
-      <c r="L20" s="180"/>
-      <c r="M20" s="180"/>
-      <c r="N20" s="180"/>
-      <c r="O20" s="180"/>
-    </row>
-    <row r="21" spans="1:20" ht="24.9" customHeight="1">
-      <c r="A21" s="178" t="s">
+      <c r="B19" s="170"/>
+      <c r="C19" s="170"/>
+      <c r="D19" s="170"/>
+      <c r="E19" s="170"/>
+      <c r="F19" s="170"/>
+      <c r="G19" s="170"/>
+      <c r="H19" s="170"/>
+      <c r="I19" s="170"/>
+      <c r="J19" s="170"/>
+      <c r="K19" s="170"/>
+      <c r="L19" s="171"/>
+      <c r="M19" s="172"/>
+      <c r="N19" s="171"/>
+      <c r="O19" s="172"/>
+    </row>
+    <row r="20" spans="1:20" ht="24.95" customHeight="1">
+      <c r="A20" s="170"/>
+      <c r="B20" s="170"/>
+      <c r="C20" s="170"/>
+      <c r="D20" s="170"/>
+      <c r="E20" s="170"/>
+      <c r="F20" s="170"/>
+      <c r="G20" s="170"/>
+      <c r="H20" s="170"/>
+      <c r="I20" s="170"/>
+      <c r="J20" s="170"/>
+      <c r="K20" s="170"/>
+      <c r="L20" s="172"/>
+      <c r="M20" s="172"/>
+      <c r="N20" s="172"/>
+      <c r="O20" s="172"/>
+    </row>
+    <row r="21" spans="1:20" ht="24.95" customHeight="1">
+      <c r="A21" s="170" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="178"/>
-      <c r="C21" s="178"/>
-      <c r="D21" s="178"/>
-      <c r="E21" s="178"/>
-      <c r="F21" s="178"/>
-      <c r="G21" s="178"/>
-      <c r="H21" s="178"/>
-      <c r="I21" s="178"/>
-      <c r="J21" s="178"/>
-      <c r="K21" s="178"/>
-      <c r="L21" s="179"/>
-      <c r="M21" s="180"/>
-      <c r="N21" s="179"/>
-      <c r="O21" s="180"/>
-    </row>
-    <row r="22" spans="1:20" ht="24.9" customHeight="1">
-      <c r="A22" s="178"/>
-      <c r="B22" s="178"/>
-      <c r="C22" s="178"/>
-      <c r="D22" s="178"/>
-      <c r="E22" s="178"/>
-      <c r="F22" s="178"/>
-      <c r="G22" s="178"/>
-      <c r="H22" s="178"/>
-      <c r="I22" s="178"/>
-      <c r="J22" s="178"/>
-      <c r="K22" s="178"/>
-      <c r="L22" s="180"/>
-      <c r="M22" s="180"/>
-      <c r="N22" s="180"/>
-      <c r="O22" s="180"/>
-    </row>
-    <row r="23" spans="1:20" ht="24.9" customHeight="1">
-      <c r="A23" s="178" t="s">
+      <c r="B21" s="170"/>
+      <c r="C21" s="170"/>
+      <c r="D21" s="170"/>
+      <c r="E21" s="170"/>
+      <c r="F21" s="170"/>
+      <c r="G21" s="170"/>
+      <c r="H21" s="170"/>
+      <c r="I21" s="170"/>
+      <c r="J21" s="170"/>
+      <c r="K21" s="170"/>
+      <c r="L21" s="171"/>
+      <c r="M21" s="172"/>
+      <c r="N21" s="171"/>
+      <c r="O21" s="172"/>
+    </row>
+    <row r="22" spans="1:20" ht="24.95" customHeight="1">
+      <c r="A22" s="170"/>
+      <c r="B22" s="170"/>
+      <c r="C22" s="170"/>
+      <c r="D22" s="170"/>
+      <c r="E22" s="170"/>
+      <c r="F22" s="170"/>
+      <c r="G22" s="170"/>
+      <c r="H22" s="170"/>
+      <c r="I22" s="170"/>
+      <c r="J22" s="170"/>
+      <c r="K22" s="170"/>
+      <c r="L22" s="172"/>
+      <c r="M22" s="172"/>
+      <c r="N22" s="172"/>
+      <c r="O22" s="172"/>
+    </row>
+    <row r="23" spans="1:20" ht="24.95" customHeight="1">
+      <c r="A23" s="170" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="178"/>
-      <c r="C23" s="178"/>
-      <c r="D23" s="178"/>
-      <c r="E23" s="178"/>
-      <c r="F23" s="178"/>
-      <c r="G23" s="178"/>
-      <c r="H23" s="178"/>
-      <c r="I23" s="178"/>
-      <c r="J23" s="178"/>
-      <c r="K23" s="178"/>
-      <c r="L23" s="179"/>
-      <c r="M23" s="180"/>
-      <c r="N23" s="179"/>
-      <c r="O23" s="180"/>
-    </row>
-    <row r="24" spans="1:20" ht="24.9" customHeight="1">
-      <c r="A24" s="178"/>
-      <c r="B24" s="178"/>
-      <c r="C24" s="178"/>
-      <c r="D24" s="178"/>
-      <c r="E24" s="178"/>
-      <c r="F24" s="178"/>
-      <c r="G24" s="178"/>
-      <c r="H24" s="178"/>
-      <c r="I24" s="178"/>
-      <c r="J24" s="178"/>
-      <c r="K24" s="178"/>
-      <c r="L24" s="180"/>
-      <c r="M24" s="180"/>
-      <c r="N24" s="180"/>
-      <c r="O24" s="180"/>
-    </row>
-    <row r="25" spans="1:20" ht="24.9" customHeight="1">
-      <c r="A25" s="178" t="s">
+      <c r="B23" s="170"/>
+      <c r="C23" s="170"/>
+      <c r="D23" s="170"/>
+      <c r="E23" s="170"/>
+      <c r="F23" s="170"/>
+      <c r="G23" s="170"/>
+      <c r="H23" s="170"/>
+      <c r="I23" s="170"/>
+      <c r="J23" s="170"/>
+      <c r="K23" s="170"/>
+      <c r="L23" s="171"/>
+      <c r="M23" s="172"/>
+      <c r="N23" s="171"/>
+      <c r="O23" s="172"/>
+    </row>
+    <row r="24" spans="1:20" ht="24.95" customHeight="1">
+      <c r="A24" s="170"/>
+      <c r="B24" s="170"/>
+      <c r="C24" s="170"/>
+      <c r="D24" s="170"/>
+      <c r="E24" s="170"/>
+      <c r="F24" s="170"/>
+      <c r="G24" s="170"/>
+      <c r="H24" s="170"/>
+      <c r="I24" s="170"/>
+      <c r="J24" s="170"/>
+      <c r="K24" s="170"/>
+      <c r="L24" s="172"/>
+      <c r="M24" s="172"/>
+      <c r="N24" s="172"/>
+      <c r="O24" s="172"/>
+    </row>
+    <row r="25" spans="1:20" ht="24.95" customHeight="1">
+      <c r="A25" s="170" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="178"/>
-      <c r="C25" s="178"/>
-      <c r="D25" s="178"/>
-      <c r="E25" s="178"/>
-      <c r="F25" s="178"/>
-      <c r="G25" s="178"/>
-      <c r="H25" s="178"/>
-      <c r="I25" s="178"/>
-      <c r="J25" s="178"/>
-      <c r="K25" s="178"/>
-      <c r="L25" s="179"/>
-      <c r="M25" s="180"/>
-      <c r="N25" s="179"/>
-      <c r="O25" s="180"/>
-    </row>
-    <row r="26" spans="1:20" ht="24.9" customHeight="1">
-      <c r="A26" s="178"/>
-      <c r="B26" s="178"/>
-      <c r="C26" s="178"/>
-      <c r="D26" s="178"/>
-      <c r="E26" s="178"/>
-      <c r="F26" s="178"/>
-      <c r="G26" s="178"/>
-      <c r="H26" s="178"/>
-      <c r="I26" s="178"/>
-      <c r="J26" s="178"/>
-      <c r="K26" s="178"/>
-      <c r="L26" s="180"/>
-      <c r="M26" s="180"/>
-      <c r="N26" s="180"/>
-      <c r="O26" s="180"/>
+      <c r="B25" s="170"/>
+      <c r="C25" s="170"/>
+      <c r="D25" s="170"/>
+      <c r="E25" s="170"/>
+      <c r="F25" s="170"/>
+      <c r="G25" s="170"/>
+      <c r="H25" s="170"/>
+      <c r="I25" s="170"/>
+      <c r="J25" s="170"/>
+      <c r="K25" s="170"/>
+      <c r="L25" s="171"/>
+      <c r="M25" s="172"/>
+      <c r="N25" s="171"/>
+      <c r="O25" s="172"/>
+    </row>
+    <row r="26" spans="1:20" ht="24.95" customHeight="1">
+      <c r="A26" s="170"/>
+      <c r="B26" s="170"/>
+      <c r="C26" s="170"/>
+      <c r="D26" s="170"/>
+      <c r="E26" s="170"/>
+      <c r="F26" s="170"/>
+      <c r="G26" s="170"/>
+      <c r="H26" s="170"/>
+      <c r="I26" s="170"/>
+      <c r="J26" s="170"/>
+      <c r="K26" s="170"/>
+      <c r="L26" s="172"/>
+      <c r="M26" s="172"/>
+      <c r="N26" s="172"/>
+      <c r="O26" s="172"/>
     </row>
     <row r="27" spans="1:20" ht="15" customHeight="1">
       <c r="A27" s="13"/>
@@ -12386,7 +12481,7 @@
       <c r="N27" s="13"/>
       <c r="O27" s="13"/>
     </row>
-    <row r="28" spans="1:20" ht="24.9" customHeight="1">
+    <row r="28" spans="1:20" ht="24.95" customHeight="1">
       <c r="A28" s="13"/>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
@@ -12395,15 +12490,15 @@
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
-      <c r="I28" s="177" t="s">
+      <c r="I28" s="181" t="s">
         <v>17</v>
       </c>
-      <c r="J28" s="177"/>
-      <c r="K28" s="177"/>
-      <c r="L28" s="177"/>
-      <c r="M28" s="177"/>
-      <c r="N28" s="177"/>
-      <c r="O28" s="177"/>
+      <c r="J28" s="181"/>
+      <c r="K28" s="181"/>
+      <c r="L28" s="181"/>
+      <c r="M28" s="181"/>
+      <c r="N28" s="181"/>
+      <c r="O28" s="181"/>
       <c r="T28" s="1"/>
     </row>
     <row r="29" spans="1:20" ht="22.5" customHeight="1">
@@ -12415,16 +12510,16 @@
       <c r="F29" s="16"/>
       <c r="G29" s="13"/>
       <c r="H29" s="13"/>
-      <c r="I29" s="188" t="s">
+      <c r="I29" s="166" t="s">
         <v>2</v>
       </c>
-      <c r="J29" s="188"/>
-      <c r="K29" s="190"/>
-      <c r="L29" s="190"/>
-      <c r="M29" s="190"/>
-      <c r="N29" s="190"/>
-      <c r="O29" s="190"/>
-      <c r="P29" s="190"/>
+      <c r="J29" s="166"/>
+      <c r="K29" s="168"/>
+      <c r="L29" s="168"/>
+      <c r="M29" s="168"/>
+      <c r="N29" s="168"/>
+      <c r="O29" s="168"/>
+      <c r="P29" s="168"/>
     </row>
     <row r="30" spans="1:20" ht="22.5" customHeight="1" thickBot="1">
       <c r="A30" s="16"/>
@@ -12435,14 +12530,14 @@
       <c r="F30" s="16"/>
       <c r="G30" s="13"/>
       <c r="H30" s="13"/>
-      <c r="I30" s="189"/>
-      <c r="J30" s="189"/>
-      <c r="K30" s="191"/>
-      <c r="L30" s="191"/>
-      <c r="M30" s="191"/>
-      <c r="N30" s="191"/>
-      <c r="O30" s="191"/>
-      <c r="P30" s="191"/>
+      <c r="I30" s="167"/>
+      <c r="J30" s="167"/>
+      <c r="K30" s="169"/>
+      <c r="L30" s="169"/>
+      <c r="M30" s="169"/>
+      <c r="N30" s="169"/>
+      <c r="O30" s="169"/>
+      <c r="P30" s="169"/>
     </row>
     <row r="31" spans="1:20" ht="24.75" customHeight="1">
       <c r="A31" s="16"/>
@@ -12461,7 +12556,7 @@
       <c r="N31" s="14"/>
       <c r="O31" s="14"/>
     </row>
-    <row r="32" spans="1:20" ht="24.9" customHeight="1">
+    <row r="32" spans="1:20" ht="24.95" customHeight="1">
       <c r="A32" s="16"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -12470,15 +12565,15 @@
       <c r="F32" s="16"/>
       <c r="G32" s="13"/>
       <c r="H32" s="13"/>
-      <c r="I32" s="177" t="s">
+      <c r="I32" s="181" t="s">
         <v>9</v>
       </c>
-      <c r="J32" s="177"/>
-      <c r="K32" s="177"/>
-      <c r="L32" s="177"/>
-      <c r="M32" s="177"/>
-      <c r="N32" s="177"/>
-      <c r="O32" s="177"/>
+      <c r="J32" s="181"/>
+      <c r="K32" s="181"/>
+      <c r="L32" s="181"/>
+      <c r="M32" s="181"/>
+      <c r="N32" s="181"/>
+      <c r="O32" s="181"/>
     </row>
     <row r="33" spans="1:16" ht="22.5" customHeight="1">
       <c r="A33" s="16"/>
@@ -12489,16 +12584,16 @@
       <c r="F33" s="16"/>
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
-      <c r="I33" s="188" t="s">
+      <c r="I33" s="166" t="s">
         <v>2</v>
       </c>
-      <c r="J33" s="188"/>
-      <c r="K33" s="190"/>
-      <c r="L33" s="190"/>
-      <c r="M33" s="190"/>
-      <c r="N33" s="190"/>
-      <c r="O33" s="190"/>
-      <c r="P33" s="190"/>
+      <c r="J33" s="166"/>
+      <c r="K33" s="168"/>
+      <c r="L33" s="168"/>
+      <c r="M33" s="168"/>
+      <c r="N33" s="168"/>
+      <c r="O33" s="168"/>
+      <c r="P33" s="168"/>
     </row>
     <row r="34" spans="1:16" ht="22.5" customHeight="1" thickBot="1">
       <c r="A34" s="13"/>
@@ -12509,16 +12604,16 @@
       <c r="F34" s="13"/>
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
-      <c r="I34" s="189"/>
-      <c r="J34" s="189"/>
-      <c r="K34" s="191"/>
-      <c r="L34" s="191"/>
-      <c r="M34" s="191"/>
-      <c r="N34" s="191"/>
-      <c r="O34" s="191"/>
-      <c r="P34" s="191"/>
-    </row>
-    <row r="35" spans="1:16" ht="24.9" customHeight="1">
+      <c r="I34" s="167"/>
+      <c r="J34" s="167"/>
+      <c r="K34" s="169"/>
+      <c r="L34" s="169"/>
+      <c r="M34" s="169"/>
+      <c r="N34" s="169"/>
+      <c r="O34" s="169"/>
+      <c r="P34" s="169"/>
+    </row>
+    <row r="35" spans="1:16" ht="24.95" customHeight="1">
       <c r="A35" s="13"/>
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
@@ -12535,7 +12630,7 @@
       <c r="N35" s="13"/>
       <c r="O35" s="13"/>
     </row>
-    <row r="36" spans="1:16" ht="24.9" customHeight="1">
+    <row r="36" spans="1:16" ht="24.95" customHeight="1">
       <c r="A36" s="13"/>
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
@@ -12552,7 +12647,7 @@
       <c r="N36" s="13"/>
       <c r="O36" s="13"/>
     </row>
-    <row r="37" spans="1:16" ht="24.9" customHeight="1">
+    <row r="37" spans="1:16" ht="24.95" customHeight="1">
       <c r="A37" s="13"/>
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
@@ -12569,7 +12664,7 @@
       <c r="N37" s="13"/>
       <c r="O37" s="13"/>
     </row>
-    <row r="38" spans="1:16" ht="24.9" customHeight="1">
+    <row r="38" spans="1:16" ht="24.95" customHeight="1">
       <c r="A38" s="13"/>
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
@@ -12586,7 +12681,7 @@
       <c r="N38" s="13"/>
       <c r="O38" s="13"/>
     </row>
-    <row r="39" spans="1:16" ht="24.9" customHeight="1">
+    <row r="39" spans="1:16" ht="24.95" customHeight="1">
       <c r="A39" s="13"/>
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
@@ -12603,7 +12698,7 @@
       <c r="N39" s="13"/>
       <c r="O39" s="13"/>
     </row>
-    <row r="40" spans="1:16" ht="24.9" customHeight="1">
+    <row r="40" spans="1:16" ht="24.95" customHeight="1">
       <c r="A40" s="13"/>
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
@@ -12620,7 +12715,7 @@
       <c r="N40" s="13"/>
       <c r="O40" s="13"/>
     </row>
-    <row r="41" spans="1:16" ht="24.9" customHeight="1">
+    <row r="41" spans="1:16" ht="24.95" customHeight="1">
       <c r="A41" s="13"/>
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
@@ -12637,7 +12732,7 @@
       <c r="N41" s="13"/>
       <c r="O41" s="13"/>
     </row>
-    <row r="42" spans="1:16" ht="24.9" customHeight="1">
+    <row r="42" spans="1:16" ht="24.95" customHeight="1">
       <c r="A42" s="13"/>
       <c r="B42" s="13"/>
       <c r="C42" s="13"/>
@@ -12654,7 +12749,7 @@
       <c r="N42" s="13"/>
       <c r="O42" s="13"/>
     </row>
-    <row r="43" spans="1:16" ht="24.9" customHeight="1">
+    <row r="43" spans="1:16" ht="24.95" customHeight="1">
       <c r="A43" s="13"/>
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
@@ -12671,7 +12766,7 @@
       <c r="N43" s="13"/>
       <c r="O43" s="13"/>
     </row>
-    <row r="44" spans="1:16" ht="24.9" customHeight="1">
+    <row r="44" spans="1:16" ht="24.95" customHeight="1">
       <c r="A44" s="13"/>
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
@@ -12688,7 +12783,7 @@
       <c r="N44" s="13"/>
       <c r="O44" s="13"/>
     </row>
-    <row r="45" spans="1:16" ht="24.9" customHeight="1">
+    <row r="45" spans="1:16" ht="24.95" customHeight="1">
       <c r="A45" s="13"/>
       <c r="B45" s="13"/>
       <c r="C45" s="13"/>
@@ -12705,7 +12800,7 @@
       <c r="N45" s="13"/>
       <c r="O45" s="13"/>
     </row>
-    <row r="46" spans="1:16" ht="24.9" customHeight="1">
+    <row r="46" spans="1:16" ht="24.95" customHeight="1">
       <c r="A46" s="13"/>
       <c r="B46" s="13"/>
       <c r="C46" s="13"/>
@@ -12722,18 +12817,45 @@
       <c r="N46" s="13"/>
       <c r="O46" s="13"/>
     </row>
-    <row r="47" spans="1:16" ht="24.9" customHeight="1"/>
-    <row r="48" spans="1:16" ht="24.9" customHeight="1"/>
-    <row r="49" ht="24.9" customHeight="1"/>
-    <row r="50" ht="24.9" customHeight="1"/>
-    <row r="51" ht="24.9" customHeight="1"/>
-    <row r="52" ht="24.9" customHeight="1"/>
-    <row r="53" ht="24.9" customHeight="1"/>
-    <row r="54" ht="24.9" customHeight="1"/>
-    <row r="55" ht="24.9" customHeight="1"/>
+    <row r="47" spans="1:16" ht="24.95" customHeight="1"/>
+    <row r="48" spans="1:16" ht="24.95" customHeight="1"/>
+    <row r="49" ht="24.95" customHeight="1"/>
+    <row r="50" ht="24.95" customHeight="1"/>
+    <row r="51" ht="24.95" customHeight="1"/>
+    <row r="52" ht="24.95" customHeight="1"/>
+    <row r="53" ht="24.95" customHeight="1"/>
+    <row r="54" ht="24.95" customHeight="1"/>
+    <row r="55" ht="24.95" customHeight="1"/>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="43">
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A2:P3"/>
+    <mergeCell ref="I28:O28"/>
+    <mergeCell ref="I32:O32"/>
+    <mergeCell ref="A11:K12"/>
+    <mergeCell ref="L11:M12"/>
+    <mergeCell ref="N11:O12"/>
+    <mergeCell ref="A13:K14"/>
+    <mergeCell ref="L13:M14"/>
+    <mergeCell ref="N13:O14"/>
+    <mergeCell ref="A19:K20"/>
+    <mergeCell ref="L19:M20"/>
+    <mergeCell ref="N19:O20"/>
+    <mergeCell ref="N9:O10"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="L15:M16"/>
+    <mergeCell ref="L23:M24"/>
+    <mergeCell ref="N23:O24"/>
+    <mergeCell ref="A15:K16"/>
+    <mergeCell ref="A17:K18"/>
+    <mergeCell ref="L17:M18"/>
+    <mergeCell ref="N17:O18"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="L5:M6"/>
+    <mergeCell ref="N5:O6"/>
+    <mergeCell ref="A5:K6"/>
+    <mergeCell ref="N15:O16"/>
     <mergeCell ref="I29:J30"/>
     <mergeCell ref="I33:J34"/>
     <mergeCell ref="K29:P30"/>
@@ -12750,33 +12872,6 @@
     <mergeCell ref="A9:K10"/>
     <mergeCell ref="L9:M10"/>
     <mergeCell ref="A23:K24"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="L5:M6"/>
-    <mergeCell ref="N5:O6"/>
-    <mergeCell ref="A5:K6"/>
-    <mergeCell ref="N15:O16"/>
-    <mergeCell ref="L23:M24"/>
-    <mergeCell ref="N23:O24"/>
-    <mergeCell ref="A15:K16"/>
-    <mergeCell ref="A17:K18"/>
-    <mergeCell ref="L17:M18"/>
-    <mergeCell ref="N17:O18"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A2:P3"/>
-    <mergeCell ref="I28:O28"/>
-    <mergeCell ref="I32:O32"/>
-    <mergeCell ref="A11:K12"/>
-    <mergeCell ref="L11:M12"/>
-    <mergeCell ref="N11:O12"/>
-    <mergeCell ref="A13:K14"/>
-    <mergeCell ref="L13:M14"/>
-    <mergeCell ref="N13:O14"/>
-    <mergeCell ref="A19:K20"/>
-    <mergeCell ref="L19:M20"/>
-    <mergeCell ref="N19:O20"/>
-    <mergeCell ref="N9:O10"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="L15:M16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="L7:O26 I29 K29 I33 K33">
